--- a/b2.xlsx
+++ b/b2.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5555dd42e6637534/Documents/VOJTECH 4/01.PYTHON/VizuBook/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5699D641-10A6-4E52-BB37-D8342DBA36E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B3FF17-5330-4D72-959B-C385B8837F7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="clean" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">clean!$A$1:$N$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">clean!$A$1:$N$139</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,15 +34,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Query - BookBuddy" description="Connection to the 'BookBuddy' query in the workbook." type="5" refreshedVersion="4" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Query - BookBuddy" description="Connection to the 'BookBuddy' query in the workbook." type="5" refreshedVersion="4" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=BookBuddy;Extended Properties=&quot;&quot;" command="SELECT * FROM [BookBuddy]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="408">
   <si>
     <t>Title</t>
   </si>
@@ -1242,12 +1242,36 @@
   </si>
   <si>
     <t>Czech</t>
+  </si>
+  <si>
+    <t>Utoya</t>
+  </si>
+  <si>
+    <t>Obertone, Laurent</t>
+  </si>
+  <si>
+    <t>Journalist</t>
+  </si>
+  <si>
+    <t>La mécanique générale</t>
+  </si>
+  <si>
+    <t>Le crime de l'Orient-Express</t>
+  </si>
+  <si>
+    <t>Christie, Agatha</t>
+  </si>
+  <si>
+    <t>Novelist</t>
+  </si>
+  <si>
+    <t>Librairie générale française</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -2110,14 +2134,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O137"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D78" sqref="D78"/>
+      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2184,10 +2208,10 @@
     </row>
     <row r="2" spans="1:15" s="7" customFormat="1" ht="19" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>352</v>
+        <v>404</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>353</v>
+        <v>405</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>383</v>
@@ -2196,191 +2220,195 @@
         <v>354</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1934</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2">
+        <v>217</v>
+      </c>
+      <c r="L2" s="1">
+        <v>43841</v>
+      </c>
+      <c r="M2" s="1">
+        <v>43846</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2:N3" si="0">M2-L2</f>
+        <v>5</v>
+      </c>
+      <c r="O2" s="8">
+        <f t="shared" ref="O2:O3" si="1">K2/N2</f>
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2013</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2">
+        <v>533</v>
+      </c>
+      <c r="L3" s="1">
+        <v>44193</v>
+      </c>
+      <c r="M3" s="1">
+        <v>44195</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O3" s="8">
+        <f t="shared" si="1"/>
+        <v>266.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G4" s="2">
         <v>2020</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="2">
+      <c r="J4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="2">
         <v>278</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L4" s="1">
         <v>44178</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M4" s="1">
         <v>44193</v>
       </c>
-      <c r="N2">
-        <f>M2-L2</f>
+      <c r="N4">
+        <f>M4-L4</f>
         <v>15</v>
       </c>
-      <c r="O2" s="8">
-        <f>K2/N2</f>
+      <c r="O4" s="8">
+        <f>K4/N4</f>
         <v>18.533333333333335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2006</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
-        <v>330</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3">
-        <v>420</v>
-      </c>
-      <c r="L3" s="1">
-        <v>44163</v>
-      </c>
-      <c r="M3" s="1">
-        <v>44165</v>
-      </c>
-      <c r="N3">
-        <f>M3-L3</f>
-        <v>2</v>
-      </c>
-      <c r="O3" s="8">
-        <f t="shared" ref="O3:O66" si="0">K3/N3</f>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1983</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" t="s">
-        <v>369</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4">
-        <v>291</v>
-      </c>
-      <c r="L4" s="1">
-        <v>44156</v>
-      </c>
-      <c r="M4" s="1">
-        <v>44163</v>
-      </c>
-      <c r="N4">
-        <f t="shared" ref="N4:N67" si="1">M4-L4</f>
-        <v>7</v>
-      </c>
-      <c r="O4" s="8">
-        <f t="shared" si="0"/>
-        <v>41.571428571428569</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G5" s="2">
-        <v>2017</v>
-      </c>
-      <c r="H5" t="s">
-        <v>331</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>336</v>
+        <v>2006</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>330</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K5">
-        <v>176</v>
+        <v>420</v>
       </c>
       <c r="L5" s="1">
-        <v>44150</v>
+        <v>44163</v>
       </c>
       <c r="M5" s="1">
-        <v>44155</v>
+        <v>44165</v>
       </c>
       <c r="N5">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>M5-L5</f>
+        <v>2</v>
       </c>
       <c r="O5" s="8">
-        <f t="shared" si="0"/>
-        <v>35.200000000000003</v>
+        <f t="shared" ref="O5:O68" si="2">K5/N5</f>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>387</v>
@@ -2390,91 +2418,91 @@
         <v>12</v>
       </c>
       <c r="G6" s="2">
-        <v>1980</v>
+        <v>1983</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>342</v>
+      <c r="I6" t="s">
+        <v>369</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K6">
-        <v>502</v>
+        <v>291</v>
       </c>
       <c r="L6" s="1">
-        <v>44129</v>
+        <v>44156</v>
       </c>
       <c r="M6" s="1">
-        <v>44142</v>
+        <v>44163</v>
       </c>
       <c r="N6">
-        <f>M6-L6</f>
-        <v>13</v>
+        <f t="shared" ref="N6:N69" si="3">M6-L6</f>
+        <v>7</v>
       </c>
       <c r="O6" s="8">
-        <f t="shared" si="0"/>
-        <v>38.615384615384613</v>
+        <f t="shared" si="2"/>
+        <v>41.571428571428569</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>385</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>388</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2">
-        <v>1938</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>8</v>
+        <v>2017</v>
+      </c>
+      <c r="H7" t="s">
+        <v>331</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K7">
-        <v>247</v>
+        <v>176</v>
       </c>
       <c r="L7" s="1">
-        <v>44114</v>
+        <v>44150</v>
       </c>
       <c r="M7" s="1">
-        <v>44129</v>
+        <v>44155</v>
       </c>
       <c r="N7">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="O7" s="8">
-        <f t="shared" si="0"/>
-        <v>16.466666666666665</v>
+        <f t="shared" si="2"/>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>387</v>
@@ -2484,41 +2512,41 @@
         <v>12</v>
       </c>
       <c r="G8" s="2">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K8">
-        <v>225</v>
+        <v>502</v>
       </c>
       <c r="L8" s="1">
-        <v>43931</v>
+        <v>44129</v>
       </c>
       <c r="M8" s="1">
-        <v>44053</v>
+        <v>44142</v>
       </c>
       <c r="N8">
-        <f t="shared" si="1"/>
-        <v>122</v>
+        <f>M8-L8</f>
+        <v>13</v>
       </c>
       <c r="O8" s="8">
-        <f t="shared" si="0"/>
-        <v>1.8442622950819672</v>
+        <f t="shared" si="2"/>
+        <v>38.615384615384613</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
@@ -2528,44 +2556,44 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G9" s="2">
-        <v>1865</v>
+        <v>1938</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K9">
-        <v>826</v>
+        <v>247</v>
       </c>
       <c r="L9" s="1">
-        <v>43930</v>
+        <v>44114</v>
       </c>
       <c r="M9" s="1">
-        <v>44021</v>
+        <v>44129</v>
       </c>
       <c r="N9">
-        <f t="shared" si="1"/>
-        <v>91</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="O9" s="8">
-        <f t="shared" si="0"/>
-        <v>9.0769230769230766</v>
+        <f t="shared" si="2"/>
+        <v>16.466666666666665</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>384</v>
@@ -2575,91 +2603,91 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G10" s="2">
-        <v>1988</v>
+        <v>1981</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K10">
-        <v>368</v>
+        <v>225</v>
       </c>
       <c r="L10" s="1">
-        <v>44052</v>
+        <v>43931</v>
       </c>
       <c r="M10" s="1">
-        <v>44077</v>
+        <v>44053</v>
       </c>
       <c r="N10">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <f t="shared" si="3"/>
+        <v>122</v>
       </c>
       <c r="O10" s="8">
-        <f t="shared" si="0"/>
-        <v>14.72</v>
+        <f t="shared" si="2"/>
+        <v>1.8442622950819672</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>386</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>390</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G11" s="2">
-        <v>1951</v>
+        <v>1865</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K11">
-        <v>54</v>
+        <v>826</v>
       </c>
       <c r="L11" s="1">
-        <v>43838</v>
+        <v>43930</v>
       </c>
       <c r="M11" s="1">
-        <v>43990</v>
+        <v>44021</v>
       </c>
       <c r="N11">
-        <f t="shared" si="1"/>
-        <v>152</v>
+        <f t="shared" si="3"/>
+        <v>91</v>
       </c>
       <c r="O11" s="8">
-        <f t="shared" si="0"/>
-        <v>0.35526315789473684</v>
+        <f t="shared" si="2"/>
+        <v>9.0769230769230766</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>384</v>
@@ -2669,91 +2697,91 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" s="2">
-        <v>1979</v>
+        <v>1988</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K12">
-        <v>179</v>
+        <v>368</v>
       </c>
       <c r="L12" s="1">
-        <v>44020</v>
+        <v>44052</v>
       </c>
       <c r="M12" s="1">
-        <v>44082</v>
+        <v>44077</v>
       </c>
       <c r="N12">
-        <f t="shared" si="1"/>
-        <v>62</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="O12" s="8">
-        <f t="shared" si="0"/>
-        <v>2.8870967741935485</v>
+        <f t="shared" si="2"/>
+        <v>14.72</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G13" s="2">
-        <v>1982</v>
+        <v>1951</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>49</v>
+        <v>335</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K13">
-        <v>299</v>
+        <v>54</v>
       </c>
       <c r="L13" s="1">
-        <v>44037</v>
+        <v>43838</v>
       </c>
       <c r="M13" s="1">
-        <v>44039</v>
+        <v>43990</v>
       </c>
       <c r="N13">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>152</v>
       </c>
       <c r="O13" s="8">
-        <f t="shared" si="0"/>
-        <v>149.5</v>
+        <f t="shared" si="2"/>
+        <v>0.35526315789473684</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>384</v>
@@ -2763,10 +2791,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G14" s="2">
-        <v>1964</v>
+        <v>1979</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>8</v>
@@ -2778,230 +2806,230 @@
         <v>9</v>
       </c>
       <c r="K14">
-        <v>336</v>
+        <v>179</v>
       </c>
       <c r="L14" s="1">
-        <v>44032</v>
+        <v>44020</v>
       </c>
       <c r="M14" s="1">
-        <v>44034</v>
+        <v>44082</v>
       </c>
       <c r="N14">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>62</v>
       </c>
       <c r="O14" s="8">
-        <f t="shared" si="0"/>
-        <v>168</v>
+        <f t="shared" si="2"/>
+        <v>2.8870967741935485</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>383</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G15" s="2">
-        <v>2018</v>
+        <v>1982</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>334</v>
+        <v>49</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K15">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="L15" s="1">
-        <v>44023</v>
+        <v>44037</v>
       </c>
       <c r="M15" s="1">
-        <v>44030</v>
+        <v>44039</v>
       </c>
       <c r="N15">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="O15" s="8">
-        <f t="shared" si="0"/>
-        <v>36.571428571428569</v>
+        <f t="shared" si="2"/>
+        <v>149.5</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>377</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G16" s="2">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K16">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="L16" s="1">
-        <v>44018</v>
+        <v>44032</v>
       </c>
       <c r="M16" s="1">
-        <v>44023</v>
+        <v>44034</v>
       </c>
       <c r="N16">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="O16" s="8">
-        <f t="shared" si="0"/>
-        <v>64</v>
+        <f t="shared" si="2"/>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>320</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G17" s="2">
-        <v>2005</v>
+        <v>2018</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>49</v>
+        <v>334</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K17">
-        <v>465</v>
+        <v>256</v>
       </c>
       <c r="L17" s="1">
-        <v>44004</v>
+        <v>44023</v>
       </c>
       <c r="M17" s="1">
-        <v>44017</v>
+        <v>44030</v>
       </c>
       <c r="N17">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="O17" s="8">
-        <f t="shared" si="0"/>
-        <v>35.769230769230766</v>
+        <f t="shared" si="2"/>
+        <v>36.571428571428569</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>377</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="G18" s="2">
-        <v>1930</v>
+        <v>1965</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K18">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="L18" s="1">
-        <v>43995</v>
+        <v>44018</v>
       </c>
       <c r="M18" s="1">
-        <v>44002</v>
+        <v>44023</v>
       </c>
       <c r="N18">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="O18" s="8">
-        <f t="shared" si="0"/>
-        <v>34.285714285714285</v>
+        <f t="shared" si="2"/>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>46</v>
+        <v>320</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>319</v>
+        <v>42</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2005</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>331</v>
@@ -3013,123 +3041,123 @@
         <v>9</v>
       </c>
       <c r="K19">
-        <v>618</v>
+        <v>465</v>
       </c>
       <c r="L19" s="1">
-        <v>43927</v>
+        <v>44004</v>
       </c>
       <c r="M19" s="1">
-        <v>44110</v>
+        <v>44017</v>
       </c>
       <c r="N19">
-        <f t="shared" si="1"/>
-        <v>183</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
       <c r="O19" s="8">
-        <f t="shared" si="0"/>
-        <v>3.377049180327869</v>
+        <f t="shared" si="2"/>
+        <v>35.769230769230766</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G20" s="2">
-        <v>1939</v>
+        <v>1930</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K20">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="L20" s="1">
-        <v>43982</v>
+        <v>43995</v>
       </c>
       <c r="M20" s="1">
-        <v>43984</v>
+        <v>44002</v>
       </c>
       <c r="N20">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="O20" s="8">
-        <f t="shared" si="0"/>
-        <v>125</v>
+        <f t="shared" si="2"/>
+        <v>34.285714285714285</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>354</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="2">
-        <v>2020</v>
+        <v>48</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>348</v>
+        <v>49</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K21">
-        <v>336</v>
+        <v>618</v>
       </c>
       <c r="L21" s="1">
-        <v>43975</v>
+        <v>43927</v>
       </c>
       <c r="M21" s="1">
-        <v>43977</v>
+        <v>44110</v>
       </c>
       <c r="N21">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>183</v>
       </c>
       <c r="O21" s="8">
-        <f t="shared" si="0"/>
-        <v>168</v>
+        <f t="shared" si="2"/>
+        <v>3.377049180327869</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>384</v>
@@ -3142,88 +3170,88 @@
         <v>52</v>
       </c>
       <c r="G22" s="2">
-        <v>1966</v>
+        <v>1939</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>58</v>
+        <v>339</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K22">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="L22" s="1">
-        <v>43968</v>
+        <v>43982</v>
       </c>
       <c r="M22" s="1">
-        <v>43973</v>
+        <v>43984</v>
       </c>
       <c r="N22">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="O22" s="8">
-        <f t="shared" si="0"/>
-        <v>56.8</v>
+        <f t="shared" si="2"/>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G23" s="2">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>58</v>
+        <v>348</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K23">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="L23" s="1">
-        <v>43964</v>
+        <v>43975</v>
       </c>
       <c r="M23" s="1">
-        <v>43965</v>
+        <v>43977</v>
       </c>
       <c r="N23">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="O23" s="8">
-        <f t="shared" si="0"/>
-        <v>320</v>
+        <f t="shared" si="2"/>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>384</v>
@@ -3233,420 +3261,420 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G24" s="2">
         <v>1966</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>369</v>
+        <v>58</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K24">
-        <v>126</v>
+        <v>284</v>
       </c>
       <c r="L24" s="1">
-        <v>43962</v>
+        <v>43968</v>
       </c>
       <c r="M24" s="1">
-        <v>43964</v>
+        <v>43973</v>
       </c>
       <c r="N24">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" si="0"/>
-        <v>63</v>
+        <f t="shared" si="2"/>
+        <v>56.8</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G25" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K25">
-        <v>513</v>
+        <v>320</v>
       </c>
       <c r="L25" s="1">
-        <v>43947</v>
+        <v>43964</v>
       </c>
       <c r="M25" s="1">
-        <v>43956</v>
+        <v>43965</v>
       </c>
       <c r="N25">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="O25" s="8">
-        <f t="shared" si="0"/>
-        <v>57</v>
+        <f t="shared" si="2"/>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>375</v>
+        <v>62</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>376</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="G26" s="2">
-        <v>2019</v>
+        <v>1966</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K26">
-        <v>646</v>
+        <v>126</v>
       </c>
       <c r="L26" s="1">
-        <v>43942</v>
+        <v>43962</v>
       </c>
       <c r="M26" s="1">
-        <v>43947</v>
+        <v>43964</v>
       </c>
       <c r="N26">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="O26" s="8">
-        <f t="shared" si="0"/>
-        <v>129.19999999999999</v>
+        <f t="shared" si="2"/>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="G27" s="2">
-        <v>1961</v>
+        <v>2017</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>369</v>
+        <v>96</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K27">
-        <v>568</v>
+        <v>513</v>
       </c>
       <c r="L27" s="1">
-        <v>43927</v>
+        <v>43947</v>
       </c>
       <c r="M27" s="1">
-        <v>43941</v>
+        <v>43956</v>
       </c>
       <c r="N27">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
       <c r="O27" s="8">
-        <f t="shared" si="0"/>
-        <v>40.571428571428569</v>
+        <f t="shared" si="2"/>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>70</v>
+        <v>375</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>392</v>
+        <v>20</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G28" s="2">
-        <v>1929</v>
+        <v>2019</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K28">
-        <v>299</v>
+        <v>646</v>
       </c>
       <c r="L28" s="1">
-        <v>43919</v>
+        <v>43942</v>
       </c>
       <c r="M28" s="1">
-        <v>43926</v>
+        <v>43947</v>
       </c>
       <c r="N28">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="O28" s="8">
-        <f t="shared" si="0"/>
-        <v>42.714285714285715</v>
+        <f t="shared" si="2"/>
+        <v>129.19999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G29" s="2">
-        <v>1844</v>
+        <v>1961</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K29">
-        <v>1180</v>
+        <v>568</v>
       </c>
       <c r="L29" s="1">
-        <v>43839</v>
+        <v>43927</v>
       </c>
       <c r="M29" s="1">
-        <v>43884</v>
+        <v>43941</v>
       </c>
       <c r="N29">
-        <f t="shared" si="1"/>
-        <v>45</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="O29" s="8">
-        <f t="shared" si="0"/>
-        <v>26.222222222222221</v>
+        <f t="shared" si="2"/>
+        <v>40.571428571428569</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>76</v>
+        <v>374</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G30" s="2">
-        <v>1979</v>
+        <v>1929</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K30">
-        <v>567</v>
+        <v>299</v>
       </c>
       <c r="L30" s="1">
-        <v>43814</v>
+        <v>43919</v>
       </c>
       <c r="M30" s="1">
-        <v>43891</v>
+        <v>43926</v>
       </c>
       <c r="N30">
-        <f t="shared" si="1"/>
-        <v>77</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="O30" s="8">
-        <f t="shared" si="0"/>
-        <v>7.3636363636363633</v>
+        <f t="shared" si="2"/>
+        <v>42.714285714285715</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G31" s="2">
-        <v>2019</v>
+        <v>1844</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K31">
-        <v>408</v>
+        <v>1180</v>
       </c>
       <c r="L31" s="1">
-        <v>43834</v>
+        <v>43839</v>
       </c>
       <c r="M31" s="1">
-        <v>43836</v>
+        <v>43884</v>
       </c>
       <c r="N31">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>45</v>
       </c>
       <c r="O31" s="8">
-        <f t="shared" si="0"/>
-        <v>204</v>
+        <f t="shared" si="2"/>
+        <v>26.222222222222221</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="G32" s="2">
-        <v>1957</v>
+        <v>1979</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K32">
-        <v>170</v>
+        <v>567</v>
       </c>
       <c r="L32" s="1">
-        <v>43801</v>
+        <v>43814</v>
       </c>
       <c r="M32" s="1">
-        <v>43807</v>
+        <v>43891</v>
       </c>
       <c r="N32">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>77</v>
       </c>
       <c r="O32" s="8">
-        <f t="shared" si="0"/>
-        <v>28.333333333333332</v>
+        <f t="shared" si="2"/>
+        <v>7.3636363636363633</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>384</v>
@@ -3656,369 +3684,369 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G33" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>58</v>
+        <v>348</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K33">
-        <v>319</v>
+        <v>408</v>
       </c>
       <c r="L33" s="1">
-        <v>43799</v>
+        <v>43834</v>
       </c>
       <c r="M33" s="1">
-        <v>43800</v>
+        <v>43836</v>
       </c>
       <c r="N33">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="O33" s="8">
-        <f t="shared" si="0"/>
-        <v>319</v>
+        <f t="shared" si="2"/>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="G34" s="2">
-        <v>2018</v>
+        <v>1957</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K34">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="L34" s="1">
-        <v>43780</v>
+        <v>43801</v>
       </c>
       <c r="M34" s="1">
-        <v>43788</v>
+        <v>43807</v>
       </c>
       <c r="N34">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="O34" s="8">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>28.333333333333332</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>358</v>
+        <v>85</v>
       </c>
       <c r="G35" s="2">
-        <v>1993</v>
+        <v>2018</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>369</v>
+        <v>58</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K35">
-        <v>999</v>
+        <v>319</v>
       </c>
       <c r="L35" s="1">
-        <v>43762</v>
+        <v>43799</v>
       </c>
       <c r="M35" s="1">
-        <v>43773</v>
+        <v>43800</v>
       </c>
       <c r="N35">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="O35" s="8">
-        <f t="shared" si="0"/>
-        <v>90.818181818181813</v>
+        <f t="shared" si="2"/>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>354</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="G36" s="2">
-        <v>1818</v>
+        <v>2018</v>
       </c>
       <c r="H36" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36">
+        <v>400</v>
+      </c>
+      <c r="L36" s="1">
+        <v>43780</v>
+      </c>
+      <c r="M36" s="1">
+        <v>43788</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K36">
-        <v>240</v>
-      </c>
-      <c r="L36" s="1">
-        <v>43752</v>
-      </c>
-      <c r="M36" s="1">
-        <v>43759</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
       <c r="O36" s="8">
-        <f t="shared" si="0"/>
-        <v>34.285714285714285</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>354</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>95</v>
+        <v>358</v>
       </c>
       <c r="G37" s="2">
-        <v>2018</v>
+        <v>1993</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>96</v>
+        <v>369</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K37">
-        <v>272</v>
+        <v>999</v>
       </c>
       <c r="L37" s="1">
-        <v>43743</v>
+        <v>43762</v>
       </c>
       <c r="M37" s="1">
-        <v>43749</v>
+        <v>43773</v>
       </c>
       <c r="N37">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="O37" s="8">
-        <f t="shared" si="0"/>
-        <v>45.333333333333336</v>
+        <f t="shared" si="2"/>
+        <v>90.818181818181813</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="G38" s="2">
-        <v>1866</v>
+        <v>1818</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K38">
-        <v>528</v>
+        <v>240</v>
       </c>
       <c r="L38" s="1">
-        <v>43715</v>
+        <v>43752</v>
       </c>
       <c r="M38" s="1">
-        <v>43741</v>
+        <v>43759</v>
       </c>
       <c r="N38">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="O38" s="8">
-        <f t="shared" si="0"/>
-        <v>20.307692307692307</v>
+        <f t="shared" si="2"/>
+        <v>34.285714285714285</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>359</v>
+        <v>93</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G39" s="2">
-        <v>1970</v>
+        <v>2018</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K39">
-        <v>348</v>
+        <v>272</v>
       </c>
       <c r="L39" s="1">
-        <v>43697</v>
+        <v>43743</v>
       </c>
       <c r="M39" s="1">
-        <v>43708</v>
+        <v>43749</v>
       </c>
       <c r="N39">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="O39" s="8">
-        <f t="shared" si="0"/>
-        <v>31.636363636363637</v>
+        <f t="shared" si="2"/>
+        <v>45.333333333333336</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G40" s="2">
-        <v>1972</v>
+        <v>1866</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K40">
-        <v>416</v>
+        <v>528</v>
       </c>
       <c r="L40" s="1">
-        <v>43680</v>
+        <v>43715</v>
       </c>
       <c r="M40" s="1">
-        <v>43692</v>
+        <v>43741</v>
       </c>
       <c r="N40">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>26</v>
       </c>
       <c r="O40" s="8">
-        <f t="shared" si="0"/>
-        <v>34.666666666666664</v>
+        <f t="shared" si="2"/>
+        <v>20.307692307692307</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>104</v>
+        <v>359</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>384</v>
@@ -4028,91 +4056,91 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="G41" s="2">
-        <v>2013</v>
+        <v>1970</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>336</v>
+        <v>49</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K41">
-        <v>463</v>
+        <v>348</v>
       </c>
       <c r="L41" s="1">
-        <v>43663</v>
+        <v>43697</v>
       </c>
       <c r="M41" s="1">
-        <v>43677</v>
+        <v>43708</v>
       </c>
       <c r="N41">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="O41" s="8">
-        <f t="shared" si="0"/>
-        <v>33.071428571428569</v>
+        <f t="shared" si="2"/>
+        <v>31.636363636363637</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>248</v>
+        <v>103</v>
       </c>
       <c r="G42" s="2">
-        <v>1965</v>
+        <v>1972</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K42">
-        <v>256</v>
+        <v>416</v>
       </c>
       <c r="L42" s="1">
-        <v>43640</v>
+        <v>43680</v>
       </c>
       <c r="M42" s="1">
-        <v>43659</v>
+        <v>43692</v>
       </c>
       <c r="N42">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="O42" s="8">
-        <f t="shared" si="0"/>
-        <v>13.473684210526315</v>
+        <f t="shared" si="2"/>
+        <v>34.666666666666664</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>384</v>
@@ -4122,185 +4150,185 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G43" s="2">
-        <v>1997</v>
+        <v>2013</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K43">
-        <v>423</v>
+        <v>463</v>
       </c>
       <c r="L43" s="1">
-        <v>43618</v>
+        <v>43663</v>
       </c>
       <c r="M43" s="1">
-        <v>43636</v>
+        <v>43677</v>
       </c>
       <c r="N43">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="O43" s="8">
-        <f t="shared" si="0"/>
-        <v>23.5</v>
+        <f t="shared" si="2"/>
+        <v>33.071428571428569</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>360</v>
+        <v>248</v>
       </c>
       <c r="G44" s="2">
-        <v>2018</v>
+        <v>1965</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K44">
-        <v>341</v>
+        <v>256</v>
       </c>
       <c r="L44" s="1">
-        <v>43616</v>
+        <v>43640</v>
       </c>
       <c r="M44" s="1">
-        <v>43617</v>
+        <v>43659</v>
       </c>
       <c r="N44">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="O44" s="8">
-        <f t="shared" si="0"/>
-        <v>341</v>
+        <f t="shared" si="2"/>
+        <v>13.473684210526315</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G45" s="2">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K45">
-        <v>610</v>
+        <v>423</v>
       </c>
       <c r="L45" s="1">
-        <v>43596</v>
+        <v>43618</v>
       </c>
       <c r="M45" s="1">
-        <v>43606</v>
+        <v>43636</v>
       </c>
       <c r="N45">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>18</v>
       </c>
       <c r="O45" s="8">
-        <f t="shared" si="0"/>
-        <v>61</v>
+        <f t="shared" si="2"/>
+        <v>23.5</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>361</v>
+        <v>109</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G46" s="2">
-        <v>1984</v>
+        <v>2018</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>49</v>
+        <v>348</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K46">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="L46" s="1">
-        <v>43589</v>
+        <v>43616</v>
       </c>
       <c r="M46" s="1">
-        <v>43594</v>
+        <v>43617</v>
       </c>
       <c r="N46">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="O46" s="8">
-        <f t="shared" si="0"/>
-        <v>70.400000000000006</v>
+        <f t="shared" si="2"/>
+        <v>341</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>384</v>
@@ -4310,239 +4338,245 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G47" s="2">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K47">
-        <v>288</v>
+        <v>610</v>
       </c>
       <c r="L47" s="1">
-        <v>43578</v>
+        <v>43596</v>
       </c>
       <c r="M47" s="1">
-        <v>43588</v>
+        <v>43606</v>
       </c>
       <c r="N47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="O47" s="8">
-        <f t="shared" si="0"/>
-        <v>28.8</v>
+        <f t="shared" si="2"/>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>118</v>
+        <v>361</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="G48" s="2">
-        <v>1876</v>
+        <v>1984</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>332</v>
+        <v>49</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K48">
-        <v>236</v>
+        <v>352</v>
       </c>
       <c r="L48" s="1">
-        <v>43041</v>
+        <v>43589</v>
       </c>
       <c r="M48" s="1">
-        <v>43048</v>
+        <v>43594</v>
       </c>
       <c r="N48">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="O48" s="8">
-        <f t="shared" si="0"/>
-        <v>33.714285714285715</v>
+        <f t="shared" si="2"/>
+        <v>70.400000000000006</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>354</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G49" s="2">
-        <v>1813</v>
+        <v>2014</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K49">
-        <v>414</v>
+        <v>288</v>
       </c>
       <c r="L49" s="1">
-        <v>42875</v>
+        <v>43578</v>
       </c>
       <c r="M49" s="1">
-        <v>42881</v>
+        <v>43588</v>
       </c>
       <c r="N49">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="O49" s="8">
-        <f t="shared" si="0"/>
-        <v>69</v>
+        <f t="shared" si="2"/>
+        <v>28.8</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>125</v>
+        <v>319</v>
       </c>
       <c r="G50" s="2">
-        <v>1869</v>
+        <v>1876</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K50">
-        <v>999</v>
+        <v>236</v>
+      </c>
+      <c r="L50" s="1">
+        <v>43041</v>
+      </c>
+      <c r="M50" s="1">
+        <v>43048</v>
       </c>
       <c r="N50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O50" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="O50" s="8">
+        <f t="shared" si="2"/>
+        <v>33.714285714285715</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>372</v>
+        <v>120</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>373</v>
+        <v>121</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>20</v>
+        <v>383</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G51" s="2">
-        <v>1928</v>
+        <v>1813</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K51">
-        <v>323</v>
+        <v>414</v>
       </c>
       <c r="L51" s="1">
-        <v>42675</v>
+        <v>42875</v>
       </c>
       <c r="M51" s="1">
-        <v>42682</v>
+        <v>42881</v>
       </c>
       <c r="N51">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="O51" s="8">
-        <f t="shared" si="0"/>
-        <v>46.142857142857146</v>
+        <f t="shared" si="2"/>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>383</v>
+        <v>20</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>319</v>
+        <v>125</v>
       </c>
       <c r="G52" s="2">
-        <v>1878</v>
+        <v>1869</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>8</v>
@@ -4551,79 +4585,73 @@
         <v>369</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K52">
-        <v>338</v>
-      </c>
-      <c r="L52" s="1">
-        <v>43477</v>
-      </c>
-      <c r="M52" s="1">
-        <v>43485</v>
+        <v>999</v>
       </c>
       <c r="N52">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="O52" s="8">
-        <f t="shared" si="0"/>
-        <v>42.25</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>129</v>
+        <v>372</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>130</v>
+        <v>373</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>393</v>
+        <v>20</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G53" s="2">
-        <v>2018</v>
+        <v>1928</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K53">
-        <v>755</v>
+        <v>323</v>
       </c>
       <c r="L53" s="1">
-        <v>43108</v>
+        <v>42675</v>
       </c>
       <c r="M53" s="1">
-        <v>43111</v>
+        <v>42682</v>
       </c>
       <c r="N53">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="O53" s="8">
-        <f t="shared" si="0"/>
-        <v>251.66666666666666</v>
+        <f t="shared" si="2"/>
+        <v>46.142857142857146</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>383</v>
@@ -4633,54 +4661,54 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>134</v>
+        <v>319</v>
       </c>
       <c r="G54" s="2">
-        <v>1954</v>
+        <v>1878</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K54">
-        <v>250</v>
+        <v>338</v>
       </c>
       <c r="L54" s="1">
-        <v>43411</v>
+        <v>43477</v>
       </c>
       <c r="M54" s="1">
-        <v>43423</v>
+        <v>43485</v>
       </c>
       <c r="N54">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="O54" s="8">
-        <f t="shared" si="0"/>
-        <v>20.833333333333332</v>
+        <f t="shared" si="2"/>
+        <v>42.25</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="G55" s="2">
         <v>2018</v>
@@ -4689,85 +4717,85 @@
         <v>331</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K55">
-        <v>288</v>
+        <v>755</v>
       </c>
       <c r="L55" s="1">
-        <v>43496</v>
+        <v>43108</v>
       </c>
       <c r="M55" s="1">
-        <v>43506</v>
+        <v>43111</v>
       </c>
       <c r="N55">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="O55" s="8">
-        <f t="shared" si="0"/>
-        <v>28.8</v>
+        <f t="shared" si="2"/>
+        <v>251.66666666666666</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G56" s="2">
-        <v>1898</v>
+        <v>1954</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K56">
-        <v>61</v>
+        <v>250</v>
       </c>
       <c r="L56" s="1">
-        <v>43424</v>
+        <v>43411</v>
       </c>
       <c r="M56" s="1">
-        <v>43425</v>
+        <v>43423</v>
       </c>
       <c r="N56">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="O56" s="8">
-        <f t="shared" si="0"/>
-        <v>61</v>
+        <f t="shared" si="2"/>
+        <v>20.833333333333332</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>387</v>
@@ -4777,518 +4805,518 @@
         <v>28</v>
       </c>
       <c r="G57" s="2">
-        <v>1978</v>
+        <v>2018</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>310</v>
+        <v>96</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K57">
-        <v>64</v>
+        <v>288</v>
       </c>
       <c r="L57" s="1">
-        <v>43402</v>
+        <v>43496</v>
       </c>
       <c r="M57" s="1">
-        <v>43403</v>
+        <v>43506</v>
       </c>
       <c r="N57">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="O57" s="8">
-        <f t="shared" si="0"/>
-        <v>64</v>
+        <f t="shared" si="2"/>
+        <v>28.8</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G58" s="2">
-        <v>2018</v>
+        <v>1898</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>96</v>
+        <v>335</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K58">
-        <v>437</v>
+        <v>61</v>
       </c>
       <c r="L58" s="1">
-        <v>43381</v>
+        <v>43424</v>
       </c>
       <c r="M58" s="1">
-        <v>43390</v>
+        <v>43425</v>
       </c>
       <c r="N58">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="O58" s="8">
-        <f t="shared" si="0"/>
-        <v>48.555555555555557</v>
+        <f t="shared" si="2"/>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="G59" s="2">
-        <v>1925</v>
+        <v>1978</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>369</v>
+        <v>310</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K59">
-        <v>859</v>
+        <v>64</v>
       </c>
       <c r="L59" s="1">
-        <v>42585</v>
+        <v>43402</v>
       </c>
       <c r="M59" s="1">
-        <v>42627</v>
+        <v>43403</v>
       </c>
       <c r="N59">
-        <f t="shared" si="1"/>
-        <v>42</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="O59" s="8">
-        <f t="shared" si="0"/>
-        <v>20.452380952380953</v>
+        <f t="shared" si="2"/>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G60" s="2">
-        <v>1971</v>
+        <v>2018</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>344</v>
+        <v>96</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K60">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="L60" s="1">
-        <v>43518</v>
+        <v>43381</v>
       </c>
       <c r="M60" s="1">
-        <v>43542</v>
+        <v>43390</v>
       </c>
       <c r="N60">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
       <c r="O60" s="8">
-        <f t="shared" si="0"/>
-        <v>17.333333333333332</v>
+        <f t="shared" si="2"/>
+        <v>48.555555555555557</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>362</v>
+        <v>145</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>364</v>
+        <v>146</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
-        <v>363</v>
+        <v>99</v>
       </c>
       <c r="G61" s="2">
-        <v>2015</v>
+        <v>1925</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K61">
-        <v>87</v>
+        <v>859</v>
       </c>
       <c r="L61" s="1">
-        <v>42871</v>
+        <v>42585</v>
       </c>
       <c r="M61" s="1">
-        <v>42877</v>
+        <v>42627</v>
       </c>
       <c r="N61">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>42</v>
       </c>
       <c r="O61" s="8">
-        <f t="shared" si="0"/>
-        <v>14.5</v>
+        <f t="shared" si="2"/>
+        <v>20.452380952380953</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G62" s="2">
-        <v>2015</v>
+        <v>1971</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>49</v>
+        <v>344</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K62">
-        <v>348</v>
+        <v>416</v>
       </c>
       <c r="L62" s="1">
-        <v>42947</v>
+        <v>43518</v>
       </c>
       <c r="M62" s="1">
-        <v>42949</v>
+        <v>43542</v>
       </c>
       <c r="N62">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>24</v>
       </c>
       <c r="O62" s="8">
-        <f t="shared" si="0"/>
-        <v>174</v>
+        <f t="shared" si="2"/>
+        <v>17.333333333333332</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>154</v>
+        <v>362</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>155</v>
+        <v>364</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
-        <v>156</v>
+        <v>363</v>
       </c>
       <c r="G63" s="2">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K63">
-        <v>270</v>
+        <v>87</v>
       </c>
       <c r="L63" s="1">
-        <v>43246</v>
+        <v>42871</v>
       </c>
       <c r="M63" s="1">
-        <v>43253</v>
+        <v>42877</v>
       </c>
       <c r="N63">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="O63" s="8">
-        <f t="shared" si="0"/>
-        <v>38.571428571428569</v>
+        <f t="shared" si="2"/>
+        <v>14.5</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c r="G64" s="2">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>336</v>
+        <v>49</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K64">
-        <v>148</v>
+        <v>348</v>
       </c>
       <c r="L64" s="1">
-        <v>42745</v>
+        <v>42947</v>
       </c>
       <c r="M64" s="1">
-        <v>43028</v>
+        <v>42949</v>
       </c>
       <c r="N64">
-        <f t="shared" si="1"/>
-        <v>283</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="O64" s="8">
-        <f t="shared" si="0"/>
-        <v>0.52296819787985871</v>
+        <f t="shared" si="2"/>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G65" s="2">
-        <v>1962</v>
+        <v>2009</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K65">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="L65" s="1">
-        <v>43328</v>
+        <v>43246</v>
       </c>
       <c r="M65" s="1">
-        <v>43344</v>
+        <v>43253</v>
       </c>
       <c r="N65">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="O65" s="8">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>38.571428571428569</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C66" s="2"/>
-      <c r="D66" s="2" t="s">
-        <v>354</v>
-      </c>
+      <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="G66" s="2">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>96</v>
+        <v>336</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K66">
-        <v>352</v>
+        <v>148</v>
       </c>
       <c r="L66" s="1">
-        <v>43092</v>
+        <v>42745</v>
       </c>
       <c r="M66" s="1">
-        <v>43191</v>
+        <v>43028</v>
       </c>
       <c r="N66">
-        <f t="shared" si="1"/>
-        <v>99</v>
+        <f t="shared" si="3"/>
+        <v>283</v>
       </c>
       <c r="O66" s="8">
-        <f t="shared" si="0"/>
-        <v>3.5555555555555554</v>
+        <f t="shared" si="2"/>
+        <v>0.52296819787985871</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>371</v>
+        <v>158</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G67" s="2">
-        <v>1994</v>
+        <v>1962</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K67">
-        <v>316</v>
+        <v>240</v>
       </c>
       <c r="L67" s="1">
-        <v>43183</v>
+        <v>43328</v>
       </c>
       <c r="M67" s="1">
-        <v>43198</v>
+        <v>43344</v>
       </c>
       <c r="N67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="O67" s="8">
+        <f t="shared" si="2"/>
         <v>15</v>
-      </c>
-      <c r="O67" s="8">
-        <f t="shared" ref="O67:O129" si="2">K67/N67</f>
-        <v>21.066666666666666</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
         <v>354</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G68" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>331</v>
@@ -5297,126 +5325,126 @@
         <v>96</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K68">
-        <v>188</v>
+        <v>352</v>
       </c>
       <c r="L68" s="1">
-        <v>43166</v>
+        <v>43092</v>
       </c>
       <c r="M68" s="1">
-        <v>43175</v>
+        <v>43191</v>
       </c>
       <c r="N68">
-        <f t="shared" ref="N68:N130" si="3">M68-L68</f>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>99</v>
       </c>
       <c r="O68" s="8">
         <f t="shared" si="2"/>
-        <v>20.888888888888889</v>
+        <v>3.5555555555555554</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>169</v>
+        <v>371</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="G69" s="2">
-        <v>2014</v>
+        <v>1994</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>58</v>
+        <v>336</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K69">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="L69" s="1">
-        <v>43175</v>
+        <v>43183</v>
       </c>
       <c r="M69" s="1">
-        <v>43177</v>
+        <v>43198</v>
       </c>
       <c r="N69">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O69" s="8">
-        <f t="shared" si="2"/>
-        <v>128</v>
+        <f t="shared" ref="O69:O131" si="4">K69/N69</f>
+        <v>21.066666666666666</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>354</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G70" s="2">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>336</v>
+        <v>96</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K70">
-        <v>272</v>
+        <v>188</v>
       </c>
       <c r="L70" s="1">
-        <v>42977</v>
+        <v>43166</v>
       </c>
       <c r="M70" s="1">
-        <v>42995</v>
+        <v>43175</v>
       </c>
       <c r="N70">
-        <f t="shared" si="3"/>
-        <v>18</v>
+        <f t="shared" ref="N70:N132" si="5">M70-L70</f>
+        <v>9</v>
       </c>
       <c r="O70" s="8">
-        <f t="shared" si="2"/>
-        <v>15.111111111111111</v>
+        <f t="shared" si="4"/>
+        <v>20.888888888888889</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>383</v>
@@ -5426,91 +5454,91 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G71" s="2">
-        <v>1861</v>
+        <v>2014</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>369</v>
+        <v>58</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K71">
-        <v>460</v>
+        <v>256</v>
       </c>
       <c r="L71" s="1">
-        <v>42652</v>
+        <v>43175</v>
       </c>
       <c r="M71" s="1">
-        <v>42664</v>
+        <v>43177</v>
       </c>
       <c r="N71">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="O71" s="8">
-        <f t="shared" si="2"/>
-        <v>38.333333333333336</v>
+        <f t="shared" si="4"/>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="G72" s="2">
-        <v>1924</v>
+        <v>2014</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K72">
-        <v>729</v>
+        <v>272</v>
       </c>
       <c r="L72" s="1">
-        <v>43049</v>
+        <v>42977</v>
       </c>
       <c r="M72" s="1">
-        <v>43091</v>
+        <v>42995</v>
       </c>
       <c r="N72">
-        <f t="shared" si="3"/>
-        <v>42</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="O72" s="8">
-        <f t="shared" si="2"/>
-        <v>17.357142857142858</v>
+        <f t="shared" si="4"/>
+        <v>15.111111111111111</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>383</v>
@@ -5520,101 +5548,101 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2" t="s">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="G73" s="2">
-        <v>2015</v>
+        <v>1861</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>58</v>
+        <v>369</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K73">
-        <v>224</v>
+        <v>460</v>
       </c>
       <c r="L73" s="1">
-        <v>42527</v>
+        <v>42652</v>
       </c>
       <c r="M73" s="1">
-        <v>42528</v>
+        <v>42664</v>
       </c>
       <c r="N73">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="O73" s="8">
-        <f t="shared" si="2"/>
-        <v>224</v>
+        <f t="shared" si="4"/>
+        <v>38.333333333333336</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="G74" s="2">
-        <v>1960</v>
+        <v>1924</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K74">
-        <v>307</v>
+        <v>729</v>
       </c>
       <c r="L74" s="1">
-        <v>43227</v>
+        <v>43049</v>
       </c>
       <c r="M74" s="1">
-        <v>43240</v>
+        <v>43091</v>
       </c>
       <c r="N74">
-        <f t="shared" si="3"/>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>42</v>
       </c>
       <c r="O74" s="8">
-        <f t="shared" si="2"/>
-        <v>23.615384615384617</v>
+        <f t="shared" si="4"/>
+        <v>17.357142857142858</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>378</v>
+        <v>179</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G75" s="2">
         <v>2015</v>
@@ -5623,35 +5651,35 @@
         <v>331</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K75">
-        <v>90</v>
+        <v>224</v>
       </c>
       <c r="L75" s="1">
-        <v>42632</v>
+        <v>42527</v>
       </c>
       <c r="M75" s="1">
-        <v>42633</v>
+        <v>42528</v>
       </c>
       <c r="N75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O75" s="8">
-        <f t="shared" si="2"/>
-        <v>90</v>
+        <f t="shared" si="4"/>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>384</v>
@@ -5661,1902 +5689,1910 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G76" s="2">
-        <v>2014</v>
+        <v>1960</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K76">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="L76" s="1">
-        <v>43283</v>
+        <v>43227</v>
       </c>
       <c r="M76" s="1">
-        <v>43291</v>
+        <v>43240</v>
       </c>
       <c r="N76">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="O76" s="8">
-        <f t="shared" si="2"/>
-        <v>35.75</v>
+        <f t="shared" si="4"/>
+        <v>23.615384615384617</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G77" s="2">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>346</v>
+        <v>49</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K77">
-        <v>386</v>
+        <v>90</v>
       </c>
       <c r="L77" s="1">
-        <v>42941</v>
+        <v>42632</v>
       </c>
       <c r="M77" s="1">
-        <v>42950</v>
+        <v>42633</v>
       </c>
       <c r="N77">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="O77" s="8">
-        <f t="shared" si="2"/>
-        <v>42.888888888888886</v>
+        <f t="shared" si="4"/>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
-        <v>28</v>
+        <v>188</v>
       </c>
       <c r="G78" s="2">
-        <v>1967</v>
+        <v>2014</v>
       </c>
       <c r="H78" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K78">
+        <v>286</v>
+      </c>
+      <c r="L78" s="1">
+        <v>43283</v>
+      </c>
+      <c r="M78" s="1">
+        <v>43291</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="I78" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K78">
-        <v>432</v>
-      </c>
-      <c r="L78" s="1">
-        <v>42936</v>
-      </c>
-      <c r="M78" s="1">
-        <v>42940</v>
-      </c>
-      <c r="N78">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
       <c r="O78" s="8">
-        <f t="shared" si="2"/>
-        <v>108</v>
+        <f t="shared" si="4"/>
+        <v>35.75</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="G79" s="2">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K79">
-        <v>276</v>
+        <v>386</v>
       </c>
       <c r="L79" s="1">
-        <v>43028</v>
+        <v>42941</v>
       </c>
       <c r="M79" s="1">
-        <v>43036</v>
+        <v>42950</v>
       </c>
       <c r="N79">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="O79" s="8">
-        <f t="shared" si="2"/>
-        <v>34.5</v>
+        <f t="shared" si="4"/>
+        <v>42.888888888888886</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>196</v>
+        <v>379</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G80" s="2">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K80">
-        <v>157</v>
+        <v>432</v>
       </c>
       <c r="L80" s="1">
-        <v>42639</v>
+        <v>42936</v>
       </c>
       <c r="M80" s="1">
-        <v>42640</v>
+        <v>42940</v>
       </c>
       <c r="N80">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="O80" s="8">
-        <f t="shared" si="2"/>
-        <v>157</v>
+        <f t="shared" si="4"/>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="G81" s="2">
-        <v>1959</v>
+        <v>2017</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K81">
-        <v>341</v>
+        <v>276</v>
       </c>
       <c r="L81" s="1">
-        <v>42418</v>
+        <v>43028</v>
       </c>
       <c r="M81" s="1">
-        <v>42427</v>
+        <v>43036</v>
       </c>
       <c r="N81">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="O81" s="8">
-        <f t="shared" si="2"/>
-        <v>37.888888888888886</v>
+        <f t="shared" si="4"/>
+        <v>34.5</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>365</v>
+        <v>195</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="G82" s="2">
-        <v>2015</v>
+        <v>1969</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K82">
-        <v>362</v>
+        <v>157</v>
       </c>
       <c r="L82" s="1">
-        <v>42531</v>
+        <v>42639</v>
       </c>
       <c r="M82" s="1">
-        <v>42540</v>
+        <v>42640</v>
       </c>
       <c r="N82">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="O82" s="8">
-        <f t="shared" si="2"/>
-        <v>40.222222222222221</v>
+        <f t="shared" si="4"/>
+        <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>366</v>
+        <v>197</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="G83" s="2">
-        <v>1751</v>
+        <v>1959</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I83" t="s">
-        <v>343</v>
+        <v>8</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K83">
-        <v>110</v>
+        <v>341</v>
       </c>
       <c r="L83" s="1">
-        <v>42729</v>
+        <v>42418</v>
       </c>
       <c r="M83" s="1">
-        <v>42732</v>
+        <v>42427</v>
       </c>
       <c r="N83">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="O83" s="8">
-        <f t="shared" si="2"/>
-        <v>36.666666666666664</v>
+        <f t="shared" si="4"/>
+        <v>37.888888888888886</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>203</v>
+        <v>365</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
-        <v>28</v>
+        <v>200</v>
       </c>
       <c r="G84" s="2">
-        <v>1939</v>
+        <v>2015</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I84" s="2" t="s">
         <v>369</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K84">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="L84" s="1">
-        <v>42541</v>
+        <v>42531</v>
       </c>
       <c r="M84" s="1">
-        <v>42550</v>
+        <v>42540</v>
       </c>
       <c r="N84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="O84" s="8">
-        <f t="shared" si="2"/>
-        <v>42.666666666666664</v>
+        <f t="shared" si="4"/>
+        <v>40.222222222222221</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>205</v>
+        <v>366</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
-        <v>113</v>
+        <v>202</v>
       </c>
       <c r="G85" s="2">
-        <v>2008</v>
+        <v>1751</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I85" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K85">
-        <v>305</v>
+        <v>110</v>
       </c>
       <c r="L85" s="1">
-        <v>42853</v>
+        <v>42729</v>
       </c>
       <c r="M85" s="1">
-        <v>42856</v>
+        <v>42732</v>
       </c>
       <c r="N85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="O85" s="8">
-        <f t="shared" si="2"/>
-        <v>101.66666666666667</v>
+        <f t="shared" si="4"/>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>367</v>
+        <v>203</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
-        <v>208</v>
+        <v>28</v>
       </c>
       <c r="G86" s="2">
-        <v>1965</v>
+        <v>1939</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I86" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K86">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="L86" s="1">
-        <v>42772</v>
+        <v>42541</v>
       </c>
       <c r="M86" s="1">
-        <v>42774</v>
+        <v>42550</v>
       </c>
       <c r="N86">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="O86" s="8">
-        <f t="shared" si="2"/>
-        <v>176</v>
+        <f t="shared" si="4"/>
+        <v>42.666666666666664</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
-        <v>210</v>
+        <v>113</v>
       </c>
       <c r="G87" s="2">
-        <v>1975</v>
+        <v>2008</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I87" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K87">
-        <v>173</v>
+        <v>305</v>
       </c>
       <c r="L87" s="1">
-        <v>43105</v>
+        <v>42853</v>
       </c>
       <c r="M87" s="1">
-        <v>43106</v>
+        <v>42856</v>
       </c>
       <c r="N87">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="O87" s="8">
-        <f t="shared" si="2"/>
-        <v>173</v>
+        <f t="shared" si="4"/>
+        <v>101.66666666666667</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>211</v>
+        <v>367</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
-        <v>52</v>
+        <v>208</v>
       </c>
       <c r="G88" s="2">
-        <v>1936</v>
+        <v>1965</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I88" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K88">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L88" s="1">
-        <v>42895</v>
+        <v>42772</v>
       </c>
       <c r="M88" s="1">
-        <v>42899</v>
+        <v>42774</v>
       </c>
       <c r="N88">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="O88" s="8">
-        <f t="shared" si="2"/>
-        <v>87</v>
+        <f t="shared" si="4"/>
+        <v>176</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="G89" s="2">
-        <v>1963</v>
+        <v>1975</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I89" t="s">
-        <v>49</v>
+        <v>338</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K89">
-        <v>312</v>
+        <v>173</v>
       </c>
       <c r="L89" s="1">
-        <v>43200</v>
+        <v>43105</v>
       </c>
       <c r="M89" s="1">
-        <v>43212</v>
+        <v>43106</v>
       </c>
       <c r="N89">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="O89" s="8">
-        <f t="shared" si="2"/>
-        <v>26</v>
+        <f t="shared" si="4"/>
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
-        <v>217</v>
+        <v>52</v>
       </c>
       <c r="G90" s="2">
-        <v>1928</v>
+        <v>1936</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I90" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K90">
-        <v>546</v>
+        <v>348</v>
       </c>
       <c r="L90" s="1">
-        <v>43217</v>
+        <v>42895</v>
       </c>
       <c r="M90" s="1">
-        <v>43226</v>
+        <v>42899</v>
       </c>
       <c r="N90">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="O90" s="8">
-        <f t="shared" si="2"/>
-        <v>60.666666666666664</v>
+        <f t="shared" si="4"/>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="G91" s="2">
-        <v>1946</v>
+        <v>1963</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I91" t="s">
-        <v>344</v>
+        <v>49</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K91">
-        <v>661</v>
+        <v>312</v>
       </c>
       <c r="L91" s="1">
-        <v>42385</v>
+        <v>43200</v>
       </c>
       <c r="M91" s="1">
-        <v>42404</v>
+        <v>43212</v>
       </c>
       <c r="N91">
-        <f t="shared" si="3"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="O91" s="8">
-        <f t="shared" si="2"/>
-        <v>34.789473684210527</v>
+        <f t="shared" si="4"/>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>380</v>
+        <v>216</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G92" s="2">
-        <v>1996</v>
+        <v>1928</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I92" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K92">
-        <v>227</v>
+        <v>546</v>
       </c>
       <c r="L92" s="1">
-        <v>43163</v>
+        <v>43217</v>
       </c>
       <c r="M92" s="1">
-        <v>43165</v>
+        <v>43226</v>
       </c>
       <c r="N92">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="O92" s="8">
-        <f t="shared" si="2"/>
-        <v>113.5</v>
+        <f t="shared" si="4"/>
+        <v>60.666666666666664</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2" t="s">
-        <v>224</v>
+        <v>52</v>
       </c>
       <c r="G93" s="2">
-        <v>1998</v>
+        <v>1946</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I93" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K93">
-        <v>94</v>
+        <v>661</v>
       </c>
       <c r="L93" s="1">
-        <v>43121</v>
+        <v>42385</v>
       </c>
       <c r="M93" s="1">
-        <v>43121</v>
+        <v>42404</v>
       </c>
       <c r="N93">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O93" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="O93" s="8">
+        <f t="shared" si="4"/>
+        <v>34.789473684210527</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>329</v>
+        <v>220</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>225</v>
+        <v>380</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G94" s="2">
-        <v>1987</v>
+        <v>1996</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I94" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K94">
-        <v>372</v>
+        <v>227</v>
       </c>
       <c r="L94" s="1">
-        <v>42767</v>
+        <v>43163</v>
       </c>
       <c r="M94" s="1">
-        <v>42768</v>
+        <v>43165</v>
       </c>
       <c r="N94">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="O94" s="8">
-        <f t="shared" si="2"/>
-        <v>372</v>
+        <f t="shared" si="4"/>
+        <v>113.5</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2" t="s">
-        <v>139</v>
+        <v>224</v>
       </c>
       <c r="G95" s="2">
-        <v>1967</v>
+        <v>1998</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I95" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K95">
-        <v>412</v>
+        <v>94</v>
       </c>
       <c r="L95" s="1">
-        <v>42768</v>
+        <v>43121</v>
       </c>
       <c r="M95" s="1">
-        <v>42771</v>
+        <v>43121</v>
       </c>
       <c r="N95">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="O95" s="8">
-        <f t="shared" si="2"/>
-        <v>137.33333333333334</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O95" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>229</v>
+        <v>329</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G96" s="2">
-        <v>2010</v>
+        <v>1987</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I96" t="s">
-        <v>49</v>
+        <v>349</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K96">
-        <v>941</v>
+        <v>372</v>
       </c>
       <c r="L96" s="1">
-        <v>42883</v>
+        <v>42767</v>
       </c>
       <c r="M96" s="1">
-        <v>42894</v>
+        <v>42768</v>
       </c>
       <c r="N96">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="O96" s="8">
-        <f t="shared" si="2"/>
-        <v>85.545454545454547</v>
+        <f t="shared" si="4"/>
+        <v>372</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="G97" s="2">
-        <v>2017</v>
+        <v>1967</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I97" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K97">
-        <v>304</v>
+        <v>412</v>
       </c>
       <c r="L97" s="1">
-        <v>43106</v>
+        <v>42768</v>
       </c>
       <c r="M97" s="1">
-        <v>43120</v>
+        <v>42771</v>
       </c>
       <c r="N97">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="O97" s="8">
-        <f t="shared" si="2"/>
-        <v>21.714285714285715</v>
+        <f t="shared" si="4"/>
+        <v>137.33333333333334</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>63</v>
+        <v>230</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="G98" s="2">
-        <v>1963</v>
+        <v>2010</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I98" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K98">
-        <v>492</v>
+        <v>941</v>
       </c>
       <c r="L98" s="1">
-        <v>43127</v>
+        <v>42883</v>
       </c>
       <c r="M98" s="1">
-        <v>43148</v>
+        <v>42894</v>
       </c>
       <c r="N98">
-        <f t="shared" si="3"/>
-        <v>21</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="O98" s="8">
-        <f t="shared" si="2"/>
-        <v>23.428571428571427</v>
+        <f t="shared" si="4"/>
+        <v>85.545454545454547</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="G99" s="2">
-        <v>1949</v>
+        <v>2017</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I99" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K99">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L99" s="1">
-        <v>43149</v>
+        <v>43106</v>
       </c>
       <c r="M99" s="1">
-        <v>43155</v>
+        <v>43120</v>
       </c>
       <c r="N99">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="O99" s="8">
-        <f t="shared" si="2"/>
-        <v>51.833333333333336</v>
+        <f t="shared" si="4"/>
+        <v>21.714285714285715</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>238</v>
+        <v>63</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2" t="s">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="G100" s="2">
-        <v>2015</v>
+        <v>1963</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I100" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K100">
-        <v>384</v>
+        <v>492</v>
       </c>
       <c r="L100" s="1">
-        <v>42919</v>
+        <v>43127</v>
       </c>
       <c r="M100" s="1">
-        <v>42929</v>
+        <v>43148</v>
       </c>
       <c r="N100">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="O100" s="8">
-        <f t="shared" si="2"/>
-        <v>38.4</v>
+        <f t="shared" si="4"/>
+        <v>23.428571428571427</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="G101" s="2">
-        <v>1992</v>
+        <v>1949</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I101" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K101">
-        <v>256</v>
+        <v>311</v>
       </c>
       <c r="L101" s="1">
-        <v>42732</v>
+        <v>43149</v>
       </c>
       <c r="M101" s="1">
-        <v>42737</v>
+        <v>43155</v>
       </c>
       <c r="N101">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="O101" s="8">
-        <f t="shared" si="2"/>
-        <v>51.2</v>
+        <f t="shared" si="4"/>
+        <v>51.833333333333336</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2" t="s">
-        <v>153</v>
+        <v>239</v>
       </c>
       <c r="G102" s="2">
-        <v>1977</v>
+        <v>2015</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I102" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K102">
-        <v>256</v>
+        <v>384</v>
       </c>
       <c r="L102" s="1">
-        <v>42382</v>
+        <v>42919</v>
       </c>
       <c r="M102" s="1">
-        <v>42383</v>
+        <v>42929</v>
       </c>
       <c r="N102">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="O102" s="8">
-        <f t="shared" si="2"/>
-        <v>256</v>
+        <f t="shared" si="4"/>
+        <v>38.4</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G103" s="2">
-        <v>1927</v>
+        <v>1992</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I103" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K103">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="L103" s="1">
-        <v>42790</v>
+        <v>42732</v>
       </c>
       <c r="M103" s="1">
-        <v>42802</v>
+        <v>42737</v>
       </c>
       <c r="N103">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="O103" s="8">
-        <f t="shared" si="2"/>
-        <v>22.666666666666668</v>
+        <f t="shared" si="4"/>
+        <v>51.2</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2" t="s">
-        <v>248</v>
+        <v>153</v>
       </c>
       <c r="G104" s="2">
-        <v>1997</v>
+        <v>1977</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I104" t="s">
-        <v>49</v>
+        <v>349</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K104">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="L104" s="1">
-        <v>42805</v>
+        <v>42382</v>
       </c>
       <c r="M104" s="1">
-        <v>42811</v>
+        <v>42383</v>
       </c>
       <c r="N104">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="O104" s="8">
-        <f t="shared" si="2"/>
-        <v>48.833333333333336</v>
+        <f t="shared" si="4"/>
+        <v>256</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="G105" s="2">
-        <v>2013</v>
+        <v>1927</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I105" t="s">
-        <v>96</v>
+        <v>369</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K105">
-        <v>496</v>
+        <v>272</v>
       </c>
       <c r="L105" s="1">
-        <v>42645</v>
+        <v>42790</v>
       </c>
       <c r="M105" s="1">
-        <v>42649</v>
+        <v>42802</v>
       </c>
       <c r="N105">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="O105" s="8">
-        <f t="shared" si="2"/>
-        <v>124</v>
+        <f t="shared" si="4"/>
+        <v>22.666666666666668</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>82</v>
+        <v>247</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2" t="s">
-        <v>52</v>
+        <v>248</v>
       </c>
       <c r="G106" s="2">
-        <v>1955</v>
+        <v>1997</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I106" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K106">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="L106" s="1">
-        <v>42823</v>
+        <v>42805</v>
       </c>
       <c r="M106" s="1">
-        <v>42827</v>
+        <v>42811</v>
       </c>
       <c r="N106">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="O106" s="8">
-        <f t="shared" si="2"/>
-        <v>82.75</v>
+        <f t="shared" si="4"/>
+        <v>48.833333333333336</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>381</v>
+        <v>250</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="G107" s="2">
-        <v>1991</v>
+        <v>2013</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I107" t="s">
-        <v>344</v>
+        <v>96</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K107">
-        <v>149</v>
+        <v>496</v>
       </c>
       <c r="L107" s="1">
-        <v>42665</v>
+        <v>42645</v>
       </c>
       <c r="M107" s="1">
-        <v>42668</v>
+        <v>42649</v>
       </c>
       <c r="N107">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="O107" s="8">
-        <f t="shared" si="2"/>
-        <v>49.666666666666664</v>
+        <f t="shared" si="4"/>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>254</v>
+        <v>82</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2" t="s">
-        <v>255</v>
+        <v>52</v>
       </c>
       <c r="G108" s="2">
-        <v>1942</v>
+        <v>1955</v>
       </c>
       <c r="H108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I108" t="s">
+        <v>369</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K108">
         <v>331</v>
       </c>
-      <c r="I108" t="s">
-        <v>49</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K108">
-        <v>495</v>
-      </c>
       <c r="L108" s="1">
-        <v>42711</v>
+        <v>42823</v>
       </c>
       <c r="M108" s="1">
-        <v>42727</v>
+        <v>42827</v>
       </c>
       <c r="N108">
-        <f t="shared" si="3"/>
-        <v>16</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="O108" s="8">
-        <f t="shared" si="2"/>
-        <v>30.9375</v>
+        <f t="shared" si="4"/>
+        <v>82.75</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>257</v>
+        <v>381</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2" t="s">
-        <v>191</v>
+        <v>30</v>
       </c>
       <c r="G109" s="2">
-        <v>2010</v>
+        <v>1991</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I109" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K109">
-        <v>446</v>
+        <v>149</v>
       </c>
       <c r="L109" s="1">
-        <v>42776</v>
+        <v>42665</v>
       </c>
       <c r="M109" s="1">
-        <v>42785</v>
+        <v>42668</v>
       </c>
       <c r="N109">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="O109" s="8">
-        <f t="shared" si="2"/>
-        <v>49.555555555555557</v>
+        <f t="shared" si="4"/>
+        <v>49.666666666666664</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="G110" s="2">
-        <v>1992</v>
+        <v>1942</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I110" t="s">
-        <v>339</v>
+        <v>49</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K110">
-        <v>224</v>
+        <v>495</v>
       </c>
       <c r="L110" s="1">
-        <v>42249</v>
+        <v>42711</v>
       </c>
       <c r="M110" s="1">
-        <v>42250</v>
+        <v>42727</v>
       </c>
       <c r="N110">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="O110" s="8">
-        <f t="shared" si="2"/>
-        <v>224</v>
+        <f t="shared" si="4"/>
+        <v>30.9375</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="G111" s="2">
-        <v>1934</v>
+        <v>2010</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I111" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K111">
-        <v>251</v>
+        <v>446</v>
       </c>
       <c r="L111" s="1">
-        <v>43294</v>
+        <v>42776</v>
       </c>
       <c r="M111" s="1">
-        <v>43307</v>
+        <v>42785</v>
       </c>
       <c r="N111">
-        <f t="shared" si="3"/>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="O111" s="8">
-        <f t="shared" si="2"/>
-        <v>19.307692307692307</v>
+        <f t="shared" si="4"/>
+        <v>49.555555555555557</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G112" s="2">
-        <v>1951</v>
+        <v>1992</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I112" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K112">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="L112" s="1">
-        <v>42518</v>
+        <v>42249</v>
       </c>
       <c r="M112" s="1">
-        <v>42522</v>
+        <v>42250</v>
       </c>
       <c r="N112">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="O112" s="8">
-        <f t="shared" si="2"/>
-        <v>48</v>
+        <f t="shared" si="4"/>
+        <v>224</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>370</v>
+        <v>260</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2" t="s">
-        <v>319</v>
+        <v>12</v>
       </c>
       <c r="G113" s="2">
-        <v>2013</v>
+        <v>1934</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I113" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K113">
-        <v>329</v>
+        <v>251</v>
       </c>
       <c r="L113" s="1">
-        <v>42512</v>
+        <v>43294</v>
       </c>
       <c r="M113" s="1">
-        <v>42514</v>
+        <v>43307</v>
       </c>
       <c r="N113">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="O113" s="8">
-        <f t="shared" si="2"/>
-        <v>164.5</v>
+        <f t="shared" si="4"/>
+        <v>19.307692307692307</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>65</v>
+        <v>263</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G114" s="2">
-        <v>2011</v>
+        <v>1951</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I114" t="s">
-        <v>96</v>
+        <v>369</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K114">
-        <v>498</v>
+        <v>192</v>
       </c>
       <c r="L114" s="1">
-        <v>43308</v>
+        <v>42518</v>
       </c>
       <c r="M114" s="1">
-        <v>43322</v>
+        <v>42522</v>
       </c>
       <c r="N114">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="O114" s="8">
-        <f t="shared" si="2"/>
-        <v>35.571428571428569</v>
+        <f t="shared" si="4"/>
+        <v>48</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>266</v>
+        <v>370</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2" t="s">
-        <v>268</v>
+        <v>319</v>
       </c>
       <c r="G115" s="2">
-        <v>1971</v>
+        <v>2013</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I115" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K115">
-        <v>160</v>
+        <v>329</v>
       </c>
       <c r="L115" s="1">
-        <v>42643</v>
+        <v>42512</v>
       </c>
       <c r="M115" s="1">
-        <v>42644</v>
+        <v>42514</v>
       </c>
       <c r="N115">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="O115" s="8">
-        <f t="shared" si="2"/>
-        <v>160</v>
+        <f t="shared" si="4"/>
+        <v>164.5</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>270</v>
+        <v>65</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2" t="s">
-        <v>271</v>
+        <v>30</v>
       </c>
       <c r="G116" s="2">
-        <v>2000</v>
+        <v>2011</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I116" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K116">
-        <v>176</v>
+        <v>498</v>
       </c>
       <c r="L116" s="1">
-        <v>42628</v>
+        <v>43308</v>
       </c>
       <c r="M116" s="1">
-        <v>42632</v>
+        <v>43322</v>
       </c>
       <c r="N116">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="O116" s="8">
-        <f t="shared" si="2"/>
-        <v>44</v>
+        <f t="shared" si="4"/>
+        <v>35.571428571428569</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G117" s="2">
-        <v>2000</v>
+        <v>1971</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I117" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K117">
-        <v>639</v>
+        <v>160</v>
       </c>
       <c r="L117" s="1">
-        <v>42683</v>
+        <v>42643</v>
       </c>
       <c r="M117" s="1">
-        <v>42695</v>
+        <v>42644</v>
       </c>
       <c r="N117">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="O117" s="8">
-        <f t="shared" si="2"/>
-        <v>53.25</v>
+        <f t="shared" si="4"/>
+        <v>160</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="G118" s="2">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I118" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K118">
-        <v>563</v>
+        <v>176</v>
       </c>
       <c r="L118" s="1">
-        <v>42830</v>
+        <v>42628</v>
       </c>
       <c r="M118" s="1">
-        <v>42846</v>
+        <v>42632</v>
       </c>
       <c r="N118">
-        <f t="shared" si="3"/>
-        <v>16</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="O118" s="8">
-        <f t="shared" si="2"/>
-        <v>35.1875</v>
+        <f t="shared" si="4"/>
+        <v>44</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G119" s="2">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I119" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K119">
-        <v>304</v>
+        <v>639</v>
       </c>
       <c r="L119" s="1">
-        <v>42848</v>
+        <v>42683</v>
       </c>
       <c r="M119" s="1">
-        <v>42852</v>
+        <v>42695</v>
       </c>
       <c r="N119">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="O119" s="8">
-        <f t="shared" si="2"/>
-        <v>76</v>
+        <f t="shared" si="4"/>
+        <v>53.25</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2" t="s">
-        <v>28</v>
+        <v>319</v>
       </c>
       <c r="G120" s="2">
-        <v>1994</v>
+        <v>2015</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>8</v>
@@ -7568,210 +7604,210 @@
         <v>9</v>
       </c>
       <c r="K120">
-        <v>480</v>
+        <v>563</v>
       </c>
       <c r="L120" s="1">
-        <v>42358</v>
+        <v>42830</v>
       </c>
       <c r="M120" s="1">
-        <v>42377</v>
+        <v>42846</v>
       </c>
       <c r="N120">
-        <f t="shared" si="3"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="O120" s="8">
-        <f t="shared" si="2"/>
-        <v>25.263157894736842</v>
+        <f t="shared" si="4"/>
+        <v>35.1875</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2" t="s">
-        <v>28</v>
+        <v>279</v>
       </c>
       <c r="G121" s="2">
-        <v>1962</v>
+        <v>2015</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I121" t="s">
-        <v>49</v>
+        <v>343</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K121">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="L121" s="1">
-        <v>42696</v>
+        <v>42848</v>
       </c>
       <c r="M121" s="1">
-        <v>42700</v>
+        <v>42852</v>
       </c>
       <c r="N121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="O121" s="8">
-        <f t="shared" si="2"/>
-        <v>64</v>
+        <f t="shared" si="4"/>
+        <v>76</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2" t="s">
-        <v>286</v>
+        <v>28</v>
       </c>
       <c r="G122" s="2">
-        <v>1929</v>
+        <v>1994</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I122" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K122">
-        <v>999</v>
+        <v>480</v>
       </c>
       <c r="L122" s="1">
-        <v>42860</v>
+        <v>42358</v>
       </c>
       <c r="M122" s="1">
-        <v>42869</v>
+        <v>42377</v>
       </c>
       <c r="N122">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>19</v>
       </c>
       <c r="O122" s="8">
-        <f t="shared" si="2"/>
-        <v>111</v>
+        <f t="shared" si="4"/>
+        <v>25.263157894736842</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2" t="s">
-        <v>289</v>
+        <v>28</v>
       </c>
       <c r="G123" s="2">
-        <v>1897</v>
+        <v>1962</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I123" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K123">
-        <v>496</v>
+        <v>256</v>
       </c>
       <c r="L123" s="1">
-        <v>42952</v>
+        <v>42696</v>
       </c>
       <c r="M123" s="1">
-        <v>42962</v>
+        <v>42700</v>
       </c>
       <c r="N123">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="O123" s="8">
-        <f t="shared" si="2"/>
-        <v>49.6</v>
+        <f t="shared" si="4"/>
+        <v>64</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2" t="s">
-        <v>168</v>
+        <v>286</v>
       </c>
       <c r="G124" s="2">
-        <v>2016</v>
+        <v>1929</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I124" t="s">
-        <v>336</v>
+        <v>49</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K124">
-        <v>302</v>
+        <v>999</v>
       </c>
       <c r="L124" s="1">
-        <v>43179</v>
+        <v>42860</v>
       </c>
       <c r="M124" s="1">
-        <v>43183</v>
+        <v>42869</v>
       </c>
       <c r="N124">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="O124" s="8">
-        <f t="shared" si="2"/>
-        <v>75.5</v>
+        <f t="shared" si="4"/>
+        <v>111</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="G125" s="2">
-        <v>1886</v>
+        <v>1897</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>8</v>
@@ -7783,38 +7819,38 @@
         <v>9</v>
       </c>
       <c r="K125">
-        <v>110</v>
+        <v>496</v>
       </c>
       <c r="L125" s="1">
-        <v>43430</v>
+        <v>42952</v>
       </c>
       <c r="M125" s="1">
-        <v>43434</v>
+        <v>42962</v>
       </c>
       <c r="N125">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="O125" s="8">
-        <f t="shared" si="2"/>
-        <v>27.5</v>
+        <f t="shared" si="4"/>
+        <v>49.6</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2" t="s">
-        <v>296</v>
+        <v>168</v>
       </c>
       <c r="G126" s="2">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>331</v>
@@ -7823,170 +7859,170 @@
         <v>336</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K126">
-        <v>256</v>
+        <v>302</v>
       </c>
       <c r="L126" s="1">
-        <v>43449</v>
+        <v>43179</v>
       </c>
       <c r="M126" s="1">
-        <v>43453</v>
+        <v>43183</v>
       </c>
       <c r="N126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="O126" s="8">
-        <f t="shared" si="2"/>
-        <v>64</v>
+        <f t="shared" si="4"/>
+        <v>75.5</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2" t="s">
-        <v>319</v>
+        <v>248</v>
       </c>
       <c r="G127" s="2">
-        <v>1972</v>
+        <v>1886</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I127" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K127">
-        <v>506</v>
+        <v>110</v>
       </c>
       <c r="L127" s="1">
-        <v>43436</v>
+        <v>43430</v>
       </c>
       <c r="M127" s="1">
-        <v>43446</v>
+        <v>43434</v>
       </c>
       <c r="N127">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="O127" s="8">
-        <f t="shared" si="2"/>
-        <v>50.6</v>
+        <f t="shared" si="4"/>
+        <v>27.5</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G128" s="2">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I128" t="s">
-        <v>49</v>
+        <v>336</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K128">
-        <v>941</v>
+        <v>256</v>
       </c>
       <c r="L128" s="1">
-        <v>42737</v>
+        <v>43449</v>
       </c>
       <c r="M128" s="1">
-        <v>42767</v>
+        <v>43453</v>
       </c>
       <c r="N128">
-        <f t="shared" si="3"/>
-        <v>30</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="O128" s="8">
-        <f t="shared" si="2"/>
-        <v>31.366666666666667</v>
+        <f t="shared" si="4"/>
+        <v>64</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>382</v>
+        <v>298</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="G129" s="2">
-        <v>1959</v>
+        <v>1972</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I129" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K129">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="L129" s="1">
-        <v>42567</v>
+        <v>43436</v>
       </c>
       <c r="M129" s="1">
-        <v>42578</v>
+        <v>43446</v>
       </c>
       <c r="N129">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="O129" s="8">
-        <f t="shared" si="2"/>
-        <v>52.909090909090907</v>
+        <f t="shared" si="4"/>
+        <v>50.6</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2" t="s">
-        <v>156</v>
+        <v>301</v>
       </c>
       <c r="G130" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>331</v>
@@ -7998,121 +8034,121 @@
         <v>9</v>
       </c>
       <c r="K130">
-        <v>862</v>
+        <v>941</v>
       </c>
       <c r="L130" s="1">
-        <v>42445</v>
+        <v>42737</v>
       </c>
       <c r="M130" s="1">
-        <v>42484</v>
+        <v>42767</v>
       </c>
       <c r="N130">
-        <f t="shared" si="3"/>
-        <v>39</v>
+        <f t="shared" si="5"/>
+        <v>30</v>
       </c>
       <c r="O130" s="8">
-        <f t="shared" ref="O130:O137" si="4">K130/N130</f>
-        <v>22.102564102564102</v>
+        <f t="shared" si="4"/>
+        <v>31.366666666666667</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>307</v>
+        <v>382</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G131" s="2">
-        <v>2016</v>
+        <v>1959</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I131" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K131">
-        <v>488</v>
+        <v>582</v>
       </c>
       <c r="L131" s="1">
-        <v>42431</v>
+        <v>42567</v>
       </c>
       <c r="M131" s="1">
-        <v>42445</v>
+        <v>42578</v>
       </c>
       <c r="N131">
-        <f t="shared" ref="N131:N137" si="5">M131-L131</f>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="O131" s="8">
         <f t="shared" si="4"/>
-        <v>34.857142857142854</v>
+        <v>52.909090909090907</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>150</v>
+        <v>305</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G132" s="2">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I132" t="s">
-        <v>310</v>
+        <v>49</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K132">
-        <v>352</v>
+        <v>862</v>
       </c>
       <c r="L132" s="1">
-        <v>42899</v>
+        <v>42445</v>
       </c>
       <c r="M132" s="1">
-        <v>42918</v>
+        <v>42484</v>
       </c>
       <c r="N132">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="O132" s="8">
-        <f t="shared" si="4"/>
-        <v>18.526315789473685</v>
+        <f t="shared" ref="O132:O139" si="6">K132/N132</f>
+        <v>22.102564102564102</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="G133" s="2">
         <v>2016</v>
@@ -8121,203 +8157,289 @@
         <v>331</v>
       </c>
       <c r="I133" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K133">
-        <v>255</v>
+        <v>488</v>
       </c>
       <c r="L133" s="1">
-        <v>43405</v>
+        <v>42431</v>
       </c>
       <c r="M133" s="1">
-        <v>43411</v>
+        <v>42445</v>
       </c>
       <c r="N133">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <f t="shared" ref="N133:N139" si="7">M133-L133</f>
+        <v>14</v>
       </c>
       <c r="O133" s="8">
-        <f t="shared" si="4"/>
-        <v>42.5</v>
+        <f t="shared" si="6"/>
+        <v>34.857142857142854</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>314</v>
+        <v>150</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="G134" s="2">
-        <v>1985</v>
+        <v>2010</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I134" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K134">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="L134" s="1">
-        <v>43509</v>
+        <v>42899</v>
       </c>
       <c r="M134" s="1">
-        <v>43516</v>
+        <v>42918</v>
       </c>
       <c r="N134">
-        <f t="shared" si="5"/>
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>19</v>
       </c>
       <c r="O134" s="8">
-        <f t="shared" si="4"/>
-        <v>46.285714285714285</v>
+        <f t="shared" si="6"/>
+        <v>18.526315789473685</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="G135" s="2">
-        <v>1854</v>
+        <v>2016</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I135" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K135">
-        <v>360</v>
+        <v>255</v>
       </c>
       <c r="L135" s="1">
-        <v>43369</v>
+        <v>43405</v>
       </c>
       <c r="M135" s="1">
-        <v>43381</v>
+        <v>43411</v>
       </c>
       <c r="N135">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="O135" s="8">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <f t="shared" si="6"/>
+        <v>42.5</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>368</v>
+        <v>313</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>377</v>
+        <v>314</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2" t="s">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="G136" s="2">
-        <v>1963</v>
+        <v>1985</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I136" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K136">
-        <v>257</v>
+        <v>324</v>
       </c>
       <c r="L136" s="1">
-        <v>43427</v>
+        <v>43509</v>
       </c>
       <c r="M136" s="1">
-        <v>43429</v>
+        <v>43516</v>
       </c>
       <c r="N136">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
       <c r="O136" s="8">
-        <f t="shared" si="4"/>
-        <v>128.5</v>
+        <f t="shared" si="6"/>
+        <v>46.285714285714285</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G137" s="2">
+        <v>1854</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I137" t="s">
+        <v>344</v>
+      </c>
+      <c r="J137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K137">
+        <v>360</v>
+      </c>
+      <c r="L137" s="1">
+        <v>43369</v>
+      </c>
+      <c r="M137" s="1">
+        <v>43381</v>
+      </c>
+      <c r="N137">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="O137" s="8">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A138" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G138" s="2">
+        <v>1963</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I138" t="s">
+        <v>337</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K138">
+        <v>257</v>
+      </c>
+      <c r="L138" s="1">
+        <v>43427</v>
+      </c>
+      <c r="M138" s="1">
+        <v>43429</v>
+      </c>
+      <c r="N138">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="O138" s="8">
+        <f t="shared" si="6"/>
+        <v>128.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A139" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G137" s="2">
+      <c r="G139" s="2">
         <v>1979</v>
       </c>
-      <c r="H137" s="2" t="s">
+      <c r="H139" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I137" t="s">
+      <c r="I139" t="s">
         <v>347</v>
       </c>
-      <c r="J137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K137">
+      <c r="J139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K139">
         <v>592</v>
       </c>
-      <c r="L137" s="1">
+      <c r="L139" s="1">
         <v>43543</v>
       </c>
-      <c r="M137" s="1">
+      <c r="M139" s="1">
         <v>43576</v>
       </c>
-      <c r="N137">
-        <f t="shared" si="5"/>
+      <c r="N139">
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
-      <c r="O137" s="8">
-        <f t="shared" si="4"/>
+      <c r="O139" s="8">
+        <f t="shared" si="6"/>
         <v>17.939393939393938</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N137"/>
+  <autoFilter ref="A1:N139" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/b2.xlsx
+++ b/b2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B3FF17-5330-4D72-959B-C385B8837F7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624F2F1F-7833-4C82-B48B-D040B7B26422}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2138,10 +2138,10 @@
   <dimension ref="A1:O139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomRight" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2241,10 +2241,10 @@
         <v>217</v>
       </c>
       <c r="L2" s="1">
-        <v>43841</v>
+        <v>44207</v>
       </c>
       <c r="M2" s="1">
-        <v>43846</v>
+        <v>44212</v>
       </c>
       <c r="N2">
         <f t="shared" ref="N2:N3" si="0">M2-L2</f>
@@ -3883,7 +3883,7 @@
         <v>9</v>
       </c>
       <c r="K37">
-        <v>999</v>
+        <v>355</v>
       </c>
       <c r="L37" s="1">
         <v>43762</v>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="O37" s="8">
         <f t="shared" si="2"/>
-        <v>90.818181818181813</v>
+        <v>32.272727272727273</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
@@ -7776,7 +7776,7 @@
         <v>9</v>
       </c>
       <c r="K124">
-        <v>999</v>
+        <v>348</v>
       </c>
       <c r="L124" s="1">
         <v>42860</v>
@@ -7790,7 +7790,7 @@
       </c>
       <c r="O124" s="8">
         <f t="shared" si="4"/>
-        <v>111</v>
+        <v>38.666666666666664</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.35">

--- a/b2.xlsx
+++ b/b2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624F2F1F-7833-4C82-B48B-D040B7B26422}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751D6ED6-398A-40D3-9B1E-729FF0D6FAF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="clean" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">clean!$A$1:$N$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">clean!$A$1:$N$140</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="409">
   <si>
     <t>Title</t>
   </si>
@@ -1266,6 +1266,9 @@
   </si>
   <si>
     <t>Librairie générale française</t>
+  </si>
+  <si>
+    <t>Our Man in Havana</t>
   </si>
 </sst>
 </file>
@@ -2135,13 +2138,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O139"/>
+  <dimension ref="A1:O140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H48" sqref="H48"/>
+      <selection pane="bottomRight" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2208,204 +2211,194 @@
     </row>
     <row r="2" spans="1:15" s="7" customFormat="1" ht="19" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1934</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K2" s="2">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c r="L2" s="1">
-        <v>44207</v>
+        <v>44212</v>
       </c>
       <c r="M2" s="1">
-        <v>44212</v>
+        <v>44223</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N3" si="0">M2-L2</f>
-        <v>5</v>
+        <f t="shared" ref="N2:N4" si="0">M2-L2</f>
+        <v>11</v>
       </c>
       <c r="O2" s="8">
-        <f t="shared" ref="O2:O3" si="1">K2/N2</f>
-        <v>43.4</v>
+        <f t="shared" ref="O2:O4" si="1">K2/N2</f>
+        <v>23.818181818181817</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>383</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="G3" s="2">
-        <v>2013</v>
+        <v>1934</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K3" s="2">
-        <v>533</v>
+        <v>217</v>
       </c>
       <c r="L3" s="1">
-        <v>44193</v>
+        <v>44207</v>
       </c>
       <c r="M3" s="1">
-        <v>44195</v>
+        <v>44212</v>
       </c>
       <c r="N3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O3" s="8">
         <f t="shared" si="1"/>
-        <v>266.5</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2013</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2">
+        <v>533</v>
+      </c>
+      <c r="L4" s="1">
+        <v>44193</v>
+      </c>
+      <c r="M4" s="1">
+        <v>44195</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O4" s="8">
+        <f t="shared" si="1"/>
+        <v>266.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G5" s="2">
         <v>2020</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="2">
+      <c r="J5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="2">
         <v>278</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L5" s="1">
         <v>44178</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M5" s="1">
         <v>44193</v>
-      </c>
-      <c r="N4">
-        <f>M4-L4</f>
-        <v>15</v>
-      </c>
-      <c r="O4" s="8">
-        <f>K4/N4</f>
-        <v>18.533333333333335</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2006</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" t="s">
-        <v>330</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5">
-        <v>420</v>
-      </c>
-      <c r="L5" s="1">
-        <v>44163</v>
-      </c>
-      <c r="M5" s="1">
-        <v>44165</v>
       </c>
       <c r="N5">
         <f>M5-L5</f>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O5" s="8">
-        <f t="shared" ref="O5:O68" si="2">K5/N5</f>
-        <v>210</v>
+        <f>K5/N5</f>
+        <v>18.533333333333335</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>384</v>
@@ -2415,498 +2408,498 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G6" s="2">
-        <v>1983</v>
+        <v>2006</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>420</v>
+      </c>
+      <c r="L6" s="1">
+        <v>44163</v>
+      </c>
+      <c r="M6" s="1">
+        <v>44165</v>
+      </c>
+      <c r="N6">
+        <f>M6-L6</f>
+        <v>2</v>
+      </c>
+      <c r="O6" s="8">
+        <f t="shared" ref="O6:O69" si="2">K6/N6</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1983</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
         <v>369</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6">
+      <c r="J7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7">
         <v>291</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L7" s="1">
         <v>44156</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M7" s="1">
         <v>44163</v>
       </c>
-      <c r="N6">
-        <f t="shared" ref="N6:N69" si="3">M6-L6</f>
+      <c r="N7">
+        <f t="shared" ref="N7:N70" si="3">M7-L7</f>
         <v>7</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O7" s="8">
         <f t="shared" si="2"/>
         <v>41.571428571428569</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G8" s="2">
         <v>2017</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H8" t="s">
         <v>331</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7">
+      <c r="J8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8">
         <v>176</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L8" s="1">
         <v>44150</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M8" s="1">
         <v>44155</v>
       </c>
-      <c r="N7">
+      <c r="N8">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O8" s="8">
         <f t="shared" si="2"/>
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G9" s="2">
         <v>1980</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8">
+      <c r="J9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9">
         <v>502</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L9" s="1">
         <v>44129</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M9" s="1">
         <v>44142</v>
       </c>
-      <c r="N8">
-        <f>M8-L8</f>
+      <c r="N9">
+        <f>M9-L9</f>
         <v>13</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O9" s="8">
         <f t="shared" si="2"/>
         <v>38.615384615384613</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G10" s="2">
         <v>1938</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>247</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L10" s="1">
         <v>44114</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M10" s="1">
         <v>44129</v>
       </c>
-      <c r="N9">
+      <c r="N10">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O10" s="8">
         <f t="shared" si="2"/>
         <v>16.466666666666665</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G11" s="2">
         <v>1981</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10">
+      <c r="J11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11">
         <v>225</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L11" s="1">
         <v>43931</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M11" s="1">
         <v>44053</v>
       </c>
-      <c r="N10">
+      <c r="N11">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O11" s="8">
         <f t="shared" si="2"/>
         <v>1.8442622950819672</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G12" s="2">
         <v>1865</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>826</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L12" s="1">
         <v>43930</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M12" s="1">
         <v>44021</v>
       </c>
-      <c r="N11">
+      <c r="N12">
         <f t="shared" si="3"/>
         <v>91</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O12" s="8">
         <f t="shared" si="2"/>
         <v>9.0769230769230766</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G13" s="2">
         <v>1988</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12">
+      <c r="J13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13">
         <v>368</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L13" s="1">
         <v>44052</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M13" s="1">
         <v>44077</v>
       </c>
-      <c r="N12">
+      <c r="N13">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O13" s="8">
         <f t="shared" si="2"/>
         <v>14.72</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G14" s="2">
         <v>1951</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13">
+      <c r="J14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14">
         <v>54</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L14" s="1">
         <v>43838</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M14" s="1">
         <v>43990</v>
       </c>
-      <c r="N13">
+      <c r="N14">
         <f t="shared" si="3"/>
         <v>152</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O14" s="8">
         <f t="shared" si="2"/>
         <v>0.35526315789473684</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G15" s="2">
         <v>1979</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14">
+      <c r="J15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15">
         <v>179</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L15" s="1">
         <v>44020</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M15" s="1">
         <v>44082</v>
       </c>
-      <c r="N14">
+      <c r="N15">
         <f t="shared" si="3"/>
         <v>62</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O15" s="8">
         <f t="shared" si="2"/>
         <v>2.8870967741935485</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1982</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15">
-        <v>299</v>
-      </c>
-      <c r="L15" s="1">
-        <v>44037</v>
-      </c>
-      <c r="M15" s="1">
-        <v>44039</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="O15" s="8">
-        <f t="shared" si="2"/>
-        <v>149.5</v>
-      </c>
-    </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G16" s="2">
-        <v>1964</v>
+        <v>1982</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K16">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="L16" s="1">
-        <v>44032</v>
+        <v>44037</v>
       </c>
       <c r="M16" s="1">
-        <v>44034</v>
+        <v>44039</v>
       </c>
       <c r="N16">
         <f t="shared" si="3"/>
@@ -2914,328 +2907,328 @@
       </c>
       <c r="O16" s="8">
         <f t="shared" si="2"/>
-        <v>168</v>
+        <v>149.5</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G17" s="2">
-        <v>2018</v>
+        <v>1964</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K17">
-        <v>256</v>
+        <v>336</v>
       </c>
       <c r="L17" s="1">
-        <v>44023</v>
+        <v>44032</v>
       </c>
       <c r="M17" s="1">
-        <v>44030</v>
+        <v>44034</v>
       </c>
       <c r="N17">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O17" s="8">
         <f t="shared" si="2"/>
-        <v>36.571428571428569</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>377</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>383</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G18" s="2">
-        <v>1965</v>
+        <v>2018</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K18">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="L18" s="1">
-        <v>44018</v>
+        <v>44023</v>
       </c>
       <c r="M18" s="1">
-        <v>44023</v>
+        <v>44030</v>
       </c>
       <c r="N18">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O18" s="8">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>36.571428571428569</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>320</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>377</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G19" s="2">
-        <v>2005</v>
+        <v>1965</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>49</v>
+        <v>337</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K19">
-        <v>465</v>
+        <v>320</v>
       </c>
       <c r="L19" s="1">
-        <v>44004</v>
+        <v>44018</v>
       </c>
       <c r="M19" s="1">
-        <v>44017</v>
+        <v>44023</v>
       </c>
       <c r="N19">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="O19" s="8">
         <f t="shared" si="2"/>
-        <v>35.769230769230766</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>43</v>
+        <v>320</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G20" s="2">
-        <v>1930</v>
+        <v>2005</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>338</v>
+        <v>49</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K20">
-        <v>240</v>
+        <v>465</v>
       </c>
       <c r="L20" s="1">
-        <v>43995</v>
+        <v>44004</v>
       </c>
       <c r="M20" s="1">
-        <v>44002</v>
+        <v>44017</v>
       </c>
       <c r="N20">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O20" s="8">
         <f t="shared" si="2"/>
-        <v>34.285714285714285</v>
+        <v>35.769230769230766</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>319</v>
+        <v>45</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1930</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>49</v>
+        <v>338</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K21">
-        <v>618</v>
+        <v>240</v>
       </c>
       <c r="L21" s="1">
-        <v>43927</v>
+        <v>43995</v>
       </c>
       <c r="M21" s="1">
-        <v>44110</v>
+        <v>44002</v>
       </c>
       <c r="N21">
         <f t="shared" si="3"/>
-        <v>183</v>
+        <v>7</v>
       </c>
       <c r="O21" s="8">
         <f t="shared" si="2"/>
-        <v>3.377049180327869</v>
+        <v>34.285714285714285</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1939</v>
+        <v>48</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>339</v>
+        <v>49</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K22">
-        <v>250</v>
+        <v>618</v>
       </c>
       <c r="L22" s="1">
-        <v>43982</v>
+        <v>43927</v>
       </c>
       <c r="M22" s="1">
-        <v>43984</v>
+        <v>44110</v>
       </c>
       <c r="N22">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="O22" s="8">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>3.377049180327869</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G23" s="2">
-        <v>2020</v>
+        <v>1939</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K23">
-        <v>336</v>
+        <v>250</v>
       </c>
       <c r="L23" s="1">
-        <v>43975</v>
+        <v>43982</v>
       </c>
       <c r="M23" s="1">
-        <v>43977</v>
+        <v>43984</v>
       </c>
       <c r="N23">
         <f t="shared" si="3"/>
@@ -3243,62 +3236,62 @@
       </c>
       <c r="O23" s="8">
         <f t="shared" si="2"/>
-        <v>168</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G24" s="2">
-        <v>1966</v>
+        <v>2020</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>58</v>
+        <v>348</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K24">
-        <v>284</v>
+        <v>336</v>
       </c>
       <c r="L24" s="1">
-        <v>43968</v>
+        <v>43975</v>
       </c>
       <c r="M24" s="1">
-        <v>43973</v>
+        <v>43977</v>
       </c>
       <c r="N24">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O24" s="8">
         <f t="shared" si="2"/>
-        <v>56.8</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>384</v>
@@ -3308,10 +3301,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G25" s="2">
-        <v>2018</v>
+        <v>1966</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>331</v>
@@ -3323,29 +3316,29 @@
         <v>9</v>
       </c>
       <c r="K25">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="L25" s="1">
-        <v>43964</v>
+        <v>43968</v>
       </c>
       <c r="M25" s="1">
-        <v>43965</v>
+        <v>43973</v>
       </c>
       <c r="N25">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O25" s="8">
         <f t="shared" si="2"/>
-        <v>320</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>384</v>
@@ -3355,47 +3348,47 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G26" s="2">
-        <v>1966</v>
+        <v>2018</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>369</v>
+        <v>58</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K26">
-        <v>126</v>
+        <v>320</v>
       </c>
       <c r="L26" s="1">
-        <v>43962</v>
+        <v>43964</v>
       </c>
       <c r="M26" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="N26">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O26" s="8">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>387</v>
@@ -3405,148 +3398,148 @@
         <v>12</v>
       </c>
       <c r="G27" s="2">
-        <v>2017</v>
+        <v>1966</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>96</v>
+        <v>369</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K27">
-        <v>513</v>
+        <v>126</v>
       </c>
       <c r="L27" s="1">
-        <v>43947</v>
+        <v>43962</v>
       </c>
       <c r="M27" s="1">
-        <v>43956</v>
+        <v>43964</v>
       </c>
       <c r="N27">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O27" s="8">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>375</v>
+        <v>64</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>376</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>20</v>
+        <v>393</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="G28" s="2">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K28">
-        <v>646</v>
+        <v>513</v>
       </c>
       <c r="L28" s="1">
-        <v>43942</v>
+        <v>43947</v>
       </c>
       <c r="M28" s="1">
-        <v>43947</v>
+        <v>43956</v>
       </c>
       <c r="N28">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O28" s="8">
         <f t="shared" si="2"/>
-        <v>129.19999999999999</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>67</v>
+        <v>375</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>376</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G29" s="2">
-        <v>1961</v>
+        <v>2019</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K29">
-        <v>568</v>
+        <v>646</v>
       </c>
       <c r="L29" s="1">
-        <v>43927</v>
+        <v>43942</v>
       </c>
       <c r="M29" s="1">
-        <v>43941</v>
+        <v>43947</v>
       </c>
       <c r="N29">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="O29" s="8">
         <f t="shared" si="2"/>
-        <v>40.571428571428569</v>
+        <v>129.19999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>374</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G30" s="2">
-        <v>1929</v>
+        <v>1961</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>8</v>
@@ -3558,123 +3551,123 @@
         <v>9</v>
       </c>
       <c r="K30">
-        <v>299</v>
+        <v>568</v>
       </c>
       <c r="L30" s="1">
-        <v>43919</v>
+        <v>43927</v>
       </c>
       <c r="M30" s="1">
-        <v>43926</v>
+        <v>43941</v>
       </c>
       <c r="N30">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8">
         <f t="shared" si="2"/>
-        <v>42.714285714285715</v>
+        <v>40.571428571428569</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>374</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>20</v>
+        <v>392</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G31" s="2">
-        <v>1844</v>
+        <v>1929</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K31">
-        <v>1180</v>
+        <v>299</v>
       </c>
       <c r="L31" s="1">
-        <v>43839</v>
+        <v>43919</v>
       </c>
       <c r="M31" s="1">
-        <v>43884</v>
+        <v>43926</v>
       </c>
       <c r="N31">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="O31" s="8">
         <f t="shared" si="2"/>
-        <v>26.222222222222221</v>
+        <v>42.714285714285715</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G32" s="2">
-        <v>1979</v>
+        <v>1844</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K32">
-        <v>567</v>
+        <v>1180</v>
       </c>
       <c r="L32" s="1">
-        <v>43814</v>
+        <v>43839</v>
       </c>
       <c r="M32" s="1">
-        <v>43891</v>
+        <v>43884</v>
       </c>
       <c r="N32">
         <f t="shared" si="3"/>
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="O32" s="8">
         <f t="shared" si="2"/>
-        <v>7.3636363636363633</v>
+        <v>26.222222222222221</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>384</v>
@@ -3684,144 +3677,148 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G33" s="2">
-        <v>2019</v>
+        <v>1979</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K33">
-        <v>408</v>
+        <v>567</v>
       </c>
       <c r="L33" s="1">
-        <v>43834</v>
+        <v>43814</v>
       </c>
       <c r="M33" s="1">
-        <v>43836</v>
+        <v>43891</v>
       </c>
       <c r="N33">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="O33" s="8">
         <f t="shared" si="2"/>
-        <v>204</v>
+        <v>7.3636363636363633</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="G34" s="2">
-        <v>1957</v>
+        <v>2019</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K34">
-        <v>170</v>
+        <v>408</v>
       </c>
       <c r="L34" s="1">
-        <v>43801</v>
+        <v>43834</v>
       </c>
       <c r="M34" s="1">
-        <v>43807</v>
+        <v>43836</v>
       </c>
       <c r="N34">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O34" s="8">
         <f t="shared" si="2"/>
-        <v>28.333333333333332</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="G35" s="2">
-        <v>2018</v>
+        <v>1957</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>58</v>
+        <v>343</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K35">
-        <v>319</v>
+        <v>170</v>
       </c>
       <c r="L35" s="1">
-        <v>43799</v>
+        <v>43801</v>
       </c>
       <c r="M35" s="1">
-        <v>43800</v>
+        <v>43807</v>
       </c>
       <c r="N35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O35" s="8">
         <f t="shared" si="2"/>
-        <v>319</v>
+        <v>28.333333333333332</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G36" s="2">
         <v>2018</v>
@@ -3830,129 +3827,125 @@
         <v>331</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>336</v>
+        <v>58</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K36">
-        <v>400</v>
+        <v>319</v>
       </c>
       <c r="L36" s="1">
-        <v>43780</v>
+        <v>43799</v>
       </c>
       <c r="M36" s="1">
-        <v>43788</v>
+        <v>43800</v>
       </c>
       <c r="N36">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O36" s="8">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>354</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>358</v>
+        <v>88</v>
       </c>
       <c r="G37" s="2">
-        <v>1993</v>
+        <v>2018</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K37">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="L37" s="1">
-        <v>43762</v>
+        <v>43780</v>
       </c>
       <c r="M37" s="1">
-        <v>43773</v>
+        <v>43788</v>
       </c>
       <c r="N37">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O37" s="8">
         <f t="shared" si="2"/>
-        <v>32.272727272727273</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>354</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>28</v>
+        <v>358</v>
       </c>
       <c r="G38" s="2">
-        <v>1818</v>
+        <v>1993</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K38">
-        <v>240</v>
+        <v>355</v>
       </c>
       <c r="L38" s="1">
-        <v>43752</v>
+        <v>43762</v>
       </c>
       <c r="M38" s="1">
-        <v>43759</v>
+        <v>43773</v>
       </c>
       <c r="N38">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O38" s="8">
         <f t="shared" si="2"/>
-        <v>34.285714285714285</v>
+        <v>32.272727272727273</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>383</v>
@@ -3962,232 +3955,232 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="G39" s="2">
-        <v>2018</v>
+        <v>1818</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>96</v>
+        <v>330</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K39">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="L39" s="1">
-        <v>43743</v>
+        <v>43752</v>
       </c>
       <c r="M39" s="1">
-        <v>43749</v>
+        <v>43759</v>
       </c>
       <c r="N39">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O39" s="8">
         <f t="shared" si="2"/>
-        <v>45.333333333333336</v>
+        <v>34.285714285714285</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G40" s="2">
-        <v>1866</v>
+        <v>2018</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>339</v>
+        <v>96</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K40">
-        <v>528</v>
+        <v>272</v>
       </c>
       <c r="L40" s="1">
-        <v>43715</v>
+        <v>43743</v>
       </c>
       <c r="M40" s="1">
-        <v>43741</v>
+        <v>43749</v>
       </c>
       <c r="N40">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="O40" s="8">
         <f t="shared" si="2"/>
-        <v>20.307692307692307</v>
+        <v>45.333333333333336</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>359</v>
+        <v>97</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G41" s="2">
-        <v>1970</v>
+        <v>1866</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>49</v>
+        <v>339</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K41">
-        <v>348</v>
+        <v>528</v>
       </c>
       <c r="L41" s="1">
-        <v>43697</v>
+        <v>43715</v>
       </c>
       <c r="M41" s="1">
-        <v>43708</v>
+        <v>43741</v>
       </c>
       <c r="N41">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="O41" s="8">
         <f t="shared" si="2"/>
-        <v>31.636363636363637</v>
+        <v>20.307692307692307</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>101</v>
+        <v>359</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G42" s="2">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>333</v>
+        <v>49</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K42">
-        <v>416</v>
+        <v>348</v>
       </c>
       <c r="L42" s="1">
-        <v>43680</v>
+        <v>43697</v>
       </c>
       <c r="M42" s="1">
-        <v>43692</v>
+        <v>43708</v>
       </c>
       <c r="N42">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O42" s="8">
         <f t="shared" si="2"/>
-        <v>34.666666666666664</v>
+        <v>31.636363636363637</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="G43" s="2">
-        <v>2013</v>
+        <v>1972</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K43">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="L43" s="1">
-        <v>43663</v>
+        <v>43680</v>
       </c>
       <c r="M43" s="1">
-        <v>43677</v>
+        <v>43692</v>
       </c>
       <c r="N43">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O43" s="8">
         <f t="shared" si="2"/>
-        <v>33.071428571428569</v>
+        <v>34.666666666666664</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>384</v>
@@ -4197,44 +4190,44 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="G44" s="2">
-        <v>1965</v>
+        <v>2013</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K44">
-        <v>256</v>
+        <v>463</v>
       </c>
       <c r="L44" s="1">
-        <v>43640</v>
+        <v>43663</v>
       </c>
       <c r="M44" s="1">
-        <v>43659</v>
+        <v>43677</v>
       </c>
       <c r="N44">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O44" s="8">
         <f t="shared" si="2"/>
-        <v>13.473684210526315</v>
+        <v>33.071428571428569</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>384</v>
@@ -4244,91 +4237,91 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="G45" s="2">
-        <v>1997</v>
+        <v>1965</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K45">
-        <v>423</v>
+        <v>256</v>
       </c>
       <c r="L45" s="1">
-        <v>43618</v>
+        <v>43640</v>
       </c>
       <c r="M45" s="1">
-        <v>43636</v>
+        <v>43659</v>
       </c>
       <c r="N45">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O45" s="8">
         <f t="shared" si="2"/>
-        <v>23.5</v>
+        <v>13.473684210526315</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="G46" s="2">
-        <v>2018</v>
+        <v>1997</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K46">
-        <v>341</v>
+        <v>423</v>
       </c>
       <c r="L46" s="1">
-        <v>43616</v>
+        <v>43618</v>
       </c>
       <c r="M46" s="1">
-        <v>43617</v>
+        <v>43636</v>
       </c>
       <c r="N46">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="O46" s="8">
         <f t="shared" si="2"/>
-        <v>341</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>384</v>
@@ -4338,245 +4331,245 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>113</v>
+        <v>360</v>
       </c>
       <c r="G47" s="2">
-        <v>2003</v>
+        <v>2018</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K47">
-        <v>610</v>
+        <v>341</v>
       </c>
       <c r="L47" s="1">
-        <v>43596</v>
+        <v>43616</v>
       </c>
       <c r="M47" s="1">
-        <v>43606</v>
+        <v>43617</v>
       </c>
       <c r="N47">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O47" s="8">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>361</v>
+        <v>111</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>358</v>
+        <v>113</v>
       </c>
       <c r="G48" s="2">
-        <v>1984</v>
+        <v>2003</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>49</v>
+        <v>344</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K48">
-        <v>352</v>
+        <v>610</v>
       </c>
       <c r="L48" s="1">
-        <v>43589</v>
+        <v>43596</v>
       </c>
       <c r="M48" s="1">
-        <v>43594</v>
+        <v>43606</v>
       </c>
       <c r="N48">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O48" s="8">
         <f t="shared" si="2"/>
-        <v>70.400000000000006</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>115</v>
+        <v>361</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>117</v>
+        <v>358</v>
       </c>
       <c r="G49" s="2">
-        <v>2014</v>
+        <v>1984</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>336</v>
+        <v>49</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K49">
-        <v>288</v>
+        <v>352</v>
       </c>
       <c r="L49" s="1">
-        <v>43578</v>
+        <v>43589</v>
       </c>
       <c r="M49" s="1">
-        <v>43588</v>
+        <v>43594</v>
       </c>
       <c r="N49">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O49" s="8">
         <f t="shared" si="2"/>
-        <v>28.8</v>
+        <v>70.400000000000006</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>319</v>
+        <v>117</v>
       </c>
       <c r="G50" s="2">
-        <v>1876</v>
+        <v>2014</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K50">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="L50" s="1">
-        <v>43041</v>
+        <v>43578</v>
       </c>
       <c r="M50" s="1">
-        <v>43048</v>
+        <v>43588</v>
       </c>
       <c r="N50">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O50" s="8">
         <f t="shared" si="2"/>
-        <v>33.714285714285715</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>122</v>
+        <v>319</v>
       </c>
       <c r="G51" s="2">
-        <v>1813</v>
+        <v>1876</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K51">
-        <v>414</v>
+        <v>236</v>
       </c>
       <c r="L51" s="1">
-        <v>42875</v>
+        <v>43041</v>
       </c>
       <c r="M51" s="1">
-        <v>42881</v>
+        <v>43048</v>
       </c>
       <c r="N51">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O51" s="8">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>33.714285714285715</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>20</v>
+        <v>383</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G52" s="2">
-        <v>1869</v>
+        <v>1813</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>8</v>
@@ -4585,339 +4578,339 @@
         <v>369</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K52">
-        <v>999</v>
+        <v>414</v>
+      </c>
+      <c r="L52" s="1">
+        <v>42875</v>
+      </c>
+      <c r="M52" s="1">
+        <v>42881</v>
       </c>
       <c r="N52">
         <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="O52" s="8">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G53" s="2">
+        <v>1869</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53">
+        <v>999</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O52" s="8" t="e">
+      <c r="O53" s="8" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2" t="s">
+      <c r="E54" s="2"/>
+      <c r="F54" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G54" s="2">
         <v>1928</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="I54" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="J54" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K53">
+      <c r="K54">
         <v>323</v>
       </c>
-      <c r="L53" s="1">
+      <c r="L54" s="1">
         <v>42675</v>
       </c>
-      <c r="M53" s="1">
+      <c r="M54" s="1">
         <v>42682</v>
       </c>
-      <c r="N53">
+      <c r="N54">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="O53" s="8">
+      <c r="O54" s="8">
         <f t="shared" si="2"/>
         <v>46.142857142857146</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2" t="s">
+      <c r="E55" s="2"/>
+      <c r="F55" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G55" s="2">
         <v>1878</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="I55" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K54">
+      <c r="J55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55">
         <v>338</v>
       </c>
-      <c r="L54" s="1">
+      <c r="L55" s="1">
         <v>43477</v>
       </c>
-      <c r="M54" s="1">
+      <c r="M55" s="1">
         <v>43485</v>
       </c>
-      <c r="N54">
+      <c r="N55">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="O54" s="8">
+      <c r="O55" s="8">
         <f t="shared" si="2"/>
         <v>42.25</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2" t="s">
+      <c r="E56" s="2"/>
+      <c r="F56" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G56" s="2">
         <v>2018</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="I56" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K55">
+      <c r="J56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K56">
         <v>755</v>
       </c>
-      <c r="L55" s="1">
+      <c r="L56" s="1">
         <v>43108</v>
       </c>
-      <c r="M55" s="1">
+      <c r="M56" s="1">
         <v>43111</v>
       </c>
-      <c r="N55">
+      <c r="N56">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="O55" s="8">
+      <c r="O56" s="8">
         <f t="shared" si="2"/>
         <v>251.66666666666666</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2" t="s">
+      <c r="E57" s="2"/>
+      <c r="F57" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G57" s="2">
         <v>1954</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="I57" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K56">
+      <c r="J57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K57">
         <v>250</v>
       </c>
-      <c r="L56" s="1">
+      <c r="L57" s="1">
         <v>43411</v>
       </c>
-      <c r="M56" s="1">
+      <c r="M57" s="1">
         <v>43423</v>
       </c>
-      <c r="N56">
+      <c r="N57">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="O56" s="8">
+      <c r="O57" s="8">
         <f t="shared" si="2"/>
         <v>20.833333333333332</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2" t="s">
+      <c r="E58" s="2"/>
+      <c r="F58" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G58" s="2">
         <v>2018</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="I58" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K57">
+      <c r="J58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K58">
         <v>288</v>
       </c>
-      <c r="L57" s="1">
+      <c r="L58" s="1">
         <v>43496</v>
       </c>
-      <c r="M57" s="1">
+      <c r="M58" s="1">
         <v>43506</v>
       </c>
-      <c r="N57">
+      <c r="N58">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="O57" s="8">
+      <c r="O58" s="8">
         <f t="shared" si="2"/>
         <v>28.8</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G58" s="2">
-        <v>1898</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K58">
-        <v>61</v>
-      </c>
-      <c r="L58" s="1">
-        <v>43424</v>
-      </c>
-      <c r="M58" s="1">
-        <v>43425</v>
-      </c>
-      <c r="N58">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O58" s="8">
-        <f t="shared" si="2"/>
-        <v>61</v>
-      </c>
-    </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="G59" s="2">
-        <v>1978</v>
+        <v>1898</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K59">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L59" s="1">
-        <v>43402</v>
+        <v>43424</v>
       </c>
       <c r="M59" s="1">
-        <v>43403</v>
+        <v>43425</v>
       </c>
       <c r="N59">
         <f t="shared" si="3"/>
@@ -4925,62 +4918,62 @@
       </c>
       <c r="O59" s="8">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="G60" s="2">
-        <v>2018</v>
+        <v>1978</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>96</v>
+        <v>310</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K60">
-        <v>437</v>
+        <v>64</v>
       </c>
       <c r="L60" s="1">
-        <v>43381</v>
+        <v>43402</v>
       </c>
       <c r="M60" s="1">
-        <v>43390</v>
+        <v>43403</v>
       </c>
       <c r="N60">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O60" s="8">
         <f t="shared" si="2"/>
-        <v>48.555555555555557</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>384</v>
@@ -4990,148 +4983,148 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="G61" s="2">
-        <v>1925</v>
+        <v>2018</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>369</v>
+        <v>96</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K61">
-        <v>859</v>
+        <v>437</v>
       </c>
       <c r="L61" s="1">
-        <v>42585</v>
+        <v>43381</v>
       </c>
       <c r="M61" s="1">
-        <v>42627</v>
+        <v>43390</v>
       </c>
       <c r="N61">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="O61" s="8">
         <f t="shared" si="2"/>
-        <v>20.452380952380953</v>
+        <v>48.555555555555557</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="G62" s="2">
-        <v>1971</v>
+        <v>1925</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K62">
-        <v>416</v>
+        <v>859</v>
       </c>
       <c r="L62" s="1">
-        <v>43518</v>
+        <v>42585</v>
       </c>
       <c r="M62" s="1">
-        <v>43542</v>
+        <v>42627</v>
       </c>
       <c r="N62">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="O62" s="8">
         <f t="shared" si="2"/>
-        <v>17.333333333333332</v>
+        <v>20.452380952380953</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>362</v>
+        <v>147</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>364</v>
+        <v>148</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
-        <v>363</v>
+        <v>149</v>
       </c>
       <c r="G63" s="2">
-        <v>2015</v>
+        <v>1971</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K63">
-        <v>87</v>
+        <v>416</v>
       </c>
       <c r="L63" s="1">
-        <v>42871</v>
+        <v>43518</v>
       </c>
       <c r="M63" s="1">
-        <v>42877</v>
+        <v>43542</v>
       </c>
       <c r="N63">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="O63" s="8">
         <f t="shared" si="2"/>
-        <v>14.5</v>
+        <v>17.333333333333332</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>151</v>
+        <v>362</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>152</v>
+        <v>364</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>153</v>
+        <v>363</v>
       </c>
       <c r="G64" s="2">
         <v>2015</v>
@@ -5140,91 +5133,95 @@
         <v>331</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>49</v>
+        <v>345</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K64">
-        <v>348</v>
+        <v>87</v>
       </c>
       <c r="L64" s="1">
-        <v>42947</v>
+        <v>42871</v>
       </c>
       <c r="M64" s="1">
-        <v>42949</v>
+        <v>42877</v>
       </c>
       <c r="N64">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O64" s="8">
         <f t="shared" si="2"/>
-        <v>174</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G65" s="2">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>336</v>
+        <v>49</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K65">
-        <v>270</v>
+        <v>348</v>
       </c>
       <c r="L65" s="1">
-        <v>43246</v>
+        <v>42947</v>
       </c>
       <c r="M65" s="1">
-        <v>43253</v>
+        <v>42949</v>
       </c>
       <c r="N65">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O65" s="8">
         <f t="shared" si="2"/>
-        <v>38.571428571428569</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="G66" s="2">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>331</v>
@@ -5236,815 +5233,815 @@
         <v>9</v>
       </c>
       <c r="K66">
-        <v>148</v>
+        <v>270</v>
       </c>
       <c r="L66" s="1">
-        <v>42745</v>
+        <v>43246</v>
       </c>
       <c r="M66" s="1">
-        <v>43028</v>
+        <v>43253</v>
       </c>
       <c r="N66">
         <f t="shared" si="3"/>
-        <v>283</v>
+        <v>7</v>
       </c>
       <c r="O66" s="8">
         <f t="shared" si="2"/>
-        <v>0.52296819787985871</v>
+        <v>38.571428571428569</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>387</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="G67" s="2">
-        <v>1962</v>
+        <v>2010</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K67">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="L67" s="1">
-        <v>43328</v>
+        <v>42745</v>
       </c>
       <c r="M67" s="1">
-        <v>43344</v>
+        <v>43028</v>
       </c>
       <c r="N67">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>283</v>
       </c>
       <c r="O67" s="8">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>0.52296819787985871</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="D68" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G68" s="2">
-        <v>2015</v>
+        <v>1962</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>96</v>
+        <v>338</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K68">
-        <v>352</v>
+        <v>240</v>
       </c>
       <c r="L68" s="1">
-        <v>43092</v>
+        <v>43328</v>
       </c>
       <c r="M68" s="1">
-        <v>43191</v>
+        <v>43344</v>
       </c>
       <c r="N68">
         <f t="shared" si="3"/>
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="O68" s="8">
         <f t="shared" si="2"/>
-        <v>3.5555555555555554</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>371</v>
+        <v>161</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>398</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G69" s="2">
-        <v>1994</v>
+        <v>2015</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>336</v>
+        <v>96</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K69">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="L69" s="1">
-        <v>43183</v>
+        <v>43092</v>
       </c>
       <c r="M69" s="1">
-        <v>43198</v>
+        <v>43191</v>
       </c>
       <c r="N69">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="O69" s="8">
-        <f t="shared" ref="O69:O131" si="4">K69/N69</f>
-        <v>21.066666666666666</v>
+        <f t="shared" si="2"/>
+        <v>3.5555555555555554</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>166</v>
+        <v>371</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>20</v>
+        <v>398</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G70" s="2">
-        <v>2016</v>
+        <v>1994</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>96</v>
+        <v>336</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K70">
+        <v>316</v>
+      </c>
+      <c r="L70" s="1">
+        <v>43183</v>
+      </c>
+      <c r="M70" s="1">
+        <v>43198</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="O70" s="8">
+        <f t="shared" ref="O70:O132" si="4">K70/N70</f>
+        <v>21.066666666666666</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G71" s="2">
+        <v>2016</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K71">
         <v>188</v>
       </c>
-      <c r="L70" s="1">
+      <c r="L71" s="1">
         <v>43166</v>
       </c>
-      <c r="M70" s="1">
+      <c r="M71" s="1">
         <v>43175</v>
       </c>
-      <c r="N70">
-        <f t="shared" ref="N70:N132" si="5">M70-L70</f>
-        <v>9</v>
-      </c>
-      <c r="O70" s="8">
+      <c r="N71">
+        <f t="shared" ref="N71:N133" si="5">M71-L71</f>
+        <v>9</v>
+      </c>
+      <c r="O71" s="8">
         <f t="shared" si="4"/>
         <v>20.888888888888889</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A71" s="3" t="s">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2" t="s">
+      <c r="E72" s="2"/>
+      <c r="F72" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G72" s="2">
         <v>2014</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="H72" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="I72" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K71">
+      <c r="J72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K72">
         <v>256</v>
       </c>
-      <c r="L71" s="1">
+      <c r="L72" s="1">
         <v>43175</v>
       </c>
-      <c r="M71" s="1">
+      <c r="M72" s="1">
         <v>43177</v>
       </c>
-      <c r="N71">
+      <c r="N72">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="O71" s="8">
+      <c r="O72" s="8">
         <f t="shared" si="4"/>
         <v>128</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A72" s="3" t="s">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2" t="s">
+      <c r="E73" s="2"/>
+      <c r="F73" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G73" s="2">
         <v>2014</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="H73" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I72" s="2" t="s">
+      <c r="I73" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K72">
+      <c r="J73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K73">
         <v>272</v>
       </c>
-      <c r="L72" s="1">
+      <c r="L73" s="1">
         <v>42977</v>
       </c>
-      <c r="M72" s="1">
+      <c r="M73" s="1">
         <v>42995</v>
       </c>
-      <c r="N72">
+      <c r="N73">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="O72" s="8">
+      <c r="O73" s="8">
         <f t="shared" si="4"/>
         <v>15.111111111111111</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A73" s="3" t="s">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2" t="s">
+      <c r="E74" s="2"/>
+      <c r="F74" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G74" s="2">
         <v>1861</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="H74" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="I74" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K73">
+      <c r="J74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K74">
         <v>460</v>
       </c>
-      <c r="L73" s="1">
+      <c r="L74" s="1">
         <v>42652</v>
       </c>
-      <c r="M73" s="1">
+      <c r="M74" s="1">
         <v>42664</v>
       </c>
-      <c r="N73">
+      <c r="N74">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="O73" s="8">
+      <c r="O74" s="8">
         <f t="shared" si="4"/>
         <v>38.333333333333336</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A74" s="3" t="s">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2" t="s">
+      <c r="E75" s="2"/>
+      <c r="F75" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G74" s="2">
+      <c r="G75" s="2">
         <v>1924</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="H75" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I74" s="2" t="s">
+      <c r="I75" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K74">
+      <c r="J75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K75">
         <v>729</v>
       </c>
-      <c r="L74" s="1">
+      <c r="L75" s="1">
         <v>43049</v>
       </c>
-      <c r="M74" s="1">
+      <c r="M75" s="1">
         <v>43091</v>
       </c>
-      <c r="N74">
+      <c r="N75">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
-      <c r="O74" s="8">
+      <c r="O75" s="8">
         <f t="shared" si="4"/>
         <v>17.357142857142858</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2" t="s">
+      <c r="E76" s="2"/>
+      <c r="F76" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G76" s="2">
         <v>2015</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="H76" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I75" s="2" t="s">
+      <c r="I76" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K75">
+      <c r="J76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K76">
         <v>224</v>
       </c>
-      <c r="L75" s="1">
+      <c r="L76" s="1">
         <v>42527</v>
       </c>
-      <c r="M75" s="1">
+      <c r="M76" s="1">
         <v>42528</v>
       </c>
-      <c r="N75">
+      <c r="N76">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O75" s="8">
+      <c r="O76" s="8">
         <f t="shared" si="4"/>
         <v>224</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="s">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2" t="s">
+      <c r="E77" s="2"/>
+      <c r="F77" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G76" s="2">
+      <c r="G77" s="2">
         <v>1960</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="H77" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="I77" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="J76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K76">
+      <c r="J77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K77">
         <v>307</v>
       </c>
-      <c r="L76" s="1">
+      <c r="L77" s="1">
         <v>43227</v>
       </c>
-      <c r="M76" s="1">
+      <c r="M77" s="1">
         <v>43240</v>
       </c>
-      <c r="N76">
+      <c r="N77">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="O76" s="8">
+      <c r="O77" s="8">
         <f t="shared" si="4"/>
         <v>23.615384615384617</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2" t="s">
+      <c r="E78" s="2"/>
+      <c r="F78" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G78" s="2">
         <v>2015</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="H78" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="I78" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K77">
+      <c r="J78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K78">
         <v>90</v>
       </c>
-      <c r="L77" s="1">
+      <c r="L78" s="1">
         <v>42632</v>
       </c>
-      <c r="M77" s="1">
+      <c r="M78" s="1">
         <v>42633</v>
       </c>
-      <c r="N77">
+      <c r="N78">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O77" s="8">
+      <c r="O78" s="8">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2" t="s">
+      <c r="E79" s="2"/>
+      <c r="F79" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G78" s="2">
+      <c r="G79" s="2">
         <v>2014</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="H79" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="I79" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K78">
+      <c r="J79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K79">
         <v>286</v>
       </c>
-      <c r="L78" s="1">
+      <c r="L79" s="1">
         <v>43283</v>
       </c>
-      <c r="M78" s="1">
+      <c r="M79" s="1">
         <v>43291</v>
       </c>
-      <c r="N78">
+      <c r="N79">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="O78" s="8">
+      <c r="O79" s="8">
         <f t="shared" si="4"/>
         <v>35.75</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A79" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G79" s="2">
-        <v>2010</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K79">
-        <v>386</v>
-      </c>
-      <c r="L79" s="1">
-        <v>42941</v>
-      </c>
-      <c r="M79" s="1">
-        <v>42950</v>
-      </c>
-      <c r="N79">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="O79" s="8">
-        <f t="shared" si="4"/>
-        <v>42.888888888888886</v>
-      </c>
-    </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>379</v>
+        <v>190</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="G80" s="2">
-        <v>1967</v>
+        <v>2010</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K80">
-        <v>432</v>
+        <v>386</v>
       </c>
       <c r="L80" s="1">
-        <v>42936</v>
+        <v>42941</v>
       </c>
       <c r="M80" s="1">
-        <v>42940</v>
+        <v>42950</v>
       </c>
       <c r="N80">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O80" s="8">
         <f t="shared" si="4"/>
-        <v>108</v>
+        <v>42.888888888888886</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>194</v>
+        <v>379</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="G81" s="2">
-        <v>2017</v>
+        <v>1967</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K81">
-        <v>276</v>
+        <v>432</v>
       </c>
       <c r="L81" s="1">
-        <v>43028</v>
+        <v>42936</v>
       </c>
       <c r="M81" s="1">
-        <v>43036</v>
+        <v>42940</v>
       </c>
       <c r="N81">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O81" s="8">
         <f t="shared" si="4"/>
-        <v>34.5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="G82" s="2">
-        <v>1969</v>
+        <v>2017</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>49</v>
+        <v>347</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K82">
-        <v>157</v>
+        <v>276</v>
       </c>
       <c r="L82" s="1">
-        <v>42639</v>
+        <v>43028</v>
       </c>
       <c r="M82" s="1">
-        <v>42640</v>
+        <v>43036</v>
       </c>
       <c r="N82">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O82" s="8">
         <f t="shared" si="4"/>
-        <v>157</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="G83" s="2">
-        <v>1959</v>
+        <v>1969</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K83">
-        <v>341</v>
+        <v>157</v>
       </c>
       <c r="L83" s="1">
-        <v>42418</v>
+        <v>42639</v>
       </c>
       <c r="M83" s="1">
-        <v>42427</v>
+        <v>42640</v>
       </c>
       <c r="N83">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O83" s="8">
         <f t="shared" si="4"/>
-        <v>37.888888888888886</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>365</v>
+        <v>197</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
-        <v>200</v>
+        <v>52</v>
       </c>
       <c r="G84" s="2">
-        <v>2015</v>
+        <v>1959</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>8</v>
@@ -6056,13 +6053,13 @@
         <v>9</v>
       </c>
       <c r="K84">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="L84" s="1">
-        <v>42531</v>
+        <v>42418</v>
       </c>
       <c r="M84" s="1">
-        <v>42540</v>
+        <v>42427</v>
       </c>
       <c r="N84">
         <f t="shared" si="5"/>
@@ -6070,712 +6067,712 @@
       </c>
       <c r="O84" s="8">
         <f t="shared" si="4"/>
-        <v>40.222222222222221</v>
+        <v>37.888888888888886</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G85" s="2">
-        <v>1751</v>
+        <v>2015</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I85" t="s">
-        <v>343</v>
+        <v>8</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K85">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="L85" s="1">
-        <v>42729</v>
+        <v>42531</v>
       </c>
       <c r="M85" s="1">
-        <v>42732</v>
+        <v>42540</v>
       </c>
       <c r="N85">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O85" s="8">
         <f t="shared" si="4"/>
-        <v>36.666666666666664</v>
+        <v>40.222222222222221</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>203</v>
+        <v>366</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c r="G86" s="2">
-        <v>1939</v>
+        <v>1751</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I86" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K86">
-        <v>384</v>
+        <v>110</v>
       </c>
       <c r="L86" s="1">
-        <v>42541</v>
+        <v>42729</v>
       </c>
       <c r="M86" s="1">
-        <v>42550</v>
+        <v>42732</v>
       </c>
       <c r="N86">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O86" s="8">
         <f t="shared" si="4"/>
-        <v>42.666666666666664</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="G87" s="2">
-        <v>2008</v>
+        <v>1939</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I87" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K87">
-        <v>305</v>
+        <v>384</v>
       </c>
       <c r="L87" s="1">
-        <v>42853</v>
+        <v>42541</v>
       </c>
       <c r="M87" s="1">
-        <v>42856</v>
+        <v>42550</v>
       </c>
       <c r="N87">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O87" s="8">
         <f t="shared" si="4"/>
-        <v>101.66666666666667</v>
+        <v>42.666666666666664</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>367</v>
+        <v>205</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
-        <v>208</v>
+        <v>113</v>
       </c>
       <c r="G88" s="2">
-        <v>1965</v>
+        <v>2008</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I88" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K88">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="L88" s="1">
-        <v>42772</v>
+        <v>42853</v>
       </c>
       <c r="M88" s="1">
-        <v>42774</v>
+        <v>42856</v>
       </c>
       <c r="N88">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O88" s="8">
         <f t="shared" si="4"/>
-        <v>176</v>
+        <v>101.66666666666667</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>209</v>
+        <v>367</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>114</v>
+        <v>207</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G89" s="2">
-        <v>1975</v>
+        <v>1965</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I89" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K89">
-        <v>173</v>
+        <v>352</v>
       </c>
       <c r="L89" s="1">
-        <v>43105</v>
+        <v>42772</v>
       </c>
       <c r="M89" s="1">
-        <v>43106</v>
+        <v>42774</v>
       </c>
       <c r="N89">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O89" s="8">
         <f t="shared" si="4"/>
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>212</v>
+        <v>114</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="G90" s="2">
-        <v>1936</v>
+        <v>1975</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I90" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K90">
-        <v>348</v>
+        <v>173</v>
       </c>
       <c r="L90" s="1">
-        <v>42895</v>
+        <v>43105</v>
       </c>
       <c r="M90" s="1">
-        <v>42899</v>
+        <v>43106</v>
       </c>
       <c r="N90">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O90" s="8">
         <f t="shared" si="4"/>
-        <v>87</v>
+        <v>173</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="G91" s="2">
-        <v>1963</v>
+        <v>1936</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I91" t="s">
-        <v>49</v>
+        <v>347</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K91">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="L91" s="1">
-        <v>43200</v>
+        <v>42895</v>
       </c>
       <c r="M91" s="1">
-        <v>43212</v>
+        <v>42899</v>
       </c>
       <c r="N91">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="O91" s="8">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
-        <v>217</v>
+        <v>134</v>
       </c>
       <c r="G92" s="2">
-        <v>1928</v>
+        <v>1963</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I92" t="s">
-        <v>332</v>
+        <v>49</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K92">
-        <v>546</v>
+        <v>312</v>
       </c>
       <c r="L92" s="1">
-        <v>43217</v>
+        <v>43200</v>
       </c>
       <c r="M92" s="1">
-        <v>43226</v>
+        <v>43212</v>
       </c>
       <c r="N92">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O92" s="8">
         <f t="shared" si="4"/>
-        <v>60.666666666666664</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2" t="s">
-        <v>52</v>
+        <v>217</v>
       </c>
       <c r="G93" s="2">
-        <v>1946</v>
+        <v>1928</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I93" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K93">
-        <v>661</v>
+        <v>546</v>
       </c>
       <c r="L93" s="1">
-        <v>42385</v>
+        <v>43217</v>
       </c>
       <c r="M93" s="1">
-        <v>42404</v>
+        <v>43226</v>
       </c>
       <c r="N93">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="O93" s="8">
         <f t="shared" si="4"/>
-        <v>34.789473684210527</v>
+        <v>60.666666666666664</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>380</v>
+        <v>219</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
-        <v>221</v>
+        <v>52</v>
       </c>
       <c r="G94" s="2">
-        <v>1996</v>
+        <v>1946</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I94" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K94">
-        <v>227</v>
+        <v>661</v>
       </c>
       <c r="L94" s="1">
-        <v>43163</v>
+        <v>42385</v>
       </c>
       <c r="M94" s="1">
-        <v>43165</v>
+        <v>42404</v>
       </c>
       <c r="N94">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O94" s="8">
         <f t="shared" si="4"/>
-        <v>113.5</v>
+        <v>34.789473684210527</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>223</v>
+        <v>380</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G95" s="2">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I95" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K95">
-        <v>94</v>
+        <v>227</v>
       </c>
       <c r="L95" s="1">
-        <v>43121</v>
+        <v>43163</v>
       </c>
       <c r="M95" s="1">
-        <v>43121</v>
+        <v>43165</v>
       </c>
       <c r="N95">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O95" s="8" t="e">
+        <v>2</v>
+      </c>
+      <c r="O95" s="8">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>329</v>
+        <v>222</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G96" s="2">
-        <v>1987</v>
+        <v>1998</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I96" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K96">
-        <v>372</v>
+        <v>94</v>
       </c>
       <c r="L96" s="1">
-        <v>42767</v>
+        <v>43121</v>
       </c>
       <c r="M96" s="1">
-        <v>42768</v>
+        <v>43121</v>
       </c>
       <c r="N96">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O96" s="8">
+        <v>0</v>
+      </c>
+      <c r="O96" s="8" t="e">
         <f t="shared" si="4"/>
-        <v>372</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>227</v>
+        <v>329</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2" t="s">
-        <v>139</v>
+        <v>226</v>
       </c>
       <c r="G97" s="2">
-        <v>1967</v>
+        <v>1987</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I97" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K97">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="L97" s="1">
+        <v>42767</v>
+      </c>
+      <c r="M97" s="1">
         <v>42768</v>
-      </c>
-      <c r="M97" s="1">
-        <v>42771</v>
       </c>
       <c r="N97">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O97" s="8">
         <f t="shared" si="4"/>
-        <v>137.33333333333334</v>
+        <v>372</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="G98" s="2">
-        <v>2010</v>
+        <v>1967</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I98" t="s">
-        <v>49</v>
+        <v>343</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K98">
-        <v>941</v>
+        <v>412</v>
       </c>
       <c r="L98" s="1">
-        <v>42883</v>
+        <v>42768</v>
       </c>
       <c r="M98" s="1">
-        <v>42894</v>
+        <v>42771</v>
       </c>
       <c r="N98">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="O98" s="8">
         <f t="shared" si="4"/>
-        <v>85.545454545454547</v>
+        <v>137.33333333333334</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2" t="s">
-        <v>28</v>
+        <v>231</v>
       </c>
       <c r="G99" s="2">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I99" t="s">
-        <v>344</v>
+        <v>49</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K99">
-        <v>304</v>
+        <v>941</v>
       </c>
       <c r="L99" s="1">
-        <v>43106</v>
+        <v>42883</v>
       </c>
       <c r="M99" s="1">
-        <v>43120</v>
+        <v>42894</v>
       </c>
       <c r="N99">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O99" s="8">
         <f t="shared" si="4"/>
-        <v>21.714285714285715</v>
+        <v>85.545454545454547</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>63</v>
+        <v>233</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G100" s="2">
-        <v>1963</v>
+        <v>2017</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I100" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K100">
-        <v>492</v>
+        <v>304</v>
       </c>
       <c r="L100" s="1">
-        <v>43127</v>
+        <v>43106</v>
       </c>
       <c r="M100" s="1">
-        <v>43148</v>
+        <v>43120</v>
       </c>
       <c r="N100">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="O100" s="8">
         <f t="shared" si="4"/>
-        <v>23.428571428571427</v>
+        <v>21.714285714285715</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>236</v>
+        <v>63</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G101" s="2">
-        <v>1949</v>
+        <v>1963</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>8</v>
@@ -6787,130 +6784,130 @@
         <v>9</v>
       </c>
       <c r="K101">
-        <v>311</v>
+        <v>492</v>
       </c>
       <c r="L101" s="1">
-        <v>43149</v>
+        <v>43127</v>
       </c>
       <c r="M101" s="1">
-        <v>43155</v>
+        <v>43148</v>
       </c>
       <c r="N101">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="O101" s="8">
         <f t="shared" si="4"/>
-        <v>51.833333333333336</v>
+        <v>23.428571428571427</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2" t="s">
-        <v>239</v>
+        <v>113</v>
       </c>
       <c r="G102" s="2">
-        <v>2015</v>
+        <v>1949</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I102" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K102">
-        <v>384</v>
+        <v>311</v>
       </c>
       <c r="L102" s="1">
-        <v>42919</v>
+        <v>43149</v>
       </c>
       <c r="M102" s="1">
-        <v>42929</v>
+        <v>43155</v>
       </c>
       <c r="N102">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O102" s="8">
         <f t="shared" si="4"/>
-        <v>38.4</v>
+        <v>51.833333333333336</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="G103" s="2">
-        <v>1992</v>
+        <v>2015</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I103" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K103">
-        <v>256</v>
+        <v>384</v>
       </c>
       <c r="L103" s="1">
-        <v>42732</v>
+        <v>42919</v>
       </c>
       <c r="M103" s="1">
-        <v>42737</v>
+        <v>42929</v>
       </c>
       <c r="N103">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O103" s="8">
         <f t="shared" si="4"/>
-        <v>51.2</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="G104" s="2">
-        <v>1977</v>
+        <v>1992</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I104" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>9</v>
@@ -6919,182 +6916,182 @@
         <v>256</v>
       </c>
       <c r="L104" s="1">
-        <v>42382</v>
+        <v>42732</v>
       </c>
       <c r="M104" s="1">
-        <v>42383</v>
+        <v>42737</v>
       </c>
       <c r="N104">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O104" s="8">
         <f t="shared" si="4"/>
-        <v>256</v>
+        <v>51.2</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2" t="s">
-        <v>52</v>
+        <v>153</v>
       </c>
       <c r="G105" s="2">
-        <v>1927</v>
+        <v>1977</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I105" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K105">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="L105" s="1">
-        <v>42790</v>
+        <v>42382</v>
       </c>
       <c r="M105" s="1">
-        <v>42802</v>
+        <v>42383</v>
       </c>
       <c r="N105">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O105" s="8">
         <f t="shared" si="4"/>
-        <v>22.666666666666668</v>
+        <v>256</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2" t="s">
-        <v>248</v>
+        <v>52</v>
       </c>
       <c r="G106" s="2">
-        <v>1997</v>
+        <v>1927</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I106" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K106">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="L106" s="1">
-        <v>42805</v>
+        <v>42790</v>
       </c>
       <c r="M106" s="1">
-        <v>42811</v>
+        <v>42802</v>
       </c>
       <c r="N106">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O106" s="8">
         <f t="shared" si="4"/>
-        <v>48.833333333333336</v>
+        <v>22.666666666666668</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2" t="s">
-        <v>113</v>
+        <v>248</v>
       </c>
       <c r="G107" s="2">
-        <v>2013</v>
+        <v>1997</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I107" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K107">
-        <v>496</v>
+        <v>293</v>
       </c>
       <c r="L107" s="1">
-        <v>42645</v>
+        <v>42805</v>
       </c>
       <c r="M107" s="1">
-        <v>42649</v>
+        <v>42811</v>
       </c>
       <c r="N107">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O107" s="8">
         <f t="shared" si="4"/>
-        <v>124</v>
+        <v>48.833333333333336</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>82</v>
+        <v>250</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="G108" s="2">
-        <v>1955</v>
+        <v>2013</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I108" t="s">
-        <v>369</v>
+        <v>96</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K108">
-        <v>331</v>
+        <v>496</v>
       </c>
       <c r="L108" s="1">
-        <v>42823</v>
+        <v>42645</v>
       </c>
       <c r="M108" s="1">
-        <v>42827</v>
+        <v>42649</v>
       </c>
       <c r="N108">
         <f t="shared" si="5"/>
@@ -7102,239 +7099,239 @@
       </c>
       <c r="O108" s="8">
         <f t="shared" si="4"/>
-        <v>82.75</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>381</v>
+        <v>82</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G109" s="2">
-        <v>1991</v>
+        <v>1955</v>
       </c>
       <c r="H109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I109" t="s">
+        <v>369</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K109">
         <v>331</v>
       </c>
-      <c r="I109" t="s">
-        <v>344</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K109">
-        <v>149</v>
-      </c>
       <c r="L109" s="1">
-        <v>42665</v>
+        <v>42823</v>
       </c>
       <c r="M109" s="1">
-        <v>42668</v>
+        <v>42827</v>
       </c>
       <c r="N109">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O109" s="8">
         <f t="shared" si="4"/>
-        <v>49.666666666666664</v>
+        <v>82.75</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>254</v>
+        <v>381</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2" t="s">
-        <v>255</v>
+        <v>30</v>
       </c>
       <c r="G110" s="2">
-        <v>1942</v>
+        <v>1991</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I110" t="s">
-        <v>49</v>
+        <v>344</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K110">
-        <v>495</v>
+        <v>149</v>
       </c>
       <c r="L110" s="1">
-        <v>42711</v>
+        <v>42665</v>
       </c>
       <c r="M110" s="1">
-        <v>42727</v>
+        <v>42668</v>
       </c>
       <c r="N110">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="O110" s="8">
         <f t="shared" si="4"/>
-        <v>30.9375</v>
+        <v>49.666666666666664</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2" t="s">
-        <v>191</v>
+        <v>255</v>
       </c>
       <c r="G111" s="2">
-        <v>2010</v>
+        <v>1942</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I111" t="s">
-        <v>346</v>
+        <v>49</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K111">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="L111" s="1">
-        <v>42776</v>
+        <v>42711</v>
       </c>
       <c r="M111" s="1">
-        <v>42785</v>
+        <v>42727</v>
       </c>
       <c r="N111">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O111" s="8">
         <f t="shared" si="4"/>
-        <v>49.555555555555557</v>
+        <v>30.9375</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2" t="s">
-        <v>61</v>
+        <v>191</v>
       </c>
       <c r="G112" s="2">
-        <v>1992</v>
+        <v>2010</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I112" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K112">
-        <v>224</v>
+        <v>446</v>
       </c>
       <c r="L112" s="1">
-        <v>42249</v>
+        <v>42776</v>
       </c>
       <c r="M112" s="1">
-        <v>42250</v>
+        <v>42785</v>
       </c>
       <c r="N112">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O112" s="8">
         <f t="shared" si="4"/>
-        <v>224</v>
+        <v>49.555555555555557</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G113" s="2">
-        <v>1934</v>
+        <v>1992</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I113" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K113">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="L113" s="1">
-        <v>43294</v>
+        <v>42249</v>
       </c>
       <c r="M113" s="1">
-        <v>43307</v>
+        <v>42250</v>
       </c>
       <c r="N113">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="O113" s="8">
         <f t="shared" si="4"/>
-        <v>19.307692307692307</v>
+        <v>224</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="G114" s="2">
-        <v>1951</v>
+        <v>1934</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>8</v>
@@ -7346,293 +7343,293 @@
         <v>9</v>
       </c>
       <c r="K114">
-        <v>192</v>
+        <v>251</v>
       </c>
       <c r="L114" s="1">
-        <v>42518</v>
+        <v>43294</v>
       </c>
       <c r="M114" s="1">
-        <v>42522</v>
+        <v>43307</v>
       </c>
       <c r="N114">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="O114" s="8">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>19.307692307692307</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>370</v>
+        <v>262</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2" t="s">
-        <v>319</v>
+        <v>52</v>
       </c>
       <c r="G115" s="2">
-        <v>2013</v>
+        <v>1951</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I115" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K115">
-        <v>329</v>
+        <v>192</v>
       </c>
       <c r="L115" s="1">
-        <v>42512</v>
+        <v>42518</v>
       </c>
       <c r="M115" s="1">
-        <v>42514</v>
+        <v>42522</v>
       </c>
       <c r="N115">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O115" s="8">
         <f t="shared" si="4"/>
-        <v>164.5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>265</v>
+        <v>370</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>65</v>
+        <v>264</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2" t="s">
-        <v>30</v>
+        <v>319</v>
       </c>
       <c r="G116" s="2">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I116" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K116">
-        <v>498</v>
+        <v>329</v>
       </c>
       <c r="L116" s="1">
-        <v>43308</v>
+        <v>42512</v>
       </c>
       <c r="M116" s="1">
-        <v>43322</v>
+        <v>42514</v>
       </c>
       <c r="N116">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="O116" s="8">
         <f t="shared" si="4"/>
-        <v>35.571428571428569</v>
+        <v>164.5</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>267</v>
+        <v>65</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2" t="s">
-        <v>268</v>
+        <v>30</v>
       </c>
       <c r="G117" s="2">
-        <v>1971</v>
+        <v>2011</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I117" t="s">
-        <v>369</v>
+        <v>96</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K117">
-        <v>160</v>
+        <v>498</v>
       </c>
       <c r="L117" s="1">
-        <v>42643</v>
+        <v>43308</v>
       </c>
       <c r="M117" s="1">
-        <v>42644</v>
+        <v>43322</v>
       </c>
       <c r="N117">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="O117" s="8">
         <f t="shared" si="4"/>
-        <v>160</v>
+        <v>35.571428571428569</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G118" s="2">
-        <v>2000</v>
+        <v>1971</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I118" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K118">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="L118" s="1">
-        <v>42628</v>
+        <v>42643</v>
       </c>
       <c r="M118" s="1">
-        <v>42632</v>
+        <v>42644</v>
       </c>
       <c r="N118">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O118" s="8">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G119" s="2">
         <v>2000</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I119" t="s">
-        <v>332</v>
+        <v>49</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K119">
-        <v>639</v>
+        <v>176</v>
       </c>
       <c r="L119" s="1">
-        <v>42683</v>
+        <v>42628</v>
       </c>
       <c r="M119" s="1">
-        <v>42695</v>
+        <v>42632</v>
       </c>
       <c r="N119">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="O119" s="8">
         <f t="shared" si="4"/>
-        <v>53.25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2" t="s">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="G120" s="2">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I120" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K120">
-        <v>563</v>
+        <v>639</v>
       </c>
       <c r="L120" s="1">
-        <v>42830</v>
+        <v>42683</v>
       </c>
       <c r="M120" s="1">
-        <v>42846</v>
+        <v>42695</v>
       </c>
       <c r="N120">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O120" s="8">
         <f t="shared" si="4"/>
-        <v>35.1875</v>
+        <v>53.25</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="G121" s="2">
         <v>2015</v>
@@ -7641,78 +7638,78 @@
         <v>8</v>
       </c>
       <c r="I121" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K121">
-        <v>304</v>
+        <v>563</v>
       </c>
       <c r="L121" s="1">
-        <v>42848</v>
+        <v>42830</v>
       </c>
       <c r="M121" s="1">
-        <v>42852</v>
+        <v>42846</v>
       </c>
       <c r="N121">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="O121" s="8">
         <f t="shared" si="4"/>
-        <v>76</v>
+        <v>35.1875</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2" t="s">
-        <v>28</v>
+        <v>279</v>
       </c>
       <c r="G122" s="2">
-        <v>1994</v>
+        <v>2015</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I122" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K122">
-        <v>480</v>
+        <v>304</v>
       </c>
       <c r="L122" s="1">
-        <v>42358</v>
+        <v>42848</v>
       </c>
       <c r="M122" s="1">
-        <v>42377</v>
+        <v>42852</v>
       </c>
       <c r="N122">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="O122" s="8">
         <f t="shared" si="4"/>
-        <v>25.263157894736842</v>
+        <v>76</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -7721,50 +7718,50 @@
         <v>28</v>
       </c>
       <c r="G123" s="2">
-        <v>1962</v>
+        <v>1994</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I123" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K123">
-        <v>256</v>
+        <v>480</v>
       </c>
       <c r="L123" s="1">
-        <v>42696</v>
+        <v>42358</v>
       </c>
       <c r="M123" s="1">
-        <v>42700</v>
+        <v>42377</v>
       </c>
       <c r="N123">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="O123" s="8">
         <f t="shared" si="4"/>
-        <v>64</v>
+        <v>25.263157894736842</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2" t="s">
-        <v>286</v>
+        <v>28</v>
       </c>
       <c r="G124" s="2">
-        <v>1929</v>
+        <v>1962</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>8</v>
@@ -7776,142 +7773,142 @@
         <v>9</v>
       </c>
       <c r="K124">
-        <v>348</v>
+        <v>256</v>
       </c>
       <c r="L124" s="1">
-        <v>42860</v>
+        <v>42696</v>
       </c>
       <c r="M124" s="1">
-        <v>42869</v>
+        <v>42700</v>
       </c>
       <c r="N124">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O124" s="8">
         <f t="shared" si="4"/>
-        <v>38.666666666666664</v>
+        <v>64</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G125" s="2">
-        <v>1897</v>
+        <v>1929</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I125" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K125">
-        <v>496</v>
+        <v>348</v>
       </c>
       <c r="L125" s="1">
-        <v>42952</v>
+        <v>42860</v>
       </c>
       <c r="M125" s="1">
-        <v>42962</v>
+        <v>42869</v>
       </c>
       <c r="N125">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O125" s="8">
         <f t="shared" si="4"/>
-        <v>49.6</v>
+        <v>38.666666666666664</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2" t="s">
-        <v>168</v>
+        <v>289</v>
       </c>
       <c r="G126" s="2">
-        <v>2016</v>
+        <v>1897</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I126" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K126">
-        <v>302</v>
+        <v>496</v>
       </c>
       <c r="L126" s="1">
-        <v>43179</v>
+        <v>42952</v>
       </c>
       <c r="M126" s="1">
-        <v>43183</v>
+        <v>42962</v>
       </c>
       <c r="N126">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O126" s="8">
         <f t="shared" si="4"/>
-        <v>75.5</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2" t="s">
-        <v>248</v>
+        <v>168</v>
       </c>
       <c r="G127" s="2">
-        <v>1886</v>
+        <v>2016</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I127" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K127">
-        <v>110</v>
+        <v>302</v>
       </c>
       <c r="L127" s="1">
-        <v>43430</v>
+        <v>43179</v>
       </c>
       <c r="M127" s="1">
-        <v>43434</v>
+        <v>43183</v>
       </c>
       <c r="N127">
         <f t="shared" si="5"/>
@@ -7919,42 +7916,42 @@
       </c>
       <c r="O127" s="8">
         <f t="shared" si="4"/>
-        <v>27.5</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="G128" s="2">
-        <v>2013</v>
+        <v>1886</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I128" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K128">
-        <v>256</v>
+        <v>110</v>
       </c>
       <c r="L128" s="1">
-        <v>43449</v>
+        <v>43430</v>
       </c>
       <c r="M128" s="1">
-        <v>43453</v>
+        <v>43434</v>
       </c>
       <c r="N128">
         <f t="shared" si="5"/>
@@ -7962,282 +7959,282 @@
       </c>
       <c r="O128" s="8">
         <f t="shared" si="4"/>
-        <v>64</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="G129" s="2">
-        <v>1972</v>
+        <v>2013</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I129" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K129">
-        <v>506</v>
+        <v>256</v>
       </c>
       <c r="L129" s="1">
-        <v>43436</v>
+        <v>43449</v>
       </c>
       <c r="M129" s="1">
-        <v>43446</v>
+        <v>43453</v>
       </c>
       <c r="N129">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O129" s="8">
         <f t="shared" si="4"/>
-        <v>50.6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="G130" s="2">
-        <v>2016</v>
+        <v>1972</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I130" t="s">
-        <v>49</v>
+        <v>332</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K130">
-        <v>941</v>
+        <v>506</v>
       </c>
       <c r="L130" s="1">
-        <v>42737</v>
+        <v>43436</v>
       </c>
       <c r="M130" s="1">
-        <v>42767</v>
+        <v>43446</v>
       </c>
       <c r="N130">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="O130" s="8">
         <f t="shared" si="4"/>
-        <v>31.366666666666667</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>382</v>
+        <v>300</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G131" s="2">
-        <v>1959</v>
+        <v>2016</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I131" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K131">
-        <v>582</v>
+        <v>941</v>
       </c>
       <c r="L131" s="1">
-        <v>42567</v>
+        <v>42737</v>
       </c>
       <c r="M131" s="1">
-        <v>42578</v>
+        <v>42767</v>
       </c>
       <c r="N131">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="O131" s="8">
         <f t="shared" si="4"/>
-        <v>52.909090909090907</v>
+        <v>31.366666666666667</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>305</v>
+        <v>382</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2" t="s">
-        <v>156</v>
+        <v>303</v>
       </c>
       <c r="G132" s="2">
-        <v>2015</v>
+        <v>1959</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I132" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K132">
-        <v>862</v>
+        <v>582</v>
       </c>
       <c r="L132" s="1">
-        <v>42445</v>
+        <v>42567</v>
       </c>
       <c r="M132" s="1">
-        <v>42484</v>
+        <v>42578</v>
       </c>
       <c r="N132">
         <f t="shared" si="5"/>
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="O132" s="8">
-        <f t="shared" ref="O132:O139" si="6">K132/N132</f>
-        <v>22.102564102564102</v>
+        <f t="shared" si="4"/>
+        <v>52.909090909090907</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2" t="s">
-        <v>308</v>
+        <v>156</v>
       </c>
       <c r="G133" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I133" t="s">
-        <v>344</v>
+        <v>49</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K133">
-        <v>488</v>
+        <v>862</v>
       </c>
       <c r="L133" s="1">
-        <v>42431</v>
+        <v>42445</v>
       </c>
       <c r="M133" s="1">
-        <v>42445</v>
+        <v>42484</v>
       </c>
       <c r="N133">
-        <f t="shared" ref="N133:N139" si="7">M133-L133</f>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>39</v>
       </c>
       <c r="O133" s="8">
-        <f t="shared" si="6"/>
-        <v>34.857142857142854</v>
+        <f t="shared" ref="O133:O140" si="6">K133/N133</f>
+        <v>22.102564102564102</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>150</v>
+        <v>307</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2" t="s">
-        <v>163</v>
+        <v>308</v>
       </c>
       <c r="G134" s="2">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I134" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K134">
-        <v>352</v>
+        <v>488</v>
       </c>
       <c r="L134" s="1">
-        <v>42899</v>
+        <v>42431</v>
       </c>
       <c r="M134" s="1">
-        <v>42918</v>
+        <v>42445</v>
       </c>
       <c r="N134">
-        <f t="shared" si="7"/>
-        <v>19</v>
+        <f t="shared" ref="N134:N140" si="7">M134-L134</f>
+        <v>14</v>
       </c>
       <c r="O134" s="8">
         <f t="shared" si="6"/>
-        <v>18.526315789473685</v>
+        <v>34.857142857142854</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>312</v>
+        <v>150</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2" t="s">
-        <v>319</v>
+        <v>163</v>
       </c>
       <c r="G135" s="2">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>331</v>
@@ -8249,197 +8246,240 @@
         <v>9</v>
       </c>
       <c r="K135">
-        <v>255</v>
+        <v>352</v>
       </c>
       <c r="L135" s="1">
-        <v>43405</v>
+        <v>42899</v>
       </c>
       <c r="M135" s="1">
-        <v>43411</v>
+        <v>42918</v>
       </c>
       <c r="N135">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="O135" s="8">
         <f t="shared" si="6"/>
-        <v>42.5</v>
+        <v>18.526315789473685</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2" t="s">
-        <v>12</v>
+        <v>319</v>
       </c>
       <c r="G136" s="2">
-        <v>1985</v>
+        <v>2016</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I136" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K136">
-        <v>324</v>
+        <v>255</v>
       </c>
       <c r="L136" s="1">
-        <v>43509</v>
+        <v>43405</v>
       </c>
       <c r="M136" s="1">
-        <v>43516</v>
+        <v>43411</v>
       </c>
       <c r="N136">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O136" s="8">
         <f t="shared" si="6"/>
-        <v>46.285714285714285</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2" t="s">
-        <v>286</v>
+        <v>12</v>
       </c>
       <c r="G137" s="2">
-        <v>1854</v>
+        <v>1985</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I137" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K137">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="L137" s="1">
-        <v>43369</v>
+        <v>43509</v>
       </c>
       <c r="M137" s="1">
-        <v>43381</v>
+        <v>43516</v>
       </c>
       <c r="N137">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O137" s="8">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>46.285714285714285</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>377</v>
+        <v>316</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="G138" s="2">
-        <v>1963</v>
+        <v>1854</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I138" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K138">
-        <v>257</v>
+        <v>360</v>
       </c>
       <c r="L138" s="1">
-        <v>43427</v>
+        <v>43369</v>
       </c>
       <c r="M138" s="1">
-        <v>43429</v>
+        <v>43381</v>
       </c>
       <c r="N138">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O138" s="8">
         <f t="shared" si="6"/>
-        <v>128.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>317</v>
+        <v>368</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>318</v>
+        <v>377</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2" t="s">
-        <v>61</v>
+        <v>248</v>
       </c>
       <c r="G139" s="2">
-        <v>1979</v>
+        <v>1963</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I139" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K139">
-        <v>592</v>
+        <v>257</v>
       </c>
       <c r="L139" s="1">
-        <v>43543</v>
+        <v>43427</v>
       </c>
       <c r="M139" s="1">
-        <v>43576</v>
+        <v>43429</v>
       </c>
       <c r="N139">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="O139" s="8">
         <f t="shared" si="6"/>
+        <v>128.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A140" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G140" s="2">
+        <v>1979</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I140" t="s">
+        <v>347</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K140">
+        <v>592</v>
+      </c>
+      <c r="L140" s="1">
+        <v>43543</v>
+      </c>
+      <c r="M140" s="1">
+        <v>43576</v>
+      </c>
+      <c r="N140">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="O140" s="8">
+        <f t="shared" si="6"/>
         <v>17.939393939393938</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N139" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N140" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/b2.xlsx
+++ b/b2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751D6ED6-398A-40D3-9B1E-729FF0D6FAF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5754D82D-C133-4FEE-9333-1C004D28B974}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="410">
   <si>
     <t>Title</t>
   </si>
@@ -1269,6 +1269,9 @@
   </si>
   <si>
     <t>Our Man in Havana</t>
+  </si>
+  <si>
+    <t>Greene, Graham</t>
   </si>
 </sst>
 </file>
@@ -2144,7 +2147,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q3" sqref="Q3"/>
+      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2213,12 +2216,24 @@
       <c r="A2" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="2"/>
+      <c r="B2" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1958</v>
+      </c>
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>

--- a/b2.xlsx
+++ b/b2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5754D82D-C133-4FEE-9333-1C004D28B974}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18912B94-4B45-4A4E-912F-B5D7D148E26A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="clean" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">clean!$A$1:$N$140</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">clean!$A$1:$N$141</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="413">
   <si>
     <t>Title</t>
   </si>
@@ -1272,6 +1272,15 @@
   </si>
   <si>
     <t>Greene, Graham</t>
+  </si>
+  <si>
+    <t>Les vérités cachées de la guerre d'Algérie</t>
+  </si>
+  <si>
+    <t>Sévillia, Jean</t>
+  </si>
+  <si>
+    <t>Fayard</t>
   </si>
 </sst>
 </file>
@@ -2141,13 +2150,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O140"/>
+  <dimension ref="A1:O141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
+      <selection pane="bottomRight" activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2214,13 +2223,13 @@
     </row>
     <row r="2" spans="1:15" s="7" customFormat="1" ht="19" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>383</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>387</v>
@@ -2229,238 +2238,240 @@
         <v>402</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>231</v>
+        <v>412</v>
       </c>
       <c r="G2" s="2">
-        <v>1958</v>
+        <v>2018</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>343</v>
+        <v>49</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K2" s="2">
-        <v>262</v>
+        <v>401</v>
       </c>
       <c r="L2" s="1">
-        <v>44212</v>
+        <v>44227</v>
       </c>
       <c r="M2" s="1">
-        <v>44223</v>
+        <v>44240</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N4" si="0">M2-L2</f>
-        <v>11</v>
+        <f t="shared" ref="N2" si="0">M2-L2</f>
+        <v>13</v>
       </c>
       <c r="O2" s="8">
-        <f t="shared" ref="O2:O4" si="1">K2/N2</f>
-        <v>23.818181818181817</v>
+        <f t="shared" ref="O2" si="1">K2/N2</f>
+        <v>30.846153846153847</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>383</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="G3" s="2">
-        <v>1934</v>
+        <v>1958</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K3" s="2">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c r="L3" s="1">
-        <v>44207</v>
+        <v>44212</v>
       </c>
       <c r="M3" s="1">
-        <v>44212</v>
+        <v>44223</v>
       </c>
       <c r="N3">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" ref="N3:N5" si="2">M3-L3</f>
+        <v>11</v>
       </c>
       <c r="O3" s="8">
-        <f t="shared" si="1"/>
-        <v>43.4</v>
+        <f t="shared" ref="O3:O5" si="3">K3/N3</f>
+        <v>23.818181818181817</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>383</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="G4" s="2">
-        <v>2013</v>
+        <v>1934</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K4" s="2">
-        <v>533</v>
+        <v>217</v>
       </c>
       <c r="L4" s="1">
-        <v>44193</v>
+        <v>44207</v>
       </c>
       <c r="M4" s="1">
-        <v>44195</v>
+        <v>44212</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="O4" s="8">
-        <f t="shared" si="1"/>
-        <v>266.5</v>
+        <f t="shared" si="3"/>
+        <v>43.4</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2013</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2">
+        <v>533</v>
+      </c>
+      <c r="L5" s="1">
+        <v>44193</v>
+      </c>
+      <c r="M5" s="1">
+        <v>44195</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O5" s="8">
+        <f t="shared" si="3"/>
+        <v>266.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G6" s="2">
         <v>2020</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="2">
+      <c r="J6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="2">
         <v>278</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L6" s="1">
         <v>44178</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M6" s="1">
         <v>44193</v>
-      </c>
-      <c r="N5">
-        <f>M5-L5</f>
-        <v>15</v>
-      </c>
-      <c r="O5" s="8">
-        <f>K5/N5</f>
-        <v>18.533333333333335</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2006</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" t="s">
-        <v>330</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6">
-        <v>420</v>
-      </c>
-      <c r="L6" s="1">
-        <v>44163</v>
-      </c>
-      <c r="M6" s="1">
-        <v>44165</v>
       </c>
       <c r="N6">
         <f>M6-L6</f>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O6" s="8">
-        <f t="shared" ref="O6:O69" si="2">K6/N6</f>
-        <v>210</v>
+        <f>K6/N6</f>
+        <v>18.533333333333335</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>384</v>
@@ -2470,890 +2481,890 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G7" s="2">
-        <v>1983</v>
+        <v>2006</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I7" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K7">
-        <v>291</v>
+        <v>420</v>
       </c>
       <c r="L7" s="1">
-        <v>44156</v>
+        <v>44163</v>
       </c>
       <c r="M7" s="1">
-        <v>44163</v>
+        <v>44165</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="N7:N70" si="3">M7-L7</f>
-        <v>7</v>
+        <f>M7-L7</f>
+        <v>2</v>
       </c>
       <c r="O7" s="8">
-        <f t="shared" si="2"/>
-        <v>41.571428571428569</v>
+        <f t="shared" ref="O7:O70" si="4">K7/N7</f>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G8" s="2">
-        <v>2017</v>
-      </c>
-      <c r="H8" t="s">
-        <v>331</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>336</v>
+        <v>1983</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>369</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K8">
-        <v>176</v>
+        <v>291</v>
       </c>
       <c r="L8" s="1">
-        <v>44150</v>
+        <v>44156</v>
       </c>
       <c r="M8" s="1">
-        <v>44155</v>
+        <v>44163</v>
       </c>
       <c r="N8">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" ref="N8:N71" si="5">M8-L8</f>
+        <v>7</v>
       </c>
       <c r="O8" s="8">
-        <f t="shared" si="2"/>
-        <v>35.200000000000003</v>
+        <f t="shared" si="4"/>
+        <v>41.571428571428569</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G9" s="2">
-        <v>1980</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>8</v>
+        <v>2017</v>
+      </c>
+      <c r="H9" t="s">
+        <v>331</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K9">
-        <v>502</v>
+        <v>176</v>
       </c>
       <c r="L9" s="1">
-        <v>44129</v>
+        <v>44150</v>
       </c>
       <c r="M9" s="1">
-        <v>44142</v>
+        <v>44155</v>
       </c>
       <c r="N9">
-        <f>M9-L9</f>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="O9" s="8">
-        <f t="shared" si="2"/>
-        <v>38.615384615384613</v>
+        <f t="shared" si="4"/>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>385</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>389</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G10" s="2">
-        <v>1938</v>
+        <v>1980</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K10">
-        <v>247</v>
+        <v>502</v>
       </c>
       <c r="L10" s="1">
-        <v>44114</v>
+        <v>44129</v>
       </c>
       <c r="M10" s="1">
-        <v>44129</v>
+        <v>44142</v>
       </c>
       <c r="N10">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <f>M10-L10</f>
+        <v>13</v>
       </c>
       <c r="O10" s="8">
-        <f t="shared" si="2"/>
-        <v>16.466666666666665</v>
+        <f t="shared" si="4"/>
+        <v>38.615384615384613</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>385</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G11" s="2">
-        <v>1981</v>
+        <v>1938</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K11">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="L11" s="1">
-        <v>43931</v>
+        <v>44114</v>
       </c>
       <c r="M11" s="1">
-        <v>44053</v>
+        <v>44129</v>
       </c>
       <c r="N11">
-        <f t="shared" si="3"/>
-        <v>122</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="O11" s="8">
-        <f t="shared" si="2"/>
-        <v>1.8442622950819672</v>
+        <f t="shared" si="4"/>
+        <v>16.466666666666665</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>386</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G12" s="2">
-        <v>1865</v>
+        <v>1981</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K12">
-        <v>826</v>
+        <v>225</v>
       </c>
       <c r="L12" s="1">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="M12" s="1">
-        <v>44021</v>
+        <v>44053</v>
       </c>
       <c r="N12">
-        <f t="shared" si="3"/>
-        <v>91</v>
+        <f t="shared" si="5"/>
+        <v>122</v>
       </c>
       <c r="O12" s="8">
-        <f t="shared" si="2"/>
-        <v>9.0769230769230766</v>
+        <f t="shared" si="4"/>
+        <v>1.8442622950819672</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>24</v>
+        <v>386</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G13" s="2">
-        <v>1988</v>
+        <v>1865</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K13">
-        <v>368</v>
+        <v>826</v>
       </c>
       <c r="L13" s="1">
-        <v>44052</v>
+        <v>43930</v>
       </c>
       <c r="M13" s="1">
-        <v>44077</v>
+        <v>44021</v>
       </c>
       <c r="N13">
-        <f t="shared" si="3"/>
-        <v>25</v>
+        <f t="shared" si="5"/>
+        <v>91</v>
       </c>
       <c r="O13" s="8">
-        <f t="shared" si="2"/>
-        <v>14.72</v>
+        <f t="shared" si="4"/>
+        <v>9.0769230769230766</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G14" s="2">
-        <v>1951</v>
+        <v>1988</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K14">
-        <v>54</v>
+        <v>368</v>
       </c>
       <c r="L14" s="1">
-        <v>43838</v>
+        <v>44052</v>
       </c>
       <c r="M14" s="1">
-        <v>43990</v>
+        <v>44077</v>
       </c>
       <c r="N14">
-        <f t="shared" si="3"/>
-        <v>152</v>
+        <f t="shared" si="5"/>
+        <v>25</v>
       </c>
       <c r="O14" s="8">
-        <f t="shared" si="2"/>
-        <v>0.35526315789473684</v>
+        <f t="shared" si="4"/>
+        <v>14.72</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="2">
-        <v>1979</v>
+        <v>1951</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K15">
-        <v>179</v>
+        <v>54</v>
       </c>
       <c r="L15" s="1">
-        <v>44020</v>
+        <v>43838</v>
       </c>
       <c r="M15" s="1">
-        <v>44082</v>
+        <v>43990</v>
       </c>
       <c r="N15">
-        <f t="shared" si="3"/>
-        <v>62</v>
+        <f t="shared" si="5"/>
+        <v>152</v>
       </c>
       <c r="O15" s="8">
-        <f t="shared" si="2"/>
-        <v>2.8870967741935485</v>
+        <f t="shared" si="4"/>
+        <v>0.35526315789473684</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G16" s="2">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K16">
-        <v>299</v>
+        <v>179</v>
       </c>
       <c r="L16" s="1">
-        <v>44037</v>
+        <v>44020</v>
       </c>
       <c r="M16" s="1">
-        <v>44039</v>
+        <v>44082</v>
       </c>
       <c r="N16">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>62</v>
       </c>
       <c r="O16" s="8">
-        <f t="shared" si="2"/>
-        <v>149.5</v>
+        <f t="shared" si="4"/>
+        <v>2.8870967741935485</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G17" s="2">
-        <v>1964</v>
+        <v>1982</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K17">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="L17" s="1">
-        <v>44032</v>
+        <v>44037</v>
       </c>
       <c r="M17" s="1">
-        <v>44034</v>
+        <v>44039</v>
       </c>
       <c r="N17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="O17" s="8">
-        <f t="shared" si="2"/>
-        <v>168</v>
+        <f t="shared" si="4"/>
+        <v>149.5</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G18" s="2">
-        <v>2018</v>
+        <v>1964</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K18">
-        <v>256</v>
+        <v>336</v>
       </c>
       <c r="L18" s="1">
-        <v>44023</v>
+        <v>44032</v>
       </c>
       <c r="M18" s="1">
-        <v>44030</v>
+        <v>44034</v>
       </c>
       <c r="N18">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="O18" s="8">
-        <f t="shared" si="2"/>
-        <v>36.571428571428569</v>
+        <f t="shared" si="4"/>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>377</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>383</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G19" s="2">
-        <v>1965</v>
+        <v>2018</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K19">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="L19" s="1">
-        <v>44018</v>
+        <v>44023</v>
       </c>
       <c r="M19" s="1">
-        <v>44023</v>
+        <v>44030</v>
       </c>
       <c r="N19">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="O19" s="8">
-        <f t="shared" si="2"/>
-        <v>64</v>
+        <f t="shared" si="4"/>
+        <v>36.571428571428569</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>320</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>377</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G20" s="2">
-        <v>2005</v>
+        <v>1965</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>49</v>
+        <v>337</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K20">
-        <v>465</v>
+        <v>320</v>
       </c>
       <c r="L20" s="1">
-        <v>44004</v>
+        <v>44018</v>
       </c>
       <c r="M20" s="1">
-        <v>44017</v>
+        <v>44023</v>
       </c>
       <c r="N20">
-        <f t="shared" si="3"/>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="O20" s="8">
-        <f t="shared" si="2"/>
-        <v>35.769230769230766</v>
+        <f t="shared" si="4"/>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>43</v>
+        <v>320</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G21" s="2">
-        <v>1930</v>
+        <v>2005</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>338</v>
+        <v>49</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K21">
-        <v>240</v>
+        <v>465</v>
       </c>
       <c r="L21" s="1">
-        <v>43995</v>
+        <v>44004</v>
       </c>
       <c r="M21" s="1">
-        <v>44002</v>
+        <v>44017</v>
       </c>
       <c r="N21">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="O21" s="8">
-        <f t="shared" si="2"/>
-        <v>34.285714285714285</v>
+        <f t="shared" si="4"/>
+        <v>35.769230769230766</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>319</v>
+        <v>45</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1930</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>49</v>
+        <v>338</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K22">
-        <v>618</v>
+        <v>240</v>
       </c>
       <c r="L22" s="1">
-        <v>43927</v>
+        <v>43995</v>
       </c>
       <c r="M22" s="1">
-        <v>44110</v>
+        <v>44002</v>
       </c>
       <c r="N22">
-        <f t="shared" si="3"/>
-        <v>183</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="O22" s="8">
-        <f t="shared" si="2"/>
-        <v>3.377049180327869</v>
+        <f t="shared" si="4"/>
+        <v>34.285714285714285</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1939</v>
+        <v>48</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>339</v>
+        <v>49</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K23">
-        <v>250</v>
+        <v>618</v>
       </c>
       <c r="L23" s="1">
-        <v>43982</v>
+        <v>43927</v>
       </c>
       <c r="M23" s="1">
-        <v>43984</v>
+        <v>44110</v>
       </c>
       <c r="N23">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>183</v>
       </c>
       <c r="O23" s="8">
-        <f t="shared" si="2"/>
-        <v>125</v>
+        <f t="shared" si="4"/>
+        <v>3.377049180327869</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G24" s="2">
-        <v>2020</v>
+        <v>1939</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K24">
-        <v>336</v>
+        <v>250</v>
       </c>
       <c r="L24" s="1">
-        <v>43975</v>
+        <v>43982</v>
       </c>
       <c r="M24" s="1">
-        <v>43977</v>
+        <v>43984</v>
       </c>
       <c r="N24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" si="2"/>
-        <v>168</v>
+        <f t="shared" si="4"/>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G25" s="2">
-        <v>1966</v>
+        <v>2020</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>58</v>
+        <v>348</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K25">
-        <v>284</v>
+        <v>336</v>
       </c>
       <c r="L25" s="1">
-        <v>43968</v>
+        <v>43975</v>
       </c>
       <c r="M25" s="1">
-        <v>43973</v>
+        <v>43977</v>
       </c>
       <c r="N25">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="O25" s="8">
-        <f t="shared" si="2"/>
-        <v>56.8</v>
+        <f t="shared" si="4"/>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>384</v>
@@ -3363,10 +3374,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G26" s="2">
-        <v>2018</v>
+        <v>1966</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>331</v>
@@ -3378,29 +3389,29 @@
         <v>9</v>
       </c>
       <c r="K26">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="L26" s="1">
-        <v>43964</v>
+        <v>43968</v>
       </c>
       <c r="M26" s="1">
-        <v>43965</v>
+        <v>43973</v>
       </c>
       <c r="N26">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="O26" s="8">
-        <f t="shared" si="2"/>
-        <v>320</v>
+        <f t="shared" si="4"/>
+        <v>56.8</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>384</v>
@@ -3410,47 +3421,47 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G27" s="2">
-        <v>1966</v>
+        <v>2018</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>369</v>
+        <v>58</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K27">
-        <v>126</v>
+        <v>320</v>
       </c>
       <c r="L27" s="1">
-        <v>43962</v>
+        <v>43964</v>
       </c>
       <c r="M27" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="N27">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="O27" s="8">
-        <f t="shared" si="2"/>
-        <v>63</v>
+        <f t="shared" si="4"/>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>387</v>
@@ -3460,148 +3471,148 @@
         <v>12</v>
       </c>
       <c r="G28" s="2">
-        <v>2017</v>
+        <v>1966</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>96</v>
+        <v>369</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K28">
-        <v>513</v>
+        <v>126</v>
       </c>
       <c r="L28" s="1">
-        <v>43947</v>
+        <v>43962</v>
       </c>
       <c r="M28" s="1">
-        <v>43956</v>
+        <v>43964</v>
       </c>
       <c r="N28">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="O28" s="8">
-        <f t="shared" si="2"/>
-        <v>57</v>
+        <f t="shared" si="4"/>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>375</v>
+        <v>64</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>376</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>20</v>
+        <v>393</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="G29" s="2">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K29">
-        <v>646</v>
+        <v>513</v>
       </c>
       <c r="L29" s="1">
-        <v>43942</v>
+        <v>43947</v>
       </c>
       <c r="M29" s="1">
-        <v>43947</v>
+        <v>43956</v>
       </c>
       <c r="N29">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="O29" s="8">
-        <f t="shared" si="2"/>
-        <v>129.19999999999999</v>
+        <f t="shared" si="4"/>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>67</v>
+        <v>375</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>376</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G30" s="2">
-        <v>1961</v>
+        <v>2019</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K30">
-        <v>568</v>
+        <v>646</v>
       </c>
       <c r="L30" s="1">
-        <v>43927</v>
+        <v>43942</v>
       </c>
       <c r="M30" s="1">
-        <v>43941</v>
+        <v>43947</v>
       </c>
       <c r="N30">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="O30" s="8">
-        <f t="shared" si="2"/>
-        <v>40.571428571428569</v>
+        <f t="shared" si="4"/>
+        <v>129.19999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>374</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G31" s="2">
-        <v>1929</v>
+        <v>1961</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>8</v>
@@ -3613,123 +3624,123 @@
         <v>9</v>
       </c>
       <c r="K31">
-        <v>299</v>
+        <v>568</v>
       </c>
       <c r="L31" s="1">
-        <v>43919</v>
+        <v>43927</v>
       </c>
       <c r="M31" s="1">
-        <v>43926</v>
+        <v>43941</v>
       </c>
       <c r="N31">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="O31" s="8">
-        <f t="shared" si="2"/>
-        <v>42.714285714285715</v>
+        <f t="shared" si="4"/>
+        <v>40.571428571428569</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>374</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>20</v>
+        <v>392</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G32" s="2">
-        <v>1844</v>
+        <v>1929</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K32">
-        <v>1180</v>
+        <v>299</v>
       </c>
       <c r="L32" s="1">
-        <v>43839</v>
+        <v>43919</v>
       </c>
       <c r="M32" s="1">
-        <v>43884</v>
+        <v>43926</v>
       </c>
       <c r="N32">
-        <f t="shared" si="3"/>
-        <v>45</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="O32" s="8">
-        <f t="shared" si="2"/>
-        <v>26.222222222222221</v>
+        <f t="shared" si="4"/>
+        <v>42.714285714285715</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G33" s="2">
-        <v>1979</v>
+        <v>1844</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K33">
-        <v>567</v>
+        <v>1180</v>
       </c>
       <c r="L33" s="1">
-        <v>43814</v>
+        <v>43839</v>
       </c>
       <c r="M33" s="1">
-        <v>43891</v>
+        <v>43884</v>
       </c>
       <c r="N33">
-        <f t="shared" si="3"/>
-        <v>77</v>
+        <f t="shared" si="5"/>
+        <v>45</v>
       </c>
       <c r="O33" s="8">
-        <f t="shared" si="2"/>
-        <v>7.3636363636363633</v>
+        <f t="shared" si="4"/>
+        <v>26.222222222222221</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>384</v>
@@ -3739,144 +3750,148 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G34" s="2">
-        <v>2019</v>
+        <v>1979</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K34">
-        <v>408</v>
+        <v>567</v>
       </c>
       <c r="L34" s="1">
-        <v>43834</v>
+        <v>43814</v>
       </c>
       <c r="M34" s="1">
-        <v>43836</v>
+        <v>43891</v>
       </c>
       <c r="N34">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>77</v>
       </c>
       <c r="O34" s="8">
-        <f t="shared" si="2"/>
-        <v>204</v>
+        <f t="shared" si="4"/>
+        <v>7.3636363636363633</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="G35" s="2">
-        <v>1957</v>
+        <v>2019</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K35">
-        <v>170</v>
+        <v>408</v>
       </c>
       <c r="L35" s="1">
-        <v>43801</v>
+        <v>43834</v>
       </c>
       <c r="M35" s="1">
-        <v>43807</v>
+        <v>43836</v>
       </c>
       <c r="N35">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="O35" s="8">
-        <f t="shared" si="2"/>
-        <v>28.333333333333332</v>
+        <f t="shared" si="4"/>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="G36" s="2">
-        <v>2018</v>
+        <v>1957</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>58</v>
+        <v>343</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K36">
-        <v>319</v>
+        <v>170</v>
       </c>
       <c r="L36" s="1">
-        <v>43799</v>
+        <v>43801</v>
       </c>
       <c r="M36" s="1">
-        <v>43800</v>
+        <v>43807</v>
       </c>
       <c r="N36">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="O36" s="8">
-        <f t="shared" si="2"/>
-        <v>319</v>
+        <f t="shared" si="4"/>
+        <v>28.333333333333332</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G37" s="2">
         <v>2018</v>
@@ -3885,129 +3900,125 @@
         <v>331</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>336</v>
+        <v>58</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K37">
-        <v>400</v>
+        <v>319</v>
       </c>
       <c r="L37" s="1">
-        <v>43780</v>
+        <v>43799</v>
       </c>
       <c r="M37" s="1">
-        <v>43788</v>
+        <v>43800</v>
       </c>
       <c r="N37">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="O37" s="8">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>354</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>358</v>
+        <v>88</v>
       </c>
       <c r="G38" s="2">
-        <v>1993</v>
+        <v>2018</v>
       </c>
       <c r="H38" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38">
+        <v>400</v>
+      </c>
+      <c r="L38" s="1">
+        <v>43780</v>
+      </c>
+      <c r="M38" s="1">
+        <v>43788</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K38">
-        <v>355</v>
-      </c>
-      <c r="L38" s="1">
-        <v>43762</v>
-      </c>
-      <c r="M38" s="1">
-        <v>43773</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
       <c r="O38" s="8">
-        <f t="shared" si="2"/>
-        <v>32.272727272727273</v>
+        <f t="shared" si="4"/>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>354</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>28</v>
+        <v>358</v>
       </c>
       <c r="G39" s="2">
-        <v>1818</v>
+        <v>1993</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K39">
-        <v>240</v>
+        <v>355</v>
       </c>
       <c r="L39" s="1">
-        <v>43752</v>
+        <v>43762</v>
       </c>
       <c r="M39" s="1">
-        <v>43759</v>
+        <v>43773</v>
       </c>
       <c r="N39">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="O39" s="8">
-        <f t="shared" si="2"/>
-        <v>34.285714285714285</v>
+        <f t="shared" si="4"/>
+        <v>32.272727272727273</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>383</v>
@@ -4017,232 +4028,232 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="G40" s="2">
-        <v>2018</v>
+        <v>1818</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>96</v>
+        <v>330</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K40">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="L40" s="1">
-        <v>43743</v>
+        <v>43752</v>
       </c>
       <c r="M40" s="1">
-        <v>43749</v>
+        <v>43759</v>
       </c>
       <c r="N40">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="O40" s="8">
-        <f t="shared" si="2"/>
-        <v>45.333333333333336</v>
+        <f t="shared" si="4"/>
+        <v>34.285714285714285</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G41" s="2">
-        <v>1866</v>
+        <v>2018</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>339</v>
+        <v>96</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K41">
-        <v>528</v>
+        <v>272</v>
       </c>
       <c r="L41" s="1">
-        <v>43715</v>
+        <v>43743</v>
       </c>
       <c r="M41" s="1">
-        <v>43741</v>
+        <v>43749</v>
       </c>
       <c r="N41">
-        <f t="shared" si="3"/>
-        <v>26</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="O41" s="8">
-        <f t="shared" si="2"/>
-        <v>20.307692307692307</v>
+        <f t="shared" si="4"/>
+        <v>45.333333333333336</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>359</v>
+        <v>97</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G42" s="2">
-        <v>1970</v>
+        <v>1866</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>49</v>
+        <v>339</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K42">
-        <v>348</v>
+        <v>528</v>
       </c>
       <c r="L42" s="1">
-        <v>43697</v>
+        <v>43715</v>
       </c>
       <c r="M42" s="1">
-        <v>43708</v>
+        <v>43741</v>
       </c>
       <c r="N42">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
       <c r="O42" s="8">
-        <f t="shared" si="2"/>
-        <v>31.636363636363637</v>
+        <f t="shared" si="4"/>
+        <v>20.307692307692307</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>101</v>
+        <v>359</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G43" s="2">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>333</v>
+        <v>49</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K43">
-        <v>416</v>
+        <v>348</v>
       </c>
       <c r="L43" s="1">
-        <v>43680</v>
+        <v>43697</v>
       </c>
       <c r="M43" s="1">
-        <v>43692</v>
+        <v>43708</v>
       </c>
       <c r="N43">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="O43" s="8">
-        <f t="shared" si="2"/>
-        <v>34.666666666666664</v>
+        <f t="shared" si="4"/>
+        <v>31.636363636363637</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="G44" s="2">
-        <v>2013</v>
+        <v>1972</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K44">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="L44" s="1">
-        <v>43663</v>
+        <v>43680</v>
       </c>
       <c r="M44" s="1">
-        <v>43677</v>
+        <v>43692</v>
       </c>
       <c r="N44">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="O44" s="8">
-        <f t="shared" si="2"/>
-        <v>33.071428571428569</v>
+        <f t="shared" si="4"/>
+        <v>34.666666666666664</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>384</v>
@@ -4252,44 +4263,44 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="G45" s="2">
-        <v>1965</v>
+        <v>2013</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K45">
-        <v>256</v>
+        <v>463</v>
       </c>
       <c r="L45" s="1">
-        <v>43640</v>
+        <v>43663</v>
       </c>
       <c r="M45" s="1">
-        <v>43659</v>
+        <v>43677</v>
       </c>
       <c r="N45">
-        <f t="shared" si="3"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="O45" s="8">
-        <f t="shared" si="2"/>
-        <v>13.473684210526315</v>
+        <f t="shared" si="4"/>
+        <v>33.071428571428569</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>384</v>
@@ -4299,91 +4310,91 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="G46" s="2">
-        <v>1997</v>
+        <v>1965</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K46">
-        <v>423</v>
+        <v>256</v>
       </c>
       <c r="L46" s="1">
-        <v>43618</v>
+        <v>43640</v>
       </c>
       <c r="M46" s="1">
-        <v>43636</v>
+        <v>43659</v>
       </c>
       <c r="N46">
-        <f t="shared" si="3"/>
-        <v>18</v>
+        <f t="shared" si="5"/>
+        <v>19</v>
       </c>
       <c r="O46" s="8">
-        <f t="shared" si="2"/>
-        <v>23.5</v>
+        <f t="shared" si="4"/>
+        <v>13.473684210526315</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="G47" s="2">
-        <v>2018</v>
+        <v>1997</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K47">
-        <v>341</v>
+        <v>423</v>
       </c>
       <c r="L47" s="1">
-        <v>43616</v>
+        <v>43618</v>
       </c>
       <c r="M47" s="1">
-        <v>43617</v>
+        <v>43636</v>
       </c>
       <c r="N47">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="O47" s="8">
-        <f t="shared" si="2"/>
-        <v>341</v>
+        <f t="shared" si="4"/>
+        <v>23.5</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>384</v>
@@ -4393,245 +4404,245 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>113</v>
+        <v>360</v>
       </c>
       <c r="G48" s="2">
-        <v>2003</v>
+        <v>2018</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K48">
-        <v>610</v>
+        <v>341</v>
       </c>
       <c r="L48" s="1">
-        <v>43596</v>
+        <v>43616</v>
       </c>
       <c r="M48" s="1">
-        <v>43606</v>
+        <v>43617</v>
       </c>
       <c r="N48">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="O48" s="8">
-        <f t="shared" si="2"/>
-        <v>61</v>
+        <f t="shared" si="4"/>
+        <v>341</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>361</v>
+        <v>111</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>358</v>
+        <v>113</v>
       </c>
       <c r="G49" s="2">
-        <v>1984</v>
+        <v>2003</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>49</v>
+        <v>344</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K49">
-        <v>352</v>
+        <v>610</v>
       </c>
       <c r="L49" s="1">
-        <v>43589</v>
+        <v>43596</v>
       </c>
       <c r="M49" s="1">
-        <v>43594</v>
+        <v>43606</v>
       </c>
       <c r="N49">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="O49" s="8">
-        <f t="shared" si="2"/>
-        <v>70.400000000000006</v>
+        <f t="shared" si="4"/>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>115</v>
+        <v>361</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>117</v>
+        <v>358</v>
       </c>
       <c r="G50" s="2">
-        <v>2014</v>
+        <v>1984</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>336</v>
+        <v>49</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K50">
-        <v>288</v>
+        <v>352</v>
       </c>
       <c r="L50" s="1">
-        <v>43578</v>
+        <v>43589</v>
       </c>
       <c r="M50" s="1">
-        <v>43588</v>
+        <v>43594</v>
       </c>
       <c r="N50">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="O50" s="8">
-        <f t="shared" si="2"/>
-        <v>28.8</v>
+        <f t="shared" si="4"/>
+        <v>70.400000000000006</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>319</v>
+        <v>117</v>
       </c>
       <c r="G51" s="2">
-        <v>1876</v>
+        <v>2014</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K51">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="L51" s="1">
-        <v>43041</v>
+        <v>43578</v>
       </c>
       <c r="M51" s="1">
-        <v>43048</v>
+        <v>43588</v>
       </c>
       <c r="N51">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="O51" s="8">
-        <f t="shared" si="2"/>
-        <v>33.714285714285715</v>
+        <f t="shared" si="4"/>
+        <v>28.8</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>122</v>
+        <v>319</v>
       </c>
       <c r="G52" s="2">
-        <v>1813</v>
+        <v>1876</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K52">
-        <v>414</v>
+        <v>236</v>
       </c>
       <c r="L52" s="1">
-        <v>42875</v>
+        <v>43041</v>
       </c>
       <c r="M52" s="1">
-        <v>42881</v>
+        <v>43048</v>
       </c>
       <c r="N52">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="O52" s="8">
-        <f t="shared" si="2"/>
-        <v>69</v>
+        <f t="shared" si="4"/>
+        <v>33.714285714285715</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>20</v>
+        <v>383</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G53" s="2">
-        <v>1869</v>
+        <v>1813</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>8</v>
@@ -4640,26 +4651,32 @@
         <v>369</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K53">
-        <v>999</v>
+        <v>414</v>
+      </c>
+      <c r="L53" s="1">
+        <v>42875</v>
+      </c>
+      <c r="M53" s="1">
+        <v>42881</v>
       </c>
       <c r="N53">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O53" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="O53" s="8">
+        <f t="shared" si="4"/>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>372</v>
+        <v>123</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>373</v>
+        <v>124</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>20</v>
@@ -4669,373 +4686,367 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G54" s="2">
-        <v>1928</v>
+        <v>1869</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K54">
-        <v>323</v>
-      </c>
-      <c r="L54" s="1">
-        <v>42675</v>
-      </c>
-      <c r="M54" s="1">
-        <v>42682</v>
+        <v>999</v>
       </c>
       <c r="N54">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="O54" s="8">
-        <f t="shared" si="2"/>
-        <v>46.142857142857146</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>127</v>
+        <v>372</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>128</v>
+        <v>373</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>383</v>
+        <v>20</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
-        <v>319</v>
+        <v>126</v>
       </c>
       <c r="G55" s="2">
-        <v>1878</v>
+        <v>1928</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K55">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="L55" s="1">
-        <v>43477</v>
+        <v>42675</v>
       </c>
       <c r="M55" s="1">
-        <v>43485</v>
+        <v>42682</v>
       </c>
       <c r="N55">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="O55" s="8">
-        <f t="shared" si="2"/>
-        <v>42.25</v>
+        <f t="shared" si="4"/>
+        <v>46.142857142857146</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
-        <v>131</v>
+        <v>319</v>
       </c>
       <c r="G56" s="2">
-        <v>2018</v>
+        <v>1878</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K56">
-        <v>755</v>
+        <v>338</v>
       </c>
       <c r="L56" s="1">
-        <v>43108</v>
+        <v>43477</v>
       </c>
       <c r="M56" s="1">
-        <v>43111</v>
+        <v>43485</v>
       </c>
       <c r="N56">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="O56" s="8">
-        <f t="shared" si="2"/>
-        <v>251.66666666666666</v>
+        <f t="shared" si="4"/>
+        <v>42.25</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G57" s="2">
-        <v>1954</v>
+        <v>2018</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>343</v>
+        <v>49</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K57">
-        <v>250</v>
+        <v>755</v>
       </c>
       <c r="L57" s="1">
-        <v>43411</v>
+        <v>43108</v>
       </c>
       <c r="M57" s="1">
-        <v>43423</v>
+        <v>43111</v>
       </c>
       <c r="N57">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="O57" s="8">
-        <f t="shared" si="2"/>
-        <v>20.833333333333332</v>
+        <f t="shared" si="4"/>
+        <v>251.66666666666666</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="G58" s="2">
-        <v>2018</v>
+        <v>1954</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>96</v>
+        <v>343</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K58">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="L58" s="1">
-        <v>43496</v>
+        <v>43411</v>
       </c>
       <c r="M58" s="1">
-        <v>43506</v>
+        <v>43423</v>
       </c>
       <c r="N58">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="O58" s="8">
-        <f t="shared" si="2"/>
-        <v>28.8</v>
+        <f t="shared" si="4"/>
+        <v>20.833333333333332</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="G59" s="2">
-        <v>1898</v>
+        <v>2018</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>335</v>
+        <v>96</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K59">
-        <v>61</v>
+        <v>288</v>
       </c>
       <c r="L59" s="1">
-        <v>43424</v>
+        <v>43496</v>
       </c>
       <c r="M59" s="1">
-        <v>43425</v>
+        <v>43506</v>
       </c>
       <c r="N59">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="O59" s="8">
-        <f t="shared" si="2"/>
-        <v>61</v>
+        <f t="shared" si="4"/>
+        <v>28.8</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="G60" s="2">
-        <v>1978</v>
+        <v>1898</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K60">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L60" s="1">
-        <v>43402</v>
+        <v>43424</v>
       </c>
       <c r="M60" s="1">
-        <v>43403</v>
+        <v>43425</v>
       </c>
       <c r="N60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O60" s="8">
-        <f t="shared" si="2"/>
-        <v>64</v>
+        <f t="shared" si="4"/>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="G61" s="2">
-        <v>2018</v>
+        <v>1978</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>96</v>
+        <v>310</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K61">
-        <v>437</v>
+        <v>64</v>
       </c>
       <c r="L61" s="1">
-        <v>43381</v>
+        <v>43402</v>
       </c>
       <c r="M61" s="1">
-        <v>43390</v>
+        <v>43403</v>
       </c>
       <c r="N61">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="O61" s="8">
-        <f t="shared" si="2"/>
-        <v>48.555555555555557</v>
+        <f t="shared" si="4"/>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>384</v>
@@ -5045,148 +5056,148 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="G62" s="2">
-        <v>1925</v>
+        <v>2018</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>369</v>
+        <v>96</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K62">
-        <v>859</v>
+        <v>437</v>
       </c>
       <c r="L62" s="1">
-        <v>42585</v>
+        <v>43381</v>
       </c>
       <c r="M62" s="1">
-        <v>42627</v>
+        <v>43390</v>
       </c>
       <c r="N62">
-        <f t="shared" si="3"/>
-        <v>42</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="O62" s="8">
-        <f t="shared" si="2"/>
-        <v>20.452380952380953</v>
+        <f t="shared" si="4"/>
+        <v>48.555555555555557</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="G63" s="2">
-        <v>1971</v>
+        <v>1925</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K63">
-        <v>416</v>
+        <v>859</v>
       </c>
       <c r="L63" s="1">
-        <v>43518</v>
+        <v>42585</v>
       </c>
       <c r="M63" s="1">
-        <v>43542</v>
+        <v>42627</v>
       </c>
       <c r="N63">
-        <f t="shared" si="3"/>
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>42</v>
       </c>
       <c r="O63" s="8">
-        <f t="shared" si="2"/>
-        <v>17.333333333333332</v>
+        <f t="shared" si="4"/>
+        <v>20.452380952380953</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>362</v>
+        <v>147</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>364</v>
+        <v>148</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>363</v>
+        <v>149</v>
       </c>
       <c r="G64" s="2">
-        <v>2015</v>
+        <v>1971</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K64">
-        <v>87</v>
+        <v>416</v>
       </c>
       <c r="L64" s="1">
-        <v>42871</v>
+        <v>43518</v>
       </c>
       <c r="M64" s="1">
-        <v>42877</v>
+        <v>43542</v>
       </c>
       <c r="N64">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="5"/>
+        <v>24</v>
       </c>
       <c r="O64" s="8">
-        <f t="shared" si="2"/>
-        <v>14.5</v>
+        <f t="shared" si="4"/>
+        <v>17.333333333333332</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>151</v>
+        <v>362</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>152</v>
+        <v>364</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
-        <v>153</v>
+        <v>363</v>
       </c>
       <c r="G65" s="2">
         <v>2015</v>
@@ -5195,91 +5206,95 @@
         <v>331</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>49</v>
+        <v>345</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K65">
-        <v>348</v>
+        <v>87</v>
       </c>
       <c r="L65" s="1">
-        <v>42947</v>
+        <v>42871</v>
       </c>
       <c r="M65" s="1">
-        <v>42949</v>
+        <v>42877</v>
       </c>
       <c r="N65">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="O65" s="8">
-        <f t="shared" si="2"/>
-        <v>174</v>
+        <f t="shared" si="4"/>
+        <v>14.5</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G66" s="2">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>336</v>
+        <v>49</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K66">
-        <v>270</v>
+        <v>348</v>
       </c>
       <c r="L66" s="1">
-        <v>43246</v>
+        <v>42947</v>
       </c>
       <c r="M66" s="1">
-        <v>43253</v>
+        <v>42949</v>
       </c>
       <c r="N66">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="O66" s="8">
-        <f t="shared" si="2"/>
-        <v>38.571428571428569</v>
+        <f t="shared" si="4"/>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="G67" s="2">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>331</v>
@@ -5291,272 +5306,268 @@
         <v>9</v>
       </c>
       <c r="K67">
-        <v>148</v>
+        <v>270</v>
       </c>
       <c r="L67" s="1">
-        <v>42745</v>
+        <v>43246</v>
       </c>
       <c r="M67" s="1">
-        <v>43028</v>
+        <v>43253</v>
       </c>
       <c r="N67">
-        <f t="shared" si="3"/>
-        <v>283</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="O67" s="8">
-        <f t="shared" si="2"/>
-        <v>0.52296819787985871</v>
+        <f t="shared" si="4"/>
+        <v>38.571428571428569</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>387</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="G68" s="2">
-        <v>1962</v>
+        <v>2010</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K68">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="L68" s="1">
-        <v>43328</v>
+        <v>42745</v>
       </c>
       <c r="M68" s="1">
-        <v>43344</v>
+        <v>43028</v>
       </c>
       <c r="N68">
-        <f t="shared" si="3"/>
-        <v>16</v>
+        <f t="shared" si="5"/>
+        <v>283</v>
       </c>
       <c r="O68" s="8">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f t="shared" si="4"/>
+        <v>0.52296819787985871</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="D69" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G69" s="2">
-        <v>2015</v>
+        <v>1962</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>96</v>
+        <v>338</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K69">
-        <v>352</v>
+        <v>240</v>
       </c>
       <c r="L69" s="1">
-        <v>43092</v>
+        <v>43328</v>
       </c>
       <c r="M69" s="1">
-        <v>43191</v>
+        <v>43344</v>
       </c>
       <c r="N69">
-        <f t="shared" si="3"/>
-        <v>99</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="O69" s="8">
-        <f t="shared" si="2"/>
-        <v>3.5555555555555554</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>371</v>
+        <v>161</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>398</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G70" s="2">
-        <v>1994</v>
+        <v>2015</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>336</v>
+        <v>96</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K70">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="L70" s="1">
-        <v>43183</v>
+        <v>43092</v>
       </c>
       <c r="M70" s="1">
-        <v>43198</v>
+        <v>43191</v>
       </c>
       <c r="N70">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>99</v>
       </c>
       <c r="O70" s="8">
-        <f t="shared" ref="O70:O132" si="4">K70/N70</f>
-        <v>21.066666666666666</v>
+        <f t="shared" si="4"/>
+        <v>3.5555555555555554</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>166</v>
+        <v>371</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>20</v>
+        <v>398</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G71" s="2">
-        <v>2016</v>
+        <v>1994</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>96</v>
+        <v>336</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K71">
-        <v>188</v>
+        <v>316</v>
       </c>
       <c r="L71" s="1">
-        <v>43166</v>
+        <v>43183</v>
       </c>
       <c r="M71" s="1">
-        <v>43175</v>
+        <v>43198</v>
       </c>
       <c r="N71">
-        <f t="shared" ref="N71:N133" si="5">M71-L71</f>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="O71" s="8">
-        <f t="shared" si="4"/>
-        <v>20.888888888888889</v>
+        <f t="shared" ref="O71:O133" si="6">K71/N71</f>
+        <v>21.066666666666666</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>383</v>
+        <v>20</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="G72" s="2">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K72">
-        <v>256</v>
+        <v>188</v>
       </c>
       <c r="L72" s="1">
+        <v>43166</v>
+      </c>
+      <c r="M72" s="1">
         <v>43175</v>
       </c>
-      <c r="M72" s="1">
-        <v>43177</v>
-      </c>
       <c r="N72">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" ref="N72:N134" si="7">M72-L72</f>
+        <v>9</v>
       </c>
       <c r="O72" s="8">
-        <f t="shared" si="4"/>
-        <v>128</v>
+        <f t="shared" si="6"/>
+        <v>20.888888888888889</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="G73" s="2">
         <v>2014</v>
@@ -5565,95 +5576,95 @@
         <v>331</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>336</v>
+        <v>58</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K73">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="L73" s="1">
-        <v>42977</v>
+        <v>43175</v>
       </c>
       <c r="M73" s="1">
-        <v>42995</v>
+        <v>43177</v>
       </c>
       <c r="N73">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="O73" s="8">
-        <f t="shared" si="4"/>
-        <v>15.111111111111111</v>
+        <f t="shared" si="6"/>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="G74" s="2">
-        <v>1861</v>
+        <v>2014</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K74">
-        <v>460</v>
+        <v>272</v>
       </c>
       <c r="L74" s="1">
-        <v>42652</v>
+        <v>42977</v>
       </c>
       <c r="M74" s="1">
-        <v>42664</v>
+        <v>42995</v>
       </c>
       <c r="N74">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>18</v>
       </c>
       <c r="O74" s="8">
-        <f t="shared" si="4"/>
-        <v>38.333333333333336</v>
+        <f t="shared" si="6"/>
+        <v>15.111111111111111</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="G75" s="2">
-        <v>1924</v>
+        <v>1861</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>8</v>
@@ -5665,441 +5676,445 @@
         <v>9</v>
       </c>
       <c r="K75">
-        <v>729</v>
+        <v>460</v>
       </c>
       <c r="L75" s="1">
-        <v>43049</v>
+        <v>42652</v>
       </c>
       <c r="M75" s="1">
-        <v>43091</v>
+        <v>42664</v>
       </c>
       <c r="N75">
-        <f t="shared" si="5"/>
-        <v>42</v>
+        <f t="shared" si="7"/>
+        <v>12</v>
       </c>
       <c r="O75" s="8">
-        <f t="shared" si="4"/>
-        <v>17.357142857142858</v>
+        <f t="shared" si="6"/>
+        <v>38.333333333333336</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="G76" s="2">
-        <v>2015</v>
+        <v>1924</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>58</v>
+        <v>369</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K76">
-        <v>224</v>
+        <v>729</v>
       </c>
       <c r="L76" s="1">
-        <v>42527</v>
+        <v>43049</v>
       </c>
       <c r="M76" s="1">
-        <v>42528</v>
+        <v>43091</v>
       </c>
       <c r="N76">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>42</v>
       </c>
       <c r="O76" s="8">
-        <f t="shared" si="4"/>
-        <v>224</v>
+        <f t="shared" si="6"/>
+        <v>17.357142857142858</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G77" s="2">
-        <v>1960</v>
+        <v>2015</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>343</v>
+        <v>58</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K77">
-        <v>307</v>
+        <v>224</v>
       </c>
       <c r="L77" s="1">
-        <v>43227</v>
+        <v>42527</v>
       </c>
       <c r="M77" s="1">
-        <v>43240</v>
+        <v>42528</v>
       </c>
       <c r="N77">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="O77" s="8">
-        <f t="shared" si="4"/>
-        <v>23.615384615384617</v>
+        <f t="shared" si="6"/>
+        <v>224</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>378</v>
+        <v>182</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G78" s="2">
-        <v>2015</v>
+        <v>1960</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>49</v>
+        <v>343</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K78">
-        <v>90</v>
+        <v>307</v>
       </c>
       <c r="L78" s="1">
-        <v>42632</v>
+        <v>43227</v>
       </c>
       <c r="M78" s="1">
-        <v>42633</v>
+        <v>43240</v>
       </c>
       <c r="N78">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>13</v>
       </c>
       <c r="O78" s="8">
-        <f t="shared" si="4"/>
-        <v>90</v>
+        <f t="shared" si="6"/>
+        <v>23.615384615384617</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>187</v>
+        <v>378</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G79" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>336</v>
+        <v>49</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K79">
-        <v>286</v>
+        <v>90</v>
       </c>
       <c r="L79" s="1">
-        <v>43283</v>
+        <v>42632</v>
       </c>
       <c r="M79" s="1">
-        <v>43291</v>
+        <v>42633</v>
       </c>
       <c r="N79">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="O79" s="8">
-        <f t="shared" si="4"/>
-        <v>35.75</v>
+        <f t="shared" si="6"/>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G80" s="2">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K80">
-        <v>386</v>
+        <v>286</v>
       </c>
       <c r="L80" s="1">
-        <v>42941</v>
+        <v>43283</v>
       </c>
       <c r="M80" s="1">
-        <v>42950</v>
+        <v>43291</v>
       </c>
       <c r="N80">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <f t="shared" si="7"/>
+        <v>8</v>
       </c>
       <c r="O80" s="8">
-        <f t="shared" si="4"/>
-        <v>42.888888888888886</v>
+        <f t="shared" si="6"/>
+        <v>35.75</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>379</v>
+        <v>190</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="G81" s="2">
-        <v>1967</v>
+        <v>2010</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K81">
-        <v>432</v>
+        <v>386</v>
       </c>
       <c r="L81" s="1">
-        <v>42936</v>
+        <v>42941</v>
       </c>
       <c r="M81" s="1">
-        <v>42940</v>
+        <v>42950</v>
       </c>
       <c r="N81">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="O81" s="8">
-        <f t="shared" si="4"/>
-        <v>108</v>
+        <f t="shared" si="6"/>
+        <v>42.888888888888886</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>194</v>
+        <v>379</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="G82" s="2">
-        <v>2017</v>
+        <v>1967</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K82">
-        <v>276</v>
+        <v>432</v>
       </c>
       <c r="L82" s="1">
-        <v>43028</v>
+        <v>42936</v>
       </c>
       <c r="M82" s="1">
-        <v>43036</v>
+        <v>42940</v>
       </c>
       <c r="N82">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="O82" s="8">
-        <f t="shared" si="4"/>
-        <v>34.5</v>
+        <f t="shared" si="6"/>
+        <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="G83" s="2">
-        <v>1969</v>
+        <v>2017</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>49</v>
+        <v>347</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K83">
-        <v>157</v>
+        <v>276</v>
       </c>
       <c r="L83" s="1">
-        <v>42639</v>
+        <v>43028</v>
       </c>
       <c r="M83" s="1">
-        <v>42640</v>
+        <v>43036</v>
       </c>
       <c r="N83">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>8</v>
       </c>
       <c r="O83" s="8">
-        <f t="shared" si="4"/>
-        <v>157</v>
+        <f t="shared" si="6"/>
+        <v>34.5</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="G84" s="2">
-        <v>1959</v>
+        <v>1969</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K84">
-        <v>341</v>
+        <v>157</v>
       </c>
       <c r="L84" s="1">
-        <v>42418</v>
+        <v>42639</v>
       </c>
       <c r="M84" s="1">
-        <v>42427</v>
+        <v>42640</v>
       </c>
       <c r="N84">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="O84" s="8">
-        <f t="shared" si="4"/>
-        <v>37.888888888888886</v>
+        <f t="shared" si="6"/>
+        <v>157</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>365</v>
+        <v>197</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
-        <v>200</v>
+        <v>52</v>
       </c>
       <c r="G85" s="2">
-        <v>2015</v>
+        <v>1959</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>8</v>
@@ -6111,726 +6126,726 @@
         <v>9</v>
       </c>
       <c r="K85">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="L85" s="1">
-        <v>42531</v>
+        <v>42418</v>
       </c>
       <c r="M85" s="1">
-        <v>42540</v>
+        <v>42427</v>
       </c>
       <c r="N85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="O85" s="8">
-        <f t="shared" si="4"/>
-        <v>40.222222222222221</v>
+        <f t="shared" si="6"/>
+        <v>37.888888888888886</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G86" s="2">
-        <v>1751</v>
+        <v>2015</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I86" t="s">
-        <v>343</v>
+        <v>8</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K86">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="L86" s="1">
-        <v>42729</v>
+        <v>42531</v>
       </c>
       <c r="M86" s="1">
-        <v>42732</v>
+        <v>42540</v>
       </c>
       <c r="N86">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="O86" s="8">
-        <f t="shared" si="4"/>
-        <v>36.666666666666664</v>
+        <f t="shared" si="6"/>
+        <v>40.222222222222221</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>203</v>
+        <v>366</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c r="G87" s="2">
-        <v>1939</v>
+        <v>1751</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I87" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K87">
-        <v>384</v>
+        <v>110</v>
       </c>
       <c r="L87" s="1">
-        <v>42541</v>
+        <v>42729</v>
       </c>
       <c r="M87" s="1">
-        <v>42550</v>
+        <v>42732</v>
       </c>
       <c r="N87">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="O87" s="8">
-        <f t="shared" si="4"/>
-        <v>42.666666666666664</v>
+        <f t="shared" si="6"/>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="G88" s="2">
-        <v>2008</v>
+        <v>1939</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I88" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K88">
-        <v>305</v>
+        <v>384</v>
       </c>
       <c r="L88" s="1">
-        <v>42853</v>
+        <v>42541</v>
       </c>
       <c r="M88" s="1">
-        <v>42856</v>
+        <v>42550</v>
       </c>
       <c r="N88">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="O88" s="8">
-        <f t="shared" si="4"/>
-        <v>101.66666666666667</v>
+        <f t="shared" si="6"/>
+        <v>42.666666666666664</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>367</v>
+        <v>205</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="s">
-        <v>208</v>
+        <v>113</v>
       </c>
       <c r="G89" s="2">
-        <v>1965</v>
+        <v>2008</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I89" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K89">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="L89" s="1">
-        <v>42772</v>
+        <v>42853</v>
       </c>
       <c r="M89" s="1">
-        <v>42774</v>
+        <v>42856</v>
       </c>
       <c r="N89">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="O89" s="8">
-        <f t="shared" si="4"/>
-        <v>176</v>
+        <f t="shared" si="6"/>
+        <v>101.66666666666667</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>209</v>
+        <v>367</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>114</v>
+        <v>207</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G90" s="2">
-        <v>1975</v>
+        <v>1965</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I90" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K90">
-        <v>173</v>
+        <v>352</v>
       </c>
       <c r="L90" s="1">
-        <v>43105</v>
+        <v>42772</v>
       </c>
       <c r="M90" s="1">
-        <v>43106</v>
+        <v>42774</v>
       </c>
       <c r="N90">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="O90" s="8">
-        <f t="shared" si="4"/>
-        <v>173</v>
+        <f t="shared" si="6"/>
+        <v>176</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>212</v>
+        <v>114</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="G91" s="2">
-        <v>1936</v>
+        <v>1975</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I91" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K91">
-        <v>348</v>
+        <v>173</v>
       </c>
       <c r="L91" s="1">
-        <v>42895</v>
+        <v>43105</v>
       </c>
       <c r="M91" s="1">
-        <v>42899</v>
+        <v>43106</v>
       </c>
       <c r="N91">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="O91" s="8">
-        <f t="shared" si="4"/>
-        <v>87</v>
+        <f t="shared" si="6"/>
+        <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="G92" s="2">
-        <v>1963</v>
+        <v>1936</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I92" t="s">
-        <v>49</v>
+        <v>347</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K92">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="L92" s="1">
-        <v>43200</v>
+        <v>42895</v>
       </c>
       <c r="M92" s="1">
-        <v>43212</v>
+        <v>42899</v>
       </c>
       <c r="N92">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="O92" s="8">
-        <f t="shared" si="4"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2" t="s">
-        <v>217</v>
+        <v>134</v>
       </c>
       <c r="G93" s="2">
-        <v>1928</v>
+        <v>1963</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I93" t="s">
-        <v>332</v>
+        <v>49</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K93">
-        <v>546</v>
+        <v>312</v>
       </c>
       <c r="L93" s="1">
-        <v>43217</v>
+        <v>43200</v>
       </c>
       <c r="M93" s="1">
-        <v>43226</v>
+        <v>43212</v>
       </c>
       <c r="N93">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <f t="shared" si="7"/>
+        <v>12</v>
       </c>
       <c r="O93" s="8">
-        <f t="shared" si="4"/>
-        <v>60.666666666666664</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
-        <v>52</v>
+        <v>217</v>
       </c>
       <c r="G94" s="2">
-        <v>1946</v>
+        <v>1928</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I94" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K94">
-        <v>661</v>
+        <v>546</v>
       </c>
       <c r="L94" s="1">
-        <v>42385</v>
+        <v>43217</v>
       </c>
       <c r="M94" s="1">
-        <v>42404</v>
+        <v>43226</v>
       </c>
       <c r="N94">
-        <f t="shared" si="5"/>
-        <v>19</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="O94" s="8">
-        <f t="shared" si="4"/>
-        <v>34.789473684210527</v>
+        <f t="shared" si="6"/>
+        <v>60.666666666666664</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>380</v>
+        <v>219</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2" t="s">
-        <v>221</v>
+        <v>52</v>
       </c>
       <c r="G95" s="2">
-        <v>1996</v>
+        <v>1946</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I95" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K95">
-        <v>227</v>
+        <v>661</v>
       </c>
       <c r="L95" s="1">
-        <v>43163</v>
+        <v>42385</v>
       </c>
       <c r="M95" s="1">
-        <v>43165</v>
+        <v>42404</v>
       </c>
       <c r="N95">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>19</v>
       </c>
       <c r="O95" s="8">
-        <f t="shared" si="4"/>
-        <v>113.5</v>
+        <f t="shared" si="6"/>
+        <v>34.789473684210527</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>223</v>
+        <v>380</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G96" s="2">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I96" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K96">
-        <v>94</v>
+        <v>227</v>
       </c>
       <c r="L96" s="1">
-        <v>43121</v>
+        <v>43163</v>
       </c>
       <c r="M96" s="1">
-        <v>43121</v>
+        <v>43165</v>
       </c>
       <c r="N96">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O96" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="O96" s="8">
+        <f t="shared" si="6"/>
+        <v>113.5</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>329</v>
+        <v>222</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G97" s="2">
-        <v>1987</v>
+        <v>1998</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I97" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K97">
-        <v>372</v>
+        <v>94</v>
       </c>
       <c r="L97" s="1">
-        <v>42767</v>
+        <v>43121</v>
       </c>
       <c r="M97" s="1">
-        <v>42768</v>
+        <v>43121</v>
       </c>
       <c r="N97">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O97" s="8">
-        <f t="shared" si="4"/>
-        <v>372</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O97" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>227</v>
+        <v>329</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>139</v>
+        <v>226</v>
       </c>
       <c r="G98" s="2">
-        <v>1967</v>
+        <v>1987</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I98" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K98">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="L98" s="1">
+        <v>42767</v>
+      </c>
+      <c r="M98" s="1">
         <v>42768</v>
       </c>
-      <c r="M98" s="1">
-        <v>42771</v>
-      </c>
       <c r="N98">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="O98" s="8">
-        <f t="shared" si="4"/>
-        <v>137.33333333333334</v>
+        <f t="shared" si="6"/>
+        <v>372</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2" t="s">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="G99" s="2">
-        <v>2010</v>
+        <v>1967</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I99" t="s">
-        <v>49</v>
+        <v>343</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K99">
-        <v>941</v>
+        <v>412</v>
       </c>
       <c r="L99" s="1">
-        <v>42883</v>
+        <v>42768</v>
       </c>
       <c r="M99" s="1">
-        <v>42894</v>
+        <v>42771</v>
       </c>
       <c r="N99">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="O99" s="8">
-        <f t="shared" si="4"/>
-        <v>85.545454545454547</v>
+        <f t="shared" si="6"/>
+        <v>137.33333333333334</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2" t="s">
-        <v>28</v>
+        <v>231</v>
       </c>
       <c r="G100" s="2">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I100" t="s">
-        <v>344</v>
+        <v>49</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K100">
-        <v>304</v>
+        <v>941</v>
       </c>
       <c r="L100" s="1">
-        <v>43106</v>
+        <v>42883</v>
       </c>
       <c r="M100" s="1">
-        <v>43120</v>
+        <v>42894</v>
       </c>
       <c r="N100">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f t="shared" si="7"/>
+        <v>11</v>
       </c>
       <c r="O100" s="8">
-        <f t="shared" si="4"/>
-        <v>21.714285714285715</v>
+        <f t="shared" si="6"/>
+        <v>85.545454545454547</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>63</v>
+        <v>233</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G101" s="2">
-        <v>1963</v>
+        <v>2017</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I101" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K101">
-        <v>492</v>
+        <v>304</v>
       </c>
       <c r="L101" s="1">
-        <v>43127</v>
+        <v>43106</v>
       </c>
       <c r="M101" s="1">
-        <v>43148</v>
+        <v>43120</v>
       </c>
       <c r="N101">
-        <f t="shared" si="5"/>
-        <v>21</v>
+        <f t="shared" si="7"/>
+        <v>14</v>
       </c>
       <c r="O101" s="8">
-        <f t="shared" si="4"/>
-        <v>23.428571428571427</v>
+        <f t="shared" si="6"/>
+        <v>21.714285714285715</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>236</v>
+        <v>63</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G102" s="2">
-        <v>1949</v>
+        <v>1963</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>8</v>
@@ -6842,130 +6857,130 @@
         <v>9</v>
       </c>
       <c r="K102">
-        <v>311</v>
+        <v>492</v>
       </c>
       <c r="L102" s="1">
-        <v>43149</v>
+        <v>43127</v>
       </c>
       <c r="M102" s="1">
-        <v>43155</v>
+        <v>43148</v>
       </c>
       <c r="N102">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>21</v>
       </c>
       <c r="O102" s="8">
-        <f t="shared" si="4"/>
-        <v>51.833333333333336</v>
+        <f t="shared" si="6"/>
+        <v>23.428571428571427</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2" t="s">
-        <v>239</v>
+        <v>113</v>
       </c>
       <c r="G103" s="2">
-        <v>2015</v>
+        <v>1949</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I103" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K103">
-        <v>384</v>
+        <v>311</v>
       </c>
       <c r="L103" s="1">
-        <v>42919</v>
+        <v>43149</v>
       </c>
       <c r="M103" s="1">
-        <v>42929</v>
+        <v>43155</v>
       </c>
       <c r="N103">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="O103" s="8">
-        <f t="shared" si="4"/>
-        <v>38.4</v>
+        <f t="shared" si="6"/>
+        <v>51.833333333333336</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="G104" s="2">
-        <v>1992</v>
+        <v>2015</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I104" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K104">
-        <v>256</v>
+        <v>384</v>
       </c>
       <c r="L104" s="1">
-        <v>42732</v>
+        <v>42919</v>
       </c>
       <c r="M104" s="1">
-        <v>42737</v>
+        <v>42929</v>
       </c>
       <c r="N104">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>10</v>
       </c>
       <c r="O104" s="8">
-        <f t="shared" si="4"/>
-        <v>51.2</v>
+        <f t="shared" si="6"/>
+        <v>38.4</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="G105" s="2">
-        <v>1977</v>
+        <v>1992</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I105" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>9</v>
@@ -6974,422 +6989,422 @@
         <v>256</v>
       </c>
       <c r="L105" s="1">
-        <v>42382</v>
+        <v>42732</v>
       </c>
       <c r="M105" s="1">
-        <v>42383</v>
+        <v>42737</v>
       </c>
       <c r="N105">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="O105" s="8">
-        <f t="shared" si="4"/>
-        <v>256</v>
+        <f t="shared" si="6"/>
+        <v>51.2</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2" t="s">
-        <v>52</v>
+        <v>153</v>
       </c>
       <c r="G106" s="2">
-        <v>1927</v>
+        <v>1977</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I106" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K106">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="L106" s="1">
-        <v>42790</v>
+        <v>42382</v>
       </c>
       <c r="M106" s="1">
-        <v>42802</v>
+        <v>42383</v>
       </c>
       <c r="N106">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="O106" s="8">
-        <f t="shared" si="4"/>
-        <v>22.666666666666668</v>
+        <f t="shared" si="6"/>
+        <v>256</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2" t="s">
-        <v>248</v>
+        <v>52</v>
       </c>
       <c r="G107" s="2">
-        <v>1997</v>
+        <v>1927</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I107" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K107">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="L107" s="1">
-        <v>42805</v>
+        <v>42790</v>
       </c>
       <c r="M107" s="1">
-        <v>42811</v>
+        <v>42802</v>
       </c>
       <c r="N107">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>12</v>
       </c>
       <c r="O107" s="8">
-        <f t="shared" si="4"/>
-        <v>48.833333333333336</v>
+        <f t="shared" si="6"/>
+        <v>22.666666666666668</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2" t="s">
-        <v>113</v>
+        <v>248</v>
       </c>
       <c r="G108" s="2">
-        <v>2013</v>
+        <v>1997</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I108" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K108">
-        <v>496</v>
+        <v>293</v>
       </c>
       <c r="L108" s="1">
-        <v>42645</v>
+        <v>42805</v>
       </c>
       <c r="M108" s="1">
-        <v>42649</v>
+        <v>42811</v>
       </c>
       <c r="N108">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="O108" s="8">
-        <f t="shared" si="4"/>
-        <v>124</v>
+        <f t="shared" si="6"/>
+        <v>48.833333333333336</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>82</v>
+        <v>250</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="G109" s="2">
-        <v>1955</v>
+        <v>2013</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I109" t="s">
-        <v>369</v>
+        <v>96</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K109">
-        <v>331</v>
+        <v>496</v>
       </c>
       <c r="L109" s="1">
-        <v>42823</v>
+        <v>42645</v>
       </c>
       <c r="M109" s="1">
-        <v>42827</v>
+        <v>42649</v>
       </c>
       <c r="N109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="O109" s="8">
-        <f t="shared" si="4"/>
-        <v>82.75</v>
+        <f t="shared" si="6"/>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>381</v>
+        <v>82</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G110" s="2">
-        <v>1991</v>
+        <v>1955</v>
       </c>
       <c r="H110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I110" t="s">
+        <v>369</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K110">
         <v>331</v>
       </c>
-      <c r="I110" t="s">
-        <v>344</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K110">
-        <v>149</v>
-      </c>
       <c r="L110" s="1">
-        <v>42665</v>
+        <v>42823</v>
       </c>
       <c r="M110" s="1">
-        <v>42668</v>
+        <v>42827</v>
       </c>
       <c r="N110">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="O110" s="8">
-        <f t="shared" si="4"/>
-        <v>49.666666666666664</v>
+        <f t="shared" si="6"/>
+        <v>82.75</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>254</v>
+        <v>381</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2" t="s">
-        <v>255</v>
+        <v>30</v>
       </c>
       <c r="G111" s="2">
-        <v>1942</v>
+        <v>1991</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I111" t="s">
-        <v>49</v>
+        <v>344</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K111">
-        <v>495</v>
+        <v>149</v>
       </c>
       <c r="L111" s="1">
-        <v>42711</v>
+        <v>42665</v>
       </c>
       <c r="M111" s="1">
-        <v>42727</v>
+        <v>42668</v>
       </c>
       <c r="N111">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="O111" s="8">
-        <f t="shared" si="4"/>
-        <v>30.9375</v>
+        <f t="shared" si="6"/>
+        <v>49.666666666666664</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2" t="s">
-        <v>191</v>
+        <v>255</v>
       </c>
       <c r="G112" s="2">
-        <v>2010</v>
+        <v>1942</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I112" t="s">
-        <v>346</v>
+        <v>49</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K112">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="L112" s="1">
-        <v>42776</v>
+        <v>42711</v>
       </c>
       <c r="M112" s="1">
-        <v>42785</v>
+        <v>42727</v>
       </c>
       <c r="N112">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
       <c r="O112" s="8">
-        <f t="shared" si="4"/>
-        <v>49.555555555555557</v>
+        <f t="shared" si="6"/>
+        <v>30.9375</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2" t="s">
-        <v>61</v>
+        <v>191</v>
       </c>
       <c r="G113" s="2">
-        <v>1992</v>
+        <v>2010</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I113" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K113">
-        <v>224</v>
+        <v>446</v>
       </c>
       <c r="L113" s="1">
-        <v>42249</v>
+        <v>42776</v>
       </c>
       <c r="M113" s="1">
-        <v>42250</v>
+        <v>42785</v>
       </c>
       <c r="N113">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="O113" s="8">
-        <f t="shared" si="4"/>
-        <v>224</v>
+        <f t="shared" si="6"/>
+        <v>49.555555555555557</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G114" s="2">
-        <v>1934</v>
+        <v>1992</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I114" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K114">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="L114" s="1">
-        <v>43294</v>
+        <v>42249</v>
       </c>
       <c r="M114" s="1">
-        <v>43307</v>
+        <v>42250</v>
       </c>
       <c r="N114">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="O114" s="8">
-        <f t="shared" si="4"/>
-        <v>19.307692307692307</v>
+        <f t="shared" si="6"/>
+        <v>224</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="G115" s="2">
-        <v>1951</v>
+        <v>1934</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>8</v>
@@ -7401,293 +7416,293 @@
         <v>9</v>
       </c>
       <c r="K115">
-        <v>192</v>
+        <v>251</v>
       </c>
       <c r="L115" s="1">
-        <v>42518</v>
+        <v>43294</v>
       </c>
       <c r="M115" s="1">
-        <v>42522</v>
+        <v>43307</v>
       </c>
       <c r="N115">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>13</v>
       </c>
       <c r="O115" s="8">
-        <f t="shared" si="4"/>
-        <v>48</v>
+        <f t="shared" si="6"/>
+        <v>19.307692307692307</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>370</v>
+        <v>262</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2" t="s">
-        <v>319</v>
+        <v>52</v>
       </c>
       <c r="G116" s="2">
-        <v>2013</v>
+        <v>1951</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I116" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K116">
-        <v>329</v>
+        <v>192</v>
       </c>
       <c r="L116" s="1">
-        <v>42512</v>
+        <v>42518</v>
       </c>
       <c r="M116" s="1">
-        <v>42514</v>
+        <v>42522</v>
       </c>
       <c r="N116">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="O116" s="8">
-        <f t="shared" si="4"/>
-        <v>164.5</v>
+        <f t="shared" si="6"/>
+        <v>48</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>265</v>
+        <v>370</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>65</v>
+        <v>264</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2" t="s">
-        <v>30</v>
+        <v>319</v>
       </c>
       <c r="G117" s="2">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I117" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K117">
-        <v>498</v>
+        <v>329</v>
       </c>
       <c r="L117" s="1">
-        <v>43308</v>
+        <v>42512</v>
       </c>
       <c r="M117" s="1">
-        <v>43322</v>
+        <v>42514</v>
       </c>
       <c r="N117">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="O117" s="8">
-        <f t="shared" si="4"/>
-        <v>35.571428571428569</v>
+        <f t="shared" si="6"/>
+        <v>164.5</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>267</v>
+        <v>65</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2" t="s">
-        <v>268</v>
+        <v>30</v>
       </c>
       <c r="G118" s="2">
-        <v>1971</v>
+        <v>2011</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I118" t="s">
-        <v>369</v>
+        <v>96</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K118">
-        <v>160</v>
+        <v>498</v>
       </c>
       <c r="L118" s="1">
-        <v>42643</v>
+        <v>43308</v>
       </c>
       <c r="M118" s="1">
-        <v>42644</v>
+        <v>43322</v>
       </c>
       <c r="N118">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>14</v>
       </c>
       <c r="O118" s="8">
-        <f t="shared" si="4"/>
-        <v>160</v>
+        <f t="shared" si="6"/>
+        <v>35.571428571428569</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G119" s="2">
-        <v>2000</v>
+        <v>1971</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I119" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K119">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="L119" s="1">
-        <v>42628</v>
+        <v>42643</v>
       </c>
       <c r="M119" s="1">
-        <v>42632</v>
+        <v>42644</v>
       </c>
       <c r="N119">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="O119" s="8">
-        <f t="shared" si="4"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>160</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G120" s="2">
         <v>2000</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I120" t="s">
-        <v>332</v>
+        <v>49</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K120">
-        <v>639</v>
+        <v>176</v>
       </c>
       <c r="L120" s="1">
-        <v>42683</v>
+        <v>42628</v>
       </c>
       <c r="M120" s="1">
-        <v>42695</v>
+        <v>42632</v>
       </c>
       <c r="N120">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="O120" s="8">
-        <f t="shared" si="4"/>
-        <v>53.25</v>
+        <f t="shared" si="6"/>
+        <v>44</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2" t="s">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="G121" s="2">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I121" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K121">
-        <v>563</v>
+        <v>639</v>
       </c>
       <c r="L121" s="1">
-        <v>42830</v>
+        <v>42683</v>
       </c>
       <c r="M121" s="1">
-        <v>42846</v>
+        <v>42695</v>
       </c>
       <c r="N121">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f t="shared" si="7"/>
+        <v>12</v>
       </c>
       <c r="O121" s="8">
-        <f t="shared" si="4"/>
-        <v>35.1875</v>
+        <f t="shared" si="6"/>
+        <v>53.25</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="G122" s="2">
         <v>2015</v>
@@ -7696,78 +7711,78 @@
         <v>8</v>
       </c>
       <c r="I122" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K122">
-        <v>304</v>
+        <v>563</v>
       </c>
       <c r="L122" s="1">
-        <v>42848</v>
+        <v>42830</v>
       </c>
       <c r="M122" s="1">
-        <v>42852</v>
+        <v>42846</v>
       </c>
       <c r="N122">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
       <c r="O122" s="8">
-        <f t="shared" si="4"/>
-        <v>76</v>
+        <f t="shared" si="6"/>
+        <v>35.1875</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2" t="s">
-        <v>28</v>
+        <v>279</v>
       </c>
       <c r="G123" s="2">
-        <v>1994</v>
+        <v>2015</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I123" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K123">
-        <v>480</v>
+        <v>304</v>
       </c>
       <c r="L123" s="1">
-        <v>42358</v>
+        <v>42848</v>
       </c>
       <c r="M123" s="1">
-        <v>42377</v>
+        <v>42852</v>
       </c>
       <c r="N123">
-        <f t="shared" si="5"/>
-        <v>19</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="O123" s="8">
-        <f t="shared" si="4"/>
-        <v>25.263157894736842</v>
+        <f t="shared" si="6"/>
+        <v>76</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -7776,50 +7791,50 @@
         <v>28</v>
       </c>
       <c r="G124" s="2">
-        <v>1962</v>
+        <v>1994</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I124" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K124">
-        <v>256</v>
+        <v>480</v>
       </c>
       <c r="L124" s="1">
-        <v>42696</v>
+        <v>42358</v>
       </c>
       <c r="M124" s="1">
-        <v>42700</v>
+        <v>42377</v>
       </c>
       <c r="N124">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>19</v>
       </c>
       <c r="O124" s="8">
-        <f t="shared" si="4"/>
-        <v>64</v>
+        <f t="shared" si="6"/>
+        <v>25.263157894736842</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2" t="s">
-        <v>286</v>
+        <v>28</v>
       </c>
       <c r="G125" s="2">
-        <v>1929</v>
+        <v>1962</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>8</v>
@@ -7831,468 +7846,468 @@
         <v>9</v>
       </c>
       <c r="K125">
-        <v>348</v>
+        <v>256</v>
       </c>
       <c r="L125" s="1">
-        <v>42860</v>
+        <v>42696</v>
       </c>
       <c r="M125" s="1">
-        <v>42869</v>
+        <v>42700</v>
       </c>
       <c r="N125">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="O125" s="8">
-        <f t="shared" si="4"/>
-        <v>38.666666666666664</v>
+        <f t="shared" si="6"/>
+        <v>64</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G126" s="2">
-        <v>1897</v>
+        <v>1929</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I126" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K126">
-        <v>496</v>
+        <v>348</v>
       </c>
       <c r="L126" s="1">
-        <v>42952</v>
+        <v>42860</v>
       </c>
       <c r="M126" s="1">
-        <v>42962</v>
+        <v>42869</v>
       </c>
       <c r="N126">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="O126" s="8">
-        <f t="shared" si="4"/>
-        <v>49.6</v>
+        <f t="shared" si="6"/>
+        <v>38.666666666666664</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2" t="s">
-        <v>168</v>
+        <v>289</v>
       </c>
       <c r="G127" s="2">
-        <v>2016</v>
+        <v>1897</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I127" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K127">
-        <v>302</v>
+        <v>496</v>
       </c>
       <c r="L127" s="1">
-        <v>43179</v>
+        <v>42952</v>
       </c>
       <c r="M127" s="1">
-        <v>43183</v>
+        <v>42962</v>
       </c>
       <c r="N127">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>10</v>
       </c>
       <c r="O127" s="8">
-        <f t="shared" si="4"/>
-        <v>75.5</v>
+        <f t="shared" si="6"/>
+        <v>49.6</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2" t="s">
-        <v>248</v>
+        <v>168</v>
       </c>
       <c r="G128" s="2">
-        <v>1886</v>
+        <v>2016</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I128" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K128">
-        <v>110</v>
+        <v>302</v>
       </c>
       <c r="L128" s="1">
-        <v>43430</v>
+        <v>43179</v>
       </c>
       <c r="M128" s="1">
-        <v>43434</v>
+        <v>43183</v>
       </c>
       <c r="N128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="O128" s="8">
-        <f t="shared" si="4"/>
-        <v>27.5</v>
+        <f t="shared" si="6"/>
+        <v>75.5</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="G129" s="2">
-        <v>2013</v>
+        <v>1886</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I129" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K129">
-        <v>256</v>
+        <v>110</v>
       </c>
       <c r="L129" s="1">
-        <v>43449</v>
+        <v>43430</v>
       </c>
       <c r="M129" s="1">
-        <v>43453</v>
+        <v>43434</v>
       </c>
       <c r="N129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="O129" s="8">
-        <f t="shared" si="4"/>
-        <v>64</v>
+        <f t="shared" si="6"/>
+        <v>27.5</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="G130" s="2">
-        <v>1972</v>
+        <v>2013</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I130" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K130">
-        <v>506</v>
+        <v>256</v>
       </c>
       <c r="L130" s="1">
-        <v>43436</v>
+        <v>43449</v>
       </c>
       <c r="M130" s="1">
-        <v>43446</v>
+        <v>43453</v>
       </c>
       <c r="N130">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="O130" s="8">
-        <f t="shared" si="4"/>
-        <v>50.6</v>
+        <f t="shared" si="6"/>
+        <v>64</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="G131" s="2">
-        <v>2016</v>
+        <v>1972</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I131" t="s">
-        <v>49</v>
+        <v>332</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K131">
-        <v>941</v>
+        <v>506</v>
       </c>
       <c r="L131" s="1">
-        <v>42737</v>
+        <v>43436</v>
       </c>
       <c r="M131" s="1">
-        <v>42767</v>
+        <v>43446</v>
       </c>
       <c r="N131">
-        <f t="shared" si="5"/>
-        <v>30</v>
+        <f t="shared" si="7"/>
+        <v>10</v>
       </c>
       <c r="O131" s="8">
-        <f t="shared" si="4"/>
-        <v>31.366666666666667</v>
+        <f t="shared" si="6"/>
+        <v>50.6</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>382</v>
+        <v>300</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G132" s="2">
-        <v>1959</v>
+        <v>2016</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I132" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K132">
-        <v>582</v>
+        <v>941</v>
       </c>
       <c r="L132" s="1">
-        <v>42567</v>
+        <v>42737</v>
       </c>
       <c r="M132" s="1">
-        <v>42578</v>
+        <v>42767</v>
       </c>
       <c r="N132">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <f t="shared" si="7"/>
+        <v>30</v>
       </c>
       <c r="O132" s="8">
-        <f t="shared" si="4"/>
-        <v>52.909090909090907</v>
+        <f t="shared" si="6"/>
+        <v>31.366666666666667</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>305</v>
+        <v>382</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2" t="s">
-        <v>156</v>
+        <v>303</v>
       </c>
       <c r="G133" s="2">
-        <v>2015</v>
+        <v>1959</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I133" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K133">
-        <v>862</v>
+        <v>582</v>
       </c>
       <c r="L133" s="1">
-        <v>42445</v>
+        <v>42567</v>
       </c>
       <c r="M133" s="1">
-        <v>42484</v>
+        <v>42578</v>
       </c>
       <c r="N133">
-        <f t="shared" si="5"/>
-        <v>39</v>
+        <f t="shared" si="7"/>
+        <v>11</v>
       </c>
       <c r="O133" s="8">
-        <f t="shared" ref="O133:O140" si="6">K133/N133</f>
-        <v>22.102564102564102</v>
+        <f t="shared" si="6"/>
+        <v>52.909090909090907</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2" t="s">
-        <v>308</v>
+        <v>156</v>
       </c>
       <c r="G134" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I134" t="s">
-        <v>344</v>
+        <v>49</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K134">
-        <v>488</v>
+        <v>862</v>
       </c>
       <c r="L134" s="1">
-        <v>42431</v>
+        <v>42445</v>
       </c>
       <c r="M134" s="1">
-        <v>42445</v>
+        <v>42484</v>
       </c>
       <c r="N134">
-        <f t="shared" ref="N134:N140" si="7">M134-L134</f>
-        <v>14</v>
+        <f t="shared" si="7"/>
+        <v>39</v>
       </c>
       <c r="O134" s="8">
-        <f t="shared" si="6"/>
-        <v>34.857142857142854</v>
+        <f t="shared" ref="O134:O141" si="8">K134/N134</f>
+        <v>22.102564102564102</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>150</v>
+        <v>307</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2" t="s">
-        <v>163</v>
+        <v>308</v>
       </c>
       <c r="G135" s="2">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I135" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K135">
-        <v>352</v>
+        <v>488</v>
       </c>
       <c r="L135" s="1">
-        <v>42899</v>
+        <v>42431</v>
       </c>
       <c r="M135" s="1">
-        <v>42918</v>
+        <v>42445</v>
       </c>
       <c r="N135">
-        <f t="shared" si="7"/>
-        <v>19</v>
+        <f t="shared" ref="N135:N141" si="9">M135-L135</f>
+        <v>14</v>
       </c>
       <c r="O135" s="8">
-        <f t="shared" si="6"/>
-        <v>18.526315789473685</v>
+        <f t="shared" si="8"/>
+        <v>34.857142857142854</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>312</v>
+        <v>150</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2" t="s">
-        <v>319</v>
+        <v>163</v>
       </c>
       <c r="G136" s="2">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>331</v>
@@ -8304,197 +8319,240 @@
         <v>9</v>
       </c>
       <c r="K136">
-        <v>255</v>
+        <v>352</v>
       </c>
       <c r="L136" s="1">
-        <v>43405</v>
+        <v>42899</v>
       </c>
       <c r="M136" s="1">
-        <v>43411</v>
+        <v>42918</v>
       </c>
       <c r="N136">
-        <f t="shared" si="7"/>
-        <v>6</v>
+        <f t="shared" si="9"/>
+        <v>19</v>
       </c>
       <c r="O136" s="8">
-        <f t="shared" si="6"/>
-        <v>42.5</v>
+        <f t="shared" si="8"/>
+        <v>18.526315789473685</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2" t="s">
-        <v>12</v>
+        <v>319</v>
       </c>
       <c r="G137" s="2">
-        <v>1985</v>
+        <v>2016</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I137" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K137">
-        <v>324</v>
+        <v>255</v>
       </c>
       <c r="L137" s="1">
-        <v>43509</v>
+        <v>43405</v>
       </c>
       <c r="M137" s="1">
-        <v>43516</v>
+        <v>43411</v>
       </c>
       <c r="N137">
-        <f t="shared" si="7"/>
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
       <c r="O137" s="8">
-        <f t="shared" si="6"/>
-        <v>46.285714285714285</v>
+        <f t="shared" si="8"/>
+        <v>42.5</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2" t="s">
-        <v>286</v>
+        <v>12</v>
       </c>
       <c r="G138" s="2">
-        <v>1854</v>
+        <v>1985</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I138" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K138">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="L138" s="1">
-        <v>43369</v>
+        <v>43509</v>
       </c>
       <c r="M138" s="1">
-        <v>43381</v>
+        <v>43516</v>
       </c>
       <c r="N138">
-        <f t="shared" si="7"/>
-        <v>12</v>
+        <f t="shared" si="9"/>
+        <v>7</v>
       </c>
       <c r="O138" s="8">
-        <f t="shared" si="6"/>
-        <v>30</v>
+        <f t="shared" si="8"/>
+        <v>46.285714285714285</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>377</v>
+        <v>316</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="G139" s="2">
-        <v>1963</v>
+        <v>1854</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I139" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K139">
-        <v>257</v>
+        <v>360</v>
       </c>
       <c r="L139" s="1">
-        <v>43427</v>
+        <v>43369</v>
       </c>
       <c r="M139" s="1">
-        <v>43429</v>
+        <v>43381</v>
       </c>
       <c r="N139">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>12</v>
       </c>
       <c r="O139" s="8">
-        <f t="shared" si="6"/>
-        <v>128.5</v>
+        <f t="shared" si="8"/>
+        <v>30</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>317</v>
+        <v>368</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>318</v>
+        <v>377</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2" t="s">
-        <v>61</v>
+        <v>248</v>
       </c>
       <c r="G140" s="2">
-        <v>1979</v>
+        <v>1963</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I140" t="s">
+        <v>337</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K140">
+        <v>257</v>
+      </c>
+      <c r="L140" s="1">
+        <v>43427</v>
+      </c>
+      <c r="M140" s="1">
+        <v>43429</v>
+      </c>
+      <c r="N140">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="O140" s="8">
+        <f t="shared" si="8"/>
+        <v>128.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A141" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G141" s="2">
+        <v>1979</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I141" t="s">
         <v>347</v>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K140">
+      <c r="J141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K141">
         <v>592</v>
       </c>
-      <c r="L140" s="1">
+      <c r="L141" s="1">
         <v>43543</v>
       </c>
-      <c r="M140" s="1">
+      <c r="M141" s="1">
         <v>43576</v>
       </c>
-      <c r="N140">
-        <f t="shared" si="7"/>
+      <c r="N141">
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
-      <c r="O140" s="8">
-        <f t="shared" si="6"/>
+      <c r="O141" s="8">
+        <f t="shared" si="8"/>
         <v>17.939393939393938</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N140" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N141" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/b2.xlsx
+++ b/b2.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18912B94-4B45-4A4E-912F-B5D7D148E26A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5542C300-4B10-41A8-AC33-AAB5A9D06A0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18340" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="clean" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">clean!$A$1:$N$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">clean!$A$1:$N$142</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="416">
   <si>
     <t>Title</t>
   </si>
@@ -1281,6 +1281,15 @@
   </si>
   <si>
     <t>Fayard</t>
+  </si>
+  <si>
+    <t>Weir, Andy</t>
+  </si>
+  <si>
+    <t>The Martian</t>
+  </si>
+  <si>
+    <t>Software developer</t>
   </si>
 </sst>
 </file>
@@ -2150,13 +2159,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O141"/>
+  <dimension ref="A1:O142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V2" sqref="V2"/>
+      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2223,62 +2232,60 @@
     </row>
     <row r="2" spans="1:15" s="7" customFormat="1" ht="19" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>387</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="G2" s="2">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>49</v>
+        <v>332</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K2" s="2">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="L2" s="1">
-        <v>44227</v>
+        <v>44240</v>
       </c>
       <c r="M2" s="1">
-        <v>44240</v>
+        <v>44246</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2" si="0">M2-L2</f>
-        <v>13</v>
+        <f t="shared" ref="N2:N3" si="0">M2-L2</f>
+        <v>6</v>
       </c>
       <c r="O2" s="8">
-        <f t="shared" ref="O2" si="1">K2/N2</f>
-        <v>30.846153846153847</v>
+        <f t="shared" ref="O2:O3" si="1">K2/N2</f>
+        <v>61.5</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>383</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>387</v>
@@ -2287,238 +2294,240 @@
         <v>402</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>231</v>
+        <v>412</v>
       </c>
       <c r="G3" s="2">
-        <v>1958</v>
+        <v>2018</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>343</v>
+        <v>49</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K3" s="2">
-        <v>262</v>
+        <v>401</v>
       </c>
       <c r="L3" s="1">
-        <v>44212</v>
+        <v>44227</v>
       </c>
       <c r="M3" s="1">
-        <v>44223</v>
+        <v>44240</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N5" si="2">M3-L3</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="O3" s="8">
-        <f t="shared" ref="O3:O5" si="3">K3/N3</f>
-        <v>23.818181818181817</v>
+        <f t="shared" si="1"/>
+        <v>30.846153846153847</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>383</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="G4" s="2">
-        <v>1934</v>
+        <v>1958</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="2">
+        <v>262</v>
+      </c>
+      <c r="L4" s="1">
+        <v>44212</v>
+      </c>
+      <c r="M4" s="1">
+        <v>44223</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N6" si="2">M4-L4</f>
+        <v>11</v>
+      </c>
+      <c r="O4" s="8">
+        <f t="shared" ref="O4:O6" si="3">K4/N4</f>
+        <v>23.818181818181817</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1934</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K5" s="2">
         <v>217</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L5" s="1">
         <v>44207</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M5" s="1">
         <v>44212</v>
       </c>
-      <c r="N4">
+      <c r="N5">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O5" s="8">
         <f t="shared" si="3"/>
         <v>43.4</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G6" s="2">
         <v>2013</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K6" s="2">
         <v>533</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L6" s="1">
         <v>44193</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M6" s="1">
         <v>44195</v>
       </c>
-      <c r="N5">
+      <c r="N6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O6" s="8">
         <f t="shared" si="3"/>
         <v>266.5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G7" s="2">
         <v>2020</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="J7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="2">
         <v>278</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L7" s="1">
         <v>44178</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M7" s="1">
         <v>44193</v>
-      </c>
-      <c r="N6">
-        <f>M6-L6</f>
-        <v>15</v>
-      </c>
-      <c r="O6" s="8">
-        <f>K6/N6</f>
-        <v>18.533333333333335</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2006</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" t="s">
-        <v>330</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7">
-        <v>420</v>
-      </c>
-      <c r="L7" s="1">
-        <v>44163</v>
-      </c>
-      <c r="M7" s="1">
-        <v>44165</v>
       </c>
       <c r="N7">
         <f>M7-L7</f>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O7" s="8">
-        <f t="shared" ref="O7:O70" si="4">K7/N7</f>
-        <v>210</v>
+        <f>K7/N7</f>
+        <v>18.533333333333335</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>384</v>
@@ -2528,498 +2537,498 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G8" s="2">
-        <v>1983</v>
+        <v>2006</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I8" t="s">
+        <v>330</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>420</v>
+      </c>
+      <c r="L8" s="1">
+        <v>44163</v>
+      </c>
+      <c r="M8" s="1">
+        <v>44165</v>
+      </c>
+      <c r="N8">
+        <f>M8-L8</f>
+        <v>2</v>
+      </c>
+      <c r="O8" s="8">
+        <f t="shared" ref="O8:O71" si="4">K8/N8</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1983</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
         <v>369</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8">
+      <c r="J9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9">
         <v>291</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L9" s="1">
         <v>44156</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M9" s="1">
         <v>44163</v>
       </c>
-      <c r="N8">
-        <f t="shared" ref="N8:N71" si="5">M8-L8</f>
+      <c r="N9">
+        <f t="shared" ref="N9:N72" si="5">M9-L9</f>
         <v>7</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O9" s="8">
         <f t="shared" si="4"/>
         <v>41.571428571428569</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G10" s="2">
         <v>2017</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
         <v>331</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9">
+      <c r="J10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10">
         <v>176</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L10" s="1">
         <v>44150</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M10" s="1">
         <v>44155</v>
       </c>
-      <c r="N9">
+      <c r="N10">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O10" s="8">
         <f t="shared" si="4"/>
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G11" s="2">
         <v>1980</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10">
+      <c r="J11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11">
         <v>502</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L11" s="1">
         <v>44129</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M11" s="1">
         <v>44142</v>
       </c>
-      <c r="N10">
-        <f>M10-L10</f>
+      <c r="N11">
+        <f>M11-L11</f>
         <v>13</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O11" s="8">
         <f t="shared" si="4"/>
         <v>38.615384615384613</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G12" s="2">
         <v>1938</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>247</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L12" s="1">
         <v>44114</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M12" s="1">
         <v>44129</v>
       </c>
-      <c r="N11">
+      <c r="N12">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O12" s="8">
         <f t="shared" si="4"/>
         <v>16.466666666666665</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G13" s="2">
         <v>1981</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12">
+      <c r="J13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13">
         <v>225</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L13" s="1">
         <v>43931</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M13" s="1">
         <v>44053</v>
       </c>
-      <c r="N12">
+      <c r="N13">
         <f t="shared" si="5"/>
         <v>122</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O13" s="8">
         <f t="shared" si="4"/>
         <v>1.8442622950819672</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G14" s="2">
         <v>1865</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>826</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L14" s="1">
         <v>43930</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M14" s="1">
         <v>44021</v>
       </c>
-      <c r="N13">
+      <c r="N14">
         <f t="shared" si="5"/>
         <v>91</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O14" s="8">
         <f t="shared" si="4"/>
         <v>9.0769230769230766</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G15" s="2">
         <v>1988</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14">
+      <c r="J15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15">
         <v>368</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L15" s="1">
         <v>44052</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M15" s="1">
         <v>44077</v>
       </c>
-      <c r="N14">
+      <c r="N15">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O15" s="8">
         <f t="shared" si="4"/>
         <v>14.72</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G16" s="2">
         <v>1951</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15">
+      <c r="J16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16">
         <v>54</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L16" s="1">
         <v>43838</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M16" s="1">
         <v>43990</v>
       </c>
-      <c r="N15">
+      <c r="N16">
         <f t="shared" si="5"/>
         <v>152</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O16" s="8">
         <f t="shared" si="4"/>
         <v>0.35526315789473684</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G17" s="2">
         <v>1979</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16">
+      <c r="J17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17">
         <v>179</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L17" s="1">
         <v>44020</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M17" s="1">
         <v>44082</v>
       </c>
-      <c r="N16">
+      <c r="N17">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O17" s="8">
         <f t="shared" si="4"/>
         <v>2.8870967741935485</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1982</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17">
-        <v>299</v>
-      </c>
-      <c r="L17" s="1">
-        <v>44037</v>
-      </c>
-      <c r="M17" s="1">
-        <v>44039</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="O17" s="8">
-        <f t="shared" si="4"/>
-        <v>149.5</v>
-      </c>
-    </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G18" s="2">
-        <v>1964</v>
+        <v>1982</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K18">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="L18" s="1">
-        <v>44032</v>
+        <v>44037</v>
       </c>
       <c r="M18" s="1">
-        <v>44034</v>
+        <v>44039</v>
       </c>
       <c r="N18">
         <f t="shared" si="5"/>
@@ -3027,328 +3036,328 @@
       </c>
       <c r="O18" s="8">
         <f t="shared" si="4"/>
-        <v>168</v>
+        <v>149.5</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G19" s="2">
-        <v>2018</v>
+        <v>1964</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K19">
-        <v>256</v>
+        <v>336</v>
       </c>
       <c r="L19" s="1">
-        <v>44023</v>
+        <v>44032</v>
       </c>
       <c r="M19" s="1">
-        <v>44030</v>
+        <v>44034</v>
       </c>
       <c r="N19">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O19" s="8">
         <f t="shared" si="4"/>
-        <v>36.571428571428569</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>377</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>383</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G20" s="2">
-        <v>1965</v>
+        <v>2018</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K20">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="L20" s="1">
-        <v>44018</v>
+        <v>44023</v>
       </c>
       <c r="M20" s="1">
-        <v>44023</v>
+        <v>44030</v>
       </c>
       <c r="N20">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O20" s="8">
         <f t="shared" si="4"/>
-        <v>64</v>
+        <v>36.571428571428569</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>320</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>377</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G21" s="2">
-        <v>2005</v>
+        <v>1965</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>49</v>
+        <v>337</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K21">
-        <v>465</v>
+        <v>320</v>
       </c>
       <c r="L21" s="1">
-        <v>44004</v>
+        <v>44018</v>
       </c>
       <c r="M21" s="1">
-        <v>44017</v>
+        <v>44023</v>
       </c>
       <c r="N21">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="O21" s="8">
         <f t="shared" si="4"/>
-        <v>35.769230769230766</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>43</v>
+        <v>320</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G22" s="2">
-        <v>1930</v>
+        <v>2005</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>338</v>
+        <v>49</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K22">
-        <v>240</v>
+        <v>465</v>
       </c>
       <c r="L22" s="1">
-        <v>43995</v>
+        <v>44004</v>
       </c>
       <c r="M22" s="1">
-        <v>44002</v>
+        <v>44017</v>
       </c>
       <c r="N22">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O22" s="8">
         <f t="shared" si="4"/>
-        <v>34.285714285714285</v>
+        <v>35.769230769230766</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>319</v>
+        <v>45</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1930</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>49</v>
+        <v>338</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K23">
-        <v>618</v>
+        <v>240</v>
       </c>
       <c r="L23" s="1">
-        <v>43927</v>
+        <v>43995</v>
       </c>
       <c r="M23" s="1">
-        <v>44110</v>
+        <v>44002</v>
       </c>
       <c r="N23">
         <f t="shared" si="5"/>
-        <v>183</v>
+        <v>7</v>
       </c>
       <c r="O23" s="8">
         <f t="shared" si="4"/>
-        <v>3.377049180327869</v>
+        <v>34.285714285714285</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="2">
-        <v>1939</v>
+        <v>48</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>339</v>
+        <v>49</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K24">
-        <v>250</v>
+        <v>618</v>
       </c>
       <c r="L24" s="1">
-        <v>43982</v>
+        <v>43927</v>
       </c>
       <c r="M24" s="1">
-        <v>43984</v>
+        <v>44110</v>
       </c>
       <c r="N24">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="O24" s="8">
         <f t="shared" si="4"/>
-        <v>125</v>
+        <v>3.377049180327869</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G25" s="2">
-        <v>2020</v>
+        <v>1939</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K25">
-        <v>336</v>
+        <v>250</v>
       </c>
       <c r="L25" s="1">
-        <v>43975</v>
+        <v>43982</v>
       </c>
       <c r="M25" s="1">
-        <v>43977</v>
+        <v>43984</v>
       </c>
       <c r="N25">
         <f t="shared" si="5"/>
@@ -3356,62 +3365,62 @@
       </c>
       <c r="O25" s="8">
         <f t="shared" si="4"/>
-        <v>168</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G26" s="2">
-        <v>1966</v>
+        <v>2020</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>58</v>
+        <v>348</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K26">
-        <v>284</v>
+        <v>336</v>
       </c>
       <c r="L26" s="1">
-        <v>43968</v>
+        <v>43975</v>
       </c>
       <c r="M26" s="1">
-        <v>43973</v>
+        <v>43977</v>
       </c>
       <c r="N26">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O26" s="8">
         <f t="shared" si="4"/>
-        <v>56.8</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>384</v>
@@ -3421,10 +3430,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G27" s="2">
-        <v>2018</v>
+        <v>1966</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>331</v>
@@ -3436,29 +3445,29 @@
         <v>9</v>
       </c>
       <c r="K27">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="L27" s="1">
-        <v>43964</v>
+        <v>43968</v>
       </c>
       <c r="M27" s="1">
-        <v>43965</v>
+        <v>43973</v>
       </c>
       <c r="N27">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O27" s="8">
         <f t="shared" si="4"/>
-        <v>320</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>384</v>
@@ -3468,47 +3477,47 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G28" s="2">
-        <v>1966</v>
+        <v>2018</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>369</v>
+        <v>58</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K28">
-        <v>126</v>
+        <v>320</v>
       </c>
       <c r="L28" s="1">
-        <v>43962</v>
+        <v>43964</v>
       </c>
       <c r="M28" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="N28">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O28" s="8">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>387</v>
@@ -3518,148 +3527,148 @@
         <v>12</v>
       </c>
       <c r="G29" s="2">
-        <v>2017</v>
+        <v>1966</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>96</v>
+        <v>369</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K29">
-        <v>513</v>
+        <v>126</v>
       </c>
       <c r="L29" s="1">
-        <v>43947</v>
+        <v>43962</v>
       </c>
       <c r="M29" s="1">
-        <v>43956</v>
+        <v>43964</v>
       </c>
       <c r="N29">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O29" s="8">
         <f t="shared" si="4"/>
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>375</v>
+        <v>64</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>376</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>20</v>
+        <v>393</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="G30" s="2">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K30">
-        <v>646</v>
+        <v>513</v>
       </c>
       <c r="L30" s="1">
-        <v>43942</v>
+        <v>43947</v>
       </c>
       <c r="M30" s="1">
-        <v>43947</v>
+        <v>43956</v>
       </c>
       <c r="N30">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O30" s="8">
         <f t="shared" si="4"/>
-        <v>129.19999999999999</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>67</v>
+        <v>375</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>376</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G31" s="2">
-        <v>1961</v>
+        <v>2019</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K31">
-        <v>568</v>
+        <v>646</v>
       </c>
       <c r="L31" s="1">
-        <v>43927</v>
+        <v>43942</v>
       </c>
       <c r="M31" s="1">
-        <v>43941</v>
+        <v>43947</v>
       </c>
       <c r="N31">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="O31" s="8">
         <f t="shared" si="4"/>
-        <v>40.571428571428569</v>
+        <v>129.19999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>374</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G32" s="2">
-        <v>1929</v>
+        <v>1961</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>8</v>
@@ -3671,123 +3680,123 @@
         <v>9</v>
       </c>
       <c r="K32">
-        <v>299</v>
+        <v>568</v>
       </c>
       <c r="L32" s="1">
-        <v>43919</v>
+        <v>43927</v>
       </c>
       <c r="M32" s="1">
-        <v>43926</v>
+        <v>43941</v>
       </c>
       <c r="N32">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8">
         <f t="shared" si="4"/>
-        <v>42.714285714285715</v>
+        <v>40.571428571428569</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>73</v>
+        <v>374</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>20</v>
+        <v>392</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G33" s="2">
-        <v>1844</v>
+        <v>1929</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K33">
-        <v>1180</v>
+        <v>299</v>
       </c>
       <c r="L33" s="1">
-        <v>43839</v>
+        <v>43919</v>
       </c>
       <c r="M33" s="1">
-        <v>43884</v>
+        <v>43926</v>
       </c>
       <c r="N33">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="O33" s="8">
         <f t="shared" si="4"/>
-        <v>26.222222222222221</v>
+        <v>42.714285714285715</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G34" s="2">
-        <v>1979</v>
+        <v>1844</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K34">
-        <v>567</v>
+        <v>1180</v>
       </c>
       <c r="L34" s="1">
-        <v>43814</v>
+        <v>43839</v>
       </c>
       <c r="M34" s="1">
-        <v>43891</v>
+        <v>43884</v>
       </c>
       <c r="N34">
         <f t="shared" si="5"/>
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="O34" s="8">
         <f t="shared" si="4"/>
-        <v>7.3636363636363633</v>
+        <v>26.222222222222221</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>384</v>
@@ -3797,144 +3806,148 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G35" s="2">
-        <v>2019</v>
+        <v>1979</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K35">
-        <v>408</v>
+        <v>567</v>
       </c>
       <c r="L35" s="1">
-        <v>43834</v>
+        <v>43814</v>
       </c>
       <c r="M35" s="1">
-        <v>43836</v>
+        <v>43891</v>
       </c>
       <c r="N35">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="O35" s="8">
         <f t="shared" si="4"/>
-        <v>204</v>
+        <v>7.3636363636363633</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="G36" s="2">
-        <v>1957</v>
+        <v>2019</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K36">
-        <v>170</v>
+        <v>408</v>
       </c>
       <c r="L36" s="1">
-        <v>43801</v>
+        <v>43834</v>
       </c>
       <c r="M36" s="1">
-        <v>43807</v>
+        <v>43836</v>
       </c>
       <c r="N36">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O36" s="8">
         <f t="shared" si="4"/>
-        <v>28.333333333333332</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="G37" s="2">
-        <v>2018</v>
+        <v>1957</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>58</v>
+        <v>343</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K37">
-        <v>319</v>
+        <v>170</v>
       </c>
       <c r="L37" s="1">
-        <v>43799</v>
+        <v>43801</v>
       </c>
       <c r="M37" s="1">
-        <v>43800</v>
+        <v>43807</v>
       </c>
       <c r="N37">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O37" s="8">
         <f t="shared" si="4"/>
-        <v>319</v>
+        <v>28.333333333333332</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G38" s="2">
         <v>2018</v>
@@ -3943,129 +3956,125 @@
         <v>331</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>336</v>
+        <v>58</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K38">
-        <v>400</v>
+        <v>319</v>
       </c>
       <c r="L38" s="1">
-        <v>43780</v>
+        <v>43799</v>
       </c>
       <c r="M38" s="1">
-        <v>43788</v>
+        <v>43800</v>
       </c>
       <c r="N38">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O38" s="8">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>354</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>358</v>
+        <v>88</v>
       </c>
       <c r="G39" s="2">
-        <v>1993</v>
+        <v>2018</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K39">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="L39" s="1">
-        <v>43762</v>
+        <v>43780</v>
       </c>
       <c r="M39" s="1">
-        <v>43773</v>
+        <v>43788</v>
       </c>
       <c r="N39">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O39" s="8">
         <f t="shared" si="4"/>
-        <v>32.272727272727273</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>354</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>28</v>
+        <v>358</v>
       </c>
       <c r="G40" s="2">
-        <v>1818</v>
+        <v>1993</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K40">
-        <v>240</v>
+        <v>355</v>
       </c>
       <c r="L40" s="1">
-        <v>43752</v>
+        <v>43762</v>
       </c>
       <c r="M40" s="1">
-        <v>43759</v>
+        <v>43773</v>
       </c>
       <c r="N40">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O40" s="8">
         <f t="shared" si="4"/>
-        <v>34.285714285714285</v>
+        <v>32.272727272727273</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>383</v>
@@ -4075,232 +4084,232 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="G41" s="2">
-        <v>2018</v>
+        <v>1818</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>96</v>
+        <v>330</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K41">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="L41" s="1">
-        <v>43743</v>
+        <v>43752</v>
       </c>
       <c r="M41" s="1">
-        <v>43749</v>
+        <v>43759</v>
       </c>
       <c r="N41">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O41" s="8">
         <f t="shared" si="4"/>
-        <v>45.333333333333336</v>
+        <v>34.285714285714285</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G42" s="2">
-        <v>1866</v>
+        <v>2018</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>339</v>
+        <v>96</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K42">
-        <v>528</v>
+        <v>272</v>
       </c>
       <c r="L42" s="1">
-        <v>43715</v>
+        <v>43743</v>
       </c>
       <c r="M42" s="1">
-        <v>43741</v>
+        <v>43749</v>
       </c>
       <c r="N42">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="O42" s="8">
         <f t="shared" si="4"/>
-        <v>20.307692307692307</v>
+        <v>45.333333333333336</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>359</v>
+        <v>97</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G43" s="2">
-        <v>1970</v>
+        <v>1866</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>49</v>
+        <v>339</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K43">
-        <v>348</v>
+        <v>528</v>
       </c>
       <c r="L43" s="1">
-        <v>43697</v>
+        <v>43715</v>
       </c>
       <c r="M43" s="1">
-        <v>43708</v>
+        <v>43741</v>
       </c>
       <c r="N43">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="O43" s="8">
         <f t="shared" si="4"/>
-        <v>31.636363636363637</v>
+        <v>20.307692307692307</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>101</v>
+        <v>359</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G44" s="2">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>333</v>
+        <v>49</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K44">
-        <v>416</v>
+        <v>348</v>
       </c>
       <c r="L44" s="1">
-        <v>43680</v>
+        <v>43697</v>
       </c>
       <c r="M44" s="1">
-        <v>43692</v>
+        <v>43708</v>
       </c>
       <c r="N44">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O44" s="8">
         <f t="shared" si="4"/>
-        <v>34.666666666666664</v>
+        <v>31.636363636363637</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="G45" s="2">
-        <v>2013</v>
+        <v>1972</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K45">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="L45" s="1">
-        <v>43663</v>
+        <v>43680</v>
       </c>
       <c r="M45" s="1">
-        <v>43677</v>
+        <v>43692</v>
       </c>
       <c r="N45">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O45" s="8">
         <f t="shared" si="4"/>
-        <v>33.071428571428569</v>
+        <v>34.666666666666664</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>384</v>
@@ -4310,44 +4319,44 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="G46" s="2">
-        <v>1965</v>
+        <v>2013</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K46">
-        <v>256</v>
+        <v>463</v>
       </c>
       <c r="L46" s="1">
-        <v>43640</v>
+        <v>43663</v>
       </c>
       <c r="M46" s="1">
-        <v>43659</v>
+        <v>43677</v>
       </c>
       <c r="N46">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O46" s="8">
         <f t="shared" si="4"/>
-        <v>13.473684210526315</v>
+        <v>33.071428571428569</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>384</v>
@@ -4357,91 +4366,91 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="G47" s="2">
-        <v>1997</v>
+        <v>1965</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K47">
-        <v>423</v>
+        <v>256</v>
       </c>
       <c r="L47" s="1">
-        <v>43618</v>
+        <v>43640</v>
       </c>
       <c r="M47" s="1">
-        <v>43636</v>
+        <v>43659</v>
       </c>
       <c r="N47">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O47" s="8">
         <f t="shared" si="4"/>
-        <v>23.5</v>
+        <v>13.473684210526315</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="G48" s="2">
-        <v>2018</v>
+        <v>1997</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K48">
-        <v>341</v>
+        <v>423</v>
       </c>
       <c r="L48" s="1">
-        <v>43616</v>
+        <v>43618</v>
       </c>
       <c r="M48" s="1">
-        <v>43617</v>
+        <v>43636</v>
       </c>
       <c r="N48">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="O48" s="8">
         <f t="shared" si="4"/>
-        <v>341</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>384</v>
@@ -4451,245 +4460,245 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>113</v>
+        <v>360</v>
       </c>
       <c r="G49" s="2">
-        <v>2003</v>
+        <v>2018</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K49">
-        <v>610</v>
+        <v>341</v>
       </c>
       <c r="L49" s="1">
-        <v>43596</v>
+        <v>43616</v>
       </c>
       <c r="M49" s="1">
-        <v>43606</v>
+        <v>43617</v>
       </c>
       <c r="N49">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O49" s="8">
         <f t="shared" si="4"/>
-        <v>61</v>
+        <v>341</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>361</v>
+        <v>111</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>358</v>
+        <v>113</v>
       </c>
       <c r="G50" s="2">
-        <v>1984</v>
+        <v>2003</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>49</v>
+        <v>344</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K50">
-        <v>352</v>
+        <v>610</v>
       </c>
       <c r="L50" s="1">
-        <v>43589</v>
+        <v>43596</v>
       </c>
       <c r="M50" s="1">
-        <v>43594</v>
+        <v>43606</v>
       </c>
       <c r="N50">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O50" s="8">
         <f t="shared" si="4"/>
-        <v>70.400000000000006</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>115</v>
+        <v>361</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>117</v>
+        <v>358</v>
       </c>
       <c r="G51" s="2">
-        <v>2014</v>
+        <v>1984</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>336</v>
+        <v>49</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K51">
-        <v>288</v>
+        <v>352</v>
       </c>
       <c r="L51" s="1">
-        <v>43578</v>
+        <v>43589</v>
       </c>
       <c r="M51" s="1">
-        <v>43588</v>
+        <v>43594</v>
       </c>
       <c r="N51">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O51" s="8">
         <f t="shared" si="4"/>
-        <v>28.8</v>
+        <v>70.400000000000006</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>319</v>
+        <v>117</v>
       </c>
       <c r="G52" s="2">
-        <v>1876</v>
+        <v>2014</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K52">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="L52" s="1">
-        <v>43041</v>
+        <v>43578</v>
       </c>
       <c r="M52" s="1">
-        <v>43048</v>
+        <v>43588</v>
       </c>
       <c r="N52">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O52" s="8">
         <f t="shared" si="4"/>
-        <v>33.714285714285715</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>122</v>
+        <v>319</v>
       </c>
       <c r="G53" s="2">
-        <v>1813</v>
+        <v>1876</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K53">
-        <v>414</v>
+        <v>236</v>
       </c>
       <c r="L53" s="1">
-        <v>42875</v>
+        <v>43041</v>
       </c>
       <c r="M53" s="1">
-        <v>42881</v>
+        <v>43048</v>
       </c>
       <c r="N53">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O53" s="8">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>33.714285714285715</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>20</v>
+        <v>383</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G54" s="2">
-        <v>1869</v>
+        <v>1813</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>8</v>
@@ -4698,339 +4707,339 @@
         <v>369</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K54">
-        <v>999</v>
+        <v>414</v>
+      </c>
+      <c r="L54" s="1">
+        <v>42875</v>
+      </c>
+      <c r="M54" s="1">
+        <v>42881</v>
       </c>
       <c r="N54">
         <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="O54" s="8">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G55" s="2">
+        <v>1869</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55">
+        <v>999</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O54" s="8" t="e">
+      <c r="O55" s="8" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2" t="s">
+      <c r="E56" s="2"/>
+      <c r="F56" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G56" s="2">
         <v>1928</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="I56" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="J56" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K55">
+      <c r="K56">
         <v>323</v>
       </c>
-      <c r="L55" s="1">
+      <c r="L56" s="1">
         <v>42675</v>
       </c>
-      <c r="M55" s="1">
+      <c r="M56" s="1">
         <v>42682</v>
       </c>
-      <c r="N55">
+      <c r="N56">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="O55" s="8">
+      <c r="O56" s="8">
         <f t="shared" si="4"/>
         <v>46.142857142857146</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2" t="s">
+      <c r="E57" s="2"/>
+      <c r="F57" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G57" s="2">
         <v>1878</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="I57" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K56">
+      <c r="J57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K57">
         <v>338</v>
       </c>
-      <c r="L56" s="1">
+      <c r="L57" s="1">
         <v>43477</v>
       </c>
-      <c r="M56" s="1">
+      <c r="M57" s="1">
         <v>43485</v>
       </c>
-      <c r="N56">
+      <c r="N57">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="O56" s="8">
+      <c r="O57" s="8">
         <f t="shared" si="4"/>
         <v>42.25</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2" t="s">
+      <c r="E58" s="2"/>
+      <c r="F58" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G58" s="2">
         <v>2018</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="I58" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K57">
+      <c r="J58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K58">
         <v>755</v>
       </c>
-      <c r="L57" s="1">
+      <c r="L58" s="1">
         <v>43108</v>
       </c>
-      <c r="M57" s="1">
+      <c r="M58" s="1">
         <v>43111</v>
       </c>
-      <c r="N57">
+      <c r="N58">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="O57" s="8">
+      <c r="O58" s="8">
         <f t="shared" si="4"/>
         <v>251.66666666666666</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2" t="s">
+      <c r="E59" s="2"/>
+      <c r="F59" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G59" s="2">
         <v>1954</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="I59" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K58">
+      <c r="J59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K59">
         <v>250</v>
       </c>
-      <c r="L58" s="1">
+      <c r="L59" s="1">
         <v>43411</v>
       </c>
-      <c r="M58" s="1">
+      <c r="M59" s="1">
         <v>43423</v>
       </c>
-      <c r="N58">
+      <c r="N59">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="O58" s="8">
+      <c r="O59" s="8">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2" t="s">
+      <c r="E60" s="2"/>
+      <c r="F60" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G60" s="2">
         <v>2018</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="I60" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K59">
+      <c r="J60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K60">
         <v>288</v>
       </c>
-      <c r="L59" s="1">
+      <c r="L60" s="1">
         <v>43496</v>
       </c>
-      <c r="M59" s="1">
+      <c r="M60" s="1">
         <v>43506</v>
       </c>
-      <c r="N59">
+      <c r="N60">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="O59" s="8">
+      <c r="O60" s="8">
         <f t="shared" si="4"/>
         <v>28.8</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G60" s="2">
-        <v>1898</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K60">
-        <v>61</v>
-      </c>
-      <c r="L60" s="1">
-        <v>43424</v>
-      </c>
-      <c r="M60" s="1">
-        <v>43425</v>
-      </c>
-      <c r="N60">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O60" s="8">
-        <f t="shared" si="4"/>
-        <v>61</v>
-      </c>
-    </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="G61" s="2">
-        <v>1978</v>
+        <v>1898</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K61">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L61" s="1">
-        <v>43402</v>
+        <v>43424</v>
       </c>
       <c r="M61" s="1">
-        <v>43403</v>
+        <v>43425</v>
       </c>
       <c r="N61">
         <f t="shared" si="5"/>
@@ -5038,62 +5047,62 @@
       </c>
       <c r="O61" s="8">
         <f t="shared" si="4"/>
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="G62" s="2">
-        <v>2018</v>
+        <v>1978</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>96</v>
+        <v>310</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K62">
-        <v>437</v>
+        <v>64</v>
       </c>
       <c r="L62" s="1">
-        <v>43381</v>
+        <v>43402</v>
       </c>
       <c r="M62" s="1">
-        <v>43390</v>
+        <v>43403</v>
       </c>
       <c r="N62">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O62" s="8">
         <f t="shared" si="4"/>
-        <v>48.555555555555557</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>384</v>
@@ -5103,148 +5112,148 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="G63" s="2">
-        <v>1925</v>
+        <v>2018</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>369</v>
+        <v>96</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K63">
-        <v>859</v>
+        <v>437</v>
       </c>
       <c r="L63" s="1">
-        <v>42585</v>
+        <v>43381</v>
       </c>
       <c r="M63" s="1">
-        <v>42627</v>
+        <v>43390</v>
       </c>
       <c r="N63">
         <f t="shared" si="5"/>
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="O63" s="8">
         <f t="shared" si="4"/>
-        <v>20.452380952380953</v>
+        <v>48.555555555555557</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="G64" s="2">
-        <v>1971</v>
+        <v>1925</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K64">
-        <v>416</v>
+        <v>859</v>
       </c>
       <c r="L64" s="1">
-        <v>43518</v>
+        <v>42585</v>
       </c>
       <c r="M64" s="1">
-        <v>43542</v>
+        <v>42627</v>
       </c>
       <c r="N64">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="O64" s="8">
         <f t="shared" si="4"/>
-        <v>17.333333333333332</v>
+        <v>20.452380952380953</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>362</v>
+        <v>147</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>364</v>
+        <v>148</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
-        <v>363</v>
+        <v>149</v>
       </c>
       <c r="G65" s="2">
-        <v>2015</v>
+        <v>1971</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K65">
-        <v>87</v>
+        <v>416</v>
       </c>
       <c r="L65" s="1">
-        <v>42871</v>
+        <v>43518</v>
       </c>
       <c r="M65" s="1">
-        <v>42877</v>
+        <v>43542</v>
       </c>
       <c r="N65">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="O65" s="8">
         <f t="shared" si="4"/>
-        <v>14.5</v>
+        <v>17.333333333333332</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>151</v>
+        <v>362</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>152</v>
+        <v>364</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>153</v>
+        <v>363</v>
       </c>
       <c r="G66" s="2">
         <v>2015</v>
@@ -5253,91 +5262,95 @@
         <v>331</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>49</v>
+        <v>345</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K66">
-        <v>348</v>
+        <v>87</v>
       </c>
       <c r="L66" s="1">
-        <v>42947</v>
+        <v>42871</v>
       </c>
       <c r="M66" s="1">
-        <v>42949</v>
+        <v>42877</v>
       </c>
       <c r="N66">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O66" s="8">
         <f t="shared" si="4"/>
-        <v>174</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G67" s="2">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>336</v>
+        <v>49</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K67">
-        <v>270</v>
+        <v>348</v>
       </c>
       <c r="L67" s="1">
-        <v>43246</v>
+        <v>42947</v>
       </c>
       <c r="M67" s="1">
-        <v>43253</v>
+        <v>42949</v>
       </c>
       <c r="N67">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O67" s="8">
         <f t="shared" si="4"/>
-        <v>38.571428571428569</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="G68" s="2">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>331</v>
@@ -5349,815 +5362,815 @@
         <v>9</v>
       </c>
       <c r="K68">
-        <v>148</v>
+        <v>270</v>
       </c>
       <c r="L68" s="1">
-        <v>42745</v>
+        <v>43246</v>
       </c>
       <c r="M68" s="1">
-        <v>43028</v>
+        <v>43253</v>
       </c>
       <c r="N68">
         <f t="shared" si="5"/>
-        <v>283</v>
+        <v>7</v>
       </c>
       <c r="O68" s="8">
         <f t="shared" si="4"/>
-        <v>0.52296819787985871</v>
+        <v>38.571428571428569</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>387</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2" t="s">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="G69" s="2">
-        <v>1962</v>
+        <v>2010</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K69">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="L69" s="1">
-        <v>43328</v>
+        <v>42745</v>
       </c>
       <c r="M69" s="1">
-        <v>43344</v>
+        <v>43028</v>
       </c>
       <c r="N69">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>283</v>
       </c>
       <c r="O69" s="8">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>0.52296819787985871</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="D70" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G70" s="2">
-        <v>2015</v>
+        <v>1962</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>96</v>
+        <v>338</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K70">
-        <v>352</v>
+        <v>240</v>
       </c>
       <c r="L70" s="1">
-        <v>43092</v>
+        <v>43328</v>
       </c>
       <c r="M70" s="1">
-        <v>43191</v>
+        <v>43344</v>
       </c>
       <c r="N70">
         <f t="shared" si="5"/>
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="O70" s="8">
         <f t="shared" si="4"/>
-        <v>3.5555555555555554</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>371</v>
+        <v>161</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>398</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G71" s="2">
-        <v>1994</v>
+        <v>2015</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>336</v>
+        <v>96</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K71">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="L71" s="1">
-        <v>43183</v>
+        <v>43092</v>
       </c>
       <c r="M71" s="1">
-        <v>43198</v>
+        <v>43191</v>
       </c>
       <c r="N71">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="O71" s="8">
-        <f t="shared" ref="O71:O133" si="6">K71/N71</f>
-        <v>21.066666666666666</v>
+        <f t="shared" si="4"/>
+        <v>3.5555555555555554</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>166</v>
+        <v>371</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>20</v>
+        <v>398</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G72" s="2">
-        <v>2016</v>
+        <v>1994</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>96</v>
+        <v>336</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K72">
+        <v>316</v>
+      </c>
+      <c r="L72" s="1">
+        <v>43183</v>
+      </c>
+      <c r="M72" s="1">
+        <v>43198</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="O72" s="8">
+        <f t="shared" ref="O72:O134" si="6">K72/N72</f>
+        <v>21.066666666666666</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G73" s="2">
+        <v>2016</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K73">
         <v>188</v>
       </c>
-      <c r="L72" s="1">
+      <c r="L73" s="1">
         <v>43166</v>
       </c>
-      <c r="M72" s="1">
+      <c r="M73" s="1">
         <v>43175</v>
       </c>
-      <c r="N72">
-        <f t="shared" ref="N72:N134" si="7">M72-L72</f>
-        <v>9</v>
-      </c>
-      <c r="O72" s="8">
+      <c r="N73">
+        <f t="shared" ref="N73:N135" si="7">M73-L73</f>
+        <v>9</v>
+      </c>
+      <c r="O73" s="8">
         <f t="shared" si="6"/>
         <v>20.888888888888889</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A73" s="3" t="s">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2" t="s">
+      <c r="E74" s="2"/>
+      <c r="F74" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G74" s="2">
         <v>2014</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="H74" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="I74" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K73">
+      <c r="J74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K74">
         <v>256</v>
       </c>
-      <c r="L73" s="1">
+      <c r="L74" s="1">
         <v>43175</v>
       </c>
-      <c r="M73" s="1">
+      <c r="M74" s="1">
         <v>43177</v>
       </c>
-      <c r="N73">
+      <c r="N74">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="O73" s="8">
+      <c r="O74" s="8">
         <f t="shared" si="6"/>
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A74" s="3" t="s">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2" t="s">
+      <c r="E75" s="2"/>
+      <c r="F75" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G74" s="2">
+      <c r="G75" s="2">
         <v>2014</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="H75" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I74" s="2" t="s">
+      <c r="I75" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K74">
+      <c r="J75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K75">
         <v>272</v>
       </c>
-      <c r="L74" s="1">
+      <c r="L75" s="1">
         <v>42977</v>
       </c>
-      <c r="M74" s="1">
+      <c r="M75" s="1">
         <v>42995</v>
       </c>
-      <c r="N74">
+      <c r="N75">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="O74" s="8">
+      <c r="O75" s="8">
         <f t="shared" si="6"/>
         <v>15.111111111111111</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2" t="s">
+      <c r="E76" s="2"/>
+      <c r="F76" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G76" s="2">
         <v>1861</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="H76" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I75" s="2" t="s">
+      <c r="I76" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K75">
+      <c r="J76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K76">
         <v>460</v>
       </c>
-      <c r="L75" s="1">
+      <c r="L76" s="1">
         <v>42652</v>
       </c>
-      <c r="M75" s="1">
+      <c r="M76" s="1">
         <v>42664</v>
       </c>
-      <c r="N75">
+      <c r="N76">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="O75" s="8">
+      <c r="O76" s="8">
         <f t="shared" si="6"/>
         <v>38.333333333333336</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="s">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2" t="s">
+      <c r="E77" s="2"/>
+      <c r="F77" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G76" s="2">
+      <c r="G77" s="2">
         <v>1924</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="H77" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="I77" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K76">
+      <c r="J77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K77">
         <v>729</v>
       </c>
-      <c r="L76" s="1">
+      <c r="L77" s="1">
         <v>43049</v>
       </c>
-      <c r="M76" s="1">
+      <c r="M77" s="1">
         <v>43091</v>
       </c>
-      <c r="N76">
+      <c r="N77">
         <f t="shared" si="7"/>
         <v>42</v>
       </c>
-      <c r="O76" s="8">
+      <c r="O77" s="8">
         <f t="shared" si="6"/>
         <v>17.357142857142858</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2" t="s">
+      <c r="E78" s="2"/>
+      <c r="F78" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G78" s="2">
         <v>2015</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="H78" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="I78" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K77">
+      <c r="J78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K78">
         <v>224</v>
       </c>
-      <c r="L77" s="1">
+      <c r="L78" s="1">
         <v>42527</v>
       </c>
-      <c r="M77" s="1">
+      <c r="M78" s="1">
         <v>42528</v>
       </c>
-      <c r="N77">
+      <c r="N78">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="O77" s="8">
+      <c r="O78" s="8">
         <f t="shared" si="6"/>
         <v>224</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2" t="s">
+      <c r="E79" s="2"/>
+      <c r="F79" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G78" s="2">
+      <c r="G79" s="2">
         <v>1960</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="H79" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="I79" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K78">
+      <c r="J79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K79">
         <v>307</v>
       </c>
-      <c r="L78" s="1">
+      <c r="L79" s="1">
         <v>43227</v>
       </c>
-      <c r="M78" s="1">
+      <c r="M79" s="1">
         <v>43240</v>
       </c>
-      <c r="N78">
+      <c r="N79">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="O78" s="8">
+      <c r="O79" s="8">
         <f t="shared" si="6"/>
         <v>23.615384615384617</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A79" s="3" t="s">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2" t="s">
+      <c r="E80" s="2"/>
+      <c r="F80" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G79" s="2">
+      <c r="G80" s="2">
         <v>2015</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="H80" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="I80" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K79">
+      <c r="J80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K80">
         <v>90</v>
       </c>
-      <c r="L79" s="1">
+      <c r="L80" s="1">
         <v>42632</v>
       </c>
-      <c r="M79" s="1">
+      <c r="M80" s="1">
         <v>42633</v>
       </c>
-      <c r="N79">
+      <c r="N80">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="O79" s="8">
+      <c r="O80" s="8">
         <f t="shared" si="6"/>
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A80" s="3" t="s">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2" t="s">
+      <c r="E81" s="2"/>
+      <c r="F81" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G80" s="2">
+      <c r="G81" s="2">
         <v>2014</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="H81" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="I81" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K80">
+      <c r="J81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K81">
         <v>286</v>
       </c>
-      <c r="L80" s="1">
+      <c r="L81" s="1">
         <v>43283</v>
       </c>
-      <c r="M80" s="1">
+      <c r="M81" s="1">
         <v>43291</v>
       </c>
-      <c r="N80">
+      <c r="N81">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="O80" s="8">
+      <c r="O81" s="8">
         <f t="shared" si="6"/>
         <v>35.75</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A81" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G81" s="2">
-        <v>2010</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K81">
-        <v>386</v>
-      </c>
-      <c r="L81" s="1">
-        <v>42941</v>
-      </c>
-      <c r="M81" s="1">
-        <v>42950</v>
-      </c>
-      <c r="N81">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="O81" s="8">
-        <f t="shared" si="6"/>
-        <v>42.888888888888886</v>
-      </c>
-    </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>379</v>
+        <v>190</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="G82" s="2">
-        <v>1967</v>
+        <v>2010</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K82">
-        <v>432</v>
+        <v>386</v>
       </c>
       <c r="L82" s="1">
-        <v>42936</v>
+        <v>42941</v>
       </c>
       <c r="M82" s="1">
-        <v>42940</v>
+        <v>42950</v>
       </c>
       <c r="N82">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O82" s="8">
         <f t="shared" si="6"/>
-        <v>108</v>
+        <v>42.888888888888886</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>194</v>
+        <v>379</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="G83" s="2">
-        <v>2017</v>
+        <v>1967</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K83">
-        <v>276</v>
+        <v>432</v>
       </c>
       <c r="L83" s="1">
-        <v>43028</v>
+        <v>42936</v>
       </c>
       <c r="M83" s="1">
-        <v>43036</v>
+        <v>42940</v>
       </c>
       <c r="N83">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O83" s="8">
         <f t="shared" si="6"/>
-        <v>34.5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="G84" s="2">
-        <v>1969</v>
+        <v>2017</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>49</v>
+        <v>347</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K84">
-        <v>157</v>
+        <v>276</v>
       </c>
       <c r="L84" s="1">
-        <v>42639</v>
+        <v>43028</v>
       </c>
       <c r="M84" s="1">
-        <v>42640</v>
+        <v>43036</v>
       </c>
       <c r="N84">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O84" s="8">
         <f t="shared" si="6"/>
-        <v>157</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="G85" s="2">
-        <v>1959</v>
+        <v>1969</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K85">
-        <v>341</v>
+        <v>157</v>
       </c>
       <c r="L85" s="1">
-        <v>42418</v>
+        <v>42639</v>
       </c>
       <c r="M85" s="1">
-        <v>42427</v>
+        <v>42640</v>
       </c>
       <c r="N85">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O85" s="8">
         <f t="shared" si="6"/>
-        <v>37.888888888888886</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>365</v>
+        <v>197</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
-        <v>200</v>
+        <v>52</v>
       </c>
       <c r="G86" s="2">
-        <v>2015</v>
+        <v>1959</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>8</v>
@@ -6169,13 +6182,13 @@
         <v>9</v>
       </c>
       <c r="K86">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="L86" s="1">
-        <v>42531</v>
+        <v>42418</v>
       </c>
       <c r="M86" s="1">
-        <v>42540</v>
+        <v>42427</v>
       </c>
       <c r="N86">
         <f t="shared" si="7"/>
@@ -6183,712 +6196,712 @@
       </c>
       <c r="O86" s="8">
         <f t="shared" si="6"/>
-        <v>40.222222222222221</v>
+        <v>37.888888888888886</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G87" s="2">
-        <v>1751</v>
+        <v>2015</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I87" t="s">
-        <v>343</v>
+        <v>8</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K87">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="L87" s="1">
-        <v>42729</v>
+        <v>42531</v>
       </c>
       <c r="M87" s="1">
-        <v>42732</v>
+        <v>42540</v>
       </c>
       <c r="N87">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O87" s="8">
         <f t="shared" si="6"/>
-        <v>36.666666666666664</v>
+        <v>40.222222222222221</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>203</v>
+        <v>366</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c r="G88" s="2">
-        <v>1939</v>
+        <v>1751</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I88" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K88">
-        <v>384</v>
+        <v>110</v>
       </c>
       <c r="L88" s="1">
-        <v>42541</v>
+        <v>42729</v>
       </c>
       <c r="M88" s="1">
-        <v>42550</v>
+        <v>42732</v>
       </c>
       <c r="N88">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O88" s="8">
         <f t="shared" si="6"/>
-        <v>42.666666666666664</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="G89" s="2">
-        <v>2008</v>
+        <v>1939</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I89" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K89">
-        <v>305</v>
+        <v>384</v>
       </c>
       <c r="L89" s="1">
-        <v>42853</v>
+        <v>42541</v>
       </c>
       <c r="M89" s="1">
-        <v>42856</v>
+        <v>42550</v>
       </c>
       <c r="N89">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O89" s="8">
         <f t="shared" si="6"/>
-        <v>101.66666666666667</v>
+        <v>42.666666666666664</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>367</v>
+        <v>205</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
-        <v>208</v>
+        <v>113</v>
       </c>
       <c r="G90" s="2">
-        <v>1965</v>
+        <v>2008</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I90" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K90">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="L90" s="1">
-        <v>42772</v>
+        <v>42853</v>
       </c>
       <c r="M90" s="1">
-        <v>42774</v>
+        <v>42856</v>
       </c>
       <c r="N90">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O90" s="8">
         <f t="shared" si="6"/>
-        <v>176</v>
+        <v>101.66666666666667</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>209</v>
+        <v>367</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>114</v>
+        <v>207</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G91" s="2">
-        <v>1975</v>
+        <v>1965</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I91" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K91">
-        <v>173</v>
+        <v>352</v>
       </c>
       <c r="L91" s="1">
-        <v>43105</v>
+        <v>42772</v>
       </c>
       <c r="M91" s="1">
-        <v>43106</v>
+        <v>42774</v>
       </c>
       <c r="N91">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O91" s="8">
         <f t="shared" si="6"/>
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>212</v>
+        <v>114</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="G92" s="2">
-        <v>1936</v>
+        <v>1975</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I92" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K92">
-        <v>348</v>
+        <v>173</v>
       </c>
       <c r="L92" s="1">
-        <v>42895</v>
+        <v>43105</v>
       </c>
       <c r="M92" s="1">
-        <v>42899</v>
+        <v>43106</v>
       </c>
       <c r="N92">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O92" s="8">
         <f t="shared" si="6"/>
-        <v>87</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="G93" s="2">
-        <v>1963</v>
+        <v>1936</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I93" t="s">
-        <v>49</v>
+        <v>347</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K93">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="L93" s="1">
-        <v>43200</v>
+        <v>42895</v>
       </c>
       <c r="M93" s="1">
-        <v>43212</v>
+        <v>42899</v>
       </c>
       <c r="N93">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="O93" s="8">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
-        <v>217</v>
+        <v>134</v>
       </c>
       <c r="G94" s="2">
-        <v>1928</v>
+        <v>1963</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I94" t="s">
-        <v>332</v>
+        <v>49</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K94">
-        <v>546</v>
+        <v>312</v>
       </c>
       <c r="L94" s="1">
-        <v>43217</v>
+        <v>43200</v>
       </c>
       <c r="M94" s="1">
-        <v>43226</v>
+        <v>43212</v>
       </c>
       <c r="N94">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O94" s="8">
         <f t="shared" si="6"/>
-        <v>60.666666666666664</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2" t="s">
-        <v>52</v>
+        <v>217</v>
       </c>
       <c r="G95" s="2">
-        <v>1946</v>
+        <v>1928</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I95" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K95">
-        <v>661</v>
+        <v>546</v>
       </c>
       <c r="L95" s="1">
-        <v>42385</v>
+        <v>43217</v>
       </c>
       <c r="M95" s="1">
-        <v>42404</v>
+        <v>43226</v>
       </c>
       <c r="N95">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="O95" s="8">
         <f t="shared" si="6"/>
-        <v>34.789473684210527</v>
+        <v>60.666666666666664</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>380</v>
+        <v>219</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2" t="s">
-        <v>221</v>
+        <v>52</v>
       </c>
       <c r="G96" s="2">
-        <v>1996</v>
+        <v>1946</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I96" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K96">
-        <v>227</v>
+        <v>661</v>
       </c>
       <c r="L96" s="1">
-        <v>43163</v>
+        <v>42385</v>
       </c>
       <c r="M96" s="1">
-        <v>43165</v>
+        <v>42404</v>
       </c>
       <c r="N96">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O96" s="8">
         <f t="shared" si="6"/>
-        <v>113.5</v>
+        <v>34.789473684210527</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>223</v>
+        <v>380</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G97" s="2">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I97" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K97">
-        <v>94</v>
+        <v>227</v>
       </c>
       <c r="L97" s="1">
-        <v>43121</v>
+        <v>43163</v>
       </c>
       <c r="M97" s="1">
-        <v>43121</v>
+        <v>43165</v>
       </c>
       <c r="N97">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O97" s="8" t="e">
+        <v>2</v>
+      </c>
+      <c r="O97" s="8">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>329</v>
+        <v>222</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G98" s="2">
-        <v>1987</v>
+        <v>1998</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I98" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K98">
-        <v>372</v>
+        <v>94</v>
       </c>
       <c r="L98" s="1">
-        <v>42767</v>
+        <v>43121</v>
       </c>
       <c r="M98" s="1">
-        <v>42768</v>
+        <v>43121</v>
       </c>
       <c r="N98">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O98" s="8">
+        <v>0</v>
+      </c>
+      <c r="O98" s="8" t="e">
         <f t="shared" si="6"/>
-        <v>372</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>227</v>
+        <v>329</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2" t="s">
-        <v>139</v>
+        <v>226</v>
       </c>
       <c r="G99" s="2">
-        <v>1967</v>
+        <v>1987</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I99" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K99">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="L99" s="1">
+        <v>42767</v>
+      </c>
+      <c r="M99" s="1">
         <v>42768</v>
-      </c>
-      <c r="M99" s="1">
-        <v>42771</v>
       </c>
       <c r="N99">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O99" s="8">
         <f t="shared" si="6"/>
-        <v>137.33333333333334</v>
+        <v>372</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2" t="s">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="G100" s="2">
-        <v>2010</v>
+        <v>1967</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I100" t="s">
-        <v>49</v>
+        <v>343</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K100">
-        <v>941</v>
+        <v>412</v>
       </c>
       <c r="L100" s="1">
-        <v>42883</v>
+        <v>42768</v>
       </c>
       <c r="M100" s="1">
-        <v>42894</v>
+        <v>42771</v>
       </c>
       <c r="N100">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="O100" s="8">
         <f t="shared" si="6"/>
-        <v>85.545454545454547</v>
+        <v>137.33333333333334</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
-        <v>28</v>
+        <v>231</v>
       </c>
       <c r="G101" s="2">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I101" t="s">
-        <v>344</v>
+        <v>49</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K101">
-        <v>304</v>
+        <v>941</v>
       </c>
       <c r="L101" s="1">
-        <v>43106</v>
+        <v>42883</v>
       </c>
       <c r="M101" s="1">
-        <v>43120</v>
+        <v>42894</v>
       </c>
       <c r="N101">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O101" s="8">
         <f t="shared" si="6"/>
-        <v>21.714285714285715</v>
+        <v>85.545454545454547</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>63</v>
+        <v>233</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G102" s="2">
-        <v>1963</v>
+        <v>2017</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I102" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K102">
-        <v>492</v>
+        <v>304</v>
       </c>
       <c r="L102" s="1">
-        <v>43127</v>
+        <v>43106</v>
       </c>
       <c r="M102" s="1">
-        <v>43148</v>
+        <v>43120</v>
       </c>
       <c r="N102">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="O102" s="8">
         <f t="shared" si="6"/>
-        <v>23.428571428571427</v>
+        <v>21.714285714285715</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>236</v>
+        <v>63</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G103" s="2">
-        <v>1949</v>
+        <v>1963</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>8</v>
@@ -6900,130 +6913,130 @@
         <v>9</v>
       </c>
       <c r="K103">
-        <v>311</v>
+        <v>492</v>
       </c>
       <c r="L103" s="1">
-        <v>43149</v>
+        <v>43127</v>
       </c>
       <c r="M103" s="1">
-        <v>43155</v>
+        <v>43148</v>
       </c>
       <c r="N103">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="O103" s="8">
         <f t="shared" si="6"/>
-        <v>51.833333333333336</v>
+        <v>23.428571428571427</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2" t="s">
-        <v>239</v>
+        <v>113</v>
       </c>
       <c r="G104" s="2">
-        <v>2015</v>
+        <v>1949</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I104" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K104">
-        <v>384</v>
+        <v>311</v>
       </c>
       <c r="L104" s="1">
-        <v>42919</v>
+        <v>43149</v>
       </c>
       <c r="M104" s="1">
-        <v>42929</v>
+        <v>43155</v>
       </c>
       <c r="N104">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O104" s="8">
         <f t="shared" si="6"/>
-        <v>38.4</v>
+        <v>51.833333333333336</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="G105" s="2">
-        <v>1992</v>
+        <v>2015</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I105" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K105">
-        <v>256</v>
+        <v>384</v>
       </c>
       <c r="L105" s="1">
-        <v>42732</v>
+        <v>42919</v>
       </c>
       <c r="M105" s="1">
-        <v>42737</v>
+        <v>42929</v>
       </c>
       <c r="N105">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O105" s="8">
         <f t="shared" si="6"/>
-        <v>51.2</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="G106" s="2">
-        <v>1977</v>
+        <v>1992</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I106" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>9</v>
@@ -7032,182 +7045,182 @@
         <v>256</v>
       </c>
       <c r="L106" s="1">
-        <v>42382</v>
+        <v>42732</v>
       </c>
       <c r="M106" s="1">
-        <v>42383</v>
+        <v>42737</v>
       </c>
       <c r="N106">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O106" s="8">
         <f t="shared" si="6"/>
-        <v>256</v>
+        <v>51.2</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2" t="s">
-        <v>52</v>
+        <v>153</v>
       </c>
       <c r="G107" s="2">
-        <v>1927</v>
+        <v>1977</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I107" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K107">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="L107" s="1">
-        <v>42790</v>
+        <v>42382</v>
       </c>
       <c r="M107" s="1">
-        <v>42802</v>
+        <v>42383</v>
       </c>
       <c r="N107">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O107" s="8">
         <f t="shared" si="6"/>
-        <v>22.666666666666668</v>
+        <v>256</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2" t="s">
-        <v>248</v>
+        <v>52</v>
       </c>
       <c r="G108" s="2">
-        <v>1997</v>
+        <v>1927</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I108" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K108">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="L108" s="1">
-        <v>42805</v>
+        <v>42790</v>
       </c>
       <c r="M108" s="1">
-        <v>42811</v>
+        <v>42802</v>
       </c>
       <c r="N108">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O108" s="8">
         <f t="shared" si="6"/>
-        <v>48.833333333333336</v>
+        <v>22.666666666666668</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2" t="s">
-        <v>113</v>
+        <v>248</v>
       </c>
       <c r="G109" s="2">
-        <v>2013</v>
+        <v>1997</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I109" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K109">
-        <v>496</v>
+        <v>293</v>
       </c>
       <c r="L109" s="1">
-        <v>42645</v>
+        <v>42805</v>
       </c>
       <c r="M109" s="1">
-        <v>42649</v>
+        <v>42811</v>
       </c>
       <c r="N109">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O109" s="8">
         <f t="shared" si="6"/>
-        <v>124</v>
+        <v>48.833333333333336</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>82</v>
+        <v>250</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="G110" s="2">
-        <v>1955</v>
+        <v>2013</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I110" t="s">
-        <v>369</v>
+        <v>96</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K110">
-        <v>331</v>
+        <v>496</v>
       </c>
       <c r="L110" s="1">
-        <v>42823</v>
+        <v>42645</v>
       </c>
       <c r="M110" s="1">
-        <v>42827</v>
+        <v>42649</v>
       </c>
       <c r="N110">
         <f t="shared" si="7"/>
@@ -7215,239 +7228,239 @@
       </c>
       <c r="O110" s="8">
         <f t="shared" si="6"/>
-        <v>82.75</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>381</v>
+        <v>82</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G111" s="2">
-        <v>1991</v>
+        <v>1955</v>
       </c>
       <c r="H111" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I111" t="s">
+        <v>369</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K111">
         <v>331</v>
       </c>
-      <c r="I111" t="s">
-        <v>344</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K111">
-        <v>149</v>
-      </c>
       <c r="L111" s="1">
-        <v>42665</v>
+        <v>42823</v>
       </c>
       <c r="M111" s="1">
-        <v>42668</v>
+        <v>42827</v>
       </c>
       <c r="N111">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O111" s="8">
         <f t="shared" si="6"/>
-        <v>49.666666666666664</v>
+        <v>82.75</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>254</v>
+        <v>381</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2" t="s">
-        <v>255</v>
+        <v>30</v>
       </c>
       <c r="G112" s="2">
-        <v>1942</v>
+        <v>1991</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I112" t="s">
-        <v>49</v>
+        <v>344</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K112">
-        <v>495</v>
+        <v>149</v>
       </c>
       <c r="L112" s="1">
-        <v>42711</v>
+        <v>42665</v>
       </c>
       <c r="M112" s="1">
-        <v>42727</v>
+        <v>42668</v>
       </c>
       <c r="N112">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="O112" s="8">
         <f t="shared" si="6"/>
-        <v>30.9375</v>
+        <v>49.666666666666664</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2" t="s">
-        <v>191</v>
+        <v>255</v>
       </c>
       <c r="G113" s="2">
-        <v>2010</v>
+        <v>1942</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I113" t="s">
-        <v>346</v>
+        <v>49</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K113">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="L113" s="1">
-        <v>42776</v>
+        <v>42711</v>
       </c>
       <c r="M113" s="1">
-        <v>42785</v>
+        <v>42727</v>
       </c>
       <c r="N113">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O113" s="8">
         <f t="shared" si="6"/>
-        <v>49.555555555555557</v>
+        <v>30.9375</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2" t="s">
-        <v>61</v>
+        <v>191</v>
       </c>
       <c r="G114" s="2">
-        <v>1992</v>
+        <v>2010</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I114" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K114">
-        <v>224</v>
+        <v>446</v>
       </c>
       <c r="L114" s="1">
-        <v>42249</v>
+        <v>42776</v>
       </c>
       <c r="M114" s="1">
-        <v>42250</v>
+        <v>42785</v>
       </c>
       <c r="N114">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O114" s="8">
         <f t="shared" si="6"/>
-        <v>224</v>
+        <v>49.555555555555557</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G115" s="2">
-        <v>1934</v>
+        <v>1992</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I115" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K115">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="L115" s="1">
-        <v>43294</v>
+        <v>42249</v>
       </c>
       <c r="M115" s="1">
-        <v>43307</v>
+        <v>42250</v>
       </c>
       <c r="N115">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="O115" s="8">
         <f t="shared" si="6"/>
-        <v>19.307692307692307</v>
+        <v>224</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="G116" s="2">
-        <v>1951</v>
+        <v>1934</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>8</v>
@@ -7459,293 +7472,293 @@
         <v>9</v>
       </c>
       <c r="K116">
-        <v>192</v>
+        <v>251</v>
       </c>
       <c r="L116" s="1">
-        <v>42518</v>
+        <v>43294</v>
       </c>
       <c r="M116" s="1">
-        <v>42522</v>
+        <v>43307</v>
       </c>
       <c r="N116">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="O116" s="8">
         <f t="shared" si="6"/>
-        <v>48</v>
+        <v>19.307692307692307</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>370</v>
+        <v>262</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2" t="s">
-        <v>319</v>
+        <v>52</v>
       </c>
       <c r="G117" s="2">
-        <v>2013</v>
+        <v>1951</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I117" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K117">
-        <v>329</v>
+        <v>192</v>
       </c>
       <c r="L117" s="1">
-        <v>42512</v>
+        <v>42518</v>
       </c>
       <c r="M117" s="1">
-        <v>42514</v>
+        <v>42522</v>
       </c>
       <c r="N117">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O117" s="8">
         <f t="shared" si="6"/>
-        <v>164.5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>265</v>
+        <v>370</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>65</v>
+        <v>264</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2" t="s">
-        <v>30</v>
+        <v>319</v>
       </c>
       <c r="G118" s="2">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I118" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K118">
-        <v>498</v>
+        <v>329</v>
       </c>
       <c r="L118" s="1">
-        <v>43308</v>
+        <v>42512</v>
       </c>
       <c r="M118" s="1">
-        <v>43322</v>
+        <v>42514</v>
       </c>
       <c r="N118">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="O118" s="8">
         <f t="shared" si="6"/>
-        <v>35.571428571428569</v>
+        <v>164.5</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>267</v>
+        <v>65</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2" t="s">
-        <v>268</v>
+        <v>30</v>
       </c>
       <c r="G119" s="2">
-        <v>1971</v>
+        <v>2011</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I119" t="s">
-        <v>369</v>
+        <v>96</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K119">
-        <v>160</v>
+        <v>498</v>
       </c>
       <c r="L119" s="1">
-        <v>42643</v>
+        <v>43308</v>
       </c>
       <c r="M119" s="1">
-        <v>42644</v>
+        <v>43322</v>
       </c>
       <c r="N119">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="O119" s="8">
         <f t="shared" si="6"/>
-        <v>160</v>
+        <v>35.571428571428569</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G120" s="2">
-        <v>2000</v>
+        <v>1971</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I120" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K120">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="L120" s="1">
-        <v>42628</v>
+        <v>42643</v>
       </c>
       <c r="M120" s="1">
-        <v>42632</v>
+        <v>42644</v>
       </c>
       <c r="N120">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O120" s="8">
         <f t="shared" si="6"/>
-        <v>44</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G121" s="2">
         <v>2000</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I121" t="s">
-        <v>332</v>
+        <v>49</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K121">
-        <v>639</v>
+        <v>176</v>
       </c>
       <c r="L121" s="1">
-        <v>42683</v>
+        <v>42628</v>
       </c>
       <c r="M121" s="1">
-        <v>42695</v>
+        <v>42632</v>
       </c>
       <c r="N121">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="O121" s="8">
         <f t="shared" si="6"/>
-        <v>53.25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2" t="s">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="G122" s="2">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I122" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K122">
-        <v>563</v>
+        <v>639</v>
       </c>
       <c r="L122" s="1">
-        <v>42830</v>
+        <v>42683</v>
       </c>
       <c r="M122" s="1">
-        <v>42846</v>
+        <v>42695</v>
       </c>
       <c r="N122">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O122" s="8">
         <f t="shared" si="6"/>
-        <v>35.1875</v>
+        <v>53.25</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="G123" s="2">
         <v>2015</v>
@@ -7754,78 +7767,78 @@
         <v>8</v>
       </c>
       <c r="I123" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K123">
-        <v>304</v>
+        <v>563</v>
       </c>
       <c r="L123" s="1">
-        <v>42848</v>
+        <v>42830</v>
       </c>
       <c r="M123" s="1">
-        <v>42852</v>
+        <v>42846</v>
       </c>
       <c r="N123">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="O123" s="8">
         <f t="shared" si="6"/>
-        <v>76</v>
+        <v>35.1875</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2" t="s">
-        <v>28</v>
+        <v>279</v>
       </c>
       <c r="G124" s="2">
-        <v>1994</v>
+        <v>2015</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I124" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K124">
-        <v>480</v>
+        <v>304</v>
       </c>
       <c r="L124" s="1">
-        <v>42358</v>
+        <v>42848</v>
       </c>
       <c r="M124" s="1">
-        <v>42377</v>
+        <v>42852</v>
       </c>
       <c r="N124">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="O124" s="8">
         <f t="shared" si="6"/>
-        <v>25.263157894736842</v>
+        <v>76</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -7834,50 +7847,50 @@
         <v>28</v>
       </c>
       <c r="G125" s="2">
-        <v>1962</v>
+        <v>1994</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I125" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K125">
-        <v>256</v>
+        <v>480</v>
       </c>
       <c r="L125" s="1">
-        <v>42696</v>
+        <v>42358</v>
       </c>
       <c r="M125" s="1">
-        <v>42700</v>
+        <v>42377</v>
       </c>
       <c r="N125">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="O125" s="8">
         <f t="shared" si="6"/>
-        <v>64</v>
+        <v>25.263157894736842</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2" t="s">
-        <v>286</v>
+        <v>28</v>
       </c>
       <c r="G126" s="2">
-        <v>1929</v>
+        <v>1962</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>8</v>
@@ -7889,142 +7902,142 @@
         <v>9</v>
       </c>
       <c r="K126">
-        <v>348</v>
+        <v>256</v>
       </c>
       <c r="L126" s="1">
-        <v>42860</v>
+        <v>42696</v>
       </c>
       <c r="M126" s="1">
-        <v>42869</v>
+        <v>42700</v>
       </c>
       <c r="N126">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O126" s="8">
         <f t="shared" si="6"/>
-        <v>38.666666666666664</v>
+        <v>64</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G127" s="2">
-        <v>1897</v>
+        <v>1929</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I127" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K127">
-        <v>496</v>
+        <v>348</v>
       </c>
       <c r="L127" s="1">
-        <v>42952</v>
+        <v>42860</v>
       </c>
       <c r="M127" s="1">
-        <v>42962</v>
+        <v>42869</v>
       </c>
       <c r="N127">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O127" s="8">
         <f t="shared" si="6"/>
-        <v>49.6</v>
+        <v>38.666666666666664</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2" t="s">
-        <v>168</v>
+        <v>289</v>
       </c>
       <c r="G128" s="2">
-        <v>2016</v>
+        <v>1897</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I128" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K128">
-        <v>302</v>
+        <v>496</v>
       </c>
       <c r="L128" s="1">
-        <v>43179</v>
+        <v>42952</v>
       </c>
       <c r="M128" s="1">
-        <v>43183</v>
+        <v>42962</v>
       </c>
       <c r="N128">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O128" s="8">
         <f t="shared" si="6"/>
-        <v>75.5</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2" t="s">
-        <v>248</v>
+        <v>168</v>
       </c>
       <c r="G129" s="2">
-        <v>1886</v>
+        <v>2016</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I129" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K129">
-        <v>110</v>
+        <v>302</v>
       </c>
       <c r="L129" s="1">
-        <v>43430</v>
+        <v>43179</v>
       </c>
       <c r="M129" s="1">
-        <v>43434</v>
+        <v>43183</v>
       </c>
       <c r="N129">
         <f t="shared" si="7"/>
@@ -8032,42 +8045,42 @@
       </c>
       <c r="O129" s="8">
         <f t="shared" si="6"/>
-        <v>27.5</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="G130" s="2">
-        <v>2013</v>
+        <v>1886</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I130" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K130">
-        <v>256</v>
+        <v>110</v>
       </c>
       <c r="L130" s="1">
-        <v>43449</v>
+        <v>43430</v>
       </c>
       <c r="M130" s="1">
-        <v>43453</v>
+        <v>43434</v>
       </c>
       <c r="N130">
         <f t="shared" si="7"/>
@@ -8075,282 +8088,282 @@
       </c>
       <c r="O130" s="8">
         <f t="shared" si="6"/>
-        <v>64</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="G131" s="2">
-        <v>1972</v>
+        <v>2013</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I131" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K131">
-        <v>506</v>
+        <v>256</v>
       </c>
       <c r="L131" s="1">
-        <v>43436</v>
+        <v>43449</v>
       </c>
       <c r="M131" s="1">
-        <v>43446</v>
+        <v>43453</v>
       </c>
       <c r="N131">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O131" s="8">
         <f t="shared" si="6"/>
-        <v>50.6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="G132" s="2">
-        <v>2016</v>
+        <v>1972</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I132" t="s">
-        <v>49</v>
+        <v>332</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K132">
-        <v>941</v>
+        <v>506</v>
       </c>
       <c r="L132" s="1">
-        <v>42737</v>
+        <v>43436</v>
       </c>
       <c r="M132" s="1">
-        <v>42767</v>
+        <v>43446</v>
       </c>
       <c r="N132">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="O132" s="8">
         <f t="shared" si="6"/>
-        <v>31.366666666666667</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>382</v>
+        <v>300</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G133" s="2">
-        <v>1959</v>
+        <v>2016</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I133" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K133">
-        <v>582</v>
+        <v>941</v>
       </c>
       <c r="L133" s="1">
-        <v>42567</v>
+        <v>42737</v>
       </c>
       <c r="M133" s="1">
-        <v>42578</v>
+        <v>42767</v>
       </c>
       <c r="N133">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="O133" s="8">
         <f t="shared" si="6"/>
-        <v>52.909090909090907</v>
+        <v>31.366666666666667</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>305</v>
+        <v>382</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2" t="s">
-        <v>156</v>
+        <v>303</v>
       </c>
       <c r="G134" s="2">
-        <v>2015</v>
+        <v>1959</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I134" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K134">
-        <v>862</v>
+        <v>582</v>
       </c>
       <c r="L134" s="1">
-        <v>42445</v>
+        <v>42567</v>
       </c>
       <c r="M134" s="1">
-        <v>42484</v>
+        <v>42578</v>
       </c>
       <c r="N134">
         <f t="shared" si="7"/>
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="O134" s="8">
-        <f t="shared" ref="O134:O141" si="8">K134/N134</f>
-        <v>22.102564102564102</v>
+        <f t="shared" si="6"/>
+        <v>52.909090909090907</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2" t="s">
-        <v>308</v>
+        <v>156</v>
       </c>
       <c r="G135" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I135" t="s">
-        <v>344</v>
+        <v>49</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K135">
-        <v>488</v>
+        <v>862</v>
       </c>
       <c r="L135" s="1">
-        <v>42431</v>
+        <v>42445</v>
       </c>
       <c r="M135" s="1">
-        <v>42445</v>
+        <v>42484</v>
       </c>
       <c r="N135">
-        <f t="shared" ref="N135:N141" si="9">M135-L135</f>
-        <v>14</v>
+        <f t="shared" si="7"/>
+        <v>39</v>
       </c>
       <c r="O135" s="8">
-        <f t="shared" si="8"/>
-        <v>34.857142857142854</v>
+        <f t="shared" ref="O135:O142" si="8">K135/N135</f>
+        <v>22.102564102564102</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>150</v>
+        <v>307</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2" t="s">
-        <v>163</v>
+        <v>308</v>
       </c>
       <c r="G136" s="2">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I136" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K136">
-        <v>352</v>
+        <v>488</v>
       </c>
       <c r="L136" s="1">
-        <v>42899</v>
+        <v>42431</v>
       </c>
       <c r="M136" s="1">
-        <v>42918</v>
+        <v>42445</v>
       </c>
       <c r="N136">
-        <f t="shared" si="9"/>
-        <v>19</v>
+        <f t="shared" ref="N136:N142" si="9">M136-L136</f>
+        <v>14</v>
       </c>
       <c r="O136" s="8">
         <f t="shared" si="8"/>
-        <v>18.526315789473685</v>
+        <v>34.857142857142854</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>312</v>
+        <v>150</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2" t="s">
-        <v>319</v>
+        <v>163</v>
       </c>
       <c r="G137" s="2">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>331</v>
@@ -8362,197 +8375,240 @@
         <v>9</v>
       </c>
       <c r="K137">
-        <v>255</v>
+        <v>352</v>
       </c>
       <c r="L137" s="1">
-        <v>43405</v>
+        <v>42899</v>
       </c>
       <c r="M137" s="1">
-        <v>43411</v>
+        <v>42918</v>
       </c>
       <c r="N137">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="O137" s="8">
         <f t="shared" si="8"/>
-        <v>42.5</v>
+        <v>18.526315789473685</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2" t="s">
-        <v>12</v>
+        <v>319</v>
       </c>
       <c r="G138" s="2">
-        <v>1985</v>
+        <v>2016</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I138" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K138">
-        <v>324</v>
+        <v>255</v>
       </c>
       <c r="L138" s="1">
-        <v>43509</v>
+        <v>43405</v>
       </c>
       <c r="M138" s="1">
-        <v>43516</v>
+        <v>43411</v>
       </c>
       <c r="N138">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O138" s="8">
         <f t="shared" si="8"/>
-        <v>46.285714285714285</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2" t="s">
-        <v>286</v>
+        <v>12</v>
       </c>
       <c r="G139" s="2">
-        <v>1854</v>
+        <v>1985</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I139" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K139">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="L139" s="1">
-        <v>43369</v>
+        <v>43509</v>
       </c>
       <c r="M139" s="1">
-        <v>43381</v>
+        <v>43516</v>
       </c>
       <c r="N139">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O139" s="8">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>46.285714285714285</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>377</v>
+        <v>316</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="G140" s="2">
-        <v>1963</v>
+        <v>1854</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I140" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K140">
-        <v>257</v>
+        <v>360</v>
       </c>
       <c r="L140" s="1">
-        <v>43427</v>
+        <v>43369</v>
       </c>
       <c r="M140" s="1">
-        <v>43429</v>
+        <v>43381</v>
       </c>
       <c r="N140">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O140" s="8">
         <f t="shared" si="8"/>
-        <v>128.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>317</v>
+        <v>368</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>318</v>
+        <v>377</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2" t="s">
-        <v>61</v>
+        <v>248</v>
       </c>
       <c r="G141" s="2">
-        <v>1979</v>
+        <v>1963</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I141" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K141">
-        <v>592</v>
+        <v>257</v>
       </c>
       <c r="L141" s="1">
-        <v>43543</v>
+        <v>43427</v>
       </c>
       <c r="M141" s="1">
-        <v>43576</v>
+        <v>43429</v>
       </c>
       <c r="N141">
         <f t="shared" si="9"/>
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="O141" s="8">
         <f t="shared" si="8"/>
+        <v>128.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A142" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G142" s="2">
+        <v>1979</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I142" t="s">
+        <v>347</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K142">
+        <v>592</v>
+      </c>
+      <c r="L142" s="1">
+        <v>43543</v>
+      </c>
+      <c r="M142" s="1">
+        <v>43576</v>
+      </c>
+      <c r="N142">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="O142" s="8">
+        <f t="shared" si="8"/>
         <v>17.939393939393938</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N141" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N142" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/b2.xlsx
+++ b/b2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5542C300-4B10-41A8-AC33-AAB5A9D06A0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6EA527-F144-4223-91BF-90282F590A62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18340" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="clean" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">clean!$A$1:$N$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">clean!$A$1:$N$143</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="419">
   <si>
     <t>Title</t>
   </si>
@@ -1290,6 +1290,15 @@
   </si>
   <si>
     <t>Software developer</t>
+  </si>
+  <si>
+    <t>La Gloire de l'Empire</t>
+  </si>
+  <si>
+    <t>Ormesson, Jean</t>
+  </si>
+  <si>
+    <t>Folio</t>
   </si>
 </sst>
 </file>
@@ -2159,13 +2168,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O142"/>
+  <dimension ref="A1:O143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2232,109 +2241,111 @@
     </row>
     <row r="2" spans="1:15" s="7" customFormat="1" ht="19" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>417</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>387</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>308</v>
+        <v>418</v>
       </c>
       <c r="G2" s="2">
-        <v>2011</v>
+        <v>1971</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>332</v>
+        <v>49</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K2" s="2">
-        <v>369</v>
+        <v>692</v>
       </c>
       <c r="L2" s="1">
-        <v>44240</v>
+        <v>44280</v>
       </c>
       <c r="M2" s="1">
-        <v>44246</v>
+        <v>44291</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N3" si="0">M2-L2</f>
-        <v>6</v>
+        <f t="shared" ref="N2:N4" si="0">M2-L2</f>
+        <v>11</v>
       </c>
       <c r="O2" s="8">
-        <f t="shared" ref="O2:O3" si="1">K2/N2</f>
-        <v>61.5</v>
+        <f t="shared" ref="O2:O4" si="1">K2/N2</f>
+        <v>62.909090909090907</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>387</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="G3" s="2">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>49</v>
+        <v>332</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K3" s="2">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="L3" s="1">
-        <v>44227</v>
+        <v>44240</v>
       </c>
       <c r="M3" s="1">
-        <v>44240</v>
+        <v>44246</v>
       </c>
       <c r="N3">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="O3" s="8">
         <f t="shared" si="1"/>
-        <v>30.846153846153847</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>383</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>387</v>
@@ -2343,238 +2354,240 @@
         <v>402</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>231</v>
+        <v>412</v>
       </c>
       <c r="G4" s="2">
-        <v>1958</v>
+        <v>2018</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>343</v>
+        <v>49</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K4" s="2">
-        <v>262</v>
+        <v>401</v>
       </c>
       <c r="L4" s="1">
-        <v>44212</v>
+        <v>44227</v>
       </c>
       <c r="M4" s="1">
-        <v>44223</v>
+        <v>44240</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N6" si="2">M4-L4</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="O4" s="8">
-        <f t="shared" ref="O4:O6" si="3">K4/N4</f>
-        <v>23.818181818181817</v>
+        <f t="shared" si="1"/>
+        <v>30.846153846153847</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>383</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="G5" s="2">
-        <v>1934</v>
+        <v>1958</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="2">
+        <v>262</v>
+      </c>
+      <c r="L5" s="1">
+        <v>44212</v>
+      </c>
+      <c r="M5" s="1">
+        <v>44223</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N7" si="2">M5-L5</f>
+        <v>11</v>
+      </c>
+      <c r="O5" s="8">
+        <f t="shared" ref="O5:O7" si="3">K5/N5</f>
+        <v>23.818181818181817</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1934</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K6" s="2">
         <v>217</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L6" s="1">
         <v>44207</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M6" s="1">
         <v>44212</v>
       </c>
-      <c r="N5">
+      <c r="N6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O6" s="8">
         <f t="shared" si="3"/>
         <v>43.4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G7" s="2">
         <v>2013</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K7" s="2">
         <v>533</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L7" s="1">
         <v>44193</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M7" s="1">
         <v>44195</v>
       </c>
-      <c r="N6">
+      <c r="N7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O7" s="8">
         <f t="shared" si="3"/>
         <v>266.5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G8" s="2">
         <v>2020</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="J8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="2">
         <v>278</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L8" s="1">
         <v>44178</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M8" s="1">
         <v>44193</v>
-      </c>
-      <c r="N7">
-        <f>M7-L7</f>
-        <v>15</v>
-      </c>
-      <c r="O7" s="8">
-        <f>K7/N7</f>
-        <v>18.533333333333335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2006</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" t="s">
-        <v>330</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8">
-        <v>420</v>
-      </c>
-      <c r="L8" s="1">
-        <v>44163</v>
-      </c>
-      <c r="M8" s="1">
-        <v>44165</v>
       </c>
       <c r="N8">
         <f>M8-L8</f>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O8" s="8">
-        <f t="shared" ref="O8:O71" si="4">K8/N8</f>
-        <v>210</v>
+        <f>K8/N8</f>
+        <v>18.533333333333335</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>384</v>
@@ -2584,498 +2597,498 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G9" s="2">
-        <v>1983</v>
+        <v>2006</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I9" t="s">
+        <v>330</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9">
+        <v>420</v>
+      </c>
+      <c r="L9" s="1">
+        <v>44163</v>
+      </c>
+      <c r="M9" s="1">
+        <v>44165</v>
+      </c>
+      <c r="N9">
+        <f>M9-L9</f>
+        <v>2</v>
+      </c>
+      <c r="O9" s="8">
+        <f t="shared" ref="O9:O72" si="4">K9/N9</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1983</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
         <v>369</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9">
+      <c r="J10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10">
         <v>291</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L10" s="1">
         <v>44156</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M10" s="1">
         <v>44163</v>
       </c>
-      <c r="N9">
-        <f t="shared" ref="N9:N72" si="5">M9-L9</f>
+      <c r="N10">
+        <f t="shared" ref="N10:N73" si="5">M10-L10</f>
         <v>7</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O10" s="8">
         <f t="shared" si="4"/>
         <v>41.571428571428569</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G11" s="2">
         <v>2017</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>331</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10">
+      <c r="J11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11">
         <v>176</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L11" s="1">
         <v>44150</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M11" s="1">
         <v>44155</v>
       </c>
-      <c r="N10">
+      <c r="N11">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O11" s="8">
         <f t="shared" si="4"/>
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G12" s="2">
         <v>1980</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11">
+      <c r="J12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12">
         <v>502</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L12" s="1">
         <v>44129</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M12" s="1">
         <v>44142</v>
       </c>
-      <c r="N11">
-        <f>M11-L11</f>
+      <c r="N12">
+        <f>M12-L12</f>
         <v>13</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O12" s="8">
         <f t="shared" si="4"/>
         <v>38.615384615384613</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G13" s="2">
         <v>1938</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>247</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L13" s="1">
         <v>44114</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M13" s="1">
         <v>44129</v>
       </c>
-      <c r="N12">
+      <c r="N13">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O13" s="8">
         <f t="shared" si="4"/>
         <v>16.466666666666665</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G14" s="2">
         <v>1981</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13">
+      <c r="J14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14">
         <v>225</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L14" s="1">
         <v>43931</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M14" s="1">
         <v>44053</v>
       </c>
-      <c r="N13">
+      <c r="N14">
         <f t="shared" si="5"/>
         <v>122</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O14" s="8">
         <f t="shared" si="4"/>
         <v>1.8442622950819672</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G15" s="2">
         <v>1865</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <v>826</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L15" s="1">
         <v>43930</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M15" s="1">
         <v>44021</v>
       </c>
-      <c r="N14">
+      <c r="N15">
         <f t="shared" si="5"/>
         <v>91</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O15" s="8">
         <f t="shared" si="4"/>
         <v>9.0769230769230766</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G16" s="2">
         <v>1988</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15">
+      <c r="J16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16">
         <v>368</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L16" s="1">
         <v>44052</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M16" s="1">
         <v>44077</v>
       </c>
-      <c r="N15">
+      <c r="N16">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O16" s="8">
         <f t="shared" si="4"/>
         <v>14.72</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G17" s="2">
         <v>1951</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16">
+      <c r="J17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17">
         <v>54</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L17" s="1">
         <v>43838</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M17" s="1">
         <v>43990</v>
       </c>
-      <c r="N16">
+      <c r="N17">
         <f t="shared" si="5"/>
         <v>152</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O17" s="8">
         <f t="shared" si="4"/>
         <v>0.35526315789473684</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G18" s="2">
         <v>1979</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17">
+      <c r="J18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18">
         <v>179</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L18" s="1">
         <v>44020</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M18" s="1">
         <v>44082</v>
       </c>
-      <c r="N17">
+      <c r="N18">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O18" s="8">
         <f t="shared" si="4"/>
         <v>2.8870967741935485</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1982</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18">
-        <v>299</v>
-      </c>
-      <c r="L18" s="1">
-        <v>44037</v>
-      </c>
-      <c r="M18" s="1">
-        <v>44039</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="O18" s="8">
-        <f t="shared" si="4"/>
-        <v>149.5</v>
-      </c>
-    </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G19" s="2">
-        <v>1964</v>
+        <v>1982</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K19">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="L19" s="1">
-        <v>44032</v>
+        <v>44037</v>
       </c>
       <c r="M19" s="1">
-        <v>44034</v>
+        <v>44039</v>
       </c>
       <c r="N19">
         <f t="shared" si="5"/>
@@ -3083,328 +3096,328 @@
       </c>
       <c r="O19" s="8">
         <f t="shared" si="4"/>
-        <v>168</v>
+        <v>149.5</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G20" s="2">
-        <v>2018</v>
+        <v>1964</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K20">
-        <v>256</v>
+        <v>336</v>
       </c>
       <c r="L20" s="1">
-        <v>44023</v>
+        <v>44032</v>
       </c>
       <c r="M20" s="1">
-        <v>44030</v>
+        <v>44034</v>
       </c>
       <c r="N20">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O20" s="8">
         <f t="shared" si="4"/>
-        <v>36.571428571428569</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>377</v>
+        <v>38</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>383</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G21" s="2">
-        <v>1965</v>
+        <v>2018</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K21">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="L21" s="1">
-        <v>44018</v>
+        <v>44023</v>
       </c>
       <c r="M21" s="1">
-        <v>44023</v>
+        <v>44030</v>
       </c>
       <c r="N21">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O21" s="8">
         <f t="shared" si="4"/>
-        <v>64</v>
+        <v>36.571428571428569</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>320</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>377</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G22" s="2">
-        <v>2005</v>
+        <v>1965</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>49</v>
+        <v>337</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K22">
-        <v>465</v>
+        <v>320</v>
       </c>
       <c r="L22" s="1">
-        <v>44004</v>
+        <v>44018</v>
       </c>
       <c r="M22" s="1">
-        <v>44017</v>
+        <v>44023</v>
       </c>
       <c r="N22">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="O22" s="8">
         <f t="shared" si="4"/>
-        <v>35.769230769230766</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>43</v>
+        <v>320</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G23" s="2">
-        <v>1930</v>
+        <v>2005</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>338</v>
+        <v>49</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K23">
-        <v>240</v>
+        <v>465</v>
       </c>
       <c r="L23" s="1">
-        <v>43995</v>
+        <v>44004</v>
       </c>
       <c r="M23" s="1">
-        <v>44002</v>
+        <v>44017</v>
       </c>
       <c r="N23">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O23" s="8">
         <f t="shared" si="4"/>
-        <v>34.285714285714285</v>
+        <v>35.769230769230766</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>319</v>
+        <v>45</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1930</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>49</v>
+        <v>338</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K24">
-        <v>618</v>
+        <v>240</v>
       </c>
       <c r="L24" s="1">
-        <v>43927</v>
+        <v>43995</v>
       </c>
       <c r="M24" s="1">
-        <v>44110</v>
+        <v>44002</v>
       </c>
       <c r="N24">
         <f t="shared" si="5"/>
-        <v>183</v>
+        <v>7</v>
       </c>
       <c r="O24" s="8">
         <f t="shared" si="4"/>
-        <v>3.377049180327869</v>
+        <v>34.285714285714285</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="2">
-        <v>1939</v>
+        <v>48</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>339</v>
+        <v>49</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K25">
-        <v>250</v>
+        <v>618</v>
       </c>
       <c r="L25" s="1">
-        <v>43982</v>
+        <v>43927</v>
       </c>
       <c r="M25" s="1">
-        <v>43984</v>
+        <v>44110</v>
       </c>
       <c r="N25">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="O25" s="8">
         <f t="shared" si="4"/>
-        <v>125</v>
+        <v>3.377049180327869</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G26" s="2">
-        <v>2020</v>
+        <v>1939</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K26">
-        <v>336</v>
+        <v>250</v>
       </c>
       <c r="L26" s="1">
-        <v>43975</v>
+        <v>43982</v>
       </c>
       <c r="M26" s="1">
-        <v>43977</v>
+        <v>43984</v>
       </c>
       <c r="N26">
         <f t="shared" si="5"/>
@@ -3412,62 +3425,62 @@
       </c>
       <c r="O26" s="8">
         <f t="shared" si="4"/>
-        <v>168</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G27" s="2">
-        <v>1966</v>
+        <v>2020</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>58</v>
+        <v>348</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K27">
-        <v>284</v>
+        <v>336</v>
       </c>
       <c r="L27" s="1">
-        <v>43968</v>
+        <v>43975</v>
       </c>
       <c r="M27" s="1">
-        <v>43973</v>
+        <v>43977</v>
       </c>
       <c r="N27">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O27" s="8">
         <f t="shared" si="4"/>
-        <v>56.8</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>384</v>
@@ -3477,10 +3490,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G28" s="2">
-        <v>2018</v>
+        <v>1966</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>331</v>
@@ -3492,29 +3505,29 @@
         <v>9</v>
       </c>
       <c r="K28">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="L28" s="1">
-        <v>43964</v>
+        <v>43968</v>
       </c>
       <c r="M28" s="1">
-        <v>43965</v>
+        <v>43973</v>
       </c>
       <c r="N28">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O28" s="8">
         <f t="shared" si="4"/>
-        <v>320</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>384</v>
@@ -3524,47 +3537,47 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G29" s="2">
-        <v>1966</v>
+        <v>2018</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>369</v>
+        <v>58</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K29">
-        <v>126</v>
+        <v>320</v>
       </c>
       <c r="L29" s="1">
-        <v>43962</v>
+        <v>43964</v>
       </c>
       <c r="M29" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="N29">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O29" s="8">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>387</v>
@@ -3574,148 +3587,148 @@
         <v>12</v>
       </c>
       <c r="G30" s="2">
-        <v>2017</v>
+        <v>1966</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>96</v>
+        <v>369</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K30">
-        <v>513</v>
+        <v>126</v>
       </c>
       <c r="L30" s="1">
-        <v>43947</v>
+        <v>43962</v>
       </c>
       <c r="M30" s="1">
-        <v>43956</v>
+        <v>43964</v>
       </c>
       <c r="N30">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O30" s="8">
         <f t="shared" si="4"/>
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>375</v>
+        <v>64</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>376</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>20</v>
+        <v>393</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="G31" s="2">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K31">
-        <v>646</v>
+        <v>513</v>
       </c>
       <c r="L31" s="1">
-        <v>43942</v>
+        <v>43947</v>
       </c>
       <c r="M31" s="1">
-        <v>43947</v>
+        <v>43956</v>
       </c>
       <c r="N31">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O31" s="8">
         <f t="shared" si="4"/>
-        <v>129.19999999999999</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>67</v>
+        <v>375</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>376</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G32" s="2">
-        <v>1961</v>
+        <v>2019</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K32">
-        <v>568</v>
+        <v>646</v>
       </c>
       <c r="L32" s="1">
-        <v>43927</v>
+        <v>43942</v>
       </c>
       <c r="M32" s="1">
-        <v>43941</v>
+        <v>43947</v>
       </c>
       <c r="N32">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="O32" s="8">
         <f t="shared" si="4"/>
-        <v>40.571428571428569</v>
+        <v>129.19999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>374</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G33" s="2">
-        <v>1929</v>
+        <v>1961</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>8</v>
@@ -3727,123 +3740,123 @@
         <v>9</v>
       </c>
       <c r="K33">
-        <v>299</v>
+        <v>568</v>
       </c>
       <c r="L33" s="1">
-        <v>43919</v>
+        <v>43927</v>
       </c>
       <c r="M33" s="1">
-        <v>43926</v>
+        <v>43941</v>
       </c>
       <c r="N33">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8">
         <f t="shared" si="4"/>
-        <v>42.714285714285715</v>
+        <v>40.571428571428569</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>374</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>20</v>
+        <v>392</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G34" s="2">
-        <v>1844</v>
+        <v>1929</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K34">
-        <v>1180</v>
+        <v>299</v>
       </c>
       <c r="L34" s="1">
-        <v>43839</v>
+        <v>43919</v>
       </c>
       <c r="M34" s="1">
-        <v>43884</v>
+        <v>43926</v>
       </c>
       <c r="N34">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="O34" s="8">
         <f t="shared" si="4"/>
-        <v>26.222222222222221</v>
+        <v>42.714285714285715</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G35" s="2">
-        <v>1979</v>
+        <v>1844</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K35">
-        <v>567</v>
+        <v>1180</v>
       </c>
       <c r="L35" s="1">
-        <v>43814</v>
+        <v>43839</v>
       </c>
       <c r="M35" s="1">
-        <v>43891</v>
+        <v>43884</v>
       </c>
       <c r="N35">
         <f t="shared" si="5"/>
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="O35" s="8">
         <f t="shared" si="4"/>
-        <v>7.3636363636363633</v>
+        <v>26.222222222222221</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>384</v>
@@ -3853,144 +3866,148 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G36" s="2">
-        <v>2019</v>
+        <v>1979</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K36">
-        <v>408</v>
+        <v>567</v>
       </c>
       <c r="L36" s="1">
-        <v>43834</v>
+        <v>43814</v>
       </c>
       <c r="M36" s="1">
-        <v>43836</v>
+        <v>43891</v>
       </c>
       <c r="N36">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="O36" s="8">
         <f t="shared" si="4"/>
-        <v>204</v>
+        <v>7.3636363636363633</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="G37" s="2">
-        <v>1957</v>
+        <v>2019</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K37">
-        <v>170</v>
+        <v>408</v>
       </c>
       <c r="L37" s="1">
-        <v>43801</v>
+        <v>43834</v>
       </c>
       <c r="M37" s="1">
-        <v>43807</v>
+        <v>43836</v>
       </c>
       <c r="N37">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O37" s="8">
         <f t="shared" si="4"/>
-        <v>28.333333333333332</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="G38" s="2">
-        <v>2018</v>
+        <v>1957</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>58</v>
+        <v>343</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K38">
-        <v>319</v>
+        <v>170</v>
       </c>
       <c r="L38" s="1">
-        <v>43799</v>
+        <v>43801</v>
       </c>
       <c r="M38" s="1">
-        <v>43800</v>
+        <v>43807</v>
       </c>
       <c r="N38">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O38" s="8">
         <f t="shared" si="4"/>
-        <v>319</v>
+        <v>28.333333333333332</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G39" s="2">
         <v>2018</v>
@@ -3999,129 +4016,125 @@
         <v>331</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>336</v>
+        <v>58</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K39">
-        <v>400</v>
+        <v>319</v>
       </c>
       <c r="L39" s="1">
-        <v>43780</v>
+        <v>43799</v>
       </c>
       <c r="M39" s="1">
-        <v>43788</v>
+        <v>43800</v>
       </c>
       <c r="N39">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O39" s="8">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>354</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>358</v>
+        <v>88</v>
       </c>
       <c r="G40" s="2">
-        <v>1993</v>
+        <v>2018</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K40">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="L40" s="1">
-        <v>43762</v>
+        <v>43780</v>
       </c>
       <c r="M40" s="1">
-        <v>43773</v>
+        <v>43788</v>
       </c>
       <c r="N40">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O40" s="8">
         <f t="shared" si="4"/>
-        <v>32.272727272727273</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>354</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>28</v>
+        <v>358</v>
       </c>
       <c r="G41" s="2">
-        <v>1818</v>
+        <v>1993</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K41">
-        <v>240</v>
+        <v>355</v>
       </c>
       <c r="L41" s="1">
-        <v>43752</v>
+        <v>43762</v>
       </c>
       <c r="M41" s="1">
-        <v>43759</v>
+        <v>43773</v>
       </c>
       <c r="N41">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O41" s="8">
         <f t="shared" si="4"/>
-        <v>34.285714285714285</v>
+        <v>32.272727272727273</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>383</v>
@@ -4131,232 +4144,232 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="G42" s="2">
-        <v>2018</v>
+        <v>1818</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>96</v>
+        <v>330</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K42">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="L42" s="1">
-        <v>43743</v>
+        <v>43752</v>
       </c>
       <c r="M42" s="1">
-        <v>43749</v>
+        <v>43759</v>
       </c>
       <c r="N42">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O42" s="8">
         <f t="shared" si="4"/>
-        <v>45.333333333333336</v>
+        <v>34.285714285714285</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G43" s="2">
-        <v>1866</v>
+        <v>2018</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>339</v>
+        <v>96</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K43">
-        <v>528</v>
+        <v>272</v>
       </c>
       <c r="L43" s="1">
-        <v>43715</v>
+        <v>43743</v>
       </c>
       <c r="M43" s="1">
-        <v>43741</v>
+        <v>43749</v>
       </c>
       <c r="N43">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="O43" s="8">
         <f t="shared" si="4"/>
-        <v>20.307692307692307</v>
+        <v>45.333333333333336</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>359</v>
+        <v>97</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G44" s="2">
-        <v>1970</v>
+        <v>1866</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>49</v>
+        <v>339</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K44">
-        <v>348</v>
+        <v>528</v>
       </c>
       <c r="L44" s="1">
-        <v>43697</v>
+        <v>43715</v>
       </c>
       <c r="M44" s="1">
-        <v>43708</v>
+        <v>43741</v>
       </c>
       <c r="N44">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="O44" s="8">
         <f t="shared" si="4"/>
-        <v>31.636363636363637</v>
+        <v>20.307692307692307</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>101</v>
+        <v>359</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G45" s="2">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>333</v>
+        <v>49</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K45">
-        <v>416</v>
+        <v>348</v>
       </c>
       <c r="L45" s="1">
-        <v>43680</v>
+        <v>43697</v>
       </c>
       <c r="M45" s="1">
-        <v>43692</v>
+        <v>43708</v>
       </c>
       <c r="N45">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O45" s="8">
         <f t="shared" si="4"/>
-        <v>34.666666666666664</v>
+        <v>31.636363636363637</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="G46" s="2">
-        <v>2013</v>
+        <v>1972</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K46">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="L46" s="1">
-        <v>43663</v>
+        <v>43680</v>
       </c>
       <c r="M46" s="1">
-        <v>43677</v>
+        <v>43692</v>
       </c>
       <c r="N46">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O46" s="8">
         <f t="shared" si="4"/>
-        <v>33.071428571428569</v>
+        <v>34.666666666666664</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>384</v>
@@ -4366,44 +4379,44 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="G47" s="2">
-        <v>1965</v>
+        <v>2013</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K47">
-        <v>256</v>
+        <v>463</v>
       </c>
       <c r="L47" s="1">
-        <v>43640</v>
+        <v>43663</v>
       </c>
       <c r="M47" s="1">
-        <v>43659</v>
+        <v>43677</v>
       </c>
       <c r="N47">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O47" s="8">
         <f t="shared" si="4"/>
-        <v>13.473684210526315</v>
+        <v>33.071428571428569</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>384</v>
@@ -4413,91 +4426,91 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="G48" s="2">
-        <v>1997</v>
+        <v>1965</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K48">
-        <v>423</v>
+        <v>256</v>
       </c>
       <c r="L48" s="1">
-        <v>43618</v>
+        <v>43640</v>
       </c>
       <c r="M48" s="1">
-        <v>43636</v>
+        <v>43659</v>
       </c>
       <c r="N48">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O48" s="8">
         <f t="shared" si="4"/>
-        <v>23.5</v>
+        <v>13.473684210526315</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="G49" s="2">
-        <v>2018</v>
+        <v>1997</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K49">
-        <v>341</v>
+        <v>423</v>
       </c>
       <c r="L49" s="1">
-        <v>43616</v>
+        <v>43618</v>
       </c>
       <c r="M49" s="1">
-        <v>43617</v>
+        <v>43636</v>
       </c>
       <c r="N49">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="O49" s="8">
         <f t="shared" si="4"/>
-        <v>341</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>384</v>
@@ -4507,245 +4520,245 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>113</v>
+        <v>360</v>
       </c>
       <c r="G50" s="2">
-        <v>2003</v>
+        <v>2018</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K50">
-        <v>610</v>
+        <v>341</v>
       </c>
       <c r="L50" s="1">
-        <v>43596</v>
+        <v>43616</v>
       </c>
       <c r="M50" s="1">
-        <v>43606</v>
+        <v>43617</v>
       </c>
       <c r="N50">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O50" s="8">
         <f t="shared" si="4"/>
-        <v>61</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>361</v>
+        <v>111</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>358</v>
+        <v>113</v>
       </c>
       <c r="G51" s="2">
-        <v>1984</v>
+        <v>2003</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>49</v>
+        <v>344</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K51">
-        <v>352</v>
+        <v>610</v>
       </c>
       <c r="L51" s="1">
-        <v>43589</v>
+        <v>43596</v>
       </c>
       <c r="M51" s="1">
-        <v>43594</v>
+        <v>43606</v>
       </c>
       <c r="N51">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O51" s="8">
         <f t="shared" si="4"/>
-        <v>70.400000000000006</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>115</v>
+        <v>361</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>117</v>
+        <v>358</v>
       </c>
       <c r="G52" s="2">
-        <v>2014</v>
+        <v>1984</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>336</v>
+        <v>49</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K52">
-        <v>288</v>
+        <v>352</v>
       </c>
       <c r="L52" s="1">
-        <v>43578</v>
+        <v>43589</v>
       </c>
       <c r="M52" s="1">
-        <v>43588</v>
+        <v>43594</v>
       </c>
       <c r="N52">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O52" s="8">
         <f t="shared" si="4"/>
-        <v>28.8</v>
+        <v>70.400000000000006</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>319</v>
+        <v>117</v>
       </c>
       <c r="G53" s="2">
-        <v>1876</v>
+        <v>2014</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K53">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="L53" s="1">
-        <v>43041</v>
+        <v>43578</v>
       </c>
       <c r="M53" s="1">
-        <v>43048</v>
+        <v>43588</v>
       </c>
       <c r="N53">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O53" s="8">
         <f t="shared" si="4"/>
-        <v>33.714285714285715</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>122</v>
+        <v>319</v>
       </c>
       <c r="G54" s="2">
-        <v>1813</v>
+        <v>1876</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K54">
-        <v>414</v>
+        <v>236</v>
       </c>
       <c r="L54" s="1">
-        <v>42875</v>
+        <v>43041</v>
       </c>
       <c r="M54" s="1">
-        <v>42881</v>
+        <v>43048</v>
       </c>
       <c r="N54">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O54" s="8">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>33.714285714285715</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>20</v>
+        <v>383</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G55" s="2">
-        <v>1869</v>
+        <v>1813</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>8</v>
@@ -4754,339 +4767,339 @@
         <v>369</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K55">
-        <v>999</v>
+        <v>414</v>
+      </c>
+      <c r="L55" s="1">
+        <v>42875</v>
+      </c>
+      <c r="M55" s="1">
+        <v>42881</v>
       </c>
       <c r="N55">
         <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="O55" s="8">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G56" s="2">
+        <v>1869</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K56">
+        <v>999</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O55" s="8" t="e">
+      <c r="O56" s="8" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2" t="s">
+      <c r="E57" s="2"/>
+      <c r="F57" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G57" s="2">
         <v>1928</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="I57" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="J57" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K56">
+      <c r="K57">
         <v>323</v>
       </c>
-      <c r="L56" s="1">
+      <c r="L57" s="1">
         <v>42675</v>
       </c>
-      <c r="M56" s="1">
+      <c r="M57" s="1">
         <v>42682</v>
       </c>
-      <c r="N56">
+      <c r="N57">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="O56" s="8">
+      <c r="O57" s="8">
         <f t="shared" si="4"/>
         <v>46.142857142857146</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2" t="s">
+      <c r="E58" s="2"/>
+      <c r="F58" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G58" s="2">
         <v>1878</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="I58" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K57">
+      <c r="J58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K58">
         <v>338</v>
       </c>
-      <c r="L57" s="1">
+      <c r="L58" s="1">
         <v>43477</v>
       </c>
-      <c r="M57" s="1">
+      <c r="M58" s="1">
         <v>43485</v>
       </c>
-      <c r="N57">
+      <c r="N58">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="O57" s="8">
+      <c r="O58" s="8">
         <f t="shared" si="4"/>
         <v>42.25</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2" t="s">
+      <c r="E59" s="2"/>
+      <c r="F59" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G59" s="2">
         <v>2018</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="I59" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K58">
+      <c r="J59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K59">
         <v>755</v>
       </c>
-      <c r="L58" s="1">
+      <c r="L59" s="1">
         <v>43108</v>
       </c>
-      <c r="M58" s="1">
+      <c r="M59" s="1">
         <v>43111</v>
       </c>
-      <c r="N58">
+      <c r="N59">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="O58" s="8">
+      <c r="O59" s="8">
         <f t="shared" si="4"/>
         <v>251.66666666666666</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2" t="s">
+      <c r="E60" s="2"/>
+      <c r="F60" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G60" s="2">
         <v>1954</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="I60" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K59">
+      <c r="J60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K60">
         <v>250</v>
       </c>
-      <c r="L59" s="1">
+      <c r="L60" s="1">
         <v>43411</v>
       </c>
-      <c r="M59" s="1">
+      <c r="M60" s="1">
         <v>43423</v>
       </c>
-      <c r="N59">
+      <c r="N60">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="O59" s="8">
+      <c r="O60" s="8">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2" t="s">
+      <c r="E61" s="2"/>
+      <c r="F61" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G61" s="2">
         <v>2018</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="I61" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K60">
+      <c r="J61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K61">
         <v>288</v>
       </c>
-      <c r="L60" s="1">
+      <c r="L61" s="1">
         <v>43496</v>
       </c>
-      <c r="M60" s="1">
+      <c r="M61" s="1">
         <v>43506</v>
       </c>
-      <c r="N60">
+      <c r="N61">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="O60" s="8">
+      <c r="O61" s="8">
         <f t="shared" si="4"/>
         <v>28.8</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G61" s="2">
-        <v>1898</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K61">
-        <v>61</v>
-      </c>
-      <c r="L61" s="1">
-        <v>43424</v>
-      </c>
-      <c r="M61" s="1">
-        <v>43425</v>
-      </c>
-      <c r="N61">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O61" s="8">
-        <f t="shared" si="4"/>
-        <v>61</v>
-      </c>
-    </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="G62" s="2">
-        <v>1978</v>
+        <v>1898</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K62">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L62" s="1">
-        <v>43402</v>
+        <v>43424</v>
       </c>
       <c r="M62" s="1">
-        <v>43403</v>
+        <v>43425</v>
       </c>
       <c r="N62">
         <f t="shared" si="5"/>
@@ -5094,62 +5107,62 @@
       </c>
       <c r="O62" s="8">
         <f t="shared" si="4"/>
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="G63" s="2">
-        <v>2018</v>
+        <v>1978</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>96</v>
+        <v>310</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K63">
-        <v>437</v>
+        <v>64</v>
       </c>
       <c r="L63" s="1">
-        <v>43381</v>
+        <v>43402</v>
       </c>
       <c r="M63" s="1">
-        <v>43390</v>
+        <v>43403</v>
       </c>
       <c r="N63">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O63" s="8">
         <f t="shared" si="4"/>
-        <v>48.555555555555557</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>384</v>
@@ -5159,148 +5172,148 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="G64" s="2">
-        <v>1925</v>
+        <v>2018</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>369</v>
+        <v>96</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K64">
-        <v>859</v>
+        <v>437</v>
       </c>
       <c r="L64" s="1">
-        <v>42585</v>
+        <v>43381</v>
       </c>
       <c r="M64" s="1">
-        <v>42627</v>
+        <v>43390</v>
       </c>
       <c r="N64">
         <f t="shared" si="5"/>
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="O64" s="8">
         <f t="shared" si="4"/>
-        <v>20.452380952380953</v>
+        <v>48.555555555555557</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="G65" s="2">
-        <v>1971</v>
+        <v>1925</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K65">
-        <v>416</v>
+        <v>859</v>
       </c>
       <c r="L65" s="1">
-        <v>43518</v>
+        <v>42585</v>
       </c>
       <c r="M65" s="1">
-        <v>43542</v>
+        <v>42627</v>
       </c>
       <c r="N65">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="O65" s="8">
         <f t="shared" si="4"/>
-        <v>17.333333333333332</v>
+        <v>20.452380952380953</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>362</v>
+        <v>147</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>364</v>
+        <v>148</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>363</v>
+        <v>149</v>
       </c>
       <c r="G66" s="2">
-        <v>2015</v>
+        <v>1971</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K66">
-        <v>87</v>
+        <v>416</v>
       </c>
       <c r="L66" s="1">
-        <v>42871</v>
+        <v>43518</v>
       </c>
       <c r="M66" s="1">
-        <v>42877</v>
+        <v>43542</v>
       </c>
       <c r="N66">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="O66" s="8">
         <f t="shared" si="4"/>
-        <v>14.5</v>
+        <v>17.333333333333332</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>151</v>
+        <v>362</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>152</v>
+        <v>364</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>153</v>
+        <v>363</v>
       </c>
       <c r="G67" s="2">
         <v>2015</v>
@@ -5309,91 +5322,95 @@
         <v>331</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>49</v>
+        <v>345</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K67">
-        <v>348</v>
+        <v>87</v>
       </c>
       <c r="L67" s="1">
-        <v>42947</v>
+        <v>42871</v>
       </c>
       <c r="M67" s="1">
-        <v>42949</v>
+        <v>42877</v>
       </c>
       <c r="N67">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O67" s="8">
         <f t="shared" si="4"/>
-        <v>174</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G68" s="2">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>336</v>
+        <v>49</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K68">
-        <v>270</v>
+        <v>348</v>
       </c>
       <c r="L68" s="1">
-        <v>43246</v>
+        <v>42947</v>
       </c>
       <c r="M68" s="1">
-        <v>43253</v>
+        <v>42949</v>
       </c>
       <c r="N68">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O68" s="8">
         <f t="shared" si="4"/>
-        <v>38.571428571428569</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="G69" s="2">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>331</v>
@@ -5405,815 +5422,815 @@
         <v>9</v>
       </c>
       <c r="K69">
-        <v>148</v>
+        <v>270</v>
       </c>
       <c r="L69" s="1">
-        <v>42745</v>
+        <v>43246</v>
       </c>
       <c r="M69" s="1">
-        <v>43028</v>
+        <v>43253</v>
       </c>
       <c r="N69">
         <f t="shared" si="5"/>
-        <v>283</v>
+        <v>7</v>
       </c>
       <c r="O69" s="8">
         <f t="shared" si="4"/>
-        <v>0.52296819787985871</v>
+        <v>38.571428571428569</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>387</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="G70" s="2">
-        <v>1962</v>
+        <v>2010</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K70">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="L70" s="1">
-        <v>43328</v>
+        <v>42745</v>
       </c>
       <c r="M70" s="1">
-        <v>43344</v>
+        <v>43028</v>
       </c>
       <c r="N70">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>283</v>
       </c>
       <c r="O70" s="8">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>0.52296819787985871</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="D71" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G71" s="2">
-        <v>2015</v>
+        <v>1962</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>96</v>
+        <v>338</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K71">
-        <v>352</v>
+        <v>240</v>
       </c>
       <c r="L71" s="1">
-        <v>43092</v>
+        <v>43328</v>
       </c>
       <c r="M71" s="1">
-        <v>43191</v>
+        <v>43344</v>
       </c>
       <c r="N71">
         <f t="shared" si="5"/>
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="O71" s="8">
         <f t="shared" si="4"/>
-        <v>3.5555555555555554</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>371</v>
+        <v>161</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>398</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G72" s="2">
-        <v>1994</v>
+        <v>2015</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>336</v>
+        <v>96</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K72">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="L72" s="1">
-        <v>43183</v>
+        <v>43092</v>
       </c>
       <c r="M72" s="1">
-        <v>43198</v>
+        <v>43191</v>
       </c>
       <c r="N72">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="O72" s="8">
-        <f t="shared" ref="O72:O134" si="6">K72/N72</f>
-        <v>21.066666666666666</v>
+        <f t="shared" si="4"/>
+        <v>3.5555555555555554</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>166</v>
+        <v>371</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>20</v>
+        <v>398</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G73" s="2">
-        <v>2016</v>
+        <v>1994</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>96</v>
+        <v>336</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K73">
+        <v>316</v>
+      </c>
+      <c r="L73" s="1">
+        <v>43183</v>
+      </c>
+      <c r="M73" s="1">
+        <v>43198</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="O73" s="8">
+        <f t="shared" ref="O73:O135" si="6">K73/N73</f>
+        <v>21.066666666666666</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G74" s="2">
+        <v>2016</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K74">
         <v>188</v>
       </c>
-      <c r="L73" s="1">
+      <c r="L74" s="1">
         <v>43166</v>
       </c>
-      <c r="M73" s="1">
+      <c r="M74" s="1">
         <v>43175</v>
       </c>
-      <c r="N73">
-        <f t="shared" ref="N73:N135" si="7">M73-L73</f>
-        <v>9</v>
-      </c>
-      <c r="O73" s="8">
+      <c r="N74">
+        <f t="shared" ref="N74:N136" si="7">M74-L74</f>
+        <v>9</v>
+      </c>
+      <c r="O74" s="8">
         <f t="shared" si="6"/>
         <v>20.888888888888889</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A74" s="3" t="s">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2" t="s">
+      <c r="E75" s="2"/>
+      <c r="F75" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G74" s="2">
+      <c r="G75" s="2">
         <v>2014</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="H75" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I74" s="2" t="s">
+      <c r="I75" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K74">
+      <c r="J75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K75">
         <v>256</v>
       </c>
-      <c r="L74" s="1">
+      <c r="L75" s="1">
         <v>43175</v>
       </c>
-      <c r="M74" s="1">
+      <c r="M75" s="1">
         <v>43177</v>
       </c>
-      <c r="N74">
+      <c r="N75">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="O74" s="8">
+      <c r="O75" s="8">
         <f t="shared" si="6"/>
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2" t="s">
+      <c r="E76" s="2"/>
+      <c r="F76" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G76" s="2">
         <v>2014</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="H76" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I75" s="2" t="s">
+      <c r="I76" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K75">
+      <c r="J76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K76">
         <v>272</v>
       </c>
-      <c r="L75" s="1">
+      <c r="L76" s="1">
         <v>42977</v>
       </c>
-      <c r="M75" s="1">
+      <c r="M76" s="1">
         <v>42995</v>
       </c>
-      <c r="N75">
+      <c r="N76">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="O75" s="8">
+      <c r="O76" s="8">
         <f t="shared" si="6"/>
         <v>15.111111111111111</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="s">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2" t="s">
+      <c r="E77" s="2"/>
+      <c r="F77" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G76" s="2">
+      <c r="G77" s="2">
         <v>1861</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="H77" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="I77" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K76">
+      <c r="J77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K77">
         <v>460</v>
       </c>
-      <c r="L76" s="1">
+      <c r="L77" s="1">
         <v>42652</v>
       </c>
-      <c r="M76" s="1">
+      <c r="M77" s="1">
         <v>42664</v>
       </c>
-      <c r="N76">
+      <c r="N77">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="O76" s="8">
+      <c r="O77" s="8">
         <f t="shared" si="6"/>
         <v>38.333333333333336</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2" t="s">
+      <c r="E78" s="2"/>
+      <c r="F78" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G78" s="2">
         <v>1924</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="H78" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="I78" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K77">
+      <c r="J78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K78">
         <v>729</v>
       </c>
-      <c r="L77" s="1">
+      <c r="L78" s="1">
         <v>43049</v>
       </c>
-      <c r="M77" s="1">
+      <c r="M78" s="1">
         <v>43091</v>
       </c>
-      <c r="N77">
+      <c r="N78">
         <f t="shared" si="7"/>
         <v>42</v>
       </c>
-      <c r="O77" s="8">
+      <c r="O78" s="8">
         <f t="shared" si="6"/>
         <v>17.357142857142858</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2" t="s">
+      <c r="E79" s="2"/>
+      <c r="F79" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G78" s="2">
+      <c r="G79" s="2">
         <v>2015</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="H79" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="I79" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K78">
+      <c r="J79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K79">
         <v>224</v>
       </c>
-      <c r="L78" s="1">
+      <c r="L79" s="1">
         <v>42527</v>
       </c>
-      <c r="M78" s="1">
+      <c r="M79" s="1">
         <v>42528</v>
       </c>
-      <c r="N78">
+      <c r="N79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="O78" s="8">
+      <c r="O79" s="8">
         <f t="shared" si="6"/>
         <v>224</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A79" s="3" t="s">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2" t="s">
+      <c r="E80" s="2"/>
+      <c r="F80" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G79" s="2">
+      <c r="G80" s="2">
         <v>1960</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="H80" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="I80" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K79">
+      <c r="J80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K80">
         <v>307</v>
       </c>
-      <c r="L79" s="1">
+      <c r="L80" s="1">
         <v>43227</v>
       </c>
-      <c r="M79" s="1">
+      <c r="M80" s="1">
         <v>43240</v>
       </c>
-      <c r="N79">
+      <c r="N80">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="O79" s="8">
+      <c r="O80" s="8">
         <f t="shared" si="6"/>
         <v>23.615384615384617</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A80" s="3" t="s">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2" t="s">
+      <c r="E81" s="2"/>
+      <c r="F81" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G80" s="2">
+      <c r="G81" s="2">
         <v>2015</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="H81" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="I81" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K80">
+      <c r="J81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K81">
         <v>90</v>
       </c>
-      <c r="L80" s="1">
+      <c r="L81" s="1">
         <v>42632</v>
       </c>
-      <c r="M80" s="1">
+      <c r="M81" s="1">
         <v>42633</v>
       </c>
-      <c r="N80">
+      <c r="N81">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="O80" s="8">
+      <c r="O81" s="8">
         <f t="shared" si="6"/>
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A81" s="3" t="s">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2" t="s">
+      <c r="E82" s="2"/>
+      <c r="F82" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G81" s="2">
+      <c r="G82" s="2">
         <v>2014</v>
       </c>
-      <c r="H81" s="2" t="s">
+      <c r="H82" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="I82" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K81">
+      <c r="J82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K82">
         <v>286</v>
       </c>
-      <c r="L81" s="1">
+      <c r="L82" s="1">
         <v>43283</v>
       </c>
-      <c r="M81" s="1">
+      <c r="M82" s="1">
         <v>43291</v>
       </c>
-      <c r="N81">
+      <c r="N82">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="O81" s="8">
+      <c r="O82" s="8">
         <f t="shared" si="6"/>
         <v>35.75</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A82" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G82" s="2">
-        <v>2010</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K82">
-        <v>386</v>
-      </c>
-      <c r="L82" s="1">
-        <v>42941</v>
-      </c>
-      <c r="M82" s="1">
-        <v>42950</v>
-      </c>
-      <c r="N82">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="O82" s="8">
-        <f t="shared" si="6"/>
-        <v>42.888888888888886</v>
-      </c>
-    </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>379</v>
+        <v>190</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="G83" s="2">
-        <v>1967</v>
+        <v>2010</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K83">
-        <v>432</v>
+        <v>386</v>
       </c>
       <c r="L83" s="1">
-        <v>42936</v>
+        <v>42941</v>
       </c>
       <c r="M83" s="1">
-        <v>42940</v>
+        <v>42950</v>
       </c>
       <c r="N83">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O83" s="8">
         <f t="shared" si="6"/>
-        <v>108</v>
+        <v>42.888888888888886</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>194</v>
+        <v>379</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="G84" s="2">
-        <v>2017</v>
+        <v>1967</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K84">
-        <v>276</v>
+        <v>432</v>
       </c>
       <c r="L84" s="1">
-        <v>43028</v>
+        <v>42936</v>
       </c>
       <c r="M84" s="1">
-        <v>43036</v>
+        <v>42940</v>
       </c>
       <c r="N84">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O84" s="8">
         <f t="shared" si="6"/>
-        <v>34.5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="G85" s="2">
-        <v>1969</v>
+        <v>2017</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>49</v>
+        <v>347</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K85">
-        <v>157</v>
+        <v>276</v>
       </c>
       <c r="L85" s="1">
-        <v>42639</v>
+        <v>43028</v>
       </c>
       <c r="M85" s="1">
-        <v>42640</v>
+        <v>43036</v>
       </c>
       <c r="N85">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O85" s="8">
         <f t="shared" si="6"/>
-        <v>157</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="G86" s="2">
-        <v>1959</v>
+        <v>1969</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K86">
-        <v>341</v>
+        <v>157</v>
       </c>
       <c r="L86" s="1">
-        <v>42418</v>
+        <v>42639</v>
       </c>
       <c r="M86" s="1">
-        <v>42427</v>
+        <v>42640</v>
       </c>
       <c r="N86">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O86" s="8">
         <f t="shared" si="6"/>
-        <v>37.888888888888886</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>365</v>
+        <v>197</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
-        <v>200</v>
+        <v>52</v>
       </c>
       <c r="G87" s="2">
-        <v>2015</v>
+        <v>1959</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>8</v>
@@ -6225,13 +6242,13 @@
         <v>9</v>
       </c>
       <c r="K87">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="L87" s="1">
-        <v>42531</v>
+        <v>42418</v>
       </c>
       <c r="M87" s="1">
-        <v>42540</v>
+        <v>42427</v>
       </c>
       <c r="N87">
         <f t="shared" si="7"/>
@@ -6239,712 +6256,712 @@
       </c>
       <c r="O87" s="8">
         <f t="shared" si="6"/>
-        <v>40.222222222222221</v>
+        <v>37.888888888888886</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G88" s="2">
-        <v>1751</v>
+        <v>2015</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I88" t="s">
-        <v>343</v>
+        <v>8</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K88">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="L88" s="1">
-        <v>42729</v>
+        <v>42531</v>
       </c>
       <c r="M88" s="1">
-        <v>42732</v>
+        <v>42540</v>
       </c>
       <c r="N88">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O88" s="8">
         <f t="shared" si="6"/>
-        <v>36.666666666666664</v>
+        <v>40.222222222222221</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>203</v>
+        <v>366</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="s">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c r="G89" s="2">
-        <v>1939</v>
+        <v>1751</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I89" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K89">
-        <v>384</v>
+        <v>110</v>
       </c>
       <c r="L89" s="1">
-        <v>42541</v>
+        <v>42729</v>
       </c>
       <c r="M89" s="1">
-        <v>42550</v>
+        <v>42732</v>
       </c>
       <c r="N89">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O89" s="8">
         <f t="shared" si="6"/>
-        <v>42.666666666666664</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="G90" s="2">
-        <v>2008</v>
+        <v>1939</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I90" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K90">
-        <v>305</v>
+        <v>384</v>
       </c>
       <c r="L90" s="1">
-        <v>42853</v>
+        <v>42541</v>
       </c>
       <c r="M90" s="1">
-        <v>42856</v>
+        <v>42550</v>
       </c>
       <c r="N90">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O90" s="8">
         <f t="shared" si="6"/>
-        <v>101.66666666666667</v>
+        <v>42.666666666666664</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>367</v>
+        <v>205</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
-        <v>208</v>
+        <v>113</v>
       </c>
       <c r="G91" s="2">
-        <v>1965</v>
+        <v>2008</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I91" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K91">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="L91" s="1">
-        <v>42772</v>
+        <v>42853</v>
       </c>
       <c r="M91" s="1">
-        <v>42774</v>
+        <v>42856</v>
       </c>
       <c r="N91">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O91" s="8">
         <f t="shared" si="6"/>
-        <v>176</v>
+        <v>101.66666666666667</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>209</v>
+        <v>367</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>114</v>
+        <v>207</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G92" s="2">
-        <v>1975</v>
+        <v>1965</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I92" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K92">
-        <v>173</v>
+        <v>352</v>
       </c>
       <c r="L92" s="1">
-        <v>43105</v>
+        <v>42772</v>
       </c>
       <c r="M92" s="1">
-        <v>43106</v>
+        <v>42774</v>
       </c>
       <c r="N92">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O92" s="8">
         <f t="shared" si="6"/>
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>212</v>
+        <v>114</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2" t="s">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="G93" s="2">
-        <v>1936</v>
+        <v>1975</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I93" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K93">
-        <v>348</v>
+        <v>173</v>
       </c>
       <c r="L93" s="1">
-        <v>42895</v>
+        <v>43105</v>
       </c>
       <c r="M93" s="1">
-        <v>42899</v>
+        <v>43106</v>
       </c>
       <c r="N93">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O93" s="8">
         <f t="shared" si="6"/>
-        <v>87</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="G94" s="2">
-        <v>1963</v>
+        <v>1936</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I94" t="s">
-        <v>49</v>
+        <v>347</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K94">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="L94" s="1">
-        <v>43200</v>
+        <v>42895</v>
       </c>
       <c r="M94" s="1">
-        <v>43212</v>
+        <v>42899</v>
       </c>
       <c r="N94">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="O94" s="8">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2" t="s">
-        <v>217</v>
+        <v>134</v>
       </c>
       <c r="G95" s="2">
-        <v>1928</v>
+        <v>1963</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I95" t="s">
-        <v>332</v>
+        <v>49</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K95">
-        <v>546</v>
+        <v>312</v>
       </c>
       <c r="L95" s="1">
-        <v>43217</v>
+        <v>43200</v>
       </c>
       <c r="M95" s="1">
-        <v>43226</v>
+        <v>43212</v>
       </c>
       <c r="N95">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O95" s="8">
         <f t="shared" si="6"/>
-        <v>60.666666666666664</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2" t="s">
-        <v>52</v>
+        <v>217</v>
       </c>
       <c r="G96" s="2">
-        <v>1946</v>
+        <v>1928</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I96" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K96">
-        <v>661</v>
+        <v>546</v>
       </c>
       <c r="L96" s="1">
-        <v>42385</v>
+        <v>43217</v>
       </c>
       <c r="M96" s="1">
-        <v>42404</v>
+        <v>43226</v>
       </c>
       <c r="N96">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="O96" s="8">
         <f t="shared" si="6"/>
-        <v>34.789473684210527</v>
+        <v>60.666666666666664</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>380</v>
+        <v>219</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2" t="s">
-        <v>221</v>
+        <v>52</v>
       </c>
       <c r="G97" s="2">
-        <v>1996</v>
+        <v>1946</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I97" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K97">
-        <v>227</v>
+        <v>661</v>
       </c>
       <c r="L97" s="1">
-        <v>43163</v>
+        <v>42385</v>
       </c>
       <c r="M97" s="1">
-        <v>43165</v>
+        <v>42404</v>
       </c>
       <c r="N97">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O97" s="8">
         <f t="shared" si="6"/>
-        <v>113.5</v>
+        <v>34.789473684210527</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>223</v>
+        <v>380</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G98" s="2">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I98" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K98">
-        <v>94</v>
+        <v>227</v>
       </c>
       <c r="L98" s="1">
-        <v>43121</v>
+        <v>43163</v>
       </c>
       <c r="M98" s="1">
-        <v>43121</v>
+        <v>43165</v>
       </c>
       <c r="N98">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O98" s="8" t="e">
+        <v>2</v>
+      </c>
+      <c r="O98" s="8">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>329</v>
+        <v>222</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G99" s="2">
-        <v>1987</v>
+        <v>1998</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I99" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K99">
-        <v>372</v>
+        <v>94</v>
       </c>
       <c r="L99" s="1">
-        <v>42767</v>
+        <v>43121</v>
       </c>
       <c r="M99" s="1">
-        <v>42768</v>
+        <v>43121</v>
       </c>
       <c r="N99">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O99" s="8">
+        <v>0</v>
+      </c>
+      <c r="O99" s="8" t="e">
         <f t="shared" si="6"/>
-        <v>372</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>227</v>
+        <v>329</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2" t="s">
-        <v>139</v>
+        <v>226</v>
       </c>
       <c r="G100" s="2">
-        <v>1967</v>
+        <v>1987</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I100" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K100">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="L100" s="1">
+        <v>42767</v>
+      </c>
+      <c r="M100" s="1">
         <v>42768</v>
-      </c>
-      <c r="M100" s="1">
-        <v>42771</v>
       </c>
       <c r="N100">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O100" s="8">
         <f t="shared" si="6"/>
-        <v>137.33333333333334</v>
+        <v>372</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="G101" s="2">
-        <v>2010</v>
+        <v>1967</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I101" t="s">
-        <v>49</v>
+        <v>343</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K101">
-        <v>941</v>
+        <v>412</v>
       </c>
       <c r="L101" s="1">
-        <v>42883</v>
+        <v>42768</v>
       </c>
       <c r="M101" s="1">
-        <v>42894</v>
+        <v>42771</v>
       </c>
       <c r="N101">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="O101" s="8">
         <f t="shared" si="6"/>
-        <v>85.545454545454547</v>
+        <v>137.33333333333334</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2" t="s">
-        <v>28</v>
+        <v>231</v>
       </c>
       <c r="G102" s="2">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I102" t="s">
-        <v>344</v>
+        <v>49</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K102">
-        <v>304</v>
+        <v>941</v>
       </c>
       <c r="L102" s="1">
-        <v>43106</v>
+        <v>42883</v>
       </c>
       <c r="M102" s="1">
-        <v>43120</v>
+        <v>42894</v>
       </c>
       <c r="N102">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O102" s="8">
         <f t="shared" si="6"/>
-        <v>21.714285714285715</v>
+        <v>85.545454545454547</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>63</v>
+        <v>233</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G103" s="2">
-        <v>1963</v>
+        <v>2017</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I103" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K103">
-        <v>492</v>
+        <v>304</v>
       </c>
       <c r="L103" s="1">
-        <v>43127</v>
+        <v>43106</v>
       </c>
       <c r="M103" s="1">
-        <v>43148</v>
+        <v>43120</v>
       </c>
       <c r="N103">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="O103" s="8">
         <f t="shared" si="6"/>
-        <v>23.428571428571427</v>
+        <v>21.714285714285715</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>236</v>
+        <v>63</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G104" s="2">
-        <v>1949</v>
+        <v>1963</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>8</v>
@@ -6956,130 +6973,130 @@
         <v>9</v>
       </c>
       <c r="K104">
-        <v>311</v>
+        <v>492</v>
       </c>
       <c r="L104" s="1">
-        <v>43149</v>
+        <v>43127</v>
       </c>
       <c r="M104" s="1">
-        <v>43155</v>
+        <v>43148</v>
       </c>
       <c r="N104">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="O104" s="8">
         <f t="shared" si="6"/>
-        <v>51.833333333333336</v>
+        <v>23.428571428571427</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2" t="s">
-        <v>239</v>
+        <v>113</v>
       </c>
       <c r="G105" s="2">
-        <v>2015</v>
+        <v>1949</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I105" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K105">
-        <v>384</v>
+        <v>311</v>
       </c>
       <c r="L105" s="1">
-        <v>42919</v>
+        <v>43149</v>
       </c>
       <c r="M105" s="1">
-        <v>42929</v>
+        <v>43155</v>
       </c>
       <c r="N105">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O105" s="8">
         <f t="shared" si="6"/>
-        <v>38.4</v>
+        <v>51.833333333333336</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="G106" s="2">
-        <v>1992</v>
+        <v>2015</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I106" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K106">
-        <v>256</v>
+        <v>384</v>
       </c>
       <c r="L106" s="1">
-        <v>42732</v>
+        <v>42919</v>
       </c>
       <c r="M106" s="1">
-        <v>42737</v>
+        <v>42929</v>
       </c>
       <c r="N106">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O106" s="8">
         <f t="shared" si="6"/>
-        <v>51.2</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="G107" s="2">
-        <v>1977</v>
+        <v>1992</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I107" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>9</v>
@@ -7088,182 +7105,182 @@
         <v>256</v>
       </c>
       <c r="L107" s="1">
-        <v>42382</v>
+        <v>42732</v>
       </c>
       <c r="M107" s="1">
-        <v>42383</v>
+        <v>42737</v>
       </c>
       <c r="N107">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O107" s="8">
         <f t="shared" si="6"/>
-        <v>256</v>
+        <v>51.2</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2" t="s">
-        <v>52</v>
+        <v>153</v>
       </c>
       <c r="G108" s="2">
-        <v>1927</v>
+        <v>1977</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I108" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K108">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="L108" s="1">
-        <v>42790</v>
+        <v>42382</v>
       </c>
       <c r="M108" s="1">
-        <v>42802</v>
+        <v>42383</v>
       </c>
       <c r="N108">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O108" s="8">
         <f t="shared" si="6"/>
-        <v>22.666666666666668</v>
+        <v>256</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2" t="s">
-        <v>248</v>
+        <v>52</v>
       </c>
       <c r="G109" s="2">
-        <v>1997</v>
+        <v>1927</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I109" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K109">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="L109" s="1">
-        <v>42805</v>
+        <v>42790</v>
       </c>
       <c r="M109" s="1">
-        <v>42811</v>
+        <v>42802</v>
       </c>
       <c r="N109">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O109" s="8">
         <f t="shared" si="6"/>
-        <v>48.833333333333336</v>
+        <v>22.666666666666668</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2" t="s">
-        <v>113</v>
+        <v>248</v>
       </c>
       <c r="G110" s="2">
-        <v>2013</v>
+        <v>1997</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I110" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K110">
-        <v>496</v>
+        <v>293</v>
       </c>
       <c r="L110" s="1">
-        <v>42645</v>
+        <v>42805</v>
       </c>
       <c r="M110" s="1">
-        <v>42649</v>
+        <v>42811</v>
       </c>
       <c r="N110">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O110" s="8">
         <f t="shared" si="6"/>
-        <v>124</v>
+        <v>48.833333333333336</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>82</v>
+        <v>250</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="G111" s="2">
-        <v>1955</v>
+        <v>2013</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I111" t="s">
-        <v>369</v>
+        <v>96</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K111">
-        <v>331</v>
+        <v>496</v>
       </c>
       <c r="L111" s="1">
-        <v>42823</v>
+        <v>42645</v>
       </c>
       <c r="M111" s="1">
-        <v>42827</v>
+        <v>42649</v>
       </c>
       <c r="N111">
         <f t="shared" si="7"/>
@@ -7271,239 +7288,239 @@
       </c>
       <c r="O111" s="8">
         <f t="shared" si="6"/>
-        <v>82.75</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>381</v>
+        <v>82</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G112" s="2">
-        <v>1991</v>
+        <v>1955</v>
       </c>
       <c r="H112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I112" t="s">
+        <v>369</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K112">
         <v>331</v>
       </c>
-      <c r="I112" t="s">
-        <v>344</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K112">
-        <v>149</v>
-      </c>
       <c r="L112" s="1">
-        <v>42665</v>
+        <v>42823</v>
       </c>
       <c r="M112" s="1">
-        <v>42668</v>
+        <v>42827</v>
       </c>
       <c r="N112">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O112" s="8">
         <f t="shared" si="6"/>
-        <v>49.666666666666664</v>
+        <v>82.75</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>254</v>
+        <v>381</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2" t="s">
-        <v>255</v>
+        <v>30</v>
       </c>
       <c r="G113" s="2">
-        <v>1942</v>
+        <v>1991</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I113" t="s">
-        <v>49</v>
+        <v>344</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K113">
-        <v>495</v>
+        <v>149</v>
       </c>
       <c r="L113" s="1">
-        <v>42711</v>
+        <v>42665</v>
       </c>
       <c r="M113" s="1">
-        <v>42727</v>
+        <v>42668</v>
       </c>
       <c r="N113">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="O113" s="8">
         <f t="shared" si="6"/>
-        <v>30.9375</v>
+        <v>49.666666666666664</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2" t="s">
-        <v>191</v>
+        <v>255</v>
       </c>
       <c r="G114" s="2">
-        <v>2010</v>
+        <v>1942</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I114" t="s">
-        <v>346</v>
+        <v>49</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K114">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="L114" s="1">
-        <v>42776</v>
+        <v>42711</v>
       </c>
       <c r="M114" s="1">
-        <v>42785</v>
+        <v>42727</v>
       </c>
       <c r="N114">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O114" s="8">
         <f t="shared" si="6"/>
-        <v>49.555555555555557</v>
+        <v>30.9375</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2" t="s">
-        <v>61</v>
+        <v>191</v>
       </c>
       <c r="G115" s="2">
-        <v>1992</v>
+        <v>2010</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I115" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K115">
-        <v>224</v>
+        <v>446</v>
       </c>
       <c r="L115" s="1">
-        <v>42249</v>
+        <v>42776</v>
       </c>
       <c r="M115" s="1">
-        <v>42250</v>
+        <v>42785</v>
       </c>
       <c r="N115">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O115" s="8">
         <f t="shared" si="6"/>
-        <v>224</v>
+        <v>49.555555555555557</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G116" s="2">
-        <v>1934</v>
+        <v>1992</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I116" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K116">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="L116" s="1">
-        <v>43294</v>
+        <v>42249</v>
       </c>
       <c r="M116" s="1">
-        <v>43307</v>
+        <v>42250</v>
       </c>
       <c r="N116">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="O116" s="8">
         <f t="shared" si="6"/>
-        <v>19.307692307692307</v>
+        <v>224</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="G117" s="2">
-        <v>1951</v>
+        <v>1934</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>8</v>
@@ -7515,293 +7532,293 @@
         <v>9</v>
       </c>
       <c r="K117">
-        <v>192</v>
+        <v>251</v>
       </c>
       <c r="L117" s="1">
-        <v>42518</v>
+        <v>43294</v>
       </c>
       <c r="M117" s="1">
-        <v>42522</v>
+        <v>43307</v>
       </c>
       <c r="N117">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="O117" s="8">
         <f t="shared" si="6"/>
-        <v>48</v>
+        <v>19.307692307692307</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>370</v>
+        <v>262</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2" t="s">
-        <v>319</v>
+        <v>52</v>
       </c>
       <c r="G118" s="2">
-        <v>2013</v>
+        <v>1951</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I118" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K118">
-        <v>329</v>
+        <v>192</v>
       </c>
       <c r="L118" s="1">
-        <v>42512</v>
+        <v>42518</v>
       </c>
       <c r="M118" s="1">
-        <v>42514</v>
+        <v>42522</v>
       </c>
       <c r="N118">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O118" s="8">
         <f t="shared" si="6"/>
-        <v>164.5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>265</v>
+        <v>370</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>65</v>
+        <v>264</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2" t="s">
-        <v>30</v>
+        <v>319</v>
       </c>
       <c r="G119" s="2">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I119" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K119">
-        <v>498</v>
+        <v>329</v>
       </c>
       <c r="L119" s="1">
-        <v>43308</v>
+        <v>42512</v>
       </c>
       <c r="M119" s="1">
-        <v>43322</v>
+        <v>42514</v>
       </c>
       <c r="N119">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="O119" s="8">
         <f t="shared" si="6"/>
-        <v>35.571428571428569</v>
+        <v>164.5</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>267</v>
+        <v>65</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2" t="s">
-        <v>268</v>
+        <v>30</v>
       </c>
       <c r="G120" s="2">
-        <v>1971</v>
+        <v>2011</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I120" t="s">
-        <v>369</v>
+        <v>96</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K120">
-        <v>160</v>
+        <v>498</v>
       </c>
       <c r="L120" s="1">
-        <v>42643</v>
+        <v>43308</v>
       </c>
       <c r="M120" s="1">
-        <v>42644</v>
+        <v>43322</v>
       </c>
       <c r="N120">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="O120" s="8">
         <f t="shared" si="6"/>
-        <v>160</v>
+        <v>35.571428571428569</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G121" s="2">
-        <v>2000</v>
+        <v>1971</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I121" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K121">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="L121" s="1">
-        <v>42628</v>
+        <v>42643</v>
       </c>
       <c r="M121" s="1">
-        <v>42632</v>
+        <v>42644</v>
       </c>
       <c r="N121">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O121" s="8">
         <f t="shared" si="6"/>
-        <v>44</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G122" s="2">
         <v>2000</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I122" t="s">
-        <v>332</v>
+        <v>49</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K122">
-        <v>639</v>
+        <v>176</v>
       </c>
       <c r="L122" s="1">
-        <v>42683</v>
+        <v>42628</v>
       </c>
       <c r="M122" s="1">
-        <v>42695</v>
+        <v>42632</v>
       </c>
       <c r="N122">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="O122" s="8">
         <f t="shared" si="6"/>
-        <v>53.25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2" t="s">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="G123" s="2">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I123" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K123">
-        <v>563</v>
+        <v>639</v>
       </c>
       <c r="L123" s="1">
-        <v>42830</v>
+        <v>42683</v>
       </c>
       <c r="M123" s="1">
-        <v>42846</v>
+        <v>42695</v>
       </c>
       <c r="N123">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O123" s="8">
         <f t="shared" si="6"/>
-        <v>35.1875</v>
+        <v>53.25</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="G124" s="2">
         <v>2015</v>
@@ -7810,78 +7827,78 @@
         <v>8</v>
       </c>
       <c r="I124" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K124">
-        <v>304</v>
+        <v>563</v>
       </c>
       <c r="L124" s="1">
-        <v>42848</v>
+        <v>42830</v>
       </c>
       <c r="M124" s="1">
-        <v>42852</v>
+        <v>42846</v>
       </c>
       <c r="N124">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="O124" s="8">
         <f t="shared" si="6"/>
-        <v>76</v>
+        <v>35.1875</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2" t="s">
-        <v>28</v>
+        <v>279</v>
       </c>
       <c r="G125" s="2">
-        <v>1994</v>
+        <v>2015</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I125" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K125">
-        <v>480</v>
+        <v>304</v>
       </c>
       <c r="L125" s="1">
-        <v>42358</v>
+        <v>42848</v>
       </c>
       <c r="M125" s="1">
-        <v>42377</v>
+        <v>42852</v>
       </c>
       <c r="N125">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="O125" s="8">
         <f t="shared" si="6"/>
-        <v>25.263157894736842</v>
+        <v>76</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -7890,50 +7907,50 @@
         <v>28</v>
       </c>
       <c r="G126" s="2">
-        <v>1962</v>
+        <v>1994</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I126" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K126">
-        <v>256</v>
+        <v>480</v>
       </c>
       <c r="L126" s="1">
-        <v>42696</v>
+        <v>42358</v>
       </c>
       <c r="M126" s="1">
-        <v>42700</v>
+        <v>42377</v>
       </c>
       <c r="N126">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="O126" s="8">
         <f t="shared" si="6"/>
-        <v>64</v>
+        <v>25.263157894736842</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2" t="s">
-        <v>286</v>
+        <v>28</v>
       </c>
       <c r="G127" s="2">
-        <v>1929</v>
+        <v>1962</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>8</v>
@@ -7945,142 +7962,142 @@
         <v>9</v>
       </c>
       <c r="K127">
-        <v>348</v>
+        <v>256</v>
       </c>
       <c r="L127" s="1">
-        <v>42860</v>
+        <v>42696</v>
       </c>
       <c r="M127" s="1">
-        <v>42869</v>
+        <v>42700</v>
       </c>
       <c r="N127">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O127" s="8">
         <f t="shared" si="6"/>
-        <v>38.666666666666664</v>
+        <v>64</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G128" s="2">
-        <v>1897</v>
+        <v>1929</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I128" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K128">
-        <v>496</v>
+        <v>348</v>
       </c>
       <c r="L128" s="1">
-        <v>42952</v>
+        <v>42860</v>
       </c>
       <c r="M128" s="1">
-        <v>42962</v>
+        <v>42869</v>
       </c>
       <c r="N128">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O128" s="8">
         <f t="shared" si="6"/>
-        <v>49.6</v>
+        <v>38.666666666666664</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2" t="s">
-        <v>168</v>
+        <v>289</v>
       </c>
       <c r="G129" s="2">
-        <v>2016</v>
+        <v>1897</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I129" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K129">
-        <v>302</v>
+        <v>496</v>
       </c>
       <c r="L129" s="1">
-        <v>43179</v>
+        <v>42952</v>
       </c>
       <c r="M129" s="1">
-        <v>43183</v>
+        <v>42962</v>
       </c>
       <c r="N129">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O129" s="8">
         <f t="shared" si="6"/>
-        <v>75.5</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2" t="s">
-        <v>248</v>
+        <v>168</v>
       </c>
       <c r="G130" s="2">
-        <v>1886</v>
+        <v>2016</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I130" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K130">
-        <v>110</v>
+        <v>302</v>
       </c>
       <c r="L130" s="1">
-        <v>43430</v>
+        <v>43179</v>
       </c>
       <c r="M130" s="1">
-        <v>43434</v>
+        <v>43183</v>
       </c>
       <c r="N130">
         <f t="shared" si="7"/>
@@ -8088,42 +8105,42 @@
       </c>
       <c r="O130" s="8">
         <f t="shared" si="6"/>
-        <v>27.5</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="G131" s="2">
-        <v>2013</v>
+        <v>1886</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I131" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K131">
-        <v>256</v>
+        <v>110</v>
       </c>
       <c r="L131" s="1">
-        <v>43449</v>
+        <v>43430</v>
       </c>
       <c r="M131" s="1">
-        <v>43453</v>
+        <v>43434</v>
       </c>
       <c r="N131">
         <f t="shared" si="7"/>
@@ -8131,282 +8148,282 @@
       </c>
       <c r="O131" s="8">
         <f t="shared" si="6"/>
-        <v>64</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="G132" s="2">
-        <v>1972</v>
+        <v>2013</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I132" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K132">
-        <v>506</v>
+        <v>256</v>
       </c>
       <c r="L132" s="1">
-        <v>43436</v>
+        <v>43449</v>
       </c>
       <c r="M132" s="1">
-        <v>43446</v>
+        <v>43453</v>
       </c>
       <c r="N132">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O132" s="8">
         <f t="shared" si="6"/>
-        <v>50.6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="G133" s="2">
-        <v>2016</v>
+        <v>1972</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I133" t="s">
-        <v>49</v>
+        <v>332</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K133">
-        <v>941</v>
+        <v>506</v>
       </c>
       <c r="L133" s="1">
-        <v>42737</v>
+        <v>43436</v>
       </c>
       <c r="M133" s="1">
-        <v>42767</v>
+        <v>43446</v>
       </c>
       <c r="N133">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="O133" s="8">
         <f t="shared" si="6"/>
-        <v>31.366666666666667</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>382</v>
+        <v>300</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G134" s="2">
-        <v>1959</v>
+        <v>2016</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I134" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K134">
-        <v>582</v>
+        <v>941</v>
       </c>
       <c r="L134" s="1">
-        <v>42567</v>
+        <v>42737</v>
       </c>
       <c r="M134" s="1">
-        <v>42578</v>
+        <v>42767</v>
       </c>
       <c r="N134">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="O134" s="8">
         <f t="shared" si="6"/>
-        <v>52.909090909090907</v>
+        <v>31.366666666666667</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>305</v>
+        <v>382</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2" t="s">
-        <v>156</v>
+        <v>303</v>
       </c>
       <c r="G135" s="2">
-        <v>2015</v>
+        <v>1959</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I135" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K135">
-        <v>862</v>
+        <v>582</v>
       </c>
       <c r="L135" s="1">
-        <v>42445</v>
+        <v>42567</v>
       </c>
       <c r="M135" s="1">
-        <v>42484</v>
+        <v>42578</v>
       </c>
       <c r="N135">
         <f t="shared" si="7"/>
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="O135" s="8">
-        <f t="shared" ref="O135:O142" si="8">K135/N135</f>
-        <v>22.102564102564102</v>
+        <f t="shared" si="6"/>
+        <v>52.909090909090907</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2" t="s">
-        <v>308</v>
+        <v>156</v>
       </c>
       <c r="G136" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I136" t="s">
-        <v>344</v>
+        <v>49</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K136">
-        <v>488</v>
+        <v>862</v>
       </c>
       <c r="L136" s="1">
-        <v>42431</v>
+        <v>42445</v>
       </c>
       <c r="M136" s="1">
-        <v>42445</v>
+        <v>42484</v>
       </c>
       <c r="N136">
-        <f t="shared" ref="N136:N142" si="9">M136-L136</f>
-        <v>14</v>
+        <f t="shared" si="7"/>
+        <v>39</v>
       </c>
       <c r="O136" s="8">
-        <f t="shared" si="8"/>
-        <v>34.857142857142854</v>
+        <f t="shared" ref="O136:O143" si="8">K136/N136</f>
+        <v>22.102564102564102</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>150</v>
+        <v>307</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2" t="s">
-        <v>163</v>
+        <v>308</v>
       </c>
       <c r="G137" s="2">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I137" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K137">
-        <v>352</v>
+        <v>488</v>
       </c>
       <c r="L137" s="1">
-        <v>42899</v>
+        <v>42431</v>
       </c>
       <c r="M137" s="1">
-        <v>42918</v>
+        <v>42445</v>
       </c>
       <c r="N137">
-        <f t="shared" si="9"/>
-        <v>19</v>
+        <f t="shared" ref="N137:N143" si="9">M137-L137</f>
+        <v>14</v>
       </c>
       <c r="O137" s="8">
         <f t="shared" si="8"/>
-        <v>18.526315789473685</v>
+        <v>34.857142857142854</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>312</v>
+        <v>150</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2" t="s">
-        <v>319</v>
+        <v>163</v>
       </c>
       <c r="G138" s="2">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>331</v>
@@ -8418,197 +8435,240 @@
         <v>9</v>
       </c>
       <c r="K138">
-        <v>255</v>
+        <v>352</v>
       </c>
       <c r="L138" s="1">
-        <v>43405</v>
+        <v>42899</v>
       </c>
       <c r="M138" s="1">
-        <v>43411</v>
+        <v>42918</v>
       </c>
       <c r="N138">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="O138" s="8">
         <f t="shared" si="8"/>
-        <v>42.5</v>
+        <v>18.526315789473685</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2" t="s">
-        <v>12</v>
+        <v>319</v>
       </c>
       <c r="G139" s="2">
-        <v>1985</v>
+        <v>2016</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I139" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K139">
-        <v>324</v>
+        <v>255</v>
       </c>
       <c r="L139" s="1">
-        <v>43509</v>
+        <v>43405</v>
       </c>
       <c r="M139" s="1">
-        <v>43516</v>
+        <v>43411</v>
       </c>
       <c r="N139">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O139" s="8">
         <f t="shared" si="8"/>
-        <v>46.285714285714285</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2" t="s">
-        <v>286</v>
+        <v>12</v>
       </c>
       <c r="G140" s="2">
-        <v>1854</v>
+        <v>1985</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I140" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K140">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="L140" s="1">
-        <v>43369</v>
+        <v>43509</v>
       </c>
       <c r="M140" s="1">
-        <v>43381</v>
+        <v>43516</v>
       </c>
       <c r="N140">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O140" s="8">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>46.285714285714285</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>377</v>
+        <v>316</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="G141" s="2">
-        <v>1963</v>
+        <v>1854</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I141" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K141">
-        <v>257</v>
+        <v>360</v>
       </c>
       <c r="L141" s="1">
-        <v>43427</v>
+        <v>43369</v>
       </c>
       <c r="M141" s="1">
-        <v>43429</v>
+        <v>43381</v>
       </c>
       <c r="N141">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O141" s="8">
         <f t="shared" si="8"/>
-        <v>128.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>317</v>
+        <v>368</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>318</v>
+        <v>377</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2" t="s">
-        <v>61</v>
+        <v>248</v>
       </c>
       <c r="G142" s="2">
-        <v>1979</v>
+        <v>1963</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I142" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K142">
-        <v>592</v>
+        <v>257</v>
       </c>
       <c r="L142" s="1">
-        <v>43543</v>
+        <v>43427</v>
       </c>
       <c r="M142" s="1">
-        <v>43576</v>
+        <v>43429</v>
       </c>
       <c r="N142">
         <f t="shared" si="9"/>
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="O142" s="8">
         <f t="shared" si="8"/>
+        <v>128.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A143" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G143" s="2">
+        <v>1979</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I143" t="s">
+        <v>347</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K143">
+        <v>592</v>
+      </c>
+      <c r="L143" s="1">
+        <v>43543</v>
+      </c>
+      <c r="M143" s="1">
+        <v>43576</v>
+      </c>
+      <c r="N143">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="O143" s="8">
+        <f t="shared" si="8"/>
         <v>17.939393939393938</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N142" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N143" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/b2.xlsx
+++ b/b2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6EA527-F144-4223-91BF-90282F590A62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A27FC9-30D5-46D9-B15A-40D23F080B35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18340" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="clean" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">clean!$A$1:$N$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">clean!$A$1:$N$145</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="425">
   <si>
     <t>Title</t>
   </si>
@@ -1299,6 +1299,24 @@
   </si>
   <si>
     <t>Folio</t>
+  </si>
+  <si>
+    <t>Extraterrestrial language</t>
+  </si>
+  <si>
+    <t>Oberhaus, Daniel</t>
+  </si>
+  <si>
+    <t>MIT Press</t>
+  </si>
+  <si>
+    <t>L'amant</t>
+  </si>
+  <si>
+    <t>Editions de minuit</t>
+  </si>
+  <si>
+    <t>Duras, Marguerite</t>
   </si>
 </sst>
 </file>
@@ -1802,7 +1820,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1813,6 +1831,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2168,13 +2188,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O143"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2241,59 +2261,59 @@
     </row>
     <row r="2" spans="1:15" s="7" customFormat="1" ht="19" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1971</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="G2" s="11">
+        <v>1984</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K2" s="2">
-        <v>692</v>
+        <v>142</v>
       </c>
       <c r="L2" s="1">
-        <v>44280</v>
+        <v>44303</v>
       </c>
       <c r="M2" s="1">
-        <v>44291</v>
+        <v>44305</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N4" si="0">M2-L2</f>
-        <v>11</v>
+        <f t="shared" ref="N2:N6" si="0">M2-L2</f>
+        <v>2</v>
       </c>
       <c r="O2" s="8">
-        <f t="shared" ref="O2:O4" si="1">K2/N2</f>
-        <v>62.909090909090907</v>
+        <f t="shared" ref="O2:O6" si="1">K2/N2</f>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>384</v>
@@ -2302,31 +2322,31 @@
         <v>387</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2011</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>8</v>
+        <v>402</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="G3" s="11">
+        <v>2019</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>331</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>332</v>
+        <v>96</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K3" s="2">
-        <v>369</v>
+        <v>264</v>
       </c>
       <c r="L3" s="1">
-        <v>44240</v>
+        <v>44296</v>
       </c>
       <c r="M3" s="1">
-        <v>44246</v>
+        <v>44302</v>
       </c>
       <c r="N3">
         <f t="shared" si="0"/>
@@ -2334,15 +2354,15 @@
       </c>
       <c r="O3" s="8">
         <f t="shared" si="1"/>
-        <v>61.5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -2351,16 +2371,16 @@
         <v>387</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>412</v>
+        <v>406</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>418</v>
       </c>
       <c r="G4" s="2">
-        <v>2018</v>
+        <v>1971</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>49</v>
@@ -2369,369 +2389,373 @@
         <v>20</v>
       </c>
       <c r="K4" s="2">
-        <v>401</v>
+        <v>692</v>
       </c>
       <c r="L4" s="1">
-        <v>44227</v>
+        <v>44280</v>
       </c>
       <c r="M4" s="1">
-        <v>44240</v>
+        <v>44291</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O4" s="8">
         <f t="shared" si="1"/>
-        <v>30.846153846153847</v>
+        <v>62.909090909090907</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>387</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>231</v>
+        <v>415</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="G5" s="2">
-        <v>1958</v>
+        <v>2011</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K5" s="2">
-        <v>262</v>
+        <v>369</v>
       </c>
       <c r="L5" s="1">
-        <v>44212</v>
+        <v>44240</v>
       </c>
       <c r="M5" s="1">
-        <v>44223</v>
+        <v>44246</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5:N7" si="2">M5-L5</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="O5" s="8">
-        <f t="shared" ref="O5:O7" si="3">K5/N5</f>
-        <v>23.818181818181817</v>
+        <f t="shared" si="1"/>
+        <v>61.5</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>383</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="G6" s="2">
-        <v>1934</v>
+        <v>2018</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>339</v>
+        <v>49</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K6" s="2">
+        <v>401</v>
+      </c>
+      <c r="L6" s="1">
+        <v>44227</v>
+      </c>
+      <c r="M6" s="1">
+        <v>44240</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O6" s="8">
+        <f t="shared" si="1"/>
+        <v>30.846153846153847</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1958</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="2">
+        <v>262</v>
+      </c>
+      <c r="L7" s="1">
+        <v>44212</v>
+      </c>
+      <c r="M7" s="1">
+        <v>44223</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7:N9" si="2">M7-L7</f>
+        <v>11</v>
+      </c>
+      <c r="O7" s="8">
+        <f t="shared" ref="O7:O9" si="3">K7/N7</f>
+        <v>23.818181818181817</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1934</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2">
         <v>217</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L8" s="1">
         <v>44207</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M8" s="1">
         <v>44212</v>
       </c>
-      <c r="N6">
+      <c r="N8">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O8" s="8">
         <f t="shared" si="3"/>
         <v>43.4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
+    <row r="9" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G9" s="2">
         <v>2013</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K9" s="2">
         <v>533</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L9" s="1">
         <v>44193</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M9" s="1">
         <v>44195</v>
       </c>
-      <c r="N7">
+      <c r="N9">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O9" s="8">
         <f t="shared" si="3"/>
         <v>266.5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
+    <row r="10" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G10" s="2">
         <v>2020</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="J10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="2">
         <v>278</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L10" s="1">
         <v>44178</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M10" s="1">
         <v>44193</v>
       </c>
-      <c r="N8">
-        <f>M8-L8</f>
+      <c r="N10">
+        <f>M10-L10</f>
         <v>15</v>
       </c>
-      <c r="O8" s="8">
-        <f>K8/N8</f>
+      <c r="O10" s="8">
+        <f>K10/N10</f>
         <v>18.533333333333335</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="2">
-        <v>2006</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" t="s">
-        <v>330</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9">
-        <v>420</v>
-      </c>
-      <c r="L9" s="1">
-        <v>44163</v>
-      </c>
-      <c r="M9" s="1">
-        <v>44165</v>
-      </c>
-      <c r="N9">
-        <f>M9-L9</f>
-        <v>2</v>
-      </c>
-      <c r="O9" s="8">
-        <f t="shared" ref="O9:O72" si="4">K9/N9</f>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1983</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" t="s">
-        <v>369</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10">
-        <v>291</v>
-      </c>
-      <c r="L10" s="1">
-        <v>44156</v>
-      </c>
-      <c r="M10" s="1">
-        <v>44163</v>
-      </c>
-      <c r="N10">
-        <f t="shared" ref="N10:N73" si="5">M10-L10</f>
-        <v>7</v>
-      </c>
-      <c r="O10" s="8">
-        <f t="shared" si="4"/>
-        <v>41.571428571428569</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G11" s="2">
-        <v>2017</v>
-      </c>
-      <c r="H11" t="s">
-        <v>331</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>336</v>
+        <v>2006</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>330</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K11">
-        <v>176</v>
+        <v>420</v>
       </c>
       <c r="L11" s="1">
-        <v>44150</v>
+        <v>44163</v>
       </c>
       <c r="M11" s="1">
-        <v>44155</v>
+        <v>44165</v>
       </c>
       <c r="N11">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f>M11-L11</f>
+        <v>2</v>
       </c>
       <c r="O11" s="8">
-        <f t="shared" si="4"/>
-        <v>35.200000000000003</v>
+        <f t="shared" ref="O11:O74" si="4">K11/N11</f>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>387</v>
@@ -2741,91 +2765,91 @@
         <v>12</v>
       </c>
       <c r="G12" s="2">
-        <v>1980</v>
+        <v>1983</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>342</v>
+      <c r="I12" t="s">
+        <v>369</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K12">
-        <v>502</v>
+        <v>291</v>
       </c>
       <c r="L12" s="1">
-        <v>44129</v>
+        <v>44156</v>
       </c>
       <c r="M12" s="1">
-        <v>44142</v>
+        <v>44163</v>
       </c>
       <c r="N12">
-        <f>M12-L12</f>
-        <v>13</v>
+        <f t="shared" ref="N12:N75" si="5">M12-L12</f>
+        <v>7</v>
       </c>
       <c r="O12" s="8">
         <f t="shared" si="4"/>
-        <v>38.615384615384613</v>
+        <v>41.571428571428569</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>385</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>388</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G13" s="2">
-        <v>1938</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>8</v>
+        <v>2017</v>
+      </c>
+      <c r="H13" t="s">
+        <v>331</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K13">
-        <v>247</v>
+        <v>176</v>
       </c>
       <c r="L13" s="1">
-        <v>44114</v>
+        <v>44150</v>
       </c>
       <c r="M13" s="1">
-        <v>44129</v>
+        <v>44155</v>
       </c>
       <c r="N13">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="O13" s="8">
         <f t="shared" si="4"/>
-        <v>16.466666666666665</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>387</v>
@@ -2835,652 +2859,652 @@
         <v>12</v>
       </c>
       <c r="G14" s="2">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <v>502</v>
+      </c>
+      <c r="L14" s="1">
+        <v>44129</v>
+      </c>
+      <c r="M14" s="1">
+        <v>44142</v>
+      </c>
+      <c r="N14">
+        <f>M14-L14</f>
+        <v>13</v>
+      </c>
+      <c r="O14" s="8">
+        <f t="shared" si="4"/>
+        <v>38.615384615384613</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1938</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15">
+        <v>247</v>
+      </c>
+      <c r="L15" s="1">
+        <v>44114</v>
+      </c>
+      <c r="M15" s="1">
+        <v>44129</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="O15" s="8">
+        <f t="shared" si="4"/>
+        <v>16.466666666666665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1981</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14">
+      <c r="J16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16">
         <v>225</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L16" s="1">
         <v>43931</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M16" s="1">
         <v>44053</v>
       </c>
-      <c r="N14">
+      <c r="N16">
         <f t="shared" si="5"/>
         <v>122</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O16" s="8">
         <f t="shared" si="4"/>
         <v>1.8442622950819672</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G17" s="2">
         <v>1865</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K15">
+      <c r="K17">
         <v>826</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L17" s="1">
         <v>43930</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M17" s="1">
         <v>44021</v>
       </c>
-      <c r="N15">
+      <c r="N17">
         <f t="shared" si="5"/>
         <v>91</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O17" s="8">
         <f t="shared" si="4"/>
         <v>9.0769230769230766</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G18" s="2">
         <v>1988</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16">
+      <c r="J18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18">
         <v>368</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L18" s="1">
         <v>44052</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M18" s="1">
         <v>44077</v>
       </c>
-      <c r="N16">
+      <c r="N18">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O18" s="8">
         <f t="shared" si="4"/>
         <v>14.72</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G19" s="2">
         <v>1951</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17">
+      <c r="J19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19">
         <v>54</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L19" s="1">
         <v>43838</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M19" s="1">
         <v>43990</v>
       </c>
-      <c r="N17">
+      <c r="N19">
         <f t="shared" si="5"/>
         <v>152</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O19" s="8">
         <f t="shared" si="4"/>
         <v>0.35526315789473684</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G20" s="2">
         <v>1979</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18">
+      <c r="J20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20">
         <v>179</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L20" s="1">
         <v>44020</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M20" s="1">
         <v>44082</v>
       </c>
-      <c r="N18">
+      <c r="N20">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O20" s="8">
         <f t="shared" si="4"/>
         <v>2.8870967741935485</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G21" s="2">
         <v>1982</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19">
+      <c r="J21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21">
         <v>299</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L21" s="1">
         <v>44037</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M21" s="1">
         <v>44039</v>
       </c>
-      <c r="N19">
+      <c r="N21">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O21" s="8">
         <f t="shared" si="4"/>
         <v>149.5</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G22" s="2">
         <v>1964</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20">
+      <c r="J22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22">
         <v>336</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L22" s="1">
         <v>44032</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M22" s="1">
         <v>44034</v>
       </c>
-      <c r="N20">
+      <c r="N22">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O22" s="8">
         <f t="shared" si="4"/>
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G23" s="2">
         <v>2018</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21">
+      <c r="J23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23">
         <v>256</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L23" s="1">
         <v>44023</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M23" s="1">
         <v>44030</v>
       </c>
-      <c r="N21">
+      <c r="N23">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O23" s="8">
         <f t="shared" si="4"/>
         <v>36.571428571428569</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G24" s="2">
         <v>1965</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22">
+      <c r="J24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24">
         <v>320</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L24" s="1">
         <v>44018</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M24" s="1">
         <v>44023</v>
       </c>
-      <c r="N22">
+      <c r="N24">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O24" s="8">
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G25" s="2">
         <v>2005</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K23">
+      <c r="J25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25">
         <v>465</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L25" s="1">
         <v>44004</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M25" s="1">
         <v>44017</v>
       </c>
-      <c r="N23">
+      <c r="N25">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O25" s="8">
         <f t="shared" si="4"/>
         <v>35.769230769230766</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G26" s="2">
         <v>1930</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K24">
+      <c r="J26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26">
         <v>240</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L26" s="1">
         <v>43995</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M26" s="1">
         <v>44002</v>
       </c>
-      <c r="N24">
+      <c r="N26">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O26" s="8">
         <f t="shared" si="4"/>
         <v>34.285714285714285</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K25">
+      <c r="J27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27">
         <v>618</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L27" s="1">
         <v>43927</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M27" s="1">
         <v>44110</v>
       </c>
-      <c r="N25">
+      <c r="N27">
         <f t="shared" si="5"/>
         <v>183</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O27" s="8">
         <f t="shared" si="4"/>
         <v>3.377049180327869</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="2">
-        <v>1939</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K26">
-        <v>250</v>
-      </c>
-      <c r="L26" s="1">
-        <v>43982</v>
-      </c>
-      <c r="M26" s="1">
-        <v>43984</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="O26" s="8">
-        <f t="shared" si="4"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="2">
-        <v>2020</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27">
-        <v>336</v>
-      </c>
-      <c r="L27" s="1">
-        <v>43975</v>
-      </c>
-      <c r="M27" s="1">
-        <v>43977</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="O27" s="8">
-        <f t="shared" si="4"/>
-        <v>168</v>
-      </c>
-    </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>384</v>
@@ -3493,88 +3517,88 @@
         <v>52</v>
       </c>
       <c r="G28" s="2">
-        <v>1966</v>
+        <v>1939</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>58</v>
+        <v>339</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K28">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="L28" s="1">
-        <v>43968</v>
+        <v>43982</v>
       </c>
       <c r="M28" s="1">
-        <v>43973</v>
+        <v>43984</v>
       </c>
       <c r="N28">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O28" s="8">
         <f t="shared" si="4"/>
-        <v>56.8</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G29" s="2">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>58</v>
+        <v>348</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K29">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="L29" s="1">
-        <v>43964</v>
+        <v>43975</v>
       </c>
       <c r="M29" s="1">
-        <v>43965</v>
+        <v>43977</v>
       </c>
       <c r="N29">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O29" s="8">
         <f t="shared" si="4"/>
-        <v>320</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>384</v>
@@ -3584,420 +3608,420 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G30" s="2">
         <v>1966</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>369</v>
+        <v>58</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K30">
-        <v>126</v>
+        <v>284</v>
       </c>
       <c r="L30" s="1">
-        <v>43962</v>
+        <v>43968</v>
       </c>
       <c r="M30" s="1">
-        <v>43964</v>
+        <v>43973</v>
       </c>
       <c r="N30">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O30" s="8">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G31" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K31">
-        <v>513</v>
+        <v>320</v>
       </c>
       <c r="L31" s="1">
-        <v>43947</v>
+        <v>43964</v>
       </c>
       <c r="M31" s="1">
-        <v>43956</v>
+        <v>43965</v>
       </c>
       <c r="N31">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O31" s="8">
         <f t="shared" si="4"/>
-        <v>57</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>375</v>
+        <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>376</v>
+        <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="G32" s="2">
-        <v>2019</v>
+        <v>1966</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K32">
-        <v>646</v>
+        <v>126</v>
       </c>
       <c r="L32" s="1">
-        <v>43942</v>
+        <v>43962</v>
       </c>
       <c r="M32" s="1">
-        <v>43947</v>
+        <v>43964</v>
       </c>
       <c r="N32">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O32" s="8">
         <f t="shared" si="4"/>
-        <v>129.19999999999999</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="G33" s="2">
-        <v>1961</v>
+        <v>2017</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>369</v>
+        <v>96</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K33">
-        <v>568</v>
+        <v>513</v>
       </c>
       <c r="L33" s="1">
-        <v>43927</v>
+        <v>43947</v>
       </c>
       <c r="M33" s="1">
-        <v>43941</v>
+        <v>43956</v>
       </c>
       <c r="N33">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O33" s="8">
         <f t="shared" si="4"/>
-        <v>40.571428571428569</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>70</v>
+        <v>375</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>392</v>
+        <v>20</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G34" s="2">
-        <v>1929</v>
+        <v>2019</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K34">
-        <v>299</v>
+        <v>646</v>
       </c>
       <c r="L34" s="1">
-        <v>43919</v>
+        <v>43942</v>
       </c>
       <c r="M34" s="1">
-        <v>43926</v>
+        <v>43947</v>
       </c>
       <c r="N34">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O34" s="8">
         <f t="shared" si="4"/>
-        <v>42.714285714285715</v>
+        <v>129.19999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G35" s="2">
-        <v>1844</v>
+        <v>1961</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K35">
-        <v>1180</v>
+        <v>568</v>
       </c>
       <c r="L35" s="1">
-        <v>43839</v>
+        <v>43927</v>
       </c>
       <c r="M35" s="1">
-        <v>43884</v>
+        <v>43941</v>
       </c>
       <c r="N35">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8">
         <f t="shared" si="4"/>
-        <v>26.222222222222221</v>
+        <v>40.571428571428569</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>374</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G36" s="2">
-        <v>1979</v>
+        <v>1929</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K36">
-        <v>567</v>
+        <v>299</v>
       </c>
       <c r="L36" s="1">
-        <v>43814</v>
+        <v>43919</v>
       </c>
       <c r="M36" s="1">
-        <v>43891</v>
+        <v>43926</v>
       </c>
       <c r="N36">
         <f t="shared" si="5"/>
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="O36" s="8">
         <f t="shared" si="4"/>
-        <v>7.3636363636363633</v>
+        <v>42.714285714285715</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G37" s="2">
-        <v>2019</v>
+        <v>1844</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K37">
-        <v>408</v>
+        <v>1180</v>
       </c>
       <c r="L37" s="1">
-        <v>43834</v>
+        <v>43839</v>
       </c>
       <c r="M37" s="1">
-        <v>43836</v>
+        <v>43884</v>
       </c>
       <c r="N37">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="O37" s="8">
         <f t="shared" si="4"/>
-        <v>204</v>
+        <v>26.222222222222221</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="G38" s="2">
-        <v>1957</v>
+        <v>1979</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K38">
-        <v>170</v>
+        <v>567</v>
       </c>
       <c r="L38" s="1">
-        <v>43801</v>
+        <v>43814</v>
       </c>
       <c r="M38" s="1">
-        <v>43807</v>
+        <v>43891</v>
       </c>
       <c r="N38">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="O38" s="8">
         <f t="shared" si="4"/>
-        <v>28.333333333333332</v>
+        <v>7.3636363636363633</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>384</v>
@@ -4007,369 +4031,369 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G39" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>58</v>
+        <v>348</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K39">
-        <v>319</v>
+        <v>408</v>
       </c>
       <c r="L39" s="1">
-        <v>43799</v>
+        <v>43834</v>
       </c>
       <c r="M39" s="1">
-        <v>43800</v>
+        <v>43836</v>
       </c>
       <c r="N39">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O39" s="8">
         <f t="shared" si="4"/>
-        <v>319</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="G40" s="2">
-        <v>2018</v>
+        <v>1957</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K40">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="L40" s="1">
-        <v>43780</v>
+        <v>43801</v>
       </c>
       <c r="M40" s="1">
-        <v>43788</v>
+        <v>43807</v>
       </c>
       <c r="N40">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O40" s="8">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>28.333333333333332</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>358</v>
+        <v>85</v>
       </c>
       <c r="G41" s="2">
-        <v>1993</v>
+        <v>2018</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>369</v>
+        <v>58</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K41">
-        <v>355</v>
+        <v>319</v>
       </c>
       <c r="L41" s="1">
-        <v>43762</v>
+        <v>43799</v>
       </c>
       <c r="M41" s="1">
-        <v>43773</v>
+        <v>43800</v>
       </c>
       <c r="N41">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="O41" s="8">
         <f t="shared" si="4"/>
-        <v>32.272727272727273</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>354</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="G42" s="2">
-        <v>1818</v>
+        <v>2018</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K42">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="L42" s="1">
-        <v>43752</v>
+        <v>43780</v>
       </c>
       <c r="M42" s="1">
-        <v>43759</v>
+        <v>43788</v>
       </c>
       <c r="N42">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O42" s="8">
         <f t="shared" si="4"/>
-        <v>34.285714285714285</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>354</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>95</v>
+        <v>358</v>
       </c>
       <c r="G43" s="2">
-        <v>2018</v>
+        <v>1993</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>96</v>
+        <v>369</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K43">
-        <v>272</v>
+        <v>355</v>
       </c>
       <c r="L43" s="1">
-        <v>43743</v>
+        <v>43762</v>
       </c>
       <c r="M43" s="1">
-        <v>43749</v>
+        <v>43773</v>
       </c>
       <c r="N43">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O43" s="8">
         <f t="shared" si="4"/>
-        <v>45.333333333333336</v>
+        <v>32.272727272727273</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="G44" s="2">
-        <v>1866</v>
+        <v>1818</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K44">
-        <v>528</v>
+        <v>240</v>
       </c>
       <c r="L44" s="1">
-        <v>43715</v>
+        <v>43752</v>
       </c>
       <c r="M44" s="1">
-        <v>43741</v>
+        <v>43759</v>
       </c>
       <c r="N44">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="O44" s="8">
         <f t="shared" si="4"/>
-        <v>20.307692307692307</v>
+        <v>34.285714285714285</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>359</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G45" s="2">
-        <v>1970</v>
+        <v>2018</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K45">
-        <v>348</v>
+        <v>272</v>
       </c>
       <c r="L45" s="1">
-        <v>43697</v>
+        <v>43743</v>
       </c>
       <c r="M45" s="1">
-        <v>43708</v>
+        <v>43749</v>
       </c>
       <c r="N45">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O45" s="8">
         <f t="shared" si="4"/>
-        <v>31.636363636363637</v>
+        <v>45.333333333333336</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G46" s="2">
-        <v>1972</v>
+        <v>1866</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K46">
-        <v>416</v>
+        <v>528</v>
       </c>
       <c r="L46" s="1">
-        <v>43680</v>
+        <v>43715</v>
       </c>
       <c r="M46" s="1">
-        <v>43692</v>
+        <v>43741</v>
       </c>
       <c r="N46">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="O46" s="8">
         <f t="shared" si="4"/>
-        <v>34.666666666666664</v>
+        <v>20.307692307692307</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>104</v>
+        <v>359</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>384</v>
@@ -4379,91 +4403,91 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="G47" s="2">
-        <v>2013</v>
+        <v>1970</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>336</v>
+        <v>49</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K47">
-        <v>463</v>
+        <v>348</v>
       </c>
       <c r="L47" s="1">
-        <v>43663</v>
+        <v>43697</v>
       </c>
       <c r="M47" s="1">
-        <v>43677</v>
+        <v>43708</v>
       </c>
       <c r="N47">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O47" s="8">
         <f t="shared" si="4"/>
-        <v>33.071428571428569</v>
+        <v>31.636363636363637</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>248</v>
+        <v>103</v>
       </c>
       <c r="G48" s="2">
-        <v>1965</v>
+        <v>1972</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K48">
-        <v>256</v>
+        <v>416</v>
       </c>
       <c r="L48" s="1">
-        <v>43640</v>
+        <v>43680</v>
       </c>
       <c r="M48" s="1">
-        <v>43659</v>
+        <v>43692</v>
       </c>
       <c r="N48">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="O48" s="8">
         <f t="shared" si="4"/>
-        <v>13.473684210526315</v>
+        <v>34.666666666666664</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>384</v>
@@ -4473,185 +4497,185 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G49" s="2">
-        <v>1997</v>
+        <v>2013</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K49">
-        <v>423</v>
+        <v>463</v>
       </c>
       <c r="L49" s="1">
-        <v>43618</v>
+        <v>43663</v>
       </c>
       <c r="M49" s="1">
-        <v>43636</v>
+        <v>43677</v>
       </c>
       <c r="N49">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O49" s="8">
         <f t="shared" si="4"/>
-        <v>23.5</v>
+        <v>33.071428571428569</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>360</v>
+        <v>248</v>
       </c>
       <c r="G50" s="2">
-        <v>2018</v>
+        <v>1965</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K50">
-        <v>341</v>
+        <v>256</v>
       </c>
       <c r="L50" s="1">
-        <v>43616</v>
+        <v>43640</v>
       </c>
       <c r="M50" s="1">
-        <v>43617</v>
+        <v>43659</v>
       </c>
       <c r="N50">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="O50" s="8">
         <f t="shared" si="4"/>
-        <v>341</v>
+        <v>13.473684210526315</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G51" s="2">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K51">
-        <v>610</v>
+        <v>423</v>
       </c>
       <c r="L51" s="1">
-        <v>43596</v>
+        <v>43618</v>
       </c>
       <c r="M51" s="1">
-        <v>43606</v>
+        <v>43636</v>
       </c>
       <c r="N51">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O51" s="8">
         <f t="shared" si="4"/>
-        <v>61</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>361</v>
+        <v>109</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G52" s="2">
-        <v>1984</v>
+        <v>2018</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>49</v>
+        <v>348</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K52">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="L52" s="1">
-        <v>43589</v>
+        <v>43616</v>
       </c>
       <c r="M52" s="1">
-        <v>43594</v>
+        <v>43617</v>
       </c>
       <c r="N52">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O52" s="8">
         <f t="shared" si="4"/>
-        <v>70.400000000000006</v>
+        <v>341</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>384</v>
@@ -4661,28 +4685,28 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G53" s="2">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K53">
-        <v>288</v>
+        <v>610</v>
       </c>
       <c r="L53" s="1">
-        <v>43578</v>
+        <v>43596</v>
       </c>
       <c r="M53" s="1">
-        <v>43588</v>
+        <v>43606</v>
       </c>
       <c r="N53">
         <f t="shared" si="5"/>
@@ -4690,435 +4714,435 @@
       </c>
       <c r="O53" s="8">
         <f t="shared" si="4"/>
-        <v>28.8</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>118</v>
+        <v>361</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="G54" s="2">
-        <v>1876</v>
+        <v>1984</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>332</v>
+        <v>49</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K54">
-        <v>236</v>
+        <v>352</v>
       </c>
       <c r="L54" s="1">
-        <v>43041</v>
+        <v>43589</v>
       </c>
       <c r="M54" s="1">
-        <v>43048</v>
+        <v>43594</v>
       </c>
       <c r="N54">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O54" s="8">
         <f t="shared" si="4"/>
-        <v>33.714285714285715</v>
+        <v>70.400000000000006</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>354</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G55" s="2">
-        <v>1813</v>
+        <v>2014</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K55">
-        <v>414</v>
+        <v>288</v>
       </c>
       <c r="L55" s="1">
-        <v>42875</v>
+        <v>43578</v>
       </c>
       <c r="M55" s="1">
-        <v>42881</v>
+        <v>43588</v>
       </c>
       <c r="N55">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O55" s="8">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
-        <v>125</v>
+        <v>319</v>
       </c>
       <c r="G56" s="2">
-        <v>1869</v>
+        <v>1876</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K56">
-        <v>999</v>
+        <v>236</v>
+      </c>
+      <c r="L56" s="1">
+        <v>43041</v>
+      </c>
+      <c r="M56" s="1">
+        <v>43048</v>
       </c>
       <c r="N56">
         <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="O56" s="8">
+        <f t="shared" si="4"/>
+        <v>33.714285714285715</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G57" s="2">
+        <v>1813</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K57">
+        <v>414</v>
+      </c>
+      <c r="L57" s="1">
+        <v>42875</v>
+      </c>
+      <c r="M57" s="1">
+        <v>42881</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="O57" s="8">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G58" s="2">
+        <v>1869</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K58">
+        <v>999</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O56" s="8" t="e">
+      <c r="O58" s="8" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2" t="s">
+      <c r="E59" s="2"/>
+      <c r="F59" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G59" s="2">
         <v>1928</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="I59" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="J59" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K57">
+      <c r="K59">
         <v>323</v>
       </c>
-      <c r="L57" s="1">
+      <c r="L59" s="1">
         <v>42675</v>
       </c>
-      <c r="M57" s="1">
+      <c r="M59" s="1">
         <v>42682</v>
       </c>
-      <c r="N57">
+      <c r="N59">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="O57" s="8">
+      <c r="O59" s="8">
         <f t="shared" si="4"/>
         <v>46.142857142857146</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2" t="s">
+      <c r="E60" s="2"/>
+      <c r="F60" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G60" s="2">
         <v>1878</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="I60" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K58">
+      <c r="J60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K60">
         <v>338</v>
       </c>
-      <c r="L58" s="1">
+      <c r="L60" s="1">
         <v>43477</v>
       </c>
-      <c r="M58" s="1">
+      <c r="M60" s="1">
         <v>43485</v>
       </c>
-      <c r="N58">
+      <c r="N60">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="O58" s="8">
+      <c r="O60" s="8">
         <f t="shared" si="4"/>
         <v>42.25</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2" t="s">
+      <c r="E61" s="2"/>
+      <c r="F61" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G61" s="2">
         <v>2018</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="I61" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K59">
+      <c r="J61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K61">
         <v>755</v>
       </c>
-      <c r="L59" s="1">
+      <c r="L61" s="1">
         <v>43108</v>
       </c>
-      <c r="M59" s="1">
+      <c r="M61" s="1">
         <v>43111</v>
       </c>
-      <c r="N59">
+      <c r="N61">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="O59" s="8">
+      <c r="O61" s="8">
         <f t="shared" si="4"/>
         <v>251.66666666666666</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2" t="s">
+      <c r="E62" s="2"/>
+      <c r="F62" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G62" s="2">
         <v>1954</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="I62" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K60">
+      <c r="J62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K62">
         <v>250</v>
       </c>
-      <c r="L60" s="1">
+      <c r="L62" s="1">
         <v>43411</v>
       </c>
-      <c r="M60" s="1">
+      <c r="M62" s="1">
         <v>43423</v>
       </c>
-      <c r="N60">
+      <c r="N62">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="O60" s="8">
+      <c r="O62" s="8">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G61" s="2">
-        <v>2018</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K61">
-        <v>288</v>
-      </c>
-      <c r="L61" s="1">
-        <v>43496</v>
-      </c>
-      <c r="M61" s="1">
-        <v>43506</v>
-      </c>
-      <c r="N61">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="O61" s="8">
-        <f t="shared" si="4"/>
-        <v>28.8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G62" s="2">
-        <v>1898</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K62">
-        <v>61</v>
-      </c>
-      <c r="L62" s="1">
-        <v>43424</v>
-      </c>
-      <c r="M62" s="1">
-        <v>43425</v>
-      </c>
-      <c r="N62">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O62" s="8">
-        <f t="shared" si="4"/>
-        <v>61</v>
-      </c>
-    </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>387</v>
@@ -5128,518 +5152,518 @@
         <v>28</v>
       </c>
       <c r="G63" s="2">
-        <v>1978</v>
+        <v>2018</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>310</v>
+        <v>96</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K63">
-        <v>64</v>
+        <v>288</v>
       </c>
       <c r="L63" s="1">
-        <v>43402</v>
+        <v>43496</v>
       </c>
       <c r="M63" s="1">
-        <v>43403</v>
+        <v>43506</v>
       </c>
       <c r="N63">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O63" s="8">
         <f t="shared" si="4"/>
-        <v>64</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G64" s="2">
-        <v>2018</v>
+        <v>1898</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>96</v>
+        <v>335</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K64">
-        <v>437</v>
+        <v>61</v>
       </c>
       <c r="L64" s="1">
-        <v>43381</v>
+        <v>43424</v>
       </c>
       <c r="M64" s="1">
-        <v>43390</v>
+        <v>43425</v>
       </c>
       <c r="N64">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O64" s="8">
         <f t="shared" si="4"/>
-        <v>48.555555555555557</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="G65" s="2">
-        <v>1925</v>
+        <v>1978</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>369</v>
+        <v>310</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K65">
-        <v>859</v>
+        <v>64</v>
       </c>
       <c r="L65" s="1">
-        <v>42585</v>
+        <v>43402</v>
       </c>
       <c r="M65" s="1">
-        <v>42627</v>
+        <v>43403</v>
       </c>
       <c r="N65">
         <f t="shared" si="5"/>
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="O65" s="8">
         <f t="shared" si="4"/>
-        <v>20.452380952380953</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G66" s="2">
-        <v>1971</v>
+        <v>2018</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>344</v>
+        <v>96</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K66">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="L66" s="1">
-        <v>43518</v>
+        <v>43381</v>
       </c>
       <c r="M66" s="1">
-        <v>43542</v>
+        <v>43390</v>
       </c>
       <c r="N66">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="O66" s="8">
         <f t="shared" si="4"/>
-        <v>17.333333333333332</v>
+        <v>48.555555555555557</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>362</v>
+        <v>145</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>364</v>
+        <v>146</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>363</v>
+        <v>99</v>
       </c>
       <c r="G67" s="2">
-        <v>2015</v>
+        <v>1925</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K67">
-        <v>87</v>
+        <v>859</v>
       </c>
       <c r="L67" s="1">
-        <v>42871</v>
+        <v>42585</v>
       </c>
       <c r="M67" s="1">
-        <v>42877</v>
+        <v>42627</v>
       </c>
       <c r="N67">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="O67" s="8">
         <f t="shared" si="4"/>
-        <v>14.5</v>
+        <v>20.452380952380953</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G68" s="2">
-        <v>2015</v>
+        <v>1971</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>49</v>
+        <v>344</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K68">
-        <v>348</v>
+        <v>416</v>
       </c>
       <c r="L68" s="1">
-        <v>42947</v>
+        <v>43518</v>
       </c>
       <c r="M68" s="1">
-        <v>42949</v>
+        <v>43542</v>
       </c>
       <c r="N68">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="O68" s="8">
         <f t="shared" si="4"/>
-        <v>174</v>
+        <v>17.333333333333332</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>154</v>
+        <v>362</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>155</v>
+        <v>364</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2" t="s">
-        <v>156</v>
+        <v>363</v>
       </c>
       <c r="G69" s="2">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K69">
-        <v>270</v>
+        <v>87</v>
       </c>
       <c r="L69" s="1">
-        <v>43246</v>
+        <v>42871</v>
       </c>
       <c r="M69" s="1">
-        <v>43253</v>
+        <v>42877</v>
       </c>
       <c r="N69">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O69" s="8">
         <f t="shared" si="4"/>
-        <v>38.571428571428569</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c r="G70" s="2">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>336</v>
+        <v>49</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K70">
-        <v>148</v>
+        <v>348</v>
       </c>
       <c r="L70" s="1">
-        <v>42745</v>
+        <v>42947</v>
       </c>
       <c r="M70" s="1">
-        <v>43028</v>
+        <v>42949</v>
       </c>
       <c r="N70">
         <f t="shared" si="5"/>
-        <v>283</v>
+        <v>2</v>
       </c>
       <c r="O70" s="8">
         <f t="shared" si="4"/>
-        <v>0.52296819787985871</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G71" s="2">
-        <v>1962</v>
+        <v>2009</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K71">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="L71" s="1">
-        <v>43328</v>
+        <v>43246</v>
       </c>
       <c r="M71" s="1">
-        <v>43344</v>
+        <v>43253</v>
       </c>
       <c r="N71">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="O71" s="8">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>38.571428571428569</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C72" s="2"/>
-      <c r="D72" s="2" t="s">
-        <v>354</v>
-      </c>
+      <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="G72" s="2">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>96</v>
+        <v>336</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K72">
-        <v>352</v>
+        <v>148</v>
       </c>
       <c r="L72" s="1">
-        <v>43092</v>
+        <v>42745</v>
       </c>
       <c r="M72" s="1">
-        <v>43191</v>
+        <v>43028</v>
       </c>
       <c r="N72">
         <f t="shared" si="5"/>
-        <v>99</v>
+        <v>283</v>
       </c>
       <c r="O72" s="8">
         <f t="shared" si="4"/>
-        <v>3.5555555555555554</v>
+        <v>0.52296819787985871</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>371</v>
+        <v>158</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G73" s="2">
-        <v>1994</v>
+        <v>1962</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K73">
-        <v>316</v>
+        <v>240</v>
       </c>
       <c r="L73" s="1">
-        <v>43183</v>
+        <v>43328</v>
       </c>
       <c r="M73" s="1">
-        <v>43198</v>
+        <v>43344</v>
       </c>
       <c r="N73">
         <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="O73" s="8">
+        <f t="shared" si="4"/>
         <v>15</v>
-      </c>
-      <c r="O73" s="8">
-        <f t="shared" ref="O73:O135" si="6">K73/N73</f>
-        <v>21.066666666666666</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
         <v>354</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G74" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>331</v>
@@ -5648,324 +5672,324 @@
         <v>96</v>
       </c>
       <c r="J74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K74">
+        <v>352</v>
+      </c>
+      <c r="L74" s="1">
+        <v>43092</v>
+      </c>
+      <c r="M74" s="1">
+        <v>43191</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="O74" s="8">
+        <f t="shared" si="4"/>
+        <v>3.5555555555555554</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G75" s="2">
+        <v>1994</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J75" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K74">
+      <c r="K75">
+        <v>316</v>
+      </c>
+      <c r="L75" s="1">
+        <v>43183</v>
+      </c>
+      <c r="M75" s="1">
+        <v>43198</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="O75" s="8">
+        <f t="shared" ref="O75:O137" si="6">K75/N75</f>
+        <v>21.066666666666666</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G76" s="2">
+        <v>2016</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K76">
         <v>188</v>
       </c>
-      <c r="L74" s="1">
+      <c r="L76" s="1">
         <v>43166</v>
       </c>
-      <c r="M74" s="1">
+      <c r="M76" s="1">
         <v>43175</v>
       </c>
-      <c r="N74">
-        <f t="shared" ref="N74:N136" si="7">M74-L74</f>
-        <v>9</v>
-      </c>
-      <c r="O74" s="8">
+      <c r="N76">
+        <f t="shared" ref="N76:N138" si="7">M76-L76</f>
+        <v>9</v>
+      </c>
+      <c r="O76" s="8">
         <f t="shared" si="6"/>
         <v>20.888888888888889</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2" t="s">
+      <c r="E77" s="2"/>
+      <c r="F77" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G77" s="2">
         <v>2014</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="H77" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I75" s="2" t="s">
+      <c r="I77" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K75">
+      <c r="J77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K77">
         <v>256</v>
       </c>
-      <c r="L75" s="1">
+      <c r="L77" s="1">
         <v>43175</v>
       </c>
-      <c r="M75" s="1">
+      <c r="M77" s="1">
         <v>43177</v>
       </c>
-      <c r="N75">
+      <c r="N77">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="O75" s="8">
+      <c r="O77" s="8">
         <f t="shared" si="6"/>
         <v>128</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="s">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2" t="s">
+      <c r="E78" s="2"/>
+      <c r="F78" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G76" s="2">
+      <c r="G78" s="2">
         <v>2014</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="H78" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="I78" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="J76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K76">
+      <c r="J78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K78">
         <v>272</v>
       </c>
-      <c r="L76" s="1">
+      <c r="L78" s="1">
         <v>42977</v>
       </c>
-      <c r="M76" s="1">
+      <c r="M78" s="1">
         <v>42995</v>
       </c>
-      <c r="N76">
+      <c r="N78">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="O76" s="8">
+      <c r="O78" s="8">
         <f t="shared" si="6"/>
         <v>15.111111111111111</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2" t="s">
+      <c r="E79" s="2"/>
+      <c r="F79" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G79" s="2">
         <v>1861</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="H79" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="I79" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K77">
+      <c r="J79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K79">
         <v>460</v>
       </c>
-      <c r="L77" s="1">
+      <c r="L79" s="1">
         <v>42652</v>
       </c>
-      <c r="M77" s="1">
+      <c r="M79" s="1">
         <v>42664</v>
       </c>
-      <c r="N77">
+      <c r="N79">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="O77" s="8">
+      <c r="O79" s="8">
         <f t="shared" si="6"/>
         <v>38.333333333333336</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2" t="s">
+      <c r="E80" s="2"/>
+      <c r="F80" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G78" s="2">
+      <c r="G80" s="2">
         <v>1924</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="H80" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="I80" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K78">
+      <c r="J80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K80">
         <v>729</v>
       </c>
-      <c r="L78" s="1">
+      <c r="L80" s="1">
         <v>43049</v>
       </c>
-      <c r="M78" s="1">
+      <c r="M80" s="1">
         <v>43091</v>
       </c>
-      <c r="N78">
+      <c r="N80">
         <f t="shared" si="7"/>
         <v>42</v>
       </c>
-      <c r="O78" s="8">
+      <c r="O80" s="8">
         <f t="shared" si="6"/>
         <v>17.357142857142858</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A79" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G79" s="2">
-        <v>2015</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K79">
-        <v>224</v>
-      </c>
-      <c r="L79" s="1">
-        <v>42527</v>
-      </c>
-      <c r="M79" s="1">
-        <v>42528</v>
-      </c>
-      <c r="N79">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O79" s="8">
-        <f t="shared" si="6"/>
-        <v>224</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A80" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G80" s="2">
-        <v>1960</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K80">
-        <v>307</v>
-      </c>
-      <c r="L80" s="1">
-        <v>43227</v>
-      </c>
-      <c r="M80" s="1">
-        <v>43240</v>
-      </c>
-      <c r="N80">
-        <f t="shared" si="7"/>
-        <v>13</v>
-      </c>
-      <c r="O80" s="8">
-        <f t="shared" si="6"/>
-        <v>23.615384615384617</v>
-      </c>
-    </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>378</v>
+        <v>179</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G81" s="2">
         <v>2015</v>
@@ -5974,19 +5998,19 @@
         <v>331</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K81">
-        <v>90</v>
+        <v>224</v>
       </c>
       <c r="L81" s="1">
-        <v>42632</v>
+        <v>42527</v>
       </c>
       <c r="M81" s="1">
-        <v>42633</v>
+        <v>42528</v>
       </c>
       <c r="N81">
         <f t="shared" si="7"/>
@@ -5994,15 +6018,15 @@
       </c>
       <c r="O81" s="8">
         <f t="shared" si="6"/>
-        <v>90</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>384</v>
@@ -6012,372 +6036,380 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G82" s="2">
-        <v>2014</v>
+        <v>1960</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K82">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="L82" s="1">
-        <v>43283</v>
+        <v>43227</v>
       </c>
       <c r="M82" s="1">
-        <v>43291</v>
+        <v>43240</v>
       </c>
       <c r="N82">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O82" s="8">
         <f t="shared" si="6"/>
-        <v>35.75</v>
+        <v>23.615384615384617</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G83" s="2">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>346</v>
+        <v>49</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K83">
-        <v>386</v>
+        <v>90</v>
       </c>
       <c r="L83" s="1">
-        <v>42941</v>
+        <v>42632</v>
       </c>
       <c r="M83" s="1">
-        <v>42950</v>
+        <v>42633</v>
       </c>
       <c r="N83">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O83" s="8">
         <f t="shared" si="6"/>
-        <v>42.888888888888886</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
-        <v>28</v>
+        <v>188</v>
       </c>
       <c r="G84" s="2">
-        <v>1967</v>
+        <v>2014</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K84">
-        <v>432</v>
+        <v>286</v>
       </c>
       <c r="L84" s="1">
-        <v>42936</v>
+        <v>43283</v>
       </c>
       <c r="M84" s="1">
-        <v>42940</v>
+        <v>43291</v>
       </c>
       <c r="N84">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O84" s="8">
         <f t="shared" si="6"/>
-        <v>108</v>
+        <v>35.75</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="G85" s="2">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K85">
-        <v>276</v>
+        <v>386</v>
       </c>
       <c r="L85" s="1">
-        <v>43028</v>
+        <v>42941</v>
       </c>
       <c r="M85" s="1">
-        <v>43036</v>
+        <v>42950</v>
       </c>
       <c r="N85">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O85" s="8">
         <f t="shared" si="6"/>
-        <v>34.5</v>
+        <v>42.888888888888886</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>196</v>
+        <v>379</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G86" s="2">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K86">
-        <v>157</v>
+        <v>432</v>
       </c>
       <c r="L86" s="1">
-        <v>42639</v>
+        <v>42936</v>
       </c>
       <c r="M86" s="1">
-        <v>42640</v>
+        <v>42940</v>
       </c>
       <c r="N86">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O86" s="8">
         <f t="shared" si="6"/>
-        <v>157</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="G87" s="2">
-        <v>1959</v>
+        <v>2017</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K87">
-        <v>341</v>
+        <v>276</v>
       </c>
       <c r="L87" s="1">
-        <v>42418</v>
+        <v>43028</v>
       </c>
       <c r="M87" s="1">
-        <v>42427</v>
+        <v>43036</v>
       </c>
       <c r="N87">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O87" s="8">
         <f t="shared" si="6"/>
-        <v>37.888888888888886</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>365</v>
+        <v>195</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="G88" s="2">
-        <v>2015</v>
+        <v>1969</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K88">
-        <v>362</v>
+        <v>157</v>
       </c>
       <c r="L88" s="1">
-        <v>42531</v>
+        <v>42639</v>
       </c>
       <c r="M88" s="1">
-        <v>42540</v>
+        <v>42640</v>
       </c>
       <c r="N88">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O88" s="8">
         <f t="shared" si="6"/>
-        <v>40.222222222222221</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>366</v>
+        <v>197</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="s">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="G89" s="2">
-        <v>1751</v>
+        <v>1959</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I89" t="s">
-        <v>343</v>
+        <v>8</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K89">
-        <v>110</v>
+        <v>341</v>
       </c>
       <c r="L89" s="1">
-        <v>42729</v>
+        <v>42418</v>
       </c>
       <c r="M89" s="1">
-        <v>42732</v>
+        <v>42427</v>
       </c>
       <c r="N89">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O89" s="8">
         <f t="shared" si="6"/>
-        <v>36.666666666666664</v>
+        <v>37.888888888888886</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>203</v>
+        <v>365</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
-        <v>28</v>
+        <v>200</v>
       </c>
       <c r="G90" s="2">
-        <v>1939</v>
+        <v>2015</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I90" t="s">
+      <c r="I90" s="2" t="s">
         <v>369</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K90">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="L90" s="1">
-        <v>42541</v>
+        <v>42531</v>
       </c>
       <c r="M90" s="1">
-        <v>42550</v>
+        <v>42540</v>
       </c>
       <c r="N90">
         <f t="shared" si="7"/>
@@ -6385,42 +6417,42 @@
       </c>
       <c r="O90" s="8">
         <f t="shared" si="6"/>
-        <v>42.666666666666664</v>
+        <v>40.222222222222221</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>205</v>
+        <v>366</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
-        <v>113</v>
+        <v>202</v>
       </c>
       <c r="G91" s="2">
-        <v>2008</v>
+        <v>1751</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I91" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K91">
-        <v>305</v>
+        <v>110</v>
       </c>
       <c r="L91" s="1">
-        <v>42853</v>
+        <v>42729</v>
       </c>
       <c r="M91" s="1">
-        <v>42856</v>
+        <v>42732</v>
       </c>
       <c r="N91">
         <f t="shared" si="7"/>
@@ -6428,1486 +6460,1486 @@
       </c>
       <c r="O91" s="8">
         <f t="shared" si="6"/>
-        <v>101.66666666666667</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>367</v>
+        <v>203</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
-        <v>208</v>
+        <v>28</v>
       </c>
       <c r="G92" s="2">
-        <v>1965</v>
+        <v>1939</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I92" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K92">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="L92" s="1">
-        <v>42772</v>
+        <v>42541</v>
       </c>
       <c r="M92" s="1">
-        <v>42774</v>
+        <v>42550</v>
       </c>
       <c r="N92">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O92" s="8">
         <f t="shared" si="6"/>
-        <v>176</v>
+        <v>42.666666666666664</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2" t="s">
-        <v>210</v>
+        <v>113</v>
       </c>
       <c r="G93" s="2">
-        <v>1975</v>
+        <v>2008</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I93" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K93">
-        <v>173</v>
+        <v>305</v>
       </c>
       <c r="L93" s="1">
-        <v>43105</v>
+        <v>42853</v>
       </c>
       <c r="M93" s="1">
-        <v>43106</v>
+        <v>42856</v>
       </c>
       <c r="N93">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O93" s="8">
         <f t="shared" si="6"/>
-        <v>173</v>
+        <v>101.66666666666667</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>211</v>
+        <v>367</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
-        <v>52</v>
+        <v>208</v>
       </c>
       <c r="G94" s="2">
-        <v>1936</v>
+        <v>1965</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I94" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K94">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L94" s="1">
-        <v>42895</v>
+        <v>42772</v>
       </c>
       <c r="M94" s="1">
-        <v>42899</v>
+        <v>42774</v>
       </c>
       <c r="N94">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O94" s="8">
         <f t="shared" si="6"/>
-        <v>87</v>
+        <v>176</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="G95" s="2">
-        <v>1963</v>
+        <v>1975</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I95" t="s">
-        <v>49</v>
+        <v>338</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K95">
-        <v>312</v>
+        <v>173</v>
       </c>
       <c r="L95" s="1">
-        <v>43200</v>
+        <v>43105</v>
       </c>
       <c r="M95" s="1">
-        <v>43212</v>
+        <v>43106</v>
       </c>
       <c r="N95">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O95" s="8">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>173</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2" t="s">
-        <v>217</v>
+        <v>52</v>
       </c>
       <c r="G96" s="2">
-        <v>1928</v>
+        <v>1936</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I96" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K96">
-        <v>546</v>
+        <v>348</v>
       </c>
       <c r="L96" s="1">
-        <v>43217</v>
+        <v>42895</v>
       </c>
       <c r="M96" s="1">
-        <v>43226</v>
+        <v>42899</v>
       </c>
       <c r="N96">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O96" s="8">
         <f t="shared" si="6"/>
-        <v>60.666666666666664</v>
+        <v>87</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="G97" s="2">
-        <v>1946</v>
+        <v>1963</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I97" t="s">
-        <v>344</v>
+        <v>49</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K97">
-        <v>661</v>
+        <v>312</v>
       </c>
       <c r="L97" s="1">
-        <v>42385</v>
+        <v>43200</v>
       </c>
       <c r="M97" s="1">
-        <v>42404</v>
+        <v>43212</v>
       </c>
       <c r="N97">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="O97" s="8">
         <f t="shared" si="6"/>
-        <v>34.789473684210527</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>380</v>
+        <v>216</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G98" s="2">
-        <v>1996</v>
+        <v>1928</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I98" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K98">
-        <v>227</v>
+        <v>546</v>
       </c>
       <c r="L98" s="1">
-        <v>43163</v>
+        <v>43217</v>
       </c>
       <c r="M98" s="1">
-        <v>43165</v>
+        <v>43226</v>
       </c>
       <c r="N98">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O98" s="8">
         <f t="shared" si="6"/>
-        <v>113.5</v>
+        <v>60.666666666666664</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2" t="s">
-        <v>224</v>
+        <v>52</v>
       </c>
       <c r="G99" s="2">
-        <v>1998</v>
+        <v>1946</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I99" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K99">
-        <v>94</v>
+        <v>661</v>
       </c>
       <c r="L99" s="1">
-        <v>43121</v>
+        <v>42385</v>
       </c>
       <c r="M99" s="1">
-        <v>43121</v>
+        <v>42404</v>
       </c>
       <c r="N99">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O99" s="8" t="e">
+        <v>19</v>
+      </c>
+      <c r="O99" s="8">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>34.789473684210527</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>329</v>
+        <v>220</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>225</v>
+        <v>380</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G100" s="2">
-        <v>1987</v>
+        <v>1996</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I100" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K100">
-        <v>372</v>
+        <v>227</v>
       </c>
       <c r="L100" s="1">
-        <v>42767</v>
+        <v>43163</v>
       </c>
       <c r="M100" s="1">
-        <v>42768</v>
+        <v>43165</v>
       </c>
       <c r="N100">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O100" s="8">
         <f t="shared" si="6"/>
-        <v>372</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
-        <v>139</v>
+        <v>224</v>
       </c>
       <c r="G101" s="2">
-        <v>1967</v>
+        <v>1998</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I101" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K101">
-        <v>412</v>
+        <v>94</v>
       </c>
       <c r="L101" s="1">
-        <v>42768</v>
+        <v>43121</v>
       </c>
       <c r="M101" s="1">
-        <v>42771</v>
+        <v>43121</v>
       </c>
       <c r="N101">
         <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="O101" s="8">
+        <v>0</v>
+      </c>
+      <c r="O101" s="8" t="e">
         <f t="shared" si="6"/>
-        <v>137.33333333333334</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>229</v>
+        <v>329</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G102" s="2">
-        <v>2010</v>
+        <v>1987</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I102" t="s">
-        <v>49</v>
+        <v>349</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K102">
-        <v>941</v>
+        <v>372</v>
       </c>
       <c r="L102" s="1">
-        <v>42883</v>
+        <v>42767</v>
       </c>
       <c r="M102" s="1">
-        <v>42894</v>
+        <v>42768</v>
       </c>
       <c r="N102">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="O102" s="8">
         <f t="shared" si="6"/>
-        <v>85.545454545454547</v>
+        <v>372</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="G103" s="2">
-        <v>2017</v>
+        <v>1967</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I103" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K103">
-        <v>304</v>
+        <v>412</v>
       </c>
       <c r="L103" s="1">
-        <v>43106</v>
+        <v>42768</v>
       </c>
       <c r="M103" s="1">
-        <v>43120</v>
+        <v>42771</v>
       </c>
       <c r="N103">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="O103" s="8">
         <f t="shared" si="6"/>
-        <v>21.714285714285715</v>
+        <v>137.33333333333334</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>63</v>
+        <v>230</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="G104" s="2">
-        <v>1963</v>
+        <v>2010</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I104" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K104">
-        <v>492</v>
+        <v>941</v>
       </c>
       <c r="L104" s="1">
-        <v>43127</v>
+        <v>42883</v>
       </c>
       <c r="M104" s="1">
-        <v>43148</v>
+        <v>42894</v>
       </c>
       <c r="N104">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="O104" s="8">
         <f t="shared" si="6"/>
-        <v>23.428571428571427</v>
+        <v>85.545454545454547</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="G105" s="2">
-        <v>1949</v>
+        <v>2017</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I105" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K105">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L105" s="1">
-        <v>43149</v>
+        <v>43106</v>
       </c>
       <c r="M105" s="1">
-        <v>43155</v>
+        <v>43120</v>
       </c>
       <c r="N105">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="O105" s="8">
         <f t="shared" si="6"/>
-        <v>51.833333333333336</v>
+        <v>21.714285714285715</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>238</v>
+        <v>63</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2" t="s">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="G106" s="2">
-        <v>2015</v>
+        <v>1963</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I106" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K106">
-        <v>384</v>
+        <v>492</v>
       </c>
       <c r="L106" s="1">
-        <v>42919</v>
+        <v>43127</v>
       </c>
       <c r="M106" s="1">
-        <v>42929</v>
+        <v>43148</v>
       </c>
       <c r="N106">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="O106" s="8">
         <f t="shared" si="6"/>
-        <v>38.4</v>
+        <v>23.428571428571427</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="G107" s="2">
-        <v>1992</v>
+        <v>1949</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I107" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K107">
-        <v>256</v>
+        <v>311</v>
       </c>
       <c r="L107" s="1">
-        <v>42732</v>
+        <v>43149</v>
       </c>
       <c r="M107" s="1">
-        <v>42737</v>
+        <v>43155</v>
       </c>
       <c r="N107">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O107" s="8">
         <f t="shared" si="6"/>
-        <v>51.2</v>
+        <v>51.833333333333336</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2" t="s">
-        <v>153</v>
+        <v>239</v>
       </c>
       <c r="G108" s="2">
-        <v>1977</v>
+        <v>2015</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I108" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K108">
-        <v>256</v>
+        <v>384</v>
       </c>
       <c r="L108" s="1">
-        <v>42382</v>
+        <v>42919</v>
       </c>
       <c r="M108" s="1">
-        <v>42383</v>
+        <v>42929</v>
       </c>
       <c r="N108">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O108" s="8">
         <f t="shared" si="6"/>
-        <v>256</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G109" s="2">
-        <v>1927</v>
+        <v>1992</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I109" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K109">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="L109" s="1">
-        <v>42790</v>
+        <v>42732</v>
       </c>
       <c r="M109" s="1">
-        <v>42802</v>
+        <v>42737</v>
       </c>
       <c r="N109">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="O109" s="8">
         <f t="shared" si="6"/>
-        <v>22.666666666666668</v>
+        <v>51.2</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2" t="s">
-        <v>248</v>
+        <v>153</v>
       </c>
       <c r="G110" s="2">
-        <v>1997</v>
+        <v>1977</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I110" t="s">
-        <v>49</v>
+        <v>349</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K110">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="L110" s="1">
-        <v>42805</v>
+        <v>42382</v>
       </c>
       <c r="M110" s="1">
-        <v>42811</v>
+        <v>42383</v>
       </c>
       <c r="N110">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O110" s="8">
         <f t="shared" si="6"/>
-        <v>48.833333333333336</v>
+        <v>256</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="G111" s="2">
-        <v>2013</v>
+        <v>1927</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I111" t="s">
-        <v>96</v>
+        <v>369</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K111">
-        <v>496</v>
+        <v>272</v>
       </c>
       <c r="L111" s="1">
-        <v>42645</v>
+        <v>42790</v>
       </c>
       <c r="M111" s="1">
-        <v>42649</v>
+        <v>42802</v>
       </c>
       <c r="N111">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O111" s="8">
         <f t="shared" si="6"/>
-        <v>124</v>
+        <v>22.666666666666668</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>82</v>
+        <v>247</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2" t="s">
-        <v>52</v>
+        <v>248</v>
       </c>
       <c r="G112" s="2">
-        <v>1955</v>
+        <v>1997</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I112" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K112">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="L112" s="1">
-        <v>42823</v>
+        <v>42805</v>
       </c>
       <c r="M112" s="1">
-        <v>42827</v>
+        <v>42811</v>
       </c>
       <c r="N112">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O112" s="8">
         <f t="shared" si="6"/>
-        <v>82.75</v>
+        <v>48.833333333333336</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>381</v>
+        <v>250</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="G113" s="2">
-        <v>1991</v>
+        <v>2013</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I113" t="s">
-        <v>344</v>
+        <v>96</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K113">
-        <v>149</v>
+        <v>496</v>
       </c>
       <c r="L113" s="1">
-        <v>42665</v>
+        <v>42645</v>
       </c>
       <c r="M113" s="1">
-        <v>42668</v>
+        <v>42649</v>
       </c>
       <c r="N113">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O113" s="8">
         <f t="shared" si="6"/>
-        <v>49.666666666666664</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>254</v>
+        <v>82</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2" t="s">
-        <v>255</v>
+        <v>52</v>
       </c>
       <c r="G114" s="2">
-        <v>1942</v>
+        <v>1955</v>
       </c>
       <c r="H114" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I114" t="s">
+        <v>369</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K114">
         <v>331</v>
       </c>
-      <c r="I114" t="s">
-        <v>49</v>
-      </c>
-      <c r="J114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K114">
-        <v>495</v>
-      </c>
       <c r="L114" s="1">
-        <v>42711</v>
+        <v>42823</v>
       </c>
       <c r="M114" s="1">
-        <v>42727</v>
+        <v>42827</v>
       </c>
       <c r="N114">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O114" s="8">
         <f t="shared" si="6"/>
-        <v>30.9375</v>
+        <v>82.75</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>257</v>
+        <v>381</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2" t="s">
-        <v>191</v>
+        <v>30</v>
       </c>
       <c r="G115" s="2">
-        <v>2010</v>
+        <v>1991</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I115" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K115">
-        <v>446</v>
+        <v>149</v>
       </c>
       <c r="L115" s="1">
-        <v>42776</v>
+        <v>42665</v>
       </c>
       <c r="M115" s="1">
-        <v>42785</v>
+        <v>42668</v>
       </c>
       <c r="N115">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O115" s="8">
         <f t="shared" si="6"/>
-        <v>49.555555555555557</v>
+        <v>49.666666666666664</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="G116" s="2">
-        <v>1992</v>
+        <v>1942</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I116" t="s">
-        <v>339</v>
+        <v>49</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K116">
-        <v>224</v>
+        <v>495</v>
       </c>
       <c r="L116" s="1">
-        <v>42249</v>
+        <v>42711</v>
       </c>
       <c r="M116" s="1">
-        <v>42250</v>
+        <v>42727</v>
       </c>
       <c r="N116">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="O116" s="8">
         <f t="shared" si="6"/>
-        <v>224</v>
+        <v>30.9375</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="G117" s="2">
-        <v>1934</v>
+        <v>2010</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I117" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K117">
-        <v>251</v>
+        <v>446</v>
       </c>
       <c r="L117" s="1">
-        <v>43294</v>
+        <v>42776</v>
       </c>
       <c r="M117" s="1">
-        <v>43307</v>
+        <v>42785</v>
       </c>
       <c r="N117">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O117" s="8">
         <f t="shared" si="6"/>
-        <v>19.307692307692307</v>
+        <v>49.555555555555557</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G118" s="2">
-        <v>1951</v>
+        <v>1992</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I118" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K118">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="L118" s="1">
-        <v>42518</v>
+        <v>42249</v>
       </c>
       <c r="M118" s="1">
-        <v>42522</v>
+        <v>42250</v>
       </c>
       <c r="N118">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O118" s="8">
         <f t="shared" si="6"/>
-        <v>48</v>
+        <v>224</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>370</v>
+        <v>260</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2" t="s">
-        <v>319</v>
+        <v>12</v>
       </c>
       <c r="G119" s="2">
-        <v>2013</v>
+        <v>1934</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I119" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K119">
-        <v>329</v>
+        <v>251</v>
       </c>
       <c r="L119" s="1">
-        <v>42512</v>
+        <v>43294</v>
       </c>
       <c r="M119" s="1">
-        <v>42514</v>
+        <v>43307</v>
       </c>
       <c r="N119">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O119" s="8">
         <f t="shared" si="6"/>
-        <v>164.5</v>
+        <v>19.307692307692307</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>65</v>
+        <v>263</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G120" s="2">
-        <v>2011</v>
+        <v>1951</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I120" t="s">
-        <v>96</v>
+        <v>369</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K120">
-        <v>498</v>
+        <v>192</v>
       </c>
       <c r="L120" s="1">
-        <v>43308</v>
+        <v>42518</v>
       </c>
       <c r="M120" s="1">
-        <v>43322</v>
+        <v>42522</v>
       </c>
       <c r="N120">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="O120" s="8">
         <f t="shared" si="6"/>
-        <v>35.571428571428569</v>
+        <v>48</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>266</v>
+        <v>370</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2" t="s">
-        <v>268</v>
+        <v>319</v>
       </c>
       <c r="G121" s="2">
-        <v>1971</v>
+        <v>2013</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I121" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K121">
-        <v>160</v>
+        <v>329</v>
       </c>
       <c r="L121" s="1">
-        <v>42643</v>
+        <v>42512</v>
       </c>
       <c r="M121" s="1">
-        <v>42644</v>
+        <v>42514</v>
       </c>
       <c r="N121">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O121" s="8">
         <f t="shared" si="6"/>
-        <v>160</v>
+        <v>164.5</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>270</v>
+        <v>65</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2" t="s">
-        <v>271</v>
+        <v>30</v>
       </c>
       <c r="G122" s="2">
-        <v>2000</v>
+        <v>2011</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I122" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K122">
-        <v>176</v>
+        <v>498</v>
       </c>
       <c r="L122" s="1">
-        <v>42628</v>
+        <v>43308</v>
       </c>
       <c r="M122" s="1">
-        <v>42632</v>
+        <v>43322</v>
       </c>
       <c r="N122">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="O122" s="8">
         <f t="shared" si="6"/>
-        <v>44</v>
+        <v>35.571428571428569</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G123" s="2">
-        <v>2000</v>
+        <v>1971</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I123" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K123">
-        <v>639</v>
+        <v>160</v>
       </c>
       <c r="L123" s="1">
-        <v>42683</v>
+        <v>42643</v>
       </c>
       <c r="M123" s="1">
-        <v>42695</v>
+        <v>42644</v>
       </c>
       <c r="N123">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O123" s="8">
         <f t="shared" si="6"/>
-        <v>53.25</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="G124" s="2">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I124" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K124">
-        <v>563</v>
+        <v>176</v>
       </c>
       <c r="L124" s="1">
-        <v>42830</v>
+        <v>42628</v>
       </c>
       <c r="M124" s="1">
-        <v>42846</v>
+        <v>42632</v>
       </c>
       <c r="N124">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O124" s="8">
         <f t="shared" si="6"/>
-        <v>35.1875</v>
+        <v>44</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G125" s="2">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I125" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K125">
-        <v>304</v>
+        <v>639</v>
       </c>
       <c r="L125" s="1">
-        <v>42848</v>
+        <v>42683</v>
       </c>
       <c r="M125" s="1">
-        <v>42852</v>
+        <v>42695</v>
       </c>
       <c r="N125">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O125" s="8">
         <f t="shared" si="6"/>
-        <v>76</v>
+        <v>53.25</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2" t="s">
-        <v>28</v>
+        <v>319</v>
       </c>
       <c r="G126" s="2">
-        <v>1994</v>
+        <v>2015</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>8</v>
@@ -7919,56 +7951,56 @@
         <v>9</v>
       </c>
       <c r="K126">
-        <v>480</v>
+        <v>563</v>
       </c>
       <c r="L126" s="1">
-        <v>42358</v>
+        <v>42830</v>
       </c>
       <c r="M126" s="1">
-        <v>42377</v>
+        <v>42846</v>
       </c>
       <c r="N126">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O126" s="8">
         <f t="shared" si="6"/>
-        <v>25.263157894736842</v>
+        <v>35.1875</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2" t="s">
-        <v>28</v>
+        <v>279</v>
       </c>
       <c r="G127" s="2">
-        <v>1962</v>
+        <v>2015</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I127" t="s">
-        <v>49</v>
+        <v>343</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K127">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="L127" s="1">
-        <v>42696</v>
+        <v>42848</v>
       </c>
       <c r="M127" s="1">
-        <v>42700</v>
+        <v>42852</v>
       </c>
       <c r="N127">
         <f t="shared" si="7"/>
@@ -7976,153 +8008,153 @@
       </c>
       <c r="O127" s="8">
         <f t="shared" si="6"/>
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2" t="s">
-        <v>286</v>
+        <v>28</v>
       </c>
       <c r="G128" s="2">
-        <v>1929</v>
+        <v>1994</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I128" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K128">
-        <v>348</v>
+        <v>480</v>
       </c>
       <c r="L128" s="1">
-        <v>42860</v>
+        <v>42358</v>
       </c>
       <c r="M128" s="1">
-        <v>42869</v>
+        <v>42377</v>
       </c>
       <c r="N128">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="O128" s="8">
         <f t="shared" si="6"/>
-        <v>38.666666666666664</v>
+        <v>25.263157894736842</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2" t="s">
-        <v>289</v>
+        <v>28</v>
       </c>
       <c r="G129" s="2">
-        <v>1897</v>
+        <v>1962</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I129" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K129">
-        <v>496</v>
+        <v>256</v>
       </c>
       <c r="L129" s="1">
-        <v>42952</v>
+        <v>42696</v>
       </c>
       <c r="M129" s="1">
-        <v>42962</v>
+        <v>42700</v>
       </c>
       <c r="N129">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O129" s="8">
         <f t="shared" si="6"/>
-        <v>49.6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2" t="s">
-        <v>168</v>
+        <v>286</v>
       </c>
       <c r="G130" s="2">
-        <v>2016</v>
+        <v>1929</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I130" t="s">
-        <v>336</v>
+        <v>49</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K130">
-        <v>302</v>
+        <v>348</v>
       </c>
       <c r="L130" s="1">
-        <v>43179</v>
+        <v>42860</v>
       </c>
       <c r="M130" s="1">
-        <v>43183</v>
+        <v>42869</v>
       </c>
       <c r="N130">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O130" s="8">
         <f t="shared" si="6"/>
-        <v>75.5</v>
+        <v>38.666666666666664</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="G131" s="2">
-        <v>1886</v>
+        <v>1897</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>8</v>
@@ -8134,38 +8166,38 @@
         <v>9</v>
       </c>
       <c r="K131">
-        <v>110</v>
+        <v>496</v>
       </c>
       <c r="L131" s="1">
-        <v>43430</v>
+        <v>42952</v>
       </c>
       <c r="M131" s="1">
-        <v>43434</v>
+        <v>42962</v>
       </c>
       <c r="N131">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O131" s="8">
         <f t="shared" si="6"/>
-        <v>27.5</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2" t="s">
-        <v>296</v>
+        <v>168</v>
       </c>
       <c r="G132" s="2">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>331</v>
@@ -8174,16 +8206,16 @@
         <v>336</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K132">
-        <v>256</v>
+        <v>302</v>
       </c>
       <c r="L132" s="1">
-        <v>43449</v>
+        <v>43179</v>
       </c>
       <c r="M132" s="1">
-        <v>43453</v>
+        <v>43183</v>
       </c>
       <c r="N132">
         <f t="shared" si="7"/>
@@ -8191,153 +8223,153 @@
       </c>
       <c r="O132" s="8">
         <f t="shared" si="6"/>
-        <v>64</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2" t="s">
-        <v>319</v>
+        <v>248</v>
       </c>
       <c r="G133" s="2">
-        <v>1972</v>
+        <v>1886</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I133" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K133">
-        <v>506</v>
+        <v>110</v>
       </c>
       <c r="L133" s="1">
-        <v>43436</v>
+        <v>43430</v>
       </c>
       <c r="M133" s="1">
-        <v>43446</v>
+        <v>43434</v>
       </c>
       <c r="N133">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O133" s="8">
         <f t="shared" si="6"/>
-        <v>50.6</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G134" s="2">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I134" t="s">
-        <v>49</v>
+        <v>336</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K134">
-        <v>941</v>
+        <v>256</v>
       </c>
       <c r="L134" s="1">
-        <v>42737</v>
+        <v>43449</v>
       </c>
       <c r="M134" s="1">
-        <v>42767</v>
+        <v>43453</v>
       </c>
       <c r="N134">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="O134" s="8">
         <f t="shared" si="6"/>
-        <v>31.366666666666667</v>
+        <v>64</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>382</v>
+        <v>298</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="G135" s="2">
-        <v>1959</v>
+        <v>1972</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I135" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K135">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="L135" s="1">
-        <v>42567</v>
+        <v>43436</v>
       </c>
       <c r="M135" s="1">
-        <v>42578</v>
+        <v>43446</v>
       </c>
       <c r="N135">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O135" s="8">
         <f t="shared" si="6"/>
-        <v>52.909090909090907</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2" t="s">
-        <v>156</v>
+        <v>301</v>
       </c>
       <c r="G136" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>331</v>
@@ -8349,121 +8381,121 @@
         <v>9</v>
       </c>
       <c r="K136">
-        <v>862</v>
+        <v>941</v>
       </c>
       <c r="L136" s="1">
-        <v>42445</v>
+        <v>42737</v>
       </c>
       <c r="M136" s="1">
-        <v>42484</v>
+        <v>42767</v>
       </c>
       <c r="N136">
         <f t="shared" si="7"/>
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="O136" s="8">
-        <f t="shared" ref="O136:O143" si="8">K136/N136</f>
-        <v>22.102564102564102</v>
+        <f t="shared" si="6"/>
+        <v>31.366666666666667</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>307</v>
+        <v>382</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G137" s="2">
-        <v>2016</v>
+        <v>1959</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I137" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K137">
-        <v>488</v>
+        <v>582</v>
       </c>
       <c r="L137" s="1">
-        <v>42431</v>
+        <v>42567</v>
       </c>
       <c r="M137" s="1">
-        <v>42445</v>
+        <v>42578</v>
       </c>
       <c r="N137">
-        <f t="shared" ref="N137:N143" si="9">M137-L137</f>
-        <v>14</v>
+        <f t="shared" si="7"/>
+        <v>11</v>
       </c>
       <c r="O137" s="8">
-        <f t="shared" si="8"/>
-        <v>34.857142857142854</v>
+        <f t="shared" si="6"/>
+        <v>52.909090909090907</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>150</v>
+        <v>305</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G138" s="2">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I138" t="s">
-        <v>310</v>
+        <v>49</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K138">
-        <v>352</v>
+        <v>862</v>
       </c>
       <c r="L138" s="1">
-        <v>42899</v>
+        <v>42445</v>
       </c>
       <c r="M138" s="1">
-        <v>42918</v>
+        <v>42484</v>
       </c>
       <c r="N138">
-        <f t="shared" si="9"/>
-        <v>19</v>
+        <f t="shared" si="7"/>
+        <v>39</v>
       </c>
       <c r="O138" s="8">
-        <f t="shared" si="8"/>
-        <v>18.526315789473685</v>
+        <f t="shared" ref="O138:O145" si="8">K138/N138</f>
+        <v>22.102564102564102</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="G139" s="2">
         <v>2016</v>
@@ -8472,203 +8504,289 @@
         <v>331</v>
       </c>
       <c r="I139" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K139">
-        <v>255</v>
+        <v>488</v>
       </c>
       <c r="L139" s="1">
-        <v>43405</v>
+        <v>42431</v>
       </c>
       <c r="M139" s="1">
-        <v>43411</v>
+        <v>42445</v>
       </c>
       <c r="N139">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f t="shared" ref="N139:N145" si="9">M139-L139</f>
+        <v>14</v>
       </c>
       <c r="O139" s="8">
         <f t="shared" si="8"/>
-        <v>42.5</v>
+        <v>34.857142857142854</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>314</v>
+        <v>150</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="G140" s="2">
-        <v>1985</v>
+        <v>2010</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I140" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K140">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="L140" s="1">
-        <v>43509</v>
+        <v>42899</v>
       </c>
       <c r="M140" s="1">
-        <v>43516</v>
+        <v>42918</v>
       </c>
       <c r="N140">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="O140" s="8">
         <f t="shared" si="8"/>
-        <v>46.285714285714285</v>
+        <v>18.526315789473685</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="G141" s="2">
-        <v>1854</v>
+        <v>2016</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I141" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K141">
-        <v>360</v>
+        <v>255</v>
       </c>
       <c r="L141" s="1">
-        <v>43369</v>
+        <v>43405</v>
       </c>
       <c r="M141" s="1">
-        <v>43381</v>
+        <v>43411</v>
       </c>
       <c r="N141">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O141" s="8">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>368</v>
+        <v>313</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>377</v>
+        <v>314</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2" t="s">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="G142" s="2">
-        <v>1963</v>
+        <v>1985</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I142" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K142">
-        <v>257</v>
+        <v>324</v>
       </c>
       <c r="L142" s="1">
-        <v>43427</v>
+        <v>43509</v>
       </c>
       <c r="M142" s="1">
-        <v>43429</v>
+        <v>43516</v>
       </c>
       <c r="N142">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O142" s="8">
         <f t="shared" si="8"/>
-        <v>128.5</v>
+        <v>46.285714285714285</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2" t="s">
-        <v>61</v>
+        <v>286</v>
       </c>
       <c r="G143" s="2">
-        <v>1979</v>
+        <v>1854</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I143" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K143">
-        <v>592</v>
+        <v>360</v>
       </c>
       <c r="L143" s="1">
-        <v>43543</v>
+        <v>43369</v>
       </c>
       <c r="M143" s="1">
-        <v>43576</v>
+        <v>43381</v>
       </c>
       <c r="N143">
         <f t="shared" si="9"/>
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="O143" s="8">
         <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A144" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G144" s="2">
+        <v>1963</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I144" t="s">
+        <v>337</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K144">
+        <v>257</v>
+      </c>
+      <c r="L144" s="1">
+        <v>43427</v>
+      </c>
+      <c r="M144" s="1">
+        <v>43429</v>
+      </c>
+      <c r="N144">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="O144" s="8">
+        <f t="shared" si="8"/>
+        <v>128.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A145" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G145" s="2">
+        <v>1979</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I145" t="s">
+        <v>347</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K145">
+        <v>592</v>
+      </c>
+      <c r="L145" s="1">
+        <v>43543</v>
+      </c>
+      <c r="M145" s="1">
+        <v>43576</v>
+      </c>
+      <c r="N145">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="O145" s="8">
+        <f t="shared" si="8"/>
         <v>17.939393939393938</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N143" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N145" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/b2.xlsx
+++ b/b2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A27FC9-30D5-46D9-B15A-40D23F080B35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EF4366-1CD7-4D20-8013-C3603D5CBC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18340" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="clean" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">clean!$A$1:$N$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">clean!$A$1:$N$147</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="429">
   <si>
     <t>Title</t>
   </si>
@@ -1317,6 +1317,18 @@
   </si>
   <si>
     <t>Duras, Marguerite</t>
+  </si>
+  <si>
+    <t>Herzog</t>
+  </si>
+  <si>
+    <t>Liftoff: Elon Musk and the Desperate Early Days That Launched SpaceX</t>
+  </si>
+  <si>
+    <t>Berger, Eric</t>
+  </si>
+  <si>
+    <t>HarperCollins</t>
   </si>
 </sst>
 </file>
@@ -2188,13 +2200,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O145"/>
+  <dimension ref="A1:O147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2:H2"/>
+      <selection pane="bottomRight" activeCell="O3" sqref="O2:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2261,59 +2273,59 @@
     </row>
     <row r="2" spans="1:15" s="7" customFormat="1" ht="19" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="G2" s="11">
-        <v>1984</v>
+        <v>2021</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K2" s="2">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="L2" s="1">
-        <v>44303</v>
+        <v>44333</v>
       </c>
       <c r="M2" s="1">
-        <v>44305</v>
+        <v>44340</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N6" si="0">M2-L2</f>
-        <v>2</v>
+        <f t="shared" ref="N2:N8" si="0">M2-L2</f>
+        <v>7</v>
       </c>
       <c r="O2" s="8">
-        <f t="shared" ref="O2:O6" si="1">K2/N2</f>
-        <v>71</v>
+        <f t="shared" ref="O2:O8" si="1">K2/N2</f>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>420</v>
+        <v>198</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>384</v>
@@ -2322,96 +2334,96 @@
         <v>387</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>421</v>
+        <v>113</v>
       </c>
       <c r="G3" s="11">
-        <v>2019</v>
+        <v>1964</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>96</v>
+        <v>369</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K3" s="2">
-        <v>264</v>
+        <v>400</v>
       </c>
       <c r="L3" s="1">
-        <v>44296</v>
+        <v>44307</v>
       </c>
       <c r="M3" s="1">
-        <v>44302</v>
+        <v>44329</v>
       </c>
       <c r="N3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="O3" s="8">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>18.181818181818183</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1971</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="F4" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="G4" s="11">
+        <v>1984</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K4" s="2">
-        <v>692</v>
+        <v>142</v>
       </c>
       <c r="L4" s="1">
-        <v>44280</v>
+        <v>44303</v>
       </c>
       <c r="M4" s="1">
-        <v>44291</v>
+        <v>44305</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="O4" s="8">
         <f t="shared" si="1"/>
-        <v>62.909090909090907</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>384</v>
@@ -2420,31 +2432,31 @@
         <v>387</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2011</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>8</v>
+        <v>402</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="G5" s="11">
+        <v>2019</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>331</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>332</v>
+        <v>96</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K5" s="2">
-        <v>369</v>
+        <v>264</v>
       </c>
       <c r="L5" s="1">
-        <v>44240</v>
+        <v>44296</v>
       </c>
       <c r="M5" s="1">
-        <v>44246</v>
+        <v>44302</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
@@ -2452,15 +2464,15 @@
       </c>
       <c r="O5" s="8">
         <f t="shared" si="1"/>
-        <v>61.5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -2469,16 +2481,16 @@
         <v>387</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>412</v>
+        <v>406</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>418</v>
       </c>
       <c r="G6" s="2">
-        <v>2018</v>
+        <v>1971</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>49</v>
@@ -2487,369 +2499,373 @@
         <v>20</v>
       </c>
       <c r="K6" s="2">
-        <v>401</v>
+        <v>692</v>
       </c>
       <c r="L6" s="1">
-        <v>44227</v>
+        <v>44280</v>
       </c>
       <c r="M6" s="1">
-        <v>44240</v>
+        <v>44291</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O6" s="8">
         <f t="shared" si="1"/>
-        <v>30.846153846153847</v>
+        <v>62.909090909090907</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>387</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>231</v>
+        <v>415</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="G7" s="2">
-        <v>1958</v>
+        <v>2011</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K7" s="2">
-        <v>262</v>
+        <v>369</v>
       </c>
       <c r="L7" s="1">
-        <v>44212</v>
+        <v>44240</v>
       </c>
       <c r="M7" s="1">
-        <v>44223</v>
+        <v>44246</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="N7:N9" si="2">M7-L7</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="O7" s="8">
-        <f t="shared" ref="O7:O9" si="3">K7/N7</f>
-        <v>23.818181818181817</v>
+        <f t="shared" si="1"/>
+        <v>61.5</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>383</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="G8" s="2">
-        <v>1934</v>
+        <v>2018</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>339</v>
+        <v>49</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K8" s="2">
+        <v>401</v>
+      </c>
+      <c r="L8" s="1">
+        <v>44227</v>
+      </c>
+      <c r="M8" s="1">
+        <v>44240</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O8" s="8">
+        <f t="shared" si="1"/>
+        <v>30.846153846153847</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1958</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="2">
+        <v>262</v>
+      </c>
+      <c r="L9" s="1">
+        <v>44212</v>
+      </c>
+      <c r="M9" s="1">
+        <v>44223</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N9:N11" si="2">M9-L9</f>
+        <v>11</v>
+      </c>
+      <c r="O9" s="8">
+        <f t="shared" ref="O9:O11" si="3">K9/N9</f>
+        <v>23.818181818181817</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1934</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="2">
         <v>217</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L10" s="1">
         <v>44207</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M10" s="1">
         <v>44212</v>
       </c>
-      <c r="N8">
+      <c r="N10">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O10" s="8">
         <f t="shared" si="3"/>
         <v>43.4</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
+    <row r="11" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G11" s="2">
         <v>2013</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K11" s="2">
         <v>533</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L11" s="1">
         <v>44193</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M11" s="1">
         <v>44195</v>
       </c>
-      <c r="N9">
+      <c r="N11">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O11" s="8">
         <f t="shared" si="3"/>
         <v>266.5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
+    <row r="12" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G12" s="2">
         <v>2020</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="2">
+      <c r="J12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="2">
         <v>278</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L12" s="1">
         <v>44178</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M12" s="1">
         <v>44193</v>
       </c>
-      <c r="N10">
-        <f>M10-L10</f>
+      <c r="N12">
+        <f>M12-L12</f>
         <v>15</v>
       </c>
-      <c r="O10" s="8">
-        <f>K10/N10</f>
+      <c r="O12" s="8">
+        <f>K12/N12</f>
         <v>18.533333333333335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="2">
-        <v>2006</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" t="s">
-        <v>330</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11">
-        <v>420</v>
-      </c>
-      <c r="L11" s="1">
-        <v>44163</v>
-      </c>
-      <c r="M11" s="1">
-        <v>44165</v>
-      </c>
-      <c r="N11">
-        <f>M11-L11</f>
-        <v>2</v>
-      </c>
-      <c r="O11" s="8">
-        <f t="shared" ref="O11:O74" si="4">K11/N11</f>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1983</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" t="s">
-        <v>369</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12">
-        <v>291</v>
-      </c>
-      <c r="L12" s="1">
-        <v>44156</v>
-      </c>
-      <c r="M12" s="1">
-        <v>44163</v>
-      </c>
-      <c r="N12">
-        <f t="shared" ref="N12:N75" si="5">M12-L12</f>
-        <v>7</v>
-      </c>
-      <c r="O12" s="8">
-        <f t="shared" si="4"/>
-        <v>41.571428571428569</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G13" s="2">
-        <v>2017</v>
-      </c>
-      <c r="H13" t="s">
-        <v>331</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>336</v>
+        <v>2006</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>330</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K13">
-        <v>176</v>
+        <v>420</v>
       </c>
       <c r="L13" s="1">
-        <v>44150</v>
+        <v>44163</v>
       </c>
       <c r="M13" s="1">
-        <v>44155</v>
+        <v>44165</v>
       </c>
       <c r="N13">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f>M13-L13</f>
+        <v>2</v>
       </c>
       <c r="O13" s="8">
-        <f t="shared" si="4"/>
-        <v>35.200000000000003</v>
+        <f t="shared" ref="O13:O76" si="4">K13/N13</f>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>387</v>
@@ -2859,91 +2875,91 @@
         <v>12</v>
       </c>
       <c r="G14" s="2">
-        <v>1980</v>
+        <v>1983</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>342</v>
+      <c r="I14" t="s">
+        <v>369</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K14">
-        <v>502</v>
+        <v>291</v>
       </c>
       <c r="L14" s="1">
-        <v>44129</v>
+        <v>44156</v>
       </c>
       <c r="M14" s="1">
-        <v>44142</v>
+        <v>44163</v>
       </c>
       <c r="N14">
-        <f>M14-L14</f>
-        <v>13</v>
+        <f t="shared" ref="N14:N77" si="5">M14-L14</f>
+        <v>7</v>
       </c>
       <c r="O14" s="8">
         <f t="shared" si="4"/>
-        <v>38.615384615384613</v>
+        <v>41.571428571428569</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>385</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>20</v>
+        <v>388</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G15" s="2">
-        <v>1938</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>8</v>
+        <v>2017</v>
+      </c>
+      <c r="H15" t="s">
+        <v>331</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K15">
-        <v>247</v>
+        <v>176</v>
       </c>
       <c r="L15" s="1">
-        <v>44114</v>
+        <v>44150</v>
       </c>
       <c r="M15" s="1">
-        <v>44129</v>
+        <v>44155</v>
       </c>
       <c r="N15">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="O15" s="8">
         <f t="shared" si="4"/>
-        <v>16.466666666666665</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>387</v>
@@ -2953,652 +2969,652 @@
         <v>12</v>
       </c>
       <c r="G16" s="2">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16">
+        <v>502</v>
+      </c>
+      <c r="L16" s="1">
+        <v>44129</v>
+      </c>
+      <c r="M16" s="1">
+        <v>44142</v>
+      </c>
+      <c r="N16">
+        <f>M16-L16</f>
+        <v>13</v>
+      </c>
+      <c r="O16" s="8">
+        <f t="shared" si="4"/>
+        <v>38.615384615384613</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1938</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17">
+        <v>247</v>
+      </c>
+      <c r="L17" s="1">
+        <v>44114</v>
+      </c>
+      <c r="M17" s="1">
+        <v>44129</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="O17" s="8">
+        <f t="shared" si="4"/>
+        <v>16.466666666666665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1981</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16">
+      <c r="J18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18">
         <v>225</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L18" s="1">
         <v>43931</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M18" s="1">
         <v>44053</v>
       </c>
-      <c r="N16">
+      <c r="N18">
         <f t="shared" si="5"/>
         <v>122</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O18" s="8">
         <f t="shared" si="4"/>
         <v>1.8442622950819672</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G19" s="2">
         <v>1865</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K17">
+      <c r="K19">
         <v>826</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L19" s="1">
         <v>43930</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M19" s="1">
         <v>44021</v>
       </c>
-      <c r="N17">
+      <c r="N19">
         <f t="shared" si="5"/>
         <v>91</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O19" s="8">
         <f t="shared" si="4"/>
         <v>9.0769230769230766</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G20" s="2">
         <v>1988</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18">
+      <c r="J20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20">
         <v>368</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L20" s="1">
         <v>44052</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M20" s="1">
         <v>44077</v>
       </c>
-      <c r="N18">
+      <c r="N20">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O20" s="8">
         <f t="shared" si="4"/>
         <v>14.72</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G21" s="2">
         <v>1951</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19">
+      <c r="J21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21">
         <v>54</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L21" s="1">
         <v>43838</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M21" s="1">
         <v>43990</v>
       </c>
-      <c r="N19">
+      <c r="N21">
         <f t="shared" si="5"/>
         <v>152</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O21" s="8">
         <f t="shared" si="4"/>
         <v>0.35526315789473684</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G22" s="2">
         <v>1979</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20">
+      <c r="J22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22">
         <v>179</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L22" s="1">
         <v>44020</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M22" s="1">
         <v>44082</v>
       </c>
-      <c r="N20">
+      <c r="N22">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O22" s="8">
         <f t="shared" si="4"/>
         <v>2.8870967741935485</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G23" s="2">
         <v>1982</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21">
+      <c r="J23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23">
         <v>299</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L23" s="1">
         <v>44037</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M23" s="1">
         <v>44039</v>
       </c>
-      <c r="N21">
+      <c r="N23">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O23" s="8">
         <f t="shared" si="4"/>
         <v>149.5</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G24" s="2">
         <v>1964</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22">
+      <c r="J24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24">
         <v>336</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L24" s="1">
         <v>44032</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M24" s="1">
         <v>44034</v>
       </c>
-      <c r="N22">
+      <c r="N24">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O24" s="8">
         <f t="shared" si="4"/>
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G25" s="2">
         <v>2018</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K23">
+      <c r="J25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25">
         <v>256</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L25" s="1">
         <v>44023</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M25" s="1">
         <v>44030</v>
       </c>
-      <c r="N23">
+      <c r="N25">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O25" s="8">
         <f t="shared" si="4"/>
         <v>36.571428571428569</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G26" s="2">
         <v>1965</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K24">
+      <c r="J26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26">
         <v>320</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L26" s="1">
         <v>44018</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M26" s="1">
         <v>44023</v>
       </c>
-      <c r="N24">
+      <c r="N26">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O26" s="8">
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G27" s="2">
         <v>2005</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K25">
+      <c r="J27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27">
         <v>465</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L27" s="1">
         <v>44004</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M27" s="1">
         <v>44017</v>
       </c>
-      <c r="N25">
+      <c r="N27">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O27" s="8">
         <f t="shared" si="4"/>
         <v>35.769230769230766</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G28" s="2">
         <v>1930</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K26">
+      <c r="J28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28">
         <v>240</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L28" s="1">
         <v>43995</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M28" s="1">
         <v>44002</v>
       </c>
-      <c r="N26">
+      <c r="N28">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="O26" s="8">
+      <c r="O28" s="8">
         <f t="shared" si="4"/>
         <v>34.285714285714285</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27">
+      <c r="J29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29">
         <v>618</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L29" s="1">
         <v>43927</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M29" s="1">
         <v>44110</v>
       </c>
-      <c r="N27">
+      <c r="N29">
         <f t="shared" si="5"/>
         <v>183</v>
       </c>
-      <c r="O27" s="8">
+      <c r="O29" s="8">
         <f t="shared" si="4"/>
         <v>3.377049180327869</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="2">
-        <v>1939</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K28">
-        <v>250</v>
-      </c>
-      <c r="L28" s="1">
-        <v>43982</v>
-      </c>
-      <c r="M28" s="1">
-        <v>43984</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="O28" s="8">
-        <f t="shared" si="4"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="2">
-        <v>2020</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K29">
-        <v>336</v>
-      </c>
-      <c r="L29" s="1">
-        <v>43975</v>
-      </c>
-      <c r="M29" s="1">
-        <v>43977</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="O29" s="8">
-        <f t="shared" si="4"/>
-        <v>168</v>
-      </c>
-    </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>384</v>
@@ -3611,88 +3627,88 @@
         <v>52</v>
       </c>
       <c r="G30" s="2">
-        <v>1966</v>
+        <v>1939</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>58</v>
+        <v>339</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K30">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="L30" s="1">
-        <v>43968</v>
+        <v>43982</v>
       </c>
       <c r="M30" s="1">
-        <v>43973</v>
+        <v>43984</v>
       </c>
       <c r="N30">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O30" s="8">
         <f t="shared" si="4"/>
-        <v>56.8</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G31" s="2">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>58</v>
+        <v>348</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K31">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="L31" s="1">
-        <v>43964</v>
+        <v>43975</v>
       </c>
       <c r="M31" s="1">
-        <v>43965</v>
+        <v>43977</v>
       </c>
       <c r="N31">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O31" s="8">
         <f t="shared" si="4"/>
-        <v>320</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>384</v>
@@ -3702,420 +3718,420 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G32" s="2">
         <v>1966</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>369</v>
+        <v>58</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K32">
-        <v>126</v>
+        <v>284</v>
       </c>
       <c r="L32" s="1">
-        <v>43962</v>
+        <v>43968</v>
       </c>
       <c r="M32" s="1">
-        <v>43964</v>
+        <v>43973</v>
       </c>
       <c r="N32">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O32" s="8">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G33" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K33">
-        <v>513</v>
+        <v>320</v>
       </c>
       <c r="L33" s="1">
-        <v>43947</v>
+        <v>43964</v>
       </c>
       <c r="M33" s="1">
-        <v>43956</v>
+        <v>43965</v>
       </c>
       <c r="N33">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O33" s="8">
         <f t="shared" si="4"/>
-        <v>57</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>375</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>376</v>
+        <v>63</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="G34" s="2">
-        <v>2019</v>
+        <v>1966</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K34">
-        <v>646</v>
+        <v>126</v>
       </c>
       <c r="L34" s="1">
-        <v>43942</v>
+        <v>43962</v>
       </c>
       <c r="M34" s="1">
-        <v>43947</v>
+        <v>43964</v>
       </c>
       <c r="N34">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O34" s="8">
         <f t="shared" si="4"/>
-        <v>129.19999999999999</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="G35" s="2">
-        <v>1961</v>
+        <v>2017</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>369</v>
+        <v>96</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K35">
-        <v>568</v>
+        <v>513</v>
       </c>
       <c r="L35" s="1">
-        <v>43927</v>
+        <v>43947</v>
       </c>
       <c r="M35" s="1">
-        <v>43941</v>
+        <v>43956</v>
       </c>
       <c r="N35">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O35" s="8">
         <f t="shared" si="4"/>
-        <v>40.571428571428569</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>70</v>
+        <v>375</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>392</v>
+        <v>20</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G36" s="2">
-        <v>1929</v>
+        <v>2019</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K36">
-        <v>299</v>
+        <v>646</v>
       </c>
       <c r="L36" s="1">
-        <v>43919</v>
+        <v>43942</v>
       </c>
       <c r="M36" s="1">
-        <v>43926</v>
+        <v>43947</v>
       </c>
       <c r="N36">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O36" s="8">
         <f t="shared" si="4"/>
-        <v>42.714285714285715</v>
+        <v>129.19999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G37" s="2">
-        <v>1844</v>
+        <v>1961</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K37">
-        <v>1180</v>
+        <v>568</v>
       </c>
       <c r="L37" s="1">
-        <v>43839</v>
+        <v>43927</v>
       </c>
       <c r="M37" s="1">
-        <v>43884</v>
+        <v>43941</v>
       </c>
       <c r="N37">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="O37" s="8">
         <f t="shared" si="4"/>
-        <v>26.222222222222221</v>
+        <v>40.571428571428569</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>374</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G38" s="2">
-        <v>1979</v>
+        <v>1929</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K38">
-        <v>567</v>
+        <v>299</v>
       </c>
       <c r="L38" s="1">
-        <v>43814</v>
+        <v>43919</v>
       </c>
       <c r="M38" s="1">
-        <v>43891</v>
+        <v>43926</v>
       </c>
       <c r="N38">
         <f t="shared" si="5"/>
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="O38" s="8">
         <f t="shared" si="4"/>
-        <v>7.3636363636363633</v>
+        <v>42.714285714285715</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G39" s="2">
-        <v>2019</v>
+        <v>1844</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K39">
-        <v>408</v>
+        <v>1180</v>
       </c>
       <c r="L39" s="1">
-        <v>43834</v>
+        <v>43839</v>
       </c>
       <c r="M39" s="1">
-        <v>43836</v>
+        <v>43884</v>
       </c>
       <c r="N39">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="O39" s="8">
         <f t="shared" si="4"/>
-        <v>204</v>
+        <v>26.222222222222221</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="G40" s="2">
-        <v>1957</v>
+        <v>1979</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K40">
-        <v>170</v>
+        <v>567</v>
       </c>
       <c r="L40" s="1">
-        <v>43801</v>
+        <v>43814</v>
       </c>
       <c r="M40" s="1">
-        <v>43807</v>
+        <v>43891</v>
       </c>
       <c r="N40">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="O40" s="8">
         <f t="shared" si="4"/>
-        <v>28.333333333333332</v>
+        <v>7.3636363636363633</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>384</v>
@@ -4125,369 +4141,369 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G41" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>58</v>
+        <v>348</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K41">
-        <v>319</v>
+        <v>408</v>
       </c>
       <c r="L41" s="1">
-        <v>43799</v>
+        <v>43834</v>
       </c>
       <c r="M41" s="1">
-        <v>43800</v>
+        <v>43836</v>
       </c>
       <c r="N41">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O41" s="8">
         <f t="shared" si="4"/>
-        <v>319</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="G42" s="2">
-        <v>2018</v>
+        <v>1957</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K42">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="L42" s="1">
-        <v>43780</v>
+        <v>43801</v>
       </c>
       <c r="M42" s="1">
-        <v>43788</v>
+        <v>43807</v>
       </c>
       <c r="N42">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O42" s="8">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>28.333333333333332</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>358</v>
+        <v>85</v>
       </c>
       <c r="G43" s="2">
-        <v>1993</v>
+        <v>2018</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>369</v>
+        <v>58</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K43">
-        <v>355</v>
+        <v>319</v>
       </c>
       <c r="L43" s="1">
-        <v>43762</v>
+        <v>43799</v>
       </c>
       <c r="M43" s="1">
-        <v>43773</v>
+        <v>43800</v>
       </c>
       <c r="N43">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="O43" s="8">
         <f t="shared" si="4"/>
-        <v>32.272727272727273</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>354</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="G44" s="2">
-        <v>1818</v>
+        <v>2018</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K44">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="L44" s="1">
-        <v>43752</v>
+        <v>43780</v>
       </c>
       <c r="M44" s="1">
-        <v>43759</v>
+        <v>43788</v>
       </c>
       <c r="N44">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O44" s="8">
         <f t="shared" si="4"/>
-        <v>34.285714285714285</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>354</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>95</v>
+        <v>358</v>
       </c>
       <c r="G45" s="2">
-        <v>2018</v>
+        <v>1993</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>96</v>
+        <v>369</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K45">
-        <v>272</v>
+        <v>355</v>
       </c>
       <c r="L45" s="1">
-        <v>43743</v>
+        <v>43762</v>
       </c>
       <c r="M45" s="1">
-        <v>43749</v>
+        <v>43773</v>
       </c>
       <c r="N45">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O45" s="8">
         <f t="shared" si="4"/>
-        <v>45.333333333333336</v>
+        <v>32.272727272727273</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="G46" s="2">
-        <v>1866</v>
+        <v>1818</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K46">
-        <v>528</v>
+        <v>240</v>
       </c>
       <c r="L46" s="1">
-        <v>43715</v>
+        <v>43752</v>
       </c>
       <c r="M46" s="1">
-        <v>43741</v>
+        <v>43759</v>
       </c>
       <c r="N46">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="O46" s="8">
         <f t="shared" si="4"/>
-        <v>20.307692307692307</v>
+        <v>34.285714285714285</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>359</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G47" s="2">
-        <v>1970</v>
+        <v>2018</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K47">
-        <v>348</v>
+        <v>272</v>
       </c>
       <c r="L47" s="1">
-        <v>43697</v>
+        <v>43743</v>
       </c>
       <c r="M47" s="1">
-        <v>43708</v>
+        <v>43749</v>
       </c>
       <c r="N47">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O47" s="8">
         <f t="shared" si="4"/>
-        <v>31.636363636363637</v>
+        <v>45.333333333333336</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G48" s="2">
-        <v>1972</v>
+        <v>1866</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K48">
-        <v>416</v>
+        <v>528</v>
       </c>
       <c r="L48" s="1">
-        <v>43680</v>
+        <v>43715</v>
       </c>
       <c r="M48" s="1">
-        <v>43692</v>
+        <v>43741</v>
       </c>
       <c r="N48">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="O48" s="8">
         <f t="shared" si="4"/>
-        <v>34.666666666666664</v>
+        <v>20.307692307692307</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>104</v>
+        <v>359</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>384</v>
@@ -4497,91 +4513,91 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="G49" s="2">
-        <v>2013</v>
+        <v>1970</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>336</v>
+        <v>49</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K49">
-        <v>463</v>
+        <v>348</v>
       </c>
       <c r="L49" s="1">
-        <v>43663</v>
+        <v>43697</v>
       </c>
       <c r="M49" s="1">
-        <v>43677</v>
+        <v>43708</v>
       </c>
       <c r="N49">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O49" s="8">
         <f t="shared" si="4"/>
-        <v>33.071428571428569</v>
+        <v>31.636363636363637</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>248</v>
+        <v>103</v>
       </c>
       <c r="G50" s="2">
-        <v>1965</v>
+        <v>1972</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K50">
-        <v>256</v>
+        <v>416</v>
       </c>
       <c r="L50" s="1">
-        <v>43640</v>
+        <v>43680</v>
       </c>
       <c r="M50" s="1">
-        <v>43659</v>
+        <v>43692</v>
       </c>
       <c r="N50">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="O50" s="8">
         <f t="shared" si="4"/>
-        <v>13.473684210526315</v>
+        <v>34.666666666666664</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>384</v>
@@ -4591,185 +4607,185 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G51" s="2">
-        <v>1997</v>
+        <v>2013</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K51">
-        <v>423</v>
+        <v>463</v>
       </c>
       <c r="L51" s="1">
-        <v>43618</v>
+        <v>43663</v>
       </c>
       <c r="M51" s="1">
-        <v>43636</v>
+        <v>43677</v>
       </c>
       <c r="N51">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O51" s="8">
         <f t="shared" si="4"/>
-        <v>23.5</v>
+        <v>33.071428571428569</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>360</v>
+        <v>248</v>
       </c>
       <c r="G52" s="2">
-        <v>2018</v>
+        <v>1965</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K52">
-        <v>341</v>
+        <v>256</v>
       </c>
       <c r="L52" s="1">
-        <v>43616</v>
+        <v>43640</v>
       </c>
       <c r="M52" s="1">
-        <v>43617</v>
+        <v>43659</v>
       </c>
       <c r="N52">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="O52" s="8">
         <f t="shared" si="4"/>
-        <v>341</v>
+        <v>13.473684210526315</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G53" s="2">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K53">
-        <v>610</v>
+        <v>423</v>
       </c>
       <c r="L53" s="1">
-        <v>43596</v>
+        <v>43618</v>
       </c>
       <c r="M53" s="1">
-        <v>43606</v>
+        <v>43636</v>
       </c>
       <c r="N53">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O53" s="8">
         <f t="shared" si="4"/>
-        <v>61</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>361</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G54" s="2">
-        <v>1984</v>
+        <v>2018</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>49</v>
+        <v>348</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K54">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="L54" s="1">
-        <v>43589</v>
+        <v>43616</v>
       </c>
       <c r="M54" s="1">
-        <v>43594</v>
+        <v>43617</v>
       </c>
       <c r="N54">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O54" s="8">
         <f t="shared" si="4"/>
-        <v>70.400000000000006</v>
+        <v>341</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>384</v>
@@ -4779,28 +4795,28 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G55" s="2">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K55">
-        <v>288</v>
+        <v>610</v>
       </c>
       <c r="L55" s="1">
-        <v>43578</v>
+        <v>43596</v>
       </c>
       <c r="M55" s="1">
-        <v>43588</v>
+        <v>43606</v>
       </c>
       <c r="N55">
         <f t="shared" si="5"/>
@@ -4808,435 +4824,435 @@
       </c>
       <c r="O55" s="8">
         <f t="shared" si="4"/>
-        <v>28.8</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>118</v>
+        <v>361</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="G56" s="2">
-        <v>1876</v>
+        <v>1984</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>332</v>
+        <v>49</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K56">
-        <v>236</v>
+        <v>352</v>
       </c>
       <c r="L56" s="1">
-        <v>43041</v>
+        <v>43589</v>
       </c>
       <c r="M56" s="1">
-        <v>43048</v>
+        <v>43594</v>
       </c>
       <c r="N56">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O56" s="8">
         <f t="shared" si="4"/>
-        <v>33.714285714285715</v>
+        <v>70.400000000000006</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>354</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G57" s="2">
-        <v>1813</v>
+        <v>2014</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K57">
-        <v>414</v>
+        <v>288</v>
       </c>
       <c r="L57" s="1">
-        <v>42875</v>
+        <v>43578</v>
       </c>
       <c r="M57" s="1">
-        <v>42881</v>
+        <v>43588</v>
       </c>
       <c r="N57">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O57" s="8">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
-        <v>125</v>
+        <v>319</v>
       </c>
       <c r="G58" s="2">
-        <v>1869</v>
+        <v>1876</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K58">
-        <v>999</v>
+        <v>236</v>
+      </c>
+      <c r="L58" s="1">
+        <v>43041</v>
+      </c>
+      <c r="M58" s="1">
+        <v>43048</v>
       </c>
       <c r="N58">
         <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="O58" s="8">
+        <f t="shared" si="4"/>
+        <v>33.714285714285715</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G59" s="2">
+        <v>1813</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K59">
+        <v>414</v>
+      </c>
+      <c r="L59" s="1">
+        <v>42875</v>
+      </c>
+      <c r="M59" s="1">
+        <v>42881</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="O59" s="8">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1869</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K60">
+        <v>999</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O58" s="8" t="e">
+      <c r="O60" s="8" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2" t="s">
+      <c r="E61" s="2"/>
+      <c r="F61" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G61" s="2">
         <v>1928</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="I61" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="J61" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K59">
+      <c r="K61">
         <v>323</v>
       </c>
-      <c r="L59" s="1">
+      <c r="L61" s="1">
         <v>42675</v>
       </c>
-      <c r="M59" s="1">
+      <c r="M61" s="1">
         <v>42682</v>
       </c>
-      <c r="N59">
+      <c r="N61">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="O59" s="8">
+      <c r="O61" s="8">
         <f t="shared" si="4"/>
         <v>46.142857142857146</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2" t="s">
+      <c r="E62" s="2"/>
+      <c r="F62" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G62" s="2">
         <v>1878</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="I62" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K60">
+      <c r="J62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K62">
         <v>338</v>
       </c>
-      <c r="L60" s="1">
+      <c r="L62" s="1">
         <v>43477</v>
       </c>
-      <c r="M60" s="1">
+      <c r="M62" s="1">
         <v>43485</v>
       </c>
-      <c r="N60">
+      <c r="N62">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="O60" s="8">
+      <c r="O62" s="8">
         <f t="shared" si="4"/>
         <v>42.25</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2" t="s">
+      <c r="E63" s="2"/>
+      <c r="F63" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G63" s="2">
         <v>2018</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="H63" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="I63" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K61">
+      <c r="J63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63">
         <v>755</v>
       </c>
-      <c r="L61" s="1">
+      <c r="L63" s="1">
         <v>43108</v>
       </c>
-      <c r="M61" s="1">
+      <c r="M63" s="1">
         <v>43111</v>
       </c>
-      <c r="N61">
+      <c r="N63">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="O61" s="8">
+      <c r="O63" s="8">
         <f t="shared" si="4"/>
         <v>251.66666666666666</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2" t="s">
+      <c r="E64" s="2"/>
+      <c r="F64" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G64" s="2">
         <v>1954</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="I64" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K62">
+      <c r="J64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K64">
         <v>250</v>
       </c>
-      <c r="L62" s="1">
+      <c r="L64" s="1">
         <v>43411</v>
       </c>
-      <c r="M62" s="1">
+      <c r="M64" s="1">
         <v>43423</v>
       </c>
-      <c r="N62">
+      <c r="N64">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="O62" s="8">
+      <c r="O64" s="8">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G63" s="2">
-        <v>2018</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K63">
-        <v>288</v>
-      </c>
-      <c r="L63" s="1">
-        <v>43496</v>
-      </c>
-      <c r="M63" s="1">
-        <v>43506</v>
-      </c>
-      <c r="N63">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="O63" s="8">
-        <f t="shared" si="4"/>
-        <v>28.8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G64" s="2">
-        <v>1898</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K64">
-        <v>61</v>
-      </c>
-      <c r="L64" s="1">
-        <v>43424</v>
-      </c>
-      <c r="M64" s="1">
-        <v>43425</v>
-      </c>
-      <c r="N64">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O64" s="8">
-        <f t="shared" si="4"/>
-        <v>61</v>
-      </c>
-    </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>387</v>
@@ -5246,518 +5262,518 @@
         <v>28</v>
       </c>
       <c r="G65" s="2">
-        <v>1978</v>
+        <v>2018</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>310</v>
+        <v>96</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K65">
-        <v>64</v>
+        <v>288</v>
       </c>
       <c r="L65" s="1">
-        <v>43402</v>
+        <v>43496</v>
       </c>
       <c r="M65" s="1">
-        <v>43403</v>
+        <v>43506</v>
       </c>
       <c r="N65">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O65" s="8">
         <f t="shared" si="4"/>
-        <v>64</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G66" s="2">
-        <v>2018</v>
+        <v>1898</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>96</v>
+        <v>335</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K66">
-        <v>437</v>
+        <v>61</v>
       </c>
       <c r="L66" s="1">
-        <v>43381</v>
+        <v>43424</v>
       </c>
       <c r="M66" s="1">
-        <v>43390</v>
+        <v>43425</v>
       </c>
       <c r="N66">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O66" s="8">
         <f t="shared" si="4"/>
-        <v>48.555555555555557</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="G67" s="2">
-        <v>1925</v>
+        <v>1978</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>369</v>
+        <v>310</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K67">
-        <v>859</v>
+        <v>64</v>
       </c>
       <c r="L67" s="1">
-        <v>42585</v>
+        <v>43402</v>
       </c>
       <c r="M67" s="1">
-        <v>42627</v>
+        <v>43403</v>
       </c>
       <c r="N67">
         <f t="shared" si="5"/>
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="O67" s="8">
         <f t="shared" si="4"/>
-        <v>20.452380952380953</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G68" s="2">
-        <v>1971</v>
+        <v>2018</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>344</v>
+        <v>96</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K68">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="L68" s="1">
-        <v>43518</v>
+        <v>43381</v>
       </c>
       <c r="M68" s="1">
-        <v>43542</v>
+        <v>43390</v>
       </c>
       <c r="N68">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="O68" s="8">
         <f t="shared" si="4"/>
-        <v>17.333333333333332</v>
+        <v>48.555555555555557</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>362</v>
+        <v>145</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>364</v>
+        <v>146</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2" t="s">
-        <v>363</v>
+        <v>99</v>
       </c>
       <c r="G69" s="2">
-        <v>2015</v>
+        <v>1925</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K69">
-        <v>87</v>
+        <v>859</v>
       </c>
       <c r="L69" s="1">
-        <v>42871</v>
+        <v>42585</v>
       </c>
       <c r="M69" s="1">
-        <v>42877</v>
+        <v>42627</v>
       </c>
       <c r="N69">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="O69" s="8">
         <f t="shared" si="4"/>
-        <v>14.5</v>
+        <v>20.452380952380953</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G70" s="2">
-        <v>2015</v>
+        <v>1971</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>49</v>
+        <v>344</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K70">
-        <v>348</v>
+        <v>416</v>
       </c>
       <c r="L70" s="1">
-        <v>42947</v>
+        <v>43518</v>
       </c>
       <c r="M70" s="1">
-        <v>42949</v>
+        <v>43542</v>
       </c>
       <c r="N70">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="O70" s="8">
         <f t="shared" si="4"/>
-        <v>174</v>
+        <v>17.333333333333332</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>154</v>
+        <v>362</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>155</v>
+        <v>364</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
-        <v>156</v>
+        <v>363</v>
       </c>
       <c r="G71" s="2">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K71">
-        <v>270</v>
+        <v>87</v>
       </c>
       <c r="L71" s="1">
-        <v>43246</v>
+        <v>42871</v>
       </c>
       <c r="M71" s="1">
-        <v>43253</v>
+        <v>42877</v>
       </c>
       <c r="N71">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O71" s="8">
         <f t="shared" si="4"/>
-        <v>38.571428571428569</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c r="G72" s="2">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>336</v>
+        <v>49</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K72">
-        <v>148</v>
+        <v>348</v>
       </c>
       <c r="L72" s="1">
-        <v>42745</v>
+        <v>42947</v>
       </c>
       <c r="M72" s="1">
-        <v>43028</v>
+        <v>42949</v>
       </c>
       <c r="N72">
         <f t="shared" si="5"/>
-        <v>283</v>
+        <v>2</v>
       </c>
       <c r="O72" s="8">
         <f t="shared" si="4"/>
-        <v>0.52296819787985871</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G73" s="2">
-        <v>1962</v>
+        <v>2009</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K73">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="L73" s="1">
-        <v>43328</v>
+        <v>43246</v>
       </c>
       <c r="M73" s="1">
-        <v>43344</v>
+        <v>43253</v>
       </c>
       <c r="N73">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="O73" s="8">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>38.571428571428569</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C74" s="2"/>
-      <c r="D74" s="2" t="s">
-        <v>354</v>
-      </c>
+      <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="G74" s="2">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>96</v>
+        <v>336</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K74">
-        <v>352</v>
+        <v>148</v>
       </c>
       <c r="L74" s="1">
-        <v>43092</v>
+        <v>42745</v>
       </c>
       <c r="M74" s="1">
-        <v>43191</v>
+        <v>43028</v>
       </c>
       <c r="N74">
         <f t="shared" si="5"/>
-        <v>99</v>
+        <v>283</v>
       </c>
       <c r="O74" s="8">
         <f t="shared" si="4"/>
-        <v>3.5555555555555554</v>
+        <v>0.52296819787985871</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>371</v>
+        <v>158</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G75" s="2">
-        <v>1994</v>
+        <v>1962</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K75">
-        <v>316</v>
+        <v>240</v>
       </c>
       <c r="L75" s="1">
-        <v>43183</v>
+        <v>43328</v>
       </c>
       <c r="M75" s="1">
-        <v>43198</v>
+        <v>43344</v>
       </c>
       <c r="N75">
         <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="O75" s="8">
+        <f t="shared" si="4"/>
         <v>15</v>
-      </c>
-      <c r="O75" s="8">
-        <f t="shared" ref="O75:O137" si="6">K75/N75</f>
-        <v>21.066666666666666</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
         <v>354</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G76" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>331</v>
@@ -5766,324 +5782,324 @@
         <v>96</v>
       </c>
       <c r="J76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K76">
+        <v>352</v>
+      </c>
+      <c r="L76" s="1">
+        <v>43092</v>
+      </c>
+      <c r="M76" s="1">
+        <v>43191</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="O76" s="8">
+        <f t="shared" si="4"/>
+        <v>3.5555555555555554</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G77" s="2">
+        <v>1994</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J77" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K76">
+      <c r="K77">
+        <v>316</v>
+      </c>
+      <c r="L77" s="1">
+        <v>43183</v>
+      </c>
+      <c r="M77" s="1">
+        <v>43198</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="O77" s="8">
+        <f t="shared" ref="O77:O139" si="6">K77/N77</f>
+        <v>21.066666666666666</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G78" s="2">
+        <v>2016</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K78">
         <v>188</v>
       </c>
-      <c r="L76" s="1">
+      <c r="L78" s="1">
         <v>43166</v>
       </c>
-      <c r="M76" s="1">
+      <c r="M78" s="1">
         <v>43175</v>
       </c>
-      <c r="N76">
-        <f t="shared" ref="N76:N138" si="7">M76-L76</f>
-        <v>9</v>
-      </c>
-      <c r="O76" s="8">
+      <c r="N78">
+        <f t="shared" ref="N78:N140" si="7">M78-L78</f>
+        <v>9</v>
+      </c>
+      <c r="O78" s="8">
         <f t="shared" si="6"/>
         <v>20.888888888888889</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2" t="s">
+      <c r="E79" s="2"/>
+      <c r="F79" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G79" s="2">
         <v>2014</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="H79" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="I79" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K77">
+      <c r="J79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K79">
         <v>256</v>
       </c>
-      <c r="L77" s="1">
+      <c r="L79" s="1">
         <v>43175</v>
       </c>
-      <c r="M77" s="1">
+      <c r="M79" s="1">
         <v>43177</v>
       </c>
-      <c r="N77">
+      <c r="N79">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="O77" s="8">
+      <c r="O79" s="8">
         <f t="shared" si="6"/>
         <v>128</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2" t="s">
+      <c r="E80" s="2"/>
+      <c r="F80" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G78" s="2">
+      <c r="G80" s="2">
         <v>2014</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="H80" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="I80" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K78">
+      <c r="J80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K80">
         <v>272</v>
       </c>
-      <c r="L78" s="1">
+      <c r="L80" s="1">
         <v>42977</v>
       </c>
-      <c r="M78" s="1">
+      <c r="M80" s="1">
         <v>42995</v>
       </c>
-      <c r="N78">
+      <c r="N80">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="O78" s="8">
+      <c r="O80" s="8">
         <f t="shared" si="6"/>
         <v>15.111111111111111</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A79" s="3" t="s">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2" t="s">
+      <c r="E81" s="2"/>
+      <c r="F81" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G79" s="2">
+      <c r="G81" s="2">
         <v>1861</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="H81" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="I81" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K79">
+      <c r="J81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K81">
         <v>460</v>
       </c>
-      <c r="L79" s="1">
+      <c r="L81" s="1">
         <v>42652</v>
       </c>
-      <c r="M79" s="1">
+      <c r="M81" s="1">
         <v>42664</v>
       </c>
-      <c r="N79">
+      <c r="N81">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="O79" s="8">
+      <c r="O81" s="8">
         <f t="shared" si="6"/>
         <v>38.333333333333336</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A80" s="3" t="s">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2" t="s">
+      <c r="E82" s="2"/>
+      <c r="F82" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G80" s="2">
+      <c r="G82" s="2">
         <v>1924</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="H82" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="I82" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K80">
+      <c r="J82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K82">
         <v>729</v>
       </c>
-      <c r="L80" s="1">
+      <c r="L82" s="1">
         <v>43049</v>
       </c>
-      <c r="M80" s="1">
+      <c r="M82" s="1">
         <v>43091</v>
       </c>
-      <c r="N80">
+      <c r="N82">
         <f t="shared" si="7"/>
         <v>42</v>
       </c>
-      <c r="O80" s="8">
+      <c r="O82" s="8">
         <f t="shared" si="6"/>
         <v>17.357142857142858</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A81" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G81" s="2">
-        <v>2015</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K81">
-        <v>224</v>
-      </c>
-      <c r="L81" s="1">
-        <v>42527</v>
-      </c>
-      <c r="M81" s="1">
-        <v>42528</v>
-      </c>
-      <c r="N81">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O81" s="8">
-        <f t="shared" si="6"/>
-        <v>224</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A82" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G82" s="2">
-        <v>1960</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K82">
-        <v>307</v>
-      </c>
-      <c r="L82" s="1">
-        <v>43227</v>
-      </c>
-      <c r="M82" s="1">
-        <v>43240</v>
-      </c>
-      <c r="N82">
-        <f t="shared" si="7"/>
-        <v>13</v>
-      </c>
-      <c r="O82" s="8">
-        <f t="shared" si="6"/>
-        <v>23.615384615384617</v>
-      </c>
-    </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>378</v>
+        <v>179</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G83" s="2">
         <v>2015</v>
@@ -6092,19 +6108,19 @@
         <v>331</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K83">
-        <v>90</v>
+        <v>224</v>
       </c>
       <c r="L83" s="1">
-        <v>42632</v>
+        <v>42527</v>
       </c>
       <c r="M83" s="1">
-        <v>42633</v>
+        <v>42528</v>
       </c>
       <c r="N83">
         <f t="shared" si="7"/>
@@ -6112,15 +6128,15 @@
       </c>
       <c r="O83" s="8">
         <f t="shared" si="6"/>
-        <v>90</v>
+        <v>224</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>384</v>
@@ -6130,372 +6146,380 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G84" s="2">
-        <v>2014</v>
+        <v>1960</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K84">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="L84" s="1">
-        <v>43283</v>
+        <v>43227</v>
       </c>
       <c r="M84" s="1">
-        <v>43291</v>
+        <v>43240</v>
       </c>
       <c r="N84">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O84" s="8">
         <f t="shared" si="6"/>
-        <v>35.75</v>
+        <v>23.615384615384617</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G85" s="2">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>346</v>
+        <v>49</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K85">
-        <v>386</v>
+        <v>90</v>
       </c>
       <c r="L85" s="1">
-        <v>42941</v>
+        <v>42632</v>
       </c>
       <c r="M85" s="1">
-        <v>42950</v>
+        <v>42633</v>
       </c>
       <c r="N85">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O85" s="8">
         <f t="shared" si="6"/>
-        <v>42.888888888888886</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
-        <v>28</v>
+        <v>188</v>
       </c>
       <c r="G86" s="2">
-        <v>1967</v>
+        <v>2014</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K86">
-        <v>432</v>
+        <v>286</v>
       </c>
       <c r="L86" s="1">
-        <v>42936</v>
+        <v>43283</v>
       </c>
       <c r="M86" s="1">
-        <v>42940</v>
+        <v>43291</v>
       </c>
       <c r="N86">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O86" s="8">
         <f t="shared" si="6"/>
-        <v>108</v>
+        <v>35.75</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="G87" s="2">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K87">
-        <v>276</v>
+        <v>386</v>
       </c>
       <c r="L87" s="1">
-        <v>43028</v>
+        <v>42941</v>
       </c>
       <c r="M87" s="1">
-        <v>43036</v>
+        <v>42950</v>
       </c>
       <c r="N87">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O87" s="8">
         <f t="shared" si="6"/>
-        <v>34.5</v>
+        <v>42.888888888888886</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>196</v>
+        <v>379</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G88" s="2">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K88">
-        <v>157</v>
+        <v>432</v>
       </c>
       <c r="L88" s="1">
-        <v>42639</v>
+        <v>42936</v>
       </c>
       <c r="M88" s="1">
-        <v>42640</v>
+        <v>42940</v>
       </c>
       <c r="N88">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O88" s="8">
         <f t="shared" si="6"/>
-        <v>157</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="G89" s="2">
-        <v>1959</v>
+        <v>2017</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K89">
-        <v>341</v>
+        <v>276</v>
       </c>
       <c r="L89" s="1">
-        <v>42418</v>
+        <v>43028</v>
       </c>
       <c r="M89" s="1">
-        <v>42427</v>
+        <v>43036</v>
       </c>
       <c r="N89">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O89" s="8">
         <f t="shared" si="6"/>
-        <v>37.888888888888886</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>365</v>
+        <v>195</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="G90" s="2">
-        <v>2015</v>
+        <v>1969</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K90">
-        <v>362</v>
+        <v>157</v>
       </c>
       <c r="L90" s="1">
-        <v>42531</v>
+        <v>42639</v>
       </c>
       <c r="M90" s="1">
-        <v>42540</v>
+        <v>42640</v>
       </c>
       <c r="N90">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O90" s="8">
         <f t="shared" si="6"/>
-        <v>40.222222222222221</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>366</v>
+        <v>197</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="G91" s="2">
-        <v>1751</v>
+        <v>1959</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I91" t="s">
-        <v>343</v>
+        <v>8</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K91">
-        <v>110</v>
+        <v>341</v>
       </c>
       <c r="L91" s="1">
-        <v>42729</v>
+        <v>42418</v>
       </c>
       <c r="M91" s="1">
-        <v>42732</v>
+        <v>42427</v>
       </c>
       <c r="N91">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O91" s="8">
         <f t="shared" si="6"/>
-        <v>36.666666666666664</v>
+        <v>37.888888888888886</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>203</v>
+        <v>365</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
-        <v>28</v>
+        <v>200</v>
       </c>
       <c r="G92" s="2">
-        <v>1939</v>
+        <v>2015</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I92" s="2" t="s">
         <v>369</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K92">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="L92" s="1">
-        <v>42541</v>
+        <v>42531</v>
       </c>
       <c r="M92" s="1">
-        <v>42550</v>
+        <v>42540</v>
       </c>
       <c r="N92">
         <f t="shared" si="7"/>
@@ -6503,42 +6527,42 @@
       </c>
       <c r="O92" s="8">
         <f t="shared" si="6"/>
-        <v>42.666666666666664</v>
+        <v>40.222222222222221</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>205</v>
+        <v>366</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2" t="s">
-        <v>113</v>
+        <v>202</v>
       </c>
       <c r="G93" s="2">
-        <v>2008</v>
+        <v>1751</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I93" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K93">
-        <v>305</v>
+        <v>110</v>
       </c>
       <c r="L93" s="1">
-        <v>42853</v>
+        <v>42729</v>
       </c>
       <c r="M93" s="1">
-        <v>42856</v>
+        <v>42732</v>
       </c>
       <c r="N93">
         <f t="shared" si="7"/>
@@ -6546,1486 +6570,1486 @@
       </c>
       <c r="O93" s="8">
         <f t="shared" si="6"/>
-        <v>101.66666666666667</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>367</v>
+        <v>203</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
-        <v>208</v>
+        <v>28</v>
       </c>
       <c r="G94" s="2">
-        <v>1965</v>
+        <v>1939</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I94" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K94">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="L94" s="1">
-        <v>42772</v>
+        <v>42541</v>
       </c>
       <c r="M94" s="1">
-        <v>42774</v>
+        <v>42550</v>
       </c>
       <c r="N94">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O94" s="8">
         <f t="shared" si="6"/>
-        <v>176</v>
+        <v>42.666666666666664</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2" t="s">
-        <v>210</v>
+        <v>113</v>
       </c>
       <c r="G95" s="2">
-        <v>1975</v>
+        <v>2008</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I95" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K95">
-        <v>173</v>
+        <v>305</v>
       </c>
       <c r="L95" s="1">
-        <v>43105</v>
+        <v>42853</v>
       </c>
       <c r="M95" s="1">
-        <v>43106</v>
+        <v>42856</v>
       </c>
       <c r="N95">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O95" s="8">
         <f t="shared" si="6"/>
-        <v>173</v>
+        <v>101.66666666666667</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>211</v>
+        <v>367</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2" t="s">
-        <v>52</v>
+        <v>208</v>
       </c>
       <c r="G96" s="2">
-        <v>1936</v>
+        <v>1965</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I96" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K96">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L96" s="1">
-        <v>42895</v>
+        <v>42772</v>
       </c>
       <c r="M96" s="1">
-        <v>42899</v>
+        <v>42774</v>
       </c>
       <c r="N96">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O96" s="8">
         <f t="shared" si="6"/>
-        <v>87</v>
+        <v>176</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="G97" s="2">
-        <v>1963</v>
+        <v>1975</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I97" t="s">
-        <v>49</v>
+        <v>338</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K97">
-        <v>312</v>
+        <v>173</v>
       </c>
       <c r="L97" s="1">
-        <v>43200</v>
+        <v>43105</v>
       </c>
       <c r="M97" s="1">
-        <v>43212</v>
+        <v>43106</v>
       </c>
       <c r="N97">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O97" s="8">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>173</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>217</v>
+        <v>52</v>
       </c>
       <c r="G98" s="2">
-        <v>1928</v>
+        <v>1936</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I98" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K98">
-        <v>546</v>
+        <v>348</v>
       </c>
       <c r="L98" s="1">
-        <v>43217</v>
+        <v>42895</v>
       </c>
       <c r="M98" s="1">
-        <v>43226</v>
+        <v>42899</v>
       </c>
       <c r="N98">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O98" s="8">
         <f t="shared" si="6"/>
-        <v>60.666666666666664</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="G99" s="2">
-        <v>1946</v>
+        <v>1963</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I99" t="s">
-        <v>344</v>
+        <v>49</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K99">
-        <v>661</v>
+        <v>312</v>
       </c>
       <c r="L99" s="1">
-        <v>42385</v>
+        <v>43200</v>
       </c>
       <c r="M99" s="1">
-        <v>42404</v>
+        <v>43212</v>
       </c>
       <c r="N99">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="O99" s="8">
         <f t="shared" si="6"/>
-        <v>34.789473684210527</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>380</v>
+        <v>216</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G100" s="2">
-        <v>1996</v>
+        <v>1928</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I100" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K100">
-        <v>227</v>
+        <v>546</v>
       </c>
       <c r="L100" s="1">
-        <v>43163</v>
+        <v>43217</v>
       </c>
       <c r="M100" s="1">
-        <v>43165</v>
+        <v>43226</v>
       </c>
       <c r="N100">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O100" s="8">
         <f t="shared" si="6"/>
-        <v>113.5</v>
+        <v>60.666666666666664</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
-        <v>224</v>
+        <v>52</v>
       </c>
       <c r="G101" s="2">
-        <v>1998</v>
+        <v>1946</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I101" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K101">
-        <v>94</v>
+        <v>661</v>
       </c>
       <c r="L101" s="1">
-        <v>43121</v>
+        <v>42385</v>
       </c>
       <c r="M101" s="1">
-        <v>43121</v>
+        <v>42404</v>
       </c>
       <c r="N101">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O101" s="8" t="e">
+        <v>19</v>
+      </c>
+      <c r="O101" s="8">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>34.789473684210527</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>329</v>
+        <v>220</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>225</v>
+        <v>380</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G102" s="2">
-        <v>1987</v>
+        <v>1996</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I102" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K102">
-        <v>372</v>
+        <v>227</v>
       </c>
       <c r="L102" s="1">
-        <v>42767</v>
+        <v>43163</v>
       </c>
       <c r="M102" s="1">
-        <v>42768</v>
+        <v>43165</v>
       </c>
       <c r="N102">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O102" s="8">
         <f t="shared" si="6"/>
-        <v>372</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2" t="s">
-        <v>139</v>
+        <v>224</v>
       </c>
       <c r="G103" s="2">
-        <v>1967</v>
+        <v>1998</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I103" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K103">
-        <v>412</v>
+        <v>94</v>
       </c>
       <c r="L103" s="1">
-        <v>42768</v>
+        <v>43121</v>
       </c>
       <c r="M103" s="1">
-        <v>42771</v>
+        <v>43121</v>
       </c>
       <c r="N103">
         <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="O103" s="8">
+        <v>0</v>
+      </c>
+      <c r="O103" s="8" t="e">
         <f t="shared" si="6"/>
-        <v>137.33333333333334</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>229</v>
+        <v>329</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G104" s="2">
-        <v>2010</v>
+        <v>1987</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I104" t="s">
-        <v>49</v>
+        <v>349</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K104">
-        <v>941</v>
+        <v>372</v>
       </c>
       <c r="L104" s="1">
-        <v>42883</v>
+        <v>42767</v>
       </c>
       <c r="M104" s="1">
-        <v>42894</v>
+        <v>42768</v>
       </c>
       <c r="N104">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="O104" s="8">
         <f t="shared" si="6"/>
-        <v>85.545454545454547</v>
+        <v>372</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="G105" s="2">
-        <v>2017</v>
+        <v>1967</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I105" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K105">
-        <v>304</v>
+        <v>412</v>
       </c>
       <c r="L105" s="1">
-        <v>43106</v>
+        <v>42768</v>
       </c>
       <c r="M105" s="1">
-        <v>43120</v>
+        <v>42771</v>
       </c>
       <c r="N105">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="O105" s="8">
         <f t="shared" si="6"/>
-        <v>21.714285714285715</v>
+        <v>137.33333333333334</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>63</v>
+        <v>230</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="G106" s="2">
-        <v>1963</v>
+        <v>2010</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I106" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K106">
-        <v>492</v>
+        <v>941</v>
       </c>
       <c r="L106" s="1">
-        <v>43127</v>
+        <v>42883</v>
       </c>
       <c r="M106" s="1">
-        <v>43148</v>
+        <v>42894</v>
       </c>
       <c r="N106">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="O106" s="8">
         <f t="shared" si="6"/>
-        <v>23.428571428571427</v>
+        <v>85.545454545454547</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="G107" s="2">
-        <v>1949</v>
+        <v>2017</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I107" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K107">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L107" s="1">
-        <v>43149</v>
+        <v>43106</v>
       </c>
       <c r="M107" s="1">
-        <v>43155</v>
+        <v>43120</v>
       </c>
       <c r="N107">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="O107" s="8">
         <f t="shared" si="6"/>
-        <v>51.833333333333336</v>
+        <v>21.714285714285715</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>238</v>
+        <v>63</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2" t="s">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="G108" s="2">
-        <v>2015</v>
+        <v>1963</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I108" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K108">
-        <v>384</v>
+        <v>492</v>
       </c>
       <c r="L108" s="1">
-        <v>42919</v>
+        <v>43127</v>
       </c>
       <c r="M108" s="1">
-        <v>42929</v>
+        <v>43148</v>
       </c>
       <c r="N108">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="O108" s="8">
         <f t="shared" si="6"/>
-        <v>38.4</v>
+        <v>23.428571428571427</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="G109" s="2">
-        <v>1992</v>
+        <v>1949</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I109" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K109">
-        <v>256</v>
+        <v>311</v>
       </c>
       <c r="L109" s="1">
-        <v>42732</v>
+        <v>43149</v>
       </c>
       <c r="M109" s="1">
-        <v>42737</v>
+        <v>43155</v>
       </c>
       <c r="N109">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O109" s="8">
         <f t="shared" si="6"/>
-        <v>51.2</v>
+        <v>51.833333333333336</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2" t="s">
-        <v>153</v>
+        <v>239</v>
       </c>
       <c r="G110" s="2">
-        <v>1977</v>
+        <v>2015</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I110" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K110">
-        <v>256</v>
+        <v>384</v>
       </c>
       <c r="L110" s="1">
-        <v>42382</v>
+        <v>42919</v>
       </c>
       <c r="M110" s="1">
-        <v>42383</v>
+        <v>42929</v>
       </c>
       <c r="N110">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O110" s="8">
         <f t="shared" si="6"/>
-        <v>256</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G111" s="2">
-        <v>1927</v>
+        <v>1992</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I111" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K111">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="L111" s="1">
-        <v>42790</v>
+        <v>42732</v>
       </c>
       <c r="M111" s="1">
-        <v>42802</v>
+        <v>42737</v>
       </c>
       <c r="N111">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="O111" s="8">
         <f t="shared" si="6"/>
-        <v>22.666666666666668</v>
+        <v>51.2</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2" t="s">
-        <v>248</v>
+        <v>153</v>
       </c>
       <c r="G112" s="2">
-        <v>1997</v>
+        <v>1977</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I112" t="s">
-        <v>49</v>
+        <v>349</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K112">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="L112" s="1">
-        <v>42805</v>
+        <v>42382</v>
       </c>
       <c r="M112" s="1">
-        <v>42811</v>
+        <v>42383</v>
       </c>
       <c r="N112">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O112" s="8">
         <f t="shared" si="6"/>
-        <v>48.833333333333336</v>
+        <v>256</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="G113" s="2">
-        <v>2013</v>
+        <v>1927</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I113" t="s">
-        <v>96</v>
+        <v>369</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K113">
-        <v>496</v>
+        <v>272</v>
       </c>
       <c r="L113" s="1">
-        <v>42645</v>
+        <v>42790</v>
       </c>
       <c r="M113" s="1">
-        <v>42649</v>
+        <v>42802</v>
       </c>
       <c r="N113">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O113" s="8">
         <f t="shared" si="6"/>
-        <v>124</v>
+        <v>22.666666666666668</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>82</v>
+        <v>247</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2" t="s">
-        <v>52</v>
+        <v>248</v>
       </c>
       <c r="G114" s="2">
-        <v>1955</v>
+        <v>1997</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I114" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K114">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="L114" s="1">
-        <v>42823</v>
+        <v>42805</v>
       </c>
       <c r="M114" s="1">
-        <v>42827</v>
+        <v>42811</v>
       </c>
       <c r="N114">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O114" s="8">
         <f t="shared" si="6"/>
-        <v>82.75</v>
+        <v>48.833333333333336</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>381</v>
+        <v>250</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="G115" s="2">
-        <v>1991</v>
+        <v>2013</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I115" t="s">
-        <v>344</v>
+        <v>96</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K115">
-        <v>149</v>
+        <v>496</v>
       </c>
       <c r="L115" s="1">
-        <v>42665</v>
+        <v>42645</v>
       </c>
       <c r="M115" s="1">
-        <v>42668</v>
+        <v>42649</v>
       </c>
       <c r="N115">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O115" s="8">
         <f t="shared" si="6"/>
-        <v>49.666666666666664</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>254</v>
+        <v>82</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2" t="s">
-        <v>255</v>
+        <v>52</v>
       </c>
       <c r="G116" s="2">
-        <v>1942</v>
+        <v>1955</v>
       </c>
       <c r="H116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I116" t="s">
+        <v>369</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K116">
         <v>331</v>
       </c>
-      <c r="I116" t="s">
-        <v>49</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K116">
-        <v>495</v>
-      </c>
       <c r="L116" s="1">
-        <v>42711</v>
+        <v>42823</v>
       </c>
       <c r="M116" s="1">
-        <v>42727</v>
+        <v>42827</v>
       </c>
       <c r="N116">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O116" s="8">
         <f t="shared" si="6"/>
-        <v>30.9375</v>
+        <v>82.75</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>257</v>
+        <v>381</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2" t="s">
-        <v>191</v>
+        <v>30</v>
       </c>
       <c r="G117" s="2">
-        <v>2010</v>
+        <v>1991</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I117" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K117">
-        <v>446</v>
+        <v>149</v>
       </c>
       <c r="L117" s="1">
-        <v>42776</v>
+        <v>42665</v>
       </c>
       <c r="M117" s="1">
-        <v>42785</v>
+        <v>42668</v>
       </c>
       <c r="N117">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O117" s="8">
         <f t="shared" si="6"/>
-        <v>49.555555555555557</v>
+        <v>49.666666666666664</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="G118" s="2">
-        <v>1992</v>
+        <v>1942</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I118" t="s">
-        <v>339</v>
+        <v>49</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K118">
-        <v>224</v>
+        <v>495</v>
       </c>
       <c r="L118" s="1">
-        <v>42249</v>
+        <v>42711</v>
       </c>
       <c r="M118" s="1">
-        <v>42250</v>
+        <v>42727</v>
       </c>
       <c r="N118">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="O118" s="8">
         <f t="shared" si="6"/>
-        <v>224</v>
+        <v>30.9375</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="G119" s="2">
-        <v>1934</v>
+        <v>2010</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I119" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K119">
-        <v>251</v>
+        <v>446</v>
       </c>
       <c r="L119" s="1">
-        <v>43294</v>
+        <v>42776</v>
       </c>
       <c r="M119" s="1">
-        <v>43307</v>
+        <v>42785</v>
       </c>
       <c r="N119">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O119" s="8">
         <f t="shared" si="6"/>
-        <v>19.307692307692307</v>
+        <v>49.555555555555557</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G120" s="2">
-        <v>1951</v>
+        <v>1992</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I120" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K120">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="L120" s="1">
-        <v>42518</v>
+        <v>42249</v>
       </c>
       <c r="M120" s="1">
-        <v>42522</v>
+        <v>42250</v>
       </c>
       <c r="N120">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O120" s="8">
         <f t="shared" si="6"/>
-        <v>48</v>
+        <v>224</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>370</v>
+        <v>260</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2" t="s">
-        <v>319</v>
+        <v>12</v>
       </c>
       <c r="G121" s="2">
-        <v>2013</v>
+        <v>1934</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I121" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K121">
-        <v>329</v>
+        <v>251</v>
       </c>
       <c r="L121" s="1">
-        <v>42512</v>
+        <v>43294</v>
       </c>
       <c r="M121" s="1">
-        <v>42514</v>
+        <v>43307</v>
       </c>
       <c r="N121">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O121" s="8">
         <f t="shared" si="6"/>
-        <v>164.5</v>
+        <v>19.307692307692307</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>65</v>
+        <v>263</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G122" s="2">
-        <v>2011</v>
+        <v>1951</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I122" t="s">
-        <v>96</v>
+        <v>369</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K122">
-        <v>498</v>
+        <v>192</v>
       </c>
       <c r="L122" s="1">
-        <v>43308</v>
+        <v>42518</v>
       </c>
       <c r="M122" s="1">
-        <v>43322</v>
+        <v>42522</v>
       </c>
       <c r="N122">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="O122" s="8">
         <f t="shared" si="6"/>
-        <v>35.571428571428569</v>
+        <v>48</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>266</v>
+        <v>370</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2" t="s">
-        <v>268</v>
+        <v>319</v>
       </c>
       <c r="G123" s="2">
-        <v>1971</v>
+        <v>2013</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I123" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K123">
-        <v>160</v>
+        <v>329</v>
       </c>
       <c r="L123" s="1">
-        <v>42643</v>
+        <v>42512</v>
       </c>
       <c r="M123" s="1">
-        <v>42644</v>
+        <v>42514</v>
       </c>
       <c r="N123">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O123" s="8">
         <f t="shared" si="6"/>
-        <v>160</v>
+        <v>164.5</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>270</v>
+        <v>65</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2" t="s">
-        <v>271</v>
+        <v>30</v>
       </c>
       <c r="G124" s="2">
-        <v>2000</v>
+        <v>2011</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I124" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K124">
-        <v>176</v>
+        <v>498</v>
       </c>
       <c r="L124" s="1">
-        <v>42628</v>
+        <v>43308</v>
       </c>
       <c r="M124" s="1">
-        <v>42632</v>
+        <v>43322</v>
       </c>
       <c r="N124">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="O124" s="8">
         <f t="shared" si="6"/>
-        <v>44</v>
+        <v>35.571428571428569</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G125" s="2">
-        <v>2000</v>
+        <v>1971</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I125" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K125">
-        <v>639</v>
+        <v>160</v>
       </c>
       <c r="L125" s="1">
-        <v>42683</v>
+        <v>42643</v>
       </c>
       <c r="M125" s="1">
-        <v>42695</v>
+        <v>42644</v>
       </c>
       <c r="N125">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O125" s="8">
         <f t="shared" si="6"/>
-        <v>53.25</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="G126" s="2">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I126" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K126">
-        <v>563</v>
+        <v>176</v>
       </c>
       <c r="L126" s="1">
-        <v>42830</v>
+        <v>42628</v>
       </c>
       <c r="M126" s="1">
-        <v>42846</v>
+        <v>42632</v>
       </c>
       <c r="N126">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O126" s="8">
         <f t="shared" si="6"/>
-        <v>35.1875</v>
+        <v>44</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G127" s="2">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I127" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K127">
-        <v>304</v>
+        <v>639</v>
       </c>
       <c r="L127" s="1">
-        <v>42848</v>
+        <v>42683</v>
       </c>
       <c r="M127" s="1">
-        <v>42852</v>
+        <v>42695</v>
       </c>
       <c r="N127">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O127" s="8">
         <f t="shared" si="6"/>
-        <v>76</v>
+        <v>53.25</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2" t="s">
-        <v>28</v>
+        <v>319</v>
       </c>
       <c r="G128" s="2">
-        <v>1994</v>
+        <v>2015</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>8</v>
@@ -8037,56 +8061,56 @@
         <v>9</v>
       </c>
       <c r="K128">
-        <v>480</v>
+        <v>563</v>
       </c>
       <c r="L128" s="1">
-        <v>42358</v>
+        <v>42830</v>
       </c>
       <c r="M128" s="1">
-        <v>42377</v>
+        <v>42846</v>
       </c>
       <c r="N128">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O128" s="8">
         <f t="shared" si="6"/>
-        <v>25.263157894736842</v>
+        <v>35.1875</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2" t="s">
-        <v>28</v>
+        <v>279</v>
       </c>
       <c r="G129" s="2">
-        <v>1962</v>
+        <v>2015</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I129" t="s">
-        <v>49</v>
+        <v>343</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K129">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="L129" s="1">
-        <v>42696</v>
+        <v>42848</v>
       </c>
       <c r="M129" s="1">
-        <v>42700</v>
+        <v>42852</v>
       </c>
       <c r="N129">
         <f t="shared" si="7"/>
@@ -8094,153 +8118,153 @@
       </c>
       <c r="O129" s="8">
         <f t="shared" si="6"/>
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2" t="s">
-        <v>286</v>
+        <v>28</v>
       </c>
       <c r="G130" s="2">
-        <v>1929</v>
+        <v>1994</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I130" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K130">
-        <v>348</v>
+        <v>480</v>
       </c>
       <c r="L130" s="1">
-        <v>42860</v>
+        <v>42358</v>
       </c>
       <c r="M130" s="1">
-        <v>42869</v>
+        <v>42377</v>
       </c>
       <c r="N130">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="O130" s="8">
         <f t="shared" si="6"/>
-        <v>38.666666666666664</v>
+        <v>25.263157894736842</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2" t="s">
-        <v>289</v>
+        <v>28</v>
       </c>
       <c r="G131" s="2">
-        <v>1897</v>
+        <v>1962</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I131" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K131">
-        <v>496</v>
+        <v>256</v>
       </c>
       <c r="L131" s="1">
-        <v>42952</v>
+        <v>42696</v>
       </c>
       <c r="M131" s="1">
-        <v>42962</v>
+        <v>42700</v>
       </c>
       <c r="N131">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O131" s="8">
         <f t="shared" si="6"/>
-        <v>49.6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2" t="s">
-        <v>168</v>
+        <v>286</v>
       </c>
       <c r="G132" s="2">
-        <v>2016</v>
+        <v>1929</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I132" t="s">
-        <v>336</v>
+        <v>49</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K132">
-        <v>302</v>
+        <v>348</v>
       </c>
       <c r="L132" s="1">
-        <v>43179</v>
+        <v>42860</v>
       </c>
       <c r="M132" s="1">
-        <v>43183</v>
+        <v>42869</v>
       </c>
       <c r="N132">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O132" s="8">
         <f t="shared" si="6"/>
-        <v>75.5</v>
+        <v>38.666666666666664</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="G133" s="2">
-        <v>1886</v>
+        <v>1897</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>8</v>
@@ -8252,38 +8276,38 @@
         <v>9</v>
       </c>
       <c r="K133">
-        <v>110</v>
+        <v>496</v>
       </c>
       <c r="L133" s="1">
-        <v>43430</v>
+        <v>42952</v>
       </c>
       <c r="M133" s="1">
-        <v>43434</v>
+        <v>42962</v>
       </c>
       <c r="N133">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O133" s="8">
         <f t="shared" si="6"/>
-        <v>27.5</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2" t="s">
-        <v>296</v>
+        <v>168</v>
       </c>
       <c r="G134" s="2">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>331</v>
@@ -8292,16 +8316,16 @@
         <v>336</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K134">
-        <v>256</v>
+        <v>302</v>
       </c>
       <c r="L134" s="1">
-        <v>43449</v>
+        <v>43179</v>
       </c>
       <c r="M134" s="1">
-        <v>43453</v>
+        <v>43183</v>
       </c>
       <c r="N134">
         <f t="shared" si="7"/>
@@ -8309,153 +8333,153 @@
       </c>
       <c r="O134" s="8">
         <f t="shared" si="6"/>
-        <v>64</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2" t="s">
-        <v>319</v>
+        <v>248</v>
       </c>
       <c r="G135" s="2">
-        <v>1972</v>
+        <v>1886</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I135" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K135">
-        <v>506</v>
+        <v>110</v>
       </c>
       <c r="L135" s="1">
-        <v>43436</v>
+        <v>43430</v>
       </c>
       <c r="M135" s="1">
-        <v>43446</v>
+        <v>43434</v>
       </c>
       <c r="N135">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O135" s="8">
         <f t="shared" si="6"/>
-        <v>50.6</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G136" s="2">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I136" t="s">
-        <v>49</v>
+        <v>336</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K136">
-        <v>941</v>
+        <v>256</v>
       </c>
       <c r="L136" s="1">
-        <v>42737</v>
+        <v>43449</v>
       </c>
       <c r="M136" s="1">
-        <v>42767</v>
+        <v>43453</v>
       </c>
       <c r="N136">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="O136" s="8">
         <f t="shared" si="6"/>
-        <v>31.366666666666667</v>
+        <v>64</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>382</v>
+        <v>298</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="G137" s="2">
-        <v>1959</v>
+        <v>1972</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I137" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K137">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="L137" s="1">
-        <v>42567</v>
+        <v>43436</v>
       </c>
       <c r="M137" s="1">
-        <v>42578</v>
+        <v>43446</v>
       </c>
       <c r="N137">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O137" s="8">
         <f t="shared" si="6"/>
-        <v>52.909090909090907</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2" t="s">
-        <v>156</v>
+        <v>301</v>
       </c>
       <c r="G138" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>331</v>
@@ -8467,121 +8491,121 @@
         <v>9</v>
       </c>
       <c r="K138">
-        <v>862</v>
+        <v>941</v>
       </c>
       <c r="L138" s="1">
-        <v>42445</v>
+        <v>42737</v>
       </c>
       <c r="M138" s="1">
-        <v>42484</v>
+        <v>42767</v>
       </c>
       <c r="N138">
         <f t="shared" si="7"/>
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="O138" s="8">
-        <f t="shared" ref="O138:O145" si="8">K138/N138</f>
-        <v>22.102564102564102</v>
+        <f t="shared" si="6"/>
+        <v>31.366666666666667</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>307</v>
+        <v>382</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G139" s="2">
-        <v>2016</v>
+        <v>1959</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I139" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K139">
-        <v>488</v>
+        <v>582</v>
       </c>
       <c r="L139" s="1">
-        <v>42431</v>
+        <v>42567</v>
       </c>
       <c r="M139" s="1">
-        <v>42445</v>
+        <v>42578</v>
       </c>
       <c r="N139">
-        <f t="shared" ref="N139:N145" si="9">M139-L139</f>
-        <v>14</v>
+        <f t="shared" si="7"/>
+        <v>11</v>
       </c>
       <c r="O139" s="8">
-        <f t="shared" si="8"/>
-        <v>34.857142857142854</v>
+        <f t="shared" si="6"/>
+        <v>52.909090909090907</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>150</v>
+        <v>305</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G140" s="2">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I140" t="s">
-        <v>310</v>
+        <v>49</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K140">
-        <v>352</v>
+        <v>862</v>
       </c>
       <c r="L140" s="1">
-        <v>42899</v>
+        <v>42445</v>
       </c>
       <c r="M140" s="1">
-        <v>42918</v>
+        <v>42484</v>
       </c>
       <c r="N140">
-        <f t="shared" si="9"/>
-        <v>19</v>
+        <f t="shared" si="7"/>
+        <v>39</v>
       </c>
       <c r="O140" s="8">
-        <f t="shared" si="8"/>
-        <v>18.526315789473685</v>
+        <f t="shared" ref="O140:O147" si="8">K140/N140</f>
+        <v>22.102564102564102</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="G141" s="2">
         <v>2016</v>
@@ -8590,203 +8614,289 @@
         <v>331</v>
       </c>
       <c r="I141" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K141">
-        <v>255</v>
+        <v>488</v>
       </c>
       <c r="L141" s="1">
-        <v>43405</v>
+        <v>42431</v>
       </c>
       <c r="M141" s="1">
-        <v>43411</v>
+        <v>42445</v>
       </c>
       <c r="N141">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f t="shared" ref="N141:N147" si="9">M141-L141</f>
+        <v>14</v>
       </c>
       <c r="O141" s="8">
         <f t="shared" si="8"/>
-        <v>42.5</v>
+        <v>34.857142857142854</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>314</v>
+        <v>150</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="G142" s="2">
-        <v>1985</v>
+        <v>2010</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I142" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K142">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="L142" s="1">
-        <v>43509</v>
+        <v>42899</v>
       </c>
       <c r="M142" s="1">
-        <v>43516</v>
+        <v>42918</v>
       </c>
       <c r="N142">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="O142" s="8">
         <f t="shared" si="8"/>
-        <v>46.285714285714285</v>
+        <v>18.526315789473685</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="G143" s="2">
-        <v>1854</v>
+        <v>2016</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I143" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K143">
-        <v>360</v>
+        <v>255</v>
       </c>
       <c r="L143" s="1">
-        <v>43369</v>
+        <v>43405</v>
       </c>
       <c r="M143" s="1">
-        <v>43381</v>
+        <v>43411</v>
       </c>
       <c r="N143">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O143" s="8">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>368</v>
+        <v>313</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>377</v>
+        <v>314</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2" t="s">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="G144" s="2">
-        <v>1963</v>
+        <v>1985</v>
       </c>
       <c r="H144" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I144" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K144">
-        <v>257</v>
+        <v>324</v>
       </c>
       <c r="L144" s="1">
-        <v>43427</v>
+        <v>43509</v>
       </c>
       <c r="M144" s="1">
-        <v>43429</v>
+        <v>43516</v>
       </c>
       <c r="N144">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O144" s="8">
         <f t="shared" si="8"/>
-        <v>128.5</v>
+        <v>46.285714285714285</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2" t="s">
-        <v>61</v>
+        <v>286</v>
       </c>
       <c r="G145" s="2">
-        <v>1979</v>
+        <v>1854</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I145" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K145">
-        <v>592</v>
+        <v>360</v>
       </c>
       <c r="L145" s="1">
-        <v>43543</v>
+        <v>43369</v>
       </c>
       <c r="M145" s="1">
-        <v>43576</v>
+        <v>43381</v>
       </c>
       <c r="N145">
         <f t="shared" si="9"/>
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="O145" s="8">
         <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A146" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G146" s="2">
+        <v>1963</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I146" t="s">
+        <v>337</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K146">
+        <v>257</v>
+      </c>
+      <c r="L146" s="1">
+        <v>43427</v>
+      </c>
+      <c r="M146" s="1">
+        <v>43429</v>
+      </c>
+      <c r="N146">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="O146" s="8">
+        <f t="shared" si="8"/>
+        <v>128.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A147" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G147" s="2">
+        <v>1979</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I147" t="s">
+        <v>347</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K147">
+        <v>592</v>
+      </c>
+      <c r="L147" s="1">
+        <v>43543</v>
+      </c>
+      <c r="M147" s="1">
+        <v>43576</v>
+      </c>
+      <c r="N147">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="O147" s="8">
+        <f t="shared" si="8"/>
         <v>17.939393939393938</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N145" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N147" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/b2.xlsx
+++ b/b2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EF4366-1CD7-4D20-8013-C3603D5CBC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B0373C-AB01-4184-A24F-AF27A7BF2778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18340" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="clean" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">clean!$A$1:$N$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">clean!$A$1:$N$148</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="432">
   <si>
     <t>Title</t>
   </si>
@@ -1329,6 +1329,15 @@
   </si>
   <si>
     <t>HarperCollins</t>
+  </si>
+  <si>
+    <t>L'anomalie</t>
+  </si>
+  <si>
+    <t>Le Tellier, Hervé</t>
+  </si>
+  <si>
+    <t>Linguist</t>
   </si>
 </sst>
 </file>
@@ -2200,13 +2209,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O147"/>
+  <dimension ref="A1:O148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O3" sqref="O2:O3"/>
+      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2273,59 +2282,59 @@
     </row>
     <row r="2" spans="1:15" s="7" customFormat="1" ht="19" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>387</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>428</v>
+        <v>19</v>
       </c>
       <c r="G2" s="11">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K2" s="2">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="L2" s="1">
-        <v>44333</v>
+        <v>44345</v>
       </c>
       <c r="M2" s="1">
-        <v>44340</v>
+        <v>44353</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N8" si="0">M2-L2</f>
-        <v>7</v>
+        <f t="shared" ref="N2:N9" si="0">M2-L2</f>
+        <v>8</v>
       </c>
       <c r="O2" s="8">
-        <f t="shared" ref="O2:O8" si="1">K2/N2</f>
-        <v>40</v>
+        <f t="shared" ref="O2:O9" si="1">K2/N2</f>
+        <v>41.5</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>198</v>
+        <v>427</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>384</v>
@@ -2334,62 +2343,62 @@
         <v>387</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>113</v>
+        <v>428</v>
       </c>
       <c r="G3" s="11">
-        <v>1964</v>
+        <v>2021</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K3" s="2">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="L3" s="1">
-        <v>44307</v>
+        <v>44333</v>
       </c>
       <c r="M3" s="1">
-        <v>44329</v>
+        <v>44340</v>
       </c>
       <c r="N3">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="O3" s="8">
         <f t="shared" si="1"/>
-        <v>18.181818181818183</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>424</v>
+        <v>198</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>406</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>423</v>
+        <v>113</v>
       </c>
       <c r="G4" s="11">
-        <v>1984</v>
+        <v>1964</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>8</v>
@@ -2398,231 +2407,231 @@
         <v>369</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K4" s="2">
-        <v>142</v>
+        <v>400</v>
       </c>
       <c r="L4" s="1">
-        <v>44303</v>
+        <v>44307</v>
       </c>
       <c r="M4" s="1">
-        <v>44305</v>
+        <v>44329</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="O4" s="8">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>18.181818181818183</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="G5" s="11">
-        <v>2019</v>
+        <v>1984</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>96</v>
+        <v>369</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K5" s="2">
-        <v>264</v>
+        <v>142</v>
       </c>
       <c r="L5" s="1">
-        <v>44296</v>
+        <v>44303</v>
       </c>
       <c r="M5" s="1">
-        <v>44302</v>
+        <v>44305</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O5" s="8">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>387</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1971</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>8</v>
+        <v>402</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="G6" s="11">
+        <v>2019</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>331</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K6" s="2">
-        <v>692</v>
+        <v>264</v>
       </c>
       <c r="L6" s="1">
-        <v>44280</v>
+        <v>44296</v>
       </c>
       <c r="M6" s="1">
-        <v>44291</v>
+        <v>44302</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O6" s="8">
         <f t="shared" si="1"/>
-        <v>62.909090909090907</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>387</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>308</v>
+        <v>418</v>
       </c>
       <c r="G7" s="2">
-        <v>2011</v>
+        <v>1971</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>332</v>
+        <v>49</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K7" s="2">
-        <v>369</v>
+        <v>692</v>
       </c>
       <c r="L7" s="1">
-        <v>44240</v>
+        <v>44280</v>
       </c>
       <c r="M7" s="1">
-        <v>44246</v>
+        <v>44291</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O7" s="8">
         <f t="shared" si="1"/>
-        <v>61.5</v>
+        <v>62.909090909090907</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>387</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="G8" s="2">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>49</v>
+        <v>332</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K8" s="2">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="L8" s="1">
-        <v>44227</v>
+        <v>44240</v>
       </c>
       <c r="M8" s="1">
-        <v>44240</v>
+        <v>44246</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="O8" s="8">
         <f t="shared" si="1"/>
-        <v>30.846153846153847</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>383</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>387</v>
@@ -2631,238 +2640,240 @@
         <v>402</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>231</v>
+        <v>412</v>
       </c>
       <c r="G9" s="2">
-        <v>1958</v>
+        <v>2018</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>343</v>
+        <v>49</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K9" s="2">
-        <v>262</v>
+        <v>401</v>
       </c>
       <c r="L9" s="1">
-        <v>44212</v>
+        <v>44227</v>
       </c>
       <c r="M9" s="1">
-        <v>44223</v>
+        <v>44240</v>
       </c>
       <c r="N9">
-        <f t="shared" ref="N9:N11" si="2">M9-L9</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="O9" s="8">
-        <f t="shared" ref="O9:O11" si="3">K9/N9</f>
-        <v>23.818181818181817</v>
+        <f t="shared" si="1"/>
+        <v>30.846153846153847</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>383</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="G10" s="2">
-        <v>1934</v>
+        <v>1958</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="2">
+        <v>262</v>
+      </c>
+      <c r="L10" s="1">
+        <v>44212</v>
+      </c>
+      <c r="M10" s="1">
+        <v>44223</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ref="N10:N12" si="2">M10-L10</f>
+        <v>11</v>
+      </c>
+      <c r="O10" s="8">
+        <f t="shared" ref="O10:O12" si="3">K10/N10</f>
+        <v>23.818181818181817</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1934</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K11" s="2">
         <v>217</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L11" s="1">
         <v>44207</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M11" s="1">
         <v>44212</v>
       </c>
-      <c r="N10">
+      <c r="N11">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O11" s="8">
         <f t="shared" si="3"/>
         <v>43.4</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G12" s="2">
         <v>2013</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K12" s="2">
         <v>533</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L12" s="1">
         <v>44193</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M12" s="1">
         <v>44195</v>
       </c>
-      <c r="N11">
+      <c r="N12">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O12" s="8">
         <f t="shared" si="3"/>
         <v>266.5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G13" s="2">
         <v>2020</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="2">
+      <c r="J13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="2">
         <v>278</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L13" s="1">
         <v>44178</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M13" s="1">
         <v>44193</v>
-      </c>
-      <c r="N12">
-        <f>M12-L12</f>
-        <v>15</v>
-      </c>
-      <c r="O12" s="8">
-        <f>K12/N12</f>
-        <v>18.533333333333335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="2">
-        <v>2006</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" t="s">
-        <v>330</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13">
-        <v>420</v>
-      </c>
-      <c r="L13" s="1">
-        <v>44163</v>
-      </c>
-      <c r="M13" s="1">
-        <v>44165</v>
       </c>
       <c r="N13">
         <f>M13-L13</f>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O13" s="8">
-        <f t="shared" ref="O13:O76" si="4">K13/N13</f>
-        <v>210</v>
+        <f>K13/N13</f>
+        <v>18.533333333333335</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>384</v>
@@ -2872,498 +2883,498 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G14" s="2">
-        <v>1983</v>
+        <v>2006</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I14" t="s">
+        <v>330</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <v>420</v>
+      </c>
+      <c r="L14" s="1">
+        <v>44163</v>
+      </c>
+      <c r="M14" s="1">
+        <v>44165</v>
+      </c>
+      <c r="N14">
+        <f>M14-L14</f>
+        <v>2</v>
+      </c>
+      <c r="O14" s="8">
+        <f t="shared" ref="O14:O77" si="4">K14/N14</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1983</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" t="s">
         <v>369</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14">
+      <c r="J15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15">
         <v>291</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L15" s="1">
         <v>44156</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M15" s="1">
         <v>44163</v>
       </c>
-      <c r="N14">
-        <f t="shared" ref="N14:N77" si="5">M14-L14</f>
+      <c r="N15">
+        <f t="shared" ref="N15:N78" si="5">M15-L15</f>
         <v>7</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O15" s="8">
         <f t="shared" si="4"/>
         <v>41.571428571428569</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G16" s="2">
         <v>2017</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H16" t="s">
         <v>331</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15">
+      <c r="J16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16">
         <v>176</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L16" s="1">
         <v>44150</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M16" s="1">
         <v>44155</v>
       </c>
-      <c r="N15">
+      <c r="N16">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O16" s="8">
         <f t="shared" si="4"/>
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G17" s="2">
         <v>1980</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16">
+      <c r="J17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17">
         <v>502</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L17" s="1">
         <v>44129</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M17" s="1">
         <v>44142</v>
       </c>
-      <c r="N16">
-        <f>M16-L16</f>
+      <c r="N17">
+        <f>M17-L17</f>
         <v>13</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O17" s="8">
         <f t="shared" si="4"/>
         <v>38.615384615384613</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G18" s="2">
         <v>1938</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K17">
+      <c r="K18">
         <v>247</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L18" s="1">
         <v>44114</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M18" s="1">
         <v>44129</v>
       </c>
-      <c r="N17">
+      <c r="N18">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O18" s="8">
         <f t="shared" si="4"/>
         <v>16.466666666666665</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G19" s="2">
         <v>1981</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18">
+      <c r="J19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19">
         <v>225</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L19" s="1">
         <v>43931</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M19" s="1">
         <v>44053</v>
       </c>
-      <c r="N18">
+      <c r="N19">
         <f t="shared" si="5"/>
         <v>122</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O19" s="8">
         <f t="shared" si="4"/>
         <v>1.8442622950819672</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G20" s="2">
         <v>1865</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K19">
+      <c r="K20">
         <v>826</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L20" s="1">
         <v>43930</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M20" s="1">
         <v>44021</v>
       </c>
-      <c r="N19">
+      <c r="N20">
         <f t="shared" si="5"/>
         <v>91</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O20" s="8">
         <f t="shared" si="4"/>
         <v>9.0769230769230766</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G21" s="2">
         <v>1988</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20">
+      <c r="J21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21">
         <v>368</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L21" s="1">
         <v>44052</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M21" s="1">
         <v>44077</v>
       </c>
-      <c r="N20">
+      <c r="N21">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O21" s="8">
         <f t="shared" si="4"/>
         <v>14.72</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G22" s="2">
         <v>1951</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21">
+      <c r="J22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22">
         <v>54</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L22" s="1">
         <v>43838</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M22" s="1">
         <v>43990</v>
       </c>
-      <c r="N21">
+      <c r="N22">
         <f t="shared" si="5"/>
         <v>152</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O22" s="8">
         <f t="shared" si="4"/>
         <v>0.35526315789473684</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G23" s="2">
         <v>1979</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22">
+      <c r="J23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23">
         <v>179</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L23" s="1">
         <v>44020</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M23" s="1">
         <v>44082</v>
       </c>
-      <c r="N22">
+      <c r="N23">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O23" s="8">
         <f t="shared" si="4"/>
         <v>2.8870967741935485</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1982</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K23">
-        <v>299</v>
-      </c>
-      <c r="L23" s="1">
-        <v>44037</v>
-      </c>
-      <c r="M23" s="1">
-        <v>44039</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="O23" s="8">
-        <f t="shared" si="4"/>
-        <v>149.5</v>
-      </c>
-    </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G24" s="2">
-        <v>1964</v>
+        <v>1982</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K24">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="L24" s="1">
-        <v>44032</v>
+        <v>44037</v>
       </c>
       <c r="M24" s="1">
-        <v>44034</v>
+        <v>44039</v>
       </c>
       <c r="N24">
         <f t="shared" si="5"/>
@@ -3371,328 +3382,328 @@
       </c>
       <c r="O24" s="8">
         <f t="shared" si="4"/>
-        <v>168</v>
+        <v>149.5</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G25" s="2">
-        <v>2018</v>
+        <v>1964</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K25">
-        <v>256</v>
+        <v>336</v>
       </c>
       <c r="L25" s="1">
-        <v>44023</v>
+        <v>44032</v>
       </c>
       <c r="M25" s="1">
-        <v>44030</v>
+        <v>44034</v>
       </c>
       <c r="N25">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O25" s="8">
         <f t="shared" si="4"/>
-        <v>36.571428571428569</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>377</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>383</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G26" s="2">
-        <v>1965</v>
+        <v>2018</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K26">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="L26" s="1">
-        <v>44018</v>
+        <v>44023</v>
       </c>
       <c r="M26" s="1">
-        <v>44023</v>
+        <v>44030</v>
       </c>
       <c r="N26">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O26" s="8">
         <f t="shared" si="4"/>
-        <v>64</v>
+        <v>36.571428571428569</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>320</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>377</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G27" s="2">
-        <v>2005</v>
+        <v>1965</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>49</v>
+        <v>337</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K27">
-        <v>465</v>
+        <v>320</v>
       </c>
       <c r="L27" s="1">
-        <v>44004</v>
+        <v>44018</v>
       </c>
       <c r="M27" s="1">
-        <v>44017</v>
+        <v>44023</v>
       </c>
       <c r="N27">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="O27" s="8">
         <f t="shared" si="4"/>
-        <v>35.769230769230766</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>43</v>
+        <v>320</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G28" s="2">
-        <v>1930</v>
+        <v>2005</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>338</v>
+        <v>49</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K28">
-        <v>240</v>
+        <v>465</v>
       </c>
       <c r="L28" s="1">
-        <v>43995</v>
+        <v>44004</v>
       </c>
       <c r="M28" s="1">
-        <v>44002</v>
+        <v>44017</v>
       </c>
       <c r="N28">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O28" s="8">
         <f t="shared" si="4"/>
-        <v>34.285714285714285</v>
+        <v>35.769230769230766</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>319</v>
+        <v>45</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1930</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>49</v>
+        <v>338</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K29">
-        <v>618</v>
+        <v>240</v>
       </c>
       <c r="L29" s="1">
-        <v>43927</v>
+        <v>43995</v>
       </c>
       <c r="M29" s="1">
-        <v>44110</v>
+        <v>44002</v>
       </c>
       <c r="N29">
         <f t="shared" si="5"/>
-        <v>183</v>
+        <v>7</v>
       </c>
       <c r="O29" s="8">
         <f t="shared" si="4"/>
-        <v>3.377049180327869</v>
+        <v>34.285714285714285</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G30" s="2">
-        <v>1939</v>
+        <v>48</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>339</v>
+        <v>49</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K30">
-        <v>250</v>
+        <v>618</v>
       </c>
       <c r="L30" s="1">
-        <v>43982</v>
+        <v>43927</v>
       </c>
       <c r="M30" s="1">
-        <v>43984</v>
+        <v>44110</v>
       </c>
       <c r="N30">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="O30" s="8">
         <f t="shared" si="4"/>
-        <v>125</v>
+        <v>3.377049180327869</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G31" s="2">
-        <v>2020</v>
+        <v>1939</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K31">
-        <v>336</v>
+        <v>250</v>
       </c>
       <c r="L31" s="1">
-        <v>43975</v>
+        <v>43982</v>
       </c>
       <c r="M31" s="1">
-        <v>43977</v>
+        <v>43984</v>
       </c>
       <c r="N31">
         <f t="shared" si="5"/>
@@ -3700,62 +3711,62 @@
       </c>
       <c r="O31" s="8">
         <f t="shared" si="4"/>
-        <v>168</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G32" s="2">
-        <v>1966</v>
+        <v>2020</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>58</v>
+        <v>348</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K32">
-        <v>284</v>
+        <v>336</v>
       </c>
       <c r="L32" s="1">
-        <v>43968</v>
+        <v>43975</v>
       </c>
       <c r="M32" s="1">
-        <v>43973</v>
+        <v>43977</v>
       </c>
       <c r="N32">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O32" s="8">
         <f t="shared" si="4"/>
-        <v>56.8</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>384</v>
@@ -3765,10 +3776,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G33" s="2">
-        <v>2018</v>
+        <v>1966</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>331</v>
@@ -3780,29 +3791,29 @@
         <v>9</v>
       </c>
       <c r="K33">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="L33" s="1">
-        <v>43964</v>
+        <v>43968</v>
       </c>
       <c r="M33" s="1">
-        <v>43965</v>
+        <v>43973</v>
       </c>
       <c r="N33">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O33" s="8">
         <f t="shared" si="4"/>
-        <v>320</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>384</v>
@@ -3812,47 +3823,47 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G34" s="2">
-        <v>1966</v>
+        <v>2018</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>369</v>
+        <v>58</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K34">
-        <v>126</v>
+        <v>320</v>
       </c>
       <c r="L34" s="1">
-        <v>43962</v>
+        <v>43964</v>
       </c>
       <c r="M34" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="N34">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O34" s="8">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>387</v>
@@ -3862,148 +3873,148 @@
         <v>12</v>
       </c>
       <c r="G35" s="2">
-        <v>2017</v>
+        <v>1966</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>96</v>
+        <v>369</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K35">
-        <v>513</v>
+        <v>126</v>
       </c>
       <c r="L35" s="1">
-        <v>43947</v>
+        <v>43962</v>
       </c>
       <c r="M35" s="1">
-        <v>43956</v>
+        <v>43964</v>
       </c>
       <c r="N35">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O35" s="8">
         <f t="shared" si="4"/>
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>375</v>
+        <v>64</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>376</v>
+        <v>65</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>20</v>
+        <v>393</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="G36" s="2">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K36">
-        <v>646</v>
+        <v>513</v>
       </c>
       <c r="L36" s="1">
-        <v>43942</v>
+        <v>43947</v>
       </c>
       <c r="M36" s="1">
-        <v>43947</v>
+        <v>43956</v>
       </c>
       <c r="N36">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O36" s="8">
         <f t="shared" si="4"/>
-        <v>129.19999999999999</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>67</v>
+        <v>375</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>68</v>
+        <v>376</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G37" s="2">
-        <v>1961</v>
+        <v>2019</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K37">
-        <v>568</v>
+        <v>646</v>
       </c>
       <c r="L37" s="1">
-        <v>43927</v>
+        <v>43942</v>
       </c>
       <c r="M37" s="1">
-        <v>43941</v>
+        <v>43947</v>
       </c>
       <c r="N37">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="O37" s="8">
         <f t="shared" si="4"/>
-        <v>40.571428571428569</v>
+        <v>129.19999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>374</v>
+        <v>68</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G38" s="2">
-        <v>1929</v>
+        <v>1961</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>8</v>
@@ -4015,123 +4026,123 @@
         <v>9</v>
       </c>
       <c r="K38">
-        <v>299</v>
+        <v>568</v>
       </c>
       <c r="L38" s="1">
-        <v>43919</v>
+        <v>43927</v>
       </c>
       <c r="M38" s="1">
-        <v>43926</v>
+        <v>43941</v>
       </c>
       <c r="N38">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8">
         <f t="shared" si="4"/>
-        <v>42.714285714285715</v>
+        <v>40.571428571428569</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>374</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>20</v>
+        <v>392</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G39" s="2">
-        <v>1844</v>
+        <v>1929</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K39">
-        <v>1180</v>
+        <v>299</v>
       </c>
       <c r="L39" s="1">
-        <v>43839</v>
+        <v>43919</v>
       </c>
       <c r="M39" s="1">
-        <v>43884</v>
+        <v>43926</v>
       </c>
       <c r="N39">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="O39" s="8">
         <f t="shared" si="4"/>
-        <v>26.222222222222221</v>
+        <v>42.714285714285715</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G40" s="2">
-        <v>1979</v>
+        <v>1844</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K40">
-        <v>567</v>
+        <v>1180</v>
       </c>
       <c r="L40" s="1">
-        <v>43814</v>
+        <v>43839</v>
       </c>
       <c r="M40" s="1">
-        <v>43891</v>
+        <v>43884</v>
       </c>
       <c r="N40">
         <f t="shared" si="5"/>
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="O40" s="8">
         <f t="shared" si="4"/>
-        <v>7.3636363636363633</v>
+        <v>26.222222222222221</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>384</v>
@@ -4141,144 +4152,148 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G41" s="2">
-        <v>2019</v>
+        <v>1979</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K41">
-        <v>408</v>
+        <v>567</v>
       </c>
       <c r="L41" s="1">
-        <v>43834</v>
+        <v>43814</v>
       </c>
       <c r="M41" s="1">
-        <v>43836</v>
+        <v>43891</v>
       </c>
       <c r="N41">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="O41" s="8">
         <f t="shared" si="4"/>
-        <v>204</v>
+        <v>7.3636363636363633</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="G42" s="2">
-        <v>1957</v>
+        <v>2019</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K42">
-        <v>170</v>
+        <v>408</v>
       </c>
       <c r="L42" s="1">
-        <v>43801</v>
+        <v>43834</v>
       </c>
       <c r="M42" s="1">
-        <v>43807</v>
+        <v>43836</v>
       </c>
       <c r="N42">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O42" s="8">
         <f t="shared" si="4"/>
-        <v>28.333333333333332</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="G43" s="2">
-        <v>2018</v>
+        <v>1957</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>58</v>
+        <v>343</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K43">
-        <v>319</v>
+        <v>170</v>
       </c>
       <c r="L43" s="1">
-        <v>43799</v>
+        <v>43801</v>
       </c>
       <c r="M43" s="1">
-        <v>43800</v>
+        <v>43807</v>
       </c>
       <c r="N43">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O43" s="8">
         <f t="shared" si="4"/>
-        <v>319</v>
+        <v>28.333333333333332</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G44" s="2">
         <v>2018</v>
@@ -4287,129 +4302,125 @@
         <v>331</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>336</v>
+        <v>58</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K44">
-        <v>400</v>
+        <v>319</v>
       </c>
       <c r="L44" s="1">
-        <v>43780</v>
+        <v>43799</v>
       </c>
       <c r="M44" s="1">
-        <v>43788</v>
+        <v>43800</v>
       </c>
       <c r="N44">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O44" s="8">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>354</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>358</v>
+        <v>88</v>
       </c>
       <c r="G45" s="2">
-        <v>1993</v>
+        <v>2018</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K45">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="L45" s="1">
-        <v>43762</v>
+        <v>43780</v>
       </c>
       <c r="M45" s="1">
-        <v>43773</v>
+        <v>43788</v>
       </c>
       <c r="N45">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O45" s="8">
         <f t="shared" si="4"/>
-        <v>32.272727272727273</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>354</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>28</v>
+        <v>358</v>
       </c>
       <c r="G46" s="2">
-        <v>1818</v>
+        <v>1993</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K46">
-        <v>240</v>
+        <v>355</v>
       </c>
       <c r="L46" s="1">
-        <v>43752</v>
+        <v>43762</v>
       </c>
       <c r="M46" s="1">
-        <v>43759</v>
+        <v>43773</v>
       </c>
       <c r="N46">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O46" s="8">
         <f t="shared" si="4"/>
-        <v>34.285714285714285</v>
+        <v>32.272727272727273</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>383</v>
@@ -4419,232 +4430,232 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="G47" s="2">
-        <v>2018</v>
+        <v>1818</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>96</v>
+        <v>330</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K47">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="L47" s="1">
-        <v>43743</v>
+        <v>43752</v>
       </c>
       <c r="M47" s="1">
-        <v>43749</v>
+        <v>43759</v>
       </c>
       <c r="N47">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O47" s="8">
         <f t="shared" si="4"/>
-        <v>45.333333333333336</v>
+        <v>34.285714285714285</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G48" s="2">
-        <v>1866</v>
+        <v>2018</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>339</v>
+        <v>96</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K48">
-        <v>528</v>
+        <v>272</v>
       </c>
       <c r="L48" s="1">
-        <v>43715</v>
+        <v>43743</v>
       </c>
       <c r="M48" s="1">
-        <v>43741</v>
+        <v>43749</v>
       </c>
       <c r="N48">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="O48" s="8">
         <f t="shared" si="4"/>
-        <v>20.307692307692307</v>
+        <v>45.333333333333336</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>359</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G49" s="2">
-        <v>1970</v>
+        <v>1866</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>49</v>
+        <v>339</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K49">
-        <v>348</v>
+        <v>528</v>
       </c>
       <c r="L49" s="1">
-        <v>43697</v>
+        <v>43715</v>
       </c>
       <c r="M49" s="1">
-        <v>43708</v>
+        <v>43741</v>
       </c>
       <c r="N49">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="O49" s="8">
         <f t="shared" si="4"/>
-        <v>31.636363636363637</v>
+        <v>20.307692307692307</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>101</v>
+        <v>359</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G50" s="2">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>333</v>
+        <v>49</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K50">
-        <v>416</v>
+        <v>348</v>
       </c>
       <c r="L50" s="1">
-        <v>43680</v>
+        <v>43697</v>
       </c>
       <c r="M50" s="1">
-        <v>43692</v>
+        <v>43708</v>
       </c>
       <c r="N50">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O50" s="8">
         <f t="shared" si="4"/>
-        <v>34.666666666666664</v>
+        <v>31.636363636363637</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="G51" s="2">
-        <v>2013</v>
+        <v>1972</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K51">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="L51" s="1">
-        <v>43663</v>
+        <v>43680</v>
       </c>
       <c r="M51" s="1">
-        <v>43677</v>
+        <v>43692</v>
       </c>
       <c r="N51">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O51" s="8">
         <f t="shared" si="4"/>
-        <v>33.071428571428569</v>
+        <v>34.666666666666664</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>384</v>
@@ -4654,44 +4665,44 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="G52" s="2">
-        <v>1965</v>
+        <v>2013</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K52">
-        <v>256</v>
+        <v>463</v>
       </c>
       <c r="L52" s="1">
-        <v>43640</v>
+        <v>43663</v>
       </c>
       <c r="M52" s="1">
-        <v>43659</v>
+        <v>43677</v>
       </c>
       <c r="N52">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O52" s="8">
         <f t="shared" si="4"/>
-        <v>13.473684210526315</v>
+        <v>33.071428571428569</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>384</v>
@@ -4701,91 +4712,91 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="G53" s="2">
-        <v>1997</v>
+        <v>1965</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K53">
-        <v>423</v>
+        <v>256</v>
       </c>
       <c r="L53" s="1">
-        <v>43618</v>
+        <v>43640</v>
       </c>
       <c r="M53" s="1">
-        <v>43636</v>
+        <v>43659</v>
       </c>
       <c r="N53">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O53" s="8">
         <f t="shared" si="4"/>
-        <v>23.5</v>
+        <v>13.473684210526315</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="G54" s="2">
-        <v>2018</v>
+        <v>1997</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K54">
-        <v>341</v>
+        <v>423</v>
       </c>
       <c r="L54" s="1">
-        <v>43616</v>
+        <v>43618</v>
       </c>
       <c r="M54" s="1">
-        <v>43617</v>
+        <v>43636</v>
       </c>
       <c r="N54">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="O54" s="8">
         <f t="shared" si="4"/>
-        <v>341</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>384</v>
@@ -4795,245 +4806,245 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
-        <v>113</v>
+        <v>360</v>
       </c>
       <c r="G55" s="2">
-        <v>2003</v>
+        <v>2018</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K55">
-        <v>610</v>
+        <v>341</v>
       </c>
       <c r="L55" s="1">
-        <v>43596</v>
+        <v>43616</v>
       </c>
       <c r="M55" s="1">
-        <v>43606</v>
+        <v>43617</v>
       </c>
       <c r="N55">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O55" s="8">
         <f t="shared" si="4"/>
-        <v>61</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>361</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
-        <v>358</v>
+        <v>113</v>
       </c>
       <c r="G56" s="2">
-        <v>1984</v>
+        <v>2003</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>49</v>
+        <v>344</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K56">
-        <v>352</v>
+        <v>610</v>
       </c>
       <c r="L56" s="1">
-        <v>43589</v>
+        <v>43596</v>
       </c>
       <c r="M56" s="1">
-        <v>43594</v>
+        <v>43606</v>
       </c>
       <c r="N56">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O56" s="8">
         <f t="shared" si="4"/>
-        <v>70.400000000000006</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>115</v>
+        <v>361</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
-        <v>117</v>
+        <v>358</v>
       </c>
       <c r="G57" s="2">
-        <v>2014</v>
+        <v>1984</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>336</v>
+        <v>49</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K57">
-        <v>288</v>
+        <v>352</v>
       </c>
       <c r="L57" s="1">
-        <v>43578</v>
+        <v>43589</v>
       </c>
       <c r="M57" s="1">
-        <v>43588</v>
+        <v>43594</v>
       </c>
       <c r="N57">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O57" s="8">
         <f t="shared" si="4"/>
-        <v>28.8</v>
+        <v>70.400000000000006</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
-        <v>319</v>
+        <v>117</v>
       </c>
       <c r="G58" s="2">
-        <v>1876</v>
+        <v>2014</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K58">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="L58" s="1">
-        <v>43041</v>
+        <v>43578</v>
       </c>
       <c r="M58" s="1">
-        <v>43048</v>
+        <v>43588</v>
       </c>
       <c r="N58">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O58" s="8">
         <f t="shared" si="4"/>
-        <v>33.714285714285715</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>122</v>
+        <v>319</v>
       </c>
       <c r="G59" s="2">
-        <v>1813</v>
+        <v>1876</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K59">
-        <v>414</v>
+        <v>236</v>
       </c>
       <c r="L59" s="1">
-        <v>42875</v>
+        <v>43041</v>
       </c>
       <c r="M59" s="1">
-        <v>42881</v>
+        <v>43048</v>
       </c>
       <c r="N59">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O59" s="8">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>33.714285714285715</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>20</v>
+        <v>383</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G60" s="2">
-        <v>1869</v>
+        <v>1813</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>8</v>
@@ -5042,339 +5053,339 @@
         <v>369</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K60">
-        <v>999</v>
+        <v>414</v>
+      </c>
+      <c r="L60" s="1">
+        <v>42875</v>
+      </c>
+      <c r="M60" s="1">
+        <v>42881</v>
       </c>
       <c r="N60">
         <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="O60" s="8">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G61" s="2">
+        <v>1869</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K61">
+        <v>999</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O60" s="8" t="e">
+      <c r="O61" s="8" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2" t="s">
+      <c r="E62" s="2"/>
+      <c r="F62" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G62" s="2">
         <v>1928</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="I62" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="J62" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K61">
+      <c r="K62">
         <v>323</v>
       </c>
-      <c r="L61" s="1">
+      <c r="L62" s="1">
         <v>42675</v>
       </c>
-      <c r="M61" s="1">
+      <c r="M62" s="1">
         <v>42682</v>
       </c>
-      <c r="N61">
+      <c r="N62">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="O61" s="8">
+      <c r="O62" s="8">
         <f t="shared" si="4"/>
         <v>46.142857142857146</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2" t="s">
+      <c r="E63" s="2"/>
+      <c r="F63" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G63" s="2">
         <v>1878</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H63" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="I63" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K62">
+      <c r="J63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63">
         <v>338</v>
       </c>
-      <c r="L62" s="1">
+      <c r="L63" s="1">
         <v>43477</v>
       </c>
-      <c r="M62" s="1">
+      <c r="M63" s="1">
         <v>43485</v>
       </c>
-      <c r="N62">
+      <c r="N63">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="O62" s="8">
+      <c r="O63" s="8">
         <f t="shared" si="4"/>
         <v>42.25</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2" t="s">
+      <c r="E64" s="2"/>
+      <c r="F64" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G64" s="2">
         <v>2018</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="I64" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K63">
+      <c r="J64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K64">
         <v>755</v>
       </c>
-      <c r="L63" s="1">
+      <c r="L64" s="1">
         <v>43108</v>
       </c>
-      <c r="M63" s="1">
+      <c r="M64" s="1">
         <v>43111</v>
       </c>
-      <c r="N63">
+      <c r="N64">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="O63" s="8">
+      <c r="O64" s="8">
         <f t="shared" si="4"/>
         <v>251.66666666666666</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="s">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2" t="s">
+      <c r="E65" s="2"/>
+      <c r="F65" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G65" s="2">
         <v>1954</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="H65" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="I65" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K64">
+      <c r="J65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K65">
         <v>250</v>
       </c>
-      <c r="L64" s="1">
+      <c r="L65" s="1">
         <v>43411</v>
       </c>
-      <c r="M64" s="1">
+      <c r="M65" s="1">
         <v>43423</v>
       </c>
-      <c r="N64">
+      <c r="N65">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="O64" s="8">
+      <c r="O65" s="8">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A65" s="3" t="s">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2" t="s">
+      <c r="E66" s="2"/>
+      <c r="F66" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G66" s="2">
         <v>2018</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="H66" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="I66" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K65">
+      <c r="J66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K66">
         <v>288</v>
       </c>
-      <c r="L65" s="1">
+      <c r="L66" s="1">
         <v>43496</v>
       </c>
-      <c r="M65" s="1">
+      <c r="M66" s="1">
         <v>43506</v>
       </c>
-      <c r="N65">
+      <c r="N66">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="O65" s="8">
+      <c r="O66" s="8">
         <f t="shared" si="4"/>
         <v>28.8</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G66" s="2">
-        <v>1898</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K66">
-        <v>61</v>
-      </c>
-      <c r="L66" s="1">
-        <v>43424</v>
-      </c>
-      <c r="M66" s="1">
-        <v>43425</v>
-      </c>
-      <c r="N66">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O66" s="8">
-        <f t="shared" si="4"/>
-        <v>61</v>
-      </c>
-    </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="G67" s="2">
-        <v>1978</v>
+        <v>1898</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K67">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L67" s="1">
-        <v>43402</v>
+        <v>43424</v>
       </c>
       <c r="M67" s="1">
-        <v>43403</v>
+        <v>43425</v>
       </c>
       <c r="N67">
         <f t="shared" si="5"/>
@@ -5382,62 +5393,62 @@
       </c>
       <c r="O67" s="8">
         <f t="shared" si="4"/>
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="G68" s="2">
-        <v>2018</v>
+        <v>1978</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>96</v>
+        <v>310</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K68">
-        <v>437</v>
+        <v>64</v>
       </c>
       <c r="L68" s="1">
-        <v>43381</v>
+        <v>43402</v>
       </c>
       <c r="M68" s="1">
-        <v>43390</v>
+        <v>43403</v>
       </c>
       <c r="N68">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O68" s="8">
         <f t="shared" si="4"/>
-        <v>48.555555555555557</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>384</v>
@@ -5447,148 +5458,148 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="G69" s="2">
-        <v>1925</v>
+        <v>2018</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>369</v>
+        <v>96</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K69">
-        <v>859</v>
+        <v>437</v>
       </c>
       <c r="L69" s="1">
-        <v>42585</v>
+        <v>43381</v>
       </c>
       <c r="M69" s="1">
-        <v>42627</v>
+        <v>43390</v>
       </c>
       <c r="N69">
         <f t="shared" si="5"/>
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="O69" s="8">
         <f t="shared" si="4"/>
-        <v>20.452380952380953</v>
+        <v>48.555555555555557</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="G70" s="2">
-        <v>1971</v>
+        <v>1925</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K70">
-        <v>416</v>
+        <v>859</v>
       </c>
       <c r="L70" s="1">
-        <v>43518</v>
+        <v>42585</v>
       </c>
       <c r="M70" s="1">
-        <v>43542</v>
+        <v>42627</v>
       </c>
       <c r="N70">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="O70" s="8">
         <f t="shared" si="4"/>
-        <v>17.333333333333332</v>
+        <v>20.452380952380953</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>362</v>
+        <v>147</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>364</v>
+        <v>148</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
-        <v>363</v>
+        <v>149</v>
       </c>
       <c r="G71" s="2">
-        <v>2015</v>
+        <v>1971</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K71">
-        <v>87</v>
+        <v>416</v>
       </c>
       <c r="L71" s="1">
-        <v>42871</v>
+        <v>43518</v>
       </c>
       <c r="M71" s="1">
-        <v>42877</v>
+        <v>43542</v>
       </c>
       <c r="N71">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="O71" s="8">
         <f t="shared" si="4"/>
-        <v>14.5</v>
+        <v>17.333333333333332</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>151</v>
+        <v>362</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>152</v>
+        <v>364</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
-        <v>153</v>
+        <v>363</v>
       </c>
       <c r="G72" s="2">
         <v>2015</v>
@@ -5597,91 +5608,95 @@
         <v>331</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>49</v>
+        <v>345</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K72">
-        <v>348</v>
+        <v>87</v>
       </c>
       <c r="L72" s="1">
-        <v>42947</v>
+        <v>42871</v>
       </c>
       <c r="M72" s="1">
-        <v>42949</v>
+        <v>42877</v>
       </c>
       <c r="N72">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O72" s="8">
         <f t="shared" si="4"/>
-        <v>174</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G73" s="2">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>336</v>
+        <v>49</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K73">
-        <v>270</v>
+        <v>348</v>
       </c>
       <c r="L73" s="1">
-        <v>43246</v>
+        <v>42947</v>
       </c>
       <c r="M73" s="1">
-        <v>43253</v>
+        <v>42949</v>
       </c>
       <c r="N73">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O73" s="8">
         <f t="shared" si="4"/>
-        <v>38.571428571428569</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="G74" s="2">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>331</v>
@@ -5693,815 +5708,815 @@
         <v>9</v>
       </c>
       <c r="K74">
-        <v>148</v>
+        <v>270</v>
       </c>
       <c r="L74" s="1">
-        <v>42745</v>
+        <v>43246</v>
       </c>
       <c r="M74" s="1">
-        <v>43028</v>
+        <v>43253</v>
       </c>
       <c r="N74">
         <f t="shared" si="5"/>
-        <v>283</v>
+        <v>7</v>
       </c>
       <c r="O74" s="8">
         <f t="shared" si="4"/>
-        <v>0.52296819787985871</v>
+        <v>38.571428571428569</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>387</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2" t="s">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="G75" s="2">
-        <v>1962</v>
+        <v>2010</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K75">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="L75" s="1">
-        <v>43328</v>
+        <v>42745</v>
       </c>
       <c r="M75" s="1">
-        <v>43344</v>
+        <v>43028</v>
       </c>
       <c r="N75">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>283</v>
       </c>
       <c r="O75" s="8">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>0.52296819787985871</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="D76" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G76" s="2">
-        <v>2015</v>
+        <v>1962</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>96</v>
+        <v>338</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K76">
-        <v>352</v>
+        <v>240</v>
       </c>
       <c r="L76" s="1">
-        <v>43092</v>
+        <v>43328</v>
       </c>
       <c r="M76" s="1">
-        <v>43191</v>
+        <v>43344</v>
       </c>
       <c r="N76">
         <f t="shared" si="5"/>
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="O76" s="8">
         <f t="shared" si="4"/>
-        <v>3.5555555555555554</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>371</v>
+        <v>161</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>398</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G77" s="2">
-        <v>1994</v>
+        <v>2015</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>336</v>
+        <v>96</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K77">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="L77" s="1">
-        <v>43183</v>
+        <v>43092</v>
       </c>
       <c r="M77" s="1">
-        <v>43198</v>
+        <v>43191</v>
       </c>
       <c r="N77">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="O77" s="8">
-        <f t="shared" ref="O77:O139" si="6">K77/N77</f>
-        <v>21.066666666666666</v>
+        <f t="shared" si="4"/>
+        <v>3.5555555555555554</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
-        <v>166</v>
+        <v>371</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>20</v>
+        <v>398</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G78" s="2">
-        <v>2016</v>
+        <v>1994</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>96</v>
+        <v>336</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K78">
+        <v>316</v>
+      </c>
+      <c r="L78" s="1">
+        <v>43183</v>
+      </c>
+      <c r="M78" s="1">
+        <v>43198</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="O78" s="8">
+        <f t="shared" ref="O78:O140" si="6">K78/N78</f>
+        <v>21.066666666666666</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G79" s="2">
+        <v>2016</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K79">
         <v>188</v>
       </c>
-      <c r="L78" s="1">
+      <c r="L79" s="1">
         <v>43166</v>
       </c>
-      <c r="M78" s="1">
+      <c r="M79" s="1">
         <v>43175</v>
       </c>
-      <c r="N78">
-        <f t="shared" ref="N78:N140" si="7">M78-L78</f>
-        <v>9</v>
-      </c>
-      <c r="O78" s="8">
+      <c r="N79">
+        <f t="shared" ref="N79:N141" si="7">M79-L79</f>
+        <v>9</v>
+      </c>
+      <c r="O79" s="8">
         <f t="shared" si="6"/>
         <v>20.888888888888889</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A79" s="3" t="s">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2" t="s">
+      <c r="E80" s="2"/>
+      <c r="F80" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G79" s="2">
+      <c r="G80" s="2">
         <v>2014</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="H80" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="I80" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K79">
+      <c r="J80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K80">
         <v>256</v>
       </c>
-      <c r="L79" s="1">
+      <c r="L80" s="1">
         <v>43175</v>
       </c>
-      <c r="M79" s="1">
+      <c r="M80" s="1">
         <v>43177</v>
       </c>
-      <c r="N79">
+      <c r="N80">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="O79" s="8">
+      <c r="O80" s="8">
         <f t="shared" si="6"/>
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A80" s="3" t="s">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2" t="s">
+      <c r="E81" s="2"/>
+      <c r="F81" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G80" s="2">
+      <c r="G81" s="2">
         <v>2014</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="H81" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="I81" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K80">
+      <c r="J81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K81">
         <v>272</v>
       </c>
-      <c r="L80" s="1">
+      <c r="L81" s="1">
         <v>42977</v>
       </c>
-      <c r="M80" s="1">
+      <c r="M81" s="1">
         <v>42995</v>
       </c>
-      <c r="N80">
+      <c r="N81">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="O80" s="8">
+      <c r="O81" s="8">
         <f t="shared" si="6"/>
         <v>15.111111111111111</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A81" s="3" t="s">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2" t="s">
+      <c r="E82" s="2"/>
+      <c r="F82" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G81" s="2">
+      <c r="G82" s="2">
         <v>1861</v>
       </c>
-      <c r="H81" s="2" t="s">
+      <c r="H82" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="I82" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K81">
+      <c r="J82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K82">
         <v>460</v>
       </c>
-      <c r="L81" s="1">
+      <c r="L82" s="1">
         <v>42652</v>
       </c>
-      <c r="M81" s="1">
+      <c r="M82" s="1">
         <v>42664</v>
       </c>
-      <c r="N81">
+      <c r="N82">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="O81" s="8">
+      <c r="O82" s="8">
         <f t="shared" si="6"/>
         <v>38.333333333333336</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A82" s="3" t="s">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A83" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2" t="s">
+      <c r="E83" s="2"/>
+      <c r="F83" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G82" s="2">
+      <c r="G83" s="2">
         <v>1924</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="H83" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I82" s="2" t="s">
+      <c r="I83" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K82">
+      <c r="J83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K83">
         <v>729</v>
       </c>
-      <c r="L82" s="1">
+      <c r="L83" s="1">
         <v>43049</v>
       </c>
-      <c r="M82" s="1">
+      <c r="M83" s="1">
         <v>43091</v>
       </c>
-      <c r="N82">
+      <c r="N83">
         <f t="shared" si="7"/>
         <v>42</v>
       </c>
-      <c r="O82" s="8">
+      <c r="O83" s="8">
         <f t="shared" si="6"/>
         <v>17.357142857142858</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A83" s="3" t="s">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2" t="s">
+      <c r="E84" s="2"/>
+      <c r="F84" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G83" s="2">
+      <c r="G84" s="2">
         <v>2015</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="H84" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="I84" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K83">
+      <c r="J84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K84">
         <v>224</v>
       </c>
-      <c r="L83" s="1">
+      <c r="L84" s="1">
         <v>42527</v>
       </c>
-      <c r="M83" s="1">
+      <c r="M84" s="1">
         <v>42528</v>
       </c>
-      <c r="N83">
+      <c r="N84">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="O83" s="8">
+      <c r="O84" s="8">
         <f t="shared" si="6"/>
         <v>224</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A84" s="3" t="s">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2" t="s">
+      <c r="E85" s="2"/>
+      <c r="F85" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G84" s="2">
+      <c r="G85" s="2">
         <v>1960</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="H85" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I84" s="2" t="s">
+      <c r="I85" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K84">
+      <c r="J85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K85">
         <v>307</v>
       </c>
-      <c r="L84" s="1">
+      <c r="L85" s="1">
         <v>43227</v>
       </c>
-      <c r="M84" s="1">
+      <c r="M85" s="1">
         <v>43240</v>
       </c>
-      <c r="N84">
+      <c r="N85">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="O84" s="8">
+      <c r="O85" s="8">
         <f t="shared" si="6"/>
         <v>23.615384615384617</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A85" s="3" t="s">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2" t="s">
+      <c r="E86" s="2"/>
+      <c r="F86" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G85" s="2">
+      <c r="G86" s="2">
         <v>2015</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="H86" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="I86" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K85">
+      <c r="J86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K86">
         <v>90</v>
       </c>
-      <c r="L85" s="1">
+      <c r="L86" s="1">
         <v>42632</v>
       </c>
-      <c r="M85" s="1">
+      <c r="M86" s="1">
         <v>42633</v>
       </c>
-      <c r="N85">
+      <c r="N86">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="O85" s="8">
+      <c r="O86" s="8">
         <f t="shared" si="6"/>
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A86" s="3" t="s">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2" t="s">
+      <c r="E87" s="2"/>
+      <c r="F87" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G86" s="2">
+      <c r="G87" s="2">
         <v>2014</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="H87" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I86" s="2" t="s">
+      <c r="I87" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K86">
+      <c r="J87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K87">
         <v>286</v>
       </c>
-      <c r="L86" s="1">
+      <c r="L87" s="1">
         <v>43283</v>
       </c>
-      <c r="M86" s="1">
+      <c r="M87" s="1">
         <v>43291</v>
       </c>
-      <c r="N86">
+      <c r="N87">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="O86" s="8">
+      <c r="O87" s="8">
         <f t="shared" si="6"/>
         <v>35.75</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A87" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G87" s="2">
-        <v>2010</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K87">
-        <v>386</v>
-      </c>
-      <c r="L87" s="1">
-        <v>42941</v>
-      </c>
-      <c r="M87" s="1">
-        <v>42950</v>
-      </c>
-      <c r="N87">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="O87" s="8">
-        <f t="shared" si="6"/>
-        <v>42.888888888888886</v>
-      </c>
-    </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>379</v>
+        <v>190</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="G88" s="2">
-        <v>1967</v>
+        <v>2010</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K88">
-        <v>432</v>
+        <v>386</v>
       </c>
       <c r="L88" s="1">
-        <v>42936</v>
+        <v>42941</v>
       </c>
       <c r="M88" s="1">
-        <v>42940</v>
+        <v>42950</v>
       </c>
       <c r="N88">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O88" s="8">
         <f t="shared" si="6"/>
-        <v>108</v>
+        <v>42.888888888888886</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>194</v>
+        <v>379</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="G89" s="2">
-        <v>2017</v>
+        <v>1967</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K89">
-        <v>276</v>
+        <v>432</v>
       </c>
       <c r="L89" s="1">
-        <v>43028</v>
+        <v>42936</v>
       </c>
       <c r="M89" s="1">
-        <v>43036</v>
+        <v>42940</v>
       </c>
       <c r="N89">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O89" s="8">
         <f t="shared" si="6"/>
-        <v>34.5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="G90" s="2">
-        <v>1969</v>
+        <v>2017</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>49</v>
+        <v>347</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K90">
-        <v>157</v>
+        <v>276</v>
       </c>
       <c r="L90" s="1">
-        <v>42639</v>
+        <v>43028</v>
       </c>
       <c r="M90" s="1">
-        <v>42640</v>
+        <v>43036</v>
       </c>
       <c r="N90">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O90" s="8">
         <f t="shared" si="6"/>
-        <v>157</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="G91" s="2">
-        <v>1959</v>
+        <v>1969</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K91">
-        <v>341</v>
+        <v>157</v>
       </c>
       <c r="L91" s="1">
-        <v>42418</v>
+        <v>42639</v>
       </c>
       <c r="M91" s="1">
-        <v>42427</v>
+        <v>42640</v>
       </c>
       <c r="N91">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O91" s="8">
         <f t="shared" si="6"/>
-        <v>37.888888888888886</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>365</v>
+        <v>197</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
-        <v>200</v>
+        <v>52</v>
       </c>
       <c r="G92" s="2">
-        <v>2015</v>
+        <v>1959</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>8</v>
@@ -6513,13 +6528,13 @@
         <v>9</v>
       </c>
       <c r="K92">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="L92" s="1">
-        <v>42531</v>
+        <v>42418</v>
       </c>
       <c r="M92" s="1">
-        <v>42540</v>
+        <v>42427</v>
       </c>
       <c r="N92">
         <f t="shared" si="7"/>
@@ -6527,712 +6542,712 @@
       </c>
       <c r="O92" s="8">
         <f t="shared" si="6"/>
-        <v>40.222222222222221</v>
+        <v>37.888888888888886</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G93" s="2">
-        <v>1751</v>
+        <v>2015</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I93" t="s">
-        <v>343</v>
+        <v>8</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K93">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="L93" s="1">
-        <v>42729</v>
+        <v>42531</v>
       </c>
       <c r="M93" s="1">
-        <v>42732</v>
+        <v>42540</v>
       </c>
       <c r="N93">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O93" s="8">
         <f t="shared" si="6"/>
-        <v>36.666666666666664</v>
+        <v>40.222222222222221</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>203</v>
+        <v>366</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c r="G94" s="2">
-        <v>1939</v>
+        <v>1751</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I94" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K94">
-        <v>384</v>
+        <v>110</v>
       </c>
       <c r="L94" s="1">
-        <v>42541</v>
+        <v>42729</v>
       </c>
       <c r="M94" s="1">
-        <v>42550</v>
+        <v>42732</v>
       </c>
       <c r="N94">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O94" s="8">
         <f t="shared" si="6"/>
-        <v>42.666666666666664</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="G95" s="2">
-        <v>2008</v>
+        <v>1939</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I95" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K95">
-        <v>305</v>
+        <v>384</v>
       </c>
       <c r="L95" s="1">
-        <v>42853</v>
+        <v>42541</v>
       </c>
       <c r="M95" s="1">
-        <v>42856</v>
+        <v>42550</v>
       </c>
       <c r="N95">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O95" s="8">
         <f t="shared" si="6"/>
-        <v>101.66666666666667</v>
+        <v>42.666666666666664</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>367</v>
+        <v>205</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2" t="s">
-        <v>208</v>
+        <v>113</v>
       </c>
       <c r="G96" s="2">
-        <v>1965</v>
+        <v>2008</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I96" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K96">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="L96" s="1">
-        <v>42772</v>
+        <v>42853</v>
       </c>
       <c r="M96" s="1">
-        <v>42774</v>
+        <v>42856</v>
       </c>
       <c r="N96">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O96" s="8">
         <f t="shared" si="6"/>
-        <v>176</v>
+        <v>101.66666666666667</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>209</v>
+        <v>367</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>114</v>
+        <v>207</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G97" s="2">
-        <v>1975</v>
+        <v>1965</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I97" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K97">
-        <v>173</v>
+        <v>352</v>
       </c>
       <c r="L97" s="1">
-        <v>43105</v>
+        <v>42772</v>
       </c>
       <c r="M97" s="1">
-        <v>43106</v>
+        <v>42774</v>
       </c>
       <c r="N97">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O97" s="8">
         <f t="shared" si="6"/>
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>212</v>
+        <v>114</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="G98" s="2">
-        <v>1936</v>
+        <v>1975</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I98" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K98">
-        <v>348</v>
+        <v>173</v>
       </c>
       <c r="L98" s="1">
-        <v>42895</v>
+        <v>43105</v>
       </c>
       <c r="M98" s="1">
-        <v>42899</v>
+        <v>43106</v>
       </c>
       <c r="N98">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O98" s="8">
         <f t="shared" si="6"/>
-        <v>87</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="G99" s="2">
-        <v>1963</v>
+        <v>1936</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I99" t="s">
-        <v>49</v>
+        <v>347</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K99">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="L99" s="1">
-        <v>43200</v>
+        <v>42895</v>
       </c>
       <c r="M99" s="1">
-        <v>43212</v>
+        <v>42899</v>
       </c>
       <c r="N99">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="O99" s="8">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>87</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2" t="s">
-        <v>217</v>
+        <v>134</v>
       </c>
       <c r="G100" s="2">
-        <v>1928</v>
+        <v>1963</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I100" t="s">
-        <v>332</v>
+        <v>49</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K100">
-        <v>546</v>
+        <v>312</v>
       </c>
       <c r="L100" s="1">
-        <v>43217</v>
+        <v>43200</v>
       </c>
       <c r="M100" s="1">
-        <v>43226</v>
+        <v>43212</v>
       </c>
       <c r="N100">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O100" s="8">
         <f t="shared" si="6"/>
-        <v>60.666666666666664</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
-        <v>52</v>
+        <v>217</v>
       </c>
       <c r="G101" s="2">
-        <v>1946</v>
+        <v>1928</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I101" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K101">
-        <v>661</v>
+        <v>546</v>
       </c>
       <c r="L101" s="1">
-        <v>42385</v>
+        <v>43217</v>
       </c>
       <c r="M101" s="1">
-        <v>42404</v>
+        <v>43226</v>
       </c>
       <c r="N101">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="O101" s="8">
         <f t="shared" si="6"/>
-        <v>34.789473684210527</v>
+        <v>60.666666666666664</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>380</v>
+        <v>219</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2" t="s">
-        <v>221</v>
+        <v>52</v>
       </c>
       <c r="G102" s="2">
-        <v>1996</v>
+        <v>1946</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I102" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K102">
-        <v>227</v>
+        <v>661</v>
       </c>
       <c r="L102" s="1">
-        <v>43163</v>
+        <v>42385</v>
       </c>
       <c r="M102" s="1">
-        <v>43165</v>
+        <v>42404</v>
       </c>
       <c r="N102">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O102" s="8">
         <f t="shared" si="6"/>
-        <v>113.5</v>
+        <v>34.789473684210527</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>223</v>
+        <v>380</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G103" s="2">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I103" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K103">
-        <v>94</v>
+        <v>227</v>
       </c>
       <c r="L103" s="1">
-        <v>43121</v>
+        <v>43163</v>
       </c>
       <c r="M103" s="1">
-        <v>43121</v>
+        <v>43165</v>
       </c>
       <c r="N103">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O103" s="8" t="e">
+        <v>2</v>
+      </c>
+      <c r="O103" s="8">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>329</v>
+        <v>222</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G104" s="2">
-        <v>1987</v>
+        <v>1998</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I104" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K104">
-        <v>372</v>
+        <v>94</v>
       </c>
       <c r="L104" s="1">
-        <v>42767</v>
+        <v>43121</v>
       </c>
       <c r="M104" s="1">
-        <v>42768</v>
+        <v>43121</v>
       </c>
       <c r="N104">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O104" s="8">
+        <v>0</v>
+      </c>
+      <c r="O104" s="8" t="e">
         <f t="shared" si="6"/>
-        <v>372</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
-        <v>227</v>
+        <v>329</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2" t="s">
-        <v>139</v>
+        <v>226</v>
       </c>
       <c r="G105" s="2">
-        <v>1967</v>
+        <v>1987</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I105" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K105">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="L105" s="1">
+        <v>42767</v>
+      </c>
+      <c r="M105" s="1">
         <v>42768</v>
-      </c>
-      <c r="M105" s="1">
-        <v>42771</v>
       </c>
       <c r="N105">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O105" s="8">
         <f t="shared" si="6"/>
-        <v>137.33333333333334</v>
+        <v>372</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2" t="s">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="G106" s="2">
-        <v>2010</v>
+        <v>1967</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I106" t="s">
-        <v>49</v>
+        <v>343</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K106">
-        <v>941</v>
+        <v>412</v>
       </c>
       <c r="L106" s="1">
-        <v>42883</v>
+        <v>42768</v>
       </c>
       <c r="M106" s="1">
-        <v>42894</v>
+        <v>42771</v>
       </c>
       <c r="N106">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="O106" s="8">
         <f t="shared" si="6"/>
-        <v>85.545454545454547</v>
+        <v>137.33333333333334</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2" t="s">
-        <v>28</v>
+        <v>231</v>
       </c>
       <c r="G107" s="2">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I107" t="s">
-        <v>344</v>
+        <v>49</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K107">
-        <v>304</v>
+        <v>941</v>
       </c>
       <c r="L107" s="1">
-        <v>43106</v>
+        <v>42883</v>
       </c>
       <c r="M107" s="1">
-        <v>43120</v>
+        <v>42894</v>
       </c>
       <c r="N107">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O107" s="8">
         <f t="shared" si="6"/>
-        <v>21.714285714285715</v>
+        <v>85.545454545454547</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>63</v>
+        <v>233</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G108" s="2">
-        <v>1963</v>
+        <v>2017</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I108" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K108">
-        <v>492</v>
+        <v>304</v>
       </c>
       <c r="L108" s="1">
-        <v>43127</v>
+        <v>43106</v>
       </c>
       <c r="M108" s="1">
-        <v>43148</v>
+        <v>43120</v>
       </c>
       <c r="N108">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="O108" s="8">
         <f t="shared" si="6"/>
-        <v>23.428571428571427</v>
+        <v>21.714285714285715</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>236</v>
+        <v>63</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G109" s="2">
-        <v>1949</v>
+        <v>1963</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>8</v>
@@ -7244,130 +7259,130 @@
         <v>9</v>
       </c>
       <c r="K109">
-        <v>311</v>
+        <v>492</v>
       </c>
       <c r="L109" s="1">
-        <v>43149</v>
+        <v>43127</v>
       </c>
       <c r="M109" s="1">
-        <v>43155</v>
+        <v>43148</v>
       </c>
       <c r="N109">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="O109" s="8">
         <f t="shared" si="6"/>
-        <v>51.833333333333336</v>
+        <v>23.428571428571427</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2" t="s">
-        <v>239</v>
+        <v>113</v>
       </c>
       <c r="G110" s="2">
-        <v>2015</v>
+        <v>1949</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I110" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K110">
-        <v>384</v>
+        <v>311</v>
       </c>
       <c r="L110" s="1">
-        <v>42919</v>
+        <v>43149</v>
       </c>
       <c r="M110" s="1">
-        <v>42929</v>
+        <v>43155</v>
       </c>
       <c r="N110">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O110" s="8">
         <f t="shared" si="6"/>
-        <v>38.4</v>
+        <v>51.833333333333336</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="G111" s="2">
-        <v>1992</v>
+        <v>2015</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I111" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K111">
-        <v>256</v>
+        <v>384</v>
       </c>
       <c r="L111" s="1">
-        <v>42732</v>
+        <v>42919</v>
       </c>
       <c r="M111" s="1">
-        <v>42737</v>
+        <v>42929</v>
       </c>
       <c r="N111">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O111" s="8">
         <f t="shared" si="6"/>
-        <v>51.2</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="G112" s="2">
-        <v>1977</v>
+        <v>1992</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I112" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>9</v>
@@ -7376,182 +7391,182 @@
         <v>256</v>
       </c>
       <c r="L112" s="1">
-        <v>42382</v>
+        <v>42732</v>
       </c>
       <c r="M112" s="1">
-        <v>42383</v>
+        <v>42737</v>
       </c>
       <c r="N112">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O112" s="8">
         <f t="shared" si="6"/>
-        <v>256</v>
+        <v>51.2</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2" t="s">
-        <v>52</v>
+        <v>153</v>
       </c>
       <c r="G113" s="2">
-        <v>1927</v>
+        <v>1977</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I113" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K113">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="L113" s="1">
-        <v>42790</v>
+        <v>42382</v>
       </c>
       <c r="M113" s="1">
-        <v>42802</v>
+        <v>42383</v>
       </c>
       <c r="N113">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O113" s="8">
         <f t="shared" si="6"/>
-        <v>22.666666666666668</v>
+        <v>256</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2" t="s">
-        <v>248</v>
+        <v>52</v>
       </c>
       <c r="G114" s="2">
-        <v>1997</v>
+        <v>1927</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I114" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K114">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="L114" s="1">
-        <v>42805</v>
+        <v>42790</v>
       </c>
       <c r="M114" s="1">
-        <v>42811</v>
+        <v>42802</v>
       </c>
       <c r="N114">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O114" s="8">
         <f t="shared" si="6"/>
-        <v>48.833333333333336</v>
+        <v>22.666666666666668</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2" t="s">
-        <v>113</v>
+        <v>248</v>
       </c>
       <c r="G115" s="2">
-        <v>2013</v>
+        <v>1997</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I115" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K115">
-        <v>496</v>
+        <v>293</v>
       </c>
       <c r="L115" s="1">
-        <v>42645</v>
+        <v>42805</v>
       </c>
       <c r="M115" s="1">
-        <v>42649</v>
+        <v>42811</v>
       </c>
       <c r="N115">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O115" s="8">
         <f t="shared" si="6"/>
-        <v>124</v>
+        <v>48.833333333333336</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>82</v>
+        <v>250</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="G116" s="2">
-        <v>1955</v>
+        <v>2013</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I116" t="s">
-        <v>369</v>
+        <v>96</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K116">
-        <v>331</v>
+        <v>496</v>
       </c>
       <c r="L116" s="1">
-        <v>42823</v>
+        <v>42645</v>
       </c>
       <c r="M116" s="1">
-        <v>42827</v>
+        <v>42649</v>
       </c>
       <c r="N116">
         <f t="shared" si="7"/>
@@ -7559,239 +7574,239 @@
       </c>
       <c r="O116" s="8">
         <f t="shared" si="6"/>
-        <v>82.75</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>381</v>
+        <v>82</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G117" s="2">
-        <v>1991</v>
+        <v>1955</v>
       </c>
       <c r="H117" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I117" t="s">
+        <v>369</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K117">
         <v>331</v>
       </c>
-      <c r="I117" t="s">
-        <v>344</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K117">
-        <v>149</v>
-      </c>
       <c r="L117" s="1">
-        <v>42665</v>
+        <v>42823</v>
       </c>
       <c r="M117" s="1">
-        <v>42668</v>
+        <v>42827</v>
       </c>
       <c r="N117">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O117" s="8">
         <f t="shared" si="6"/>
-        <v>49.666666666666664</v>
+        <v>82.75</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>254</v>
+        <v>381</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2" t="s">
-        <v>255</v>
+        <v>30</v>
       </c>
       <c r="G118" s="2">
-        <v>1942</v>
+        <v>1991</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I118" t="s">
-        <v>49</v>
+        <v>344</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K118">
-        <v>495</v>
+        <v>149</v>
       </c>
       <c r="L118" s="1">
-        <v>42711</v>
+        <v>42665</v>
       </c>
       <c r="M118" s="1">
-        <v>42727</v>
+        <v>42668</v>
       </c>
       <c r="N118">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="O118" s="8">
         <f t="shared" si="6"/>
-        <v>30.9375</v>
+        <v>49.666666666666664</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2" t="s">
-        <v>191</v>
+        <v>255</v>
       </c>
       <c r="G119" s="2">
-        <v>2010</v>
+        <v>1942</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I119" t="s">
-        <v>346</v>
+        <v>49</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K119">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="L119" s="1">
-        <v>42776</v>
+        <v>42711</v>
       </c>
       <c r="M119" s="1">
-        <v>42785</v>
+        <v>42727</v>
       </c>
       <c r="N119">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O119" s="8">
         <f t="shared" si="6"/>
-        <v>49.555555555555557</v>
+        <v>30.9375</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2" t="s">
-        <v>61</v>
+        <v>191</v>
       </c>
       <c r="G120" s="2">
-        <v>1992</v>
+        <v>2010</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I120" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K120">
-        <v>224</v>
+        <v>446</v>
       </c>
       <c r="L120" s="1">
-        <v>42249</v>
+        <v>42776</v>
       </c>
       <c r="M120" s="1">
-        <v>42250</v>
+        <v>42785</v>
       </c>
       <c r="N120">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O120" s="8">
         <f t="shared" si="6"/>
-        <v>224</v>
+        <v>49.555555555555557</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G121" s="2">
-        <v>1934</v>
+        <v>1992</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I121" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K121">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="L121" s="1">
-        <v>43294</v>
+        <v>42249</v>
       </c>
       <c r="M121" s="1">
-        <v>43307</v>
+        <v>42250</v>
       </c>
       <c r="N121">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="O121" s="8">
         <f t="shared" si="6"/>
-        <v>19.307692307692307</v>
+        <v>224</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="G122" s="2">
-        <v>1951</v>
+        <v>1934</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>8</v>
@@ -7803,293 +7818,293 @@
         <v>9</v>
       </c>
       <c r="K122">
-        <v>192</v>
+        <v>251</v>
       </c>
       <c r="L122" s="1">
-        <v>42518</v>
+        <v>43294</v>
       </c>
       <c r="M122" s="1">
-        <v>42522</v>
+        <v>43307</v>
       </c>
       <c r="N122">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="O122" s="8">
         <f t="shared" si="6"/>
-        <v>48</v>
+        <v>19.307692307692307</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>370</v>
+        <v>262</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2" t="s">
-        <v>319</v>
+        <v>52</v>
       </c>
       <c r="G123" s="2">
-        <v>2013</v>
+        <v>1951</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I123" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K123">
-        <v>329</v>
+        <v>192</v>
       </c>
       <c r="L123" s="1">
-        <v>42512</v>
+        <v>42518</v>
       </c>
       <c r="M123" s="1">
-        <v>42514</v>
+        <v>42522</v>
       </c>
       <c r="N123">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O123" s="8">
         <f t="shared" si="6"/>
-        <v>164.5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>265</v>
+        <v>370</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>65</v>
+        <v>264</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2" t="s">
-        <v>30</v>
+        <v>319</v>
       </c>
       <c r="G124" s="2">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I124" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K124">
-        <v>498</v>
+        <v>329</v>
       </c>
       <c r="L124" s="1">
-        <v>43308</v>
+        <v>42512</v>
       </c>
       <c r="M124" s="1">
-        <v>43322</v>
+        <v>42514</v>
       </c>
       <c r="N124">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="O124" s="8">
         <f t="shared" si="6"/>
-        <v>35.571428571428569</v>
+        <v>164.5</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>267</v>
+        <v>65</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2" t="s">
-        <v>268</v>
+        <v>30</v>
       </c>
       <c r="G125" s="2">
-        <v>1971</v>
+        <v>2011</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I125" t="s">
-        <v>369</v>
+        <v>96</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K125">
-        <v>160</v>
+        <v>498</v>
       </c>
       <c r="L125" s="1">
-        <v>42643</v>
+        <v>43308</v>
       </c>
       <c r="M125" s="1">
-        <v>42644</v>
+        <v>43322</v>
       </c>
       <c r="N125">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="O125" s="8">
         <f t="shared" si="6"/>
-        <v>160</v>
+        <v>35.571428571428569</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G126" s="2">
-        <v>2000</v>
+        <v>1971</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I126" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K126">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="L126" s="1">
-        <v>42628</v>
+        <v>42643</v>
       </c>
       <c r="M126" s="1">
-        <v>42632</v>
+        <v>42644</v>
       </c>
       <c r="N126">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O126" s="8">
         <f t="shared" si="6"/>
-        <v>44</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G127" s="2">
         <v>2000</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I127" t="s">
-        <v>332</v>
+        <v>49</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K127">
-        <v>639</v>
+        <v>176</v>
       </c>
       <c r="L127" s="1">
-        <v>42683</v>
+        <v>42628</v>
       </c>
       <c r="M127" s="1">
-        <v>42695</v>
+        <v>42632</v>
       </c>
       <c r="N127">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="O127" s="8">
         <f t="shared" si="6"/>
-        <v>53.25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2" t="s">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="G128" s="2">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I128" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K128">
-        <v>563</v>
+        <v>639</v>
       </c>
       <c r="L128" s="1">
-        <v>42830</v>
+        <v>42683</v>
       </c>
       <c r="M128" s="1">
-        <v>42846</v>
+        <v>42695</v>
       </c>
       <c r="N128">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O128" s="8">
         <f t="shared" si="6"/>
-        <v>35.1875</v>
+        <v>53.25</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="G129" s="2">
         <v>2015</v>
@@ -8098,78 +8113,78 @@
         <v>8</v>
       </c>
       <c r="I129" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K129">
-        <v>304</v>
+        <v>563</v>
       </c>
       <c r="L129" s="1">
-        <v>42848</v>
+        <v>42830</v>
       </c>
       <c r="M129" s="1">
-        <v>42852</v>
+        <v>42846</v>
       </c>
       <c r="N129">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="O129" s="8">
         <f t="shared" si="6"/>
-        <v>76</v>
+        <v>35.1875</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2" t="s">
-        <v>28</v>
+        <v>279</v>
       </c>
       <c r="G130" s="2">
-        <v>1994</v>
+        <v>2015</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I130" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K130">
-        <v>480</v>
+        <v>304</v>
       </c>
       <c r="L130" s="1">
-        <v>42358</v>
+        <v>42848</v>
       </c>
       <c r="M130" s="1">
-        <v>42377</v>
+        <v>42852</v>
       </c>
       <c r="N130">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="O130" s="8">
         <f t="shared" si="6"/>
-        <v>25.263157894736842</v>
+        <v>76</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -8178,50 +8193,50 @@
         <v>28</v>
       </c>
       <c r="G131" s="2">
-        <v>1962</v>
+        <v>1994</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I131" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K131">
-        <v>256</v>
+        <v>480</v>
       </c>
       <c r="L131" s="1">
-        <v>42696</v>
+        <v>42358</v>
       </c>
       <c r="M131" s="1">
-        <v>42700</v>
+        <v>42377</v>
       </c>
       <c r="N131">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="O131" s="8">
         <f t="shared" si="6"/>
-        <v>64</v>
+        <v>25.263157894736842</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2" t="s">
-        <v>286</v>
+        <v>28</v>
       </c>
       <c r="G132" s="2">
-        <v>1929</v>
+        <v>1962</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>8</v>
@@ -8233,142 +8248,142 @@
         <v>9</v>
       </c>
       <c r="K132">
-        <v>348</v>
+        <v>256</v>
       </c>
       <c r="L132" s="1">
-        <v>42860</v>
+        <v>42696</v>
       </c>
       <c r="M132" s="1">
-        <v>42869</v>
+        <v>42700</v>
       </c>
       <c r="N132">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O132" s="8">
         <f t="shared" si="6"/>
-        <v>38.666666666666664</v>
+        <v>64</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G133" s="2">
-        <v>1897</v>
+        <v>1929</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I133" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K133">
-        <v>496</v>
+        <v>348</v>
       </c>
       <c r="L133" s="1">
-        <v>42952</v>
+        <v>42860</v>
       </c>
       <c r="M133" s="1">
-        <v>42962</v>
+        <v>42869</v>
       </c>
       <c r="N133">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O133" s="8">
         <f t="shared" si="6"/>
-        <v>49.6</v>
+        <v>38.666666666666664</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2" t="s">
-        <v>168</v>
+        <v>289</v>
       </c>
       <c r="G134" s="2">
-        <v>2016</v>
+        <v>1897</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I134" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K134">
-        <v>302</v>
+        <v>496</v>
       </c>
       <c r="L134" s="1">
-        <v>43179</v>
+        <v>42952</v>
       </c>
       <c r="M134" s="1">
-        <v>43183</v>
+        <v>42962</v>
       </c>
       <c r="N134">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O134" s="8">
         <f t="shared" si="6"/>
-        <v>75.5</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2" t="s">
-        <v>248</v>
+        <v>168</v>
       </c>
       <c r="G135" s="2">
-        <v>1886</v>
+        <v>2016</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I135" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K135">
-        <v>110</v>
+        <v>302</v>
       </c>
       <c r="L135" s="1">
-        <v>43430</v>
+        <v>43179</v>
       </c>
       <c r="M135" s="1">
-        <v>43434</v>
+        <v>43183</v>
       </c>
       <c r="N135">
         <f t="shared" si="7"/>
@@ -8376,42 +8391,42 @@
       </c>
       <c r="O135" s="8">
         <f t="shared" si="6"/>
-        <v>27.5</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="G136" s="2">
-        <v>2013</v>
+        <v>1886</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I136" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K136">
-        <v>256</v>
+        <v>110</v>
       </c>
       <c r="L136" s="1">
-        <v>43449</v>
+        <v>43430</v>
       </c>
       <c r="M136" s="1">
-        <v>43453</v>
+        <v>43434</v>
       </c>
       <c r="N136">
         <f t="shared" si="7"/>
@@ -8419,282 +8434,282 @@
       </c>
       <c r="O136" s="8">
         <f t="shared" si="6"/>
-        <v>64</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="G137" s="2">
-        <v>1972</v>
+        <v>2013</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I137" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K137">
-        <v>506</v>
+        <v>256</v>
       </c>
       <c r="L137" s="1">
-        <v>43436</v>
+        <v>43449</v>
       </c>
       <c r="M137" s="1">
-        <v>43446</v>
+        <v>43453</v>
       </c>
       <c r="N137">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O137" s="8">
         <f t="shared" si="6"/>
-        <v>50.6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="G138" s="2">
-        <v>2016</v>
+        <v>1972</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I138" t="s">
-        <v>49</v>
+        <v>332</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K138">
-        <v>941</v>
+        <v>506</v>
       </c>
       <c r="L138" s="1">
-        <v>42737</v>
+        <v>43436</v>
       </c>
       <c r="M138" s="1">
-        <v>42767</v>
+        <v>43446</v>
       </c>
       <c r="N138">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="O138" s="8">
         <f t="shared" si="6"/>
-        <v>31.366666666666667</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>382</v>
+        <v>300</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G139" s="2">
-        <v>1959</v>
+        <v>2016</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I139" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K139">
-        <v>582</v>
+        <v>941</v>
       </c>
       <c r="L139" s="1">
-        <v>42567</v>
+        <v>42737</v>
       </c>
       <c r="M139" s="1">
-        <v>42578</v>
+        <v>42767</v>
       </c>
       <c r="N139">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="O139" s="8">
         <f t="shared" si="6"/>
-        <v>52.909090909090907</v>
+        <v>31.366666666666667</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>305</v>
+        <v>382</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2" t="s">
-        <v>156</v>
+        <v>303</v>
       </c>
       <c r="G140" s="2">
-        <v>2015</v>
+        <v>1959</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I140" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K140">
-        <v>862</v>
+        <v>582</v>
       </c>
       <c r="L140" s="1">
-        <v>42445</v>
+        <v>42567</v>
       </c>
       <c r="M140" s="1">
-        <v>42484</v>
+        <v>42578</v>
       </c>
       <c r="N140">
         <f t="shared" si="7"/>
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="O140" s="8">
-        <f t="shared" ref="O140:O147" si="8">K140/N140</f>
-        <v>22.102564102564102</v>
+        <f t="shared" si="6"/>
+        <v>52.909090909090907</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2" t="s">
-        <v>308</v>
+        <v>156</v>
       </c>
       <c r="G141" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I141" t="s">
-        <v>344</v>
+        <v>49</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K141">
-        <v>488</v>
+        <v>862</v>
       </c>
       <c r="L141" s="1">
-        <v>42431</v>
+        <v>42445</v>
       </c>
       <c r="M141" s="1">
-        <v>42445</v>
+        <v>42484</v>
       </c>
       <c r="N141">
-        <f t="shared" ref="N141:N147" si="9">M141-L141</f>
-        <v>14</v>
+        <f t="shared" si="7"/>
+        <v>39</v>
       </c>
       <c r="O141" s="8">
-        <f t="shared" si="8"/>
-        <v>34.857142857142854</v>
+        <f t="shared" ref="O141:O148" si="8">K141/N141</f>
+        <v>22.102564102564102</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>150</v>
+        <v>307</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2" t="s">
-        <v>163</v>
+        <v>308</v>
       </c>
       <c r="G142" s="2">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I142" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K142">
-        <v>352</v>
+        <v>488</v>
       </c>
       <c r="L142" s="1">
-        <v>42899</v>
+        <v>42431</v>
       </c>
       <c r="M142" s="1">
-        <v>42918</v>
+        <v>42445</v>
       </c>
       <c r="N142">
-        <f t="shared" si="9"/>
-        <v>19</v>
+        <f t="shared" ref="N142:N148" si="9">M142-L142</f>
+        <v>14</v>
       </c>
       <c r="O142" s="8">
         <f t="shared" si="8"/>
-        <v>18.526315789473685</v>
+        <v>34.857142857142854</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>312</v>
+        <v>150</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2" t="s">
-        <v>319</v>
+        <v>163</v>
       </c>
       <c r="G143" s="2">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>331</v>
@@ -8706,197 +8721,240 @@
         <v>9</v>
       </c>
       <c r="K143">
-        <v>255</v>
+        <v>352</v>
       </c>
       <c r="L143" s="1">
-        <v>43405</v>
+        <v>42899</v>
       </c>
       <c r="M143" s="1">
-        <v>43411</v>
+        <v>42918</v>
       </c>
       <c r="N143">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="O143" s="8">
         <f t="shared" si="8"/>
-        <v>42.5</v>
+        <v>18.526315789473685</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2" t="s">
-        <v>12</v>
+        <v>319</v>
       </c>
       <c r="G144" s="2">
-        <v>1985</v>
+        <v>2016</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I144" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K144">
-        <v>324</v>
+        <v>255</v>
       </c>
       <c r="L144" s="1">
-        <v>43509</v>
+        <v>43405</v>
       </c>
       <c r="M144" s="1">
-        <v>43516</v>
+        <v>43411</v>
       </c>
       <c r="N144">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O144" s="8">
         <f t="shared" si="8"/>
-        <v>46.285714285714285</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2" t="s">
-        <v>286</v>
+        <v>12</v>
       </c>
       <c r="G145" s="2">
-        <v>1854</v>
+        <v>1985</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I145" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K145">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="L145" s="1">
-        <v>43369</v>
+        <v>43509</v>
       </c>
       <c r="M145" s="1">
-        <v>43381</v>
+        <v>43516</v>
       </c>
       <c r="N145">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O145" s="8">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>46.285714285714285</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>377</v>
+        <v>316</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="G146" s="2">
-        <v>1963</v>
+        <v>1854</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I146" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K146">
-        <v>257</v>
+        <v>360</v>
       </c>
       <c r="L146" s="1">
-        <v>43427</v>
+        <v>43369</v>
       </c>
       <c r="M146" s="1">
-        <v>43429</v>
+        <v>43381</v>
       </c>
       <c r="N146">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O146" s="8">
         <f t="shared" si="8"/>
-        <v>128.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>317</v>
+        <v>368</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>318</v>
+        <v>377</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2" t="s">
-        <v>61</v>
+        <v>248</v>
       </c>
       <c r="G147" s="2">
-        <v>1979</v>
+        <v>1963</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I147" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K147">
-        <v>592</v>
+        <v>257</v>
       </c>
       <c r="L147" s="1">
-        <v>43543</v>
+        <v>43427</v>
       </c>
       <c r="M147" s="1">
-        <v>43576</v>
+        <v>43429</v>
       </c>
       <c r="N147">
         <f t="shared" si="9"/>
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="O147" s="8">
         <f t="shared" si="8"/>
+        <v>128.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A148" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G148" s="2">
+        <v>1979</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I148" t="s">
+        <v>347</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K148">
+        <v>592</v>
+      </c>
+      <c r="L148" s="1">
+        <v>43543</v>
+      </c>
+      <c r="M148" s="1">
+        <v>43576</v>
+      </c>
+      <c r="N148">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="O148" s="8">
+        <f t="shared" si="8"/>
         <v>17.939393939393938</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N147" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N148" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/b2.xlsx
+++ b/b2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B0373C-AB01-4184-A24F-AF27A7BF2778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D32BB4D-A2A7-4DAF-92CF-80AB5788C9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18340" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="clean" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">clean!$A$1:$N$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">clean!$A$1:$N$151</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="440">
   <si>
     <t>Title</t>
   </si>
@@ -1338,6 +1338,30 @@
   </si>
   <si>
     <t>Linguist</t>
+  </si>
+  <si>
+    <t>Why Have There Been No Great Women Artists ?</t>
+  </si>
+  <si>
+    <t>Nochlin, Linda</t>
+  </si>
+  <si>
+    <t>Historian</t>
+  </si>
+  <si>
+    <t>Give People Money</t>
+  </si>
+  <si>
+    <t>Lowrey, Annie</t>
+  </si>
+  <si>
+    <t>Crown</t>
+  </si>
+  <si>
+    <t>The New York Trilogy</t>
+  </si>
+  <si>
+    <t>Auster, Paul</t>
   </si>
 </sst>
 </file>
@@ -2209,13 +2233,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O148"/>
+  <dimension ref="A1:O151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2282,172 +2306,172 @@
     </row>
     <row r="2" spans="1:15" s="7" customFormat="1" ht="19" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>387</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="G2" s="11">
-        <v>2020</v>
+        <v>1985</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K2" s="2">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="L2" s="1">
-        <v>44345</v>
+        <v>44385</v>
       </c>
       <c r="M2" s="1">
-        <v>44353</v>
+        <v>44408</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N9" si="0">M2-L2</f>
-        <v>8</v>
+        <f t="shared" ref="N2:N4" si="0">M2-L2</f>
+        <v>23</v>
       </c>
       <c r="O2" s="8">
-        <f t="shared" ref="O2:O9" si="1">K2/N2</f>
-        <v>41.5</v>
+        <f t="shared" ref="O2:O4" si="1">K2/N2</f>
+        <v>13.391304347826088</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>384</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>402</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="G3" s="11">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>331</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K3" s="2">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="L3" s="1">
-        <v>44333</v>
+        <v>44371</v>
       </c>
       <c r="M3" s="1">
-        <v>44340</v>
+        <v>44380</v>
       </c>
       <c r="N3">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O3" s="8">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>29.222222222222221</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>198</v>
+        <v>433</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>384</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="G4" s="11">
-        <v>1964</v>
+        <v>1971</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="2">
-        <v>400</v>
+        <v>111</v>
       </c>
       <c r="L4" s="1">
-        <v>44307</v>
+        <v>44359</v>
       </c>
       <c r="M4" s="1">
-        <v>44329</v>
+        <v>44366</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="O4" s="8">
         <f t="shared" si="1"/>
-        <v>18.181818181818183</v>
+        <v>15.857142857142858</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>423</v>
+        <v>19</v>
       </c>
       <c r="G5" s="11">
-        <v>1984</v>
+        <v>2020</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>8</v>
@@ -2459,29 +2483,29 @@
         <v>20</v>
       </c>
       <c r="K5" s="2">
-        <v>142</v>
+        <v>332</v>
       </c>
       <c r="L5" s="1">
-        <v>44303</v>
+        <v>44345</v>
       </c>
       <c r="M5" s="1">
-        <v>44305</v>
+        <v>44353</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" ref="N5:N12" si="2">M5-L5</f>
+        <v>8</v>
       </c>
       <c r="O5" s="8">
-        <f t="shared" si="1"/>
-        <v>71</v>
+        <f t="shared" ref="O5:O12" si="3">K5/N5</f>
+        <v>41.5</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>384</v>
@@ -2493,47 +2517,47 @@
         <v>402</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="G6" s="11">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>331</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>96</v>
+        <v>336</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K6" s="2">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="L6" s="1">
-        <v>44296</v>
+        <v>44333</v>
       </c>
       <c r="M6" s="1">
-        <v>44302</v>
+        <v>44340</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="O6" s="8">
-        <f t="shared" si="1"/>
-        <v>44</v>
+        <f t="shared" si="3"/>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>417</v>
+        <v>198</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>387</v>
@@ -2541,97 +2565,97 @@
       <c r="E7" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1971</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="F7" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1964</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K7" s="2">
-        <v>692</v>
+        <v>400</v>
       </c>
       <c r="L7" s="1">
-        <v>44280</v>
+        <v>44307</v>
       </c>
       <c r="M7" s="1">
-        <v>44291</v>
+        <v>44329</v>
       </c>
       <c r="N7">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>22</v>
       </c>
       <c r="O7" s="8">
-        <f t="shared" si="1"/>
-        <v>62.909090909090907</v>
+        <f t="shared" si="3"/>
+        <v>18.181818181818183</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2011</v>
-      </c>
-      <c r="H8" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1984</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K8" s="2">
-        <v>369</v>
+        <v>142</v>
       </c>
       <c r="L8" s="1">
-        <v>44240</v>
+        <v>44303</v>
       </c>
       <c r="M8" s="1">
-        <v>44246</v>
+        <v>44305</v>
       </c>
       <c r="N8">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="O8" s="8">
-        <f t="shared" si="1"/>
-        <v>61.5</v>
+        <f t="shared" si="3"/>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>387</v>
@@ -2639,143 +2663,143 @@
       <c r="E9" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="G9" s="2">
-        <v>2018</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="F9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="G9" s="11">
+        <v>2019</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>331</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K9" s="2">
-        <v>401</v>
+        <v>264</v>
       </c>
       <c r="L9" s="1">
-        <v>44227</v>
+        <v>44296</v>
       </c>
       <c r="M9" s="1">
-        <v>44240</v>
+        <v>44302</v>
       </c>
       <c r="N9">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="O9" s="8">
-        <f t="shared" si="1"/>
-        <v>30.846153846153847</v>
+        <f t="shared" si="3"/>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>383</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>387</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>231</v>
+        <v>406</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>418</v>
       </c>
       <c r="G10" s="2">
-        <v>1958</v>
+        <v>1971</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>343</v>
+        <v>49</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K10" s="2">
-        <v>262</v>
+        <v>692</v>
       </c>
       <c r="L10" s="1">
-        <v>44212</v>
+        <v>44280</v>
       </c>
       <c r="M10" s="1">
-        <v>44223</v>
+        <v>44291</v>
       </c>
       <c r="N10">
-        <f t="shared" ref="N10:N12" si="2">M10-L10</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="O10" s="8">
-        <f t="shared" ref="O10:O12" si="3">K10/N10</f>
-        <v>23.818181818181817</v>
+        <f t="shared" si="3"/>
+        <v>62.909090909090907</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>407</v>
+        <v>308</v>
       </c>
       <c r="G11" s="2">
-        <v>1934</v>
+        <v>2011</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K11" s="2">
-        <v>217</v>
+        <v>369</v>
       </c>
       <c r="L11" s="1">
-        <v>44207</v>
+        <v>44240</v>
       </c>
       <c r="M11" s="1">
-        <v>44212</v>
+        <v>44246</v>
       </c>
       <c r="N11">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O11" s="8">
         <f t="shared" si="3"/>
-        <v>43.4</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>20</v>
@@ -2786,705 +2810,711 @@
       <c r="E12" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>403</v>
+      <c r="F12" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="G12" s="2">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>348</v>
+        <v>49</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K12" s="2">
-        <v>533</v>
+        <v>401</v>
       </c>
       <c r="L12" s="1">
-        <v>44193</v>
+        <v>44227</v>
       </c>
       <c r="M12" s="1">
-        <v>44195</v>
+        <v>44240</v>
       </c>
       <c r="N12">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O12" s="8">
         <f t="shared" si="3"/>
-        <v>266.5</v>
+        <v>30.846153846153847</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>352</v>
+        <v>408</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>353</v>
+        <v>409</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>383</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1958</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="2">
+        <v>262</v>
+      </c>
+      <c r="L13" s="1">
+        <v>44212</v>
+      </c>
+      <c r="M13" s="1">
+        <v>44223</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ref="N13:N15" si="4">M13-L13</f>
+        <v>11</v>
+      </c>
+      <c r="O13" s="8">
+        <f t="shared" ref="O13:O15" si="5">K13/N13</f>
+        <v>23.818181818181817</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1934</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="2">
+        <v>217</v>
+      </c>
+      <c r="L14" s="1">
+        <v>44207</v>
+      </c>
+      <c r="M14" s="1">
+        <v>44212</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="O14" s="8">
+        <f t="shared" si="5"/>
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2013</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="2">
+        <v>533</v>
+      </c>
+      <c r="L15" s="1">
+        <v>44193</v>
+      </c>
+      <c r="M15" s="1">
+        <v>44195</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="O15" s="8">
+        <f t="shared" si="5"/>
+        <v>266.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G16" s="2">
         <v>2020</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="2">
+      <c r="J16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="2">
         <v>278</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L16" s="1">
         <v>44178</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M16" s="1">
         <v>44193</v>
       </c>
-      <c r="N13">
-        <f>M13-L13</f>
+      <c r="N16">
+        <f>M16-L16</f>
         <v>15</v>
       </c>
-      <c r="O13" s="8">
-        <f>K13/N13</f>
+      <c r="O16" s="8">
+        <f>K16/N16</f>
         <v>18.533333333333335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="2">
-        <v>2006</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" t="s">
-        <v>330</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14">
-        <v>420</v>
-      </c>
-      <c r="L14" s="1">
-        <v>44163</v>
-      </c>
-      <c r="M14" s="1">
-        <v>44165</v>
-      </c>
-      <c r="N14">
-        <f>M14-L14</f>
-        <v>2</v>
-      </c>
-      <c r="O14" s="8">
-        <f t="shared" ref="O14:O77" si="4">K14/N14</f>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1983</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" t="s">
-        <v>369</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15">
-        <v>291</v>
-      </c>
-      <c r="L15" s="1">
-        <v>44156</v>
-      </c>
-      <c r="M15" s="1">
-        <v>44163</v>
-      </c>
-      <c r="N15">
-        <f t="shared" ref="N15:N78" si="5">M15-L15</f>
-        <v>7</v>
-      </c>
-      <c r="O15" s="8">
-        <f t="shared" si="4"/>
-        <v>41.571428571428569</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="2">
-        <v>2017</v>
-      </c>
-      <c r="H16" t="s">
-        <v>331</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16">
-        <v>176</v>
-      </c>
-      <c r="L16" s="1">
-        <v>44150</v>
-      </c>
-      <c r="M16" s="1">
-        <v>44155</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="O16" s="8">
-        <f t="shared" si="4"/>
-        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G17" s="2">
-        <v>1980</v>
+        <v>2006</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>342</v>
+      <c r="I17" t="s">
+        <v>330</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K17">
-        <v>502</v>
+        <v>420</v>
       </c>
       <c r="L17" s="1">
-        <v>44129</v>
+        <v>44163</v>
       </c>
       <c r="M17" s="1">
-        <v>44142</v>
+        <v>44165</v>
       </c>
       <c r="N17">
         <f>M17-L17</f>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="O17" s="8">
-        <f t="shared" si="4"/>
-        <v>38.615384615384613</v>
+        <f t="shared" ref="O17:O80" si="6">K17/N17</f>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>385</v>
+        <v>10</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G18" s="2">
-        <v>1938</v>
+        <v>1983</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>310</v>
+      <c r="I18" t="s">
+        <v>369</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K18">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="L18" s="1">
-        <v>44114</v>
+        <v>44156</v>
       </c>
       <c r="M18" s="1">
-        <v>44129</v>
+        <v>44163</v>
       </c>
       <c r="N18">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <f t="shared" ref="N18:N81" si="7">M18-L18</f>
+        <v>7</v>
       </c>
       <c r="O18" s="8">
-        <f t="shared" si="4"/>
-        <v>16.466666666666665</v>
+        <f t="shared" si="6"/>
+        <v>41.571428571428569</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G19" s="2">
-        <v>1981</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>8</v>
+        <v>2017</v>
+      </c>
+      <c r="H19" t="s">
+        <v>331</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K19">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="L19" s="1">
-        <v>43931</v>
+        <v>44150</v>
       </c>
       <c r="M19" s="1">
-        <v>44053</v>
+        <v>44155</v>
       </c>
       <c r="N19">
-        <f t="shared" si="5"/>
-        <v>122</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="O19" s="8">
-        <f t="shared" si="4"/>
-        <v>1.8442622950819672</v>
+        <f t="shared" si="6"/>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>386</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>20</v>
+        <v>389</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G20" s="2">
-        <v>1865</v>
+        <v>1980</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K20">
-        <v>826</v>
+        <v>502</v>
       </c>
       <c r="L20" s="1">
-        <v>43930</v>
+        <v>44129</v>
       </c>
       <c r="M20" s="1">
-        <v>44021</v>
+        <v>44142</v>
       </c>
       <c r="N20">
-        <f t="shared" si="5"/>
-        <v>91</v>
+        <f>M20-L20</f>
+        <v>13</v>
       </c>
       <c r="O20" s="8">
-        <f t="shared" si="4"/>
-        <v>9.0769230769230766</v>
+        <f t="shared" si="6"/>
+        <v>38.615384615384613</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>24</v>
+        <v>385</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G21" s="2">
-        <v>1988</v>
+        <v>1938</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K21">
-        <v>368</v>
+        <v>247</v>
       </c>
       <c r="L21" s="1">
-        <v>44052</v>
+        <v>44114</v>
       </c>
       <c r="M21" s="1">
-        <v>44077</v>
+        <v>44129</v>
       </c>
       <c r="N21">
-        <f t="shared" si="5"/>
-        <v>25</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="O21" s="8">
-        <f t="shared" si="4"/>
-        <v>14.72</v>
+        <f t="shared" si="6"/>
+        <v>16.466666666666665</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G22" s="2">
-        <v>1951</v>
+        <v>1981</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K22">
-        <v>54</v>
+        <v>225</v>
       </c>
       <c r="L22" s="1">
-        <v>43838</v>
+        <v>43931</v>
       </c>
       <c r="M22" s="1">
-        <v>43990</v>
+        <v>44053</v>
       </c>
       <c r="N22">
-        <f t="shared" si="5"/>
-        <v>152</v>
+        <f t="shared" si="7"/>
+        <v>122</v>
       </c>
       <c r="O22" s="8">
-        <f t="shared" si="4"/>
-        <v>0.35526315789473684</v>
+        <f t="shared" si="6"/>
+        <v>1.8442622950819672</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>29</v>
+        <v>386</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G23" s="2">
-        <v>1979</v>
+        <v>1865</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K23">
-        <v>179</v>
+        <v>826</v>
       </c>
       <c r="L23" s="1">
-        <v>44020</v>
+        <v>43930</v>
       </c>
       <c r="M23" s="1">
-        <v>44082</v>
+        <v>44021</v>
       </c>
       <c r="N23">
-        <f t="shared" si="5"/>
-        <v>62</v>
+        <f t="shared" si="7"/>
+        <v>91</v>
       </c>
       <c r="O23" s="8">
-        <f t="shared" si="4"/>
-        <v>2.8870967741935485</v>
+        <f t="shared" si="6"/>
+        <v>9.0769230769230766</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G24" s="2">
-        <v>1982</v>
+        <v>1988</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>49</v>
+        <v>333</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K24">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L24" s="1">
-        <v>44037</v>
+        <v>44052</v>
       </c>
       <c r="M24" s="1">
-        <v>44039</v>
+        <v>44077</v>
       </c>
       <c r="N24">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>25</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" si="4"/>
-        <v>149.5</v>
+        <f t="shared" si="6"/>
+        <v>14.72</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G25" s="2">
-        <v>1964</v>
+        <v>1951</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K25">
-        <v>336</v>
+        <v>54</v>
       </c>
       <c r="L25" s="1">
-        <v>44032</v>
+        <v>43838</v>
       </c>
       <c r="M25" s="1">
-        <v>44034</v>
+        <v>43990</v>
       </c>
       <c r="N25">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>152</v>
       </c>
       <c r="O25" s="8">
-        <f t="shared" si="4"/>
-        <v>168</v>
+        <f t="shared" si="6"/>
+        <v>0.35526315789473684</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G26" s="2">
-        <v>2018</v>
+        <v>1979</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K26">
-        <v>256</v>
+        <v>179</v>
       </c>
       <c r="L26" s="1">
-        <v>44023</v>
+        <v>44020</v>
       </c>
       <c r="M26" s="1">
-        <v>44030</v>
+        <v>44082</v>
       </c>
       <c r="N26">
-        <f t="shared" si="5"/>
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>62</v>
       </c>
       <c r="O26" s="8">
-        <f t="shared" si="4"/>
-        <v>36.571428571428569</v>
+        <f t="shared" si="6"/>
+        <v>2.8870967741935485</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>377</v>
+        <v>32</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>383</v>
@@ -3494,44 +3524,44 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G27" s="2">
-        <v>1965</v>
+        <v>1982</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>337</v>
+        <v>49</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K27">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="L27" s="1">
-        <v>44018</v>
+        <v>44037</v>
       </c>
       <c r="M27" s="1">
-        <v>44023</v>
+        <v>44039</v>
       </c>
       <c r="N27">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="O27" s="8">
-        <f t="shared" si="4"/>
-        <v>64</v>
+        <f t="shared" si="6"/>
+        <v>149.5</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>320</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>384</v>
@@ -3541,138 +3571,138 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G28" s="2">
-        <v>2005</v>
+        <v>1964</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K28">
-        <v>465</v>
+        <v>336</v>
       </c>
       <c r="L28" s="1">
-        <v>44004</v>
+        <v>44032</v>
       </c>
       <c r="M28" s="1">
-        <v>44017</v>
+        <v>44034</v>
       </c>
       <c r="N28">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="O28" s="8">
-        <f t="shared" si="4"/>
-        <v>35.769230769230766</v>
+        <f t="shared" si="6"/>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G29" s="2">
-        <v>1930</v>
+        <v>2018</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K29">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="L29" s="1">
-        <v>43995</v>
+        <v>44023</v>
       </c>
       <c r="M29" s="1">
-        <v>44002</v>
+        <v>44030</v>
       </c>
       <c r="N29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="O29" s="8">
-        <f t="shared" si="4"/>
-        <v>34.285714285714285</v>
+        <f t="shared" si="6"/>
+        <v>36.571428571428569</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>47</v>
+        <v>377</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>319</v>
+        <v>28</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1965</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>49</v>
+        <v>337</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K30">
-        <v>618</v>
+        <v>320</v>
       </c>
       <c r="L30" s="1">
-        <v>43927</v>
+        <v>44018</v>
       </c>
       <c r="M30" s="1">
-        <v>44110</v>
+        <v>44023</v>
       </c>
       <c r="N30">
-        <f t="shared" si="5"/>
-        <v>183</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="O30" s="8">
-        <f t="shared" si="4"/>
-        <v>3.377049180327869</v>
+        <f t="shared" si="6"/>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>50</v>
+        <v>320</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>384</v>
@@ -3682,138 +3712,138 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G31" s="2">
-        <v>1939</v>
+        <v>2005</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>339</v>
+        <v>49</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K31">
-        <v>250</v>
+        <v>465</v>
       </c>
       <c r="L31" s="1">
-        <v>43982</v>
+        <v>44004</v>
       </c>
       <c r="M31" s="1">
-        <v>43984</v>
+        <v>44017</v>
       </c>
       <c r="N31">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>13</v>
       </c>
       <c r="O31" s="8">
-        <f t="shared" si="4"/>
-        <v>125</v>
+        <f t="shared" si="6"/>
+        <v>35.769230769230766</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G32" s="2">
-        <v>2020</v>
+        <v>1930</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K32">
-        <v>336</v>
+        <v>240</v>
       </c>
       <c r="L32" s="1">
-        <v>43975</v>
+        <v>43995</v>
       </c>
       <c r="M32" s="1">
-        <v>43977</v>
+        <v>44002</v>
       </c>
       <c r="N32">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
       <c r="O32" s="8">
-        <f t="shared" si="4"/>
-        <v>168</v>
+        <f t="shared" si="6"/>
+        <v>34.285714285714285</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G33" s="2">
-        <v>1966</v>
+        <v>48</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K33">
-        <v>284</v>
+        <v>618</v>
       </c>
       <c r="L33" s="1">
-        <v>43968</v>
+        <v>43927</v>
       </c>
       <c r="M33" s="1">
-        <v>43973</v>
+        <v>44110</v>
       </c>
       <c r="N33">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>183</v>
       </c>
       <c r="O33" s="8">
-        <f t="shared" si="4"/>
-        <v>56.8</v>
+        <f t="shared" si="6"/>
+        <v>3.377049180327869</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>384</v>
@@ -3823,185 +3853,185 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G34" s="2">
-        <v>2018</v>
+        <v>1939</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>58</v>
+        <v>339</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K34">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="L34" s="1">
-        <v>43964</v>
+        <v>43982</v>
       </c>
       <c r="M34" s="1">
-        <v>43965</v>
+        <v>43984</v>
       </c>
       <c r="N34">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="O34" s="8">
-        <f t="shared" si="4"/>
-        <v>320</v>
+        <f t="shared" si="6"/>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G35" s="2">
-        <v>1966</v>
+        <v>2020</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K35">
-        <v>126</v>
+        <v>336</v>
       </c>
       <c r="L35" s="1">
-        <v>43962</v>
+        <v>43975</v>
       </c>
       <c r="M35" s="1">
-        <v>43964</v>
+        <v>43977</v>
       </c>
       <c r="N35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="O35" s="8">
-        <f t="shared" si="4"/>
-        <v>63</v>
+        <f t="shared" si="6"/>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G36" s="2">
-        <v>2017</v>
+        <v>1966</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K36">
-        <v>513</v>
+        <v>284</v>
       </c>
       <c r="L36" s="1">
-        <v>43947</v>
+        <v>43968</v>
       </c>
       <c r="M36" s="1">
-        <v>43956</v>
+        <v>43973</v>
       </c>
       <c r="N36">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="O36" s="8">
-        <f t="shared" si="4"/>
-        <v>57</v>
+        <f t="shared" si="6"/>
+        <v>56.8</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>375</v>
+        <v>59</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>376</v>
+        <v>60</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G37" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K37">
-        <v>646</v>
+        <v>320</v>
       </c>
       <c r="L37" s="1">
-        <v>43942</v>
+        <v>43964</v>
       </c>
       <c r="M37" s="1">
-        <v>43947</v>
+        <v>43965</v>
       </c>
       <c r="N37">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="O37" s="8">
-        <f t="shared" si="4"/>
-        <v>129.19999999999999</v>
+        <f t="shared" si="6"/>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>384</v>
@@ -4011,10 +4041,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="G38" s="2">
-        <v>1961</v>
+        <v>1966</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>8</v>
@@ -4026,76 +4056,76 @@
         <v>9</v>
       </c>
       <c r="K38">
-        <v>568</v>
+        <v>126</v>
       </c>
       <c r="L38" s="1">
-        <v>43927</v>
+        <v>43962</v>
       </c>
       <c r="M38" s="1">
-        <v>43941</v>
+        <v>43964</v>
       </c>
       <c r="N38">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="O38" s="8">
-        <f t="shared" si="4"/>
-        <v>40.571428571428569</v>
+        <f t="shared" si="6"/>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>374</v>
+        <v>65</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="G39" s="2">
-        <v>1929</v>
+        <v>2017</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>369</v>
+        <v>96</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K39">
-        <v>299</v>
+        <v>513</v>
       </c>
       <c r="L39" s="1">
-        <v>43919</v>
+        <v>43947</v>
       </c>
       <c r="M39" s="1">
-        <v>43926</v>
+        <v>43956</v>
       </c>
       <c r="N39">
-        <f t="shared" si="5"/>
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="O39" s="8">
-        <f t="shared" si="4"/>
-        <v>42.714285714285715</v>
+        <f t="shared" si="6"/>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>72</v>
+        <v>375</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>73</v>
+        <v>376</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>20</v>
@@ -4105,44 +4135,44 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G40" s="2">
-        <v>1844</v>
+        <v>2019</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>332</v>
+        <v>49</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K40">
-        <v>1180</v>
+        <v>646</v>
       </c>
       <c r="L40" s="1">
-        <v>43839</v>
+        <v>43942</v>
       </c>
       <c r="M40" s="1">
-        <v>43884</v>
+        <v>43947</v>
       </c>
       <c r="N40">
-        <f t="shared" si="5"/>
-        <v>45</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="O40" s="8">
-        <f t="shared" si="4"/>
-        <v>26.222222222222221</v>
+        <f t="shared" si="6"/>
+        <v>129.19999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>384</v>
@@ -4152,138 +4182,138 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G41" s="2">
-        <v>1979</v>
+        <v>1961</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K41">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L41" s="1">
-        <v>43814</v>
+        <v>43927</v>
       </c>
       <c r="M41" s="1">
-        <v>43891</v>
+        <v>43941</v>
       </c>
       <c r="N41">
-        <f t="shared" si="5"/>
-        <v>77</v>
+        <f t="shared" si="7"/>
+        <v>14</v>
       </c>
       <c r="O41" s="8">
-        <f t="shared" si="4"/>
-        <v>7.3636363636363633</v>
+        <f t="shared" si="6"/>
+        <v>40.571428571428569</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G42" s="2">
-        <v>2019</v>
+        <v>1929</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K42">
-        <v>408</v>
+        <v>299</v>
       </c>
       <c r="L42" s="1">
-        <v>43834</v>
+        <v>43919</v>
       </c>
       <c r="M42" s="1">
-        <v>43836</v>
+        <v>43926</v>
       </c>
       <c r="N42">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
       <c r="O42" s="8">
-        <f t="shared" si="4"/>
-        <v>204</v>
+        <f t="shared" si="6"/>
+        <v>42.714285714285715</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>390</v>
+        <v>20</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G43" s="2">
-        <v>1957</v>
+        <v>1844</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K43">
-        <v>170</v>
+        <v>1180</v>
       </c>
       <c r="L43" s="1">
-        <v>43801</v>
+        <v>43839</v>
       </c>
       <c r="M43" s="1">
-        <v>43807</v>
+        <v>43884</v>
       </c>
       <c r="N43">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>45</v>
       </c>
       <c r="O43" s="8">
-        <f t="shared" si="4"/>
-        <v>28.333333333333332</v>
+        <f t="shared" si="6"/>
+        <v>26.222222222222221</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>384</v>
@@ -4293,191 +4323,191 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G44" s="2">
-        <v>2018</v>
+        <v>1979</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>58</v>
+        <v>340</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K44">
-        <v>319</v>
+        <v>567</v>
       </c>
       <c r="L44" s="1">
-        <v>43799</v>
+        <v>43814</v>
       </c>
       <c r="M44" s="1">
-        <v>43800</v>
+        <v>43891</v>
       </c>
       <c r="N44">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>77</v>
       </c>
       <c r="O44" s="8">
-        <f t="shared" si="4"/>
-        <v>319</v>
+        <f t="shared" si="6"/>
+        <v>7.3636363636363633</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G45" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K45">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="L45" s="1">
-        <v>43780</v>
+        <v>43834</v>
       </c>
       <c r="M45" s="1">
-        <v>43788</v>
+        <v>43836</v>
       </c>
       <c r="N45">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="O45" s="8">
-        <f t="shared" si="4"/>
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>358</v>
+        <v>52</v>
       </c>
       <c r="G46" s="2">
-        <v>1993</v>
+        <v>1957</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K46">
-        <v>355</v>
+        <v>170</v>
       </c>
       <c r="L46" s="1">
-        <v>43762</v>
+        <v>43801</v>
       </c>
       <c r="M46" s="1">
-        <v>43773</v>
+        <v>43807</v>
       </c>
       <c r="N46">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="O46" s="8">
-        <f t="shared" si="4"/>
-        <v>32.272727272727273</v>
+        <f t="shared" si="6"/>
+        <v>28.333333333333332</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="G47" s="2">
-        <v>1818</v>
+        <v>2018</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>330</v>
+        <v>58</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K47">
-        <v>240</v>
+        <v>319</v>
       </c>
       <c r="L47" s="1">
-        <v>43752</v>
+        <v>43799</v>
       </c>
       <c r="M47" s="1">
-        <v>43759</v>
+        <v>43800</v>
       </c>
       <c r="N47">
-        <f t="shared" si="5"/>
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="O47" s="8">
-        <f t="shared" si="4"/>
-        <v>34.285714285714285</v>
+        <f t="shared" si="6"/>
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>354</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G48" s="2">
         <v>2018</v>
@@ -4486,220 +4516,220 @@
         <v>331</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>96</v>
+        <v>336</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K48">
-        <v>272</v>
+        <v>400</v>
       </c>
       <c r="L48" s="1">
-        <v>43743</v>
+        <v>43780</v>
       </c>
       <c r="M48" s="1">
-        <v>43749</v>
+        <v>43788</v>
       </c>
       <c r="N48">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>8</v>
       </c>
       <c r="O48" s="8">
-        <f t="shared" si="4"/>
-        <v>45.333333333333336</v>
+        <f t="shared" si="6"/>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>99</v>
+        <v>358</v>
       </c>
       <c r="G49" s="2">
-        <v>1866</v>
+        <v>1993</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K49">
-        <v>528</v>
+        <v>355</v>
       </c>
       <c r="L49" s="1">
-        <v>43715</v>
+        <v>43762</v>
       </c>
       <c r="M49" s="1">
-        <v>43741</v>
+        <v>43773</v>
       </c>
       <c r="N49">
-        <f t="shared" si="5"/>
-        <v>26</v>
+        <f t="shared" si="7"/>
+        <v>11</v>
       </c>
       <c r="O49" s="8">
-        <f t="shared" si="4"/>
-        <v>20.307692307692307</v>
+        <f t="shared" si="6"/>
+        <v>32.272727272727273</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>359</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="G50" s="2">
-        <v>1970</v>
+        <v>1818</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>49</v>
+        <v>330</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K50">
-        <v>348</v>
+        <v>240</v>
       </c>
       <c r="L50" s="1">
-        <v>43697</v>
+        <v>43752</v>
       </c>
       <c r="M50" s="1">
-        <v>43708</v>
+        <v>43759</v>
       </c>
       <c r="N50">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
       <c r="O50" s="8">
-        <f t="shared" si="4"/>
-        <v>31.636363636363637</v>
+        <f t="shared" si="6"/>
+        <v>34.285714285714285</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G51" s="2">
-        <v>1972</v>
+        <v>2018</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>333</v>
+        <v>96</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K51">
-        <v>416</v>
+        <v>272</v>
       </c>
       <c r="L51" s="1">
-        <v>43680</v>
+        <v>43743</v>
       </c>
       <c r="M51" s="1">
-        <v>43692</v>
+        <v>43749</v>
       </c>
       <c r="N51">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="O51" s="8">
-        <f t="shared" si="4"/>
-        <v>34.666666666666664</v>
+        <f t="shared" si="6"/>
+        <v>45.333333333333336</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="G52" s="2">
-        <v>2013</v>
+        <v>1866</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K52">
-        <v>463</v>
+        <v>528</v>
       </c>
       <c r="L52" s="1">
-        <v>43663</v>
+        <v>43715</v>
       </c>
       <c r="M52" s="1">
-        <v>43677</v>
+        <v>43741</v>
       </c>
       <c r="N52">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f t="shared" si="7"/>
+        <v>26</v>
       </c>
       <c r="O52" s="8">
-        <f t="shared" si="4"/>
-        <v>33.071428571428569</v>
+        <f t="shared" si="6"/>
+        <v>20.307692307692307</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>106</v>
+        <v>359</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>107</v>
@@ -4712,232 +4742,232 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>248</v>
+        <v>100</v>
       </c>
       <c r="G53" s="2">
-        <v>1965</v>
+        <v>1970</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>339</v>
+        <v>49</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K53">
-        <v>256</v>
+        <v>348</v>
       </c>
       <c r="L53" s="1">
-        <v>43640</v>
+        <v>43697</v>
       </c>
       <c r="M53" s="1">
-        <v>43659</v>
+        <v>43708</v>
       </c>
       <c r="N53">
-        <f t="shared" si="5"/>
-        <v>19</v>
+        <f t="shared" si="7"/>
+        <v>11</v>
       </c>
       <c r="O53" s="8">
-        <f t="shared" si="4"/>
-        <v>13.473684210526315</v>
+        <f t="shared" si="6"/>
+        <v>31.636363636363637</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G54" s="2">
+        <v>1972</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K54">
+        <v>416</v>
+      </c>
+      <c r="L54" s="1">
+        <v>43680</v>
+      </c>
+      <c r="M54" s="1">
+        <v>43692</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="G54" s="2">
-        <v>1997</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K54">
-        <v>423</v>
-      </c>
-      <c r="L54" s="1">
-        <v>43618</v>
-      </c>
-      <c r="M54" s="1">
-        <v>43636</v>
-      </c>
-      <c r="N54">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
       <c r="O54" s="8">
-        <f t="shared" si="4"/>
-        <v>23.5</v>
+        <f t="shared" si="6"/>
+        <v>34.666666666666664</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
-        <v>360</v>
+        <v>45</v>
       </c>
       <c r="G55" s="2">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K55">
-        <v>341</v>
+        <v>463</v>
       </c>
       <c r="L55" s="1">
-        <v>43616</v>
+        <v>43663</v>
       </c>
       <c r="M55" s="1">
-        <v>43617</v>
+        <v>43677</v>
       </c>
       <c r="N55">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>14</v>
       </c>
       <c r="O55" s="8">
-        <f t="shared" si="4"/>
-        <v>341</v>
+        <f t="shared" si="6"/>
+        <v>33.071428571428569</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
-        <v>113</v>
+        <v>248</v>
       </c>
       <c r="G56" s="2">
-        <v>2003</v>
+        <v>1965</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K56">
-        <v>610</v>
+        <v>256</v>
       </c>
       <c r="L56" s="1">
-        <v>43596</v>
+        <v>43640</v>
       </c>
       <c r="M56" s="1">
-        <v>43606</v>
+        <v>43659</v>
       </c>
       <c r="N56">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f t="shared" si="7"/>
+        <v>19</v>
       </c>
       <c r="O56" s="8">
-        <f t="shared" si="4"/>
-        <v>61</v>
+        <f t="shared" si="6"/>
+        <v>13.473684210526315</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>361</v>
+        <v>108</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
-        <v>358</v>
+        <v>12</v>
       </c>
       <c r="G57" s="2">
-        <v>1984</v>
+        <v>1997</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K57">
-        <v>352</v>
+        <v>423</v>
       </c>
       <c r="L57" s="1">
-        <v>43589</v>
+        <v>43618</v>
       </c>
       <c r="M57" s="1">
-        <v>43594</v>
+        <v>43636</v>
       </c>
       <c r="N57">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>18</v>
       </c>
       <c r="O57" s="8">
-        <f t="shared" si="4"/>
-        <v>70.400000000000006</v>
+        <f t="shared" si="6"/>
+        <v>23.5</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>384</v>
@@ -4947,239 +4977,245 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
-        <v>117</v>
+        <v>360</v>
       </c>
       <c r="G58" s="2">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K58">
-        <v>288</v>
+        <v>341</v>
       </c>
       <c r="L58" s="1">
-        <v>43578</v>
+        <v>43616</v>
       </c>
       <c r="M58" s="1">
-        <v>43588</v>
+        <v>43617</v>
       </c>
       <c r="N58">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="O58" s="8">
-        <f t="shared" si="4"/>
-        <v>28.8</v>
+        <f t="shared" si="6"/>
+        <v>341</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>319</v>
+        <v>113</v>
       </c>
       <c r="G59" s="2">
-        <v>1876</v>
+        <v>2003</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K59">
-        <v>236</v>
+        <v>610</v>
       </c>
       <c r="L59" s="1">
-        <v>43041</v>
+        <v>43596</v>
       </c>
       <c r="M59" s="1">
-        <v>43048</v>
+        <v>43606</v>
       </c>
       <c r="N59">
-        <f t="shared" si="5"/>
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>10</v>
       </c>
       <c r="O59" s="8">
-        <f t="shared" si="4"/>
-        <v>33.714285714285715</v>
+        <f t="shared" si="6"/>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>120</v>
+        <v>361</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>383</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
-        <v>122</v>
+        <v>358</v>
       </c>
       <c r="G60" s="2">
-        <v>1813</v>
+        <v>1984</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K60">
-        <v>414</v>
+        <v>352</v>
       </c>
       <c r="L60" s="1">
-        <v>42875</v>
+        <v>43589</v>
       </c>
       <c r="M60" s="1">
-        <v>42881</v>
+        <v>43594</v>
       </c>
       <c r="N60">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="O60" s="8">
-        <f t="shared" si="4"/>
-        <v>69</v>
+        <f t="shared" si="6"/>
+        <v>70.400000000000006</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G61" s="2">
-        <v>1869</v>
+        <v>2014</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K61">
-        <v>999</v>
+        <v>288</v>
+      </c>
+      <c r="L61" s="1">
+        <v>43578</v>
+      </c>
+      <c r="M61" s="1">
+        <v>43588</v>
       </c>
       <c r="N61">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O61" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="O61" s="8">
+        <f t="shared" si="6"/>
+        <v>28.8</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>372</v>
+        <v>118</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>373</v>
+        <v>119</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>126</v>
+        <v>319</v>
       </c>
       <c r="G62" s="2">
-        <v>1928</v>
+        <v>1876</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>49</v>
+        <v>332</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K62">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="L62" s="1">
-        <v>42675</v>
+        <v>43041</v>
       </c>
       <c r="M62" s="1">
-        <v>42682</v>
+        <v>43048</v>
       </c>
       <c r="N62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="O62" s="8">
-        <f t="shared" si="4"/>
-        <v>46.142857142857146</v>
+        <f t="shared" si="6"/>
+        <v>33.714285714285715</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>383</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
-        <v>319</v>
+        <v>122</v>
       </c>
       <c r="G63" s="2">
-        <v>1878</v>
+        <v>1813</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>8</v>
@@ -5191,264 +5227,258 @@
         <v>9</v>
       </c>
       <c r="K63">
-        <v>338</v>
+        <v>414</v>
       </c>
       <c r="L63" s="1">
-        <v>43477</v>
+        <v>42875</v>
       </c>
       <c r="M63" s="1">
-        <v>43485</v>
+        <v>42881</v>
       </c>
       <c r="N63">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="O63" s="8">
-        <f t="shared" si="4"/>
-        <v>42.25</v>
+        <f t="shared" si="6"/>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>393</v>
+        <v>20</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G64" s="2">
-        <v>2018</v>
+        <v>1869</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K64">
-        <v>755</v>
-      </c>
-      <c r="L64" s="1">
-        <v>43108</v>
-      </c>
-      <c r="M64" s="1">
-        <v>43111</v>
+        <v>999</v>
       </c>
       <c r="N64">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="O64" s="8">
-        <f t="shared" si="4"/>
-        <v>251.66666666666666</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O64" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>132</v>
+        <v>372</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>133</v>
+        <v>373</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>383</v>
+        <v>20</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G65" s="2">
-        <v>1954</v>
+        <v>1928</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>343</v>
+        <v>49</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K65">
-        <v>250</v>
+        <v>323</v>
       </c>
       <c r="L65" s="1">
-        <v>43411</v>
+        <v>42675</v>
       </c>
       <c r="M65" s="1">
-        <v>43423</v>
+        <v>42682</v>
       </c>
       <c r="N65">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
       <c r="O65" s="8">
-        <f t="shared" si="4"/>
-        <v>20.833333333333332</v>
+        <f t="shared" si="6"/>
+        <v>46.142857142857146</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>28</v>
+        <v>319</v>
       </c>
       <c r="G66" s="2">
-        <v>2018</v>
+        <v>1878</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>96</v>
+        <v>369</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K66">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="L66" s="1">
-        <v>43496</v>
+        <v>43477</v>
       </c>
       <c r="M66" s="1">
-        <v>43506</v>
+        <v>43485</v>
       </c>
       <c r="N66">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f t="shared" si="7"/>
+        <v>8</v>
       </c>
       <c r="O66" s="8">
-        <f t="shared" si="4"/>
-        <v>28.8</v>
+        <f t="shared" si="6"/>
+        <v>42.25</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G67" s="2">
-        <v>1898</v>
+        <v>2018</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>335</v>
+        <v>49</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K67">
-        <v>61</v>
+        <v>755</v>
       </c>
       <c r="L67" s="1">
-        <v>43424</v>
+        <v>43108</v>
       </c>
       <c r="M67" s="1">
-        <v>43425</v>
+        <v>43111</v>
       </c>
       <c r="N67">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="O67" s="8">
-        <f t="shared" si="4"/>
-        <v>61</v>
+        <f t="shared" si="6"/>
+        <v>251.66666666666666</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="G68" s="2">
-        <v>1978</v>
+        <v>1954</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K68">
-        <v>64</v>
+        <v>250</v>
       </c>
       <c r="L68" s="1">
-        <v>43402</v>
+        <v>43411</v>
       </c>
       <c r="M68" s="1">
-        <v>43403</v>
+        <v>43423</v>
       </c>
       <c r="N68">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>12</v>
       </c>
       <c r="O68" s="8">
-        <f t="shared" si="4"/>
-        <v>64</v>
+        <f t="shared" si="6"/>
+        <v>20.833333333333332</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>384</v>
@@ -5458,7 +5488,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="G69" s="2">
         <v>2018</v>
@@ -5473,307 +5503,311 @@
         <v>9</v>
       </c>
       <c r="K69">
-        <v>437</v>
+        <v>288</v>
       </c>
       <c r="L69" s="1">
-        <v>43381</v>
+        <v>43496</v>
       </c>
       <c r="M69" s="1">
-        <v>43390</v>
+        <v>43506</v>
       </c>
       <c r="N69">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <f t="shared" si="7"/>
+        <v>10</v>
       </c>
       <c r="O69" s="8">
-        <f t="shared" si="4"/>
-        <v>48.555555555555557</v>
+        <f t="shared" si="6"/>
+        <v>28.8</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="G70" s="2">
-        <v>1925</v>
+        <v>1898</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K70">
-        <v>859</v>
+        <v>61</v>
       </c>
       <c r="L70" s="1">
-        <v>42585</v>
+        <v>43424</v>
       </c>
       <c r="M70" s="1">
-        <v>42627</v>
+        <v>43425</v>
       </c>
       <c r="N70">
-        <f t="shared" si="5"/>
-        <v>42</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="O70" s="8">
-        <f t="shared" si="4"/>
-        <v>20.452380952380953</v>
+        <f t="shared" si="6"/>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="G71" s="2">
-        <v>1971</v>
+        <v>1978</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K71">
-        <v>416</v>
+        <v>64</v>
       </c>
       <c r="L71" s="1">
-        <v>43518</v>
+        <v>43402</v>
       </c>
       <c r="M71" s="1">
-        <v>43542</v>
+        <v>43403</v>
       </c>
       <c r="N71">
-        <f t="shared" si="5"/>
-        <v>24</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="O71" s="8">
-        <f t="shared" si="4"/>
-        <v>17.333333333333332</v>
+        <f t="shared" si="6"/>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>362</v>
+        <v>142</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>364</v>
+        <v>143</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
-        <v>363</v>
+        <v>144</v>
       </c>
       <c r="G72" s="2">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>345</v>
+        <v>96</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K72">
-        <v>87</v>
+        <v>437</v>
       </c>
       <c r="L72" s="1">
-        <v>42871</v>
+        <v>43381</v>
       </c>
       <c r="M72" s="1">
-        <v>42877</v>
+        <v>43390</v>
       </c>
       <c r="N72">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="O72" s="8">
-        <f t="shared" si="4"/>
-        <v>14.5</v>
+        <f t="shared" si="6"/>
+        <v>48.555555555555557</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="G73" s="2">
-        <v>2015</v>
+        <v>1925</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K73">
-        <v>348</v>
+        <v>859</v>
       </c>
       <c r="L73" s="1">
-        <v>42947</v>
+        <v>42585</v>
       </c>
       <c r="M73" s="1">
-        <v>42949</v>
+        <v>42627</v>
       </c>
       <c r="N73">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>42</v>
       </c>
       <c r="O73" s="8">
-        <f t="shared" si="4"/>
-        <v>174</v>
+        <f t="shared" si="6"/>
+        <v>20.452380952380953</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G74" s="2">
-        <v>2009</v>
+        <v>1971</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K74">
-        <v>270</v>
+        <v>416</v>
       </c>
       <c r="L74" s="1">
-        <v>43246</v>
+        <v>43518</v>
       </c>
       <c r="M74" s="1">
-        <v>43253</v>
+        <v>43542</v>
       </c>
       <c r="N74">
-        <f t="shared" si="5"/>
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>24</v>
       </c>
       <c r="O74" s="8">
-        <f t="shared" si="4"/>
-        <v>38.571428571428569</v>
+        <f t="shared" si="6"/>
+        <v>17.333333333333332</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>157</v>
+        <v>362</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2" t="s">
-        <v>15</v>
+        <v>363</v>
       </c>
       <c r="G75" s="2">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K75">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="L75" s="1">
-        <v>42745</v>
+        <v>42871</v>
       </c>
       <c r="M75" s="1">
-        <v>43028</v>
+        <v>42877</v>
       </c>
       <c r="N75">
-        <f t="shared" si="5"/>
-        <v>283</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="O75" s="8">
-        <f t="shared" si="4"/>
-        <v>0.52296819787985871</v>
+        <f t="shared" si="6"/>
+        <v>14.5</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>383</v>
@@ -5783,102 +5817,100 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G76" s="2">
-        <v>1962</v>
+        <v>2015</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>338</v>
+        <v>49</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K76">
-        <v>240</v>
+        <v>348</v>
       </c>
       <c r="L76" s="1">
-        <v>43328</v>
+        <v>42947</v>
       </c>
       <c r="M76" s="1">
-        <v>43344</v>
+        <v>42949</v>
       </c>
       <c r="N76">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="O76" s="8">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <f t="shared" si="6"/>
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>384</v>
+      </c>
       <c r="D77" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G77" s="2">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>96</v>
+        <v>336</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K77">
-        <v>352</v>
+        <v>270</v>
       </c>
       <c r="L77" s="1">
-        <v>43092</v>
+        <v>43246</v>
       </c>
       <c r="M77" s="1">
-        <v>43191</v>
+        <v>43253</v>
       </c>
       <c r="N77">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
       <c r="O77" s="8">
-        <f t="shared" si="4"/>
-        <v>3.5555555555555554</v>
+        <f t="shared" si="6"/>
+        <v>38.571428571428569</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
-        <v>371</v>
+        <v>157</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>387</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="G78" s="2">
-        <v>1994</v>
+        <v>2010</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>331</v>
@@ -5887,139 +5919,137 @@
         <v>336</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K78">
-        <v>316</v>
+        <v>148</v>
       </c>
       <c r="L78" s="1">
-        <v>43183</v>
+        <v>42745</v>
       </c>
       <c r="M78" s="1">
-        <v>43198</v>
+        <v>43028</v>
       </c>
       <c r="N78">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <f t="shared" si="7"/>
+        <v>283</v>
       </c>
       <c r="O78" s="8">
-        <f t="shared" ref="O78:O140" si="6">K78/N78</f>
-        <v>21.066666666666666</v>
+        <f t="shared" si="6"/>
+        <v>0.52296819787985871</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>20</v>
+        <v>383</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G79" s="2">
-        <v>2016</v>
+        <v>1962</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>96</v>
+        <v>338</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K79">
-        <v>188</v>
+        <v>240</v>
       </c>
       <c r="L79" s="1">
-        <v>43166</v>
+        <v>43328</v>
       </c>
       <c r="M79" s="1">
-        <v>43175</v>
+        <v>43344</v>
       </c>
       <c r="N79">
-        <f t="shared" ref="N79:N141" si="7">M79-L79</f>
-        <v>9</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
       <c r="O79" s="8">
         <f t="shared" si="6"/>
-        <v>20.888888888888889</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>383</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="G80" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K80">
-        <v>256</v>
+        <v>352</v>
       </c>
       <c r="L80" s="1">
-        <v>43175</v>
+        <v>43092</v>
       </c>
       <c r="M80" s="1">
-        <v>43177</v>
+        <v>43191</v>
       </c>
       <c r="N80">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="O80" s="8">
         <f t="shared" si="6"/>
-        <v>128</v>
+        <v>3.5555555555555554</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>171</v>
+        <v>371</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G81" s="2">
-        <v>2014</v>
+        <v>1994</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>331</v>
@@ -6028,495 +6058,507 @@
         <v>336</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K81">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="L81" s="1">
-        <v>42977</v>
+        <v>43183</v>
       </c>
       <c r="M81" s="1">
-        <v>42995</v>
+        <v>43198</v>
       </c>
       <c r="N81">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O81" s="8">
-        <f t="shared" si="6"/>
-        <v>15.111111111111111</v>
+        <f t="shared" ref="O81:O143" si="8">K81/N81</f>
+        <v>21.066666666666666</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>383</v>
+        <v>20</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="G82" s="2">
-        <v>1861</v>
+        <v>2016</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>369</v>
+        <v>96</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K82">
-        <v>460</v>
+        <v>188</v>
       </c>
       <c r="L82" s="1">
-        <v>42652</v>
+        <v>43166</v>
       </c>
       <c r="M82" s="1">
-        <v>42664</v>
+        <v>43175</v>
       </c>
       <c r="N82">
-        <f t="shared" si="7"/>
-        <v>12</v>
+        <f t="shared" ref="N82:N144" si="9">M82-L82</f>
+        <v>9</v>
       </c>
       <c r="O82" s="8">
-        <f t="shared" si="6"/>
-        <v>38.333333333333336</v>
+        <f t="shared" si="8"/>
+        <v>20.888888888888889</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="G83" s="2">
-        <v>1924</v>
+        <v>2014</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>369</v>
+        <v>58</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K83">
-        <v>729</v>
+        <v>256</v>
       </c>
       <c r="L83" s="1">
-        <v>43049</v>
+        <v>43175</v>
       </c>
       <c r="M83" s="1">
-        <v>43091</v>
+        <v>43177</v>
       </c>
       <c r="N83">
-        <f t="shared" si="7"/>
-        <v>42</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="O83" s="8">
-        <f t="shared" si="6"/>
-        <v>17.357142857142858</v>
+        <f t="shared" si="8"/>
+        <v>128</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G84" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>58</v>
+        <v>336</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K84">
-        <v>224</v>
+        <v>272</v>
       </c>
       <c r="L84" s="1">
-        <v>42527</v>
+        <v>42977</v>
       </c>
       <c r="M84" s="1">
-        <v>42528</v>
+        <v>42995</v>
       </c>
       <c r="N84">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>18</v>
       </c>
       <c r="O84" s="8">
-        <f t="shared" si="6"/>
-        <v>224</v>
+        <f t="shared" si="8"/>
+        <v>15.111111111111111</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="G85" s="2">
-        <v>1960</v>
+        <v>1861</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K85">
-        <v>307</v>
+        <v>460</v>
       </c>
       <c r="L85" s="1">
-        <v>43227</v>
+        <v>42652</v>
       </c>
       <c r="M85" s="1">
-        <v>43240</v>
+        <v>42664</v>
       </c>
       <c r="N85">
-        <f t="shared" si="7"/>
-        <v>13</v>
+        <f t="shared" si="9"/>
+        <v>12</v>
       </c>
       <c r="O85" s="8">
-        <f t="shared" si="6"/>
-        <v>23.615384615384617</v>
+        <f t="shared" si="8"/>
+        <v>38.333333333333336</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>378</v>
+        <v>177</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="G86" s="2">
-        <v>2015</v>
+        <v>1924</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K86">
-        <v>90</v>
+        <v>729</v>
       </c>
       <c r="L86" s="1">
-        <v>42632</v>
+        <v>43049</v>
       </c>
       <c r="M86" s="1">
-        <v>42633</v>
+        <v>43091</v>
       </c>
       <c r="N86">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>42</v>
       </c>
       <c r="O86" s="8">
-        <f t="shared" si="6"/>
-        <v>90</v>
+        <f t="shared" si="8"/>
+        <v>17.357142857142858</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G87" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>336</v>
+        <v>58</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K87">
-        <v>286</v>
+        <v>224</v>
       </c>
       <c r="L87" s="1">
-        <v>43283</v>
+        <v>42527</v>
       </c>
       <c r="M87" s="1">
-        <v>43291</v>
+        <v>42528</v>
       </c>
       <c r="N87">
-        <f t="shared" si="7"/>
-        <v>8</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="O87" s="8">
-        <f t="shared" si="6"/>
-        <v>35.75</v>
+        <f t="shared" si="8"/>
+        <v>224</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G88" s="2">
-        <v>2010</v>
+        <v>1960</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K88">
-        <v>386</v>
+        <v>307</v>
       </c>
       <c r="L88" s="1">
-        <v>42941</v>
+        <v>43227</v>
       </c>
       <c r="M88" s="1">
-        <v>42950</v>
+        <v>43240</v>
       </c>
       <c r="N88">
-        <f t="shared" si="7"/>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>13</v>
       </c>
       <c r="O88" s="8">
-        <f t="shared" si="6"/>
-        <v>42.888888888888886</v>
+        <f t="shared" si="8"/>
+        <v>23.615384615384617</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="s">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="G89" s="2">
-        <v>1967</v>
+        <v>2015</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K89">
-        <v>432</v>
+        <v>90</v>
       </c>
       <c r="L89" s="1">
-        <v>42936</v>
+        <v>42632</v>
       </c>
       <c r="M89" s="1">
-        <v>42940</v>
+        <v>42633</v>
       </c>
       <c r="N89">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="O89" s="8">
-        <f t="shared" si="6"/>
-        <v>108</v>
+        <f t="shared" si="8"/>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="G90" s="2">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="H90" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K90">
+        <v>286</v>
+      </c>
+      <c r="L90" s="1">
+        <v>43283</v>
+      </c>
+      <c r="M90" s="1">
+        <v>43291</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="I90" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K90">
-        <v>276</v>
-      </c>
-      <c r="L90" s="1">
-        <v>43028</v>
-      </c>
-      <c r="M90" s="1">
-        <v>43036</v>
-      </c>
-      <c r="N90">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
       <c r="O90" s="8">
-        <f t="shared" si="6"/>
-        <v>34.5</v>
+        <f t="shared" si="8"/>
+        <v>35.75</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="G91" s="2">
-        <v>1969</v>
+        <v>2010</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>49</v>
+        <v>346</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K91">
-        <v>157</v>
+        <v>386</v>
       </c>
       <c r="L91" s="1">
-        <v>42639</v>
+        <v>42941</v>
       </c>
       <c r="M91" s="1">
-        <v>42640</v>
+        <v>42950</v>
       </c>
       <c r="N91">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>9</v>
       </c>
       <c r="O91" s="8">
-        <f t="shared" si="6"/>
-        <v>157</v>
+        <f t="shared" si="8"/>
+        <v>42.888888888888886</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>198</v>
+        <v>379</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G92" s="2">
-        <v>1959</v>
+        <v>1967</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>8</v>
@@ -6528,416 +6570,416 @@
         <v>9</v>
       </c>
       <c r="K92">
-        <v>341</v>
+        <v>432</v>
       </c>
       <c r="L92" s="1">
-        <v>42418</v>
+        <v>42936</v>
       </c>
       <c r="M92" s="1">
-        <v>42427</v>
+        <v>42940</v>
       </c>
       <c r="N92">
-        <f t="shared" si="7"/>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="O92" s="8">
-        <f t="shared" si="6"/>
-        <v>37.888888888888886</v>
+        <f t="shared" si="8"/>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>365</v>
+        <v>193</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="G93" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K93">
-        <v>362</v>
+        <v>276</v>
       </c>
       <c r="L93" s="1">
-        <v>42531</v>
+        <v>43028</v>
       </c>
       <c r="M93" s="1">
-        <v>42540</v>
+        <v>43036</v>
       </c>
       <c r="N93">
-        <f t="shared" si="7"/>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>8</v>
       </c>
       <c r="O93" s="8">
-        <f t="shared" si="6"/>
-        <v>40.222222222222221</v>
+        <f t="shared" si="8"/>
+        <v>34.5</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>366</v>
+        <v>195</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="G94" s="2">
-        <v>1751</v>
+        <v>1969</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I94" t="s">
-        <v>343</v>
+        <v>8</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K94">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="L94" s="1">
-        <v>42729</v>
+        <v>42639</v>
       </c>
       <c r="M94" s="1">
-        <v>42732</v>
+        <v>42640</v>
       </c>
       <c r="N94">
-        <f t="shared" si="7"/>
-        <v>3</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="O94" s="8">
-        <f t="shared" si="6"/>
-        <v>36.666666666666664</v>
+        <f t="shared" si="8"/>
+        <v>157</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="G95" s="2">
-        <v>1939</v>
+        <v>1959</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I95" s="2" t="s">
         <v>369</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K95">
-        <v>384</v>
+        <v>341</v>
       </c>
       <c r="L95" s="1">
-        <v>42541</v>
+        <v>42418</v>
       </c>
       <c r="M95" s="1">
-        <v>42550</v>
+        <v>42427</v>
       </c>
       <c r="N95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="O95" s="8">
-        <f t="shared" si="6"/>
-        <v>42.666666666666664</v>
+        <f t="shared" si="8"/>
+        <v>37.888888888888886</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>205</v>
+        <v>365</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2" t="s">
-        <v>113</v>
+        <v>200</v>
       </c>
       <c r="G96" s="2">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I96" t="s">
-        <v>336</v>
+        <v>8</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K96">
-        <v>305</v>
+        <v>362</v>
       </c>
       <c r="L96" s="1">
-        <v>42853</v>
+        <v>42531</v>
       </c>
       <c r="M96" s="1">
-        <v>42856</v>
+        <v>42540</v>
       </c>
       <c r="N96">
-        <f t="shared" si="7"/>
-        <v>3</v>
+        <f t="shared" si="9"/>
+        <v>9</v>
       </c>
       <c r="O96" s="8">
-        <f t="shared" si="6"/>
-        <v>101.66666666666667</v>
+        <f t="shared" si="8"/>
+        <v>40.222222222222221</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G97" s="2">
-        <v>1965</v>
+        <v>1751</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I97" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K97">
-        <v>352</v>
+        <v>110</v>
       </c>
       <c r="L97" s="1">
-        <v>42772</v>
+        <v>42729</v>
       </c>
       <c r="M97" s="1">
-        <v>42774</v>
+        <v>42732</v>
       </c>
       <c r="N97">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
       <c r="O97" s="8">
-        <f t="shared" si="6"/>
-        <v>176</v>
+        <f t="shared" si="8"/>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>210</v>
+        <v>28</v>
       </c>
       <c r="G98" s="2">
-        <v>1975</v>
+        <v>1939</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I98" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K98">
-        <v>173</v>
+        <v>384</v>
       </c>
       <c r="L98" s="1">
-        <v>43105</v>
+        <v>42541</v>
       </c>
       <c r="M98" s="1">
-        <v>43106</v>
+        <v>42550</v>
       </c>
       <c r="N98">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>9</v>
       </c>
       <c r="O98" s="8">
-        <f t="shared" si="6"/>
-        <v>173</v>
+        <f t="shared" si="8"/>
+        <v>42.666666666666664</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="G99" s="2">
-        <v>1936</v>
+        <v>2008</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I99" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K99">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="L99" s="1">
-        <v>42895</v>
+        <v>42853</v>
       </c>
       <c r="M99" s="1">
-        <v>42899</v>
+        <v>42856</v>
       </c>
       <c r="N99">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
       <c r="O99" s="8">
-        <f t="shared" si="6"/>
-        <v>87</v>
+        <f t="shared" si="8"/>
+        <v>101.66666666666667</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>213</v>
+        <v>367</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2" t="s">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="G100" s="2">
-        <v>1963</v>
+        <v>1965</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I100" t="s">
-        <v>49</v>
+        <v>348</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K100">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="L100" s="1">
-        <v>43200</v>
+        <v>42772</v>
       </c>
       <c r="M100" s="1">
-        <v>43212</v>
+        <v>42774</v>
       </c>
       <c r="N100">
-        <f t="shared" si="7"/>
-        <v>12</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="O100" s="8">
-        <f t="shared" si="6"/>
-        <v>26</v>
+        <f t="shared" si="8"/>
+        <v>176</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G101" s="2">
-        <v>1928</v>
+        <v>1975</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I101" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K101">
-        <v>546</v>
+        <v>173</v>
       </c>
       <c r="L101" s="1">
-        <v>43217</v>
+        <v>43105</v>
       </c>
       <c r="M101" s="1">
-        <v>43226</v>
+        <v>43106</v>
       </c>
       <c r="N101">
-        <f t="shared" si="7"/>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="O101" s="8">
-        <f t="shared" si="6"/>
-        <v>60.666666666666664</v>
+        <f t="shared" si="8"/>
+        <v>173</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -6946,643 +6988,643 @@
         <v>52</v>
       </c>
       <c r="G102" s="2">
-        <v>1946</v>
+        <v>1936</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I102" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K102">
-        <v>661</v>
+        <v>348</v>
       </c>
       <c r="L102" s="1">
-        <v>42385</v>
+        <v>42895</v>
       </c>
       <c r="M102" s="1">
-        <v>42404</v>
+        <v>42899</v>
       </c>
       <c r="N102">
-        <f t="shared" si="7"/>
-        <v>19</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="O102" s="8">
-        <f t="shared" si="6"/>
-        <v>34.789473684210527</v>
+        <f t="shared" si="8"/>
+        <v>87</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>380</v>
+        <v>214</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2" t="s">
-        <v>221</v>
+        <v>134</v>
       </c>
       <c r="G103" s="2">
-        <v>1996</v>
+        <v>1963</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I103" t="s">
-        <v>342</v>
+        <v>49</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K103">
-        <v>227</v>
+        <v>312</v>
       </c>
       <c r="L103" s="1">
-        <v>43163</v>
+        <v>43200</v>
       </c>
       <c r="M103" s="1">
-        <v>43165</v>
+        <v>43212</v>
       </c>
       <c r="N103">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>12</v>
       </c>
       <c r="O103" s="8">
-        <f t="shared" si="6"/>
-        <v>113.5</v>
+        <f t="shared" si="8"/>
+        <v>26</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G104" s="2">
-        <v>1998</v>
+        <v>1928</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I104" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K104">
-        <v>94</v>
+        <v>546</v>
       </c>
       <c r="L104" s="1">
-        <v>43121</v>
+        <v>43217</v>
       </c>
       <c r="M104" s="1">
-        <v>43121</v>
+        <v>43226</v>
       </c>
       <c r="N104">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O104" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="O104" s="8">
+        <f t="shared" si="8"/>
+        <v>60.666666666666664</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
-        <v>329</v>
+        <v>218</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="G105" s="2">
-        <v>1987</v>
+        <v>1946</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I105" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K105">
-        <v>372</v>
+        <v>661</v>
       </c>
       <c r="L105" s="1">
-        <v>42767</v>
+        <v>42385</v>
       </c>
       <c r="M105" s="1">
-        <v>42768</v>
+        <v>42404</v>
       </c>
       <c r="N105">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>19</v>
       </c>
       <c r="O105" s="8">
-        <f t="shared" si="6"/>
-        <v>372</v>
+        <f t="shared" si="8"/>
+        <v>34.789473684210527</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>228</v>
+        <v>380</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2" t="s">
-        <v>139</v>
+        <v>221</v>
       </c>
       <c r="G106" s="2">
-        <v>1967</v>
+        <v>1996</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I106" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K106">
-        <v>412</v>
+        <v>227</v>
       </c>
       <c r="L106" s="1">
-        <v>42768</v>
+        <v>43163</v>
       </c>
       <c r="M106" s="1">
-        <v>42771</v>
+        <v>43165</v>
       </c>
       <c r="N106">
-        <f t="shared" si="7"/>
-        <v>3</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="O106" s="8">
-        <f t="shared" si="6"/>
-        <v>137.33333333333334</v>
+        <f t="shared" si="8"/>
+        <v>113.5</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G107" s="2">
-        <v>2010</v>
+        <v>1998</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I107" t="s">
-        <v>49</v>
+        <v>346</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K107">
-        <v>941</v>
+        <v>94</v>
       </c>
       <c r="L107" s="1">
-        <v>42883</v>
+        <v>43121</v>
       </c>
       <c r="M107" s="1">
-        <v>42894</v>
+        <v>43121</v>
       </c>
       <c r="N107">
-        <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-      <c r="O107" s="8">
-        <f t="shared" si="6"/>
-        <v>85.545454545454547</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O107" s="8" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>232</v>
+        <v>329</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2" t="s">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="G108" s="2">
-        <v>2017</v>
+        <v>1987</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I108" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K108">
-        <v>304</v>
+        <v>372</v>
       </c>
       <c r="L108" s="1">
-        <v>43106</v>
+        <v>42767</v>
       </c>
       <c r="M108" s="1">
-        <v>43120</v>
+        <v>42768</v>
       </c>
       <c r="N108">
-        <f t="shared" si="7"/>
-        <v>14</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="O108" s="8">
-        <f t="shared" si="6"/>
-        <v>21.714285714285715</v>
+        <f t="shared" si="8"/>
+        <v>372</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>63</v>
+        <v>228</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="G109" s="2">
-        <v>1963</v>
+        <v>1967</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I109" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K109">
-        <v>492</v>
+        <v>412</v>
       </c>
       <c r="L109" s="1">
-        <v>43127</v>
+        <v>42768</v>
       </c>
       <c r="M109" s="1">
-        <v>43148</v>
+        <v>42771</v>
       </c>
       <c r="N109">
-        <f t="shared" si="7"/>
-        <v>21</v>
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
       <c r="O109" s="8">
-        <f t="shared" si="6"/>
-        <v>23.428571428571427</v>
+        <f t="shared" si="8"/>
+        <v>137.33333333333334</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2" t="s">
-        <v>113</v>
+        <v>231</v>
       </c>
       <c r="G110" s="2">
-        <v>1949</v>
+        <v>2010</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I110" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K110">
-        <v>311</v>
+        <v>941</v>
       </c>
       <c r="L110" s="1">
-        <v>43149</v>
+        <v>42883</v>
       </c>
       <c r="M110" s="1">
-        <v>43155</v>
+        <v>42894</v>
       </c>
       <c r="N110">
-        <f t="shared" si="7"/>
-        <v>6</v>
+        <f t="shared" si="9"/>
+        <v>11</v>
       </c>
       <c r="O110" s="8">
-        <f t="shared" si="6"/>
-        <v>51.833333333333336</v>
+        <f t="shared" si="8"/>
+        <v>85.545454545454547</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2" t="s">
-        <v>239</v>
+        <v>28</v>
       </c>
       <c r="G111" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I111" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K111">
-        <v>384</v>
+        <v>304</v>
       </c>
       <c r="L111" s="1">
-        <v>42919</v>
+        <v>43106</v>
       </c>
       <c r="M111" s="1">
-        <v>42929</v>
+        <v>43120</v>
       </c>
       <c r="N111">
-        <f t="shared" si="7"/>
-        <v>10</v>
+        <f t="shared" si="9"/>
+        <v>14</v>
       </c>
       <c r="O111" s="8">
-        <f t="shared" si="6"/>
-        <v>38.4</v>
+        <f t="shared" si="8"/>
+        <v>21.714285714285715</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>241</v>
+        <v>63</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="G112" s="2">
-        <v>1992</v>
+        <v>1963</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I112" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K112">
-        <v>256</v>
+        <v>492</v>
       </c>
       <c r="L112" s="1">
-        <v>42732</v>
+        <v>43127</v>
       </c>
       <c r="M112" s="1">
-        <v>42737</v>
+        <v>43148</v>
       </c>
       <c r="N112">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="9"/>
+        <v>21</v>
       </c>
       <c r="O112" s="8">
-        <f t="shared" si="6"/>
-        <v>51.2</v>
+        <f t="shared" si="8"/>
+        <v>23.428571428571427</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="G113" s="2">
-        <v>1977</v>
+        <v>1949</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I113" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K113">
-        <v>256</v>
+        <v>311</v>
       </c>
       <c r="L113" s="1">
-        <v>42382</v>
+        <v>43149</v>
       </c>
       <c r="M113" s="1">
-        <v>42383</v>
+        <v>43155</v>
       </c>
       <c r="N113">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
       <c r="O113" s="8">
-        <f t="shared" si="6"/>
-        <v>256</v>
+        <f t="shared" si="8"/>
+        <v>51.833333333333336</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2" t="s">
-        <v>52</v>
+        <v>239</v>
       </c>
       <c r="G114" s="2">
-        <v>1927</v>
+        <v>2015</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I114" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K114">
-        <v>272</v>
+        <v>384</v>
       </c>
       <c r="L114" s="1">
-        <v>42790</v>
+        <v>42919</v>
       </c>
       <c r="M114" s="1">
-        <v>42802</v>
+        <v>42929</v>
       </c>
       <c r="N114">
-        <f t="shared" si="7"/>
-        <v>12</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="O114" s="8">
-        <f t="shared" si="6"/>
-        <v>22.666666666666668</v>
+        <f t="shared" si="8"/>
+        <v>38.4</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2" t="s">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="G115" s="2">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I115" t="s">
-        <v>49</v>
+        <v>350</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K115">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="L115" s="1">
-        <v>42805</v>
+        <v>42732</v>
       </c>
       <c r="M115" s="1">
-        <v>42811</v>
+        <v>42737</v>
       </c>
       <c r="N115">
-        <f t="shared" si="7"/>
-        <v>6</v>
+        <f t="shared" si="9"/>
+        <v>5</v>
       </c>
       <c r="O115" s="8">
-        <f t="shared" si="6"/>
-        <v>48.833333333333336</v>
+        <f t="shared" si="8"/>
+        <v>51.2</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="G116" s="2">
-        <v>2013</v>
+        <v>1977</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I116" t="s">
-        <v>96</v>
+        <v>349</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K116">
-        <v>496</v>
+        <v>256</v>
       </c>
       <c r="L116" s="1">
-        <v>42645</v>
+        <v>42382</v>
       </c>
       <c r="M116" s="1">
-        <v>42649</v>
+        <v>42383</v>
       </c>
       <c r="N116">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="O116" s="8">
-        <f t="shared" si="6"/>
-        <v>124</v>
+        <f t="shared" si="8"/>
+        <v>256</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -7591,7 +7633,7 @@
         <v>52</v>
       </c>
       <c r="G117" s="2">
-        <v>1955</v>
+        <v>1927</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>8</v>
@@ -7603,382 +7645,382 @@
         <v>9</v>
       </c>
       <c r="K117">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="L117" s="1">
-        <v>42823</v>
+        <v>42790</v>
       </c>
       <c r="M117" s="1">
-        <v>42827</v>
+        <v>42802</v>
       </c>
       <c r="N117">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>12</v>
       </c>
       <c r="O117" s="8">
-        <f t="shared" si="6"/>
-        <v>82.75</v>
+        <f t="shared" si="8"/>
+        <v>22.666666666666668</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>381</v>
+        <v>247</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2" t="s">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="G118" s="2">
-        <v>1991</v>
+        <v>1997</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I118" t="s">
-        <v>344</v>
+        <v>49</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K118">
-        <v>149</v>
+        <v>293</v>
       </c>
       <c r="L118" s="1">
-        <v>42665</v>
+        <v>42805</v>
       </c>
       <c r="M118" s="1">
-        <v>42668</v>
+        <v>42811</v>
       </c>
       <c r="N118">
-        <f t="shared" si="7"/>
-        <v>3</v>
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
       <c r="O118" s="8">
-        <f t="shared" si="6"/>
-        <v>49.666666666666664</v>
+        <f t="shared" si="8"/>
+        <v>48.833333333333336</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2" t="s">
-        <v>255</v>
+        <v>113</v>
       </c>
       <c r="G119" s="2">
-        <v>1942</v>
+        <v>2013</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I119" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K119">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L119" s="1">
-        <v>42711</v>
+        <v>42645</v>
       </c>
       <c r="M119" s="1">
-        <v>42727</v>
+        <v>42649</v>
       </c>
       <c r="N119">
-        <f t="shared" si="7"/>
-        <v>16</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="O119" s="8">
-        <f t="shared" si="6"/>
-        <v>30.9375</v>
+        <f t="shared" si="8"/>
+        <v>124</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>257</v>
+        <v>82</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2" t="s">
-        <v>191</v>
+        <v>52</v>
       </c>
       <c r="G120" s="2">
-        <v>2010</v>
+        <v>1955</v>
       </c>
       <c r="H120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I120" t="s">
+        <v>369</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K120">
         <v>331</v>
       </c>
-      <c r="I120" t="s">
-        <v>346</v>
-      </c>
-      <c r="J120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K120">
-        <v>446</v>
-      </c>
       <c r="L120" s="1">
-        <v>42776</v>
+        <v>42823</v>
       </c>
       <c r="M120" s="1">
-        <v>42785</v>
+        <v>42827</v>
       </c>
       <c r="N120">
-        <f t="shared" si="7"/>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="O120" s="8">
-        <f t="shared" si="6"/>
-        <v>49.555555555555557</v>
+        <f t="shared" si="8"/>
+        <v>82.75</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>259</v>
+        <v>381</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="G121" s="2">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I121" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K121">
-        <v>224</v>
+        <v>149</v>
       </c>
       <c r="L121" s="1">
-        <v>42249</v>
+        <v>42665</v>
       </c>
       <c r="M121" s="1">
-        <v>42250</v>
+        <v>42668</v>
       </c>
       <c r="N121">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
       <c r="O121" s="8">
-        <f t="shared" si="6"/>
-        <v>224</v>
+        <f t="shared" si="8"/>
+        <v>49.666666666666664</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="G122" s="2">
-        <v>1934</v>
+        <v>1942</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I122" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K122">
-        <v>251</v>
+        <v>495</v>
       </c>
       <c r="L122" s="1">
-        <v>43294</v>
+        <v>42711</v>
       </c>
       <c r="M122" s="1">
-        <v>43307</v>
+        <v>42727</v>
       </c>
       <c r="N122">
-        <f t="shared" si="7"/>
-        <v>13</v>
+        <f t="shared" si="9"/>
+        <v>16</v>
       </c>
       <c r="O122" s="8">
-        <f t="shared" si="6"/>
-        <v>19.307692307692307</v>
+        <f t="shared" si="8"/>
+        <v>30.9375</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2" t="s">
-        <v>52</v>
+        <v>191</v>
       </c>
       <c r="G123" s="2">
-        <v>1951</v>
+        <v>2010</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I123" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K123">
-        <v>192</v>
+        <v>446</v>
       </c>
       <c r="L123" s="1">
-        <v>42518</v>
+        <v>42776</v>
       </c>
       <c r="M123" s="1">
-        <v>42522</v>
+        <v>42785</v>
       </c>
       <c r="N123">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>9</v>
       </c>
       <c r="O123" s="8">
-        <f t="shared" si="6"/>
-        <v>48</v>
+        <f t="shared" si="8"/>
+        <v>49.555555555555557</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>370</v>
+        <v>258</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2" t="s">
-        <v>319</v>
+        <v>61</v>
       </c>
       <c r="G124" s="2">
-        <v>2013</v>
+        <v>1992</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I124" t="s">
-        <v>49</v>
+        <v>339</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K124">
-        <v>329</v>
+        <v>224</v>
       </c>
       <c r="L124" s="1">
-        <v>42512</v>
+        <v>42249</v>
       </c>
       <c r="M124" s="1">
-        <v>42514</v>
+        <v>42250</v>
       </c>
       <c r="N124">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="O124" s="8">
-        <f t="shared" si="6"/>
-        <v>164.5</v>
+        <f t="shared" si="8"/>
+        <v>224</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>65</v>
+        <v>261</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G125" s="2">
-        <v>2011</v>
+        <v>1934</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I125" t="s">
-        <v>96</v>
+        <v>369</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K125">
-        <v>498</v>
+        <v>251</v>
       </c>
       <c r="L125" s="1">
-        <v>43308</v>
+        <v>43294</v>
       </c>
       <c r="M125" s="1">
-        <v>43322</v>
+        <v>43307</v>
       </c>
       <c r="N125">
-        <f t="shared" si="7"/>
-        <v>14</v>
+        <f t="shared" si="9"/>
+        <v>13</v>
       </c>
       <c r="O125" s="8">
-        <f t="shared" si="6"/>
-        <v>35.571428571428569</v>
+        <f t="shared" si="8"/>
+        <v>19.307692307692307</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2" t="s">
-        <v>268</v>
+        <v>52</v>
       </c>
       <c r="G126" s="2">
-        <v>1971</v>
+        <v>1951</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>8</v>
@@ -7990,124 +8032,124 @@
         <v>9</v>
       </c>
       <c r="K126">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="L126" s="1">
-        <v>42643</v>
+        <v>42518</v>
       </c>
       <c r="M126" s="1">
-        <v>42644</v>
+        <v>42522</v>
       </c>
       <c r="N126">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="O126" s="8">
-        <f t="shared" si="6"/>
-        <v>160</v>
+        <f t="shared" si="8"/>
+        <v>48</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>269</v>
+        <v>370</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2" t="s">
-        <v>271</v>
+        <v>319</v>
       </c>
       <c r="G127" s="2">
-        <v>2000</v>
+        <v>2013</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I127" t="s">
         <v>49</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K127">
-        <v>176</v>
+        <v>329</v>
       </c>
       <c r="L127" s="1">
-        <v>42628</v>
+        <v>42512</v>
       </c>
       <c r="M127" s="1">
-        <v>42632</v>
+        <v>42514</v>
       </c>
       <c r="N127">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="O127" s="8">
-        <f t="shared" si="6"/>
-        <v>44</v>
+        <f t="shared" si="8"/>
+        <v>164.5</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>273</v>
+        <v>65</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2" t="s">
-        <v>274</v>
+        <v>30</v>
       </c>
       <c r="G128" s="2">
-        <v>2000</v>
+        <v>2011</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I128" t="s">
-        <v>332</v>
+        <v>96</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K128">
-        <v>639</v>
+        <v>498</v>
       </c>
       <c r="L128" s="1">
-        <v>42683</v>
+        <v>43308</v>
       </c>
       <c r="M128" s="1">
-        <v>42695</v>
+        <v>43322</v>
       </c>
       <c r="N128">
-        <f t="shared" si="7"/>
-        <v>12</v>
+        <f t="shared" si="9"/>
+        <v>14</v>
       </c>
       <c r="O128" s="8">
-        <f t="shared" si="6"/>
-        <v>53.25</v>
+        <f t="shared" si="8"/>
+        <v>35.571428571428569</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2" t="s">
-        <v>319</v>
+        <v>268</v>
       </c>
       <c r="G129" s="2">
-        <v>2015</v>
+        <v>1971</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>8</v>
@@ -8119,551 +8161,551 @@
         <v>9</v>
       </c>
       <c r="K129">
-        <v>563</v>
+        <v>160</v>
       </c>
       <c r="L129" s="1">
-        <v>42830</v>
+        <v>42643</v>
       </c>
       <c r="M129" s="1">
-        <v>42846</v>
+        <v>42644</v>
       </c>
       <c r="N129">
-        <f t="shared" si="7"/>
-        <v>16</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="O129" s="8">
-        <f t="shared" si="6"/>
-        <v>35.1875</v>
+        <f t="shared" si="8"/>
+        <v>160</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G130" s="2">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I130" t="s">
-        <v>343</v>
+        <v>49</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K130">
-        <v>304</v>
+        <v>176</v>
       </c>
       <c r="L130" s="1">
-        <v>42848</v>
+        <v>42628</v>
       </c>
       <c r="M130" s="1">
-        <v>42852</v>
+        <v>42632</v>
       </c>
       <c r="N130">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="O130" s="8">
-        <f t="shared" si="6"/>
-        <v>76</v>
+        <f t="shared" si="8"/>
+        <v>44</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2" t="s">
-        <v>28</v>
+        <v>274</v>
       </c>
       <c r="G131" s="2">
-        <v>1994</v>
+        <v>2000</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I131" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K131">
-        <v>480</v>
+        <v>639</v>
       </c>
       <c r="L131" s="1">
-        <v>42358</v>
+        <v>42683</v>
       </c>
       <c r="M131" s="1">
-        <v>42377</v>
+        <v>42695</v>
       </c>
       <c r="N131">
-        <f t="shared" si="7"/>
-        <v>19</v>
+        <f t="shared" si="9"/>
+        <v>12</v>
       </c>
       <c r="O131" s="8">
-        <f t="shared" si="6"/>
-        <v>25.263157894736842</v>
+        <f t="shared" si="8"/>
+        <v>53.25</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2" t="s">
-        <v>28</v>
+        <v>319</v>
       </c>
       <c r="G132" s="2">
-        <v>1962</v>
+        <v>2015</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I132" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K132">
-        <v>256</v>
+        <v>563</v>
       </c>
       <c r="L132" s="1">
-        <v>42696</v>
+        <v>42830</v>
       </c>
       <c r="M132" s="1">
-        <v>42700</v>
+        <v>42846</v>
       </c>
       <c r="N132">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>16</v>
       </c>
       <c r="O132" s="8">
-        <f t="shared" si="6"/>
-        <v>64</v>
+        <f t="shared" si="8"/>
+        <v>35.1875</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G133" s="2">
-        <v>1929</v>
+        <v>2015</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I133" t="s">
-        <v>49</v>
+        <v>343</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K133">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="L133" s="1">
-        <v>42860</v>
+        <v>42848</v>
       </c>
       <c r="M133" s="1">
-        <v>42869</v>
+        <v>42852</v>
       </c>
       <c r="N133">
-        <f t="shared" si="7"/>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="O133" s="8">
-        <f t="shared" si="6"/>
-        <v>38.666666666666664</v>
+        <f t="shared" si="8"/>
+        <v>76</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2" t="s">
-        <v>289</v>
+        <v>28</v>
       </c>
       <c r="G134" s="2">
-        <v>1897</v>
+        <v>1994</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I134" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K134">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="L134" s="1">
-        <v>42952</v>
+        <v>42358</v>
       </c>
       <c r="M134" s="1">
-        <v>42962</v>
+        <v>42377</v>
       </c>
       <c r="N134">
-        <f t="shared" si="7"/>
-        <v>10</v>
+        <f t="shared" si="9"/>
+        <v>19</v>
       </c>
       <c r="O134" s="8">
-        <f t="shared" si="6"/>
-        <v>49.6</v>
+        <f t="shared" si="8"/>
+        <v>25.263157894736842</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2" t="s">
-        <v>168</v>
+        <v>28</v>
       </c>
       <c r="G135" s="2">
-        <v>2016</v>
+        <v>1962</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I135" t="s">
-        <v>336</v>
+        <v>49</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K135">
-        <v>302</v>
+        <v>256</v>
       </c>
       <c r="L135" s="1">
-        <v>43179</v>
+        <v>42696</v>
       </c>
       <c r="M135" s="1">
-        <v>43183</v>
+        <v>42700</v>
       </c>
       <c r="N135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="O135" s="8">
-        <f t="shared" si="6"/>
-        <v>75.5</v>
+        <f t="shared" si="8"/>
+        <v>64</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="G136" s="2">
-        <v>1886</v>
+        <v>1929</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I136" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K136">
-        <v>110</v>
+        <v>348</v>
       </c>
       <c r="L136" s="1">
-        <v>43430</v>
+        <v>42860</v>
       </c>
       <c r="M136" s="1">
-        <v>43434</v>
+        <v>42869</v>
       </c>
       <c r="N136">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>9</v>
       </c>
       <c r="O136" s="8">
-        <f t="shared" si="6"/>
-        <v>27.5</v>
+        <f t="shared" si="8"/>
+        <v>38.666666666666664</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G137" s="2">
-        <v>2013</v>
+        <v>1897</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I137" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K137">
-        <v>256</v>
+        <v>496</v>
       </c>
       <c r="L137" s="1">
-        <v>43449</v>
+        <v>42952</v>
       </c>
       <c r="M137" s="1">
-        <v>43453</v>
+        <v>42962</v>
       </c>
       <c r="N137">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="O137" s="8">
-        <f t="shared" si="6"/>
-        <v>64</v>
+        <f t="shared" si="8"/>
+        <v>49.6</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2" t="s">
-        <v>319</v>
+        <v>168</v>
       </c>
       <c r="G138" s="2">
-        <v>1972</v>
+        <v>2016</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I138" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K138">
-        <v>506</v>
+        <v>302</v>
       </c>
       <c r="L138" s="1">
-        <v>43436</v>
+        <v>43179</v>
       </c>
       <c r="M138" s="1">
-        <v>43446</v>
+        <v>43183</v>
       </c>
       <c r="N138">
-        <f t="shared" si="7"/>
-        <v>10</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="O138" s="8">
-        <f t="shared" si="6"/>
-        <v>50.6</v>
+        <f t="shared" si="8"/>
+        <v>75.5</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2" t="s">
-        <v>301</v>
+        <v>248</v>
       </c>
       <c r="G139" s="2">
-        <v>2016</v>
+        <v>1886</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I139" t="s">
-        <v>49</v>
+        <v>330</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K139">
-        <v>941</v>
+        <v>110</v>
       </c>
       <c r="L139" s="1">
-        <v>42737</v>
+        <v>43430</v>
       </c>
       <c r="M139" s="1">
-        <v>42767</v>
+        <v>43434</v>
       </c>
       <c r="N139">
-        <f t="shared" si="7"/>
-        <v>30</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="O139" s="8">
-        <f t="shared" si="6"/>
-        <v>31.366666666666667</v>
+        <f t="shared" si="8"/>
+        <v>27.5</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>382</v>
+        <v>295</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G140" s="2">
-        <v>1959</v>
+        <v>2013</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I140" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K140">
-        <v>582</v>
+        <v>256</v>
       </c>
       <c r="L140" s="1">
-        <v>42567</v>
+        <v>43449</v>
       </c>
       <c r="M140" s="1">
-        <v>42578</v>
+        <v>43453</v>
       </c>
       <c r="N140">
-        <f t="shared" si="7"/>
-        <v>11</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="O140" s="8">
-        <f t="shared" si="6"/>
-        <v>52.909090909090907</v>
+        <f t="shared" si="8"/>
+        <v>64</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2" t="s">
-        <v>156</v>
+        <v>319</v>
       </c>
       <c r="G141" s="2">
-        <v>2015</v>
+        <v>1972</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I141" t="s">
-        <v>49</v>
+        <v>332</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K141">
-        <v>862</v>
+        <v>506</v>
       </c>
       <c r="L141" s="1">
-        <v>42445</v>
+        <v>43436</v>
       </c>
       <c r="M141" s="1">
-        <v>42484</v>
+        <v>43446</v>
       </c>
       <c r="N141">
-        <f t="shared" si="7"/>
-        <v>39</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="O141" s="8">
-        <f t="shared" ref="O141:O148" si="8">K141/N141</f>
-        <v>22.102564102564102</v>
+        <f t="shared" si="8"/>
+        <v>50.6</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G142" s="2">
         <v>2016</v>
@@ -8672,289 +8714,418 @@
         <v>331</v>
       </c>
       <c r="I142" t="s">
-        <v>344</v>
+        <v>49</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K142">
-        <v>488</v>
+        <v>941</v>
       </c>
       <c r="L142" s="1">
-        <v>42431</v>
+        <v>42737</v>
       </c>
       <c r="M142" s="1">
-        <v>42445</v>
+        <v>42767</v>
       </c>
       <c r="N142">
-        <f t="shared" ref="N142:N148" si="9">M142-L142</f>
-        <v>14</v>
+        <f t="shared" si="9"/>
+        <v>30</v>
       </c>
       <c r="O142" s="8">
         <f t="shared" si="8"/>
-        <v>34.857142857142854</v>
+        <v>31.366666666666667</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>150</v>
+        <v>382</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2" t="s">
-        <v>163</v>
+        <v>303</v>
       </c>
       <c r="G143" s="2">
-        <v>2010</v>
+        <v>1959</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I143" t="s">
-        <v>310</v>
+        <v>369</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K143">
-        <v>352</v>
+        <v>582</v>
       </c>
       <c r="L143" s="1">
-        <v>42899</v>
+        <v>42567</v>
       </c>
       <c r="M143" s="1">
-        <v>42918</v>
+        <v>42578</v>
       </c>
       <c r="N143">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="O143" s="8">
         <f t="shared" si="8"/>
-        <v>18.526315789473685</v>
+        <v>52.909090909090907</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2" t="s">
-        <v>319</v>
+        <v>156</v>
       </c>
       <c r="G144" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H144" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I144" t="s">
-        <v>310</v>
+        <v>49</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K144">
-        <v>255</v>
+        <v>862</v>
       </c>
       <c r="L144" s="1">
-        <v>43405</v>
+        <v>42445</v>
       </c>
       <c r="M144" s="1">
-        <v>43411</v>
+        <v>42484</v>
       </c>
       <c r="N144">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="O144" s="8">
-        <f t="shared" si="8"/>
-        <v>42.5</v>
+        <f t="shared" ref="O144:O151" si="10">K144/N144</f>
+        <v>22.102564102564102</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2" t="s">
-        <v>12</v>
+        <v>308</v>
       </c>
       <c r="G145" s="2">
-        <v>1985</v>
+        <v>2016</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I145" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K145">
-        <v>324</v>
+        <v>488</v>
       </c>
       <c r="L145" s="1">
-        <v>43509</v>
+        <v>42431</v>
       </c>
       <c r="M145" s="1">
-        <v>43516</v>
+        <v>42445</v>
       </c>
       <c r="N145">
-        <f t="shared" si="9"/>
-        <v>7</v>
+        <f t="shared" ref="N145:N151" si="11">M145-L145</f>
+        <v>14</v>
       </c>
       <c r="O145" s="8">
-        <f t="shared" si="8"/>
-        <v>46.285714285714285</v>
+        <f t="shared" si="10"/>
+        <v>34.857142857142854</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>316</v>
+        <v>150</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2" t="s">
-        <v>286</v>
+        <v>163</v>
       </c>
       <c r="G146" s="2">
-        <v>1854</v>
+        <v>2010</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I146" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K146">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="L146" s="1">
-        <v>43369</v>
+        <v>42899</v>
       </c>
       <c r="M146" s="1">
-        <v>43381</v>
+        <v>42918</v>
       </c>
       <c r="N146">
-        <f t="shared" si="9"/>
-        <v>12</v>
+        <f t="shared" si="11"/>
+        <v>19</v>
       </c>
       <c r="O146" s="8">
-        <f t="shared" si="8"/>
-        <v>30</v>
+        <f t="shared" si="10"/>
+        <v>18.526315789473685</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>368</v>
+        <v>311</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>377</v>
+        <v>312</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2" t="s">
-        <v>248</v>
+        <v>319</v>
       </c>
       <c r="G147" s="2">
-        <v>1963</v>
+        <v>2016</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I147" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K147">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L147" s="1">
-        <v>43427</v>
+        <v>43405</v>
       </c>
       <c r="M147" s="1">
-        <v>43429</v>
+        <v>43411</v>
       </c>
       <c r="N147">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
       <c r="O147" s="8">
-        <f t="shared" si="8"/>
-        <v>128.5</v>
+        <f t="shared" si="10"/>
+        <v>42.5</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G148" s="2">
-        <v>1979</v>
+        <v>1985</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I148" t="s">
+        <v>338</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K148">
+        <v>324</v>
+      </c>
+      <c r="L148" s="1">
+        <v>43509</v>
+      </c>
+      <c r="M148" s="1">
+        <v>43516</v>
+      </c>
+      <c r="N148">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="O148" s="8">
+        <f t="shared" si="10"/>
+        <v>46.285714285714285</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A149" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G149" s="2">
+        <v>1854</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I149" t="s">
+        <v>344</v>
+      </c>
+      <c r="J149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K149">
+        <v>360</v>
+      </c>
+      <c r="L149" s="1">
+        <v>43369</v>
+      </c>
+      <c r="M149" s="1">
+        <v>43381</v>
+      </c>
+      <c r="N149">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="O149" s="8">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A150" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G150" s="2">
+        <v>1963</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I150" t="s">
+        <v>337</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K150">
+        <v>257</v>
+      </c>
+      <c r="L150" s="1">
+        <v>43427</v>
+      </c>
+      <c r="M150" s="1">
+        <v>43429</v>
+      </c>
+      <c r="N150">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="O150" s="8">
+        <f t="shared" si="10"/>
+        <v>128.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A151" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G151" s="2">
+        <v>1979</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I151" t="s">
         <v>347</v>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K148">
+      <c r="J151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K151">
         <v>592</v>
       </c>
-      <c r="L148" s="1">
+      <c r="L151" s="1">
         <v>43543</v>
       </c>
-      <c r="M148" s="1">
+      <c r="M151" s="1">
         <v>43576</v>
       </c>
-      <c r="N148">
-        <f t="shared" si="9"/>
+      <c r="N151">
+        <f t="shared" si="11"/>
         <v>33</v>
       </c>
-      <c r="O148" s="8">
-        <f t="shared" si="8"/>
+      <c r="O151" s="8">
+        <f t="shared" si="10"/>
         <v>17.939393939393938</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N148" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N151" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/b2.xlsx
+++ b/b2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D32BB4D-A2A7-4DAF-92CF-80AB5788C9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A392B9-72E5-4C85-9CE6-A8A1319AF7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18340" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="clean" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">clean!$A$1:$N$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">clean!$A$1:$N$155</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="451">
   <si>
     <t>Title</t>
   </si>
@@ -1362,6 +1362,39 @@
   </si>
   <si>
     <t>Auster, Paul</t>
+  </si>
+  <si>
+    <t>Recounting the Anthrax Attacks</t>
+  </si>
+  <si>
+    <t>Decker, Scott</t>
+  </si>
+  <si>
+    <t>FBI Agent</t>
+  </si>
+  <si>
+    <t>Rowman &amp; Littlefield</t>
+  </si>
+  <si>
+    <t>The World According to Garp</t>
+  </si>
+  <si>
+    <t>Irving, John</t>
+  </si>
+  <si>
+    <t>Orion Publishing Group</t>
+  </si>
+  <si>
+    <t>Boom</t>
+  </si>
+  <si>
+    <t>Shnayerson, Micheal</t>
+  </si>
+  <si>
+    <t>Amusing Ourselves to Death</t>
+  </si>
+  <si>
+    <t>Postman, Neil</t>
   </si>
 </sst>
 </file>
@@ -2233,13 +2266,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O151"/>
+  <dimension ref="A1:O155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2306,10 +2339,10 @@
     </row>
     <row r="2" spans="1:15" s="7" customFormat="1" ht="19" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>384</v>
@@ -2318,194 +2351,194 @@
         <v>387</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>406</v>
+        <v>355</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="G2" s="11">
         <v>1985</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="2">
-        <v>308</v>
+        <v>184</v>
       </c>
       <c r="L2" s="1">
-        <v>44385</v>
+        <v>44475</v>
       </c>
       <c r="M2" s="1">
-        <v>44408</v>
+        <v>44478</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N4" si="0">M2-L2</f>
-        <v>23</v>
+        <f t="shared" ref="N2:N8" si="0">M2-L2</f>
+        <v>3</v>
       </c>
       <c r="O2" s="8">
-        <f t="shared" ref="O2:O4" si="1">K2/N2</f>
-        <v>13.391304347826088</v>
+        <f t="shared" ref="O2:O8" si="1">K2/N2</f>
+        <v>61.333333333333336</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>384</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>402</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>437</v>
+        <v>117</v>
       </c>
       <c r="G3" s="11">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>331</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K3" s="2">
-        <v>263</v>
+        <v>480</v>
       </c>
       <c r="L3" s="1">
-        <v>44371</v>
+        <v>44437</v>
       </c>
       <c r="M3" s="1">
-        <v>44380</v>
+        <v>44466</v>
       </c>
       <c r="N3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="O3" s="8">
         <f t="shared" si="1"/>
-        <v>29.222222222222221</v>
+        <v>16.551724137931036</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>384</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>103</v>
+        <v>446</v>
       </c>
       <c r="G4" s="11">
-        <v>1971</v>
+        <v>1978</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="2">
-        <v>111</v>
+        <v>608</v>
       </c>
       <c r="L4" s="1">
-        <v>44359</v>
+        <v>44430</v>
       </c>
       <c r="M4" s="1">
-        <v>44366</v>
+        <v>44433</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O4" s="8">
         <f t="shared" si="1"/>
-        <v>15.857142857142858</v>
+        <v>202.66666666666666</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>387</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>19</v>
+        <v>443</v>
       </c>
       <c r="G5" s="11">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="H5" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="2">
+        <v>300</v>
+      </c>
+      <c r="L5" s="1">
+        <v>44410</v>
+      </c>
+      <c r="M5" s="1">
+        <v>44418</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="2">
-        <v>332</v>
-      </c>
-      <c r="L5" s="1">
-        <v>44345</v>
-      </c>
-      <c r="M5" s="1">
-        <v>44353</v>
-      </c>
-      <c r="N5">
-        <f t="shared" ref="N5:N12" si="2">M5-L5</f>
-        <v>8</v>
-      </c>
       <c r="O5" s="8">
-        <f t="shared" ref="O5:O12" si="3">K5/N5</f>
-        <v>41.5</v>
+        <f t="shared" si="1"/>
+        <v>37.5</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>384</v>
@@ -2514,769 +2547,777 @@
         <v>387</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1985</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="2">
+        <v>308</v>
+      </c>
+      <c r="L6" s="1">
+        <v>44385</v>
+      </c>
+      <c r="M6" s="1">
+        <v>44408</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="O6" s="8">
+        <f t="shared" si="1"/>
+        <v>13.391304347826088</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F7" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="G7" s="11">
+        <v>2018</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="2">
+        <v>263</v>
+      </c>
+      <c r="L7" s="1">
+        <v>44371</v>
+      </c>
+      <c r="M7" s="1">
+        <v>44380</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="O7" s="8">
+        <f t="shared" si="1"/>
+        <v>29.222222222222221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1971</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="2">
+        <v>111</v>
+      </c>
+      <c r="L8" s="1">
+        <v>44359</v>
+      </c>
+      <c r="M8" s="1">
+        <v>44366</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O8" s="8">
+        <f t="shared" si="1"/>
+        <v>15.857142857142858</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="11">
+        <v>2020</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="2">
+        <v>332</v>
+      </c>
+      <c r="L9" s="1">
+        <v>44345</v>
+      </c>
+      <c r="M9" s="1">
+        <v>44353</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N9:N16" si="2">M9-L9</f>
+        <v>8</v>
+      </c>
+      <c r="O9" s="8">
+        <f t="shared" ref="O9:O16" si="3">K9/N9</f>
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G10" s="11">
         <v>2021</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H10" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="J10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="2">
         <v>280</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L10" s="1">
         <v>44333</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M10" s="1">
         <v>44340</v>
       </c>
-      <c r="N6">
+      <c r="N10">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O10" s="8">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
+    <row r="11" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G11" s="11">
         <v>1964</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="J11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="2">
         <v>400</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L11" s="1">
         <v>44307</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M11" s="1">
         <v>44329</v>
       </c>
-      <c r="N7">
+      <c r="N11">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O11" s="8">
         <f t="shared" si="3"/>
         <v>18.181818181818183</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
+    <row r="12" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F12" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G12" s="11">
         <v>1984</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K12" s="2">
         <v>142</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L12" s="1">
         <v>44303</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M12" s="1">
         <v>44305</v>
       </c>
-      <c r="N8">
+      <c r="N12">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O12" s="8">
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
+    <row r="13" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F13" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G13" s="11">
         <v>2019</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H13" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="J13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="2">
         <v>264</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L13" s="1">
         <v>44296</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M13" s="1">
         <v>44302</v>
       </c>
-      <c r="N9">
+      <c r="N13">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O13" s="8">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
+    <row r="14" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G14" s="2">
         <v>1971</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K14" s="2">
         <v>692</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L14" s="1">
         <v>44280</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M14" s="1">
         <v>44291</v>
       </c>
-      <c r="N10">
+      <c r="N14">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O14" s="8">
         <f t="shared" si="3"/>
         <v>62.909090909090907</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
+    <row r="15" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G15" s="2">
         <v>2011</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="2">
+      <c r="J15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="2">
         <v>369</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L15" s="1">
         <v>44240</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M15" s="1">
         <v>44246</v>
       </c>
-      <c r="N11">
+      <c r="N15">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O15" s="8">
         <f t="shared" si="3"/>
         <v>61.5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
+    <row r="16" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G16" s="2">
         <v>2018</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K16" s="2">
         <v>401</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L16" s="1">
         <v>44227</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M16" s="1">
         <v>44240</v>
       </c>
-      <c r="N12">
+      <c r="N16">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O16" s="8">
         <f t="shared" si="3"/>
         <v>30.846153846153847</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
+    <row r="17" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G17" s="2">
         <v>1958</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="2">
+      <c r="J17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="2">
         <v>262</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L17" s="1">
         <v>44212</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M17" s="1">
         <v>44223</v>
       </c>
-      <c r="N13">
-        <f t="shared" ref="N13:N15" si="4">M13-L13</f>
+      <c r="N17">
+        <f t="shared" ref="N17:N19" si="4">M17-L17</f>
         <v>11</v>
       </c>
-      <c r="O13" s="8">
-        <f t="shared" ref="O13:O15" si="5">K13/N13</f>
+      <c r="O17" s="8">
+        <f t="shared" ref="O17:O19" si="5">K17/N17</f>
         <v>23.818181818181817</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
+    <row r="18" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G18" s="2">
         <v>1934</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K18" s="2">
         <v>217</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L18" s="1">
         <v>44207</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M18" s="1">
         <v>44212</v>
       </c>
-      <c r="N14">
+      <c r="N18">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O18" s="8">
         <f t="shared" si="5"/>
         <v>43.4</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
+    <row r="19" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G19" s="2">
         <v>2013</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K19" s="2">
         <v>533</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L19" s="1">
         <v>44193</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M19" s="1">
         <v>44195</v>
       </c>
-      <c r="N15">
+      <c r="N19">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O19" s="8">
         <f t="shared" si="5"/>
         <v>266.5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
+    <row r="20" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G20" s="2">
         <v>2020</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="2">
+      <c r="J20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="2">
         <v>278</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L20" s="1">
         <v>44178</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M20" s="1">
         <v>44193</v>
-      </c>
-      <c r="N16">
-        <f>M16-L16</f>
-        <v>15</v>
-      </c>
-      <c r="O16" s="8">
-        <f>K16/N16</f>
-        <v>18.533333333333335</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="2">
-        <v>2006</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" t="s">
-        <v>330</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17">
-        <v>420</v>
-      </c>
-      <c r="L17" s="1">
-        <v>44163</v>
-      </c>
-      <c r="M17" s="1">
-        <v>44165</v>
-      </c>
-      <c r="N17">
-        <f>M17-L17</f>
-        <v>2</v>
-      </c>
-      <c r="O17" s="8">
-        <f t="shared" ref="O17:O80" si="6">K17/N17</f>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1983</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" t="s">
-        <v>369</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18">
-        <v>291</v>
-      </c>
-      <c r="L18" s="1">
-        <v>44156</v>
-      </c>
-      <c r="M18" s="1">
-        <v>44163</v>
-      </c>
-      <c r="N18">
-        <f t="shared" ref="N18:N81" si="7">M18-L18</f>
-        <v>7</v>
-      </c>
-      <c r="O18" s="8">
-        <f t="shared" si="6"/>
-        <v>41.571428571428569</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="2">
-        <v>2017</v>
-      </c>
-      <c r="H19" t="s">
-        <v>331</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19">
-        <v>176</v>
-      </c>
-      <c r="L19" s="1">
-        <v>44150</v>
-      </c>
-      <c r="M19" s="1">
-        <v>44155</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="O19" s="8">
-        <f t="shared" si="6"/>
-        <v>35.200000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1980</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20">
-        <v>502</v>
-      </c>
-      <c r="L20" s="1">
-        <v>44129</v>
-      </c>
-      <c r="M20" s="1">
-        <v>44142</v>
       </c>
       <c r="N20">
         <f>M20-L20</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O20" s="8">
-        <f t="shared" si="6"/>
-        <v>38.615384615384613</v>
+        <f>K20/N20</f>
+        <v>18.533333333333335</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>385</v>
+        <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G21" s="2">
-        <v>1938</v>
+        <v>2006</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>310</v>
+      <c r="I21" t="s">
+        <v>330</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K21">
-        <v>247</v>
+        <v>420</v>
       </c>
       <c r="L21" s="1">
-        <v>44114</v>
+        <v>44163</v>
       </c>
       <c r="M21" s="1">
-        <v>44129</v>
+        <v>44165</v>
       </c>
       <c r="N21">
-        <f t="shared" si="7"/>
-        <v>15</v>
+        <f>M21-L21</f>
+        <v>2</v>
       </c>
       <c r="O21" s="8">
-        <f t="shared" si="6"/>
-        <v>16.466666666666665</v>
+        <f t="shared" ref="O21:O84" si="6">K21/N21</f>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>11</v>
@@ -3292,746 +3333,746 @@
         <v>12</v>
       </c>
       <c r="G22" s="2">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" t="s">
+        <v>369</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22">
+        <v>291</v>
+      </c>
+      <c r="L22" s="1">
+        <v>44156</v>
+      </c>
+      <c r="M22" s="1">
+        <v>44163</v>
+      </c>
+      <c r="N22">
+        <f t="shared" ref="N22:N85" si="7">M22-L22</f>
+        <v>7</v>
+      </c>
+      <c r="O22" s="8">
+        <f t="shared" si="6"/>
+        <v>41.571428571428569</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2017</v>
+      </c>
+      <c r="H23" t="s">
+        <v>331</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23">
+        <v>176</v>
+      </c>
+      <c r="L23" s="1">
+        <v>44150</v>
+      </c>
+      <c r="M23" s="1">
+        <v>44155</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="O23" s="8">
+        <f t="shared" si="6"/>
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1980</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24">
+        <v>502</v>
+      </c>
+      <c r="L24" s="1">
+        <v>44129</v>
+      </c>
+      <c r="M24" s="1">
+        <v>44142</v>
+      </c>
+      <c r="N24">
+        <f>M24-L24</f>
+        <v>13</v>
+      </c>
+      <c r="O24" s="8">
+        <f t="shared" si="6"/>
+        <v>38.615384615384613</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1938</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25">
+        <v>247</v>
+      </c>
+      <c r="L25" s="1">
+        <v>44114</v>
+      </c>
+      <c r="M25" s="1">
+        <v>44129</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="O25" s="8">
+        <f t="shared" si="6"/>
+        <v>16.466666666666665</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1981</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22">
+      <c r="J26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26">
         <v>225</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L26" s="1">
         <v>43931</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M26" s="1">
         <v>44053</v>
       </c>
-      <c r="N22">
+      <c r="N26">
         <f t="shared" si="7"/>
         <v>122</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O26" s="8">
         <f t="shared" si="6"/>
         <v>1.8442622950819672</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G27" s="2">
         <v>1865</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K23">
+      <c r="K27">
         <v>826</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L27" s="1">
         <v>43930</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M27" s="1">
         <v>44021</v>
       </c>
-      <c r="N23">
+      <c r="N27">
         <f t="shared" si="7"/>
         <v>91</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O27" s="8">
         <f t="shared" si="6"/>
         <v>9.0769230769230766</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G28" s="2">
         <v>1988</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K24">
+      <c r="J28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28">
         <v>368</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L28" s="1">
         <v>44052</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M28" s="1">
         <v>44077</v>
       </c>
-      <c r="N24">
+      <c r="N28">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O28" s="8">
         <f t="shared" si="6"/>
         <v>14.72</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G29" s="2">
         <v>1951</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K25">
+      <c r="J29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29">
         <v>54</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L29" s="1">
         <v>43838</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M29" s="1">
         <v>43990</v>
       </c>
-      <c r="N25">
+      <c r="N29">
         <f t="shared" si="7"/>
         <v>152</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O29" s="8">
         <f t="shared" si="6"/>
         <v>0.35526315789473684</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G30" s="2">
         <v>1979</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K26">
+      <c r="J30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30">
         <v>179</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L30" s="1">
         <v>44020</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M30" s="1">
         <v>44082</v>
       </c>
-      <c r="N26">
+      <c r="N30">
         <f t="shared" si="7"/>
         <v>62</v>
       </c>
-      <c r="O26" s="8">
+      <c r="O30" s="8">
         <f t="shared" si="6"/>
         <v>2.8870967741935485</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G31" s="2">
         <v>1982</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27">
+      <c r="J31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31">
         <v>299</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L31" s="1">
         <v>44037</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M31" s="1">
         <v>44039</v>
       </c>
-      <c r="N27">
+      <c r="N31">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="O27" s="8">
+      <c r="O31" s="8">
         <f t="shared" si="6"/>
         <v>149.5</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G32" s="2">
         <v>1964</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K28">
+      <c r="J32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32">
         <v>336</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L32" s="1">
         <v>44032</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M32" s="1">
         <v>44034</v>
       </c>
-      <c r="N28">
+      <c r="N32">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="O28" s="8">
+      <c r="O32" s="8">
         <f t="shared" si="6"/>
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2" t="s">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G33" s="2">
         <v>2018</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K29">
+      <c r="J33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33">
         <v>256</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L33" s="1">
         <v>44023</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M33" s="1">
         <v>44030</v>
       </c>
-      <c r="N29">
+      <c r="N33">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="O29" s="8">
+      <c r="O33" s="8">
         <f t="shared" si="6"/>
         <v>36.571428571428569</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2" t="s">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G34" s="2">
         <v>1965</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K30">
+      <c r="J34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34">
         <v>320</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L34" s="1">
         <v>44018</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M34" s="1">
         <v>44023</v>
       </c>
-      <c r="N30">
+      <c r="N34">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="O30" s="8">
+      <c r="O34" s="8">
         <f t="shared" si="6"/>
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
+      <c r="E35" s="2"/>
+      <c r="F35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G35" s="2">
         <v>2005</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K31">
+      <c r="J35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35">
         <v>465</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L35" s="1">
         <v>44004</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M35" s="1">
         <v>44017</v>
       </c>
-      <c r="N31">
+      <c r="N35">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="O31" s="8">
+      <c r="O35" s="8">
         <f t="shared" si="6"/>
         <v>35.769230769230766</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
+      <c r="E36" s="2"/>
+      <c r="F36" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G36" s="2">
         <v>1930</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K32">
+      <c r="J36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36">
         <v>240</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L36" s="1">
         <v>43995</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M36" s="1">
         <v>44002</v>
       </c>
-      <c r="N32">
+      <c r="N36">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="O32" s="8">
+      <c r="O36" s="8">
         <f t="shared" si="6"/>
         <v>34.285714285714285</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2" t="s">
+      <c r="E37" s="2"/>
+      <c r="F37" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K33">
+      <c r="J37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37">
         <v>618</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L37" s="1">
         <v>43927</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M37" s="1">
         <v>44110</v>
       </c>
-      <c r="N33">
+      <c r="N37">
         <f t="shared" si="7"/>
         <v>183</v>
       </c>
-      <c r="O33" s="8">
+      <c r="O37" s="8">
         <f t="shared" si="6"/>
         <v>3.377049180327869</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34" s="2">
-        <v>1939</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K34">
-        <v>250</v>
-      </c>
-      <c r="L34" s="1">
-        <v>43982</v>
-      </c>
-      <c r="M34" s="1">
-        <v>43984</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="O34" s="8">
-        <f t="shared" si="6"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" s="2">
-        <v>2020</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K35">
-        <v>336</v>
-      </c>
-      <c r="L35" s="1">
-        <v>43975</v>
-      </c>
-      <c r="M35" s="1">
-        <v>43977</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="O35" s="8">
-        <f t="shared" si="6"/>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G36" s="2">
-        <v>1966</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K36">
-        <v>284</v>
-      </c>
-      <c r="L36" s="1">
-        <v>43968</v>
-      </c>
-      <c r="M36" s="1">
-        <v>43973</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="O36" s="8">
-        <f t="shared" si="6"/>
-        <v>56.8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G37" s="2">
-        <v>2018</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K37">
-        <v>320</v>
-      </c>
-      <c r="L37" s="1">
-        <v>43964</v>
-      </c>
-      <c r="M37" s="1">
-        <v>43965</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O37" s="8">
-        <f t="shared" si="6"/>
-        <v>320</v>
-      </c>
-    </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>384</v>
@@ -4041,28 +4082,28 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G38" s="2">
-        <v>1966</v>
+        <v>1939</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K38">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="L38" s="1">
-        <v>43962</v>
+        <v>43982</v>
       </c>
       <c r="M38" s="1">
-        <v>43964</v>
+        <v>43984</v>
       </c>
       <c r="N38">
         <f t="shared" si="7"/>
@@ -4070,93 +4111,93 @@
       </c>
       <c r="O38" s="8">
         <f t="shared" si="6"/>
-        <v>63</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G39" s="2">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>96</v>
+        <v>348</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K39">
-        <v>513</v>
+        <v>336</v>
       </c>
       <c r="L39" s="1">
-        <v>43947</v>
+        <v>43975</v>
       </c>
       <c r="M39" s="1">
-        <v>43956</v>
+        <v>43977</v>
       </c>
       <c r="N39">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O39" s="8">
         <f t="shared" si="6"/>
-        <v>57</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>375</v>
+        <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>376</v>
+        <v>57</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="G40" s="2">
-        <v>2019</v>
+        <v>1966</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K40">
-        <v>646</v>
+        <v>284</v>
       </c>
       <c r="L40" s="1">
-        <v>43942</v>
+        <v>43968</v>
       </c>
       <c r="M40" s="1">
-        <v>43947</v>
+        <v>43973</v>
       </c>
       <c r="N40">
         <f t="shared" si="7"/>
@@ -4164,15 +4205,15 @@
       </c>
       <c r="O40" s="8">
         <f t="shared" si="6"/>
-        <v>129.19999999999999</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>384</v>
@@ -4182,57 +4223,57 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G41" s="2">
-        <v>1961</v>
+        <v>2018</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>369</v>
+        <v>58</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K41">
-        <v>568</v>
+        <v>320</v>
       </c>
       <c r="L41" s="1">
-        <v>43927</v>
+        <v>43964</v>
       </c>
       <c r="M41" s="1">
-        <v>43941</v>
+        <v>43965</v>
       </c>
       <c r="N41">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="O41" s="8">
         <f t="shared" si="6"/>
-        <v>40.571428571428569</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>374</v>
+        <v>63</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="G42" s="2">
-        <v>1929</v>
+        <v>1966</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>8</v>
@@ -4244,123 +4285,123 @@
         <v>9</v>
       </c>
       <c r="K42">
-        <v>299</v>
+        <v>126</v>
       </c>
       <c r="L42" s="1">
-        <v>43919</v>
+        <v>43962</v>
       </c>
       <c r="M42" s="1">
-        <v>43926</v>
+        <v>43964</v>
       </c>
       <c r="N42">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O42" s="8">
         <f t="shared" si="6"/>
-        <v>42.714285714285715</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>20</v>
+        <v>393</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="G43" s="2">
-        <v>1844</v>
+        <v>2017</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>332</v>
+        <v>96</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K43">
-        <v>1180</v>
+        <v>513</v>
       </c>
       <c r="L43" s="1">
-        <v>43839</v>
+        <v>43947</v>
       </c>
       <c r="M43" s="1">
-        <v>43884</v>
+        <v>43956</v>
       </c>
       <c r="N43">
         <f t="shared" si="7"/>
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="O43" s="8">
         <f t="shared" si="6"/>
-        <v>26.222222222222221</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>75</v>
+        <v>375</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>76</v>
+        <v>376</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G44" s="2">
-        <v>1979</v>
+        <v>2019</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>340</v>
+        <v>49</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K44">
-        <v>567</v>
+        <v>646</v>
       </c>
       <c r="L44" s="1">
-        <v>43814</v>
+        <v>43942</v>
       </c>
       <c r="M44" s="1">
-        <v>43891</v>
+        <v>43947</v>
       </c>
       <c r="N44">
         <f t="shared" si="7"/>
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="O44" s="8">
         <f t="shared" si="6"/>
-        <v>7.3636363636363633</v>
+        <v>129.19999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>384</v>
@@ -4370,285 +4411,289 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="G45" s="2">
-        <v>2019</v>
+        <v>1961</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K45">
-        <v>408</v>
+        <v>568</v>
       </c>
       <c r="L45" s="1">
-        <v>43834</v>
+        <v>43927</v>
       </c>
       <c r="M45" s="1">
-        <v>43836</v>
+        <v>43941</v>
       </c>
       <c r="N45">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O45" s="8">
         <f t="shared" si="6"/>
-        <v>204</v>
+        <v>40.571428571428569</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>82</v>
+        <v>374</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="G46" s="2">
-        <v>1957</v>
+        <v>1929</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K46">
-        <v>170</v>
+        <v>299</v>
       </c>
       <c r="L46" s="1">
-        <v>43801</v>
+        <v>43919</v>
       </c>
       <c r="M46" s="1">
-        <v>43807</v>
+        <v>43926</v>
       </c>
       <c r="N46">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O46" s="8">
         <f t="shared" si="6"/>
-        <v>28.333333333333332</v>
+        <v>42.714285714285715</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="G47" s="2">
-        <v>2018</v>
+        <v>1844</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>58</v>
+        <v>332</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K47">
-        <v>319</v>
+        <v>1180</v>
       </c>
       <c r="L47" s="1">
-        <v>43799</v>
+        <v>43839</v>
       </c>
       <c r="M47" s="1">
-        <v>43800</v>
+        <v>43884</v>
       </c>
       <c r="N47">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="O47" s="8">
         <f t="shared" si="6"/>
-        <v>319</v>
+        <v>26.222222222222221</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G48" s="2">
-        <v>2018</v>
+        <v>1979</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K48">
-        <v>400</v>
+        <v>567</v>
       </c>
       <c r="L48" s="1">
-        <v>43780</v>
+        <v>43814</v>
       </c>
       <c r="M48" s="1">
-        <v>43788</v>
+        <v>43891</v>
       </c>
       <c r="N48">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="O48" s="8">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>7.3636363636363633</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>358</v>
+        <v>80</v>
       </c>
       <c r="G49" s="2">
-        <v>1993</v>
+        <v>2019</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K49">
-        <v>355</v>
+        <v>408</v>
       </c>
       <c r="L49" s="1">
-        <v>43762</v>
+        <v>43834</v>
       </c>
       <c r="M49" s="1">
-        <v>43773</v>
+        <v>43836</v>
       </c>
       <c r="N49">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="O49" s="8">
         <f t="shared" si="6"/>
-        <v>32.272727272727273</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="G50" s="2">
-        <v>1818</v>
+        <v>1957</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K50">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="L50" s="1">
-        <v>43752</v>
+        <v>43801</v>
       </c>
       <c r="M50" s="1">
-        <v>43759</v>
+        <v>43807</v>
       </c>
       <c r="N50">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O50" s="8">
         <f t="shared" si="6"/>
-        <v>34.285714285714285</v>
+        <v>28.333333333333332</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G51" s="2">
         <v>2018</v>
@@ -4657,113 +4702,109 @@
         <v>331</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K51">
-        <v>272</v>
+        <v>319</v>
       </c>
       <c r="L51" s="1">
-        <v>43743</v>
+        <v>43799</v>
       </c>
       <c r="M51" s="1">
-        <v>43749</v>
+        <v>43800</v>
       </c>
       <c r="N51">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O51" s="8">
         <f t="shared" si="6"/>
-        <v>45.333333333333336</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>387</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="G52" s="2">
-        <v>1866</v>
+        <v>2018</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K52">
-        <v>528</v>
+        <v>400</v>
       </c>
       <c r="L52" s="1">
-        <v>43715</v>
+        <v>43780</v>
       </c>
       <c r="M52" s="1">
-        <v>43741</v>
+        <v>43788</v>
       </c>
       <c r="N52">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="O52" s="8">
         <f t="shared" si="6"/>
-        <v>20.307692307692307</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>359</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>100</v>
+        <v>358</v>
       </c>
       <c r="G53" s="2">
-        <v>1970</v>
+        <v>1993</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K53">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="L53" s="1">
-        <v>43697</v>
+        <v>43762</v>
       </c>
       <c r="M53" s="1">
-        <v>43708</v>
+        <v>43773</v>
       </c>
       <c r="N53">
         <f t="shared" si="7"/>
@@ -4771,122 +4812,122 @@
       </c>
       <c r="O53" s="8">
         <f t="shared" si="6"/>
-        <v>31.636363636363637</v>
+        <v>32.272727272727273</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="G54" s="2">
-        <v>1972</v>
+        <v>1818</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K54">
-        <v>416</v>
+        <v>240</v>
       </c>
       <c r="L54" s="1">
-        <v>43680</v>
+        <v>43752</v>
       </c>
       <c r="M54" s="1">
-        <v>43692</v>
+        <v>43759</v>
       </c>
       <c r="N54">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O54" s="8">
         <f t="shared" si="6"/>
-        <v>34.666666666666664</v>
+        <v>34.285714285714285</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G55" s="2">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>336</v>
+        <v>96</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K55">
-        <v>463</v>
+        <v>272</v>
       </c>
       <c r="L55" s="1">
-        <v>43663</v>
+        <v>43743</v>
       </c>
       <c r="M55" s="1">
-        <v>43677</v>
+        <v>43749</v>
       </c>
       <c r="N55">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="O55" s="8">
         <f t="shared" si="6"/>
-        <v>33.071428571428569</v>
+        <v>45.333333333333336</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
-        <v>248</v>
+        <v>99</v>
       </c>
       <c r="G56" s="2">
-        <v>1965</v>
+        <v>1866</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>8</v>
@@ -4898,29 +4939,29 @@
         <v>9</v>
       </c>
       <c r="K56">
-        <v>256</v>
+        <v>528</v>
       </c>
       <c r="L56" s="1">
-        <v>43640</v>
+        <v>43715</v>
       </c>
       <c r="M56" s="1">
-        <v>43659</v>
+        <v>43741</v>
       </c>
       <c r="N56">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="O56" s="8">
         <f t="shared" si="6"/>
-        <v>13.473684210526315</v>
+        <v>20.307692307692307</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>108</v>
+        <v>359</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>384</v>
@@ -4930,417 +4971,423 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="G57" s="2">
-        <v>1997</v>
+        <v>1970</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K57">
-        <v>423</v>
+        <v>348</v>
       </c>
       <c r="L57" s="1">
-        <v>43618</v>
+        <v>43697</v>
       </c>
       <c r="M57" s="1">
-        <v>43636</v>
+        <v>43708</v>
       </c>
       <c r="N57">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="O57" s="8">
         <f t="shared" si="6"/>
-        <v>23.5</v>
+        <v>31.636363636363637</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
-        <v>360</v>
+        <v>103</v>
       </c>
       <c r="G58" s="2">
-        <v>2018</v>
+        <v>1972</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K58">
-        <v>341</v>
+        <v>416</v>
       </c>
       <c r="L58" s="1">
-        <v>43616</v>
+        <v>43680</v>
       </c>
       <c r="M58" s="1">
-        <v>43617</v>
+        <v>43692</v>
       </c>
       <c r="N58">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O58" s="8">
         <f t="shared" si="6"/>
-        <v>341</v>
+        <v>34.666666666666664</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="G59" s="2">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K59">
-        <v>610</v>
+        <v>463</v>
       </c>
       <c r="L59" s="1">
-        <v>43596</v>
+        <v>43663</v>
       </c>
       <c r="M59" s="1">
-        <v>43606</v>
+        <v>43677</v>
       </c>
       <c r="N59">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O59" s="8">
         <f t="shared" si="6"/>
-        <v>61</v>
+        <v>33.071428571428569</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>361</v>
+        <v>106</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
-        <v>358</v>
+        <v>248</v>
       </c>
       <c r="G60" s="2">
-        <v>1984</v>
+        <v>1965</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>49</v>
+        <v>339</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K60">
-        <v>352</v>
+        <v>256</v>
       </c>
       <c r="L60" s="1">
-        <v>43589</v>
+        <v>43640</v>
       </c>
       <c r="M60" s="1">
-        <v>43594</v>
+        <v>43659</v>
       </c>
       <c r="N60">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="O60" s="8">
         <f t="shared" si="6"/>
-        <v>70.400000000000006</v>
+        <v>13.473684210526315</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="G61" s="2">
-        <v>2014</v>
+        <v>1997</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K61">
-        <v>288</v>
+        <v>423</v>
       </c>
       <c r="L61" s="1">
-        <v>43578</v>
+        <v>43618</v>
       </c>
       <c r="M61" s="1">
-        <v>43588</v>
+        <v>43636</v>
       </c>
       <c r="N61">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O61" s="8">
         <f t="shared" si="6"/>
-        <v>28.8</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="G62" s="2">
-        <v>1876</v>
+        <v>2018</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K62">
-        <v>236</v>
+        <v>341</v>
       </c>
       <c r="L62" s="1">
-        <v>43041</v>
+        <v>43616</v>
       </c>
       <c r="M62" s="1">
-        <v>43048</v>
+        <v>43617</v>
       </c>
       <c r="N62">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O62" s="8">
         <f t="shared" si="6"/>
-        <v>33.714285714285715</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>354</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="G63" s="2">
-        <v>1813</v>
+        <v>2003</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K63">
-        <v>414</v>
+        <v>610</v>
       </c>
       <c r="L63" s="1">
-        <v>42875</v>
+        <v>43596</v>
       </c>
       <c r="M63" s="1">
-        <v>42881</v>
+        <v>43606</v>
       </c>
       <c r="N63">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O63" s="8">
         <f t="shared" si="6"/>
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>123</v>
+        <v>361</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>20</v>
+        <v>383</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>125</v>
+        <v>358</v>
       </c>
       <c r="G64" s="2">
-        <v>1869</v>
+        <v>1984</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K64">
-        <v>999</v>
+        <v>352</v>
+      </c>
+      <c r="L64" s="1">
+        <v>43589</v>
+      </c>
+      <c r="M64" s="1">
+        <v>43594</v>
       </c>
       <c r="N64">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O64" s="8" t="e">
+        <v>5</v>
+      </c>
+      <c r="O64" s="8">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>70.400000000000006</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>372</v>
+        <v>115</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>373</v>
+        <v>116</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G65" s="2">
-        <v>1928</v>
+        <v>2014</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>49</v>
+        <v>336</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K65">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="L65" s="1">
-        <v>42675</v>
+        <v>43578</v>
       </c>
       <c r="M65" s="1">
-        <v>42682</v>
+        <v>43588</v>
       </c>
       <c r="N65">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O65" s="8">
         <f t="shared" si="6"/>
-        <v>46.142857142857146</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>387</v>
@@ -5350,1362 +5397,1372 @@
         <v>319</v>
       </c>
       <c r="G66" s="2">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K66">
-        <v>338</v>
+        <v>236</v>
       </c>
       <c r="L66" s="1">
-        <v>43477</v>
+        <v>43041</v>
       </c>
       <c r="M66" s="1">
-        <v>43485</v>
+        <v>43048</v>
       </c>
       <c r="N66">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O66" s="8">
         <f t="shared" si="6"/>
-        <v>42.25</v>
+        <v>33.714285714285715</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G67" s="2">
-        <v>2018</v>
+        <v>1813</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K67">
-        <v>755</v>
+        <v>414</v>
       </c>
       <c r="L67" s="1">
-        <v>43108</v>
+        <v>42875</v>
       </c>
       <c r="M67" s="1">
-        <v>43111</v>
+        <v>42881</v>
       </c>
       <c r="N67">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O67" s="8">
         <f t="shared" si="6"/>
-        <v>251.66666666666666</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>383</v>
+        <v>20</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G68" s="2">
-        <v>1954</v>
+        <v>1869</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K68">
-        <v>250</v>
-      </c>
-      <c r="L68" s="1">
-        <v>43411</v>
-      </c>
-      <c r="M68" s="1">
-        <v>43423</v>
+        <v>999</v>
       </c>
       <c r="N68">
         <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O68" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G69" s="2">
+        <v>1928</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K69">
+        <v>323</v>
+      </c>
+      <c r="L69" s="1">
+        <v>42675</v>
+      </c>
+      <c r="M69" s="1">
+        <v>42682</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="O69" s="8">
+        <f t="shared" si="6"/>
+        <v>46.142857142857146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G70" s="2">
+        <v>1878</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K70">
+        <v>338</v>
+      </c>
+      <c r="L70" s="1">
+        <v>43477</v>
+      </c>
+      <c r="M70" s="1">
+        <v>43485</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="O70" s="8">
+        <f t="shared" si="6"/>
+        <v>42.25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G71" s="2">
+        <v>2018</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K71">
+        <v>755</v>
+      </c>
+      <c r="L71" s="1">
+        <v>43108</v>
+      </c>
+      <c r="M71" s="1">
+        <v>43111</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="O71" s="8">
+        <f t="shared" si="6"/>
+        <v>251.66666666666666</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G72" s="2">
+        <v>1954</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K72">
+        <v>250</v>
+      </c>
+      <c r="L72" s="1">
+        <v>43411</v>
+      </c>
+      <c r="M72" s="1">
+        <v>43423</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="O68" s="8">
+      <c r="O72" s="8">
         <f t="shared" si="6"/>
         <v>20.833333333333332</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A69" s="3" t="s">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2" t="s">
+      <c r="E73" s="2"/>
+      <c r="F73" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G69" s="2">
+      <c r="G73" s="2">
         <v>2018</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="H73" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="I73" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K69">
+      <c r="J73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K73">
         <v>288</v>
       </c>
-      <c r="L69" s="1">
+      <c r="L73" s="1">
         <v>43496</v>
       </c>
-      <c r="M69" s="1">
+      <c r="M73" s="1">
         <v>43506</v>
       </c>
-      <c r="N69">
+      <c r="N73">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="O69" s="8">
+      <c r="O73" s="8">
         <f t="shared" si="6"/>
         <v>28.8</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A70" s="3" t="s">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2" t="s">
+      <c r="E74" s="2"/>
+      <c r="F74" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G74" s="2">
         <v>1898</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="H74" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="I74" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K70">
+      <c r="J74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K74">
         <v>61</v>
       </c>
-      <c r="L70" s="1">
+      <c r="L74" s="1">
         <v>43424</v>
       </c>
-      <c r="M70" s="1">
+      <c r="M74" s="1">
         <v>43425</v>
       </c>
-      <c r="N70">
+      <c r="N74">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="O70" s="8">
+      <c r="O74" s="8">
         <f t="shared" si="6"/>
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A71" s="3" t="s">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2" t="s">
+      <c r="E75" s="2"/>
+      <c r="F75" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G75" s="2">
         <v>1978</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="H75" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="I75" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K71">
+      <c r="J75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K75">
         <v>64</v>
       </c>
-      <c r="L71" s="1">
+      <c r="L75" s="1">
         <v>43402</v>
       </c>
-      <c r="M71" s="1">
+      <c r="M75" s="1">
         <v>43403</v>
       </c>
-      <c r="N71">
+      <c r="N75">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="O71" s="8">
+      <c r="O75" s="8">
         <f t="shared" si="6"/>
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A72" s="3" t="s">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2" t="s">
+      <c r="E76" s="2"/>
+      <c r="F76" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G76" s="2">
         <v>2018</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="H76" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I72" s="2" t="s">
+      <c r="I76" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K72">
+      <c r="J76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K76">
         <v>437</v>
       </c>
-      <c r="L72" s="1">
+      <c r="L76" s="1">
         <v>43381</v>
       </c>
-      <c r="M72" s="1">
+      <c r="M76" s="1">
         <v>43390</v>
       </c>
-      <c r="N72">
+      <c r="N76">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="O72" s="8">
+      <c r="O76" s="8">
         <f t="shared" si="6"/>
         <v>48.555555555555557</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A73" s="3" t="s">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2" t="s">
+      <c r="E77" s="2"/>
+      <c r="F77" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G77" s="2">
         <v>1925</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="H77" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="I77" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K73">
+      <c r="J77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K77">
         <v>859</v>
       </c>
-      <c r="L73" s="1">
+      <c r="L77" s="1">
         <v>42585</v>
       </c>
-      <c r="M73" s="1">
+      <c r="M77" s="1">
         <v>42627</v>
       </c>
-      <c r="N73">
+      <c r="N77">
         <f t="shared" si="7"/>
         <v>42</v>
       </c>
-      <c r="O73" s="8">
+      <c r="O77" s="8">
         <f t="shared" si="6"/>
         <v>20.452380952380953</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A74" s="3" t="s">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2" t="s">
+      <c r="E78" s="2"/>
+      <c r="F78" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G74" s="2">
+      <c r="G78" s="2">
         <v>1971</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="H78" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I74" s="2" t="s">
+      <c r="I78" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K74">
+      <c r="J78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K78">
         <v>416</v>
       </c>
-      <c r="L74" s="1">
+      <c r="L78" s="1">
         <v>43518</v>
       </c>
-      <c r="M74" s="1">
+      <c r="M78" s="1">
         <v>43542</v>
       </c>
-      <c r="N74">
+      <c r="N78">
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="O74" s="8">
+      <c r="O78" s="8">
         <f t="shared" si="6"/>
         <v>17.333333333333332</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2" t="s">
+      <c r="E79" s="2"/>
+      <c r="F79" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G79" s="2">
         <v>2015</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="H79" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I75" s="2" t="s">
+      <c r="I79" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K75">
+      <c r="J79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K79">
         <v>87</v>
       </c>
-      <c r="L75" s="1">
+      <c r="L79" s="1">
         <v>42871</v>
       </c>
-      <c r="M75" s="1">
+      <c r="M79" s="1">
         <v>42877</v>
       </c>
-      <c r="N75">
+      <c r="N79">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="O75" s="8">
+      <c r="O79" s="8">
         <f t="shared" si="6"/>
         <v>14.5</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="s">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2" t="s">
+      <c r="E80" s="2"/>
+      <c r="F80" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G76" s="2">
+      <c r="G80" s="2">
         <v>2015</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="H80" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="I80" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K76">
+      <c r="J80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K80">
         <v>348</v>
       </c>
-      <c r="L76" s="1">
+      <c r="L80" s="1">
         <v>42947</v>
       </c>
-      <c r="M76" s="1">
+      <c r="M80" s="1">
         <v>42949</v>
       </c>
-      <c r="N76">
+      <c r="N80">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="O76" s="8">
+      <c r="O80" s="8">
         <f t="shared" si="6"/>
         <v>174</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2" t="s">
+      <c r="E81" s="2"/>
+      <c r="F81" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G81" s="2">
         <v>2009</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="H81" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="I81" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K77">
+      <c r="J81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K81">
         <v>270</v>
       </c>
-      <c r="L77" s="1">
+      <c r="L81" s="1">
         <v>43246</v>
       </c>
-      <c r="M77" s="1">
+      <c r="M81" s="1">
         <v>43253</v>
       </c>
-      <c r="N77">
+      <c r="N81">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="O77" s="8">
+      <c r="O81" s="8">
         <f t="shared" si="6"/>
         <v>38.571428571428569</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2" t="s">
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G78" s="2">
+      <c r="G82" s="2">
         <v>2010</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="H82" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="I82" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K78">
+      <c r="J82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K82">
         <v>148</v>
       </c>
-      <c r="L78" s="1">
+      <c r="L82" s="1">
         <v>42745</v>
       </c>
-      <c r="M78" s="1">
+      <c r="M82" s="1">
         <v>43028</v>
       </c>
-      <c r="N78">
+      <c r="N82">
         <f t="shared" si="7"/>
         <v>283</v>
       </c>
-      <c r="O78" s="8">
+      <c r="O82" s="8">
         <f t="shared" si="6"/>
         <v>0.52296819787985871</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A79" s="3" t="s">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A83" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2" t="s">
+      <c r="E83" s="2"/>
+      <c r="F83" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G79" s="2">
+      <c r="G83" s="2">
         <v>1962</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="H83" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="I83" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K79">
+      <c r="J83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K83">
         <v>240</v>
       </c>
-      <c r="L79" s="1">
+      <c r="L83" s="1">
         <v>43328</v>
       </c>
-      <c r="M79" s="1">
+      <c r="M83" s="1">
         <v>43344</v>
       </c>
-      <c r="N79">
+      <c r="N83">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="O79" s="8">
+      <c r="O83" s="8">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A80" s="3" t="s">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2" t="s">
+      <c r="C84" s="2"/>
+      <c r="D84" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2" t="s">
+      <c r="E84" s="2"/>
+      <c r="F84" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="G80" s="2">
+      <c r="G84" s="2">
         <v>2015</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="H84" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="I84" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K80">
+      <c r="J84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K84">
         <v>352</v>
       </c>
-      <c r="L80" s="1">
+      <c r="L84" s="1">
         <v>43092</v>
       </c>
-      <c r="M80" s="1">
+      <c r="M84" s="1">
         <v>43191</v>
       </c>
-      <c r="N80">
+      <c r="N84">
         <f t="shared" si="7"/>
         <v>99</v>
       </c>
-      <c r="O80" s="8">
+      <c r="O84" s="8">
         <f t="shared" si="6"/>
         <v>3.5555555555555554</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A81" s="3" t="s">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2" t="s">
+      <c r="E85" s="2"/>
+      <c r="F85" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G81" s="2">
+      <c r="G85" s="2">
         <v>1994</v>
       </c>
-      <c r="H81" s="2" t="s">
+      <c r="H85" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="I85" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="J81" s="2" t="s">
+      <c r="J85" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K81">
+      <c r="K85">
         <v>316</v>
       </c>
-      <c r="L81" s="1">
+      <c r="L85" s="1">
         <v>43183</v>
       </c>
-      <c r="M81" s="1">
+      <c r="M85" s="1">
         <v>43198</v>
       </c>
-      <c r="N81">
+      <c r="N85">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="O81" s="8">
-        <f t="shared" ref="O81:O143" si="8">K81/N81</f>
+      <c r="O85" s="8">
+        <f t="shared" ref="O85:O147" si="8">K85/N85</f>
         <v>21.066666666666666</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A82" s="3" t="s">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2" t="s">
+      <c r="E86" s="2"/>
+      <c r="F86" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G82" s="2">
+      <c r="G86" s="2">
         <v>2016</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="H86" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I82" s="2" t="s">
+      <c r="I86" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J82" s="2" t="s">
+      <c r="J86" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K82">
+      <c r="K86">
         <v>188</v>
       </c>
-      <c r="L82" s="1">
+      <c r="L86" s="1">
         <v>43166</v>
       </c>
-      <c r="M82" s="1">
+      <c r="M86" s="1">
         <v>43175</v>
       </c>
-      <c r="N82">
-        <f t="shared" ref="N82:N144" si="9">M82-L82</f>
-        <v>9</v>
-      </c>
-      <c r="O82" s="8">
+      <c r="N86">
+        <f t="shared" ref="N86:N148" si="9">M86-L86</f>
+        <v>9</v>
+      </c>
+      <c r="O86" s="8">
         <f t="shared" si="8"/>
         <v>20.888888888888889</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A83" s="3" t="s">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2" t="s">
+      <c r="E87" s="2"/>
+      <c r="F87" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G83" s="2">
+      <c r="G87" s="2">
         <v>2014</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="H87" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="I87" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K83">
+      <c r="J87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K87">
         <v>256</v>
       </c>
-      <c r="L83" s="1">
+      <c r="L87" s="1">
         <v>43175</v>
       </c>
-      <c r="M83" s="1">
+      <c r="M87" s="1">
         <v>43177</v>
       </c>
-      <c r="N83">
+      <c r="N87">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="O83" s="8">
+      <c r="O87" s="8">
         <f t="shared" si="8"/>
         <v>128</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A84" s="3" t="s">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B88" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2" t="s">
+      <c r="E88" s="2"/>
+      <c r="F88" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G84" s="2">
+      <c r="G88" s="2">
         <v>2014</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="H88" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I84" s="2" t="s">
+      <c r="I88" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K84">
+      <c r="J88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K88">
         <v>272</v>
       </c>
-      <c r="L84" s="1">
+      <c r="L88" s="1">
         <v>42977</v>
       </c>
-      <c r="M84" s="1">
+      <c r="M88" s="1">
         <v>42995</v>
       </c>
-      <c r="N84">
+      <c r="N88">
         <f t="shared" si="9"/>
         <v>18</v>
       </c>
-      <c r="O84" s="8">
+      <c r="O88" s="8">
         <f t="shared" si="8"/>
         <v>15.111111111111111</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A85" s="3" t="s">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B89" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2" t="s">
+      <c r="E89" s="2"/>
+      <c r="F89" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G85" s="2">
+      <c r="G89" s="2">
         <v>1861</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="H89" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="I89" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K85">
+      <c r="J89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K89">
         <v>460</v>
       </c>
-      <c r="L85" s="1">
+      <c r="L89" s="1">
         <v>42652</v>
       </c>
-      <c r="M85" s="1">
+      <c r="M89" s="1">
         <v>42664</v>
       </c>
-      <c r="N85">
+      <c r="N89">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="O85" s="8">
+      <c r="O89" s="8">
         <f t="shared" si="8"/>
         <v>38.333333333333336</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A86" s="3" t="s">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A90" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2" t="s">
+      <c r="E90" s="2"/>
+      <c r="F90" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G86" s="2">
+      <c r="G90" s="2">
         <v>1924</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="H90" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I86" s="2" t="s">
+      <c r="I90" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K86">
+      <c r="J90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K90">
         <v>729</v>
       </c>
-      <c r="L86" s="1">
+      <c r="L90" s="1">
         <v>43049</v>
       </c>
-      <c r="M86" s="1">
+      <c r="M90" s="1">
         <v>43091</v>
       </c>
-      <c r="N86">
+      <c r="N90">
         <f t="shared" si="9"/>
         <v>42</v>
       </c>
-      <c r="O86" s="8">
+      <c r="O90" s="8">
         <f t="shared" si="8"/>
         <v>17.357142857142858</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A87" s="3" t="s">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A91" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2" t="s">
+      <c r="E91" s="2"/>
+      <c r="F91" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G87" s="2">
+      <c r="G91" s="2">
         <v>2015</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="H91" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="I91" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K87">
+      <c r="J91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K91">
         <v>224</v>
       </c>
-      <c r="L87" s="1">
+      <c r="L91" s="1">
         <v>42527</v>
       </c>
-      <c r="M87" s="1">
+      <c r="M91" s="1">
         <v>42528</v>
       </c>
-      <c r="N87">
+      <c r="N91">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="O87" s="8">
+      <c r="O91" s="8">
         <f t="shared" si="8"/>
         <v>224</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A88" s="3" t="s">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A92" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2" t="s">
+      <c r="E92" s="2"/>
+      <c r="F92" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G88" s="2">
+      <c r="G92" s="2">
         <v>1960</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="H92" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I88" s="2" t="s">
+      <c r="I92" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K88">
+      <c r="J92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K92">
         <v>307</v>
       </c>
-      <c r="L88" s="1">
+      <c r="L92" s="1">
         <v>43227</v>
       </c>
-      <c r="M88" s="1">
+      <c r="M92" s="1">
         <v>43240</v>
       </c>
-      <c r="N88">
+      <c r="N92">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="O88" s="8">
+      <c r="O92" s="8">
         <f t="shared" si="8"/>
         <v>23.615384615384617</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A89" s="3" t="s">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A93" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B93" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2" t="s">
+      <c r="E93" s="2"/>
+      <c r="F93" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G89" s="2">
+      <c r="G93" s="2">
         <v>2015</v>
       </c>
-      <c r="H89" s="2" t="s">
+      <c r="H93" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I89" s="2" t="s">
+      <c r="I93" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K89">
+      <c r="J93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K93">
         <v>90</v>
       </c>
-      <c r="L89" s="1">
+      <c r="L93" s="1">
         <v>42632</v>
       </c>
-      <c r="M89" s="1">
+      <c r="M93" s="1">
         <v>42633</v>
       </c>
-      <c r="N89">
+      <c r="N93">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="O89" s="8">
+      <c r="O93" s="8">
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A90" s="3" t="s">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B94" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C94" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2" t="s">
+      <c r="E94" s="2"/>
+      <c r="F94" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G90" s="2">
+      <c r="G94" s="2">
         <v>2014</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="H94" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I90" s="2" t="s">
+      <c r="I94" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="J90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K90">
+      <c r="J94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K94">
         <v>286</v>
       </c>
-      <c r="L90" s="1">
+      <c r="L94" s="1">
         <v>43283</v>
       </c>
-      <c r="M90" s="1">
+      <c r="M94" s="1">
         <v>43291</v>
       </c>
-      <c r="N90">
+      <c r="N94">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="O90" s="8">
+      <c r="O94" s="8">
         <f t="shared" si="8"/>
         <v>35.75</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A91" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G91" s="2">
-        <v>2010</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K91">
-        <v>386</v>
-      </c>
-      <c r="L91" s="1">
-        <v>42941</v>
-      </c>
-      <c r="M91" s="1">
-        <v>42950</v>
-      </c>
-      <c r="N91">
-        <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="O91" s="8">
-        <f t="shared" si="8"/>
-        <v>42.888888888888886</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A92" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G92" s="2">
-        <v>1967</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K92">
-        <v>432</v>
-      </c>
-      <c r="L92" s="1">
-        <v>42936</v>
-      </c>
-      <c r="M92" s="1">
-        <v>42940</v>
-      </c>
-      <c r="N92">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="O92" s="8">
-        <f t="shared" si="8"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A93" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G93" s="2">
-        <v>2017</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K93">
-        <v>276</v>
-      </c>
-      <c r="L93" s="1">
-        <v>43028</v>
-      </c>
-      <c r="M93" s="1">
-        <v>43036</v>
-      </c>
-      <c r="N93">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="O93" s="8">
-        <f t="shared" si="8"/>
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A94" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" s="2">
-        <v>1969</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K94">
-        <v>157</v>
-      </c>
-      <c r="L94" s="1">
-        <v>42639</v>
-      </c>
-      <c r="M94" s="1">
-        <v>42640</v>
-      </c>
-      <c r="N94">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O94" s="8">
-        <f t="shared" si="8"/>
-        <v>157</v>
-      </c>
-    </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2" t="s">
-        <v>52</v>
+        <v>191</v>
       </c>
       <c r="G95" s="2">
-        <v>1959</v>
+        <v>2010</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K95">
-        <v>341</v>
+        <v>386</v>
       </c>
       <c r="L95" s="1">
-        <v>42418</v>
+        <v>42941</v>
       </c>
       <c r="M95" s="1">
-        <v>42427</v>
+        <v>42950</v>
       </c>
       <c r="N95">
         <f t="shared" si="9"/>
@@ -6713,24 +6770,24 @@
       </c>
       <c r="O95" s="8">
         <f t="shared" si="8"/>
-        <v>37.888888888888886</v>
+        <v>42.888888888888886</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>365</v>
+        <v>192</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>199</v>
+        <v>379</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="G96" s="2">
-        <v>2015</v>
+        <v>1967</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>8</v>
@@ -6742,898 +6799,898 @@
         <v>9</v>
       </c>
       <c r="K96">
-        <v>362</v>
+        <v>432</v>
       </c>
       <c r="L96" s="1">
-        <v>42531</v>
+        <v>42936</v>
       </c>
       <c r="M96" s="1">
-        <v>42540</v>
+        <v>42940</v>
       </c>
       <c r="N96">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O96" s="8">
         <f t="shared" si="8"/>
-        <v>40.222222222222221</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>366</v>
+        <v>193</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2" t="s">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="G97" s="2">
-        <v>1751</v>
+        <v>2017</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I97" t="s">
-        <v>343</v>
+        <v>8</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K97">
-        <v>110</v>
+        <v>276</v>
       </c>
       <c r="L97" s="1">
-        <v>42729</v>
+        <v>43028</v>
       </c>
       <c r="M97" s="1">
-        <v>42732</v>
+        <v>43036</v>
       </c>
       <c r="N97">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O97" s="8">
         <f t="shared" si="8"/>
-        <v>36.666666666666664</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G98" s="2">
-        <v>1939</v>
+        <v>1969</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I98" t="s">
-        <v>369</v>
+      <c r="I98" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K98">
-        <v>384</v>
+        <v>157</v>
       </c>
       <c r="L98" s="1">
-        <v>42541</v>
+        <v>42639</v>
       </c>
       <c r="M98" s="1">
-        <v>42550</v>
+        <v>42640</v>
       </c>
       <c r="N98">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O98" s="8">
         <f t="shared" si="8"/>
-        <v>42.666666666666664</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="G99" s="2">
-        <v>2008</v>
+        <v>1959</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I99" t="s">
-        <v>336</v>
+        <v>8</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K99">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="L99" s="1">
-        <v>42853</v>
+        <v>42418</v>
       </c>
       <c r="M99" s="1">
-        <v>42856</v>
+        <v>42427</v>
       </c>
       <c r="N99">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O99" s="8">
         <f t="shared" si="8"/>
-        <v>101.66666666666667</v>
+        <v>37.888888888888886</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G100" s="2">
-        <v>1965</v>
+        <v>2015</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I100" t="s">
-        <v>348</v>
+      <c r="I100" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K100">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="L100" s="1">
-        <v>42772</v>
+        <v>42531</v>
       </c>
       <c r="M100" s="1">
-        <v>42774</v>
+        <v>42540</v>
       </c>
       <c r="N100">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O100" s="8">
         <f t="shared" si="8"/>
-        <v>176</v>
+        <v>40.222222222222221</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>209</v>
+        <v>366</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>114</v>
+        <v>201</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G101" s="2">
-        <v>1975</v>
+        <v>1751</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I101" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K101">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="L101" s="1">
-        <v>43105</v>
+        <v>42729</v>
       </c>
       <c r="M101" s="1">
-        <v>43106</v>
+        <v>42732</v>
       </c>
       <c r="N101">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O101" s="8">
         <f t="shared" si="8"/>
-        <v>173</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G102" s="2">
-        <v>1936</v>
+        <v>1939</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I102" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K102">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="L102" s="1">
-        <v>42895</v>
+        <v>42541</v>
       </c>
       <c r="M102" s="1">
-        <v>42899</v>
+        <v>42550</v>
       </c>
       <c r="N102">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O102" s="8">
         <f t="shared" si="8"/>
-        <v>87</v>
+        <v>42.666666666666664</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="G103" s="2">
-        <v>1963</v>
+        <v>2008</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I103" t="s">
-        <v>49</v>
+        <v>336</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K103">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="L103" s="1">
-        <v>43200</v>
+        <v>42853</v>
       </c>
       <c r="M103" s="1">
-        <v>43212</v>
+        <v>42856</v>
       </c>
       <c r="N103">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="O103" s="8">
         <f t="shared" si="8"/>
-        <v>26</v>
+        <v>101.66666666666667</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>215</v>
+        <v>367</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="G104" s="2">
-        <v>1928</v>
+        <v>1965</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I104" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K104">
-        <v>546</v>
+        <v>352</v>
       </c>
       <c r="L104" s="1">
-        <v>43217</v>
+        <v>42772</v>
       </c>
       <c r="M104" s="1">
-        <v>43226</v>
+        <v>42774</v>
       </c>
       <c r="N104">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O104" s="8">
         <f t="shared" si="8"/>
-        <v>60.666666666666664</v>
+        <v>176</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>219</v>
+        <v>114</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2" t="s">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="G105" s="2">
-        <v>1946</v>
+        <v>1975</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I105" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K105">
-        <v>661</v>
+        <v>173</v>
       </c>
       <c r="L105" s="1">
-        <v>42385</v>
+        <v>43105</v>
       </c>
       <c r="M105" s="1">
-        <v>42404</v>
+        <v>43106</v>
       </c>
       <c r="N105">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="O105" s="8">
         <f t="shared" si="8"/>
-        <v>34.789473684210527</v>
+        <v>173</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>380</v>
+        <v>212</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2" t="s">
-        <v>221</v>
+        <v>52</v>
       </c>
       <c r="G106" s="2">
-        <v>1996</v>
+        <v>1936</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I106" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K106">
-        <v>227</v>
+        <v>348</v>
       </c>
       <c r="L106" s="1">
-        <v>43163</v>
+        <v>42895</v>
       </c>
       <c r="M106" s="1">
-        <v>43165</v>
+        <v>42899</v>
       </c>
       <c r="N106">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O106" s="8">
         <f t="shared" si="8"/>
-        <v>113.5</v>
+        <v>87</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="G107" s="2">
-        <v>1998</v>
+        <v>1963</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I107" t="s">
-        <v>346</v>
+        <v>49</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K107">
-        <v>94</v>
+        <v>312</v>
       </c>
       <c r="L107" s="1">
-        <v>43121</v>
+        <v>43200</v>
       </c>
       <c r="M107" s="1">
-        <v>43121</v>
+        <v>43212</v>
       </c>
       <c r="N107">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O107" s="8" t="e">
+        <v>12</v>
+      </c>
+      <c r="O107" s="8">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>329</v>
+        <v>215</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G108" s="2">
-        <v>1987</v>
+        <v>1928</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I108" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K108">
-        <v>372</v>
+        <v>546</v>
       </c>
       <c r="L108" s="1">
-        <v>42767</v>
+        <v>43217</v>
       </c>
       <c r="M108" s="1">
-        <v>42768</v>
+        <v>43226</v>
       </c>
       <c r="N108">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O108" s="8">
         <f t="shared" si="8"/>
-        <v>372</v>
+        <v>60.666666666666664</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="G109" s="2">
-        <v>1967</v>
+        <v>1946</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I109" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K109">
-        <v>412</v>
+        <v>661</v>
       </c>
       <c r="L109" s="1">
-        <v>42768</v>
+        <v>42385</v>
       </c>
       <c r="M109" s="1">
-        <v>42771</v>
+        <v>42404</v>
       </c>
       <c r="N109">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="O109" s="8">
         <f t="shared" si="8"/>
-        <v>137.33333333333334</v>
+        <v>34.789473684210527</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>230</v>
+        <v>380</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="G110" s="2">
-        <v>2010</v>
+        <v>1996</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I110" t="s">
-        <v>49</v>
+        <v>342</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K110">
-        <v>941</v>
+        <v>227</v>
       </c>
       <c r="L110" s="1">
-        <v>42883</v>
+        <v>43163</v>
       </c>
       <c r="M110" s="1">
-        <v>42894</v>
+        <v>43165</v>
       </c>
       <c r="N110">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="O110" s="8">
         <f t="shared" si="8"/>
-        <v>85.545454545454547</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2" t="s">
-        <v>28</v>
+        <v>224</v>
       </c>
       <c r="G111" s="2">
-        <v>2017</v>
+        <v>1998</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I111" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K111">
-        <v>304</v>
+        <v>94</v>
       </c>
       <c r="L111" s="1">
-        <v>43106</v>
+        <v>43121</v>
       </c>
       <c r="M111" s="1">
-        <v>43120</v>
+        <v>43121</v>
       </c>
       <c r="N111">
         <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="O111" s="8">
+        <v>0</v>
+      </c>
+      <c r="O111" s="8" t="e">
         <f t="shared" si="8"/>
-        <v>21.714285714285715</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>234</v>
+        <v>329</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>63</v>
+        <v>225</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2" t="s">
-        <v>12</v>
+        <v>226</v>
       </c>
       <c r="G112" s="2">
-        <v>1963</v>
+        <v>1987</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I112" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K112">
-        <v>492</v>
+        <v>372</v>
       </c>
       <c r="L112" s="1">
-        <v>43127</v>
+        <v>42767</v>
       </c>
       <c r="M112" s="1">
-        <v>43148</v>
+        <v>42768</v>
       </c>
       <c r="N112">
         <f t="shared" si="9"/>
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="O112" s="8">
         <f t="shared" si="8"/>
-        <v>23.428571428571427</v>
+        <v>372</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="G113" s="2">
-        <v>1949</v>
+        <v>1967</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I113" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K113">
-        <v>311</v>
+        <v>412</v>
       </c>
       <c r="L113" s="1">
-        <v>43149</v>
+        <v>42768</v>
       </c>
       <c r="M113" s="1">
-        <v>43155</v>
+        <v>42771</v>
       </c>
       <c r="N113">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O113" s="8">
         <f t="shared" si="8"/>
-        <v>51.833333333333336</v>
+        <v>137.33333333333334</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G114" s="2">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I114" t="s">
-        <v>337</v>
+        <v>49</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K114">
-        <v>384</v>
+        <v>941</v>
       </c>
       <c r="L114" s="1">
-        <v>42919</v>
+        <v>42883</v>
       </c>
       <c r="M114" s="1">
-        <v>42929</v>
+        <v>42894</v>
       </c>
       <c r="N114">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O114" s="8">
         <f t="shared" si="8"/>
-        <v>38.4</v>
+        <v>85.545454545454547</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="G115" s="2">
-        <v>1992</v>
+        <v>2017</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I115" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K115">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="L115" s="1">
-        <v>42732</v>
+        <v>43106</v>
       </c>
       <c r="M115" s="1">
-        <v>42737</v>
+        <v>43120</v>
       </c>
       <c r="N115">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="O115" s="8">
         <f t="shared" si="8"/>
-        <v>51.2</v>
+        <v>21.714285714285715</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>243</v>
+        <v>63</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="G116" s="2">
-        <v>1977</v>
+        <v>1963</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I116" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K116">
-        <v>256</v>
+        <v>492</v>
       </c>
       <c r="L116" s="1">
-        <v>42382</v>
+        <v>43127</v>
       </c>
       <c r="M116" s="1">
-        <v>42383</v>
+        <v>43148</v>
       </c>
       <c r="N116">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="O116" s="8">
         <f t="shared" si="8"/>
-        <v>256</v>
+        <v>23.428571428571427</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="G117" s="2">
-        <v>1927</v>
+        <v>1949</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>8</v>
@@ -7645,210 +7702,210 @@
         <v>9</v>
       </c>
       <c r="K117">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="L117" s="1">
-        <v>42790</v>
+        <v>43149</v>
       </c>
       <c r="M117" s="1">
-        <v>42802</v>
+        <v>43155</v>
       </c>
       <c r="N117">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O117" s="8">
         <f t="shared" si="8"/>
-        <v>22.666666666666668</v>
+        <v>51.833333333333336</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="G118" s="2">
-        <v>1997</v>
+        <v>2015</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I118" t="s">
-        <v>49</v>
+        <v>337</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K118">
-        <v>293</v>
+        <v>384</v>
       </c>
       <c r="L118" s="1">
-        <v>42805</v>
+        <v>42919</v>
       </c>
       <c r="M118" s="1">
-        <v>42811</v>
+        <v>42929</v>
       </c>
       <c r="N118">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O118" s="8">
         <f t="shared" si="8"/>
-        <v>48.833333333333336</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="G119" s="2">
-        <v>2013</v>
+        <v>1992</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I119" t="s">
-        <v>96</v>
+        <v>350</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K119">
-        <v>496</v>
+        <v>256</v>
       </c>
       <c r="L119" s="1">
-        <v>42645</v>
+        <v>42732</v>
       </c>
       <c r="M119" s="1">
-        <v>42649</v>
+        <v>42737</v>
       </c>
       <c r="N119">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O119" s="8">
         <f t="shared" si="8"/>
-        <v>124</v>
+        <v>51.2</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>82</v>
+        <v>243</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2" t="s">
-        <v>52</v>
+        <v>153</v>
       </c>
       <c r="G120" s="2">
-        <v>1955</v>
+        <v>1977</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I120" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K120">
-        <v>331</v>
+        <v>256</v>
       </c>
       <c r="L120" s="1">
-        <v>42823</v>
+        <v>42382</v>
       </c>
       <c r="M120" s="1">
-        <v>42827</v>
+        <v>42383</v>
       </c>
       <c r="N120">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O120" s="8">
         <f t="shared" si="8"/>
-        <v>82.75</v>
+        <v>256</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>381</v>
+        <v>245</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G121" s="2">
-        <v>1991</v>
+        <v>1927</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I121" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K121">
-        <v>149</v>
+        <v>272</v>
       </c>
       <c r="L121" s="1">
-        <v>42665</v>
+        <v>42790</v>
       </c>
       <c r="M121" s="1">
-        <v>42668</v>
+        <v>42802</v>
       </c>
       <c r="N121">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="O121" s="8">
         <f t="shared" si="8"/>
-        <v>49.666666666666664</v>
+        <v>22.666666666666668</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="G122" s="2">
-        <v>1942</v>
+        <v>1997</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>331</v>
@@ -7860,296 +7917,296 @@
         <v>9</v>
       </c>
       <c r="K122">
-        <v>495</v>
+        <v>293</v>
       </c>
       <c r="L122" s="1">
-        <v>42711</v>
+        <v>42805</v>
       </c>
       <c r="M122" s="1">
-        <v>42727</v>
+        <v>42811</v>
       </c>
       <c r="N122">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="O122" s="8">
         <f t="shared" si="8"/>
-        <v>30.9375</v>
+        <v>48.833333333333336</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2" t="s">
-        <v>191</v>
+        <v>113</v>
       </c>
       <c r="G123" s="2">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I123" t="s">
-        <v>346</v>
+        <v>96</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K123">
-        <v>446</v>
+        <v>496</v>
       </c>
       <c r="L123" s="1">
-        <v>42776</v>
+        <v>42645</v>
       </c>
       <c r="M123" s="1">
-        <v>42785</v>
+        <v>42649</v>
       </c>
       <c r="N123">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O123" s="8">
         <f t="shared" si="8"/>
-        <v>49.555555555555557</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>259</v>
+        <v>82</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G124" s="2">
-        <v>1992</v>
+        <v>1955</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I124" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K124">
-        <v>224</v>
+        <v>331</v>
       </c>
       <c r="L124" s="1">
-        <v>42249</v>
+        <v>42823</v>
       </c>
       <c r="M124" s="1">
-        <v>42250</v>
+        <v>42827</v>
       </c>
       <c r="N124">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O124" s="8">
         <f t="shared" si="8"/>
-        <v>224</v>
+        <v>82.75</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>261</v>
+        <v>381</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G125" s="2">
-        <v>1934</v>
+        <v>1991</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I125" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K125">
-        <v>251</v>
+        <v>149</v>
       </c>
       <c r="L125" s="1">
-        <v>43294</v>
+        <v>42665</v>
       </c>
       <c r="M125" s="1">
-        <v>43307</v>
+        <v>42668</v>
       </c>
       <c r="N125">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="O125" s="8">
         <f t="shared" si="8"/>
-        <v>19.307692307692307</v>
+        <v>49.666666666666664</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2" t="s">
-        <v>52</v>
+        <v>255</v>
       </c>
       <c r="G126" s="2">
-        <v>1951</v>
+        <v>1942</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I126" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K126">
-        <v>192</v>
+        <v>495</v>
       </c>
       <c r="L126" s="1">
-        <v>42518</v>
+        <v>42711</v>
       </c>
       <c r="M126" s="1">
-        <v>42522</v>
+        <v>42727</v>
       </c>
       <c r="N126">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="O126" s="8">
         <f t="shared" si="8"/>
-        <v>48</v>
+        <v>30.9375</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>370</v>
+        <v>256</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2" t="s">
-        <v>319</v>
+        <v>191</v>
       </c>
       <c r="G127" s="2">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I127" t="s">
-        <v>49</v>
+        <v>346</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K127">
-        <v>329</v>
+        <v>446</v>
       </c>
       <c r="L127" s="1">
-        <v>42512</v>
+        <v>42776</v>
       </c>
       <c r="M127" s="1">
-        <v>42514</v>
+        <v>42785</v>
       </c>
       <c r="N127">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O127" s="8">
         <f t="shared" si="8"/>
-        <v>164.5</v>
+        <v>49.555555555555557</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="G128" s="2">
-        <v>2011</v>
+        <v>1992</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I128" t="s">
-        <v>96</v>
+        <v>339</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K128">
-        <v>498</v>
+        <v>224</v>
       </c>
       <c r="L128" s="1">
-        <v>43308</v>
+        <v>42249</v>
       </c>
       <c r="M128" s="1">
-        <v>43322</v>
+        <v>42250</v>
       </c>
       <c r="N128">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="O128" s="8">
         <f t="shared" si="8"/>
-        <v>35.571428571428569</v>
+        <v>224</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2" t="s">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="G129" s="2">
-        <v>1971</v>
+        <v>1934</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>8</v>
@@ -8161,56 +8218,56 @@
         <v>9</v>
       </c>
       <c r="K129">
-        <v>160</v>
+        <v>251</v>
       </c>
       <c r="L129" s="1">
-        <v>42643</v>
+        <v>43294</v>
       </c>
       <c r="M129" s="1">
-        <v>42644</v>
+        <v>43307</v>
       </c>
       <c r="N129">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="O129" s="8">
         <f t="shared" si="8"/>
-        <v>160</v>
+        <v>19.307692307692307</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2" t="s">
-        <v>271</v>
+        <v>52</v>
       </c>
       <c r="G130" s="2">
-        <v>2000</v>
+        <v>1951</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I130" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K130">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="L130" s="1">
-        <v>42628</v>
+        <v>42518</v>
       </c>
       <c r="M130" s="1">
-        <v>42632</v>
+        <v>42522</v>
       </c>
       <c r="N130">
         <f t="shared" si="9"/>
@@ -8218,386 +8275,386 @@
       </c>
       <c r="O130" s="8">
         <f t="shared" si="8"/>
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>272</v>
+        <v>370</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2" t="s">
-        <v>274</v>
+        <v>319</v>
       </c>
       <c r="G131" s="2">
-        <v>2000</v>
+        <v>2013</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I131" t="s">
-        <v>332</v>
+        <v>49</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K131">
-        <v>639</v>
+        <v>329</v>
       </c>
       <c r="L131" s="1">
-        <v>42683</v>
+        <v>42512</v>
       </c>
       <c r="M131" s="1">
-        <v>42695</v>
+        <v>42514</v>
       </c>
       <c r="N131">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="O131" s="8">
         <f t="shared" si="8"/>
-        <v>53.25</v>
+        <v>164.5</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>276</v>
+        <v>65</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2" t="s">
-        <v>319</v>
+        <v>30</v>
       </c>
       <c r="G132" s="2">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I132" t="s">
-        <v>369</v>
+        <v>96</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K132">
-        <v>563</v>
+        <v>498</v>
       </c>
       <c r="L132" s="1">
-        <v>42830</v>
+        <v>43308</v>
       </c>
       <c r="M132" s="1">
-        <v>42846</v>
+        <v>43322</v>
       </c>
       <c r="N132">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O132" s="8">
         <f t="shared" si="8"/>
-        <v>35.1875</v>
+        <v>35.571428571428569</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="G133" s="2">
-        <v>2015</v>
+        <v>1971</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I133" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K133">
-        <v>304</v>
+        <v>160</v>
       </c>
       <c r="L133" s="1">
-        <v>42848</v>
+        <v>42643</v>
       </c>
       <c r="M133" s="1">
-        <v>42852</v>
+        <v>42644</v>
       </c>
       <c r="N133">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O133" s="8">
         <f t="shared" si="8"/>
-        <v>76</v>
+        <v>160</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2" t="s">
-        <v>28</v>
+        <v>271</v>
       </c>
       <c r="G134" s="2">
-        <v>1994</v>
+        <v>2000</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I134" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K134">
-        <v>480</v>
+        <v>176</v>
       </c>
       <c r="L134" s="1">
-        <v>42358</v>
+        <v>42628</v>
       </c>
       <c r="M134" s="1">
-        <v>42377</v>
+        <v>42632</v>
       </c>
       <c r="N134">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="O134" s="8">
         <f t="shared" si="8"/>
-        <v>25.263157894736842</v>
+        <v>44</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2" t="s">
-        <v>28</v>
+        <v>274</v>
       </c>
       <c r="G135" s="2">
-        <v>1962</v>
+        <v>2000</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I135" t="s">
-        <v>49</v>
+        <v>332</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K135">
-        <v>256</v>
+        <v>639</v>
       </c>
       <c r="L135" s="1">
-        <v>42696</v>
+        <v>42683</v>
       </c>
       <c r="M135" s="1">
-        <v>42700</v>
+        <v>42695</v>
       </c>
       <c r="N135">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O135" s="8">
         <f t="shared" si="8"/>
-        <v>64</v>
+        <v>53.25</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="G136" s="2">
-        <v>1929</v>
+        <v>2015</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I136" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K136">
-        <v>348</v>
+        <v>563</v>
       </c>
       <c r="L136" s="1">
-        <v>42860</v>
+        <v>42830</v>
       </c>
       <c r="M136" s="1">
-        <v>42869</v>
+        <v>42846</v>
       </c>
       <c r="N136">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O136" s="8">
         <f t="shared" si="8"/>
-        <v>38.666666666666664</v>
+        <v>35.1875</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="G137" s="2">
-        <v>1897</v>
+        <v>2015</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I137" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K137">
-        <v>496</v>
+        <v>304</v>
       </c>
       <c r="L137" s="1">
-        <v>42952</v>
+        <v>42848</v>
       </c>
       <c r="M137" s="1">
-        <v>42962</v>
+        <v>42852</v>
       </c>
       <c r="N137">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O137" s="8">
         <f t="shared" si="8"/>
-        <v>49.6</v>
+        <v>76</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2" t="s">
-        <v>168</v>
+        <v>28</v>
       </c>
       <c r="G138" s="2">
-        <v>2016</v>
+        <v>1994</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I138" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K138">
-        <v>302</v>
+        <v>480</v>
       </c>
       <c r="L138" s="1">
-        <v>43179</v>
+        <v>42358</v>
       </c>
       <c r="M138" s="1">
-        <v>43183</v>
+        <v>42377</v>
       </c>
       <c r="N138">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="O138" s="8">
         <f t="shared" si="8"/>
-        <v>75.5</v>
+        <v>25.263157894736842</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2" t="s">
-        <v>248</v>
+        <v>28</v>
       </c>
       <c r="G139" s="2">
-        <v>1886</v>
+        <v>1962</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I139" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K139">
-        <v>110</v>
+        <v>256</v>
       </c>
       <c r="L139" s="1">
-        <v>43430</v>
+        <v>42696</v>
       </c>
       <c r="M139" s="1">
-        <v>43434</v>
+        <v>42700</v>
       </c>
       <c r="N139">
         <f t="shared" si="9"/>
@@ -8605,85 +8662,85 @@
       </c>
       <c r="O139" s="8">
         <f t="shared" si="8"/>
-        <v>27.5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G140" s="2">
-        <v>2013</v>
+        <v>1929</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I140" t="s">
-        <v>336</v>
+        <v>49</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K140">
-        <v>256</v>
+        <v>348</v>
       </c>
       <c r="L140" s="1">
-        <v>43449</v>
+        <v>42860</v>
       </c>
       <c r="M140" s="1">
-        <v>43453</v>
+        <v>42869</v>
       </c>
       <c r="N140">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O140" s="8">
         <f t="shared" si="8"/>
-        <v>64</v>
+        <v>38.666666666666664</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="G141" s="2">
-        <v>1972</v>
+        <v>1897</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I141" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K141">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="L141" s="1">
-        <v>43436</v>
+        <v>42952</v>
       </c>
       <c r="M141" s="1">
-        <v>43446</v>
+        <v>42962</v>
       </c>
       <c r="N141">
         <f t="shared" si="9"/>
@@ -8691,21 +8748,21 @@
       </c>
       <c r="O141" s="8">
         <f t="shared" si="8"/>
-        <v>50.6</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2" t="s">
-        <v>301</v>
+        <v>168</v>
       </c>
       <c r="G142" s="2">
         <v>2016</v>
@@ -8714,302 +8771,302 @@
         <v>331</v>
       </c>
       <c r="I142" t="s">
-        <v>49</v>
+        <v>336</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K142">
-        <v>941</v>
+        <v>302</v>
       </c>
       <c r="L142" s="1">
-        <v>42737</v>
+        <v>43179</v>
       </c>
       <c r="M142" s="1">
-        <v>42767</v>
+        <v>43183</v>
       </c>
       <c r="N142">
         <f t="shared" si="9"/>
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="O142" s="8">
         <f t="shared" si="8"/>
-        <v>31.366666666666667</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>382</v>
+        <v>293</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
       <c r="G143" s="2">
-        <v>1959</v>
+        <v>1886</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I143" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K143">
-        <v>582</v>
+        <v>110</v>
       </c>
       <c r="L143" s="1">
-        <v>42567</v>
+        <v>43430</v>
       </c>
       <c r="M143" s="1">
-        <v>42578</v>
+        <v>43434</v>
       </c>
       <c r="N143">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="O143" s="8">
         <f t="shared" si="8"/>
-        <v>52.909090909090907</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2" t="s">
-        <v>156</v>
+        <v>296</v>
       </c>
       <c r="G144" s="2">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="H144" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I144" t="s">
-        <v>49</v>
+        <v>336</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K144">
-        <v>862</v>
+        <v>256</v>
       </c>
       <c r="L144" s="1">
-        <v>42445</v>
+        <v>43449</v>
       </c>
       <c r="M144" s="1">
-        <v>42484</v>
+        <v>43453</v>
       </c>
       <c r="N144">
         <f t="shared" si="9"/>
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="O144" s="8">
-        <f t="shared" ref="O144:O151" si="10">K144/N144</f>
-        <v>22.102564102564102</v>
+        <f t="shared" si="8"/>
+        <v>64</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="G145" s="2">
-        <v>2016</v>
+        <v>1972</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I145" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K145">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="L145" s="1">
-        <v>42431</v>
+        <v>43436</v>
       </c>
       <c r="M145" s="1">
-        <v>42445</v>
+        <v>43446</v>
       </c>
       <c r="N145">
-        <f t="shared" ref="N145:N151" si="11">M145-L145</f>
-        <v>14</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="O145" s="8">
-        <f t="shared" si="10"/>
-        <v>34.857142857142854</v>
+        <f t="shared" si="8"/>
+        <v>50.6</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2" t="s">
-        <v>163</v>
+        <v>301</v>
       </c>
       <c r="G146" s="2">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I146" t="s">
-        <v>310</v>
+        <v>49</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K146">
-        <v>352</v>
+        <v>941</v>
       </c>
       <c r="L146" s="1">
-        <v>42899</v>
+        <v>42737</v>
       </c>
       <c r="M146" s="1">
-        <v>42918</v>
+        <v>42767</v>
       </c>
       <c r="N146">
-        <f t="shared" si="11"/>
-        <v>19</v>
+        <f t="shared" si="9"/>
+        <v>30</v>
       </c>
       <c r="O146" s="8">
-        <f t="shared" si="10"/>
-        <v>18.526315789473685</v>
+        <f t="shared" si="8"/>
+        <v>31.366666666666667</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>312</v>
+        <v>382</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="G147" s="2">
-        <v>2016</v>
+        <v>1959</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I147" t="s">
-        <v>310</v>
+        <v>369</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K147">
-        <v>255</v>
+        <v>582</v>
       </c>
       <c r="L147" s="1">
-        <v>43405</v>
+        <v>42567</v>
       </c>
       <c r="M147" s="1">
-        <v>43411</v>
+        <v>42578</v>
       </c>
       <c r="N147">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <f t="shared" si="9"/>
+        <v>11</v>
       </c>
       <c r="O147" s="8">
-        <f t="shared" si="10"/>
-        <v>42.5</v>
+        <f t="shared" si="8"/>
+        <v>52.909090909090907</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="G148" s="2">
-        <v>1985</v>
+        <v>2015</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I148" t="s">
-        <v>338</v>
+        <v>49</v>
       </c>
       <c r="J148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K148">
-        <v>324</v>
+        <v>862</v>
       </c>
       <c r="L148" s="1">
-        <v>43509</v>
+        <v>42445</v>
       </c>
       <c r="M148" s="1">
-        <v>43516</v>
+        <v>42484</v>
       </c>
       <c r="N148">
-        <f t="shared" si="11"/>
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>39</v>
       </c>
       <c r="O148" s="8">
-        <f t="shared" si="10"/>
-        <v>46.285714285714285</v>
+        <f t="shared" ref="O148:O155" si="10">K148/N148</f>
+        <v>22.102564102564102</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="G149" s="2">
-        <v>1854</v>
+        <v>2016</v>
       </c>
       <c r="H149" s="2" t="s">
         <v>331</v>
@@ -9021,111 +9078,283 @@
         <v>9</v>
       </c>
       <c r="K149">
-        <v>360</v>
+        <v>488</v>
       </c>
       <c r="L149" s="1">
-        <v>43369</v>
+        <v>42431</v>
       </c>
       <c r="M149" s="1">
-        <v>43381</v>
+        <v>42445</v>
       </c>
       <c r="N149">
-        <f t="shared" si="11"/>
-        <v>12</v>
+        <f t="shared" ref="N149:N155" si="11">M149-L149</f>
+        <v>14</v>
       </c>
       <c r="O149" s="8">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>34.857142857142854</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
-        <v>368</v>
+        <v>309</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>377</v>
+        <v>150</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2" t="s">
-        <v>248</v>
+        <v>163</v>
       </c>
       <c r="G150" s="2">
-        <v>1963</v>
+        <v>2010</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I150" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="J150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K150">
-        <v>257</v>
+        <v>352</v>
       </c>
       <c r="L150" s="1">
-        <v>43427</v>
+        <v>42899</v>
       </c>
       <c r="M150" s="1">
-        <v>43429</v>
+        <v>42918</v>
       </c>
       <c r="N150">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O150" s="8">
         <f t="shared" si="10"/>
-        <v>128.5</v>
+        <v>18.526315789473685</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2" t="s">
-        <v>61</v>
+        <v>319</v>
       </c>
       <c r="G151" s="2">
-        <v>1979</v>
+        <v>2016</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I151" t="s">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="J151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K151">
-        <v>592</v>
+        <v>255</v>
       </c>
       <c r="L151" s="1">
-        <v>43543</v>
+        <v>43405</v>
       </c>
       <c r="M151" s="1">
-        <v>43576</v>
+        <v>43411</v>
       </c>
       <c r="N151">
         <f t="shared" si="11"/>
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="O151" s="8">
         <f t="shared" si="10"/>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A152" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G152" s="2">
+        <v>1985</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I152" t="s">
+        <v>338</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K152">
+        <v>324</v>
+      </c>
+      <c r="L152" s="1">
+        <v>43509</v>
+      </c>
+      <c r="M152" s="1">
+        <v>43516</v>
+      </c>
+      <c r="N152">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="O152" s="8">
+        <f t="shared" si="10"/>
+        <v>46.285714285714285</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A153" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G153" s="2">
+        <v>1854</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I153" t="s">
+        <v>344</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K153">
+        <v>360</v>
+      </c>
+      <c r="L153" s="1">
+        <v>43369</v>
+      </c>
+      <c r="M153" s="1">
+        <v>43381</v>
+      </c>
+      <c r="N153">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="O153" s="8">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A154" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G154" s="2">
+        <v>1963</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I154" t="s">
+        <v>337</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K154">
+        <v>257</v>
+      </c>
+      <c r="L154" s="1">
+        <v>43427</v>
+      </c>
+      <c r="M154" s="1">
+        <v>43429</v>
+      </c>
+      <c r="N154">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="O154" s="8">
+        <f t="shared" si="10"/>
+        <v>128.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A155" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G155" s="2">
+        <v>1979</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I155" t="s">
+        <v>347</v>
+      </c>
+      <c r="J155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K155">
+        <v>592</v>
+      </c>
+      <c r="L155" s="1">
+        <v>43543</v>
+      </c>
+      <c r="M155" s="1">
+        <v>43576</v>
+      </c>
+      <c r="N155">
+        <f t="shared" si="11"/>
+        <v>33</v>
+      </c>
+      <c r="O155" s="8">
+        <f t="shared" si="10"/>
         <v>17.939393939393938</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N151" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N155" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/b2.xlsx
+++ b/b2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A392B9-72E5-4C85-9CE6-A8A1319AF7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC31DBFE-E762-4C04-AA72-480B13927E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18340" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="clean" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">clean!$A$1:$N$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">clean!$A$1:$N$159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="465">
   <si>
     <t>Title</t>
   </si>
@@ -1395,6 +1395,48 @@
   </si>
   <si>
     <t>Postman, Neil</t>
+  </si>
+  <si>
+    <t>What If?</t>
+  </si>
+  <si>
+    <t>Munroe, Randall</t>
+  </si>
+  <si>
+    <t>Scientist</t>
+  </si>
+  <si>
+    <t>La mezzanine</t>
+  </si>
+  <si>
+    <t>Baker, Nicholson</t>
+  </si>
+  <si>
+    <t>Robert Laffont</t>
+  </si>
+  <si>
+    <t>La France n'a Pas Dit Son Dernier Mot</t>
+  </si>
+  <si>
+    <t>Zemmour, Eric</t>
+  </si>
+  <si>
+    <t>Interforum editis</t>
+  </si>
+  <si>
+    <t>The Three-Body Problem</t>
+  </si>
+  <si>
+    <t>Lium Cixin</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>Head of Zeus</t>
+  </si>
+  <si>
+    <t>SciFi</t>
   </si>
 </sst>
 </file>
@@ -2266,13 +2308,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O155"/>
+  <dimension ref="A1:O159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2339,62 +2381,62 @@
     </row>
     <row r="2" spans="1:15" s="7" customFormat="1" ht="19" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>384</v>
+        <v>462</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>387</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>355</v>
+        <v>406</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>113</v>
+        <v>463</v>
       </c>
       <c r="G2" s="11">
-        <v>1985</v>
+        <v>2008</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>334</v>
+        <v>464</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="2">
-        <v>184</v>
+        <v>448</v>
       </c>
       <c r="L2" s="1">
-        <v>44475</v>
+        <v>44504</v>
       </c>
       <c r="M2" s="1">
-        <v>44478</v>
+        <v>44512</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N8" si="0">M2-L2</f>
-        <v>3</v>
+        <f t="shared" ref="N2:N12" si="0">M2-L2</f>
+        <v>8</v>
       </c>
       <c r="O2" s="8">
-        <f t="shared" ref="O2:O8" si="1">K2/N2</f>
-        <v>61.333333333333336</v>
+        <f t="shared" ref="O2:O12" si="1">K2/N2</f>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>387</v>
@@ -2403,44 +2445,44 @@
         <v>402</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>117</v>
+        <v>459</v>
       </c>
       <c r="G3" s="11">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>331</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K3" s="2">
-        <v>480</v>
+        <v>348</v>
       </c>
       <c r="L3" s="1">
-        <v>44437</v>
+        <v>44494</v>
       </c>
       <c r="M3" s="1">
-        <v>44466</v>
+        <v>44501</v>
       </c>
       <c r="N3">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="O3" s="8">
         <f t="shared" si="1"/>
-        <v>16.551724137931036</v>
+        <v>49.714285714285715</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>384</v>
@@ -2452,10 +2494,10 @@
         <v>406</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="G4" s="11">
-        <v>1978</v>
+        <v>1988</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>8</v>
@@ -2464,32 +2506,32 @@
         <v>369</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K4" s="2">
-        <v>608</v>
+        <v>242</v>
       </c>
       <c r="L4" s="1">
-        <v>44430</v>
+        <v>44490</v>
       </c>
       <c r="M4" s="1">
-        <v>44433</v>
+        <v>44494</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O4" s="8">
         <f t="shared" si="1"/>
-        <v>202.66666666666666</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>384</v>
@@ -2498,47 +2540,47 @@
         <v>387</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>443</v>
+        <v>131</v>
       </c>
       <c r="G5" s="11">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>331</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>339</v>
+        <v>96</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K5" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L5" s="1">
-        <v>44410</v>
+        <v>44479</v>
       </c>
       <c r="M5" s="1">
-        <v>44418</v>
+        <v>44485</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O5" s="8">
         <f t="shared" si="1"/>
-        <v>37.5</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>384</v>
@@ -2547,194 +2589,194 @@
         <v>387</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>406</v>
+        <v>355</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="G6" s="11">
         <v>1985</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K6" s="2">
-        <v>308</v>
+        <v>184</v>
       </c>
       <c r="L6" s="1">
-        <v>44385</v>
+        <v>44475</v>
       </c>
       <c r="M6" s="1">
-        <v>44408</v>
+        <v>44478</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="O6" s="8">
         <f t="shared" si="1"/>
-        <v>13.391304347826088</v>
+        <v>61.333333333333336</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>384</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>402</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>437</v>
+        <v>117</v>
       </c>
       <c r="G7" s="11">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>331</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K7" s="2">
-        <v>263</v>
+        <v>480</v>
       </c>
       <c r="L7" s="1">
-        <v>44371</v>
+        <v>44437</v>
       </c>
       <c r="M7" s="1">
-        <v>44380</v>
+        <v>44466</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="O7" s="8">
         <f t="shared" si="1"/>
-        <v>29.222222222222221</v>
+        <v>16.551724137931036</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>384</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>103</v>
+        <v>446</v>
       </c>
       <c r="G8" s="11">
-        <v>1971</v>
+        <v>1978</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K8" s="2">
-        <v>111</v>
+        <v>608</v>
       </c>
       <c r="L8" s="1">
-        <v>44359</v>
+        <v>44430</v>
       </c>
       <c r="M8" s="1">
-        <v>44366</v>
+        <v>44433</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O8" s="8">
         <f t="shared" si="1"/>
-        <v>15.857142857142858</v>
+        <v>202.66666666666666</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>387</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>19</v>
+        <v>443</v>
       </c>
       <c r="G9" s="11">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="H9" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="2">
+        <v>300</v>
+      </c>
+      <c r="L9" s="1">
+        <v>44410</v>
+      </c>
+      <c r="M9" s="1">
+        <v>44418</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="2">
-        <v>332</v>
-      </c>
-      <c r="L9" s="1">
-        <v>44345</v>
-      </c>
-      <c r="M9" s="1">
-        <v>44353</v>
-      </c>
-      <c r="N9">
-        <f t="shared" ref="N9:N16" si="2">M9-L9</f>
-        <v>8</v>
-      </c>
       <c r="O9" s="8">
-        <f t="shared" ref="O9:O16" si="3">K9/N9</f>
-        <v>41.5</v>
+        <f t="shared" si="1"/>
+        <v>37.5</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>384</v>
@@ -2743,769 +2785,777 @@
         <v>387</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1985</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="2">
+        <v>308</v>
+      </c>
+      <c r="L10" s="1">
+        <v>44385</v>
+      </c>
+      <c r="M10" s="1">
+        <v>44408</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="O10" s="8">
+        <f t="shared" si="1"/>
+        <v>13.391304347826088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F11" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="G11" s="11">
+        <v>2018</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="2">
+        <v>263</v>
+      </c>
+      <c r="L11" s="1">
+        <v>44371</v>
+      </c>
+      <c r="M11" s="1">
+        <v>44380</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="O11" s="8">
+        <f t="shared" si="1"/>
+        <v>29.222222222222221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1971</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="2">
+        <v>111</v>
+      </c>
+      <c r="L12" s="1">
+        <v>44359</v>
+      </c>
+      <c r="M12" s="1">
+        <v>44366</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O12" s="8">
+        <f t="shared" si="1"/>
+        <v>15.857142857142858</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="11">
+        <v>2020</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="2">
+        <v>332</v>
+      </c>
+      <c r="L13" s="1">
+        <v>44345</v>
+      </c>
+      <c r="M13" s="1">
+        <v>44353</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ref="N13:N20" si="2">M13-L13</f>
+        <v>8</v>
+      </c>
+      <c r="O13" s="8">
+        <f t="shared" ref="O13:O20" si="3">K13/N13</f>
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G14" s="11">
         <v>2021</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H14" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="2">
+      <c r="J14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="2">
         <v>280</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L14" s="1">
         <v>44333</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M14" s="1">
         <v>44340</v>
       </c>
-      <c r="N10">
+      <c r="N14">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O14" s="8">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
+    <row r="15" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G15" s="11">
         <v>1964</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="2">
+      <c r="J15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="2">
         <v>400</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L15" s="1">
         <v>44307</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M15" s="1">
         <v>44329</v>
       </c>
-      <c r="N11">
+      <c r="N15">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O15" s="8">
         <f t="shared" si="3"/>
         <v>18.181818181818183</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
+    <row r="16" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F16" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G16" s="11">
         <v>1984</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K16" s="2">
         <v>142</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L16" s="1">
         <v>44303</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M16" s="1">
         <v>44305</v>
       </c>
-      <c r="N12">
+      <c r="N16">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O16" s="8">
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
+    <row r="17" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F17" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G17" s="11">
         <v>2019</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H17" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="2">
+      <c r="J17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="2">
         <v>264</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L17" s="1">
         <v>44296</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M17" s="1">
         <v>44302</v>
       </c>
-      <c r="N13">
+      <c r="N17">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O17" s="8">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
+    <row r="18" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G18" s="2">
         <v>1971</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K18" s="2">
         <v>692</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L18" s="1">
         <v>44280</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M18" s="1">
         <v>44291</v>
       </c>
-      <c r="N14">
+      <c r="N18">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O18" s="8">
         <f t="shared" si="3"/>
         <v>62.909090909090907</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
+    <row r="19" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G19" s="2">
         <v>2011</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="2">
+      <c r="J19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="2">
         <v>369</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L19" s="1">
         <v>44240</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M19" s="1">
         <v>44246</v>
       </c>
-      <c r="N15">
+      <c r="N19">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O19" s="8">
         <f t="shared" si="3"/>
         <v>61.5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
+    <row r="20" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G20" s="2">
         <v>2018</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K20" s="2">
         <v>401</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L20" s="1">
         <v>44227</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M20" s="1">
         <v>44240</v>
       </c>
-      <c r="N16">
+      <c r="N20">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O20" s="8">
         <f t="shared" si="3"/>
         <v>30.846153846153847</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
+    <row r="21" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G21" s="2">
         <v>1958</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="2">
+      <c r="J21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="2">
         <v>262</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L21" s="1">
         <v>44212</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M21" s="1">
         <v>44223</v>
       </c>
-      <c r="N17">
-        <f t="shared" ref="N17:N19" si="4">M17-L17</f>
+      <c r="N21">
+        <f t="shared" ref="N21:N23" si="4">M21-L21</f>
         <v>11</v>
       </c>
-      <c r="O17" s="8">
-        <f t="shared" ref="O17:O19" si="5">K17/N17</f>
+      <c r="O21" s="8">
+        <f t="shared" ref="O21:O23" si="5">K21/N21</f>
         <v>23.818181818181817</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
+    <row r="22" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G22" s="2">
         <v>1934</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K22" s="2">
         <v>217</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L22" s="1">
         <v>44207</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M22" s="1">
         <v>44212</v>
       </c>
-      <c r="N18">
+      <c r="N22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O22" s="8">
         <f t="shared" si="5"/>
         <v>43.4</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
+    <row r="23" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G23" s="2">
         <v>2013</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K23" s="2">
         <v>533</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L23" s="1">
         <v>44193</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M23" s="1">
         <v>44195</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O23" s="8">
         <f t="shared" si="5"/>
         <v>266.5</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
+    <row r="24" spans="1:15" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G24" s="2">
         <v>2020</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20" s="2">
+      <c r="J24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="2">
         <v>278</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L24" s="1">
         <v>44178</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M24" s="1">
         <v>44193</v>
-      </c>
-      <c r="N20">
-        <f>M20-L20</f>
-        <v>15</v>
-      </c>
-      <c r="O20" s="8">
-        <f>K20/N20</f>
-        <v>18.533333333333335</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="2">
-        <v>2006</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" t="s">
-        <v>330</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21">
-        <v>420</v>
-      </c>
-      <c r="L21" s="1">
-        <v>44163</v>
-      </c>
-      <c r="M21" s="1">
-        <v>44165</v>
-      </c>
-      <c r="N21">
-        <f>M21-L21</f>
-        <v>2</v>
-      </c>
-      <c r="O21" s="8">
-        <f t="shared" ref="O21:O84" si="6">K21/N21</f>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1983</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" t="s">
-        <v>369</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22">
-        <v>291</v>
-      </c>
-      <c r="L22" s="1">
-        <v>44156</v>
-      </c>
-      <c r="M22" s="1">
-        <v>44163</v>
-      </c>
-      <c r="N22">
-        <f t="shared" ref="N22:N85" si="7">M22-L22</f>
-        <v>7</v>
-      </c>
-      <c r="O22" s="8">
-        <f t="shared" si="6"/>
-        <v>41.571428571428569</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="2">
-        <v>2017</v>
-      </c>
-      <c r="H23" t="s">
-        <v>331</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K23">
-        <v>176</v>
-      </c>
-      <c r="L23" s="1">
-        <v>44150</v>
-      </c>
-      <c r="M23" s="1">
-        <v>44155</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="O23" s="8">
-        <f t="shared" si="6"/>
-        <v>35.200000000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="2">
-        <v>1980</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K24">
-        <v>502</v>
-      </c>
-      <c r="L24" s="1">
-        <v>44129</v>
-      </c>
-      <c r="M24" s="1">
-        <v>44142</v>
       </c>
       <c r="N24">
         <f>M24-L24</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" si="6"/>
-        <v>38.615384615384613</v>
+        <f>K24/N24</f>
+        <v>18.533333333333335</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>385</v>
+        <v>5</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G25" s="2">
-        <v>1938</v>
+        <v>2006</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>310</v>
+      <c r="I25" t="s">
+        <v>330</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K25">
-        <v>247</v>
+        <v>420</v>
       </c>
       <c r="L25" s="1">
-        <v>44114</v>
+        <v>44163</v>
       </c>
       <c r="M25" s="1">
-        <v>44129</v>
+        <v>44165</v>
       </c>
       <c r="N25">
-        <f t="shared" si="7"/>
-        <v>15</v>
+        <f>M25-L25</f>
+        <v>2</v>
       </c>
       <c r="O25" s="8">
-        <f t="shared" si="6"/>
-        <v>16.466666666666665</v>
+        <f t="shared" ref="O25:O88" si="6">K25/N25</f>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>11</v>
@@ -3521,746 +3571,746 @@
         <v>12</v>
       </c>
       <c r="G26" s="2">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" t="s">
+        <v>369</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26">
+        <v>291</v>
+      </c>
+      <c r="L26" s="1">
+        <v>44156</v>
+      </c>
+      <c r="M26" s="1">
+        <v>44163</v>
+      </c>
+      <c r="N26">
+        <f t="shared" ref="N26:N89" si="7">M26-L26</f>
+        <v>7</v>
+      </c>
+      <c r="O26" s="8">
+        <f t="shared" si="6"/>
+        <v>41.571428571428569</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="2">
+        <v>2017</v>
+      </c>
+      <c r="H27" t="s">
+        <v>331</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27">
+        <v>176</v>
+      </c>
+      <c r="L27" s="1">
+        <v>44150</v>
+      </c>
+      <c r="M27" s="1">
+        <v>44155</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="O27" s="8">
+        <f t="shared" si="6"/>
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1980</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28">
+        <v>502</v>
+      </c>
+      <c r="L28" s="1">
+        <v>44129</v>
+      </c>
+      <c r="M28" s="1">
+        <v>44142</v>
+      </c>
+      <c r="N28">
+        <f>M28-L28</f>
+        <v>13</v>
+      </c>
+      <c r="O28" s="8">
+        <f t="shared" si="6"/>
+        <v>38.615384615384613</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1938</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29">
+        <v>247</v>
+      </c>
+      <c r="L29" s="1">
+        <v>44114</v>
+      </c>
+      <c r="M29" s="1">
+        <v>44129</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="O29" s="8">
+        <f t="shared" si="6"/>
+        <v>16.466666666666665</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1981</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K26">
+      <c r="J30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30">
         <v>225</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L30" s="1">
         <v>43931</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M30" s="1">
         <v>44053</v>
       </c>
-      <c r="N26">
+      <c r="N30">
         <f t="shared" si="7"/>
         <v>122</v>
       </c>
-      <c r="O26" s="8">
+      <c r="O30" s="8">
         <f t="shared" si="6"/>
         <v>1.8442622950819672</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G31" s="2">
         <v>1865</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K27">
+      <c r="K31">
         <v>826</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L31" s="1">
         <v>43930</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M31" s="1">
         <v>44021</v>
       </c>
-      <c r="N27">
+      <c r="N31">
         <f t="shared" si="7"/>
         <v>91</v>
       </c>
-      <c r="O27" s="8">
+      <c r="O31" s="8">
         <f t="shared" si="6"/>
         <v>9.0769230769230766</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G32" s="2">
         <v>1988</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K28">
+      <c r="J32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32">
         <v>368</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L32" s="1">
         <v>44052</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M32" s="1">
         <v>44077</v>
       </c>
-      <c r="N28">
+      <c r="N32">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="O28" s="8">
+      <c r="O32" s="8">
         <f t="shared" si="6"/>
         <v>14.72</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2" t="s">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G33" s="2">
         <v>1951</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K29">
+      <c r="J33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33">
         <v>54</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L33" s="1">
         <v>43838</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M33" s="1">
         <v>43990</v>
       </c>
-      <c r="N29">
+      <c r="N33">
         <f t="shared" si="7"/>
         <v>152</v>
       </c>
-      <c r="O29" s="8">
+      <c r="O33" s="8">
         <f t="shared" si="6"/>
         <v>0.35526315789473684</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2" t="s">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G34" s="2">
         <v>1979</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K30">
+      <c r="J34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34">
         <v>179</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L34" s="1">
         <v>44020</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M34" s="1">
         <v>44082</v>
       </c>
-      <c r="N30">
+      <c r="N34">
         <f t="shared" si="7"/>
         <v>62</v>
       </c>
-      <c r="O30" s="8">
+      <c r="O34" s="8">
         <f t="shared" si="6"/>
         <v>2.8870967741935485</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
+      <c r="E35" s="2"/>
+      <c r="F35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G35" s="2">
         <v>1982</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K31">
+      <c r="J35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35">
         <v>299</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L35" s="1">
         <v>44037</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M35" s="1">
         <v>44039</v>
       </c>
-      <c r="N31">
+      <c r="N35">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="O31" s="8">
+      <c r="O35" s="8">
         <f t="shared" si="6"/>
         <v>149.5</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
+      <c r="E36" s="2"/>
+      <c r="F36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G36" s="2">
         <v>1964</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K32">
+      <c r="J36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36">
         <v>336</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L36" s="1">
         <v>44032</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M36" s="1">
         <v>44034</v>
       </c>
-      <c r="N32">
+      <c r="N36">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="O32" s="8">
+      <c r="O36" s="8">
         <f t="shared" si="6"/>
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2" t="s">
+      <c r="E37" s="2"/>
+      <c r="F37" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G37" s="2">
         <v>2018</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K33">
+      <c r="J37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37">
         <v>256</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L37" s="1">
         <v>44023</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M37" s="1">
         <v>44030</v>
       </c>
-      <c r="N33">
+      <c r="N37">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="O33" s="8">
+      <c r="O37" s="8">
         <f t="shared" si="6"/>
         <v>36.571428571428569</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
+      <c r="E38" s="2"/>
+      <c r="F38" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G38" s="2">
         <v>1965</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K34">
+      <c r="J38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38">
         <v>320</v>
       </c>
-      <c r="L34" s="1">
+      <c r="L38" s="1">
         <v>44018</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M38" s="1">
         <v>44023</v>
       </c>
-      <c r="N34">
+      <c r="N38">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="O34" s="8">
+      <c r="O38" s="8">
         <f t="shared" si="6"/>
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2" t="s">
+      <c r="E39" s="2"/>
+      <c r="F39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G39" s="2">
         <v>2005</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K35">
+      <c r="J39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39">
         <v>465</v>
       </c>
-      <c r="L35" s="1">
+      <c r="L39" s="1">
         <v>44004</v>
       </c>
-      <c r="M35" s="1">
+      <c r="M39" s="1">
         <v>44017</v>
       </c>
-      <c r="N35">
+      <c r="N39">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="O35" s="8">
+      <c r="O39" s="8">
         <f t="shared" si="6"/>
         <v>35.769230769230766</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2" t="s">
+      <c r="E40" s="2"/>
+      <c r="F40" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G40" s="2">
         <v>1930</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K36">
+      <c r="J40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40">
         <v>240</v>
       </c>
-      <c r="L36" s="1">
+      <c r="L40" s="1">
         <v>43995</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M40" s="1">
         <v>44002</v>
       </c>
-      <c r="N36">
+      <c r="N40">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="O36" s="8">
+      <c r="O40" s="8">
         <f t="shared" si="6"/>
         <v>34.285714285714285</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2" t="s">
+      <c r="E41" s="2"/>
+      <c r="F41" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I41" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K37">
+      <c r="J41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41">
         <v>618</v>
       </c>
-      <c r="L37" s="1">
+      <c r="L41" s="1">
         <v>43927</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M41" s="1">
         <v>44110</v>
       </c>
-      <c r="N37">
+      <c r="N41">
         <f t="shared" si="7"/>
         <v>183</v>
       </c>
-      <c r="O37" s="8">
+      <c r="O41" s="8">
         <f t="shared" si="6"/>
         <v>3.377049180327869</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G38" s="2">
-        <v>1939</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K38">
-        <v>250</v>
-      </c>
-      <c r="L38" s="1">
-        <v>43982</v>
-      </c>
-      <c r="M38" s="1">
-        <v>43984</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="O38" s="8">
-        <f t="shared" si="6"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" s="2">
-        <v>2020</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K39">
-        <v>336</v>
-      </c>
-      <c r="L39" s="1">
-        <v>43975</v>
-      </c>
-      <c r="M39" s="1">
-        <v>43977</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="O39" s="8">
-        <f t="shared" si="6"/>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G40" s="2">
-        <v>1966</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K40">
-        <v>284</v>
-      </c>
-      <c r="L40" s="1">
-        <v>43968</v>
-      </c>
-      <c r="M40" s="1">
-        <v>43973</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="O40" s="8">
-        <f t="shared" si="6"/>
-        <v>56.8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G41" s="2">
-        <v>2018</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K41">
-        <v>320</v>
-      </c>
-      <c r="L41" s="1">
-        <v>43964</v>
-      </c>
-      <c r="M41" s="1">
-        <v>43965</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O41" s="8">
-        <f t="shared" si="6"/>
-        <v>320</v>
-      </c>
-    </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>384</v>
@@ -4270,28 +4320,28 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G42" s="2">
-        <v>1966</v>
+        <v>1939</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K42">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="L42" s="1">
-        <v>43962</v>
+        <v>43982</v>
       </c>
       <c r="M42" s="1">
-        <v>43964</v>
+        <v>43984</v>
       </c>
       <c r="N42">
         <f t="shared" si="7"/>
@@ -4299,93 +4349,93 @@
       </c>
       <c r="O42" s="8">
         <f t="shared" si="6"/>
-        <v>63</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G43" s="2">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>96</v>
+        <v>348</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K43">
-        <v>513</v>
+        <v>336</v>
       </c>
       <c r="L43" s="1">
-        <v>43947</v>
+        <v>43975</v>
       </c>
       <c r="M43" s="1">
-        <v>43956</v>
+        <v>43977</v>
       </c>
       <c r="N43">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O43" s="8">
         <f t="shared" si="6"/>
-        <v>57</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>375</v>
+        <v>56</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>376</v>
+        <v>57</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="G44" s="2">
-        <v>2019</v>
+        <v>1966</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K44">
-        <v>646</v>
+        <v>284</v>
       </c>
       <c r="L44" s="1">
-        <v>43942</v>
+        <v>43968</v>
       </c>
       <c r="M44" s="1">
-        <v>43947</v>
+        <v>43973</v>
       </c>
       <c r="N44">
         <f t="shared" si="7"/>
@@ -4393,15 +4443,15 @@
       </c>
       <c r="O44" s="8">
         <f t="shared" si="6"/>
-        <v>129.19999999999999</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>384</v>
@@ -4411,57 +4461,57 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G45" s="2">
-        <v>1961</v>
+        <v>2018</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>369</v>
+        <v>58</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K45">
-        <v>568</v>
+        <v>320</v>
       </c>
       <c r="L45" s="1">
-        <v>43927</v>
+        <v>43964</v>
       </c>
       <c r="M45" s="1">
-        <v>43941</v>
+        <v>43965</v>
       </c>
       <c r="N45">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="O45" s="8">
         <f t="shared" si="6"/>
-        <v>40.571428571428569</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>374</v>
+        <v>63</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="G46" s="2">
-        <v>1929</v>
+        <v>1966</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>8</v>
@@ -4473,123 +4523,123 @@
         <v>9</v>
       </c>
       <c r="K46">
-        <v>299</v>
+        <v>126</v>
       </c>
       <c r="L46" s="1">
-        <v>43919</v>
+        <v>43962</v>
       </c>
       <c r="M46" s="1">
-        <v>43926</v>
+        <v>43964</v>
       </c>
       <c r="N46">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O46" s="8">
         <f t="shared" si="6"/>
-        <v>42.714285714285715</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>20</v>
+        <v>393</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="G47" s="2">
-        <v>1844</v>
+        <v>2017</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>332</v>
+        <v>96</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K47">
-        <v>1180</v>
+        <v>513</v>
       </c>
       <c r="L47" s="1">
-        <v>43839</v>
+        <v>43947</v>
       </c>
       <c r="M47" s="1">
-        <v>43884</v>
+        <v>43956</v>
       </c>
       <c r="N47">
         <f t="shared" si="7"/>
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="O47" s="8">
         <f t="shared" si="6"/>
-        <v>26.222222222222221</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>75</v>
+        <v>375</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>76</v>
+        <v>376</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G48" s="2">
-        <v>1979</v>
+        <v>2019</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>340</v>
+        <v>49</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K48">
-        <v>567</v>
+        <v>646</v>
       </c>
       <c r="L48" s="1">
-        <v>43814</v>
+        <v>43942</v>
       </c>
       <c r="M48" s="1">
-        <v>43891</v>
+        <v>43947</v>
       </c>
       <c r="N48">
         <f t="shared" si="7"/>
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="O48" s="8">
         <f t="shared" si="6"/>
-        <v>7.3636363636363633</v>
+        <v>129.19999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>384</v>
@@ -4599,285 +4649,289 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="G49" s="2">
-        <v>2019</v>
+        <v>1961</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K49">
-        <v>408</v>
+        <v>568</v>
       </c>
       <c r="L49" s="1">
-        <v>43834</v>
+        <v>43927</v>
       </c>
       <c r="M49" s="1">
-        <v>43836</v>
+        <v>43941</v>
       </c>
       <c r="N49">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O49" s="8">
         <f t="shared" si="6"/>
-        <v>204</v>
+        <v>40.571428571428569</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>82</v>
+        <v>374</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="G50" s="2">
-        <v>1957</v>
+        <v>1929</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K50">
-        <v>170</v>
+        <v>299</v>
       </c>
       <c r="L50" s="1">
-        <v>43801</v>
+        <v>43919</v>
       </c>
       <c r="M50" s="1">
-        <v>43807</v>
+        <v>43926</v>
       </c>
       <c r="N50">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O50" s="8">
         <f t="shared" si="6"/>
-        <v>28.333333333333332</v>
+        <v>42.714285714285715</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="G51" s="2">
-        <v>2018</v>
+        <v>1844</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>58</v>
+        <v>332</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K51">
-        <v>319</v>
+        <v>1180</v>
       </c>
       <c r="L51" s="1">
-        <v>43799</v>
+        <v>43839</v>
       </c>
       <c r="M51" s="1">
-        <v>43800</v>
+        <v>43884</v>
       </c>
       <c r="N51">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="O51" s="8">
         <f t="shared" si="6"/>
-        <v>319</v>
+        <v>26.222222222222221</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G52" s="2">
-        <v>2018</v>
+        <v>1979</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K52">
-        <v>400</v>
+        <v>567</v>
       </c>
       <c r="L52" s="1">
-        <v>43780</v>
+        <v>43814</v>
       </c>
       <c r="M52" s="1">
-        <v>43788</v>
+        <v>43891</v>
       </c>
       <c r="N52">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="O52" s="8">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>7.3636363636363633</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>358</v>
+        <v>80</v>
       </c>
       <c r="G53" s="2">
-        <v>1993</v>
+        <v>2019</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K53">
-        <v>355</v>
+        <v>408</v>
       </c>
       <c r="L53" s="1">
-        <v>43762</v>
+        <v>43834</v>
       </c>
       <c r="M53" s="1">
-        <v>43773</v>
+        <v>43836</v>
       </c>
       <c r="N53">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="O53" s="8">
         <f t="shared" si="6"/>
-        <v>32.272727272727273</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="G54" s="2">
-        <v>1818</v>
+        <v>1957</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K54">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="L54" s="1">
-        <v>43752</v>
+        <v>43801</v>
       </c>
       <c r="M54" s="1">
-        <v>43759</v>
+        <v>43807</v>
       </c>
       <c r="N54">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O54" s="8">
         <f t="shared" si="6"/>
-        <v>34.285714285714285</v>
+        <v>28.333333333333332</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G55" s="2">
         <v>2018</v>
@@ -4886,113 +4940,109 @@
         <v>331</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K55">
-        <v>272</v>
+        <v>319</v>
       </c>
       <c r="L55" s="1">
-        <v>43743</v>
+        <v>43799</v>
       </c>
       <c r="M55" s="1">
-        <v>43749</v>
+        <v>43800</v>
       </c>
       <c r="N55">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O55" s="8">
         <f t="shared" si="6"/>
-        <v>45.333333333333336</v>
+        <v>319</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>387</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="G56" s="2">
-        <v>1866</v>
+        <v>2018</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K56">
-        <v>528</v>
+        <v>400</v>
       </c>
       <c r="L56" s="1">
-        <v>43715</v>
+        <v>43780</v>
       </c>
       <c r="M56" s="1">
-        <v>43741</v>
+        <v>43788</v>
       </c>
       <c r="N56">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="O56" s="8">
         <f t="shared" si="6"/>
-        <v>20.307692307692307</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>359</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
-        <v>100</v>
+        <v>358</v>
       </c>
       <c r="G57" s="2">
-        <v>1970</v>
+        <v>1993</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K57">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="L57" s="1">
-        <v>43697</v>
+        <v>43762</v>
       </c>
       <c r="M57" s="1">
-        <v>43708</v>
+        <v>43773</v>
       </c>
       <c r="N57">
         <f t="shared" si="7"/>
@@ -5000,122 +5050,122 @@
       </c>
       <c r="O57" s="8">
         <f t="shared" si="6"/>
-        <v>31.636363636363637</v>
+        <v>32.272727272727273</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="G58" s="2">
-        <v>1972</v>
+        <v>1818</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K58">
-        <v>416</v>
+        <v>240</v>
       </c>
       <c r="L58" s="1">
-        <v>43680</v>
+        <v>43752</v>
       </c>
       <c r="M58" s="1">
-        <v>43692</v>
+        <v>43759</v>
       </c>
       <c r="N58">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O58" s="8">
         <f t="shared" si="6"/>
-        <v>34.666666666666664</v>
+        <v>34.285714285714285</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G59" s="2">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>336</v>
+        <v>96</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K59">
-        <v>463</v>
+        <v>272</v>
       </c>
       <c r="L59" s="1">
-        <v>43663</v>
+        <v>43743</v>
       </c>
       <c r="M59" s="1">
-        <v>43677</v>
+        <v>43749</v>
       </c>
       <c r="N59">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="O59" s="8">
         <f t="shared" si="6"/>
-        <v>33.071428571428569</v>
+        <v>45.333333333333336</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
-        <v>248</v>
+        <v>99</v>
       </c>
       <c r="G60" s="2">
-        <v>1965</v>
+        <v>1866</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>8</v>
@@ -5127,29 +5177,29 @@
         <v>9</v>
       </c>
       <c r="K60">
-        <v>256</v>
+        <v>528</v>
       </c>
       <c r="L60" s="1">
-        <v>43640</v>
+        <v>43715</v>
       </c>
       <c r="M60" s="1">
-        <v>43659</v>
+        <v>43741</v>
       </c>
       <c r="N60">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="O60" s="8">
         <f t="shared" si="6"/>
-        <v>13.473684210526315</v>
+        <v>20.307692307692307</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>108</v>
+        <v>359</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>384</v>
@@ -5159,417 +5209,423 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="G61" s="2">
-        <v>1997</v>
+        <v>1970</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K61">
-        <v>423</v>
+        <v>348</v>
       </c>
       <c r="L61" s="1">
-        <v>43618</v>
+        <v>43697</v>
       </c>
       <c r="M61" s="1">
-        <v>43636</v>
+        <v>43708</v>
       </c>
       <c r="N61">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="O61" s="8">
         <f t="shared" si="6"/>
-        <v>23.5</v>
+        <v>31.636363636363637</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>360</v>
+        <v>103</v>
       </c>
       <c r="G62" s="2">
-        <v>2018</v>
+        <v>1972</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K62">
-        <v>341</v>
+        <v>416</v>
       </c>
       <c r="L62" s="1">
-        <v>43616</v>
+        <v>43680</v>
       </c>
       <c r="M62" s="1">
-        <v>43617</v>
+        <v>43692</v>
       </c>
       <c r="N62">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O62" s="8">
         <f t="shared" si="6"/>
-        <v>341</v>
+        <v>34.666666666666664</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="G63" s="2">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K63">
-        <v>610</v>
+        <v>463</v>
       </c>
       <c r="L63" s="1">
-        <v>43596</v>
+        <v>43663</v>
       </c>
       <c r="M63" s="1">
-        <v>43606</v>
+        <v>43677</v>
       </c>
       <c r="N63">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O63" s="8">
         <f t="shared" si="6"/>
-        <v>61</v>
+        <v>33.071428571428569</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>361</v>
+        <v>106</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>358</v>
+        <v>248</v>
       </c>
       <c r="G64" s="2">
-        <v>1984</v>
+        <v>1965</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>49</v>
+        <v>339</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K64">
-        <v>352</v>
+        <v>256</v>
       </c>
       <c r="L64" s="1">
-        <v>43589</v>
+        <v>43640</v>
       </c>
       <c r="M64" s="1">
-        <v>43594</v>
+        <v>43659</v>
       </c>
       <c r="N64">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="O64" s="8">
         <f t="shared" si="6"/>
-        <v>70.400000000000006</v>
+        <v>13.473684210526315</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="G65" s="2">
-        <v>2014</v>
+        <v>1997</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K65">
-        <v>288</v>
+        <v>423</v>
       </c>
       <c r="L65" s="1">
-        <v>43578</v>
+        <v>43618</v>
       </c>
       <c r="M65" s="1">
-        <v>43588</v>
+        <v>43636</v>
       </c>
       <c r="N65">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O65" s="8">
         <f t="shared" si="6"/>
-        <v>28.8</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="G66" s="2">
-        <v>1876</v>
+        <v>2018</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K66">
-        <v>236</v>
+        <v>341</v>
       </c>
       <c r="L66" s="1">
-        <v>43041</v>
+        <v>43616</v>
       </c>
       <c r="M66" s="1">
-        <v>43048</v>
+        <v>43617</v>
       </c>
       <c r="N66">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O66" s="8">
         <f t="shared" si="6"/>
-        <v>33.714285714285715</v>
+        <v>341</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>354</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="G67" s="2">
-        <v>1813</v>
+        <v>2003</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K67">
-        <v>414</v>
+        <v>610</v>
       </c>
       <c r="L67" s="1">
-        <v>42875</v>
+        <v>43596</v>
       </c>
       <c r="M67" s="1">
-        <v>42881</v>
+        <v>43606</v>
       </c>
       <c r="N67">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O67" s="8">
         <f t="shared" si="6"/>
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>123</v>
+        <v>361</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>20</v>
+        <v>383</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>125</v>
+        <v>358</v>
       </c>
       <c r="G68" s="2">
-        <v>1869</v>
+        <v>1984</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K68">
-        <v>999</v>
+        <v>352</v>
+      </c>
+      <c r="L68" s="1">
+        <v>43589</v>
+      </c>
+      <c r="M68" s="1">
+        <v>43594</v>
       </c>
       <c r="N68">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O68" s="8" t="e">
+        <v>5</v>
+      </c>
+      <c r="O68" s="8">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>70.400000000000006</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>372</v>
+        <v>115</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>373</v>
+        <v>116</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G69" s="2">
-        <v>1928</v>
+        <v>2014</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>49</v>
+        <v>336</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K69">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="L69" s="1">
-        <v>42675</v>
+        <v>43578</v>
       </c>
       <c r="M69" s="1">
-        <v>42682</v>
+        <v>43588</v>
       </c>
       <c r="N69">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O69" s="8">
         <f t="shared" si="6"/>
-        <v>46.142857142857146</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="70" 